--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
   <si>
     <t>id</t>
   </si>
@@ -1272,6 +1272,150 @@
   </si>
   <si>
     <t>You have heard of the stories of becoming invisible, slipping through the land and the buildings, past the people in the shadows.&lt;br /&gt; &lt;br /&gt; You have come no closer to any answers that might be able to point you in the right direction towards the truth of The Creator, but after all these years, you might have some inclination as to how he got here. Blood stained and broken, suicide.&lt;br /&gt; &lt;br /&gt; You cannot confirm or deny the truth, even if it is not the truth, it feels like truth. He slips around these lands invisible to the people. To those seeking him out, seeking out his truth and seeking out their own.&lt;br /&gt; &lt;br /&gt; You leave the items on the ground and the shadows form around them, clawing at the items, but they soon dissipate leaving you with no one to talk to and a single cloak on the ground.&lt;br /&gt; &lt;br /&gt; No closer to the answers, but invisible to those who hunt you now.</t>
+  </si>
+  <si>
+    <t>Pirates and Merchants</t>
+  </si>
+  <si>
+    <t>The Smugglers Are Back!</t>
+  </si>
+  <si>
+    <t>Stolen Coin</t>
+  </si>
+  <si>
+    <t>“Listen child, have you heard the story of the Pirates and the Merchants?” The Soldier began. The two of you sat together in an INN not far from the docs.&lt;br /&gt; &lt;br /&gt; “There was a time this place, Smugglers Port was run by Pirates. There were merchants that roamed the land in caravans and even a few dared to venture into the walls of the then pirate run city of ramshackle huts and whore houses.”&lt;br /&gt; &lt;br /&gt; He paused to take a gander out the window the two of you sat in front of at a table, drinking ale and eating various meats.&lt;br /&gt; &lt;br /&gt; “It is said that one the merchants who came into the city, stole from the Pirate Lord who now roams the lands looking for the lost item – which then started a war. The specifics of what it was that was stolen alludes me, maybe it was a coin?”</t>
+  </si>
+  <si>
+    <t>You slaughtered the foes before you, and in the blood soaked ground, buried slightly under the upturned soil of a fight, lies a glimmering shiny object. You pull it out and clean it off, it’s a coin. Maybe the same one The Soldier was talking about.&lt;br /&gt; &lt;br /&gt; Before your eyes, a flash of light, a vision of sorts, a story unfolds, a drunkard stands in the alley pissing on a wall.&lt;br /&gt; &lt;br /&gt; You know the face, familiar.&lt;br /&gt; &lt;br /&gt; The man finishes and heads deeper into the alley. You follow down the long dark alley, deeper into the shadows. Another man.&lt;br /&gt; &lt;br /&gt; The two men embrace in a lovers passionate kiss in the shadows of the alley.&lt;br /&gt; &lt;br /&gt; “Child!” You open your eyes and see the Soldier Standing over you.&lt;br /&gt; &lt;br /&gt; “Whats that in your hand?”</t>
+  </si>
+  <si>
+    <t>Trade Ya</t>
+  </si>
+  <si>
+    <t>ThePoet</t>
+  </si>
+  <si>
+    <t>Smugglers Coin</t>
+  </si>
+  <si>
+    <t>Pirates Lost Key</t>
+  </si>
+  <si>
+    <t>“You spent a week staring at this coin, wondering what it means. The dream or vision plays secondary on your mind. You play it out, the familiarity of the face, but you could not place it.”&lt;br /&gt; &lt;br /&gt; You go searching for The Poet, thinking he might know more. He is wise after all, had something to do with The Creator.&lt;br /&gt; &lt;br /&gt; “I am unsure I know the story you speak of child,” The Poet states as you managed to track him down at the local market and chat him up about the coin and what The Soldier told you.&lt;br /&gt; &lt;br /&gt; “I do know a war between the Pirates and the Merchants did take place and that’s why Smugglers Port is run by the High Merchant Council.”&lt;br /&gt; &lt;br /&gt; The two of you continue to walk through the market place talking more about the war. He studies the coin you found and states he saw one just like it a while ago that the Drunk Adventurer had in his possession and would break about how he fund a coin for his lover in the dungeons of despair.</t>
+  </si>
+  <si>
+    <t>Hacking, slashing, burning through the foes before you, they fall one after the other. You see another coin in the mud and pick it up. This one seems similar to the other one. Holding it gives you the feelings of love, undeniable, lustful and shameless provocative love.&lt;br /&gt; &lt;br /&gt; You can see the INN room, the bodies writhing to the rhythm of their own fast beating heart beats. You can see the shadows dance the dance of love under the night sky, kept alive only by a single burning flame.&lt;br /&gt; You snap back to reality. Why are you visiting these two people while they are acting like dogs in heat? What does it have to do with the coins?&lt;br /&gt; &lt;br /&gt; “I shall take that child.”&lt;br /&gt; &lt;br /&gt; Take the coin? Why? You are the one that found them. You want the other one back.&lt;br /&gt; &lt;br /&gt; “There is a magic in those coins. A curse. A vision of the past. One coin is the other and the other is the pirates coin.”&lt;br /&gt; Is it that simple? A merchant and a pirate? A war over love?</t>
+  </si>
+  <si>
+    <t>Keys to the past</t>
+  </si>
+  <si>
+    <t>LabyrinthOracle</t>
+  </si>
+  <si>
+    <t>Corrupted Bracelet</t>
+  </si>
+  <si>
+    <t>You walk for days through the mazes of the Labyrinth plane. You see out the oracle for the answers to your questions. The Key, it wont stop showing you the images of death. Of war, of pain and suffering. You feel the projected emotional pain of the killer.&lt;br /&gt; &lt;br /&gt; Yet he turns around and fucks his lover with passion, with love, with vigor. Blood stains his body, his hands, his lips. Is his lover none the wiser?&lt;br /&gt; &lt;br /&gt; “I see you wondering around in the labyrinth of your own mind child.” A voice comes. The oracle stands before you.&lt;br /&gt; &lt;br /&gt; “You seek to rid your self of the cure of the truth are you?” You ask her, beg of her anything she can do. Explain this. Why?!&lt;br /&gt; &lt;br /&gt; “Hush child as I tell you of love, war and sacrifice. The short of it is simple: The Pirate Lord has a child, this child grew to love another child. A child of a powerful Merchant. Love is complicated, fickle and finicky. Love is raw and passionate and unending. Love has no master, no will to bend.”&lt;br /&gt; &lt;br /&gt; The Oracle pauses and takes the key from your hand.&lt;br /&gt; &lt;br /&gt; “Child, the voices are gone, but you have more answers to find.”&lt;br /&gt; &lt;br /&gt; It seems pretty obvious that this is nothing more then forbidden love and that wars have been technically fought for less.&lt;br /&gt; &lt;br /&gt; How ever what you find upon your arm now gives you a glimpse of tomorrow.</t>
+  </si>
+  <si>
+    <t>There is a scream from the tent, pain, agony, blood curdling scream.&lt;br /&gt; &lt;br /&gt; He races towards the tent, only to find his lover’s body broken and scattered. The blood covers the walls of the tent, all he can do is scream in terror.&lt;br /&gt; &lt;br /&gt; You see the camp burn, you see the men on horses race through, race by and stick their swords in anything that moved. There eyes are as blue as the day is bright. Their faces are familiar. They are not Red Hawks. Something about the Sky Judges.&lt;br /&gt; &lt;br /&gt; Your mind wonders to fall and you wind up back in reality with a man staring at you. The Merchant.</t>
+  </si>
+  <si>
+    <t>Loves is an after thought</t>
+  </si>
+  <si>
+    <t>Shade Dust</t>
+  </si>
+  <si>
+    <t>“Hello child. Fancy seeing you again. I have a favor to ask you.” You stare at him for a moment. He is no longer old and haggard. He is young and handsome.&lt;br /&gt; &lt;br /&gt; You bluntly ask him if he is the pirates lover and in so doing you realize what you have asked and cover your mouth as quickly as possible, embarrassed and ashamed.&lt;br /&gt; &lt;br /&gt; “No Child I am not the lover of this Pirate you seek. Alas he is slaughtering people in Smuggler Port. It sort of makes sense, given the fact that his lover was murdered. Now do I look dead?”&lt;br /&gt; &lt;br /&gt; You tell him no and that he doesn’t look old and haggard either.&lt;br /&gt; &lt;br /&gt; “Cosmic beings beyond your pay grade rarely do.”&lt;br /&gt; &lt;br /&gt; You stare at him. So many answers.&lt;br /&gt; &lt;br /&gt; “Listen to me. I need you to get his lovers dust, also known as Shade Dust. If I mix it with the corrupted bracelet I can create a portal to the past, for a brief moment in time the answer might be made clear, but not in the way you might expect.”&lt;br /&gt; &lt;br /&gt; Great more riddles. Riddles do lead to answers though.</t>
+  </si>
+  <si>
+    <t>You have the dust of the shade known as the lover. The merchant. This story is confusing, there is love, there is death, there is no reason though. It seems like a senseless war over the death of a pirate lords son, which in it’s self is technically a reason to start a war, but both sides knew a free form expression of love was not tolerated under their then ruler: The Federation.&lt;br /&gt; &lt;br /&gt; The One True God, the Creator of all that there is forbid it. The Children were beaten for it, the lovers were persecuted, they were slaughtered before the people. The Church.&lt;br /&gt; You hand the dust and the bracelet over to The Merchant and he concocts a spell that opens a portal before your eyes.&lt;br /&gt; &lt;br /&gt; “A brief moment child. Step through now.”&lt;br /&gt; &lt;br /&gt; You walk into the portal, it glows, it closes and you can see the truth before you. The answers lie with in your eye sight. The death that rained down on the camp, the war that was started for love, cliche as it is, was never started by any one other then those seeking retribution.&lt;br /&gt; &lt;br /&gt; You stand before Rhe Merchant once more and he states you know what you have to do.</t>
+  </si>
+  <si>
+    <t>It Was All A Lie</t>
+  </si>
+  <si>
+    <t>Scholars Necklace</t>
+  </si>
+  <si>
+    <t>The Quartermasters Severed Head</t>
+  </si>
+  <si>
+    <t>You went searching and you found him. Standing at the end of a lake in Hell. The Scholar.&lt;br /&gt; &lt;br /&gt; You beckoned to him and he turned and smiled with a wicked grin.&lt;br /&gt; &lt;br /&gt; You approach him and come closer, but he Is demonic in nature and slips in to the burning fires of the lake before him. His flesh melts off and his bones turn to dust.&lt;br /&gt; Before you stands a empty open chest.</t>
+  </si>
+  <si>
+    <t>You managed to figure it out. The Quarter master is the one who tipped them off, he is the one who said they would make a perfect target to start a war, one that would ultimately draw The Church in. The set of individual who come to the aid of The Merchants and push these savages out of town.&lt;br /&gt; &lt;br /&gt; The question that remained was why? Why turn on your own?&lt;br /&gt; &lt;br /&gt; “Because the strike was never meant for the merchant lover child. I thought you would have gathered as much by now.”&lt;br /&gt; &lt;br /&gt; Never meant for the merchant, it was meant for the son, it was designed as a trojan horse with out being one. But it back fired. The war still happened, it was still bloody, and they came, and helped. They slaughtered The Pirates.&lt;br /&gt; &lt;br /&gt; The Church did come, the soldiers of God wanted to burn the city to the ground, but when they showed up, it was a blood bath. They who went along with this plan.&lt;br /&gt; &lt;br /&gt; Why when The Creator was apart of their squad? Why when he had his own love story end in tragedy? Was this what corrupted The Creator, turned him into an entity unknown, although all powerful? A wrathful and angry child?</t>
+  </si>
+  <si>
+    <t>The Creator and The Hawks</t>
+  </si>
+  <si>
+    <t>Simple Gem Necklace</t>
+  </si>
+  <si>
+    <t>Merchants Walking Stick</t>
+  </si>
+  <si>
+    <t>You remembered a story once told told to you by the Scholar him self. A story of how The Creator escaped Purgatory but Ascended with rage and anger and became a manifestation of evil. Of pain, sorrow and hatred that filled his very being. It was sad really, if that was indeed the case, because of how at the end of the day this “being of immense power” is nothing more then a broken heart ed man with self inflected wounds and a love he cannot let go of.&lt;br /&gt; &lt;br /&gt; The Chest stands empty once again.</t>
+  </si>
+  <si>
+    <t>You place the items in the chest and stand before the burning lake watching and waiting for any sign of the Scholar.&lt;br /&gt; A voice that whispers to your thoughts haunts and taunts you with its soft and supple words.&lt;br /&gt; &lt;br /&gt; “The Red Hawks”&lt;br /&gt; &lt;br /&gt; An organization which fought against The Federation and the Church. An organization that liberated and freed the oppressed people of the North. They have freed lands never before seen before. The Child was found by them, guided by them under the instruction of The Poet.&lt;br /&gt; &lt;br /&gt; They initiated the attack, they had the wrong target, they had … the wrong target. That's what started the war but the fact that they would kill one of the people they wanted to liberated from the oppression of The Church is what shakes you. They sacrificed people.&lt;br /&gt; &lt;br /&gt; “Oh grow up child” the Merchant stands before you.</t>
+  </si>
+  <si>
+    <t>The Creators Choice</t>
+  </si>
+  <si>
+    <t>“You need to realize the world is a much more complicated one then the fantasy you got cooking up in your head.”&lt;br /&gt; &lt;br /&gt; The Merchant pauses and walks over to a rock. The world of the surface is back in your view. The trees are lush and green and the sky is blue and clear.&lt;br /&gt; “Death was needed for the war to advance in the direction that it destined to go in.”&lt;br /&gt; &lt;br /&gt; Destined to go in?&lt;br /&gt; &lt;br /&gt; “My walking stick child!”</t>
+  </si>
+  <si>
+    <t>He leans upon the stick, He is old again, haggard and worn out. He walks slowly back to the rock where he sits for a moment before continuing on.&lt;br /&gt; &lt;br /&gt; “The Creator, or as we knew him: The Child, had learned something. His parents were alive. When things had started to get complicated, we intervened in the redirecting of the souls of his then deceased parents towards where you are now. You remember them. They were your parents.”&lt;br /&gt; &lt;br /&gt; He pauses and before you can really take in his words, and let them absorb, he continues:&lt;br /&gt; &lt;br /&gt; “The Child stated that the attack would be the best move, in order to spark the war. They had no idea that the target was not whom they assumed would be in the tent. This is why The Pirate Lords Son rages. This is why the world burns as it turns.”&lt;br /&gt; &lt;br /&gt; But its not the reason The Creator is who he is now, it just paints more of a story. One filled with suicide, pain and misery.&lt;br /&gt; &lt;br /&gt; It can twist and break a person.</t>
+  </si>
+  <si>
+    <t>A Pawn in The Game</t>
+  </si>
+  <si>
+    <t>The Poet stands beside you in a field. The one you crossed as a child to get to where you are now. The one that you played in. The House on the other side of the field lays in ruin. Burned and barley standing.&lt;br /&gt; &lt;br /&gt; “There are memories you have here?” The Poet asks. You say nothing.&lt;br /&gt; &lt;br /&gt; “That’s right, you are the child who’s parents are not your parents. The parents given to you. The ones …” Stolen.&lt;br /&gt; &lt;br /&gt; “False memories are nothing to cling to child.” His voice is soft and kind, but fills you with anger and hate.”</t>
+  </si>
+  <si>
+    <t>“If you are done being sad about something that you never really had, the you should --” You cut him off and ask him where you even come from. If your parents are The Creators dead parents, then who are you?&lt;br /&gt; “A creation of celestial energy.”&lt;br /&gt; &lt;br /&gt; A tool to destroy The Creator?&lt;br /&gt; &lt;br /&gt; “Yes. A pawn in a game, where the riddles are the answers and you play because of your own morbid curiosity.”</t>
+  </si>
+  <si>
+    <t>Who Am I?</t>
+  </si>
+  <si>
+    <t>Lost Tome Of Spells</t>
+  </si>
+  <si>
+    <t>You stand alone before the hut where The Witch calls home. Alas she is no where to be seen. Her hut is empty, dark and cold. It feels warded with old magic.</t>
+  </si>
+  <si>
+    <t>She greets you with a smile as she sees you walking back up with a book she knows you killed for.&lt;br /&gt; &lt;br /&gt; “Child.” She states as she rises to greet you and take the book from you.&lt;br /&gt; &lt;br /&gt; You ask her, as you hand over the tome, who you really are. A pawn in a grand game of kill the corrupted and twisted soul?&lt;br /&gt; &lt;br /&gt; “No child. You are a free spirit of the earth. One that has transcended the depths of hell, the pits of purgatory. Have you seen into the belly of the beast yet child?”&lt;br /&gt; &lt;br /&gt; You look at her, evaluating her words and then shake your head.&lt;br /&gt; &lt;br /&gt; “Look deeper into the pit of the purgatories depths.”</t>
+  </si>
+  <si>
+    <t>Dungeons Depths</t>
+  </si>
+  <si>
+    <t>Clean White Feather</t>
+  </si>
+  <si>
+    <t>Ratty Toy Bear</t>
+  </si>
+  <si>
+    <t>You descend into the madness of the purgatories dungeons seeking and item for the Dungeon Master. There are rumors of ring that glows with honesty and the change of “colors” what ever that means.&lt;br /&gt; &lt;br /&gt; You slaughter one beast after the other, searching for the single clean, white feather. Why a feather? Because it is soft?</t>
+  </si>
+  <si>
+    <t>You managed to find the Feather and bring it to the Dungeon Master, you seem confused as to why the odd request.&lt;br /&gt; &lt;br /&gt; “Because child, it was apart of this teddy bear, stuffed with feathers.”&lt;br /&gt; &lt;br /&gt; You hold the bear in your hand, ragged now, but the memories are there. Your mother gave it to you when you were younger. She made the bear her self and stuffed it with doves feathers. She made it with love. You &lt;br /&gt; remember that love. But what you remember is a lie.</t>
+  </si>
+  <si>
+    <t>Hear of Home</t>
+  </si>
+  <si>
+    <t>You stand in the ruins of your home and wait for the memories to come back.&lt;br /&gt; &lt;br /&gt; The Poet walks into the shambles of the burnt out house.&lt;br /&gt; &lt;br /&gt; You look at him and the back at what use to be the Kitchen, a place your mother would cook dinner, a place where your father would teach you how to gut an animal.&lt;br /&gt; &lt;br /&gt; A place where you ate with those you once loved. But you also remember the words. Being a pawn, being a tool to destroy a twisted and dark creature.&lt;br /&gt; &lt;br /&gt; It all fills you with rage and tears you can’t seem to hold back. Don’t want to.&lt;br /&gt; &lt;br /&gt; “Why the tears child?”&lt;br /&gt; &lt;br /&gt; You explain in angry tear laced words the hatred you have for him and others like him. For the manipulation, the lies and the pain.&lt;br /&gt; &lt;br /&gt; “You can be as angry as you please, you can throw a tantrum if it will help. But that won’t help the situation at hand. The Parents are locked away, behind a veil of memories.”&lt;br /&gt; &lt;br /&gt; You wont free them, you wont set them free. They are not your parents, they are The Creators. You explain you know this game.</t>
+  </si>
+  <si>
+    <t>“Do you child?” The Poet Asks.&lt;br /&gt; &lt;br /&gt; “Do you really know this game?”&lt;br /&gt; &lt;br /&gt; He laughs.&lt;br /&gt; &lt;br /&gt; “The Child failed to ascend. His own parents failed to help him. He never wanted to find peace. He wanted to stay in a fantasy, stay in a world where he felt like he belonged. It corrupted people, it corrupted the ones he &lt;br /&gt; came to know. It was the downfall of The Red Hawks.”&lt;br /&gt; &lt;br /&gt; He stops and turns away from you. You absorb the information.&lt;br /&gt; &lt;br /&gt; “The Creator is a corruption. One that must be expunged.”</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1755,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AC96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1622,8 +1766,8 @@
     <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="43.561" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="48.274" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -1646,9 +1790,11 @@
     <col min="25" max="25" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="2557.518" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="2966.847" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="23.423" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1772,7 +1918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1810,7 +1956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1848,9 +1994,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -1886,9 +2032,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -1924,9 +2070,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:29">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -1962,9 +2108,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:29">
       <c r="A8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -2000,7 +2146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2038,7 +2184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2076,9 +2222,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:29">
       <c r="A11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -2123,9 +2269,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:29">
       <c r="A12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -2173,9 +2319,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:29">
       <c r="A13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -2229,9 +2375,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:29">
       <c r="A14">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -2276,9 +2422,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:29">
       <c r="A15">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>98</v>
@@ -2314,9 +2460,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:29">
       <c r="A16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
@@ -2367,9 +2513,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:29">
       <c r="A17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
@@ -2420,9 +2566,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:29">
       <c r="A18">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>115</v>
@@ -2461,9 +2607,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:29">
       <c r="A19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -2487,9 +2633,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:29">
       <c r="A20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
@@ -2513,9 +2659,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:29">
       <c r="A21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>127</v>
@@ -2542,9 +2688,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:29">
       <c r="A22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -2571,9 +2717,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:29">
       <c r="A23">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>135</v>
@@ -2600,9 +2746,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:29">
       <c r="A24">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>139</v>
@@ -2644,9 +2790,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:29">
       <c r="A25">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>144</v>
@@ -2682,9 +2828,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:29">
       <c r="A26">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>149</v>
@@ -2729,9 +2875,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:29">
       <c r="A27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>153</v>
@@ -2770,9 +2916,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:29">
       <c r="A28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>156</v>
@@ -2811,9 +2957,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:29">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>159</v>
@@ -2852,9 +2998,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:29">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>165</v>
@@ -2902,9 +3048,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:29">
       <c r="A31">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>171</v>
@@ -2946,9 +3092,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:29">
       <c r="A32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>177</v>
@@ -2987,9 +3133,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:29">
       <c r="A33">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>181</v>
@@ -3013,9 +3159,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:29">
       <c r="A34">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>185</v>
@@ -3054,9 +3200,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:29">
       <c r="A35">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>189</v>
@@ -3089,9 +3235,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:29">
       <c r="A36">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>193</v>
@@ -3124,9 +3270,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:29">
       <c r="A37">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>197</v>
@@ -3156,9 +3302,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:29">
       <c r="A38">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>201</v>
@@ -3197,9 +3343,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:29">
       <c r="A39">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>205</v>
@@ -3238,9 +3384,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:29">
       <c r="A40">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>209</v>
@@ -3288,9 +3434,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:29">
       <c r="A41">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>213</v>
@@ -3329,9 +3475,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:29">
       <c r="A42">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>218</v>
@@ -3364,9 +3510,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:29">
       <c r="A43">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>222</v>
@@ -3399,9 +3545,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:29">
       <c r="A44">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>226</v>
@@ -3440,9 +3586,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:29">
       <c r="A45">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>231</v>
@@ -3475,9 +3621,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:29">
       <c r="A46">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>235</v>
@@ -3510,9 +3656,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:29">
       <c r="A47">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>239</v>
@@ -3536,9 +3682,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:29">
       <c r="A48">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>243</v>
@@ -3577,9 +3723,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:29">
       <c r="A49">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>248</v>
@@ -3618,9 +3764,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:29">
       <c r="A50">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>253</v>
@@ -3665,9 +3811,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:29">
       <c r="A51">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>259</v>
@@ -3718,9 +3864,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:29">
       <c r="A52">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>264</v>
@@ -3771,9 +3917,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:29">
       <c r="A53">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>269</v>
@@ -3824,9 +3970,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:29">
       <c r="A54">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>273</v>
@@ -3880,9 +4026,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:29">
       <c r="A55">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>278</v>
@@ -3936,9 +4082,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:29">
       <c r="A56">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>283</v>
@@ -3983,9 +4129,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:29">
       <c r="A57">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>288</v>
@@ -4018,9 +4164,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:29">
       <c r="A58">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>292</v>
@@ -4053,9 +4199,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:29">
       <c r="A59">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>296</v>
@@ -4091,9 +4237,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:29">
       <c r="A60">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>301</v>
@@ -4123,9 +4269,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:29">
       <c r="A61">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>304</v>
@@ -4161,9 +4307,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:29">
       <c r="A62">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>308</v>
@@ -4196,9 +4342,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:29">
       <c r="A63">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>312</v>
@@ -4243,9 +4389,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:29">
       <c r="A64">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>318</v>
@@ -4278,9 +4424,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:29">
       <c r="A65">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>323</v>
@@ -4313,9 +4459,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:29">
       <c r="A66">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>327</v>
@@ -4351,9 +4497,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:29">
       <c r="A67">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>332</v>
@@ -4392,9 +4538,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:29">
       <c r="A68">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>338</v>
@@ -4436,9 +4582,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:29">
       <c r="A69">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>342</v>
@@ -4474,9 +4620,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:29">
       <c r="A70">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>347</v>
@@ -4521,9 +4667,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:29">
       <c r="A71">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>350</v>
@@ -4559,9 +4705,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:29">
       <c r="A72">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>353</v>
@@ -4603,9 +4749,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:29">
       <c r="A73">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>358</v>
@@ -4632,9 +4778,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:29">
       <c r="A74">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>363</v>
@@ -4685,9 +4831,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:29">
       <c r="A75">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>368</v>
@@ -4732,9 +4878,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:29">
       <c r="A76">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>373</v>
@@ -4767,9 +4913,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:29">
       <c r="A77">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>378</v>
@@ -4808,9 +4954,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:29">
       <c r="A78">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>381</v>
@@ -4858,9 +5004,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:29">
       <c r="A79">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>384</v>
@@ -4908,9 +5054,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:29">
       <c r="A80">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>391</v>
@@ -4952,9 +5098,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:29">
       <c r="A81">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>396</v>
@@ -4996,9 +5142,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:29">
       <c r="A82">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>401</v>
@@ -5040,9 +5186,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:29">
       <c r="A83">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>406</v>
@@ -5087,9 +5233,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:29">
       <c r="A84">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>411</v>
@@ -5125,9 +5271,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:29">
       <c r="A85">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>414</v>
@@ -5164,6 +5310,454 @@
       </c>
       <c r="AA85" t="s">
         <v>418</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>419</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>420</v>
+      </c>
+      <c r="G86" t="s">
+        <v>421</v>
+      </c>
+      <c r="O86">
+        <v>50000000</v>
+      </c>
+      <c r="P86">
+        <v>1000</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>424</v>
+      </c>
+      <c r="C87" t="s">
+        <v>425</v>
+      </c>
+      <c r="D87" t="s">
+        <v>420</v>
+      </c>
+      <c r="G87" t="s">
+        <v>426</v>
+      </c>
+      <c r="L87" t="s">
+        <v>427</v>
+      </c>
+      <c r="O87">
+        <v>50000000</v>
+      </c>
+      <c r="P87">
+        <v>1000</v>
+      </c>
+      <c r="T87" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>430</v>
+      </c>
+      <c r="C88" t="s">
+        <v>431</v>
+      </c>
+      <c r="D88" t="s">
+        <v>420</v>
+      </c>
+      <c r="G88" t="s">
+        <v>427</v>
+      </c>
+      <c r="L88" t="s">
+        <v>432</v>
+      </c>
+      <c r="O88">
+        <v>20000000</v>
+      </c>
+      <c r="P88">
+        <v>1000</v>
+      </c>
+      <c r="T88" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>435</v>
+      </c>
+      <c r="C89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" t="s">
+        <v>420</v>
+      </c>
+      <c r="G89" t="s">
+        <v>432</v>
+      </c>
+      <c r="H89">
+        <v>45000</v>
+      </c>
+      <c r="O89">
+        <v>10000000</v>
+      </c>
+      <c r="P89">
+        <v>1500</v>
+      </c>
+      <c r="T89" t="s">
+        <v>430</v>
+      </c>
+      <c r="U89" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>439</v>
+      </c>
+      <c r="C90" t="s">
+        <v>319</v>
+      </c>
+      <c r="D90" t="s">
+        <v>420</v>
+      </c>
+      <c r="G90" t="s">
+        <v>440</v>
+      </c>
+      <c r="O90">
+        <v>15000000</v>
+      </c>
+      <c r="P90">
+        <v>1500</v>
+      </c>
+      <c r="T90" t="s">
+        <v>435</v>
+      </c>
+      <c r="U90" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>444</v>
+      </c>
+      <c r="C91" t="s">
+        <v>319</v>
+      </c>
+      <c r="D91" t="s">
+        <v>420</v>
+      </c>
+      <c r="G91" t="s">
+        <v>445</v>
+      </c>
+      <c r="H91">
+        <v>3000</v>
+      </c>
+      <c r="L91" t="s">
+        <v>446</v>
+      </c>
+      <c r="O91">
+        <v>5000000</v>
+      </c>
+      <c r="P91">
+        <v>1600</v>
+      </c>
+      <c r="T91" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>449</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" t="s">
+        <v>420</v>
+      </c>
+      <c r="G92" t="s">
+        <v>446</v>
+      </c>
+      <c r="H92">
+        <v>25000</v>
+      </c>
+      <c r="M92">
+        <v>1000</v>
+      </c>
+      <c r="N92">
+        <v>100</v>
+      </c>
+      <c r="O92">
+        <v>25000000</v>
+      </c>
+      <c r="P92">
+        <v>3000</v>
+      </c>
+      <c r="T92" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>452</v>
+      </c>
+      <c r="C93" t="s">
+        <v>425</v>
+      </c>
+      <c r="D93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E93" t="s">
+        <v>449</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>4500</v>
+      </c>
+      <c r="I93">
+        <v>20000</v>
+      </c>
+      <c r="K93">
+        <v>10000</v>
+      </c>
+      <c r="O93">
+        <v>1000000000</v>
+      </c>
+      <c r="P93">
+        <v>3000</v>
+      </c>
+      <c r="T93" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>455</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>420</v>
+      </c>
+      <c r="G94" t="s">
+        <v>456</v>
+      </c>
+      <c r="H94">
+        <v>45000</v>
+      </c>
+      <c r="I94">
+        <v>15000</v>
+      </c>
+      <c r="K94">
+        <v>15000</v>
+      </c>
+      <c r="O94">
+        <v>25000000</v>
+      </c>
+      <c r="P94">
+        <v>4000</v>
+      </c>
+      <c r="T94" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>459</v>
+      </c>
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" t="s">
+        <v>420</v>
+      </c>
+      <c r="G95" t="s">
+        <v>460</v>
+      </c>
+      <c r="L95" t="s">
+        <v>461</v>
+      </c>
+      <c r="O95">
+        <v>50000000</v>
+      </c>
+      <c r="P95">
+        <v>4000</v>
+      </c>
+      <c r="T95" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>464</v>
+      </c>
+      <c r="C96" t="s">
+        <v>425</v>
+      </c>
+      <c r="D96" t="s">
+        <v>420</v>
+      </c>
+      <c r="H96">
+        <v>100000</v>
+      </c>
+      <c r="I96">
+        <v>100000</v>
+      </c>
+      <c r="K96">
+        <v>75000</v>
+      </c>
+      <c r="P96">
+        <v>5000</v>
+      </c>
+      <c r="T96" t="s">
+        <v>459</v>
+      </c>
+      <c r="X96">
+        <v>2</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>466</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -2618,7 +2618,7 @@
         <v>28</v>
       </c>
       <c r="H19">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="s">
         <v>120</v>
@@ -2644,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="H20">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="s">
         <v>124</v>
@@ -2673,7 +2673,7 @@
         <v>124</v>
       </c>
       <c r="H21">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="s">
         <v>128</v>
@@ -2702,7 +2702,7 @@
         <v>128</v>
       </c>
       <c r="H22">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="s">
         <v>132</v>
@@ -2731,7 +2731,7 @@
         <v>132</v>
       </c>
       <c r="H23">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="s">
         <v>136</v>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -1409,7 +1409,7 @@
     <t>You managed to find the Feather and bring it to the Dungeon Master, you seem confused as to why the odd request.&lt;br /&gt; &lt;br /&gt; “Because child, it was apart of this teddy bear, stuffed with feathers.”&lt;br /&gt; &lt;br /&gt; You hold the bear in your hand, ragged now, but the memories are there. Your mother gave it to you when you were younger. She made the bear her self and stuffed it with doves feathers. She made it with love. You &lt;br /&gt; remember that love. But what you remember is a lie.</t>
   </si>
   <si>
-    <t>Hear of Home</t>
+    <t>Heart of Home</t>
   </si>
   <si>
     <t>You stand in the ruins of your home and wait for the memories to come back.&lt;br /&gt; &lt;br /&gt; The Poet walks into the shambles of the burnt out house.&lt;br /&gt; &lt;br /&gt; You look at him and the back at what use to be the Kitchen, a place your mother would cook dinner, a place where your father would teach you how to gut an animal.&lt;br /&gt; &lt;br /&gt; A place where you ate with those you once loved. But you also remember the words. Being a pawn, being a tool to destroy a twisted and dark creature.&lt;br /&gt; &lt;br /&gt; It all fills you with rage and tears you can’t seem to hold back. Don’t want to.&lt;br /&gt; &lt;br /&gt; “Why the tears child?”&lt;br /&gt; &lt;br /&gt; You explain in angry tear laced words the hatred you have for him and others like him. For the manipulation, the lies and the pain.&lt;br /&gt; &lt;br /&gt; “You can be as angry as you please, you can throw a tantrum if it will help. But that won’t help the situation at hand. The Parents are locked away, behind a veil of memories.”&lt;br /&gt; &lt;br /&gt; You wont free them, you wont set them free. They are not your parents, they are The Creators. You explain you know this game.</t>
@@ -1755,7 +1755,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC96"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1767,7 +1767,7 @@
     <col min="2" max="2" width="43.561" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="48.274" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -1791,10 +1791,9 @@
     <col min="26" max="26" width="2557.518" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="2966.847" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="23.423" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2319,7 +2318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3723,7 +3722,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4199,7 +4198,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4620,7 +4619,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:28">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:28">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:28">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:28">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:28">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:28">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:28">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:28">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:28">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:28">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:28">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:28">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:28">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:28">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5600,9 +5599,6 @@
       <c r="D93" t="s">
         <v>420</v>
       </c>
-      <c r="E93" t="s">
-        <v>449</v>
-      </c>
       <c r="F93">
         <v>1</v>
       </c>
@@ -5633,11 +5629,8 @@
       <c r="AB93" t="s">
         <v>420</v>
       </c>
-      <c r="AC93" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5681,7 +5674,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:28">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5719,7 +5712,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:28">
       <c r="A96">
         <v>95</v>
       </c>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -2118,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="H8">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3102,10 +3102,7 @@
         <v>172</v>
       </c>
       <c r="H32">
-        <v>1000</v>
-      </c>
-      <c r="I32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s">
         <v>178</v>
@@ -3558,7 +3555,7 @@
         <v>227</v>
       </c>
       <c r="H44">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s">
         <v>228</v>
@@ -3599,7 +3596,7 @@
         <v>228</v>
       </c>
       <c r="H45">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L45" t="s">
         <v>232</v>
@@ -3634,7 +3631,7 @@
         <v>232</v>
       </c>
       <c r="H46">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L46" t="s">
         <v>236</v>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -3140,7 +3140,7 @@
         <v>172</v>
       </c>
       <c r="H33">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
         <v>182</v>
@@ -3169,7 +3169,7 @@
         <v>182</v>
       </c>
       <c r="H34">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L34" t="s">
         <v>186</v>
@@ -3210,7 +3210,7 @@
         <v>186</v>
       </c>
       <c r="H35">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L35" t="s">
         <v>190</v>
@@ -3245,7 +3245,7 @@
         <v>190</v>
       </c>
       <c r="H36">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L36" t="s">
         <v>194</v>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
   <si>
     <t>id</t>
   </si>
@@ -1541,7 +1541,7 @@
     <t>Frozen Cat Toy</t>
   </si>
   <si>
-    <t>What’s really going on here you ask.&lt;br /&gt; &lt;br /&gt; “I’ll be frank with you. I am a manifestation of the past, a memory if you will. I am dead as you might well remember. I was The Creators Favorite thing in the world. The one thing that kept him alive. And then I died. And Then love of his life left, and then he died. And Then she died. And now here we are, trapped because she cant let go of her grief, and he cant stop blaming him self.”&lt;br /&gt; &lt;br /&gt; You step back.&lt;br /&gt; &lt;br /&gt; “This isn’t a bank of currencies child. This is a bank of the past, she holds her prized memories of happier times, Christmas parties and her baby boys warm smile. Her memories became corrupted with the pain of the past, the pain of his suicide.”&lt;br /&gt; &lt;br /&gt; She couldn’t move on. He couldn’t move on. But why was she so desperately clinging to the memories of the past.&lt;br /&gt; &lt;br /&gt; You walk up to the bank doors and stare into the blackness of the open room before you. The doors are unlocked, the memories have escaped. They have become corrupted with pain and misery. They are the manifestations of this world.&lt;br /&gt; &lt;br /&gt; Why is this family so messed up.</t>
+    <t>What’s really going on here you ask.&lt;br /&gt; &lt;br /&gt; “I’ll be frank with you. I am a manifestation of the past, a memory if you will. I am dead as you might well remember. I was The Creators favorite thing in the world. The one thing that kept him alive. And then I died. Then love of his life left, and then he died. And Then she died. And now here we are, trapped because she cant let go of her grief, and he cant stop blaming him self.”&lt;br /&gt; &lt;br /&gt; You step back.&lt;br /&gt; &lt;br /&gt; “This isn’t a bank of currencies child. This is a bank of the past, she holds her prized memories of happier times, Christmas parties and her baby boys warm smile. Her memories became corrupted with the pain of the past, the pain of his suicide.”&lt;br /&gt; &lt;br /&gt; She couldn’t move on. He couldn’t move on. But why was she so desperately clinging to the memories of the past.&lt;br /&gt; &lt;br /&gt; You walk up to the bank doors and stare into the blackness of the open room before you. The doors are unlocked, the memories have escaped. They have become corrupted with pain and misery. They are the manifestations of this world.&lt;br /&gt; &lt;br /&gt; Why is this family so messed up.</t>
   </si>
   <si>
     <t>You arrive back with some items you have found and the Cat bats at a few of them, specifically the toy.&lt;br /&gt; &lt;br /&gt; You ask the cat if she knows he is here.&lt;br /&gt; &lt;br /&gt; “She doesn’t. She is trapped in her own grief that even when he stands before her, she blames him as an illusion and she thrashes him violently.”&lt;br /&gt; &lt;br /&gt; So she knows he is here but does not believe it is him. If she could see that it was her son. Maybe they could both ascend, like they were originally suppose to.&lt;br /&gt; &lt;br /&gt; “Maybe.” Mr. Whiskers begins.&lt;br /&gt; &lt;br /&gt; “Then again probably not. The Poet doesn’t have the kind of magic required to open the gates of Ascension again.”&lt;br /&gt; &lt;br /&gt; Then what the hell do we do?</t>
@@ -1590,6 +1590,192 @@
   </si>
   <si>
     <t>You put the diary down and take the key.&lt;br /&gt; &lt;br /&gt; You make your way back to The Ice Plane and into the abandoned house. The Fathers Tomb. You stand in the entry of the house.&lt;br /&gt; &lt;br /&gt; The silence that is upon you is deafening and the smell in the air is one of death.&lt;br /&gt; &lt;br /&gt; Shadows move across the walls, shadows of memories. Memories of holidays and happy times, of Christmas trees and presents and gifts, food and love, laughter and good times.&lt;br /&gt; &lt;br /&gt; The shadows stop moving and a whisper fills the silence:&lt;br /&gt; &lt;br /&gt; “My home, my memories, my mother.”&lt;br /&gt; &lt;br /&gt; You know that voice. It haunts you to your core.</t>
+  </si>
+  <si>
+    <t>The Truth and The Request</t>
+  </si>
+  <si>
+    <t>TheSoldiersBrother</t>
+  </si>
+  <si>
+    <t>The Child's Journal</t>
+  </si>
+  <si>
+    <t>The Soldiers Journal</t>
+  </si>
+  <si>
+    <t>Bloody Snowball</t>
+  </si>
+  <si>
+    <t>You stare at The Soldiers Brother for a moment and then ask him what any of this has to do with anything?&lt;br /&gt; &lt;br /&gt; “The night we came to find The Child, he was long gone. The night we we came to find The Child was the night they found the truth. That was the night my Father banished my brother to the cold and told him to never look back for The Church would be hunting him for his crimes against God.”&lt;br /&gt; &lt;br /&gt; That’s when it hit you.&lt;br /&gt; &lt;br /&gt; The Soldier’s forbidden love … Was his brother.</t>
+  </si>
+  <si>
+    <t>You hold in your hand a Bloody Shirt that you found on a wondering creature. You stepped outside after the story, two brothers. Two lovers. Was it unholy, was it unnatural? Maybe. With everything you have seen, the death, the pain, the infliction of confusion and the haunting torment that follows you across the various planes comes the question of who is one to judge who one loves in these times.&lt;br /&gt; &lt;br /&gt; So what did this story have to do with The Child? You remember the journal and flip through its pages only to find an entry:&lt;br /&gt; &lt;br /&gt; “The Child found a wondering man, a drunkard who was aimless and seeking a direction in life. One who seemed like had everything stolen from him. It was the night the snow fell and The Child celebrated the coming new year with those he considered his friends: The Red Hawk Soldiers. Neither The Child nor his companions knew who this drunkard really was, they welcomed him among their ranks.”&lt;br /&gt; &lt;br /&gt; The Soldier joined The Child in his fight against The Church and The Federation, The Federation was where his father was. It made sense now as to how the two are indirectly tied.&lt;br /&gt; &lt;br /&gt; “There's something I need, something that can help you in your war against The Ice Queen and her frozen lands.”&lt;br /&gt; &lt;br /&gt; You turn and see The Soldiers Brother standing before you.&lt;br /&gt; &lt;br /&gt; “Do this for me, and ill give you something that will let you control the land around you.”</t>
+  </si>
+  <si>
+    <t>The Experiments</t>
+  </si>
+  <si>
+    <t>Trix</t>
+  </si>
+  <si>
+    <t>Pages of the holy book</t>
+  </si>
+  <si>
+    <t>You ask the child what he means by: The whisper of the past is coming back like a scream.&lt;br /&gt; &lt;br /&gt; “I understand not what you ask child. But I do have something to share with you. The Church holds a secret unlike any other. It is said that The Church has started to practice the art of Alchemy. They had texts and magical research in their studies and in the research areas. They even practiced their twisted magics on the children – to make them more holy.”&lt;br /&gt; &lt;br /&gt; You might be able to find some of the pages around here, they called it their holy book.</t>
+  </si>
+  <si>
+    <t>You managed to find some torn pages around the area that detail the horrific experiments and abuses done to the children by those at The Church who practiced a different kind of alchemy, a darker more twisted version of it’s self.&lt;br /&gt; &lt;br /&gt; They detail the experiments and the outcomes of turning these children in to more holy elevated beings, only for the experiments to have failed and instead corrupt their souls causing the priests and the soldiers to have to put the children down.&lt;br /&gt; &lt;br /&gt; You hand the pages over to Trix and ask what use they are to him.&lt;br /&gt; &lt;br /&gt; “They are of no use to me child, they are for you to understand why it happened.”&lt;br /&gt; &lt;br /&gt; Why what happened the experiments?&lt;br /&gt; &lt;br /&gt; “No. The raid.”</t>
+  </si>
+  <si>
+    <t>The Memories and The War Plans</t>
+  </si>
+  <si>
+    <t>Box of Memories</t>
+  </si>
+  <si>
+    <t>Child's Drawings</t>
+  </si>
+  <si>
+    <t>“The night the snow stopped falling was the night they moved in silence through these fields, it was also the night they invaded The Church.” Trix began.&lt;br /&gt; &lt;br /&gt; “They came in the silence and they slaughtered the priests in their studies. They discovered the travesties that were taking place and put those responsible down. They saved us. I remember him, The Creator – although then he was known as The Child. He saved me. He gave me a box I lost around here. I gave him the drawings – he might have lost them as well, but they were like a map. A map through the church.</t>
+  </si>
+  <si>
+    <t>You found the box and the drawings and handed them over to Trix.&lt;br /&gt; &lt;br /&gt; “That was the last night I knew pain and suffering. Or so I thought.” Trix began.&lt;br /&gt; &lt;br /&gt; “They, the Red Hawk Soldiers and The Child took us, the remaining children to hide out at what is now known as The Abandoned Village. A few months later it burned to the ground. A few months later it was attacked by The Federation. They came, they burned, raped, pillaged, destroyed, slaughtered everything in their path – in the name of retribution.”&lt;br /&gt; &lt;br /&gt; he pauses to stare at his toy box and the drawings. The snow starts to fall again and the silence is as deafening as it ever was.&lt;br /&gt; &lt;br /&gt; “The Child escaped.” He continued.&lt;br /&gt; &lt;br /&gt; “The Child escaped.”</t>
+  </si>
+  <si>
+    <t>The Sword and The Door</t>
+  </si>
+  <si>
+    <t>Red Hawks Sword</t>
+  </si>
+  <si>
+    <t>The Letter</t>
+  </si>
+  <si>
+    <t>You search the area for Trix but he is no where to be found. The snow falls more heavily now and you start to think back on your time here in this world. It’s dark, twisted, broken and frozen landscapes contrast with that of the inhabitants, lost memories and ghosts of another time ruled by a mad queen who can’t let go of the grief and loss she has suffered.&lt;br /&gt; &lt;br /&gt; It all starts to make sense now, it’s all connected to The Creator, its all connected to his story, to his own inability to let go, to crave peace and happiness as opposed to living in the darkness and depravity of his own twisted disillusion and self inflicted madness.&lt;br /&gt; &lt;br /&gt; But why not let go? What do you cling to? What memory, what hope – what fleeting light do you grasp to. Why keep all this alive? What does it serve you in the end?</t>
+  </si>
+  <si>
+    <t>You stumble across a sword in the snow guarded by fearsome creatures you slaughter. You spill their blood upon the snow already stained with the blood of the past and its twisted memories.&lt;br /&gt; &lt;br /&gt; “You found the sword.” Comes a familiar and small voice of said past. Trix stands before you in the snow looking at the sword. You ask what the significance of the sword is and he states its nothing, its a symbol of the night the raid took place, of the night they rescued the children from the horrors of what would have been.&lt;br /&gt; &lt;br /&gt; You ask about the abandoned village stating that the story of his death didn’t make sense with that of The Queens.&lt;br /&gt; &lt;br /&gt; “Death takes place in different timelines, but in the same place at the same time – causing the paradox before you. Two places, two different timelines, the exact same time. Its how she got here. My death opened the door for her to come, she just chose to never leave.”&lt;br /&gt; &lt;br /&gt; This makes you wonder – did The Creator come through a door?&lt;br /&gt; &lt;br /&gt; “Here.” Trix hands you an envelope. You ask what it is.&lt;br /&gt; &lt;br /&gt; “A letter to the Soldier from his brother. Take it to him. He has something for you.”&lt;br /&gt; &lt;br /&gt; What could he have?</t>
+  </si>
+  <si>
+    <t>Reuniting Two Old Flames</t>
+  </si>
+  <si>
+    <t>Ice Queens Treaty Scrolls</t>
+  </si>
+  <si>
+    <t>You arrive at a pub in Smugglers Port where you see The Soldier sitting alone at a table drinking.&lt;br /&gt; &lt;br /&gt; You sit down across from him and he greets you with a warm smile. “What brings you here child?”&lt;br /&gt; &lt;br /&gt; You explain the adventures you have been on, the Ice Plane, The Queen, The Creator, How it is all connected together. You then explain the story about his brother and he stops you.&lt;br /&gt; &lt;br /&gt; “That is something we do not talk about child. My past is mine alone and I wont have you meddling it in with your stories of nonsense.”&lt;br /&gt; &lt;br /&gt; The Soldier stands and snatches the letter from your hands.&lt;br /&gt; &lt;br /&gt; “You dare not to travel down this road child. You will regret it.”</t>
+  </si>
+  <si>
+    <t>You stand alone on the docks of Smugglers Port waiting for The Soldier to arrive. You see him walking down the docks to meet you.&lt;br /&gt; &lt;br /&gt; “What is it you want child?”&lt;br /&gt; &lt;br /&gt; You grab his hand and utter the words, and before he can protest you and The Soldier stand in the middle of a frozen road. He turns and sees the familiar sign, the words – its haunts him – written all over his face: Gas and Sip.&lt;br /&gt; &lt;br /&gt; “How could you!” He screams.&lt;br /&gt; &lt;br /&gt; “Brother.” Comes a familiar voice.&lt;br /&gt; &lt;br /&gt; The two brothers stand face to face in the frozen desolate landscape of memories better left to rot in the darkness of their own twisted depravity. But there is something beautiful in the reuniting of two brothers, two lovers. Two sinners.&lt;br /&gt; &lt;br /&gt; “I have something for you.” The Soldiers Brother begins. “For doing me this favor.”&lt;br /&gt; &lt;br /&gt; He hands you a scroll.&lt;br /&gt; &lt;br /&gt; “With this, you can settle any where you please. You will find these lands to be much more hostile then where you come from child.”</t>
+  </si>
+  <si>
+    <t>Broken Road</t>
+  </si>
+  <si>
+    <t>It has been weeks since you last entered the house to face the shadows of the The Creator and his own families memories of pain and misery.&lt;br /&gt; &lt;br /&gt; You have walked into the wilderness looking for more answers to the past, looking for a way to kill The Ice Queen.&lt;br /&gt; &lt;br /&gt; You have been told by The Poet that their might be story of answers to the west, along the old broken road that leads to the abandoned church.&lt;br /&gt; &lt;br /&gt; You ask him what could possibly be over there that could be of help in this frozen waste land.&lt;br /&gt; &lt;br /&gt; “The ability to declare war upon her land child.” He smiles as he states this.&lt;br /&gt; &lt;br /&gt; “Seek out the soldiers brother, his own father was a great general.”</t>
+  </si>
+  <si>
+    <t>You arrive at the road, snow covered with trees off to the side, the road travels through a dark forest, whose trees are covered in lights. Lights that glow red, green and blue. There is sparkly hanging tinsel through out the trees.&lt;br /&gt; &lt;br /&gt; You slowly begin the travel don the road and feel the wind get colder, the snow falls more heavily here and seek out some kind of shelter.&lt;br /&gt; &lt;br /&gt; Off to the distance you see an old building, as you get closer you can read a fading title: Gas and Sip, what ever that means.&lt;br /&gt; &lt;br /&gt; You enter the abandoned building and see a counter as well as isles of empty shelves.&lt;br /&gt; &lt;br /&gt; You turn around and a handsome blonde, blue eyed man no older then 28 stands before you. Clad in leather Armour and carrying a short sword he stairs you down.</t>
+  </si>
+  <si>
+    <t>The Soldiers Forbidden Love</t>
+  </si>
+  <si>
+    <t>“Who are you?” Asks the mysterious and handsome man. He walks around you and over to the counter where he puts his sword down and turns to face you.&lt;br /&gt; &lt;br /&gt; He clearly sees you as no threat, which might be to his detriment if you decide to take him out.&lt;br /&gt; &lt;br /&gt; You explain that you were sent here to search for The Soldiers brother, that The Poet sent you.&lt;br /&gt; &lt;br /&gt; “The Poet sent you. Did he tell you that he is responsible for my death? For my brothers pain that he carries with him now?”&lt;br /&gt; &lt;br /&gt; You step back and tell him you know nothing.&lt;br /&gt; &lt;br /&gt; “Perhaps you should gain and understanding of what you have been asked to do child.”&lt;br /&gt; &lt;br /&gt; You stare at him in confusion.</t>
+  </si>
+  <si>
+    <t>You found a journal while exploring the area seeking out what The Soldiers Brother meant. Why did The Poet send you to him?&lt;br /&gt; &lt;br /&gt; You try and flip through the pages of the journal seeking some kind of information and you come across a passage.&lt;br /&gt; &lt;br /&gt; “When the general found out, the love that The Soldier had, he had banished him, his own son from the army of The Federation, What The Soldier didn’t know was that his father had banished him, not just out of hatred for his own choices, but also to save his life. For while he hated every aspect of what his son has done and who he has become, he still recognized that he is still his own flesh.”&lt;br /&gt; &lt;br /&gt; What the hell did The Soldier do?</t>
+  </si>
+  <si>
+    <t>The Search for The Child</t>
+  </si>
+  <si>
+    <t>You search the area for any further details about the journal, the brother, this general - anything at all.&lt;br /&gt; &lt;br /&gt; Nothing.&lt;br /&gt; &lt;br /&gt; The snow falls quietly in the night and the silence that falls over the land is deafening.&lt;br /&gt; &lt;br /&gt; “You haven’t found anything other then that old journal have you?”&lt;br /&gt; &lt;br /&gt; You shake your head as The Soldiers Brother stands next to you. He looks up at the sky and watches the snow fall.&lt;br /&gt; &lt;br /&gt; “My father loved my brother. He loved him like any father would love his son.”&lt;br /&gt; &lt;br /&gt; He looks down and then at you: “Be he loved me more.”&lt;br /&gt; &lt;br /&gt; What did he do? What did The Soldier do?&lt;br /&gt; &lt;br /&gt; “He fell in love.”</t>
+  </si>
+  <si>
+    <t>“There was a night.” The Soldiers Brother starts.&lt;br /&gt; &lt;br /&gt; “There was a night we were sent down from the church to the north, sent down to this road because of a tip given to the quadrant about The Child being in this area, about him finding an in with The Red Hawk Soldiers. We had to stop him, we were instructed to. There was no reason given, he was a high priority target. We learned later why.”&lt;br /&gt; &lt;br /&gt; You ask him why and he shakes his head.&lt;br /&gt; &lt;br /&gt; “That’s not the purpose of this story child. The past is full of different stories, each worth their own telling in time.”&lt;br /&gt; &lt;br /&gt; He pauses and walks through the Gas and Sip searching for something.&lt;br /&gt; &lt;br /&gt; “You know, in the old world this use to be a gas station. People would drive these giant metal machines called “cars” and they would stop at places like this for food and fuel.”&lt;br /&gt; &lt;br /&gt; He pauses and looks at you.&lt;br /&gt; &lt;br /&gt; “Me and my brother stopped here the night we were sent to search the area.”</t>
+  </si>
+  <si>
+    <t>You ask The Soldiers Brother if they found The Child.&lt;br /&gt; &lt;br /&gt; “No. That was the night we left our squad and investigated this building our selves. It was a secret then. A complete secret or so we thought. We came to later find out that some one saw, someone said something. We were just lucky enough that it was reported to my Father.”&lt;br /&gt; &lt;br /&gt; What was? What happened?&lt;br /&gt; &lt;br /&gt; What did they see?</t>
+  </si>
+  <si>
+    <t>You come back to the building, you hold in your hand another journal. This one seems to belong to The Child. The Creator’s own Journal kept by The Poet. What secrets will you find with in it?&lt;br /&gt; &lt;br /&gt; The Soldiers Brother is no where to be seen. You sit on the counter and wait for him and read the Journal.&lt;br /&gt; &lt;br /&gt; “He couldn’t seem to handle the truth. I told him of his death today and he couldn't handle the truth.”&lt;br /&gt; &lt;br /&gt; You begin to read the only passage that seems to make sense, or isn’t scrambled by some kind of magic.&lt;br /&gt; &lt;br /&gt; “I told him he needed to ascend from this plane but he couldn’t let go of the the past, the love he lost, the mother he discovered to be among this land, the memories he creates are frozen in place and no matter how many winter nights pass and how many years begin and end, he refuses to accept the truth.&lt;br /&gt; &lt;br /&gt; The Child clings to the past disillusion and memories of a better time, a time he chose to end at his own hands. I have explained that his being here, his clinging to these memories and refusing to let go is slowly corrupting the land. He seems not to care.”&lt;br /&gt; &lt;br /&gt; How could one person do so much damage to a single world?&lt;br /&gt; &lt;br /&gt; “I see you found another book.” Comes a familiar voice.</t>
+  </si>
+  <si>
+    <t>Defeating The Queen</t>
+  </si>
+  <si>
+    <t>The Ice Queens Reign</t>
+  </si>
+  <si>
+    <t>The wails of pain can be heard across the land. You stand in the darkness of the house and wonder if you should turn around and leave now.&lt;br /&gt; &lt;br /&gt; You can’t, you are frozen in place. Both in fear and curiosity. Here you are in The Creators childhood home. A home that is not of this reality, this plane, this timeline. It’s of the old timeline, the past, the old world. Before the bombs and the war – or sais The Poet.&lt;br /&gt; &lt;br /&gt; You stand in the darkness as a chill silence falls over the house. You slowly move from the entrance towards the living room down a hall. There sits a cat in the middle of the room. A familiar cat. Mr. Whiskers.</t>
+  </si>
+  <si>
+    <t>“You managed to make your way here after all child.” Mr. Whiskers states.&lt;br /&gt; &lt;br /&gt; You explain that you are seeking The Queen, it’s time to put this nonsense to an end.&lt;br /&gt; &lt;br /&gt; “You can’t just kill The Creator’s mother.”&lt;br /&gt; &lt;br /&gt; Why not. Look at what she has done here, digging up the past, displaying the pain and living in her own twisted darkness and corruption as if it’s a new comfortable and safe place to exist.&lt;br /&gt; &lt;br /&gt; “Because it’s not her fault. It’s not any one’s fault that they can’t let go. It’s just who they are now.”&lt;br /&gt; &lt;br /&gt; You explain the corruption and about The Door. How when Trix died The Queen became who she is. That if you Destroy her, you might be able to finally open a different kind of door where you might be able to fix this place some how.&lt;br /&gt; &lt;br /&gt; “You silly fool, that’s not your role in all this. Your role is not to “save the frozen people of The Ice Plane.” No, your place is to experience the stories of the people here and accept the reality that some people just cannot be saved, that they prefer the comforts of their own darkness.”&lt;br /&gt; &lt;br /&gt; You stare at the cat for a moment, then realize what he’s saying is stupid. If you kill The Queen, you free the people of this plane and the pain they are trapped in and you can open a door and send her back to her own world, her own time and maybe The Creator will go with her … Chasing her into the void of their own reality.&lt;br /&gt; &lt;br /&gt; You explain this to Mr. Whiskers and he laughs.</t>
+  </si>
+  <si>
+    <t>Tombstones and Roses</t>
+  </si>
+  <si>
+    <t>Wilted Frozen Rose</t>
+  </si>
+  <si>
+    <t>The cat continues to laugh as you walk past him, there has to be some king of clue here about what could bring down The Queen of Ice.&lt;br /&gt; &lt;br /&gt; “What are you looking for?” comes the cat’s voice.&lt;br /&gt; &lt;br /&gt; “You won’t find it here child.” he states.&lt;br /&gt; &lt;br /&gt; He might be right. You might have to look else where for the answers.</t>
+  </si>
+  <si>
+    <t>You found a single wilted rose.&lt;br /&gt; &lt;br /&gt; “Another memory.” The cat states as you returned to the house.&lt;br /&gt; &lt;br /&gt; What memory? You ask.&lt;br /&gt; &lt;br /&gt; “One where she had gone, early on the day she had died, to her sons grave – fresh still from the burial, and placed a single red rose. There might tears near by as well.”&lt;br /&gt; &lt;br /&gt; Tears? Hers? Or his.&lt;br /&gt; &lt;br /&gt; You leave the house and head out into the cold. You search for your next clue.</t>
+  </si>
+  <si>
+    <t>The Memory</t>
+  </si>
+  <si>
+    <t>Ice Shard of Memories</t>
+  </si>
+  <si>
+    <t>Bottle of Frozen Tears</t>
+  </si>
+  <si>
+    <t>As you seek out the tears you search for something of your self in the snow and the cold. You remember your own cold snowy months, days and nights with your own family and friends. Playing in the snow, warming up by the fire, sharing in food and gifts from neighbors.&lt;br /&gt; &lt;br /&gt; You had your own ways for marking the coming new year, the new seasons and the new bounties and richness of life that was waiting to be explored.&lt;br /&gt; &lt;br /&gt; You wonder how there could be so much pain in this world, how the cold and the harsh winter winds could make you want to cling to the memories of the past, how you wouldn't want to step out into the sunlight and experience the world as it is – not perfect, but better then clinging to the past.&lt;br /&gt; &lt;br /&gt; You wonder this as you seek out your own desires.</t>
+  </si>
+  <si>
+    <t>You found more then just a bottle of tears. Tears of the Queen of Ice? you wonder. You also found a piece of ice that never seems to melt in your hands or even when placed in fire. It seems to hold a magically trapped memory, one you cannot seem to access.&lt;br /&gt; &lt;br /&gt; You take the items back to the house and see Mr Whiskers sitting on the couch in the living room. There is a dark presence in the house, you can feel an ominous shadow crawl across your skin making your shiver.&lt;br /&gt; &lt;br /&gt; “You feel it too child? That’s The Creator. Moving through out the house with his existence. Haunting the rooms and the shadows of his own past. He will not know us, unless you attack the one thing he has come for. His one memory – the one you hold now, the one he cannot let go of.”&lt;br /&gt; &lt;br /&gt; A memory of his mother?</t>
+  </si>
+  <si>
+    <t>Love Letters</t>
+  </si>
+  <si>
+    <t>Love Letter</t>
+  </si>
+  <si>
+    <t>“It is not just a memory of his mother, it is a memory of something that he holds dear, something that was given to him by his mother.”&lt;br /&gt; &lt;br /&gt; What could it be?</t>
+  </si>
+  <si>
+    <t>You found a letter on the enemies corpse and upon investigating it, you realize what it is, a love letter from the ex-lover of The Creator. A letter that expresses passion and desire to see The Creator again. A letter that shares feelings and emotions of love and happiness.&lt;br /&gt; &lt;br /&gt; You arrive back at the house with the letter and the feeling of heaviness that was settling over the house is thicker now making it harder to breathe. The emotions, the misery and the depression suffocates the air around you.&lt;br /&gt; &lt;br /&gt; “You found the letter, the memory.”&lt;br /&gt; &lt;br /&gt; You understand now, after reading the letter why one would hold on to the past, but why a memory of his mother giving him this letter?&lt;br /&gt; &lt;br /&gt; “Its a tie to the lover. Its the last remnant of a happier time. Before he ruined it all.”&lt;br /&gt; &lt;br /&gt; How did The Creator ruin it?</t>
+  </si>
+  <si>
+    <t>Weapons and Ice</t>
+  </si>
+  <si>
+    <t>Ice Stave of Hope</t>
+  </si>
+  <si>
+    <t>“Child listen, we don’t have time for you to go down the road of lovers and the flaming wreck that has become which technically has lead to this mess. I can feel her coming.”&lt;br /&gt; &lt;br /&gt; She is part of the answer to all of this, but what ever he did that made his lover leave him, such that he fell into such a despair that his death – created all this?&lt;br /&gt; &lt;br /&gt; You stand there for a moment while the house begins to shake. A voice can be heard in the air:&lt;br /&gt; &lt;br /&gt; “Child I am home now. Come to me my darling dear. Where are you my son? I have missed you so….”&lt;br /&gt; &lt;br /&gt; The voice is soft, calm and inviting but also laced with grief and longing.&lt;br /&gt; &lt;br /&gt; “Find the stave!” Screams the cat.</t>
+  </si>
+  <si>
+    <t>With the ice stave in hand you return the house only to find the door locked. You stand back and use the staff. The magic of the ice unleashes at the door causing it to explode. You enter the house and feel a force trying to push you out.&lt;br /&gt; &lt;br /&gt; You can see The Queen in house as the shadows dance around her, her past, her memories. She lunges at you with her scream, from the shadows rages the ice and the demonic beings that crawl along the walls.&lt;br /&gt; &lt;br /&gt; You raise the staff and cause everything, including her to be covered in ice. You slam the staff on the floor and the ice shatters. Everything shatters. The world around you shatters.</t>
+  </si>
+  <si>
+    <t>The Poet and The Child</t>
+  </si>
+  <si>
+    <t>The Poets Walking Stick</t>
+  </si>
+  <si>
+    <t>“Wake up.”&lt;br /&gt; &lt;br /&gt; “Wake up.”&lt;br /&gt; &lt;br /&gt; You open your eyes and look around. Where are you? The world around you is green and lush and the sky is blue.&lt;br /&gt; &lt;br /&gt; You look over and see a boy, no older then 27. Dark brown hair. He has blood on his forehead.&lt;br /&gt; &lt;br /&gt; “You don’t look like you belong here.” The man states.&lt;br /&gt; &lt;br /&gt; “He doesn’t” comes the voice of The Poet. You look over and see The Poet standing there.&lt;br /&gt; &lt;br /&gt; “How he is here I have no idea.”</t>
+  </si>
+  <si>
+    <t>You manged to get out the area and run – its confusing, one moment there is a talking cat, an Ice queen and the next there is The Poet and a Bleeding man.&lt;br /&gt; &lt;br /&gt; “You have my walking stick.” The Poet states.&lt;br /&gt; &lt;br /&gt; You turn around and you are right back where you were. The man is gone. You ask where he went.&lt;br /&gt; &lt;br /&gt; “This isn’t your reality.” The Poet states. “What are you doing here?” he asks.&lt;br /&gt; &lt;br /&gt; He deflected your question and you hesitate I answering him. What if this is another trap?&lt;br /&gt; &lt;br /&gt; You contemplate for a moment your next move.</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +2115,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD109"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,9 +2125,9 @@
   <cols>
     <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="43.561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="48.274" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -1965,7 +2151,7 @@
     <col min="26" max="26" width="2557.518" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="2966.847" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="17.567" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -6308,6 +6494,18 @@
       <c r="G106" t="s">
         <v>506</v>
       </c>
+      <c r="M106">
+        <v>1000</v>
+      </c>
+      <c r="N106">
+        <v>100</v>
+      </c>
+      <c r="O106">
+        <v>2000000000</v>
+      </c>
+      <c r="P106">
+        <v>100</v>
+      </c>
       <c r="T106" t="s">
         <v>468</v>
       </c>
@@ -6353,7 +6551,7 @@
         <v>20000</v>
       </c>
       <c r="O107">
-        <v>2000000</v>
+        <v>2000000000</v>
       </c>
       <c r="T107" t="s">
         <v>505</v>
@@ -6465,6 +6663,693 @@
         <v>524</v>
       </c>
       <c r="AD109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
+      <c r="A110">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>525</v>
+      </c>
+      <c r="C110" t="s">
+        <v>526</v>
+      </c>
+      <c r="E110" t="s">
+        <v>527</v>
+      </c>
+      <c r="G110" t="s">
+        <v>528</v>
+      </c>
+      <c r="H110">
+        <v>5000</v>
+      </c>
+      <c r="I110">
+        <v>2000</v>
+      </c>
+      <c r="L110" t="s">
+        <v>529</v>
+      </c>
+      <c r="M110">
+        <v>20000</v>
+      </c>
+      <c r="N110">
+        <v>10000</v>
+      </c>
+      <c r="O110">
+        <v>2000000000</v>
+      </c>
+      <c r="P110">
+        <v>100</v>
+      </c>
+      <c r="T110" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>527</v>
+      </c>
+      <c r="AD110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
+      <c r="A111">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>532</v>
+      </c>
+      <c r="C111" t="s">
+        <v>533</v>
+      </c>
+      <c r="G111" t="s">
+        <v>534</v>
+      </c>
+      <c r="H111">
+        <v>3000</v>
+      </c>
+      <c r="I111">
+        <v>1500</v>
+      </c>
+      <c r="M111">
+        <v>5000</v>
+      </c>
+      <c r="N111">
+        <v>1000</v>
+      </c>
+      <c r="P111">
+        <v>100</v>
+      </c>
+      <c r="T111" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
+      <c r="A112">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>537</v>
+      </c>
+      <c r="C112" t="s">
+        <v>533</v>
+      </c>
+      <c r="G112" t="s">
+        <v>538</v>
+      </c>
+      <c r="H112">
+        <v>5000</v>
+      </c>
+      <c r="I112">
+        <v>1500</v>
+      </c>
+      <c r="M112">
+        <v>10000</v>
+      </c>
+      <c r="N112">
+        <v>2000</v>
+      </c>
+      <c r="P112">
+        <v>100</v>
+      </c>
+      <c r="T112" t="s">
+        <v>532</v>
+      </c>
+      <c r="U112" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30">
+      <c r="A113">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>542</v>
+      </c>
+      <c r="C113" t="s">
+        <v>533</v>
+      </c>
+      <c r="G113" t="s">
+        <v>543</v>
+      </c>
+      <c r="H113">
+        <v>10000</v>
+      </c>
+      <c r="I113">
+        <v>5000</v>
+      </c>
+      <c r="L113" t="s">
+        <v>544</v>
+      </c>
+      <c r="M113">
+        <v>50000</v>
+      </c>
+      <c r="N113">
+        <v>25000</v>
+      </c>
+      <c r="P113">
+        <v>100</v>
+      </c>
+      <c r="T113" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30">
+      <c r="A114">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>547</v>
+      </c>
+      <c r="C114" t="s">
+        <v>533</v>
+      </c>
+      <c r="G114" t="s">
+        <v>544</v>
+      </c>
+      <c r="H114">
+        <v>10000</v>
+      </c>
+      <c r="I114">
+        <v>10000</v>
+      </c>
+      <c r="L114" t="s">
+        <v>548</v>
+      </c>
+      <c r="M114">
+        <v>20000</v>
+      </c>
+      <c r="N114">
+        <v>20000</v>
+      </c>
+      <c r="P114">
+        <v>100</v>
+      </c>
+      <c r="T114" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>550</v>
+      </c>
+      <c r="AD114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30">
+      <c r="A115">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>551</v>
+      </c>
+      <c r="C115" t="s">
+        <v>526</v>
+      </c>
+      <c r="E115" t="s">
+        <v>521</v>
+      </c>
+      <c r="H115">
+        <v>1000</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="M115">
+        <v>1000</v>
+      </c>
+      <c r="N115">
+        <v>500</v>
+      </c>
+      <c r="O115">
+        <v>2000000000</v>
+      </c>
+      <c r="P115">
+        <v>100</v>
+      </c>
+      <c r="T115" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
+      <c r="A116">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>554</v>
+      </c>
+      <c r="C116" t="s">
+        <v>526</v>
+      </c>
+      <c r="G116" t="s">
+        <v>528</v>
+      </c>
+      <c r="H116">
+        <v>2000</v>
+      </c>
+      <c r="I116">
+        <v>500</v>
+      </c>
+      <c r="M116">
+        <v>10000</v>
+      </c>
+      <c r="N116">
+        <v>500</v>
+      </c>
+      <c r="O116">
+        <v>2000000000</v>
+      </c>
+      <c r="P116">
+        <v>100</v>
+      </c>
+      <c r="T116" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
+      <c r="A117">
+        <v>111</v>
+      </c>
+      <c r="B117" t="s">
+        <v>557</v>
+      </c>
+      <c r="C117" t="s">
+        <v>526</v>
+      </c>
+      <c r="H117">
+        <v>2000</v>
+      </c>
+      <c r="I117">
+        <v>500</v>
+      </c>
+      <c r="M117">
+        <v>5000</v>
+      </c>
+      <c r="N117">
+        <v>500</v>
+      </c>
+      <c r="O117">
+        <v>2000000000</v>
+      </c>
+      <c r="P117">
+        <v>100</v>
+      </c>
+      <c r="T117" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>559</v>
+      </c>
+      <c r="AD117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30">
+      <c r="A118">
+        <v>112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>527</v>
+      </c>
+      <c r="C118" t="s">
+        <v>526</v>
+      </c>
+      <c r="G118" t="s">
+        <v>527</v>
+      </c>
+      <c r="H118">
+        <v>3000</v>
+      </c>
+      <c r="I118">
+        <v>1000</v>
+      </c>
+      <c r="M118">
+        <v>5000</v>
+      </c>
+      <c r="N118">
+        <v>2000</v>
+      </c>
+      <c r="O118">
+        <v>2000000000</v>
+      </c>
+      <c r="P118">
+        <v>100</v>
+      </c>
+      <c r="T118" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>562</v>
+      </c>
+      <c r="C119" t="s">
+        <v>469</v>
+      </c>
+      <c r="D119" t="s">
+        <v>563</v>
+      </c>
+      <c r="E119" t="s">
+        <v>542</v>
+      </c>
+      <c r="H119">
+        <v>25000</v>
+      </c>
+      <c r="I119">
+        <v>25000</v>
+      </c>
+      <c r="M119">
+        <v>50000</v>
+      </c>
+      <c r="N119">
+        <v>25000</v>
+      </c>
+      <c r="O119">
+        <v>10000000000</v>
+      </c>
+      <c r="P119">
+        <v>100</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>565</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>542</v>
+      </c>
+      <c r="AD119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>566</v>
+      </c>
+      <c r="C120" t="s">
+        <v>469</v>
+      </c>
+      <c r="D120" t="s">
+        <v>563</v>
+      </c>
+      <c r="G120" t="s">
+        <v>567</v>
+      </c>
+      <c r="H120">
+        <v>15000</v>
+      </c>
+      <c r="I120">
+        <v>5000</v>
+      </c>
+      <c r="M120">
+        <v>10000</v>
+      </c>
+      <c r="N120">
+        <v>5000</v>
+      </c>
+      <c r="O120">
+        <v>10000000000</v>
+      </c>
+      <c r="P120">
+        <v>100</v>
+      </c>
+      <c r="T120" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>569</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>570</v>
+      </c>
+      <c r="C121" t="s">
+        <v>469</v>
+      </c>
+      <c r="D121" t="s">
+        <v>563</v>
+      </c>
+      <c r="G121" t="s">
+        <v>571</v>
+      </c>
+      <c r="H121">
+        <v>15000</v>
+      </c>
+      <c r="I121">
+        <v>10000</v>
+      </c>
+      <c r="M121">
+        <v>20000</v>
+      </c>
+      <c r="N121">
+        <v>20000</v>
+      </c>
+      <c r="P121">
+        <v>100</v>
+      </c>
+      <c r="T121" t="s">
+        <v>566</v>
+      </c>
+      <c r="U121" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>575</v>
+      </c>
+      <c r="C122" t="s">
+        <v>469</v>
+      </c>
+      <c r="D122" t="s">
+        <v>563</v>
+      </c>
+      <c r="G122" t="s">
+        <v>576</v>
+      </c>
+      <c r="H122">
+        <v>25000</v>
+      </c>
+      <c r="I122">
+        <v>2000</v>
+      </c>
+      <c r="O122">
+        <v>10000000000</v>
+      </c>
+      <c r="P122">
+        <v>100</v>
+      </c>
+      <c r="T122" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>578</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>579</v>
+      </c>
+      <c r="C123" t="s">
+        <v>469</v>
+      </c>
+      <c r="D123" t="s">
+        <v>563</v>
+      </c>
+      <c r="G123" t="s">
+        <v>580</v>
+      </c>
+      <c r="H123">
+        <v>20000</v>
+      </c>
+      <c r="I123">
+        <v>20000</v>
+      </c>
+      <c r="O123">
+        <v>10000000000</v>
+      </c>
+      <c r="P123">
+        <v>100</v>
+      </c>
+      <c r="T123" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>583</v>
+      </c>
+      <c r="C124" t="s">
+        <v>426</v>
+      </c>
+      <c r="D124" t="s">
+        <v>563</v>
+      </c>
+      <c r="G124" t="s">
+        <v>584</v>
+      </c>
+      <c r="H124">
+        <v>50000</v>
+      </c>
+      <c r="I124">
+        <v>25000</v>
+      </c>
+      <c r="M124">
+        <v>75000</v>
+      </c>
+      <c r="N124">
+        <v>75000</v>
+      </c>
+      <c r="O124">
+        <v>50000000000</v>
+      </c>
+      <c r="P124">
+        <v>100</v>
+      </c>
+      <c r="T124" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>585</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>586</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD124">
         <v>4</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="594">
   <si>
     <t>id</t>
   </si>
@@ -1776,6 +1776,27 @@
   </si>
   <si>
     <t>You manged to get out the area and run – its confusing, one moment there is a talking cat, an Ice queen and the next there is The Poet and a Bleeding man.&lt;br /&gt; &lt;br /&gt; “You have my walking stick.” The Poet states.&lt;br /&gt; &lt;br /&gt; You turn around and you are right back where you were. The man is gone. You ask where he went.&lt;br /&gt; &lt;br /&gt; “This isn’t your reality.” The Poet states. “What are you doing here?” he asks.&lt;br /&gt; &lt;br /&gt; He deflected your question and you hesitate I answering him. What if this is another trap?&lt;br /&gt; &lt;br /&gt; You contemplate for a moment your next move.</t>
+  </si>
+  <si>
+    <t>Where did you go?</t>
+  </si>
+  <si>
+    <t>Rusted Keys</t>
+  </si>
+  <si>
+    <t>What are you doing here? Where did The Queen go?&lt;br /&gt; &lt;br /&gt; The Poet continues to stare at you for a moment before the boy with the blood on his forehead speaks.&lt;br /&gt; &lt;br /&gt; “I feel like I know you. Have we met before?”&lt;br /&gt; &lt;br /&gt; You have only heard of The Creator, you have never seen him before. You have heard the tales of The Child, but you have never interacted with him.&lt;br /&gt; &lt;br /&gt; “Enough.” The Poet interrupts before you can say anything.&lt;br /&gt; &lt;br /&gt; “This child is not of this reality. You cannot be here.”&lt;br /&gt; &lt;br /&gt; He waves his hand and a moment later you lay on the snow covered ground. You look around and see the Frozen Wreck.&lt;br /&gt; &lt;br /&gt; What is going on?</t>
+  </si>
+  <si>
+    <t>You managed to find some rusted keys in the snow. You stare at them for a moment before a familiar voice interrupts your thoughts.&lt;br /&gt; &lt;br /&gt; “Where did you go?”&lt;br /&gt; &lt;br /&gt; You look down and see Mr. Whiskers.&lt;br /&gt; &lt;br /&gt; Where did I go?</t>
+  </si>
+  <si>
+    <t>You have to go home now</t>
+  </si>
+  <si>
+    <t>You explain to Mr. Whiskers everything that happened after you used the stave on The Ice Queen.&lt;br /&gt; &lt;br /&gt; “You just vanished in the blink of an eye. She isn’t dead, stunned, wounded even – but not dead. You have enraged The Creator though. His energy, his rage, his hatred is starting to corrupt this land, the ice, the wind – the very essence of this plane.”&lt;br /&gt; &lt;br /&gt; You look around and you can feel the darkness creeping into your mind, corrupting your own memories, causing you to become frozen in this place, frozen in this time.&lt;br /&gt; &lt;br /&gt; “You have to get out. You have to go. You have caused a great instability.”</t>
+  </si>
+  <si>
+    <t>You can’t seem to find a way out as the darkness starts to creep in further, as the cold and the chill of these lost and corrupted memories start to settle into your soul twisting it inn to something dark and all consuming.&lt;br /&gt; &lt;br /&gt; A void starts to set in to your mind.&lt;br /&gt; &lt;br /&gt; “There is something that might help.” Mr. Whiskers states as his voice grounds you back into a sense of reality and normalcy, even if it only for a moment.&lt;br /&gt; &lt;br /&gt; You ask him what it is.&lt;br /&gt; &lt;br /&gt; “There is a wallet, I need it – it contains a picture. I can use that picture to detract The Queen and The Creator long enough for you to escape with some sense of your sanity intact.</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2136,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -7353,6 +7374,91 @@
         <v>4</v>
       </c>
     </row>
+    <row r="125" spans="1:30">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>587</v>
+      </c>
+      <c r="C125" t="s">
+        <v>469</v>
+      </c>
+      <c r="D125" t="s">
+        <v>563</v>
+      </c>
+      <c r="E125" t="s">
+        <v>583</v>
+      </c>
+      <c r="G125" t="s">
+        <v>588</v>
+      </c>
+      <c r="H125">
+        <v>20000</v>
+      </c>
+      <c r="I125">
+        <v>20000</v>
+      </c>
+      <c r="P125">
+        <v>200</v>
+      </c>
+      <c r="T125" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>591</v>
+      </c>
+      <c r="C126" t="s">
+        <v>469</v>
+      </c>
+      <c r="D126" t="s">
+        <v>563</v>
+      </c>
+      <c r="H126">
+        <v>30000</v>
+      </c>
+      <c r="I126">
+        <v>30000</v>
+      </c>
+      <c r="P126">
+        <v>500</v>
+      </c>
+      <c r="T126" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD126">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -1601,85 +1601,85 @@
     <t>The Child's Journal</t>
   </si>
   <si>
+    <t>Bloody Snowball</t>
+  </si>
+  <si>
+    <t>You stare at The Soldiers Brother for a moment and then ask him what any of this has to do with anything?&lt;br /&gt; &lt;br /&gt; “The night we came to find The Child, he was long gone. The night we we came to find The Child was the night they found the truth. That was the night my Father banished my brother to the cold and told him to never look back for The Church would be hunting him for his crimes against God.”&lt;br /&gt; &lt;br /&gt; That’s when it hit you.&lt;br /&gt; &lt;br /&gt; The Soldier’s forbidden love … Was his brother.</t>
+  </si>
+  <si>
+    <t>You hold in your hand a Bloody Shirt that you found on a wondering creature. You stepped outside after the story, two brothers. Two lovers. Was it unholy, was it unnatural? Maybe. With everything you have seen, the death, the pain, the infliction of confusion and the haunting torment that follows you across the various planes comes the question of who is one to judge who one loves in these times.&lt;br /&gt; &lt;br /&gt; So what did this story have to do with The Child? You remember the journal and flip through its pages only to find an entry:&lt;br /&gt; &lt;br /&gt; “The Child found a wondering man, a drunkard who was aimless and seeking a direction in life. One who seemed like had everything stolen from him. It was the night the snow fell and The Child celebrated the coming new year with those he considered his friends: The Red Hawk Soldiers. Neither The Child nor his companions knew who this drunkard really was, they welcomed him among their ranks.”&lt;br /&gt; &lt;br /&gt; The Soldier joined The Child in his fight against The Church and The Federation, The Federation was where his father was. It made sense now as to how the two are indirectly tied.&lt;br /&gt; &lt;br /&gt; “There's something I need, something that can help you in your war against The Ice Queen and her frozen lands.”&lt;br /&gt; &lt;br /&gt; You turn and see The Soldiers Brother standing before you.&lt;br /&gt; &lt;br /&gt; “Do this for me, and ill give you something that will let you control the land around you.”</t>
+  </si>
+  <si>
+    <t>The Experiments</t>
+  </si>
+  <si>
+    <t>Trix</t>
+  </si>
+  <si>
+    <t>Pages of the holy book</t>
+  </si>
+  <si>
+    <t>You ask the child what he means by: The whisper of the past is coming back like a scream.&lt;br /&gt; &lt;br /&gt; “I understand not what you ask child. But I do have something to share with you. The Church holds a secret unlike any other. It is said that The Church has started to practice the art of Alchemy. They had texts and magical research in their studies and in the research areas. They even practiced their twisted magics on the children – to make them more holy.”&lt;br /&gt; &lt;br /&gt; You might be able to find some of the pages around here, they called it their holy book.</t>
+  </si>
+  <si>
+    <t>You managed to find some torn pages around the area that detail the horrific experiments and abuses done to the children by those at The Church who practiced a different kind of alchemy, a darker more twisted version of it’s self.&lt;br /&gt; &lt;br /&gt; They detail the experiments and the outcomes of turning these children in to more holy elevated beings, only for the experiments to have failed and instead corrupt their souls causing the priests and the soldiers to have to put the children down.&lt;br /&gt; &lt;br /&gt; You hand the pages over to Trix and ask what use they are to him.&lt;br /&gt; &lt;br /&gt; “They are of no use to me child, they are for you to understand why it happened.”&lt;br /&gt; &lt;br /&gt; Why what happened the experiments?&lt;br /&gt; &lt;br /&gt; “No. The raid.”</t>
+  </si>
+  <si>
+    <t>The Memories and The War Plans</t>
+  </si>
+  <si>
+    <t>Box of Memories</t>
+  </si>
+  <si>
+    <t>Child's Drawings</t>
+  </si>
+  <si>
+    <t>“The night the snow stopped falling was the night they moved in silence through these fields, it was also the night they invaded The Church.” Trix began.&lt;br /&gt; &lt;br /&gt; “They came in the silence and they slaughtered the priests in their studies. They discovered the travesties that were taking place and put those responsible down. They saved us. I remember him, The Creator – although then he was known as The Child. He saved me. He gave me a box I lost around here. I gave him the drawings – he might have lost them as well, but they were like a map. A map through the church.</t>
+  </si>
+  <si>
+    <t>You found the box and the drawings and handed them over to Trix.&lt;br /&gt; &lt;br /&gt; “That was the last night I knew pain and suffering. Or so I thought.” Trix began.&lt;br /&gt; &lt;br /&gt; “They, the Red Hawk Soldiers and The Child took us, the remaining children to hide out at what is now known as The Abandoned Village. A few months later it burned to the ground. A few months later it was attacked by The Federation. They came, they burned, raped, pillaged, destroyed, slaughtered everything in their path – in the name of retribution.”&lt;br /&gt; &lt;br /&gt; he pauses to stare at his toy box and the drawings. The snow starts to fall again and the silence is as deafening as it ever was.&lt;br /&gt; &lt;br /&gt; “The Child escaped.” He continued.&lt;br /&gt; &lt;br /&gt; “The Child escaped.”</t>
+  </si>
+  <si>
+    <t>The Sword and The Door</t>
+  </si>
+  <si>
+    <t>Red Hawks Sword</t>
+  </si>
+  <si>
+    <t>The Letter</t>
+  </si>
+  <si>
+    <t>You search the area for Trix but he is no where to be found. The snow falls more heavily now and you start to think back on your time here in this world. It’s dark, twisted, broken and frozen landscapes contrast with that of the inhabitants, lost memories and ghosts of another time ruled by a mad queen who can’t let go of the grief and loss she has suffered.&lt;br /&gt; &lt;br /&gt; It all starts to make sense now, it’s all connected to The Creator, its all connected to his story, to his own inability to let go, to crave peace and happiness as opposed to living in the darkness and depravity of his own twisted disillusion and self inflicted madness.&lt;br /&gt; &lt;br /&gt; But why not let go? What do you cling to? What memory, what hope – what fleeting light do you grasp to. Why keep all this alive? What does it serve you in the end?</t>
+  </si>
+  <si>
+    <t>You stumble across a sword in the snow guarded by fearsome creatures you slaughter. You spill their blood upon the snow already stained with the blood of the past and its twisted memories.&lt;br /&gt; &lt;br /&gt; “You found the sword.” Comes a familiar and small voice of said past. Trix stands before you in the snow looking at the sword. You ask what the significance of the sword is and he states its nothing, its a symbol of the night the raid took place, of the night they rescued the children from the horrors of what would have been.&lt;br /&gt; &lt;br /&gt; You ask about the abandoned village stating that the story of his death didn’t make sense with that of The Queens.&lt;br /&gt; &lt;br /&gt; “Death takes place in different timelines, but in the same place at the same time – causing the paradox before you. Two places, two different timelines, the exact same time. Its how she got here. My death opened the door for her to come, she just chose to never leave.”&lt;br /&gt; &lt;br /&gt; This makes you wonder – did The Creator come through a door?&lt;br /&gt; &lt;br /&gt; “Here.” Trix hands you an envelope. You ask what it is.&lt;br /&gt; &lt;br /&gt; “A letter to the Soldier from his brother. Take it to him. He has something for you.”&lt;br /&gt; &lt;br /&gt; What could he have?</t>
+  </si>
+  <si>
+    <t>Reuniting Two Old Flames</t>
+  </si>
+  <si>
+    <t>Ice Queens Treaty Scrolls</t>
+  </si>
+  <si>
+    <t>You arrive at a pub in Smugglers Port where you see The Soldier sitting alone at a table drinking.&lt;br /&gt; &lt;br /&gt; You sit down across from him and he greets you with a warm smile. “What brings you here child?”&lt;br /&gt; &lt;br /&gt; You explain the adventures you have been on, the Ice Plane, The Queen, The Creator, How it is all connected together. You then explain the story about his brother and he stops you.&lt;br /&gt; &lt;br /&gt; “That is something we do not talk about child. My past is mine alone and I wont have you meddling it in with your stories of nonsense.”&lt;br /&gt; &lt;br /&gt; The Soldier stands and snatches the letter from your hands.&lt;br /&gt; &lt;br /&gt; “You dare not to travel down this road child. You will regret it.”</t>
+  </si>
+  <si>
+    <t>You stand alone on the docks of Smugglers Port waiting for The Soldier to arrive. You see him walking down the docks to meet you.&lt;br /&gt; &lt;br /&gt; “What is it you want child?”&lt;br /&gt; &lt;br /&gt; You grab his hand and utter the words, and before he can protest you and The Soldier stand in the middle of a frozen road. He turns and sees the familiar sign, the words – its haunts him – written all over his face: Gas and Sip.&lt;br /&gt; &lt;br /&gt; “How could you!” He screams.&lt;br /&gt; &lt;br /&gt; “Brother.” Comes a familiar voice.&lt;br /&gt; &lt;br /&gt; The two brothers stand face to face in the frozen desolate landscape of memories better left to rot in the darkness of their own twisted depravity. But there is something beautiful in the reuniting of two brothers, two lovers. Two sinners.&lt;br /&gt; &lt;br /&gt; “I have something for you.” The Soldiers Brother begins. “For doing me this favor.”&lt;br /&gt; &lt;br /&gt; He hands you a scroll.&lt;br /&gt; &lt;br /&gt; “With this, you can settle any where you please. You will find these lands to be much more hostile then where you come from child.”</t>
+  </si>
+  <si>
+    <t>Broken Road</t>
+  </si>
+  <si>
+    <t>It has been weeks since you last entered the house to face the shadows of the The Creator and his own families memories of pain and misery.&lt;br /&gt; &lt;br /&gt; You have walked into the wilderness looking for more answers to the past, looking for a way to kill The Ice Queen.&lt;br /&gt; &lt;br /&gt; You have been told by The Poet that their might be story of answers to the west, along the old broken road that leads to the abandoned church.&lt;br /&gt; &lt;br /&gt; You ask him what could possibly be over there that could be of help in this frozen waste land.&lt;br /&gt; &lt;br /&gt; “The ability to declare war upon her land child.” He smiles as he states this.&lt;br /&gt; &lt;br /&gt; “Seek out the soldiers brother, his own father was a great general.”</t>
+  </si>
+  <si>
+    <t>You arrive at the road, snow covered with trees off to the side, the road travels through a dark forest, whose trees are covered in lights. Lights that glow red, green and blue. There is sparkly hanging tinsel through out the trees.&lt;br /&gt; &lt;br /&gt; You slowly begin the travel don the road and feel the wind get colder, the snow falls more heavily here and seek out some kind of shelter.&lt;br /&gt; &lt;br /&gt; Off to the distance you see an old building, as you get closer you can read a fading title: Gas and Sip, what ever that means.&lt;br /&gt; &lt;br /&gt; You enter the abandoned building and see a counter as well as isles of empty shelves.&lt;br /&gt; &lt;br /&gt; You turn around and a handsome blonde, blue eyed man no older then 28 stands before you. Clad in leather Armour and carrying a short sword he stairs you down.</t>
+  </si>
+  <si>
+    <t>The Soldiers Forbidden Love</t>
+  </si>
+  <si>
     <t>The Soldiers Journal</t>
-  </si>
-  <si>
-    <t>Bloody Snowball</t>
-  </si>
-  <si>
-    <t>You stare at The Soldiers Brother for a moment and then ask him what any of this has to do with anything?&lt;br /&gt; &lt;br /&gt; “The night we came to find The Child, he was long gone. The night we we came to find The Child was the night they found the truth. That was the night my Father banished my brother to the cold and told him to never look back for The Church would be hunting him for his crimes against God.”&lt;br /&gt; &lt;br /&gt; That’s when it hit you.&lt;br /&gt; &lt;br /&gt; The Soldier’s forbidden love … Was his brother.</t>
-  </si>
-  <si>
-    <t>You hold in your hand a Bloody Shirt that you found on a wondering creature. You stepped outside after the story, two brothers. Two lovers. Was it unholy, was it unnatural? Maybe. With everything you have seen, the death, the pain, the infliction of confusion and the haunting torment that follows you across the various planes comes the question of who is one to judge who one loves in these times.&lt;br /&gt; &lt;br /&gt; So what did this story have to do with The Child? You remember the journal and flip through its pages only to find an entry:&lt;br /&gt; &lt;br /&gt; “The Child found a wondering man, a drunkard who was aimless and seeking a direction in life. One who seemed like had everything stolen from him. It was the night the snow fell and The Child celebrated the coming new year with those he considered his friends: The Red Hawk Soldiers. Neither The Child nor his companions knew who this drunkard really was, they welcomed him among their ranks.”&lt;br /&gt; &lt;br /&gt; The Soldier joined The Child in his fight against The Church and The Federation, The Federation was where his father was. It made sense now as to how the two are indirectly tied.&lt;br /&gt; &lt;br /&gt; “There's something I need, something that can help you in your war against The Ice Queen and her frozen lands.”&lt;br /&gt; &lt;br /&gt; You turn and see The Soldiers Brother standing before you.&lt;br /&gt; &lt;br /&gt; “Do this for me, and ill give you something that will let you control the land around you.”</t>
-  </si>
-  <si>
-    <t>The Experiments</t>
-  </si>
-  <si>
-    <t>Trix</t>
-  </si>
-  <si>
-    <t>Pages of the holy book</t>
-  </si>
-  <si>
-    <t>You ask the child what he means by: The whisper of the past is coming back like a scream.&lt;br /&gt; &lt;br /&gt; “I understand not what you ask child. But I do have something to share with you. The Church holds a secret unlike any other. It is said that The Church has started to practice the art of Alchemy. They had texts and magical research in their studies and in the research areas. They even practiced their twisted magics on the children – to make them more holy.”&lt;br /&gt; &lt;br /&gt; You might be able to find some of the pages around here, they called it their holy book.</t>
-  </si>
-  <si>
-    <t>You managed to find some torn pages around the area that detail the horrific experiments and abuses done to the children by those at The Church who practiced a different kind of alchemy, a darker more twisted version of it’s self.&lt;br /&gt; &lt;br /&gt; They detail the experiments and the outcomes of turning these children in to more holy elevated beings, only for the experiments to have failed and instead corrupt their souls causing the priests and the soldiers to have to put the children down.&lt;br /&gt; &lt;br /&gt; You hand the pages over to Trix and ask what use they are to him.&lt;br /&gt; &lt;br /&gt; “They are of no use to me child, they are for you to understand why it happened.”&lt;br /&gt; &lt;br /&gt; Why what happened the experiments?&lt;br /&gt; &lt;br /&gt; “No. The raid.”</t>
-  </si>
-  <si>
-    <t>The Memories and The War Plans</t>
-  </si>
-  <si>
-    <t>Box of Memories</t>
-  </si>
-  <si>
-    <t>Child's Drawings</t>
-  </si>
-  <si>
-    <t>“The night the snow stopped falling was the night they moved in silence through these fields, it was also the night they invaded The Church.” Trix began.&lt;br /&gt; &lt;br /&gt; “They came in the silence and they slaughtered the priests in their studies. They discovered the travesties that were taking place and put those responsible down. They saved us. I remember him, The Creator – although then he was known as The Child. He saved me. He gave me a box I lost around here. I gave him the drawings – he might have lost them as well, but they were like a map. A map through the church.</t>
-  </si>
-  <si>
-    <t>You found the box and the drawings and handed them over to Trix.&lt;br /&gt; &lt;br /&gt; “That was the last night I knew pain and suffering. Or so I thought.” Trix began.&lt;br /&gt; &lt;br /&gt; “They, the Red Hawk Soldiers and The Child took us, the remaining children to hide out at what is now known as The Abandoned Village. A few months later it burned to the ground. A few months later it was attacked by The Federation. They came, they burned, raped, pillaged, destroyed, slaughtered everything in their path – in the name of retribution.”&lt;br /&gt; &lt;br /&gt; he pauses to stare at his toy box and the drawings. The snow starts to fall again and the silence is as deafening as it ever was.&lt;br /&gt; &lt;br /&gt; “The Child escaped.” He continued.&lt;br /&gt; &lt;br /&gt; “The Child escaped.”</t>
-  </si>
-  <si>
-    <t>The Sword and The Door</t>
-  </si>
-  <si>
-    <t>Red Hawks Sword</t>
-  </si>
-  <si>
-    <t>The Letter</t>
-  </si>
-  <si>
-    <t>You search the area for Trix but he is no where to be found. The snow falls more heavily now and you start to think back on your time here in this world. It’s dark, twisted, broken and frozen landscapes contrast with that of the inhabitants, lost memories and ghosts of another time ruled by a mad queen who can’t let go of the grief and loss she has suffered.&lt;br /&gt; &lt;br /&gt; It all starts to make sense now, it’s all connected to The Creator, its all connected to his story, to his own inability to let go, to crave peace and happiness as opposed to living in the darkness and depravity of his own twisted disillusion and self inflicted madness.&lt;br /&gt; &lt;br /&gt; But why not let go? What do you cling to? What memory, what hope – what fleeting light do you grasp to. Why keep all this alive? What does it serve you in the end?</t>
-  </si>
-  <si>
-    <t>You stumble across a sword in the snow guarded by fearsome creatures you slaughter. You spill their blood upon the snow already stained with the blood of the past and its twisted memories.&lt;br /&gt; &lt;br /&gt; “You found the sword.” Comes a familiar and small voice of said past. Trix stands before you in the snow looking at the sword. You ask what the significance of the sword is and he states its nothing, its a symbol of the night the raid took place, of the night they rescued the children from the horrors of what would have been.&lt;br /&gt; &lt;br /&gt; You ask about the abandoned village stating that the story of his death didn’t make sense with that of The Queens.&lt;br /&gt; &lt;br /&gt; “Death takes place in different timelines, but in the same place at the same time – causing the paradox before you. Two places, two different timelines, the exact same time. Its how she got here. My death opened the door for her to come, she just chose to never leave.”&lt;br /&gt; &lt;br /&gt; This makes you wonder – did The Creator come through a door?&lt;br /&gt; &lt;br /&gt; “Here.” Trix hands you an envelope. You ask what it is.&lt;br /&gt; &lt;br /&gt; “A letter to the Soldier from his brother. Take it to him. He has something for you.”&lt;br /&gt; &lt;br /&gt; What could he have?</t>
-  </si>
-  <si>
-    <t>Reuniting Two Old Flames</t>
-  </si>
-  <si>
-    <t>Ice Queens Treaty Scrolls</t>
-  </si>
-  <si>
-    <t>You arrive at a pub in Smugglers Port where you see The Soldier sitting alone at a table drinking.&lt;br /&gt; &lt;br /&gt; You sit down across from him and he greets you with a warm smile. “What brings you here child?”&lt;br /&gt; &lt;br /&gt; You explain the adventures you have been on, the Ice Plane, The Queen, The Creator, How it is all connected together. You then explain the story about his brother and he stops you.&lt;br /&gt; &lt;br /&gt; “That is something we do not talk about child. My past is mine alone and I wont have you meddling it in with your stories of nonsense.”&lt;br /&gt; &lt;br /&gt; The Soldier stands and snatches the letter from your hands.&lt;br /&gt; &lt;br /&gt; “You dare not to travel down this road child. You will regret it.”</t>
-  </si>
-  <si>
-    <t>You stand alone on the docks of Smugglers Port waiting for The Soldier to arrive. You see him walking down the docks to meet you.&lt;br /&gt; &lt;br /&gt; “What is it you want child?”&lt;br /&gt; &lt;br /&gt; You grab his hand and utter the words, and before he can protest you and The Soldier stand in the middle of a frozen road. He turns and sees the familiar sign, the words – its haunts him – written all over his face: Gas and Sip.&lt;br /&gt; &lt;br /&gt; “How could you!” He screams.&lt;br /&gt; &lt;br /&gt; “Brother.” Comes a familiar voice.&lt;br /&gt; &lt;br /&gt; The two brothers stand face to face in the frozen desolate landscape of memories better left to rot in the darkness of their own twisted depravity. But there is something beautiful in the reuniting of two brothers, two lovers. Two sinners.&lt;br /&gt; &lt;br /&gt; “I have something for you.” The Soldiers Brother begins. “For doing me this favor.”&lt;br /&gt; &lt;br /&gt; He hands you a scroll.&lt;br /&gt; &lt;br /&gt; “With this, you can settle any where you please. You will find these lands to be much more hostile then where you come from child.”</t>
-  </si>
-  <si>
-    <t>Broken Road</t>
-  </si>
-  <si>
-    <t>It has been weeks since you last entered the house to face the shadows of the The Creator and his own families memories of pain and misery.&lt;br /&gt; &lt;br /&gt; You have walked into the wilderness looking for more answers to the past, looking for a way to kill The Ice Queen.&lt;br /&gt; &lt;br /&gt; You have been told by The Poet that their might be story of answers to the west, along the old broken road that leads to the abandoned church.&lt;br /&gt; &lt;br /&gt; You ask him what could possibly be over there that could be of help in this frozen waste land.&lt;br /&gt; &lt;br /&gt; “The ability to declare war upon her land child.” He smiles as he states this.&lt;br /&gt; &lt;br /&gt; “Seek out the soldiers brother, his own father was a great general.”</t>
-  </si>
-  <si>
-    <t>You arrive at the road, snow covered with trees off to the side, the road travels through a dark forest, whose trees are covered in lights. Lights that glow red, green and blue. There is sparkly hanging tinsel through out the trees.&lt;br /&gt; &lt;br /&gt; You slowly begin the travel don the road and feel the wind get colder, the snow falls more heavily here and seek out some kind of shelter.&lt;br /&gt; &lt;br /&gt; Off to the distance you see an old building, as you get closer you can read a fading title: Gas and Sip, what ever that means.&lt;br /&gt; &lt;br /&gt; You enter the abandoned building and see a counter as well as isles of empty shelves.&lt;br /&gt; &lt;br /&gt; You turn around and a handsome blonde, blue eyed man no older then 28 stands before you. Clad in leather Armour and carrying a short sword he stairs you down.</t>
-  </si>
-  <si>
-    <t>The Soldiers Forbidden Love</t>
   </si>
   <si>
     <t>“Who are you?” Asks the mysterious and handsome man. He walks around you and over to the counter where he puts his sword down and turns to face you.&lt;br /&gt; &lt;br /&gt; He clearly sees you as no threat, which might be to his detriment if you decide to take him out.&lt;br /&gt; &lt;br /&gt; You explain that you were sent here to search for The Soldiers brother, that The Poet sent you.&lt;br /&gt; &lt;br /&gt; “The Poet sent you. Did he tell you that he is responsible for my death? For my brothers pain that he carries with him now?”&lt;br /&gt; &lt;br /&gt; You step back and tell him you know nothing.&lt;br /&gt; &lt;br /&gt; “Perhaps you should gain and understanding of what you have been asked to do child.”&lt;br /&gt; &lt;br /&gt; You stare at him in confusion.</t>
@@ -6700,9 +6700,6 @@
       <c r="E110" t="s">
         <v>527</v>
       </c>
-      <c r="G110" t="s">
-        <v>528</v>
-      </c>
       <c r="H110">
         <v>5000</v>
       </c>
@@ -6710,7 +6707,7 @@
         <v>2000</v>
       </c>
       <c r="L110" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M110">
         <v>20000</v>
@@ -6728,10 +6725,10 @@
         <v>521</v>
       </c>
       <c r="Z110" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA110" t="s">
         <v>530</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>531</v>
       </c>
       <c r="AC110" t="s">
         <v>527</v>
@@ -6745,13 +6742,13 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
+        <v>531</v>
+      </c>
+      <c r="C111" t="s">
         <v>532</v>
       </c>
-      <c r="C111" t="s">
+      <c r="G111" t="s">
         <v>533</v>
-      </c>
-      <c r="G111" t="s">
-        <v>534</v>
       </c>
       <c r="H111">
         <v>3000</v>
@@ -6772,10 +6769,10 @@
         <v>525</v>
       </c>
       <c r="Z111" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA111" t="s">
         <v>535</v>
-      </c>
-      <c r="AA111" t="s">
-        <v>536</v>
       </c>
       <c r="AD111">
         <v>4</v>
@@ -6786,13 +6783,13 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
+        <v>536</v>
+      </c>
+      <c r="C112" t="s">
+        <v>532</v>
+      </c>
+      <c r="G112" t="s">
         <v>537</v>
-      </c>
-      <c r="C112" t="s">
-        <v>533</v>
-      </c>
-      <c r="G112" t="s">
-        <v>538</v>
       </c>
       <c r="H112">
         <v>5000</v>
@@ -6810,16 +6807,16 @@
         <v>100</v>
       </c>
       <c r="T112" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U112" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z112" t="s">
         <v>539</v>
       </c>
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>540</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>541</v>
       </c>
       <c r="AD112">
         <v>4</v>
@@ -6830,13 +6827,13 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
+        <v>541</v>
+      </c>
+      <c r="C113" t="s">
+        <v>532</v>
+      </c>
+      <c r="G113" t="s">
         <v>542</v>
-      </c>
-      <c r="C113" t="s">
-        <v>533</v>
-      </c>
-      <c r="G113" t="s">
-        <v>543</v>
       </c>
       <c r="H113">
         <v>10000</v>
@@ -6845,7 +6842,7 @@
         <v>5000</v>
       </c>
       <c r="L113" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M113">
         <v>50000</v>
@@ -6857,13 +6854,13 @@
         <v>100</v>
       </c>
       <c r="T113" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Z113" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA113" t="s">
         <v>545</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>546</v>
       </c>
       <c r="AD113">
         <v>4</v>
@@ -6874,13 +6871,13 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G114" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H114">
         <v>10000</v>
@@ -6889,7 +6886,7 @@
         <v>10000</v>
       </c>
       <c r="L114" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M114">
         <v>20000</v>
@@ -6904,10 +6901,10 @@
         <v>525</v>
       </c>
       <c r="Z114" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA114" t="s">
         <v>549</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>550</v>
       </c>
       <c r="AD114">
         <v>4</v>
@@ -6918,7 +6915,7 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C115" t="s">
         <v>526</v>
@@ -6948,10 +6945,10 @@
         <v>468</v>
       </c>
       <c r="Z115" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA115" t="s">
         <v>552</v>
-      </c>
-      <c r="AA115" t="s">
-        <v>553</v>
       </c>
       <c r="AC115" t="s">
         <v>521</v>
@@ -6965,13 +6962,13 @@
         <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C116" t="s">
         <v>526</v>
       </c>
       <c r="G116" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="H116">
         <v>2000</v>
@@ -6992,7 +6989,7 @@
         <v>100</v>
       </c>
       <c r="T116" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Z116" t="s">
         <v>555</v>
@@ -7033,7 +7030,7 @@
         <v>100</v>
       </c>
       <c r="T117" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z117" t="s">
         <v>558</v>
@@ -7100,7 +7097,7 @@
         <v>563</v>
       </c>
       <c r="E119" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H119">
         <v>25000</v>
@@ -7133,7 +7130,7 @@
         <v>563</v>
       </c>
       <c r="AC119" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AD119">
         <v>4</v>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="593">
   <si>
     <t>id</t>
   </si>
@@ -1704,9 +1704,6 @@
   </si>
   <si>
     <t>Defeating The Queen</t>
-  </si>
-  <si>
-    <t>The Ice Queens Reign</t>
   </si>
   <si>
     <t>The wails of pain can be heard across the land. You stand in the darkness of the house and wonder if you should turn around and leave now.&lt;br /&gt; &lt;br /&gt; You can’t, you are frozen in place. Both in fear and curiosity. Here you are in The Creators childhood home. A home that is not of this reality, this plane, this timeline. It’s of the old timeline, the past, the old world. Before the bombs and the war – or sais The Poet.&lt;br /&gt; &lt;br /&gt; You stand in the darkness as a chill silence falls over the house. You slowly move from the entrance towards the living room down a hall. There sits a cat in the middle of the room. A familiar cat. Mr. Whiskers.</t>
@@ -6275,7 +6272,7 @@
     </row>
     <row r="101" spans="1:30">
       <c r="A101">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>484</v>
@@ -6325,7 +6322,7 @@
     </row>
     <row r="102" spans="1:30">
       <c r="A102">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>490</v>
@@ -6334,10 +6331,10 @@
         <v>469</v>
       </c>
       <c r="H102">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="I102">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="M102">
         <v>2000</v>
@@ -6366,7 +6363,7 @@
     </row>
     <row r="103" spans="1:30">
       <c r="A103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>493</v>
@@ -6410,7 +6407,7 @@
     </row>
     <row r="104" spans="1:30">
       <c r="A104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>497</v>
@@ -6451,7 +6448,7 @@
     </row>
     <row r="105" spans="1:30">
       <c r="A105">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>485</v>
@@ -6501,7 +6498,7 @@
     </row>
     <row r="106" spans="1:30">
       <c r="A106">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>505</v>
@@ -6548,7 +6545,7 @@
     </row>
     <row r="107" spans="1:30">
       <c r="A107">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>510</v>
@@ -6689,7 +6686,7 @@
     </row>
     <row r="110" spans="1:30">
       <c r="A110">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>525</v>
@@ -6739,7 +6736,7 @@
     </row>
     <row r="111" spans="1:30">
       <c r="A111">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>531</v>
@@ -6780,7 +6777,7 @@
     </row>
     <row r="112" spans="1:30">
       <c r="A112">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>536</v>
@@ -6824,7 +6821,7 @@
     </row>
     <row r="113" spans="1:30">
       <c r="A113">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>541</v>
@@ -6868,7 +6865,7 @@
     </row>
     <row r="114" spans="1:30">
       <c r="A114">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>546</v>
@@ -6912,7 +6909,7 @@
     </row>
     <row r="115" spans="1:30">
       <c r="A115">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>550</v>
@@ -6959,7 +6956,7 @@
     </row>
     <row r="116" spans="1:30">
       <c r="A116">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>553</v>
@@ -7003,7 +7000,7 @@
     </row>
     <row r="117" spans="1:30">
       <c r="A117">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>557</v>
@@ -7044,7 +7041,7 @@
     </row>
     <row r="118" spans="1:30">
       <c r="A118">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>527</v>
@@ -7093,9 +7090,6 @@
       <c r="C119" t="s">
         <v>469</v>
       </c>
-      <c r="D119" t="s">
-        <v>563</v>
-      </c>
       <c r="E119" t="s">
         <v>541</v>
       </c>
@@ -7121,13 +7115,10 @@
         <v>1</v>
       </c>
       <c r="Z119" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA119" t="s">
         <v>564</v>
-      </c>
-      <c r="AA119" t="s">
-        <v>565</v>
-      </c>
-      <c r="AB119" t="s">
-        <v>563</v>
       </c>
       <c r="AC119" t="s">
         <v>541</v>
@@ -7141,16 +7132,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C120" t="s">
         <v>469</v>
       </c>
-      <c r="D120" t="s">
-        <v>563</v>
-      </c>
       <c r="G120" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H120">
         <v>15000</v>
@@ -7174,13 +7162,10 @@
         <v>562</v>
       </c>
       <c r="Z120" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA120" t="s">
         <v>568</v>
-      </c>
-      <c r="AA120" t="s">
-        <v>569</v>
-      </c>
-      <c r="AB120" t="s">
-        <v>563</v>
       </c>
       <c r="AD120">
         <v>4</v>
@@ -7191,16 +7176,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C121" t="s">
         <v>469</v>
       </c>
-      <c r="D121" t="s">
-        <v>563</v>
-      </c>
       <c r="G121" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H121">
         <v>15000</v>
@@ -7218,19 +7200,16 @@
         <v>100</v>
       </c>
       <c r="T121" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U121" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z121" t="s">
         <v>572</v>
       </c>
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>573</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB121" t="s">
-        <v>563</v>
       </c>
       <c r="AD121">
         <v>4</v>
@@ -7241,16 +7220,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C122" t="s">
         <v>469</v>
       </c>
-      <c r="D122" t="s">
-        <v>563</v>
-      </c>
       <c r="G122" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H122">
         <v>25000</v>
@@ -7265,16 +7241,13 @@
         <v>100</v>
       </c>
       <c r="T122" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z122" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA122" t="s">
         <v>577</v>
-      </c>
-      <c r="AA122" t="s">
-        <v>578</v>
-      </c>
-      <c r="AB122" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -7282,16 +7255,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C123" t="s">
         <v>469</v>
       </c>
-      <c r="D123" t="s">
-        <v>563</v>
-      </c>
       <c r="G123" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H123">
         <v>20000</v>
@@ -7306,16 +7276,13 @@
         <v>100</v>
       </c>
       <c r="T123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Z123" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA123" t="s">
         <v>581</v>
-      </c>
-      <c r="AA123" t="s">
-        <v>582</v>
-      </c>
-      <c r="AB123" t="s">
-        <v>563</v>
       </c>
       <c r="AD123">
         <v>4</v>
@@ -7326,16 +7293,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C124" t="s">
         <v>426</v>
       </c>
-      <c r="D124" t="s">
-        <v>563</v>
-      </c>
       <c r="G124" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H124">
         <v>50000</v>
@@ -7356,16 +7320,13 @@
         <v>100</v>
       </c>
       <c r="T124" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Z124" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA124" t="s">
         <v>585</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>586</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>563</v>
       </c>
       <c r="AD124">
         <v>4</v>
@@ -7376,19 +7337,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C125" t="s">
         <v>469</v>
       </c>
-      <c r="D125" t="s">
-        <v>563</v>
-      </c>
       <c r="E125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G125" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H125">
         <v>20000</v>
@@ -7403,16 +7361,13 @@
         <v>562</v>
       </c>
       <c r="Z125" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA125" t="s">
         <v>589</v>
       </c>
-      <c r="AA125" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB125" t="s">
-        <v>563</v>
-      </c>
       <c r="AC125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AD125">
         <v>4</v>
@@ -7423,14 +7378,11 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C126" t="s">
         <v>469</v>
       </c>
-      <c r="D126" t="s">
-        <v>563</v>
-      </c>
       <c r="H126">
         <v>30000</v>
       </c>
@@ -7441,16 +7393,13 @@
         <v>500</v>
       </c>
       <c r="T126" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Z126" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA126" t="s">
         <v>592</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB126" t="s">
-        <v>563</v>
       </c>
       <c r="AD126">
         <v>4</v>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="621">
   <si>
     <t>id</t>
   </si>
@@ -1737,6 +1737,51 @@
   </si>
   <si>
     <t>You come back to the building, you hold in your hand another journal. This one seems to belong to The Child. The Creator’s own Journal kept by The Poet. What secrets will you find with in it?&lt;br /&gt; &lt;br /&gt; The Soldiers Brother is no where to be seen. You sit on the counter and wait for him and read the Journal.&lt;br /&gt; &lt;br /&gt; “He couldn’t seem to handle the truth. I told him of his death today and he couldn't handle the truth.”&lt;br /&gt; &lt;br /&gt; You begin to read the only passage that seems to make sense, or isn’t scrambled by some kind of magic.&lt;br /&gt; &lt;br /&gt; “I told him he needed to ascend from this plane but he couldn’t let go of the the past, the love he lost, the mother he discovered to be among this land, the memories he creates are frozen in place and no matter how many winter nights pass and how many years begin and end, he refuses to accept the truth.&lt;br /&gt; &lt;br /&gt; The Child clings to the past disillusion and memories of a better time, a time he chose to end at his own hands. I have explained that his being here, his clinging to these memories and refusing to let go is slowly corrupting the land. He seems not to care.”&lt;br /&gt; &lt;br /&gt; How could one person do so much damage to a single world?&lt;br /&gt; &lt;br /&gt; “I see you found another book.” Comes a familiar voice.</t>
+  </si>
+  <si>
+    <t>Will it Hurt?</t>
+  </si>
+  <si>
+    <t>You return to the snow swept waste lands with a renewed mission in your heart, find a way to kill The Creator. His mother, The Ice Queen, she was easy enough to put down. She was a manifestation of pain, of grief – of never letting go.&lt;br /&gt; &lt;br /&gt; He is a corruption, a pain, a soulless husk of anger that cannot let go. He is the end of things, the beginning of others. He is the story you chase.&lt;br /&gt; &lt;br /&gt; You approach the church once again, you stare at its empty and dark windows.&lt;br /&gt; &lt;br /&gt; “You’re back child.”&lt;br /&gt; &lt;br /&gt; Mr. Whiskers walks up to you in the snow, his little paws leaving snow prints behind. You pick him up and he thanks you.&lt;br /&gt; &lt;br /&gt; “I know your task child. I know it all to well.”</t>
+  </si>
+  <si>
+    <t>Under the pine tree beside the church you and the cat sit in silence, watching the night snow fall on the ground. The flames burn I the small fire pit you have made, the warmth barley lifts the chill that haunts you.&lt;br /&gt; &lt;br /&gt; “Will it hurt?” The cat asks after a moment. You look over at him. “When you kill him that is. I was alone, darkness took me. Sickness kept him at bay. Haunting pain that lingers.”&lt;br /&gt; &lt;br /&gt; Corruption.&lt;br /&gt; &lt;br /&gt; You promise it wont hurt, that it you will free him, free him to free all of you.&lt;br /&gt; &lt;br /&gt; “A cleansing of the land? Will they all go away? Will there be any one left?”&lt;br /&gt; &lt;br /&gt; Will there?</t>
+  </si>
+  <si>
+    <t>The Father. AKA: Him</t>
+  </si>
+  <si>
+    <t>What will happen when you finally find a way to defeat The Creator? Can it even be done? Isn’t he beyond that of even The Poet, some kind of cosmic construct of magic? If The Poet cannot seem to lock him away or banish him or kill him, then what chance do you have?&lt;br /&gt; &lt;br /&gt; Can you raise your self to his level? The Creator’s that is? Can you become as powerful as him? Is that possible?&lt;br /&gt; &lt;br /&gt; No. You are a mortal. You are a single person. But Ascension…. What is it?</t>
+  </si>
+  <si>
+    <t>You found the cat napping under the tree, keeping out the snow. You’re jealous that his fur can keep the cold and the chill of the snow out.&lt;br /&gt; &lt;br /&gt; You ask him what Ascension is.&lt;br /&gt; &lt;br /&gt; “It’s an act where the lost soul fulfills what they came here to do, and moves on. They go off where ever souls go. To a happier place then where they come from I hope. They are the souls of the broken, the damaged, the lonely, the helpless.”&lt;br /&gt; &lt;br /&gt; You ask him how one ascends.&lt;br /&gt; &lt;br /&gt; “The Poet is suppose to guide the soul through their trials and tribulations. Through their grief and pain to the reality of their own choices. The reality they are dead. The poet believes that nothing is so broken it cannot be fixed. He has a deal with … Him.”&lt;br /&gt; &lt;br /&gt; The Creator?&lt;br /&gt; &lt;br /&gt; “No. Him.”&lt;br /&gt; &lt;br /&gt; God?&lt;br /&gt; &lt;br /&gt; “No. The Father.”&lt;br /&gt; &lt;br /&gt; Who is The Father? Is he secretly God?</t>
+  </si>
+  <si>
+    <t>The Errands and The Snow</t>
+  </si>
+  <si>
+    <t>“The Father, from what I know, is the incarnation of light. He is truth, substance, compassion and love. While the mother is Darkness, Pain and corruption. The Father made a deal with The Poet. He stated that for every broken soul The Poet Helps to Ascend to another plane of existence, one beyond the reach of The Mother, he would allow The Poet and his cosmic siblings to live in a world of their own creation.”&lt;br /&gt; &lt;br /&gt; So The Poet Created this world? His Siblings and him? The Ghosts of the past.&lt;br /&gt; &lt;br /&gt; “No, They came and took over a ruined world, one destroyed by war, by weapons of war that set the world back many millions of years. It was inhabited by people, elves, dwarves and many other types of beasts that roamed the world. Over thousands of years the world was shaped, formed and molded by The Poet and his siblings who you know as the various people you have interacted with.”&lt;br /&gt; &lt;br /&gt; The cat stands and stretches and walks out side.&lt;br /&gt; &lt;br /&gt; “I have business to do.”</t>
+  </si>
+  <si>
+    <t>You stand before the fallen enemies on the ground, they stalked the church and by extension you and Mr. Whiskers.&lt;br /&gt; &lt;br /&gt; You complete the tasks that Mr. Whiskers sets out before you. He dangles the key to the church before you, metaphorically that is. You wonder when he will let you into this place, it holds the answers you need. You know it does. Answers about the one this the Church knew about and kept under wraps: Ascension.&lt;br /&gt; &lt;br /&gt; You work your self till you are numb from the cold and tired from the labor. Your patience wares thin with the endless errands.</t>
+  </si>
+  <si>
+    <t>The Emerald Dream</t>
+  </si>
+  <si>
+    <t>You ask the cat when he is going to let you into the church. You almost demand the key you know he has. Where you have no idea. He is a cat after all – or as we put it now: A ghost of the past.&lt;br /&gt; &lt;br /&gt; “When you are ready for the truth of the situation.”&lt;br /&gt; &lt;br /&gt; Wait theirs more then what I have learned? Beyond The Father and all this pact talk and the whole facts this is all a construct being corrupted by a sad, lonely boy who committed suicide? What more could there be?</t>
+  </si>
+  <si>
+    <t>The cat looks at you.&lt;br /&gt; &lt;br /&gt; “The Church holds the path to The Emerald Dream. A place where The Emerald Prince lives. A man who is said to be a manifestation of magic, the creator of all magic. He is the man that holds the bounds of the realities and their planes in a stable position with in the fabric of time and space.”&lt;br /&gt; &lt;br /&gt; A man who is the father of magic. A man who holds the strings of realities in place, to stop them from drifting into the endless void. Trapping the residents in a desolate waste land of despair. You have heard these stories once before, long before – when you were a child. A man made of emeralds, a wizard in another dimension.&lt;br /&gt; &lt;br /&gt; You use to pretend to be him. It was a fable, a story. But what is these days.</t>
+  </si>
+  <si>
+    <t>The doors to The Old Church</t>
+  </si>
+  <si>
+    <t>You complete your tasks in silence the following day. Neither you or the cat speaks to each other for more then a few moments at a time.&lt;br /&gt; &lt;br /&gt; You are lost in your own thoughts and he is sleeping by the fire. Keeping warm while you freeze in the snow, slaughtering the beasts around the church, studying the exterior, memorizing it.&lt;br /&gt; &lt;br /&gt; You see the shadows dance in your own mind, on the landscape, in the snow.</t>
+  </si>
+  <si>
+    <t>You arrive back at the small camp and the cat rises and stretches.&lt;br /&gt; &lt;br /&gt; “Into the church you go. The magic of the barrier has been lifted and you might need this to enter it.”&lt;br /&gt; &lt;br /&gt; He produces a Christmas Tree Light Bulb.&lt;br /&gt; &lt;br /&gt; “Holding this will allow you to enter the building. With out it, you would be torn apart by the shadows of the past. The ones you saw dancing earlier.”&lt;br /&gt; &lt;br /&gt; You walk through the church doors and into the main area. It is silent, it is dark. The stories of The Emerald Prince must be here ...</t>
   </si>
   <si>
     <t>Defeating The Queen</t>
@@ -2172,7 +2217,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AF134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -7258,7 +7303,7 @@
     </row>
     <row r="122" spans="1:32">
       <c r="A122">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
         <v>574</v>
@@ -7266,76 +7311,61 @@
       <c r="C122" t="s">
         <v>471</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
+        <v>559</v>
+      </c>
+      <c r="M122">
+        <v>175</v>
+      </c>
+      <c r="N122">
+        <v>75</v>
+      </c>
+      <c r="O122">
+        <v>2000</v>
+      </c>
+      <c r="P122">
+        <v>100</v>
+      </c>
+      <c r="T122" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z122" t="s">
         <v>575</v>
       </c>
-      <c r="E122" t="s">
-        <v>543</v>
-      </c>
-      <c r="H122">
-        <v>125</v>
-      </c>
-      <c r="I122">
-        <v>25000</v>
-      </c>
-      <c r="M122">
-        <v>75</v>
-      </c>
-      <c r="N122">
-        <v>10</v>
-      </c>
-      <c r="O122">
-        <v>200</v>
-      </c>
-      <c r="P122">
-        <v>100</v>
-      </c>
-      <c r="S122">
-        <v>1</v>
-      </c>
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>576</v>
       </c>
-      <c r="AA122" t="s">
-        <v>577</v>
-      </c>
-      <c r="AB122" t="s">
-        <v>575</v>
-      </c>
       <c r="AC122" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="AD122">
         <v>4</v>
       </c>
+      <c r="AE122" t="s">
+        <v>471</v>
+      </c>
+      <c r="AF122">
+        <v>5</v>
+      </c>
     </row>
     <row r="123" spans="1:32">
       <c r="A123">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C123" t="s">
         <v>471</v>
       </c>
-      <c r="G123" t="s">
-        <v>579</v>
-      </c>
-      <c r="H123">
-        <v>125</v>
-      </c>
-      <c r="I123">
-        <v>5000</v>
-      </c>
       <c r="M123">
+        <v>175</v>
+      </c>
+      <c r="N123">
         <v>75</v>
       </c>
-      <c r="N123">
-        <v>10</v>
-      </c>
       <c r="O123">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P123">
         <v>100</v>
@@ -7344,171 +7374,192 @@
         <v>574</v>
       </c>
       <c r="Z123" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AA123" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AD123">
         <v>4</v>
       </c>
+      <c r="AE123" t="s">
+        <v>471</v>
+      </c>
+      <c r="AF123">
+        <v>10</v>
+      </c>
     </row>
     <row r="124" spans="1:32">
       <c r="A124">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C124" t="s">
         <v>471</v>
       </c>
-      <c r="G124" t="s">
-        <v>583</v>
-      </c>
-      <c r="H124">
-        <v>125</v>
-      </c>
-      <c r="I124">
-        <v>10000</v>
-      </c>
       <c r="M124">
+        <v>175</v>
+      </c>
+      <c r="N124">
         <v>75</v>
       </c>
-      <c r="N124">
-        <v>10</v>
+      <c r="O124">
+        <v>2000</v>
       </c>
       <c r="P124">
         <v>100</v>
       </c>
       <c r="T124" t="s">
-        <v>578</v>
-      </c>
-      <c r="U124" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="Z124" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AA124" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AD124">
         <v>4</v>
       </c>
+      <c r="AE124" t="s">
+        <v>471</v>
+      </c>
+      <c r="AF124">
+        <v>15</v>
+      </c>
     </row>
     <row r="125" spans="1:32">
       <c r="A125">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C125" t="s">
         <v>471</v>
       </c>
-      <c r="G125" t="s">
-        <v>588</v>
-      </c>
-      <c r="H125">
-        <v>125</v>
-      </c>
-      <c r="I125">
+      <c r="M125">
+        <v>175</v>
+      </c>
+      <c r="N125">
+        <v>75</v>
+      </c>
+      <c r="O125">
         <v>2000</v>
       </c>
-      <c r="O125">
-        <v>200</v>
-      </c>
       <c r="P125">
         <v>100</v>
       </c>
       <c r="T125" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Z125" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AA125" t="s">
-        <v>590</v>
+        <v>585</v>
+      </c>
+      <c r="AD125">
+        <v>4</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>471</v>
+      </c>
+      <c r="AF125">
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:32">
       <c r="A126">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C126" t="s">
         <v>471</v>
       </c>
-      <c r="G126" t="s">
-        <v>592</v>
-      </c>
-      <c r="H126">
-        <v>125</v>
-      </c>
-      <c r="I126">
-        <v>20000</v>
+      <c r="M126">
+        <v>175</v>
+      </c>
+      <c r="N126">
+        <v>75</v>
       </c>
       <c r="O126">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P126">
         <v>100</v>
       </c>
       <c r="T126" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z126" t="s">
         <v>587</v>
       </c>
-      <c r="Z126" t="s">
-        <v>593</v>
-      </c>
       <c r="AA126" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AD126">
         <v>4</v>
       </c>
+      <c r="AE126" t="s">
+        <v>471</v>
+      </c>
+      <c r="AF126">
+        <v>25</v>
+      </c>
     </row>
     <row r="127" spans="1:32">
       <c r="A127">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C127" t="s">
-        <v>428</v>
-      </c>
-      <c r="G127" t="s">
-        <v>596</v>
+        <v>471</v>
+      </c>
+      <c r="D127" t="s">
+        <v>590</v>
+      </c>
+      <c r="E127" t="s">
+        <v>543</v>
       </c>
       <c r="H127">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I127">
         <v>25000</v>
       </c>
       <c r="M127">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N127">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O127">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="P127">
         <v>100</v>
       </c>
-      <c r="T127" t="s">
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="Z127" t="s">
         <v>591</v>
       </c>
-      <c r="Z127" t="s">
-        <v>597</v>
-      </c>
       <c r="AA127" t="s">
-        <v>598</v>
+        <v>592</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>543</v>
       </c>
       <c r="AD127">
         <v>4</v>
@@ -7516,40 +7567,43 @@
     </row>
     <row r="128" spans="1:32">
       <c r="A128">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C128" t="s">
         <v>471</v>
       </c>
-      <c r="E128" t="s">
-        <v>595</v>
-      </c>
       <c r="G128" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H128">
         <v>125</v>
       </c>
       <c r="I128">
-        <v>20000</v>
+        <v>5000</v>
+      </c>
+      <c r="M128">
+        <v>75</v>
+      </c>
+      <c r="N128">
+        <v>10</v>
+      </c>
+      <c r="O128">
+        <v>200</v>
       </c>
       <c r="P128">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T128" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="Z128" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AA128" t="s">
-        <v>602</v>
-      </c>
-      <c r="AC128" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AD128">
         <v>4</v>
@@ -7557,33 +7611,235 @@
     </row>
     <row r="129" spans="1:32">
       <c r="A129">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C129" t="s">
         <v>471</v>
       </c>
+      <c r="G129" t="s">
+        <v>598</v>
+      </c>
       <c r="H129">
         <v>125</v>
       </c>
       <c r="I129">
+        <v>10000</v>
+      </c>
+      <c r="M129">
+        <v>75</v>
+      </c>
+      <c r="N129">
+        <v>10</v>
+      </c>
+      <c r="P129">
+        <v>100</v>
+      </c>
+      <c r="T129" t="s">
+        <v>593</v>
+      </c>
+      <c r="U129" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32">
+      <c r="A130">
+        <v>121</v>
+      </c>
+      <c r="B130" t="s">
+        <v>602</v>
+      </c>
+      <c r="C130" t="s">
+        <v>471</v>
+      </c>
+      <c r="G130" t="s">
+        <v>603</v>
+      </c>
+      <c r="H130">
+        <v>125</v>
+      </c>
+      <c r="I130">
+        <v>2000</v>
+      </c>
+      <c r="O130">
+        <v>200</v>
+      </c>
+      <c r="P130">
+        <v>100</v>
+      </c>
+      <c r="T130" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32">
+      <c r="A131">
+        <v>122</v>
+      </c>
+      <c r="B131" t="s">
+        <v>606</v>
+      </c>
+      <c r="C131" t="s">
+        <v>471</v>
+      </c>
+      <c r="G131" t="s">
+        <v>607</v>
+      </c>
+      <c r="H131">
+        <v>125</v>
+      </c>
+      <c r="I131">
+        <v>20000</v>
+      </c>
+      <c r="O131">
+        <v>200</v>
+      </c>
+      <c r="P131">
+        <v>100</v>
+      </c>
+      <c r="T131" t="s">
+        <v>602</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32">
+      <c r="A132">
+        <v>123</v>
+      </c>
+      <c r="B132" t="s">
+        <v>610</v>
+      </c>
+      <c r="C132" t="s">
+        <v>428</v>
+      </c>
+      <c r="G132" t="s">
+        <v>611</v>
+      </c>
+      <c r="H132">
+        <v>100</v>
+      </c>
+      <c r="I132">
+        <v>25000</v>
+      </c>
+      <c r="M132">
+        <v>25</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132">
+        <v>150</v>
+      </c>
+      <c r="P132">
+        <v>100</v>
+      </c>
+      <c r="T132" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>613</v>
+      </c>
+      <c r="AD132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32">
+      <c r="A133">
+        <v>124</v>
+      </c>
+      <c r="B133" t="s">
+        <v>614</v>
+      </c>
+      <c r="C133" t="s">
+        <v>471</v>
+      </c>
+      <c r="E133" t="s">
+        <v>610</v>
+      </c>
+      <c r="G133" t="s">
+        <v>615</v>
+      </c>
+      <c r="H133">
+        <v>125</v>
+      </c>
+      <c r="I133">
+        <v>20000</v>
+      </c>
+      <c r="P133">
+        <v>200</v>
+      </c>
+      <c r="T133" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>617</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32">
+      <c r="A134">
+        <v>125</v>
+      </c>
+      <c r="B134" t="s">
+        <v>618</v>
+      </c>
+      <c r="C134" t="s">
+        <v>471</v>
+      </c>
+      <c r="H134">
+        <v>125</v>
+      </c>
+      <c r="I134">
         <v>30000</v>
       </c>
-      <c r="P129">
+      <c r="P134">
         <v>500</v>
       </c>
-      <c r="T129" t="s">
-        <v>599</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>605</v>
-      </c>
-      <c r="AD129">
+      <c r="T134" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>620</v>
+      </c>
+      <c r="AD134">
         <v>4</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
   <si>
     <t>id</t>
   </si>
@@ -1776,6 +1776,9 @@
   </si>
   <si>
     <t>The doors to The Old Church</t>
+  </si>
+  <si>
+    <t>Christmas Tree Light Bulb</t>
   </si>
   <si>
     <t>You complete your tasks in silence the following day. Neither you or the cat speaks to each other for more then a few moments at a time.&lt;br /&gt; &lt;br /&gt; You are lost in your own thoughts and he is sleeping by the fire. Keeping warm while you freeze in the snow, slaughtering the beasts around the church, studying the exterior, memorizing it.&lt;br /&gt; &lt;br /&gt; You see the shadows dance in your own mind, on the landscape, in the snow.</t>
@@ -7481,6 +7484,9 @@
       <c r="C126" t="s">
         <v>471</v>
       </c>
+      <c r="L126" t="s">
+        <v>587</v>
+      </c>
       <c r="M126">
         <v>175</v>
       </c>
@@ -7497,10 +7503,10 @@
         <v>583</v>
       </c>
       <c r="Z126" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AA126" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD126">
         <v>4</v>
@@ -7517,13 +7523,13 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C127" t="s">
         <v>471</v>
       </c>
       <c r="D127" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E127" t="s">
         <v>543</v>
@@ -7550,13 +7556,13 @@
         <v>1</v>
       </c>
       <c r="Z127" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB127" t="s">
         <v>591</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>592</v>
-      </c>
-      <c r="AB127" t="s">
-        <v>590</v>
       </c>
       <c r="AC127" t="s">
         <v>543</v>
@@ -7570,13 +7576,13 @@
         <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C128" t="s">
         <v>471</v>
       </c>
       <c r="G128" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H128">
         <v>125</v>
@@ -7597,13 +7603,13 @@
         <v>100</v>
       </c>
       <c r="T128" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z128" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA128" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AD128">
         <v>4</v>
@@ -7614,13 +7620,13 @@
         <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C129" t="s">
         <v>471</v>
       </c>
       <c r="G129" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H129">
         <v>125</v>
@@ -7638,16 +7644,16 @@
         <v>100</v>
       </c>
       <c r="T129" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U129" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z129" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA129" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD129">
         <v>4</v>
@@ -7658,13 +7664,13 @@
         <v>121</v>
       </c>
       <c r="B130" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C130" t="s">
         <v>471</v>
       </c>
       <c r="G130" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H130">
         <v>125</v>
@@ -7679,13 +7685,13 @@
         <v>100</v>
       </c>
       <c r="T130" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z130" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AA130" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="131" spans="1:32">
@@ -7693,13 +7699,13 @@
         <v>122</v>
       </c>
       <c r="B131" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C131" t="s">
         <v>471</v>
       </c>
       <c r="G131" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H131">
         <v>125</v>
@@ -7714,13 +7720,13 @@
         <v>100</v>
       </c>
       <c r="T131" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Z131" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AA131" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD131">
         <v>4</v>
@@ -7731,13 +7737,13 @@
         <v>123</v>
       </c>
       <c r="B132" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C132" t="s">
         <v>428</v>
       </c>
       <c r="G132" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H132">
         <v>100</v>
@@ -7758,13 +7764,13 @@
         <v>100</v>
       </c>
       <c r="T132" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Z132" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA132" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AD132">
         <v>4</v>
@@ -7775,16 +7781,16 @@
         <v>124</v>
       </c>
       <c r="B133" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C133" t="s">
         <v>471</v>
       </c>
       <c r="E133" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G133" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H133">
         <v>125</v>
@@ -7796,16 +7802,16 @@
         <v>200</v>
       </c>
       <c r="T133" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z133" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AA133" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AC133" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD133">
         <v>4</v>
@@ -7816,7 +7822,7 @@
         <v>125</v>
       </c>
       <c r="B134" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C134" t="s">
         <v>471</v>
@@ -7831,13 +7837,13 @@
         <v>500</v>
       </c>
       <c r="T134" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Z134" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AA134" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AD134">
         <v>4</v>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -6206,6 +6206,9 @@
       <c r="D96" t="s">
         <v>423</v>
       </c>
+      <c r="G96" t="s">
+        <v>464</v>
+      </c>
       <c r="H96">
         <v>100</v>
       </c>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
   <si>
     <t>id</t>
   </si>
@@ -1172,6 +1172,63 @@
     <t>You return the crypt and tell him you have slaughtered many creatures in the area; there is nothing but blood, death, and destruction around the area. He should be safe to continue the conversation from before.&lt;br /&gt; &lt;br /&gt; “If you are sure, child, then I shall continue.”&lt;br /&gt; &lt;br /&gt; He pauses, waits, and proceeds.&lt;br /&gt; &lt;br /&gt; “There is a story in a journal you might find interesting. You have to find it in the darkest places of this world. In Purgatory. In the dungeons.” His voice becomes almost a whisper, as if he doesn’t want anyone else to hear it, even though there is no one else except you around.&lt;br /&gt; &lt;br /&gt; “There is a journal written by The Creator himself, lost in the Purgatory Dungeons. This journal holds the teachings of the old world and its sciences.”&lt;br /&gt; &lt;br /&gt; What does this have to do with The Red Hawks or Airships?&lt;br /&gt; &lt;br /&gt; “Can you not see? It’s all connected, child. The sciences of the old world, which The Church called heresy.”&lt;br /&gt; &lt;br /&gt; The Church. That sounds like something The Candle Maker would know about.&lt;br /&gt; &lt;br /&gt; “Back during the war with The Federation and The Church, The Red Hawk soldiers would employ Chemists like myself to research old world technology that could be used against the enemy. While we could not replicate all the technology, we were able to create new technology, such as Airships.”&lt;br /&gt; &lt;br /&gt; He pauses, looks through his papers, and pushes some books aside to better read the contents of the documents he has.&lt;br /&gt; &lt;br /&gt; “Yes, it’s right here,” he points out on the paper. “It states: The Red Hawks, along with The Child, delved deep into the heretical sciences of Alchemy and Chemistry to uncover the power of flight through the skies, to drop bombs, and to do devastating damage to their opponents. They have termed the word: Airship. A sea vessel repurposed to fly The Sky.”&lt;br /&gt; &lt;br /&gt; You both stare at each other for a moment, lost in thought over these war machines. The tides of kingdom ownership seem to be changing, but you still have questions about The Red Hawks, the visions, and this mysterious journal.&lt;br /&gt; &lt;br /&gt; Should you seek out The Scholar, The Candle Maker, or someone else?&lt;br /&gt; &lt;br /&gt; “I would go for The Scholar. He will have more information on how you can unlock the power of these war machines and how you can build them. But eventually, I would track down that journal. It might have more information for you. Or it might be the ramblings of a mentally ill person. Who knows.”</t>
   </si>
   <si>
+    <t>Looking for a prince</t>
+  </si>
+  <si>
+    <t>Twisted Dice</t>
+  </si>
+  <si>
+    <t>Shattered Emerald</t>
+  </si>
+  <si>
+    <t>"Travelling again?" came a voice from the shadows. A figure stepped out, dressed in robes darker than night. He held a single lantern and carried a bag of dice in his other hand. The Dungeon Master.&lt;br /&gt; &lt;br /&gt; You looked at him for a moment, gazing deep into his eyes. For a moment, you said nothing, but then you admitted you had heard tales—tales of a wandering prince. You sought him out because of dreams. Dreams of ice, dreams of a mother trapped in her own pain, and dreams of a young man's suicide.&lt;br /&gt; &lt;br /&gt; "Have you ever been to The Ice Plane?"&lt;br /&gt; &lt;br /&gt; You couldn’t remember. You couldn’t say yes, and you couldn’t say no.&lt;br /&gt; &lt;br /&gt; "The Queen, a mother from another time, was trapped in her own pain, unable to let go. The snow falls, and the memories become frozen in time, replayed over and over again."&lt;br /&gt; &lt;br /&gt; You told him the story sounded familiar, but there was a haze hanging over your mind—a fog. You wondered aloud what this had to do with the so-called wandering prince.&lt;br /&gt; &lt;br /&gt; "The Wandering Prince. Now, that's a character," the Dungeon Master stated.</t>
+  </si>
+  <si>
+    <t>"The Wandering Prince comes from a land sealed away after the war with The Federation and The Red Hawks. The same war The Child, or as you know him better: The Creator, was a part of. The same war that led &lt;br /&gt; The Child to have the chance, guided towards it by The Poet, to ascend. To move on. Much like The Ice Queen, he was trapped in his own delusional memories of what was. He could not let go and face what is. The loneliness, the pain of heartache."&lt;br /&gt; &lt;br /&gt; The Dungeon Master paused and walked past you, staring off into the distance. A palpable silence fell over the two of you as you both stared off in opposite directions.&lt;br /&gt; &lt;br /&gt; A woman, a child—both of them trapped.&lt;br /&gt; &lt;br /&gt; "They both woke up in a world unfamiliar to them. They were both guided by The Poet. One simply refused to accept death; the other refused to move on. Both longed for each other, neither could get close enough."&lt;br /&gt; &lt;br /&gt; But the prince...&lt;br /&gt; &lt;br /&gt; "A story for another time, child."</t>
+  </si>
+  <si>
+    <t>The Federation and The Church</t>
+  </si>
+  <si>
+    <t>Torn map of another land</t>
+  </si>
+  <si>
+    <t>You ponder over the words and stories of The Dungeon Master.&lt;br /&gt; &lt;br /&gt; You find yourself spinning in circles as you try to analyze the words. There are glimpses of a memory here and there, of a world covered in ice.&lt;br /&gt; &lt;br /&gt; You shake off the stories and focus on the task at hand: tracking down more information about The Wandering Prince. The Dungeon Master did state he is from a land that was sealed away after the war, after the failed ascension. Why was the world sealed away?&lt;br /&gt; &lt;br /&gt; Perhaps it boils down to another game, a game of chance—roll the dice, follow the road, and see if you survive the adventure. Only then will they give you the key to the door, which opens to the answers.&lt;br /&gt; &lt;br /&gt; Another game that must be played.</t>
+  </si>
+  <si>
+    <t>You find The Dungeon Master sitting at a table, smoking a long-stemmed wooden pipe. The scent of the pipe fills you with a sense of calm and belonging. The Dungeon Master gestures for you to sit at the table. "I know whom you seek." "Of course he does," you think. "When the gates were sealed to his lands, they spoke of a world covered in emeralds. A land where they buy and sell with emeralds. Whether that is fact or fiction is up for debate." The Dungeon Master pauses and takes a drag from his pipe.&lt;br /&gt; &lt;br /&gt; "The war that waged was started long ago by a man named Fliniguss. He had the idea to unite the northern aspects of what you call the Surface under one flag: The Federation. A Federation of provinces that answer to one government. A government that aligned itself with The Church—which at the time was spreading its influence and belief in the one true god.&lt;br /&gt; &lt;br /&gt; They had managed to spread much of their faith across the north, subjugating, suppressing, and downright annihilating any aspect of free beliefs. The one true god was all that mattered.&lt;br /&gt; &lt;br /&gt; Seeing this, The Federation decided to align their political aspirations with that of The Church's religious beliefs. Together, they became a force that started moving south."&lt;br /&gt; &lt;br /&gt; He stops and takes another long drag from his pipe before exhaling the smoke, which dances to create images of war, of burning heretical thinkers, and the pillaging of villages.&lt;br /&gt; &lt;br /&gt; Images of the atrocities children experienced at the hands of The Church, of the atrocities their mothers suffered, with no mercy of death—at the hands of the soldiers who marched under The Federation's banner.</t>
+  </si>
+  <si>
+    <t>The Poets Choice</t>
+  </si>
+  <si>
+    <t>You sit and stare at the images as they play out and fade into the silence of the night. You excuse yourself, explaining you just need some air.&lt;br /&gt; &lt;br /&gt; The Dungeon Master nods, and you stand and leave the table. You walk out of the ruins of the old tower the two of you were sitting in; all that remains are the foundation walls, as the upper floors have long ago fallen away.&lt;br /&gt; &lt;br /&gt; There is no moon this night. The sky twinkles with stars that light your way through the blackness of the night.&lt;br /&gt; &lt;br /&gt; There is no wind, no heat, no air—just a void of silence you wander into. Your own thoughts play about you. You have heard various tales of The Federation and The Red Hawks.&lt;br /&gt; &lt;br /&gt; You have heard the tales of the children and The Church. What happened to The Federation and The Church after the war? How do two large organizations just fade away?&lt;br /&gt; &lt;br /&gt; "Now you are asking the right questions, child," says The Dungeon Master.&lt;br /&gt; &lt;br /&gt; You turn, and there stands The Dungeon Master.&lt;br /&gt; &lt;br /&gt; "Now we can have a real conversation."</t>
+  </si>
+  <si>
+    <t>"They did not just fade away. There were powers at play, people higher up on the totem pole, so to speak."&lt;br /&gt; &lt;br /&gt; The Dungeon Master stands beside you, cleaning his pipe. He looks up at you—his old, haggard face tells a story of many tales he has lived through, many tales in which he has guided people through their choices.&lt;br /&gt; &lt;br /&gt; "What you might not know is The Poet made a choice, one I am not at liberty to talk about, but he made a choice in relation to the fallout of the failed ascension and the end of the war. He could see the reality around him twisting, breaking, shattering. He had a choice to make. It was this choice that led The Wandering Prince to sealing away his realm."&lt;br /&gt; &lt;br /&gt; He finishes cleaning his pipe. At this stage, he starts to pack it again for another round. While he takes pinches of his tobacco and puts it into his pipe, he begins to walk away.&lt;br /&gt; &lt;br /&gt; "Speak to The Poet, child."</t>
+  </si>
+  <si>
+    <t>The Poets Story</t>
+  </si>
+  <si>
+    <t>ThePoet</t>
+  </si>
+  <si>
+    <t>"I made a choice, back then—to seal away the shattering," The Poet states as the two of you sit in his living room, surrounded by forest. You walked through the same clearing to get here that The Creator woke up in; then he was known as The Child. A child covered in blood, a child who committed suicide, a child who refused to accept reality.&lt;br /&gt; &lt;br /&gt; "It was after the war when I told The Child, 'You must ascend now. You have fought hard, you have come a long way—now is the time the land must heal, now is the time you must heal.'"&lt;br /&gt; &lt;br /&gt; The Poet stands, an old man—age is rapidly ascending upon him.&lt;br /&gt; &lt;br /&gt; "My time is almost over in this world, child. I have failed and they know it. But in the grand scheme of things, you have made it further than I would have anticipated given the circumstances of this world."&lt;br /&gt; &lt;br /&gt; He walks out of the living room into the kitchen. Staring out the window, he looks longingly for his youth.&lt;br /&gt; &lt;br /&gt; You follow him and sit at the small table off to the side, watching him for a moment.&lt;br /&gt; &lt;br /&gt; "We were sent here to guide those who tragically died. This was always a land between where they came from and where they go to, a place between. But it shattered, and I tried to contain it as best I can."&lt;br /&gt; &lt;br /&gt; He trails off into silence. You begin to ponder his words for a moment in the deafening silence of the kitchen.</t>
+  </si>
+  <si>
+    <t>Out and about, you start walking in the direction back to The Poet's house. You stop in the field, the one where The Child was found. You look around, as if trying to fit yourself into the past, to get a sense of the time.&lt;br /&gt; &lt;br /&gt; The Poet stands on the other side of the clearing; you begin walking towards him. As you get closer, he begins to speak.&lt;br /&gt; &lt;br /&gt; "Seek out The Wondering Merchant, child."&lt;br /&gt; &lt;br /&gt; Approaching him, you wear a puzzled look on your face. First, you explain: The Dungeon Master sends you here, then The Poet tells you all about The Shattering and how he contained it when The Child failed to ascend after a war that ravaged the land and shook the people to their core. Now you are supposed to go talk to another person just to be told what The Shattering is.&lt;br /&gt; &lt;br /&gt; "Twisted delusions hold the answers to the questions you have, child. I am no longer capable of opening those gates. Neither is The Wondering Merchant, but he knows more of the dimensional gate that lies sealed away in the depths of the ones' hatred. It is here, child, that you will learn of The Wondering Prince. All that glitters is not gold; all that glitters is emeralds."&lt;br /&gt; &lt;br /&gt; As if you blinked, he is gone.</t>
+  </si>
+  <si>
+    <t>Twisted Paths</t>
+  </si>
+  <si>
+    <t>You go searching through the regular paths and trails you have always known The Wondering Merchant to be traversing and selling his wares on. You wait by the old rock where he is known to sit. In the distance comes walking an old man. As he gets closer, he is leading a pony with bags of what you assume are his wares.&lt;br /&gt; &lt;br /&gt; "Can I help you, child? Maybe you would like to buy something?"</t>
+  </si>
+  <si>
+    <t>You explain your quest, sharing what The Dungeon Master and The Poet conveyed to you. You inquire about The Shattering and Twisted Delusions. The Wondering Merchant chuckles before beginning:&lt;br /&gt; &lt;br /&gt; "Child, you are scattered yet on the right path. You seek The Wandering Prince, the man from a realm where emeralds are currency. He is a prince only of his own path, existing beyond our shared realities."&lt;br /&gt; &lt;br /&gt; Your confusion grows. What exactly is The Shattering?&lt;br /&gt; &lt;br /&gt; "It marks the fracturing of what you know as the Surface into multiple realities. Originally a single realm, The Old World, it fragmented dramatically following a catastrophic war and The Creator – once The Child – failing to ascend. This failure shattered reality, opening gateways to myriad planes. These continued fractures birthed twisted realms and unleashed dark, sinister entities, previously unknown."&lt;br /&gt; &lt;br /&gt; He pauses, listening to the birds and feeling the afternoon breeze on his weathered skin. His pony grazes nearby.&lt;br /&gt; &lt;br /&gt; "In those early days, The Poet summoned me and others to combine our magics, concentrating the chaotic, twisted fragments of these shattered planes into one place. Now, Fliniguss reigns there, a king ensnared by his own delusions."&lt;br /&gt; &lt;br /&gt; So, another soul trapped by memories and delusions.&lt;br /&gt; &lt;br /&gt; "A bishop stands by him, perpetuating a war of subjugation and suppression in this distorted world."&lt;br /&gt; &lt;br /&gt; The revelation about The Poet, The Wandering Merchant, and "others" working to isolate these delusions leaves you pondering. How does this relate to The Wandering Prince sealing off his own realm?</t>
+  </si>
+  <si>
     <t>Alchemist Scrolls</t>
   </si>
   <si>
@@ -1302,9 +1359,6 @@
   </si>
   <si>
     <t>Trade Ya</t>
-  </si>
-  <si>
-    <t>ThePoet</t>
   </si>
   <si>
     <t>Smugglers Coin</t>
@@ -2223,7 +2277,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF134"/>
+  <dimension ref="A1:AF139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,7 +2315,7 @@
     <col min="28" max="28" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="29.421" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="23.423" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -5141,7 +5195,7 @@
         <v>346</v>
       </c>
       <c r="X70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="s">
         <v>352</v>
@@ -5439,796 +5493,790 @@
     </row>
     <row r="78" spans="1:32">
       <c r="A78">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
         <v>385</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>243</v>
-      </c>
-      <c r="H78">
-        <v>500</v>
-      </c>
-      <c r="I78">
+        <v>386</v>
+      </c>
+      <c r="M78">
+        <v>10000</v>
+      </c>
+      <c r="N78">
+        <v>1000</v>
+      </c>
+      <c r="O78">
+        <v>1000000</v>
+      </c>
+      <c r="P78">
+        <v>15000</v>
+      </c>
+      <c r="T78" t="s">
+        <v>362</v>
+      </c>
+      <c r="U78" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF78">
         <v>5</v>
-      </c>
-      <c r="L78" t="s">
-        <v>385</v>
-      </c>
-      <c r="M78">
-        <v>150</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-      <c r="O78">
-        <v>250</v>
-      </c>
-      <c r="P78">
-        <v>50</v>
-      </c>
-      <c r="S78">
-        <v>1</v>
-      </c>
-      <c r="V78" t="s">
-        <v>78</v>
-      </c>
-      <c r="W78">
-        <v>2</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="79" spans="1:32">
       <c r="A79">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C79" t="s">
-        <v>389</v>
+        <v>67</v>
       </c>
       <c r="G79" t="s">
-        <v>390</v>
-      </c>
-      <c r="K79">
-        <v>500</v>
-      </c>
-      <c r="L79" t="s">
         <v>391</v>
       </c>
       <c r="M79">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="N79">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="O79">
-        <v>5000</v>
+        <v>1000000000</v>
       </c>
       <c r="P79">
-        <v>100</v>
-      </c>
-      <c r="S79">
-        <v>1</v>
-      </c>
-      <c r="U79" t="s">
+        <v>30000</v>
+      </c>
+      <c r="T79" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z79" t="s">
         <v>392</v>
       </c>
-      <c r="V79" t="s">
-        <v>85</v>
-      </c>
-      <c r="W79">
-        <v>5</v>
-      </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>393</v>
       </c>
-      <c r="AA79" t="s">
-        <v>394</v>
+      <c r="AE79" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF79">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:32">
       <c r="A80">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" t="s">
+        <v>67</v>
+      </c>
+      <c r="M80">
+        <v>25000</v>
+      </c>
+      <c r="N80">
+        <v>25000</v>
+      </c>
+      <c r="O80">
+        <v>1000000</v>
+      </c>
+      <c r="P80">
+        <v>30000</v>
+      </c>
+      <c r="T80" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z80" t="s">
         <v>395</v>
       </c>
-      <c r="C80" t="s">
-        <v>389</v>
-      </c>
-      <c r="G80" t="s">
-        <v>391</v>
-      </c>
-      <c r="K80">
-        <v>1000</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="AA80" t="s">
         <v>396</v>
       </c>
-      <c r="M80">
-        <v>500</v>
-      </c>
-      <c r="N80">
-        <v>50</v>
-      </c>
-      <c r="O80">
-        <v>5000</v>
-      </c>
-      <c r="P80">
-        <v>150</v>
-      </c>
-      <c r="T80" t="s">
-        <v>388</v>
-      </c>
-      <c r="U80" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>399</v>
+      <c r="AE80" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF80">
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:32">
       <c r="A81">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
+        <v>397</v>
+      </c>
+      <c r="C81" t="s">
+        <v>398</v>
+      </c>
+      <c r="M81">
+        <v>25000</v>
+      </c>
+      <c r="N81">
+        <v>25000</v>
+      </c>
+      <c r="O81">
+        <v>1000000</v>
+      </c>
+      <c r="P81">
+        <v>30000</v>
+      </c>
+      <c r="T81" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA81" t="s">
         <v>400</v>
       </c>
-      <c r="C81" t="s">
-        <v>389</v>
-      </c>
-      <c r="G81" t="s">
-        <v>396</v>
-      </c>
-      <c r="K81">
-        <v>1500</v>
-      </c>
-      <c r="L81" t="s">
-        <v>401</v>
-      </c>
-      <c r="M81">
-        <v>500</v>
-      </c>
-      <c r="N81">
-        <v>50</v>
-      </c>
-      <c r="O81">
-        <v>5000</v>
-      </c>
-      <c r="P81">
-        <v>200</v>
-      </c>
-      <c r="T81" t="s">
-        <v>395</v>
-      </c>
-      <c r="U81" t="s">
-        <v>402</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>404</v>
+      <c r="AE81" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF81">
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:32">
       <c r="A82">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C82" t="s">
-        <v>389</v>
-      </c>
-      <c r="G82" t="s">
-        <v>401</v>
-      </c>
-      <c r="K82">
-        <v>3000</v>
-      </c>
-      <c r="L82" t="s">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="M82">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="N82">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="O82">
-        <v>5000</v>
+        <v>2000000</v>
       </c>
       <c r="P82">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="T82" t="s">
-        <v>400</v>
-      </c>
-      <c r="U82" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="Z82" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AA82" t="s">
-        <v>409</v>
+        <v>403</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF82">
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:32">
       <c r="A83">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>411</v>
+        <v>243</v>
       </c>
       <c r="H83">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="I83">
-        <v>5000</v>
-      </c>
-      <c r="K83">
-        <v>5000</v>
+        <v>5</v>
+      </c>
+      <c r="L83" t="s">
+        <v>404</v>
       </c>
       <c r="M83">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>250</v>
+      </c>
+      <c r="P83">
         <v>50</v>
       </c>
-      <c r="O83">
-        <v>5000</v>
-      </c>
-      <c r="P83">
-        <v>250</v>
-      </c>
-      <c r="T83" t="s">
-        <v>388</v>
-      </c>
-      <c r="U83" t="s">
-        <v>412</v>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="V83" t="s">
+        <v>78</v>
+      </c>
+      <c r="W83">
+        <v>2</v>
       </c>
       <c r="Z83" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AA83" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:32">
       <c r="A84">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
-      </c>
-      <c r="H84">
-        <v>5000</v>
-      </c>
-      <c r="I84">
-        <v>7000</v>
-      </c>
-      <c r="J84">
-        <v>50000</v>
+        <v>408</v>
+      </c>
+      <c r="G84" t="s">
+        <v>409</v>
       </c>
       <c r="K84">
-        <v>3000</v>
+        <v>500</v>
+      </c>
+      <c r="L84" t="s">
+        <v>410</v>
+      </c>
+      <c r="M84">
+        <v>500</v>
+      </c>
+      <c r="N84">
+        <v>50</v>
       </c>
       <c r="O84">
         <v>5000</v>
       </c>
       <c r="P84">
-        <v>250</v>
-      </c>
-      <c r="T84" t="s">
-        <v>410</v>
+        <v>100</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="U84" t="s">
+        <v>411</v>
+      </c>
+      <c r="V84" t="s">
+        <v>85</v>
+      </c>
+      <c r="W84">
+        <v>5</v>
       </c>
       <c r="Z84" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AA84" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:32">
       <c r="A85">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="G85" t="s">
-        <v>419</v>
-      </c>
-      <c r="H85">
-        <v>5000</v>
-      </c>
-      <c r="I85">
-        <v>7500</v>
+        <v>410</v>
       </c>
       <c r="K85">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="L85" t="s">
-        <v>420</v>
+        <v>415</v>
+      </c>
+      <c r="M85">
+        <v>500</v>
+      </c>
+      <c r="N85">
+        <v>50</v>
       </c>
       <c r="O85">
         <v>5000</v>
       </c>
       <c r="P85">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="T85" t="s">
-        <v>415</v>
+        <v>407</v>
+      </c>
+      <c r="U85" t="s">
+        <v>416</v>
       </c>
       <c r="Z85" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AA85" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:32">
       <c r="A86">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
+        <v>419</v>
+      </c>
+      <c r="C86" t="s">
+        <v>408</v>
+      </c>
+      <c r="G86" t="s">
+        <v>415</v>
+      </c>
+      <c r="K86">
+        <v>1500</v>
+      </c>
+      <c r="L86" t="s">
+        <v>420</v>
+      </c>
+      <c r="M86">
+        <v>500</v>
+      </c>
+      <c r="N86">
+        <v>50</v>
+      </c>
+      <c r="O86">
+        <v>5000</v>
+      </c>
+      <c r="P86">
+        <v>200</v>
+      </c>
+      <c r="T86" t="s">
+        <v>414</v>
+      </c>
+      <c r="U86" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA86" t="s">
         <v>423</v>
-      </c>
-      <c r="C86" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" t="s">
-        <v>424</v>
-      </c>
-      <c r="G86" t="s">
-        <v>425</v>
-      </c>
-      <c r="O86">
-        <v>150</v>
-      </c>
-      <c r="P86">
-        <v>1000</v>
-      </c>
-      <c r="S86">
-        <v>1</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>427</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:32">
       <c r="A87">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
+        <v>424</v>
+      </c>
+      <c r="C87" t="s">
+        <v>408</v>
+      </c>
+      <c r="G87" t="s">
+        <v>420</v>
+      </c>
+      <c r="K87">
+        <v>3000</v>
+      </c>
+      <c r="L87" t="s">
+        <v>425</v>
+      </c>
+      <c r="M87">
+        <v>500</v>
+      </c>
+      <c r="N87">
+        <v>50</v>
+      </c>
+      <c r="O87">
+        <v>5000</v>
+      </c>
+      <c r="P87">
+        <v>300</v>
+      </c>
+      <c r="T87" t="s">
+        <v>419</v>
+      </c>
+      <c r="U87" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA87" t="s">
         <v>428</v>
-      </c>
-      <c r="C87" t="s">
-        <v>429</v>
-      </c>
-      <c r="D87" t="s">
-        <v>424</v>
-      </c>
-      <c r="G87" t="s">
-        <v>430</v>
-      </c>
-      <c r="L87" t="s">
-        <v>431</v>
-      </c>
-      <c r="O87">
-        <v>150</v>
-      </c>
-      <c r="P87">
-        <v>1000</v>
-      </c>
-      <c r="T87" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>433</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:32">
       <c r="A88">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C88" t="s">
-        <v>435</v>
-      </c>
-      <c r="D88" t="s">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="G88" t="s">
+        <v>430</v>
+      </c>
+      <c r="H88">
+        <v>5000</v>
+      </c>
+      <c r="I88">
+        <v>5000</v>
+      </c>
+      <c r="K88">
+        <v>5000</v>
+      </c>
+      <c r="M88">
+        <v>500</v>
+      </c>
+      <c r="N88">
+        <v>50</v>
+      </c>
+      <c r="O88">
+        <v>5000</v>
+      </c>
+      <c r="P88">
+        <v>250</v>
+      </c>
+      <c r="T88" t="s">
+        <v>407</v>
+      </c>
+      <c r="U88" t="s">
         <v>431</v>
       </c>
-      <c r="L88" t="s">
-        <v>436</v>
-      </c>
-      <c r="O88">
-        <v>250</v>
-      </c>
-      <c r="P88">
-        <v>1000</v>
-      </c>
-      <c r="T88" t="s">
-        <v>428</v>
-      </c>
       <c r="Z88" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AA88" t="s">
-        <v>438</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:32">
       <c r="A89">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" t="s">
-        <v>424</v>
-      </c>
-      <c r="G89" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89">
+        <v>5000</v>
+      </c>
+      <c r="I89">
+        <v>7000</v>
+      </c>
+      <c r="J89">
+        <v>50000</v>
+      </c>
+      <c r="K89">
+        <v>3000</v>
+      </c>
+      <c r="O89">
+        <v>5000</v>
+      </c>
+      <c r="P89">
+        <v>250</v>
+      </c>
+      <c r="T89" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA89" t="s">
         <v>436</v>
-      </c>
-      <c r="H89">
-        <v>100</v>
-      </c>
-      <c r="O89">
-        <v>150</v>
-      </c>
-      <c r="P89">
-        <v>1500</v>
-      </c>
-      <c r="T89" t="s">
-        <v>434</v>
-      </c>
-      <c r="U89" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:32">
       <c r="A90">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C90" t="s">
-        <v>323</v>
-      </c>
-      <c r="D90" t="s">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="G90" t="s">
-        <v>444</v>
+        <v>438</v>
+      </c>
+      <c r="H90">
+        <v>5000</v>
+      </c>
+      <c r="I90">
+        <v>7500</v>
+      </c>
+      <c r="K90">
+        <v>10000</v>
+      </c>
+      <c r="L90" t="s">
+        <v>439</v>
       </c>
       <c r="O90">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P90">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="T90" t="s">
-        <v>439</v>
-      </c>
-      <c r="U90" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="Z90" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AA90" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:32">
       <c r="A91">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C91" t="s">
-        <v>323</v>
+        <v>31</v>
       </c>
       <c r="D91" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="G91" t="s">
-        <v>449</v>
-      </c>
-      <c r="H91">
-        <v>25000</v>
-      </c>
-      <c r="L91" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="O91">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="P91">
-        <v>1600</v>
-      </c>
-      <c r="T91" t="s">
+        <v>1000</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>446</v>
+      </c>
+      <c r="AB91" t="s">
         <v>443</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>452</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:32">
       <c r="A92">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="D92" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="G92" t="s">
-        <v>450</v>
-      </c>
-      <c r="H92">
-        <v>100</v>
-      </c>
-      <c r="M92">
-        <v>25</v>
-      </c>
-      <c r="N92">
-        <v>2</v>
+        <v>448</v>
+      </c>
+      <c r="L92" t="s">
+        <v>449</v>
       </c>
       <c r="O92">
         <v>150</v>
       </c>
       <c r="P92">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="T92" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Z92" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AA92" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AB92" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:32">
       <c r="A93">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
+        <v>452</v>
+      </c>
+      <c r="C93" t="s">
+        <v>453</v>
+      </c>
+      <c r="D93" t="s">
+        <v>443</v>
+      </c>
+      <c r="G93" t="s">
+        <v>449</v>
+      </c>
+      <c r="L93" t="s">
+        <v>454</v>
+      </c>
+      <c r="O93">
+        <v>250</v>
+      </c>
+      <c r="P93">
+        <v>1000</v>
+      </c>
+      <c r="T93" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA93" t="s">
         <v>456</v>
       </c>
-      <c r="C93" t="s">
-        <v>429</v>
-      </c>
-      <c r="D93" t="s">
-        <v>424</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>100</v>
-      </c>
-      <c r="I93">
-        <v>20000</v>
-      </c>
-      <c r="K93">
-        <v>10000</v>
-      </c>
-      <c r="O93">
-        <v>150</v>
-      </c>
-      <c r="P93">
-        <v>3000</v>
-      </c>
-      <c r="T93" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>458</v>
-      </c>
       <c r="AB93" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:32">
       <c r="A94">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B94" t="s">
+        <v>457</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" t="s">
+        <v>443</v>
+      </c>
+      <c r="G94" t="s">
+        <v>454</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="O94">
+        <v>150</v>
+      </c>
+      <c r="P94">
+        <v>1500</v>
+      </c>
+      <c r="T94" t="s">
+        <v>452</v>
+      </c>
+      <c r="U94" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z94" t="s">
         <v>459</v>
       </c>
-      <c r="C94" t="s">
-        <v>37</v>
-      </c>
-      <c r="D94" t="s">
-        <v>424</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="AA94" t="s">
         <v>460</v>
       </c>
-      <c r="H94">
-        <v>500</v>
-      </c>
-      <c r="I94">
-        <v>15000</v>
-      </c>
-      <c r="K94">
-        <v>15000</v>
-      </c>
-      <c r="O94">
-        <v>250</v>
-      </c>
-      <c r="P94">
-        <v>4000</v>
-      </c>
-      <c r="T94" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>462</v>
-      </c>
       <c r="AB94" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="1:32">
       <c r="A95">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B95" t="s">
+        <v>461</v>
+      </c>
+      <c r="C95" t="s">
+        <v>323</v>
+      </c>
+      <c r="D95" t="s">
+        <v>443</v>
+      </c>
+      <c r="G95" t="s">
+        <v>462</v>
+      </c>
+      <c r="O95">
+        <v>10000</v>
+      </c>
+      <c r="P95">
+        <v>1500</v>
+      </c>
+      <c r="T95" t="s">
+        <v>457</v>
+      </c>
+      <c r="U95" t="s">
         <v>463</v>
       </c>
-      <c r="C95" t="s">
-        <v>67</v>
-      </c>
-      <c r="D95" t="s">
-        <v>424</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="Z95" t="s">
         <v>464</v>
       </c>
-      <c r="L95" t="s">
+      <c r="AA95" t="s">
         <v>465</v>
       </c>
-      <c r="O95">
-        <v>250</v>
-      </c>
-      <c r="P95">
-        <v>4000</v>
-      </c>
-      <c r="T95" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>467</v>
-      </c>
       <c r="AB95" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:32">
       <c r="A96">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
+        <v>466</v>
+      </c>
+      <c r="C96" t="s">
+        <v>323</v>
+      </c>
+      <c r="D96" t="s">
+        <v>443</v>
+      </c>
+      <c r="G96" t="s">
+        <v>467</v>
+      </c>
+      <c r="H96">
+        <v>25000</v>
+      </c>
+      <c r="L96" t="s">
         <v>468</v>
       </c>
-      <c r="C96" t="s">
-        <v>429</v>
-      </c>
-      <c r="D96" t="s">
-        <v>424</v>
-      </c>
-      <c r="G96" t="s">
-        <v>465</v>
-      </c>
-      <c r="H96">
-        <v>100</v>
-      </c>
-      <c r="I96">
-        <v>100000</v>
-      </c>
-      <c r="K96">
-        <v>75000</v>
+      <c r="O96">
+        <v>10000</v>
       </c>
       <c r="P96">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="T96" t="s">
-        <v>463</v>
-      </c>
-      <c r="X96">
-        <v>2</v>
+        <v>461</v>
       </c>
       <c r="Z96" t="s">
         <v>469</v>
@@ -6237,226 +6285,253 @@
         <v>470</v>
       </c>
       <c r="AB96" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="1:32">
       <c r="A97">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
         <v>471</v>
       </c>
       <c r="C97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" t="s">
+        <v>443</v>
+      </c>
+      <c r="G97" t="s">
+        <v>468</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="M97">
+        <v>25</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>150</v>
+      </c>
+      <c r="P97">
+        <v>3000</v>
+      </c>
+      <c r="T97" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z97" t="s">
         <v>472</v>
       </c>
-      <c r="G97" t="s">
+      <c r="AA97" t="s">
         <v>473</v>
       </c>
-      <c r="H97">
-        <v>125</v>
-      </c>
-      <c r="O97">
-        <v>200</v>
-      </c>
-      <c r="P97">
-        <v>100</v>
-      </c>
-      <c r="S97">
-        <v>1</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>474</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD97">
-        <v>4</v>
+      <c r="AB97" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:32">
       <c r="A98">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C98" t="s">
-        <v>429</v>
-      </c>
-      <c r="G98" t="s">
-        <v>477</v>
+        <v>398</v>
+      </c>
+      <c r="D98" t="s">
+        <v>443</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>20000</v>
+      </c>
+      <c r="K98">
+        <v>10000</v>
       </c>
       <c r="O98">
         <v>150</v>
       </c>
       <c r="P98">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="T98" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="Z98" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AA98" t="s">
-        <v>479</v>
-      </c>
-      <c r="AD98">
-        <v>4</v>
+        <v>476</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:32">
       <c r="A99">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
+        <v>477</v>
+      </c>
+      <c r="C99" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" t="s">
+        <v>443</v>
+      </c>
+      <c r="G99" t="s">
+        <v>478</v>
+      </c>
+      <c r="H99">
+        <v>500</v>
+      </c>
+      <c r="I99">
+        <v>15000</v>
+      </c>
+      <c r="K99">
+        <v>15000</v>
+      </c>
+      <c r="O99">
+        <v>250</v>
+      </c>
+      <c r="P99">
+        <v>4000</v>
+      </c>
+      <c r="T99" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA99" t="s">
         <v>480</v>
       </c>
-      <c r="C99" t="s">
-        <v>472</v>
-      </c>
-      <c r="G99" t="s">
-        <v>481</v>
-      </c>
-      <c r="O99">
-        <v>200</v>
-      </c>
-      <c r="P99">
-        <v>100</v>
-      </c>
-      <c r="T99" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>482</v>
-      </c>
-      <c r="AA99" t="s">
-        <v>483</v>
-      </c>
-      <c r="AD99">
-        <v>4</v>
+      <c r="AB99" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:32">
       <c r="A100">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
+        <v>481</v>
+      </c>
+      <c r="C100" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" t="s">
+        <v>443</v>
+      </c>
+      <c r="G100" t="s">
+        <v>482</v>
+      </c>
+      <c r="L100" t="s">
+        <v>483</v>
+      </c>
+      <c r="O100">
+        <v>250</v>
+      </c>
+      <c r="P100">
+        <v>4000</v>
+      </c>
+      <c r="T100" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z100" t="s">
         <v>484</v>
       </c>
-      <c r="C100" t="s">
-        <v>472</v>
-      </c>
-      <c r="H100">
-        <v>125</v>
-      </c>
-      <c r="O100">
-        <v>200</v>
-      </c>
-      <c r="P100">
-        <v>100</v>
-      </c>
-      <c r="T100" t="s">
-        <v>480</v>
-      </c>
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>485</v>
       </c>
-      <c r="AA100" t="s">
-        <v>486</v>
-      </c>
-      <c r="AD100">
-        <v>4</v>
+      <c r="AB100" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="101" spans="1:32">
       <c r="A101">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B101" t="s">
+        <v>486</v>
+      </c>
+      <c r="C101" t="s">
+        <v>398</v>
+      </c>
+      <c r="D101" t="s">
+        <v>443</v>
+      </c>
+      <c r="G101" t="s">
+        <v>483</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101">
+        <v>100000</v>
+      </c>
+      <c r="K101">
+        <v>75000</v>
+      </c>
+      <c r="P101">
+        <v>5000</v>
+      </c>
+      <c r="T101" t="s">
+        <v>481</v>
+      </c>
+      <c r="X101">
+        <v>1</v>
+      </c>
+      <c r="Z101" t="s">
         <v>487</v>
       </c>
-      <c r="C101" t="s">
-        <v>472</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="AA101" t="s">
         <v>488</v>
       </c>
-      <c r="G101" t="s">
-        <v>489</v>
-      </c>
-      <c r="H101">
-        <v>125</v>
-      </c>
-      <c r="L101" t="s">
-        <v>490</v>
-      </c>
-      <c r="M101">
-        <v>75</v>
-      </c>
-      <c r="N101">
-        <v>10</v>
-      </c>
-      <c r="O101">
-        <v>200</v>
-      </c>
-      <c r="P101">
-        <v>100</v>
-      </c>
-      <c r="T101" t="s">
-        <v>480</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>492</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>488</v>
-      </c>
-      <c r="AD101">
-        <v>4</v>
+      <c r="AB101" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:32">
       <c r="A102">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C102" t="s">
-        <v>472</v>
+        <v>490</v>
+      </c>
+      <c r="G102" t="s">
+        <v>491</v>
       </c>
       <c r="H102">
         <v>125</v>
       </c>
-      <c r="I102">
-        <v>1500</v>
-      </c>
-      <c r="M102">
-        <v>75</v>
-      </c>
-      <c r="N102">
-        <v>10</v>
-      </c>
       <c r="O102">
         <v>200</v>
       </c>
       <c r="P102">
         <v>100</v>
       </c>
-      <c r="T102" t="s">
-        <v>487</v>
+      <c r="S102">
+        <v>1</v>
       </c>
       <c r="Z102" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AA102" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AD102">
         <v>4</v>
@@ -6464,25 +6539,16 @@
     </row>
     <row r="103" spans="1:32">
       <c r="A103">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C103" t="s">
-        <v>429</v>
-      </c>
-      <c r="E103" t="s">
-        <v>484</v>
+        <v>398</v>
       </c>
       <c r="G103" t="s">
-        <v>497</v>
-      </c>
-      <c r="M103">
-        <v>25</v>
-      </c>
-      <c r="N103">
-        <v>2</v>
+        <v>495</v>
       </c>
       <c r="O103">
         <v>150</v>
@@ -6491,16 +6557,13 @@
         <v>100</v>
       </c>
       <c r="T103" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="Z103" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AA103" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="AD103">
         <v>4</v>
@@ -6508,40 +6571,31 @@
     </row>
     <row r="104" spans="1:32">
       <c r="A104">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
+        <v>498</v>
+      </c>
+      <c r="C104" t="s">
+        <v>490</v>
+      </c>
+      <c r="G104" t="s">
+        <v>499</v>
+      </c>
+      <c r="O104">
+        <v>200</v>
+      </c>
+      <c r="P104">
+        <v>100</v>
+      </c>
+      <c r="T104" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z104" t="s">
         <v>500</v>
       </c>
-      <c r="C104" t="s">
-        <v>429</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="AA104" t="s">
         <v>501</v>
-      </c>
-      <c r="H104">
-        <v>100</v>
-      </c>
-      <c r="M104">
-        <v>25</v>
-      </c>
-      <c r="N104">
-        <v>2</v>
-      </c>
-      <c r="O104">
-        <v>150</v>
-      </c>
-      <c r="P104">
-        <v>100</v>
-      </c>
-      <c r="T104" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>502</v>
-      </c>
-      <c r="AA104" t="s">
-        <v>503</v>
       </c>
       <c r="AD104">
         <v>4</v>
@@ -6549,49 +6603,31 @@
     </row>
     <row r="105" spans="1:32">
       <c r="A105">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="C105" t="s">
-        <v>429</v>
-      </c>
-      <c r="G105" t="s">
+        <v>490</v>
+      </c>
+      <c r="H105">
+        <v>125</v>
+      </c>
+      <c r="O105">
+        <v>200</v>
+      </c>
+      <c r="P105">
+        <v>100</v>
+      </c>
+      <c r="T105" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA105" t="s">
         <v>504</v>
-      </c>
-      <c r="H105">
-        <v>100</v>
-      </c>
-      <c r="I105">
-        <v>200</v>
-      </c>
-      <c r="J105">
-        <v>1000</v>
-      </c>
-      <c r="L105" t="s">
-        <v>505</v>
-      </c>
-      <c r="M105">
-        <v>25</v>
-      </c>
-      <c r="N105">
-        <v>2</v>
-      </c>
-      <c r="O105">
-        <v>150</v>
-      </c>
-      <c r="P105">
-        <v>100</v>
-      </c>
-      <c r="T105" t="s">
-        <v>500</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA105" t="s">
-        <v>507</v>
       </c>
       <c r="AD105">
         <v>4</v>
@@ -6599,19 +6635,25 @@
     </row>
     <row r="106" spans="1:32">
       <c r="A106">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
+        <v>505</v>
+      </c>
+      <c r="C106" t="s">
+        <v>490</v>
+      </c>
+      <c r="E106" t="s">
+        <v>506</v>
+      </c>
+      <c r="G106" t="s">
+        <v>507</v>
+      </c>
+      <c r="H106">
+        <v>125</v>
+      </c>
+      <c r="L106" t="s">
         <v>508</v>
-      </c>
-      <c r="C106" t="s">
-        <v>472</v>
-      </c>
-      <c r="E106" t="s">
-        <v>493</v>
-      </c>
-      <c r="G106" t="s">
-        <v>509</v>
       </c>
       <c r="M106">
         <v>75</v>
@@ -6626,19 +6668,16 @@
         <v>100</v>
       </c>
       <c r="T106" t="s">
-        <v>471</v>
-      </c>
-      <c r="U106" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA106" t="s">
         <v>510</v>
       </c>
-      <c r="Z106" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>512</v>
-      </c>
       <c r="AC106" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="AD106">
         <v>4</v>
@@ -6646,22 +6685,19 @@
     </row>
     <row r="107" spans="1:32">
       <c r="A107">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C107" t="s">
-        <v>472</v>
-      </c>
-      <c r="G107" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="H107">
         <v>125</v>
       </c>
       <c r="I107">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M107">
         <v>75</v>
@@ -6672,17 +6708,17 @@
       <c r="O107">
         <v>200</v>
       </c>
+      <c r="P107">
+        <v>100</v>
+      </c>
       <c r="T107" t="s">
-        <v>508</v>
-      </c>
-      <c r="U107" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="Z107" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AA107" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AD107">
         <v>4</v>
@@ -6690,49 +6726,43 @@
     </row>
     <row r="108" spans="1:32">
       <c r="A108">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B108" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C108" t="s">
-        <v>472</v>
+        <v>398</v>
+      </c>
+      <c r="E108" t="s">
+        <v>502</v>
       </c>
       <c r="G108" t="s">
-        <v>519</v>
-      </c>
-      <c r="H108">
-        <v>125</v>
-      </c>
-      <c r="I108">
-        <v>25000</v>
-      </c>
-      <c r="L108" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M108">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N108">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O108">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="P108">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T108" t="s">
-        <v>513</v>
-      </c>
-      <c r="U108" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="Z108" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AA108" t="s">
-        <v>523</v>
+        <v>517</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>502</v>
       </c>
       <c r="AD108">
         <v>4</v>
@@ -6740,25 +6770,19 @@
     </row>
     <row r="109" spans="1:32">
       <c r="A109">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B109" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C109" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="G109" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H109">
         <v>100</v>
-      </c>
-      <c r="I109">
-        <v>5000</v>
-      </c>
-      <c r="L109" t="s">
-        <v>525</v>
       </c>
       <c r="M109">
         <v>25</v>
@@ -6770,16 +6794,16 @@
         <v>150</v>
       </c>
       <c r="P109">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="T109" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="Z109" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AA109" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AD109">
         <v>4</v>
@@ -6787,49 +6811,49 @@
     </row>
     <row r="110" spans="1:32">
       <c r="A110">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C110" t="s">
-        <v>529</v>
-      </c>
-      <c r="E110" t="s">
-        <v>530</v>
+        <v>398</v>
+      </c>
+      <c r="G110" t="s">
+        <v>522</v>
       </c>
       <c r="H110">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I110">
-        <v>2000</v>
+        <v>200</v>
+      </c>
+      <c r="J110">
+        <v>1000</v>
       </c>
       <c r="L110" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="M110">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="P110">
         <v>100</v>
       </c>
       <c r="T110" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z110" t="s">
         <v>524</v>
       </c>
-      <c r="Z110" t="s">
-        <v>532</v>
-      </c>
       <c r="AA110" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AD110">
         <v>4</v>
@@ -6837,22 +6861,19 @@
     </row>
     <row r="111" spans="1:32">
       <c r="A111">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B111" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C111" t="s">
-        <v>535</v>
+        <v>490</v>
+      </c>
+      <c r="E111" t="s">
+        <v>511</v>
       </c>
       <c r="G111" t="s">
-        <v>536</v>
-      </c>
-      <c r="H111">
-        <v>125</v>
-      </c>
-      <c r="I111">
-        <v>1500</v>
+        <v>527</v>
       </c>
       <c r="M111">
         <v>75</v>
@@ -6860,17 +6881,26 @@
       <c r="N111">
         <v>10</v>
       </c>
+      <c r="O111">
+        <v>200</v>
+      </c>
       <c r="P111">
         <v>100</v>
       </c>
       <c r="T111" t="s">
+        <v>489</v>
+      </c>
+      <c r="U111" t="s">
         <v>528</v>
       </c>
       <c r="Z111" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AA111" t="s">
-        <v>538</v>
+        <v>530</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>511</v>
       </c>
       <c r="AD111">
         <v>4</v>
@@ -6878,22 +6908,22 @@
     </row>
     <row r="112" spans="1:32">
       <c r="A112">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B112" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C112" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="G112" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H112">
         <v>125</v>
       </c>
       <c r="I112">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M112">
         <v>75</v>
@@ -6901,20 +6931,20 @@
       <c r="N112">
         <v>10</v>
       </c>
-      <c r="P112">
-        <v>100</v>
+      <c r="O112">
+        <v>200</v>
       </c>
       <c r="T112" t="s">
+        <v>526</v>
+      </c>
+      <c r="U112" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z112" t="s">
         <v>534</v>
       </c>
-      <c r="U112" t="s">
-        <v>541</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>542</v>
-      </c>
       <c r="AA112" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AD112">
         <v>4</v>
@@ -6922,25 +6952,25 @@
     </row>
     <row r="113" spans="1:32">
       <c r="A113">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C113" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="G113" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H113">
         <v>125</v>
       </c>
       <c r="I113">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L113" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M113">
         <v>75</v>
@@ -6948,17 +6978,23 @@
       <c r="N113">
         <v>10</v>
       </c>
+      <c r="O113">
+        <v>200</v>
+      </c>
       <c r="P113">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T113" t="s">
+        <v>531</v>
+      </c>
+      <c r="U113" t="s">
         <v>539</v>
       </c>
       <c r="Z113" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AA113" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AD113">
         <v>4</v>
@@ -6966,43 +7002,46 @@
     </row>
     <row r="114" spans="1:32">
       <c r="A114">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C114" t="s">
-        <v>535</v>
+        <v>398</v>
       </c>
       <c r="G114" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H114">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I114">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L114" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M114">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N114">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>150</v>
       </c>
       <c r="P114">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="T114" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="Z114" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA114" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AD114">
         <v>4</v>
@@ -7010,46 +7049,49 @@
     </row>
     <row r="115" spans="1:32">
       <c r="A115">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C115" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="E115" t="s">
+        <v>548</v>
+      </c>
+      <c r="H115">
+        <v>125</v>
+      </c>
+      <c r="I115">
+        <v>2000</v>
+      </c>
+      <c r="L115" t="s">
         <v>549</v>
       </c>
       <c r="M115">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N115">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O115">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="P115">
         <v>100</v>
       </c>
       <c r="T115" t="s">
-        <v>549</v>
-      </c>
-      <c r="V115" t="s">
-        <v>554</v>
-      </c>
-      <c r="W115">
-        <v>2</v>
+        <v>542</v>
       </c>
       <c r="Z115" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AA115" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AC115" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AD115">
         <v>4</v>
@@ -7057,40 +7099,40 @@
     </row>
     <row r="116" spans="1:32">
       <c r="A116">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C116" t="s">
-        <v>472</v>
+        <v>553</v>
+      </c>
+      <c r="G116" t="s">
+        <v>554</v>
+      </c>
+      <c r="H116">
+        <v>125</v>
+      </c>
+      <c r="I116">
+        <v>1500</v>
       </c>
       <c r="M116">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N116">
-        <v>25</v>
-      </c>
-      <c r="O116">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="P116">
         <v>100</v>
       </c>
       <c r="T116" t="s">
-        <v>553</v>
-      </c>
-      <c r="V116" t="s">
-        <v>554</v>
-      </c>
-      <c r="W116">
-        <v>4</v>
+        <v>546</v>
       </c>
       <c r="Z116" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AA116" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AD116">
         <v>4</v>
@@ -7098,40 +7140,43 @@
     </row>
     <row r="117" spans="1:32">
       <c r="A117">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B117" t="s">
+        <v>557</v>
+      </c>
+      <c r="C117" t="s">
+        <v>553</v>
+      </c>
+      <c r="G117" t="s">
+        <v>558</v>
+      </c>
+      <c r="H117">
+        <v>125</v>
+      </c>
+      <c r="I117">
+        <v>1500</v>
+      </c>
+      <c r="M117">
+        <v>75</v>
+      </c>
+      <c r="N117">
+        <v>10</v>
+      </c>
+      <c r="P117">
+        <v>100</v>
+      </c>
+      <c r="T117" t="s">
+        <v>552</v>
+      </c>
+      <c r="U117" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z117" t="s">
         <v>560</v>
       </c>
-      <c r="C117" t="s">
-        <v>429</v>
-      </c>
-      <c r="M117">
-        <v>125</v>
-      </c>
-      <c r="N117">
-        <v>50</v>
-      </c>
-      <c r="O117">
-        <v>1000</v>
-      </c>
-      <c r="P117">
-        <v>100</v>
-      </c>
-      <c r="T117" t="s">
-        <v>557</v>
-      </c>
-      <c r="V117" t="s">
-        <v>554</v>
-      </c>
-      <c r="W117">
-        <v>5</v>
-      </c>
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>561</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>562</v>
       </c>
       <c r="AD117">
         <v>4</v>
@@ -7139,22 +7184,25 @@
     </row>
     <row r="118" spans="1:32">
       <c r="A118">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B118" t="s">
+        <v>562</v>
+      </c>
+      <c r="C118" t="s">
+        <v>553</v>
+      </c>
+      <c r="G118" t="s">
         <v>563</v>
-      </c>
-      <c r="C118" t="s">
-        <v>529</v>
-      </c>
-      <c r="E118" t="s">
-        <v>524</v>
       </c>
       <c r="H118">
         <v>125</v>
       </c>
       <c r="I118">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="L118" t="s">
+        <v>564</v>
       </c>
       <c r="M118">
         <v>75</v>
@@ -7162,23 +7210,17 @@
       <c r="N118">
         <v>10</v>
       </c>
-      <c r="O118">
-        <v>200</v>
-      </c>
       <c r="P118">
         <v>100</v>
       </c>
       <c r="T118" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="Z118" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA118" t="s">
-        <v>565</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="AD118">
         <v>4</v>
@@ -7186,22 +7228,25 @@
     </row>
     <row r="119" spans="1:32">
       <c r="A119">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C119" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="G119" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H119">
         <v>125</v>
       </c>
       <c r="I119">
-        <v>500</v>
+        <v>10000</v>
+      </c>
+      <c r="L119" t="s">
+        <v>568</v>
       </c>
       <c r="M119">
         <v>75</v>
@@ -7209,20 +7254,17 @@
       <c r="N119">
         <v>10</v>
       </c>
-      <c r="O119">
-        <v>200</v>
-      </c>
       <c r="P119">
         <v>100</v>
       </c>
       <c r="T119" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="Z119" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AA119" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AD119">
         <v>4</v>
@@ -7230,40 +7272,46 @@
     </row>
     <row r="120" spans="1:32">
       <c r="A120">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C120" t="s">
-        <v>529</v>
-      </c>
-      <c r="H120">
-        <v>125</v>
-      </c>
-      <c r="I120">
-        <v>500</v>
+        <v>547</v>
+      </c>
+      <c r="E120" t="s">
+        <v>567</v>
       </c>
       <c r="M120">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N120">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O120">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="P120">
         <v>100</v>
       </c>
       <c r="T120" t="s">
-        <v>566</v>
+        <v>567</v>
+      </c>
+      <c r="V120" t="s">
+        <v>572</v>
+      </c>
+      <c r="W120">
+        <v>2</v>
       </c>
       <c r="Z120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AA120" t="s">
-        <v>572</v>
+        <v>574</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>567</v>
       </c>
       <c r="AD120">
         <v>4</v>
@@ -7271,345 +7319,330 @@
     </row>
     <row r="121" spans="1:32">
       <c r="A121">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="C121" t="s">
-        <v>529</v>
-      </c>
-      <c r="G121" t="s">
-        <v>530</v>
-      </c>
-      <c r="H121">
-        <v>125</v>
-      </c>
-      <c r="I121">
+        <v>490</v>
+      </c>
+      <c r="M121">
+        <v>100</v>
+      </c>
+      <c r="N121">
+        <v>25</v>
+      </c>
+      <c r="O121">
         <v>1000</v>
       </c>
-      <c r="M121">
-        <v>75</v>
-      </c>
-      <c r="N121">
-        <v>10</v>
-      </c>
-      <c r="O121">
-        <v>200</v>
-      </c>
       <c r="P121">
         <v>100</v>
       </c>
       <c r="T121" t="s">
-        <v>570</v>
+        <v>571</v>
+      </c>
+      <c r="V121" t="s">
+        <v>572</v>
+      </c>
+      <c r="W121">
+        <v>4</v>
       </c>
       <c r="Z121" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AA121" t="s">
-        <v>574</v>
+        <v>577</v>
+      </c>
+      <c r="AD121">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:32">
       <c r="A122">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
+        <v>578</v>
+      </c>
+      <c r="C122" t="s">
+        <v>398</v>
+      </c>
+      <c r="M122">
+        <v>125</v>
+      </c>
+      <c r="N122">
+        <v>50</v>
+      </c>
+      <c r="O122">
+        <v>1000</v>
+      </c>
+      <c r="P122">
+        <v>100</v>
+      </c>
+      <c r="T122" t="s">
         <v>575</v>
       </c>
-      <c r="C122" t="s">
-        <v>472</v>
-      </c>
-      <c r="E122" t="s">
-        <v>560</v>
-      </c>
-      <c r="M122">
-        <v>175</v>
-      </c>
-      <c r="N122">
-        <v>75</v>
-      </c>
-      <c r="O122">
-        <v>2000</v>
-      </c>
-      <c r="P122">
-        <v>100</v>
-      </c>
-      <c r="T122" t="s">
-        <v>471</v>
+      <c r="V122" t="s">
+        <v>572</v>
+      </c>
+      <c r="W122">
+        <v>5</v>
       </c>
       <c r="Z122" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AA122" t="s">
-        <v>577</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="AD122">
         <v>4</v>
       </c>
-      <c r="AE122" t="s">
-        <v>472</v>
-      </c>
-      <c r="AF122">
-        <v>5</v>
-      </c>
     </row>
     <row r="123" spans="1:32">
       <c r="A123">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C123" t="s">
-        <v>472</v>
+        <v>547</v>
+      </c>
+      <c r="E123" t="s">
+        <v>542</v>
+      </c>
+      <c r="H123">
+        <v>125</v>
+      </c>
+      <c r="I123">
+        <v>100</v>
       </c>
       <c r="M123">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N123">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O123">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P123">
         <v>100</v>
       </c>
       <c r="T123" t="s">
-        <v>575</v>
+        <v>489</v>
       </c>
       <c r="Z123" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="AA123" t="s">
-        <v>580</v>
+        <v>583</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>542</v>
       </c>
       <c r="AD123">
         <v>4</v>
       </c>
-      <c r="AE123" t="s">
-        <v>472</v>
-      </c>
-      <c r="AF123">
-        <v>10</v>
-      </c>
     </row>
     <row r="124" spans="1:32">
       <c r="A124">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
+        <v>584</v>
+      </c>
+      <c r="C124" t="s">
+        <v>547</v>
+      </c>
+      <c r="G124" t="s">
+        <v>585</v>
+      </c>
+      <c r="H124">
+        <v>125</v>
+      </c>
+      <c r="I124">
+        <v>500</v>
+      </c>
+      <c r="M124">
+        <v>75</v>
+      </c>
+      <c r="N124">
+        <v>10</v>
+      </c>
+      <c r="O124">
+        <v>200</v>
+      </c>
+      <c r="P124">
+        <v>100</v>
+      </c>
+      <c r="T124" t="s">
         <v>581</v>
       </c>
-      <c r="C124" t="s">
-        <v>472</v>
-      </c>
-      <c r="M124">
-        <v>175</v>
-      </c>
-      <c r="N124">
-        <v>75</v>
-      </c>
-      <c r="O124">
-        <v>2000</v>
-      </c>
-      <c r="P124">
-        <v>100</v>
-      </c>
-      <c r="T124" t="s">
-        <v>578</v>
-      </c>
       <c r="Z124" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AA124" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AD124">
         <v>4</v>
       </c>
-      <c r="AE124" t="s">
-        <v>472</v>
-      </c>
-      <c r="AF124">
-        <v>15</v>
-      </c>
     </row>
     <row r="125" spans="1:32">
       <c r="A125">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B125" t="s">
+        <v>588</v>
+      </c>
+      <c r="C125" t="s">
+        <v>547</v>
+      </c>
+      <c r="H125">
+        <v>125</v>
+      </c>
+      <c r="I125">
+        <v>500</v>
+      </c>
+      <c r="M125">
+        <v>75</v>
+      </c>
+      <c r="N125">
+        <v>10</v>
+      </c>
+      <c r="O125">
+        <v>200</v>
+      </c>
+      <c r="P125">
+        <v>100</v>
+      </c>
+      <c r="T125" t="s">
         <v>584</v>
       </c>
-      <c r="C125" t="s">
-        <v>472</v>
-      </c>
-      <c r="M125">
-        <v>175</v>
-      </c>
-      <c r="N125">
-        <v>75</v>
-      </c>
-      <c r="O125">
-        <v>2000</v>
-      </c>
-      <c r="P125">
-        <v>100</v>
-      </c>
-      <c r="T125" t="s">
-        <v>581</v>
-      </c>
       <c r="Z125" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AA125" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="AD125">
         <v>4</v>
       </c>
-      <c r="AE125" t="s">
-        <v>472</v>
-      </c>
-      <c r="AF125">
-        <v>20</v>
-      </c>
     </row>
     <row r="126" spans="1:32">
       <c r="A126">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
       <c r="C126" t="s">
-        <v>472</v>
-      </c>
-      <c r="L126" t="s">
+        <v>547</v>
+      </c>
+      <c r="G126" t="s">
+        <v>548</v>
+      </c>
+      <c r="H126">
+        <v>125</v>
+      </c>
+      <c r="I126">
+        <v>1000</v>
+      </c>
+      <c r="M126">
+        <v>75</v>
+      </c>
+      <c r="N126">
+        <v>10</v>
+      </c>
+      <c r="O126">
+        <v>200</v>
+      </c>
+      <c r="P126">
+        <v>100</v>
+      </c>
+      <c r="T126" t="s">
         <v>588</v>
       </c>
-      <c r="M126">
-        <v>175</v>
-      </c>
-      <c r="N126">
-        <v>75</v>
-      </c>
-      <c r="O126">
-        <v>2000</v>
-      </c>
-      <c r="P126">
-        <v>100</v>
-      </c>
-      <c r="T126" t="s">
-        <v>584</v>
-      </c>
       <c r="Z126" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AA126" t="s">
-        <v>590</v>
-      </c>
-      <c r="AD126">
-        <v>4</v>
-      </c>
-      <c r="AE126" t="s">
-        <v>472</v>
-      </c>
-      <c r="AF126">
-        <v>25</v>
+        <v>592</v>
       </c>
     </row>
     <row r="127" spans="1:32">
       <c r="A127">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C127" t="s">
-        <v>472</v>
-      </c>
-      <c r="D127" t="s">
-        <v>592</v>
+        <v>490</v>
       </c>
       <c r="E127" t="s">
-        <v>544</v>
-      </c>
-      <c r="H127">
-        <v>125</v>
-      </c>
-      <c r="I127">
-        <v>25000</v>
+        <v>578</v>
       </c>
       <c r="M127">
+        <v>175</v>
+      </c>
+      <c r="N127">
         <v>75</v>
       </c>
-      <c r="N127">
-        <v>10</v>
-      </c>
       <c r="O127">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P127">
         <v>100</v>
       </c>
-      <c r="S127">
-        <v>1</v>
+      <c r="T127" t="s">
+        <v>489</v>
       </c>
       <c r="Z127" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AA127" t="s">
-        <v>594</v>
-      </c>
-      <c r="AB127" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AC127" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="AD127">
         <v>4</v>
       </c>
+      <c r="AE127" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF127">
+        <v>5</v>
+      </c>
     </row>
     <row r="128" spans="1:32">
       <c r="A128">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C128" t="s">
-        <v>472</v>
-      </c>
-      <c r="G128" t="s">
-        <v>596</v>
-      </c>
-      <c r="H128">
-        <v>125</v>
-      </c>
-      <c r="I128">
-        <v>5000</v>
+        <v>490</v>
       </c>
       <c r="M128">
+        <v>175</v>
+      </c>
+      <c r="N128">
         <v>75</v>
       </c>
-      <c r="N128">
-        <v>10</v>
-      </c>
       <c r="O128">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P128">
         <v>100</v>
       </c>
       <c r="T128" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z128" t="s">
         <v>597</v>
@@ -7620,72 +7653,72 @@
       <c r="AD128">
         <v>4</v>
       </c>
+      <c r="AE128" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF128">
+        <v>10</v>
+      </c>
     </row>
     <row r="129" spans="1:32">
       <c r="A129">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
         <v>599</v>
       </c>
       <c r="C129" t="s">
-        <v>472</v>
-      </c>
-      <c r="G129" t="s">
+        <v>490</v>
+      </c>
+      <c r="M129">
+        <v>175</v>
+      </c>
+      <c r="N129">
+        <v>75</v>
+      </c>
+      <c r="O129">
+        <v>2000</v>
+      </c>
+      <c r="P129">
+        <v>100</v>
+      </c>
+      <c r="T129" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z129" t="s">
         <v>600</v>
       </c>
-      <c r="H129">
-        <v>125</v>
-      </c>
-      <c r="I129">
-        <v>10000</v>
-      </c>
-      <c r="M129">
-        <v>75</v>
-      </c>
-      <c r="N129">
-        <v>10</v>
-      </c>
-      <c r="P129">
-        <v>100</v>
-      </c>
-      <c r="T129" t="s">
-        <v>595</v>
-      </c>
-      <c r="U129" t="s">
+      <c r="AA129" t="s">
         <v>601</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>603</v>
       </c>
       <c r="AD129">
         <v>4</v>
       </c>
+      <c r="AE129" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF129">
+        <v>15</v>
+      </c>
     </row>
     <row r="130" spans="1:32">
       <c r="A130">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C130" t="s">
-        <v>472</v>
-      </c>
-      <c r="G130" t="s">
-        <v>605</v>
-      </c>
-      <c r="H130">
-        <v>125</v>
-      </c>
-      <c r="I130">
+        <v>490</v>
+      </c>
+      <c r="M130">
+        <v>175</v>
+      </c>
+      <c r="N130">
+        <v>75</v>
+      </c>
+      <c r="O130">
         <v>2000</v>
-      </c>
-      <c r="O130">
-        <v>200</v>
       </c>
       <c r="P130">
         <v>100</v>
@@ -7694,89 +7727,113 @@
         <v>599</v>
       </c>
       <c r="Z130" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AA130" t="s">
-        <v>607</v>
+        <v>604</v>
+      </c>
+      <c r="AD130">
+        <v>4</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF130">
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:32">
       <c r="A131">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
+        <v>605</v>
+      </c>
+      <c r="C131" t="s">
+        <v>490</v>
+      </c>
+      <c r="L131" t="s">
+        <v>606</v>
+      </c>
+      <c r="M131">
+        <v>175</v>
+      </c>
+      <c r="N131">
+        <v>75</v>
+      </c>
+      <c r="O131">
+        <v>2000</v>
+      </c>
+      <c r="P131">
+        <v>100</v>
+      </c>
+      <c r="T131" t="s">
+        <v>602</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA131" t="s">
         <v>608</v>
-      </c>
-      <c r="C131" t="s">
-        <v>472</v>
-      </c>
-      <c r="G131" t="s">
-        <v>609</v>
-      </c>
-      <c r="H131">
-        <v>125</v>
-      </c>
-      <c r="I131">
-        <v>20000</v>
-      </c>
-      <c r="O131">
-        <v>200</v>
-      </c>
-      <c r="P131">
-        <v>100</v>
-      </c>
-      <c r="T131" t="s">
-        <v>604</v>
-      </c>
-      <c r="Z131" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA131" t="s">
-        <v>611</v>
       </c>
       <c r="AD131">
         <v>4</v>
       </c>
+      <c r="AE131" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF131">
+        <v>25</v>
+      </c>
     </row>
     <row r="132" spans="1:32">
       <c r="A132">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B132" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C132" t="s">
-        <v>429</v>
-      </c>
-      <c r="G132" t="s">
-        <v>613</v>
+        <v>490</v>
+      </c>
+      <c r="D132" t="s">
+        <v>610</v>
+      </c>
+      <c r="E132" t="s">
+        <v>562</v>
       </c>
       <c r="H132">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I132">
         <v>25000</v>
       </c>
       <c r="M132">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O132">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="P132">
         <v>100</v>
       </c>
-      <c r="T132" t="s">
-        <v>608</v>
+      <c r="S132">
+        <v>1</v>
       </c>
       <c r="Z132" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AA132" t="s">
-        <v>615</v>
+        <v>612</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>610</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>562</v>
       </c>
       <c r="AD132">
         <v>4</v>
@@ -7784,40 +7841,43 @@
     </row>
     <row r="133" spans="1:32">
       <c r="A133">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B133" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C133" t="s">
-        <v>472</v>
-      </c>
-      <c r="E133" t="s">
-        <v>612</v>
+        <v>490</v>
       </c>
       <c r="G133" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H133">
         <v>125</v>
       </c>
       <c r="I133">
-        <v>20000</v>
+        <v>5000</v>
+      </c>
+      <c r="M133">
+        <v>75</v>
+      </c>
+      <c r="N133">
+        <v>10</v>
+      </c>
+      <c r="O133">
+        <v>200</v>
       </c>
       <c r="P133">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T133" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="Z133" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AA133" t="s">
-        <v>619</v>
-      </c>
-      <c r="AC133" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AD133">
         <v>4</v>
@@ -7825,33 +7885,235 @@
     </row>
     <row r="134" spans="1:32">
       <c r="A134">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B134" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C134" t="s">
-        <v>472</v>
+        <v>490</v>
+      </c>
+      <c r="G134" t="s">
+        <v>618</v>
       </c>
       <c r="H134">
         <v>125</v>
       </c>
       <c r="I134">
+        <v>10000</v>
+      </c>
+      <c r="M134">
+        <v>75</v>
+      </c>
+      <c r="N134">
+        <v>10</v>
+      </c>
+      <c r="P134">
+        <v>100</v>
+      </c>
+      <c r="T134" t="s">
+        <v>613</v>
+      </c>
+      <c r="U134" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>621</v>
+      </c>
+      <c r="AD134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32">
+      <c r="A135">
+        <v>121</v>
+      </c>
+      <c r="B135" t="s">
+        <v>622</v>
+      </c>
+      <c r="C135" t="s">
+        <v>490</v>
+      </c>
+      <c r="G135" t="s">
+        <v>623</v>
+      </c>
+      <c r="H135">
+        <v>125</v>
+      </c>
+      <c r="I135">
+        <v>2000</v>
+      </c>
+      <c r="O135">
+        <v>200</v>
+      </c>
+      <c r="P135">
+        <v>100</v>
+      </c>
+      <c r="T135" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32">
+      <c r="A136">
+        <v>122</v>
+      </c>
+      <c r="B136" t="s">
+        <v>626</v>
+      </c>
+      <c r="C136" t="s">
+        <v>490</v>
+      </c>
+      <c r="G136" t="s">
+        <v>627</v>
+      </c>
+      <c r="H136">
+        <v>125</v>
+      </c>
+      <c r="I136">
+        <v>20000</v>
+      </c>
+      <c r="O136">
+        <v>200</v>
+      </c>
+      <c r="P136">
+        <v>100</v>
+      </c>
+      <c r="T136" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32">
+      <c r="A137">
+        <v>123</v>
+      </c>
+      <c r="B137" t="s">
+        <v>630</v>
+      </c>
+      <c r="C137" t="s">
+        <v>398</v>
+      </c>
+      <c r="G137" t="s">
+        <v>631</v>
+      </c>
+      <c r="H137">
+        <v>100</v>
+      </c>
+      <c r="I137">
+        <v>25000</v>
+      </c>
+      <c r="M137">
+        <v>25</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137">
+        <v>150</v>
+      </c>
+      <c r="P137">
+        <v>100</v>
+      </c>
+      <c r="T137" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA137" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32">
+      <c r="A138">
+        <v>124</v>
+      </c>
+      <c r="B138" t="s">
+        <v>634</v>
+      </c>
+      <c r="C138" t="s">
+        <v>490</v>
+      </c>
+      <c r="E138" t="s">
+        <v>630</v>
+      </c>
+      <c r="G138" t="s">
+        <v>635</v>
+      </c>
+      <c r="H138">
+        <v>125</v>
+      </c>
+      <c r="I138">
+        <v>20000</v>
+      </c>
+      <c r="P138">
+        <v>200</v>
+      </c>
+      <c r="T138" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>637</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32">
+      <c r="A139">
+        <v>125</v>
+      </c>
+      <c r="B139" t="s">
+        <v>638</v>
+      </c>
+      <c r="C139" t="s">
+        <v>490</v>
+      </c>
+      <c r="H139">
+        <v>125</v>
+      </c>
+      <c r="I139">
         <v>30000</v>
       </c>
-      <c r="P134">
+      <c r="P139">
         <v>500</v>
       </c>
-      <c r="T134" t="s">
-        <v>616</v>
-      </c>
-      <c r="Z134" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA134" t="s">
-        <v>622</v>
-      </c>
-      <c r="AD134">
+      <c r="T139" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD139">
         <v>4</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="661">
   <si>
     <t>id</t>
   </si>
@@ -1341,6 +1341,66 @@
   </si>
   <si>
     <t>You have heard of the stories of people becoming invisible, slipping through the land, between buildings, and past others in the shadows.&lt;br /&gt; &lt;br /&gt; You have come no closer to any answers that might be able to point you in the right direction towards the truth of The Creator, but after all these years, you might have some inclination as to how he got here. Blood stained and broken, suicide.&lt;br /&gt; &lt;br /&gt; You cannot confirm or deny the truth; even if it's false, it feels like the truth. He slips around these lands, invisible to the people. To those seeking him out, seeking out his truth, and seeking out their own.&lt;br /&gt; &lt;br /&gt; You leave the items on the ground, and the shadows form around them, clawing at the items, but they soon dissipate, leaving you with no one to talk to and a single cloak on the ground.&lt;br /&gt; &lt;br /&gt; No closer to the answers, but invisible to those who hunt you now.</t>
+  </si>
+  <si>
+    <t>Hunting a new lead</t>
+  </si>
+  <si>
+    <t>Tear of the shade</t>
+  </si>
+  <si>
+    <t>You've been pursuing a new lead, one that appears less cryptic and less of a history lesson. While understanding how the world works is valuable, it's less so when hunting down a mysterious new person who, as some &lt;br /&gt; have stated, may hold the answers to the questions you seek.&lt;br /&gt; &lt;br /&gt; The dreams haunting you are vivid—a woman, a mother—a scene of wreckage, twisted metal, blood—a deceased husband. It all culminates with the presence of a talking cat. Yes, you awaken just as the cat begins to &lt;br /&gt; speak. His name dances on your tongue: Mr. Whiskers.&lt;br /&gt; &lt;br /&gt; Shaking off the dreams, you refocus on the task at hand. The Wondering Price secluded himself when The Creator, The Child, failed to ascend, leading to The Shattering. The Poet, along with The Wondering Merchant &lt;br /&gt; and others, as mentioned, sealed away the distorted delusions and halted The Shattering.&lt;br /&gt; &lt;br /&gt; Fliniguss is ensnared in that world along with the Bishop, both trapped within their own distorted perceptions of reality.&lt;br /&gt; &lt;br /&gt; Could he be there? In this twisted realm? If so, how would you reach him?</t>
+  </si>
+  <si>
+    <t>As you wander around the Shadow Plane, following a rumor that The Wondering Prince was sighted here as a faceless man, you stumble upon him. He stands before you, seemingly staring right at you. However, he does not speak, nor does he make any movement. His face is devoid of features, appearing blurry and indistinct. You cannot discern his eyes or even confirm if he possesses them.&lt;br /&gt; &lt;br /&gt; In an instant, he vanishes.&lt;br /&gt; &lt;br /&gt; This faceless figure, initially thought to be The Wondering Prince, was not what it seemed. It was The Shade Lord, assuming an unfamiliar guise.</t>
+  </si>
+  <si>
+    <t>The Drunk, The Brothers and The Child</t>
+  </si>
+  <si>
+    <t>Faceless Robe</t>
+  </si>
+  <si>
+    <t>You search for The Shade Lord, calling out for him and attempting to connect with him through your thoughts, but receive no response. Standing motionless, you observe the shadows and lesser shades dancing on the &lt;br /&gt; horizon, just beyond your grasp. Unfortunately, you're never beyond theirs. They delve into your mind, searching for your questions, but their voices fade before you can articulate anything.&lt;br /&gt; &lt;br /&gt; The landscape falls silent. The shadows and shades disappear, leaving behind emptiness. The surroundings resemble the desolate wastelands that characterize this plane.</t>
+  </si>
+  <si>
+    <t>After days of relentless searching, you finally encounter him once more—the faceless wandering man, The Shade Lord.&lt;br /&gt; &lt;br /&gt; Approaching him, he turns towards you, his features still concealed. His voice resonates within your mind.&lt;br /&gt; &lt;br /&gt; "You perceive the twisted delusions of your own psyche. You pursue the demise of your own cognition. You chase after a man cherished by many, who retreated into his own cowardice. He sealed away his own musings—never to be unveiled by those seeking his essence."&lt;br /&gt; &lt;br /&gt; His voice fades, leaving him silently observing you. It's as if he awaits your affirmation or any indication that this is your desire—yet the more you contemplate, the more you question your sanity.&lt;br /&gt; &lt;br /&gt; You nod, and his voice returns.&lt;br /&gt; &lt;br /&gt; "The drunk. The love of the first. The brothers, intertwined in their bond, and The Child, who bared his soul. Fracture the realities, for nothing is genuine, but grasp onto the twisted delusions of your yearning."&lt;br /&gt; &lt;br /&gt; The Drunk, The Brothers, and The Child.</t>
+  </si>
+  <si>
+    <t>Drunk and in love</t>
+  </si>
+  <si>
+    <t>Bottle of missery</t>
+  </si>
+  <si>
+    <t>You traverse through dungeons, your sights set on your initial quarry: The Drunk. There's no mistaking his identity—the Drunken Adventurer.&lt;br /&gt; &lt;br /&gt; You discover him seated amidst ruins, guzzling from a bottle of brown liquor, thoroughly inebriated.&lt;br /&gt; &lt;br /&gt; "What... What ... do you want?" he slurs, the words tumbling from his lips.&lt;br /&gt; &lt;br /&gt; You clarify that you're in pursuit of The Wondering Prince.&lt;br /&gt; &lt;br /&gt; "He's no prince!" The Drunken Adventurer bellows. "NO PRINCE!"&lt;br /&gt; &lt;br /&gt; With that, he succumbs to unconsciousness, overwhelmed by intoxication.</t>
+  </si>
+  <si>
+    <t>The Drunken Adventurer awakens several hours later, massaging his head while attempting to prop himself against the ruins' wall.&lt;br /&gt; &lt;br /&gt; "You're still here," he remarks, still rubbing his head and eyes.&lt;br /&gt; &lt;br /&gt; You inquire about his earlier assertion that The Wondering Prince is not a prince.&lt;br /&gt; &lt;br /&gt; "I don't want to discuss that child. Be gone with you," he dismisses.&lt;br /&gt; &lt;br /&gt; You rise and depart, realizing there's no progress to be made here. You ponder his tale, considering that perhaps The Soldier, one of the brothers, could provide more insight.</t>
+  </si>
+  <si>
+    <t>Bound by heartbreak</t>
+  </si>
+  <si>
+    <t>The princes ring</t>
+  </si>
+  <si>
+    <t>You spot The Soldier navigating through the bustling market, attempting to sell his sword. Approaching him, you inquire if he could spare a moment for a private conversation, perhaps in a quieter setting.&lt;br /&gt; &lt;br /&gt; He agrees, and you both make your way to a small outdoor tavern, typically set up during pleasant weather and patrolled by guards to deter troublemakers and inebriated patrons.&lt;br /&gt; &lt;br /&gt; Seated at a modest table, you recount the unfolding saga thus far. The Soldier listens intently, his gaze drifting away when you mention The Shade Lord's words.&lt;br /&gt; &lt;br /&gt; "I do recall that," he finally responds after a prolonged silence. "To my brother and me, he was always known as The Wondering Prince. He often spoke of hailing from a realm beyond the horizon, a place known only to &lt;br /&gt; him—a visitor, he claimed."&lt;br /&gt; &lt;br /&gt; You detail the reaction of The Drunken Adventurer upon learning of his involvement, as well as The Child's role.&lt;br /&gt; &lt;br /&gt; "It seems we are all tied to one man and his allure," The Soldier remarks. "Bound by heartbreak, perhaps that's the reason for sealing away our world."&lt;br /&gt; &lt;br /&gt; "Perhaps, indeed," he adds cryptically, offering no further explanation, leaving you pondering what secrets both he and The Wondering Prince might be concealing.</t>
+  </si>
+  <si>
+    <t>You attempt to press The Soldier for further details, insisting on obtaining answers. In response, he slams his hand on the table, causing nearby patrons to glance up from their drinks, and a couple of guards to turn their heads.&lt;br /&gt; &lt;br /&gt; After a tense moment, The Soldier speaks in a firm and deliberate tone, "This matter is not one for you to pry into. It is not your concern."&lt;br /&gt; &lt;br /&gt; Confusion and frustration swirl within you as you wonder about the secrets being guarded so closely. What could possibly be going on?</t>
+  </si>
+  <si>
+    <t>The road to Hell</t>
+  </si>
+  <si>
+    <t>Ashes of the shade</t>
+  </si>
+  <si>
+    <t>Days pass with no sign of The Shade Lord. The Soldier has vanished, supposedly occupied with a task he accepted in exchange for his sword. The Poet's residence stands empty, and The Wondering Merchant is nowhere to be found.&lt;br /&gt; &lt;br /&gt; Standing amidst the eerie landscape of the Shadow Plane, you scan the horizon, searching for any hint of movement or shadow. Yet, none dance across your vision.&lt;br /&gt; &lt;br /&gt; "You've made an effort," a voice remarks.&lt;br /&gt; &lt;br /&gt; Beside you materializes The Child of Shade—small, ethereal, clinging to your side. Though you cannot feel their touch, their hands grasp yours firmly.&lt;br /&gt; &lt;br /&gt; "You've attempted to find a path to him. But have you delved into why they flee from their past?" the child questions cryptically.&lt;br /&gt; &lt;br /&gt; You struggle to comprehend the child's words, puzzling over their meaning. Then, a realization dawns upon you—Twisted Delusions.&lt;br /&gt; &lt;br /&gt; Releasing your hand, the child stands before you, shimmering in and out of existence, cloaked in shadows.&lt;br /&gt; &lt;br /&gt; "Everything becomes entangled in distortion," they declare with a haunting smile.</t>
+  </si>
+  <si>
+    <t>You wait in anticipation for the arrival of the Child of Shade. As he materializes before you, you express your urgency in reaching Fliniguss's home.&lt;br /&gt; &lt;br /&gt; "You'll never penetrate his abode, for it lies beyond doors even The Creator tightly secures, fearful of the nightmarish delusions that lurk within—nameless horrors," the child responds ominously. "However, you may &lt;br /&gt; access a land torn by war, ruled by a bishop enforcing religious persecution upon dissenters."&lt;br /&gt; &lt;br /&gt; Puzzled, you wonder about the significance of Fliniguss in such a place.&lt;br /&gt; &lt;br /&gt; "Too many inquiries," the child remarks cryptically. "But I can disclose this much—the bishop dwells within his own distorted recollections of the war, ensnared by his convictions."&lt;br /&gt; &lt;br /&gt; In a sudden impulse, you blurt out a question: "Is there a God? A true god?"&lt;br /&gt; &lt;br /&gt; "To him, yes. To some, perhaps. The Accountant may hold the answers," the child suggests enigmatically.&lt;br /&gt; &lt;br /&gt; With a sense of foreboding, you realize the journey ahead may lead to a place akin to hell.</t>
   </si>
   <si>
     <t>Pirates and Merchants</t>
@@ -2277,7 +2337,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF139"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2286,7 +2346,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="43.561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="44.703" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="29.421" bestFit="true" customWidth="true" style="0"/>
@@ -2304,7 +2364,7 @@
     <col min="17" max="17" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="43.561" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="44.703" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="41.133" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="26.993" bestFit="true" customWidth="true" style="0"/>
@@ -6059,312 +6119,306 @@
     </row>
     <row r="91" spans="1:32">
       <c r="A91">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
         <v>442</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
-      </c>
-      <c r="D91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" t="s">
+        <v>401</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
         <v>443</v>
       </c>
-      <c r="G91" t="s">
+      <c r="M91">
+        <v>30000</v>
+      </c>
+      <c r="N91">
+        <v>30000</v>
+      </c>
+      <c r="O91">
+        <v>1500000000</v>
+      </c>
+      <c r="P91">
+        <v>50000</v>
+      </c>
+      <c r="T91" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z91" t="s">
         <v>444</v>
       </c>
-      <c r="O91">
-        <v>150</v>
-      </c>
-      <c r="P91">
-        <v>1000</v>
-      </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>445</v>
       </c>
-      <c r="AA91" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>443</v>
+      <c r="AC91" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF91">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:32">
       <c r="A92">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
+        <v>446</v>
+      </c>
+      <c r="C92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G92" t="s">
         <v>447</v>
       </c>
-      <c r="C92" t="s">
-        <v>398</v>
-      </c>
-      <c r="D92" t="s">
-        <v>443</v>
-      </c>
-      <c r="G92" t="s">
-        <v>448</v>
-      </c>
-      <c r="L92" t="s">
-        <v>449</v>
+      <c r="M92">
+        <v>30000</v>
+      </c>
+      <c r="N92">
+        <v>30000</v>
       </c>
       <c r="O92">
-        <v>150</v>
+        <v>1500000000</v>
       </c>
       <c r="P92">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="T92" t="s">
         <v>442</v>
       </c>
       <c r="Z92" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AA92" t="s">
-        <v>451</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>443</v>
+        <v>449</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF92">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:32">
       <c r="A93">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
+        <v>450</v>
+      </c>
+      <c r="C93" t="s">
+        <v>112</v>
+      </c>
+      <c r="G93" t="s">
+        <v>451</v>
+      </c>
+      <c r="T93" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z93" t="s">
         <v>452</v>
       </c>
-      <c r="C93" t="s">
+      <c r="AA93" t="s">
         <v>453</v>
       </c>
-      <c r="D93" t="s">
-        <v>443</v>
-      </c>
-      <c r="G93" t="s">
-        <v>449</v>
-      </c>
-      <c r="L93" t="s">
-        <v>454</v>
-      </c>
-      <c r="O93">
-        <v>250</v>
-      </c>
-      <c r="P93">
-        <v>1000</v>
-      </c>
-      <c r="T93" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>456</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>443</v>
+      <c r="AE93" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF93">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:32">
       <c r="A94">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
+        <v>454</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
+        <v>455</v>
+      </c>
+      <c r="M94">
+        <v>30000</v>
+      </c>
+      <c r="N94">
+        <v>30000</v>
+      </c>
+      <c r="O94">
+        <v>1500000000</v>
+      </c>
+      <c r="P94">
+        <v>50000</v>
+      </c>
+      <c r="T94" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA94" t="s">
         <v>457</v>
       </c>
-      <c r="C94" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" t="s">
-        <v>443</v>
-      </c>
-      <c r="G94" t="s">
-        <v>454</v>
-      </c>
-      <c r="H94">
-        <v>100</v>
-      </c>
-      <c r="O94">
-        <v>150</v>
-      </c>
-      <c r="P94">
-        <v>1500</v>
-      </c>
-      <c r="T94" t="s">
-        <v>452</v>
-      </c>
-      <c r="U94" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>460</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>443</v>
+      <c r="AE94" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF94">
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:32">
       <c r="A95">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
+        <v>458</v>
+      </c>
+      <c r="C95" t="s">
+        <v>408</v>
+      </c>
+      <c r="G95" t="s">
+        <v>459</v>
+      </c>
+      <c r="M95">
+        <v>30000</v>
+      </c>
+      <c r="N95">
+        <v>30000</v>
+      </c>
+      <c r="O95">
+        <v>1500000000</v>
+      </c>
+      <c r="P95">
+        <v>50000</v>
+      </c>
+      <c r="T95" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA95" t="s">
         <v>461</v>
       </c>
-      <c r="C95" t="s">
-        <v>323</v>
-      </c>
-      <c r="D95" t="s">
-        <v>443</v>
-      </c>
-      <c r="G95" t="s">
-        <v>462</v>
-      </c>
-      <c r="O95">
-        <v>10000</v>
-      </c>
-      <c r="P95">
-        <v>1500</v>
-      </c>
-      <c r="T95" t="s">
-        <v>457</v>
-      </c>
-      <c r="U95" t="s">
-        <v>463</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>464</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>465</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>443</v>
+      <c r="AE95" t="s">
+        <v>408</v>
+      </c>
+      <c r="AF95">
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:32">
       <c r="A96">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B96" t="s">
+        <v>462</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>463</v>
+      </c>
+      <c r="G96" t="s">
+        <v>464</v>
+      </c>
+      <c r="O96">
+        <v>150</v>
+      </c>
+      <c r="P96">
+        <v>1000</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA96" t="s">
         <v>466</v>
       </c>
-      <c r="C96" t="s">
-        <v>323</v>
-      </c>
-      <c r="D96" t="s">
-        <v>443</v>
-      </c>
-      <c r="G96" t="s">
-        <v>467</v>
-      </c>
-      <c r="H96">
-        <v>25000</v>
-      </c>
-      <c r="L96" t="s">
-        <v>468</v>
-      </c>
-      <c r="O96">
-        <v>10000</v>
-      </c>
-      <c r="P96">
-        <v>1600</v>
-      </c>
-      <c r="T96" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>470</v>
-      </c>
       <c r="AB96" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:32">
       <c r="A97">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="D97" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G97" t="s">
         <v>468</v>
       </c>
-      <c r="H97">
-        <v>100</v>
-      </c>
-      <c r="M97">
-        <v>25</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
+      <c r="L97" t="s">
+        <v>469</v>
       </c>
       <c r="O97">
         <v>150</v>
       </c>
       <c r="P97">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="T97" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Z97" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AA97" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AB97" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" spans="1:32">
       <c r="A98">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
+        <v>472</v>
+      </c>
+      <c r="C98" t="s">
+        <v>473</v>
+      </c>
+      <c r="D98" t="s">
+        <v>463</v>
+      </c>
+      <c r="G98" t="s">
+        <v>469</v>
+      </c>
+      <c r="L98" t="s">
         <v>474</v>
       </c>
-      <c r="C98" t="s">
-        <v>398</v>
-      </c>
-      <c r="D98" t="s">
-        <v>443</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>100</v>
-      </c>
-      <c r="I98">
-        <v>20000</v>
-      </c>
-      <c r="K98">
-        <v>10000</v>
-      </c>
       <c r="O98">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="P98">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="T98" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="Z98" t="s">
         <v>475</v>
@@ -6373,42 +6427,39 @@
         <v>476</v>
       </c>
       <c r="AB98" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:32">
       <c r="A99">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
         <v>477</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G99" t="s">
+        <v>474</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="O99">
+        <v>150</v>
+      </c>
+      <c r="P99">
+        <v>1500</v>
+      </c>
+      <c r="T99" t="s">
+        <v>472</v>
+      </c>
+      <c r="U99" t="s">
         <v>478</v>
-      </c>
-      <c r="H99">
-        <v>500</v>
-      </c>
-      <c r="I99">
-        <v>15000</v>
-      </c>
-      <c r="K99">
-        <v>15000</v>
-      </c>
-      <c r="O99">
-        <v>250</v>
-      </c>
-      <c r="P99">
-        <v>4000</v>
-      </c>
-      <c r="T99" t="s">
-        <v>474</v>
       </c>
       <c r="Z99" t="s">
         <v>479</v>
@@ -6417,37 +6468,37 @@
         <v>480</v>
       </c>
       <c r="AB99" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:32">
       <c r="A100">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
         <v>481</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="D100" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G100" t="s">
         <v>482</v>
       </c>
-      <c r="L100" t="s">
-        <v>483</v>
-      </c>
       <c r="O100">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="P100">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T100" t="s">
         <v>477</v>
       </c>
+      <c r="U100" t="s">
+        <v>483</v>
+      </c>
       <c r="Z100" t="s">
         <v>484</v>
       </c>
@@ -6455,77 +6506,83 @@
         <v>485</v>
       </c>
       <c r="AB100" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:32">
       <c r="A101">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B101" t="s">
         <v>486</v>
       </c>
       <c r="C101" t="s">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="D101" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G101" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H101">
-        <v>100</v>
-      </c>
-      <c r="I101">
-        <v>100000</v>
-      </c>
-      <c r="K101">
-        <v>75000</v>
+        <v>25000</v>
+      </c>
+      <c r="L101" t="s">
+        <v>488</v>
+      </c>
+      <c r="O101">
+        <v>10000</v>
       </c>
       <c r="P101">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="T101" t="s">
         <v>481</v>
       </c>
-      <c r="X101">
-        <v>1</v>
-      </c>
       <c r="Z101" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AA101" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AB101" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:32">
       <c r="A102">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B102" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C102" t="s">
-        <v>490</v>
+        <v>102</v>
+      </c>
+      <c r="D102" t="s">
+        <v>463</v>
       </c>
       <c r="G102" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H102">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="M102">
+        <v>25</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
       </c>
       <c r="O102">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="P102">
-        <v>100</v>
-      </c>
-      <c r="S102">
-        <v>1</v>
+        <v>3000</v>
+      </c>
+      <c r="T102" t="s">
+        <v>486</v>
       </c>
       <c r="Z102" t="s">
         <v>492</v>
@@ -6533,13 +6590,13 @@
       <c r="AA102" t="s">
         <v>493</v>
       </c>
-      <c r="AD102">
-        <v>4</v>
+      <c r="AB102" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:32">
       <c r="A103">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B103" t="s">
         <v>494</v>
@@ -6547,172 +6604,190 @@
       <c r="C103" t="s">
         <v>398</v>
       </c>
-      <c r="G103" t="s">
-        <v>495</v>
+      <c r="D103" t="s">
+        <v>463</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="I103">
+        <v>20000</v>
+      </c>
+      <c r="K103">
+        <v>10000</v>
       </c>
       <c r="O103">
         <v>150</v>
       </c>
       <c r="P103">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="T103" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="Z103" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA103" t="s">
         <v>496</v>
       </c>
-      <c r="AA103" t="s">
-        <v>497</v>
-      </c>
-      <c r="AD103">
-        <v>4</v>
+      <c r="AB103" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:32">
       <c r="A104">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
+        <v>497</v>
+      </c>
+      <c r="C104" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" t="s">
+        <v>463</v>
+      </c>
+      <c r="G104" t="s">
         <v>498</v>
       </c>
-      <c r="C104" t="s">
-        <v>490</v>
-      </c>
-      <c r="G104" t="s">
-        <v>499</v>
+      <c r="H104">
+        <v>500</v>
+      </c>
+      <c r="I104">
+        <v>15000</v>
+      </c>
+      <c r="K104">
+        <v>15000</v>
       </c>
       <c r="O104">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="P104">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="T104" t="s">
         <v>494</v>
       </c>
       <c r="Z104" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA104" t="s">
         <v>500</v>
       </c>
-      <c r="AA104" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD104">
-        <v>4</v>
+      <c r="AB104" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:32">
       <c r="A105">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B105" t="s">
+        <v>501</v>
+      </c>
+      <c r="C105" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" t="s">
+        <v>463</v>
+      </c>
+      <c r="G105" t="s">
         <v>502</v>
       </c>
-      <c r="C105" t="s">
-        <v>490</v>
-      </c>
-      <c r="H105">
-        <v>125</v>
+      <c r="L105" t="s">
+        <v>503</v>
       </c>
       <c r="O105">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="P105">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="T105" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Z105" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA105" t="s">
-        <v>504</v>
-      </c>
-      <c r="AD105">
-        <v>4</v>
+        <v>505</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:32">
       <c r="A106">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C106" t="s">
-        <v>490</v>
-      </c>
-      <c r="E106" t="s">
-        <v>506</v>
+        <v>398</v>
+      </c>
+      <c r="D106" t="s">
+        <v>463</v>
       </c>
       <c r="G106" t="s">
+        <v>503</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>100000</v>
+      </c>
+      <c r="K106">
+        <v>75000</v>
+      </c>
+      <c r="P106">
+        <v>5000</v>
+      </c>
+      <c r="T106" t="s">
+        <v>501</v>
+      </c>
+      <c r="X106">
+        <v>1</v>
+      </c>
+      <c r="Z106" t="s">
         <v>507</v>
       </c>
-      <c r="H106">
-        <v>125</v>
-      </c>
-      <c r="L106" t="s">
+      <c r="AA106" t="s">
         <v>508</v>
       </c>
-      <c r="M106">
-        <v>75</v>
-      </c>
-      <c r="N106">
-        <v>10</v>
-      </c>
-      <c r="O106">
-        <v>200</v>
-      </c>
-      <c r="P106">
-        <v>100</v>
-      </c>
-      <c r="T106" t="s">
-        <v>498</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>510</v>
-      </c>
-      <c r="AC106" t="s">
-        <v>506</v>
-      </c>
-      <c r="AD106">
-        <v>4</v>
+      <c r="AB106" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="107" spans="1:32">
       <c r="A107">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B107" t="s">
+        <v>509</v>
+      </c>
+      <c r="C107" t="s">
+        <v>510</v>
+      </c>
+      <c r="G107" t="s">
         <v>511</v>
-      </c>
-      <c r="C107" t="s">
-        <v>490</v>
       </c>
       <c r="H107">
         <v>125</v>
       </c>
-      <c r="I107">
-        <v>1500</v>
-      </c>
-      <c r="M107">
-        <v>75</v>
-      </c>
-      <c r="N107">
-        <v>10</v>
-      </c>
       <c r="O107">
         <v>200</v>
       </c>
       <c r="P107">
         <v>100</v>
       </c>
-      <c r="T107" t="s">
-        <v>505</v>
+      <c r="S107">
+        <v>1</v>
       </c>
       <c r="Z107" t="s">
         <v>512</v>
@@ -6726,7 +6801,7 @@
     </row>
     <row r="108" spans="1:32">
       <c r="A108">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
         <v>514</v>
@@ -6734,18 +6809,9 @@
       <c r="C108" t="s">
         <v>398</v>
       </c>
-      <c r="E108" t="s">
-        <v>502</v>
-      </c>
       <c r="G108" t="s">
         <v>515</v>
       </c>
-      <c r="M108">
-        <v>25</v>
-      </c>
-      <c r="N108">
-        <v>2</v>
-      </c>
       <c r="O108">
         <v>150</v>
       </c>
@@ -6753,7 +6819,7 @@
         <v>100</v>
       </c>
       <c r="T108" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="Z108" t="s">
         <v>516</v>
@@ -6761,37 +6827,25 @@
       <c r="AA108" t="s">
         <v>517</v>
       </c>
-      <c r="AC108" t="s">
-        <v>502</v>
-      </c>
       <c r="AD108">
         <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:32">
       <c r="A109">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
         <v>518</v>
       </c>
       <c r="C109" t="s">
-        <v>398</v>
+        <v>510</v>
       </c>
       <c r="G109" t="s">
         <v>519</v>
       </c>
-      <c r="H109">
-        <v>100</v>
-      </c>
-      <c r="M109">
-        <v>25</v>
-      </c>
-      <c r="N109">
-        <v>2</v>
-      </c>
       <c r="O109">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="P109">
         <v>100</v>
@@ -6811,37 +6865,19 @@
     </row>
     <row r="110" spans="1:32">
       <c r="A110">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
-      </c>
-      <c r="G110" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="H110">
-        <v>100</v>
-      </c>
-      <c r="I110">
+        <v>125</v>
+      </c>
+      <c r="O110">
         <v>200</v>
-      </c>
-      <c r="J110">
-        <v>1000</v>
-      </c>
-      <c r="L110" t="s">
-        <v>523</v>
-      </c>
-      <c r="M110">
-        <v>25</v>
-      </c>
-      <c r="N110">
-        <v>2</v>
-      </c>
-      <c r="O110">
-        <v>150</v>
       </c>
       <c r="P110">
         <v>100</v>
@@ -6850,10 +6886,10 @@
         <v>518</v>
       </c>
       <c r="Z110" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA110" t="s">
         <v>524</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>525</v>
       </c>
       <c r="AD110">
         <v>4</v>
@@ -6861,20 +6897,26 @@
     </row>
     <row r="111" spans="1:32">
       <c r="A111">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B111" t="s">
+        <v>525</v>
+      </c>
+      <c r="C111" t="s">
+        <v>510</v>
+      </c>
+      <c r="E111" t="s">
         <v>526</v>
-      </c>
-      <c r="C111" t="s">
-        <v>490</v>
-      </c>
-      <c r="E111" t="s">
-        <v>511</v>
       </c>
       <c r="G111" t="s">
         <v>527</v>
       </c>
+      <c r="H111">
+        <v>125</v>
+      </c>
+      <c r="L111" t="s">
+        <v>528</v>
+      </c>
       <c r="M111">
         <v>75</v>
       </c>
@@ -6888,10 +6930,7 @@
         <v>100</v>
       </c>
       <c r="T111" t="s">
-        <v>489</v>
-      </c>
-      <c r="U111" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="Z111" t="s">
         <v>529</v>
@@ -6900,7 +6939,7 @@
         <v>530</v>
       </c>
       <c r="AC111" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="AD111">
         <v>4</v>
@@ -6908,22 +6947,19 @@
     </row>
     <row r="112" spans="1:32">
       <c r="A112">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B112" t="s">
         <v>531</v>
       </c>
       <c r="C112" t="s">
-        <v>490</v>
-      </c>
-      <c r="G112" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="H112">
         <v>125</v>
       </c>
       <c r="I112">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M112">
         <v>75</v>
@@ -6934,17 +6970,17 @@
       <c r="O112">
         <v>200</v>
       </c>
+      <c r="P112">
+        <v>100</v>
+      </c>
       <c r="T112" t="s">
-        <v>526</v>
-      </c>
-      <c r="U112" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA112" t="s">
         <v>533</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>535</v>
       </c>
       <c r="AD112">
         <v>4</v>
@@ -6952,49 +6988,43 @@
     </row>
     <row r="113" spans="1:32">
       <c r="A113">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B113" t="s">
+        <v>534</v>
+      </c>
+      <c r="C113" t="s">
+        <v>398</v>
+      </c>
+      <c r="E113" t="s">
+        <v>522</v>
+      </c>
+      <c r="G113" t="s">
+        <v>535</v>
+      </c>
+      <c r="M113">
+        <v>25</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113">
+        <v>150</v>
+      </c>
+      <c r="P113">
+        <v>100</v>
+      </c>
+      <c r="T113" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z113" t="s">
         <v>536</v>
       </c>
-      <c r="C113" t="s">
-        <v>490</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="AA113" t="s">
         <v>537</v>
       </c>
-      <c r="H113">
-        <v>125</v>
-      </c>
-      <c r="I113">
-        <v>25000</v>
-      </c>
-      <c r="L113" t="s">
-        <v>538</v>
-      </c>
-      <c r="M113">
-        <v>75</v>
-      </c>
-      <c r="N113">
-        <v>10</v>
-      </c>
-      <c r="O113">
-        <v>200</v>
-      </c>
-      <c r="P113">
-        <v>200</v>
-      </c>
-      <c r="T113" t="s">
-        <v>531</v>
-      </c>
-      <c r="U113" t="s">
-        <v>539</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>541</v>
+      <c r="AC113" t="s">
+        <v>522</v>
       </c>
       <c r="AD113">
         <v>4</v>
@@ -7002,25 +7032,19 @@
     </row>
     <row r="114" spans="1:32">
       <c r="A114">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B114" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C114" t="s">
         <v>398</v>
       </c>
       <c r="G114" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H114">
         <v>100</v>
-      </c>
-      <c r="I114">
-        <v>5000</v>
-      </c>
-      <c r="L114" t="s">
-        <v>543</v>
       </c>
       <c r="M114">
         <v>25</v>
@@ -7032,16 +7056,16 @@
         <v>150</v>
       </c>
       <c r="P114">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="T114" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="Z114" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA114" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AD114">
         <v>4</v>
@@ -7049,49 +7073,49 @@
     </row>
     <row r="115" spans="1:32">
       <c r="A115">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="C115" t="s">
-        <v>547</v>
-      </c>
-      <c r="E115" t="s">
-        <v>548</v>
+        <v>398</v>
+      </c>
+      <c r="G115" t="s">
+        <v>542</v>
       </c>
       <c r="H115">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I115">
-        <v>2000</v>
+        <v>200</v>
+      </c>
+      <c r="J115">
+        <v>1000</v>
       </c>
       <c r="L115" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="M115">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N115">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="P115">
         <v>100</v>
       </c>
       <c r="T115" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Z115" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AA115" t="s">
-        <v>551</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AD115">
         <v>4</v>
@@ -7099,22 +7123,19 @@
     </row>
     <row r="116" spans="1:32">
       <c r="A116">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B116" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C116" t="s">
-        <v>553</v>
+        <v>510</v>
+      </c>
+      <c r="E116" t="s">
+        <v>531</v>
       </c>
       <c r="G116" t="s">
-        <v>554</v>
-      </c>
-      <c r="H116">
-        <v>125</v>
-      </c>
-      <c r="I116">
-        <v>1500</v>
+        <v>547</v>
       </c>
       <c r="M116">
         <v>75</v>
@@ -7122,17 +7143,26 @@
       <c r="N116">
         <v>10</v>
       </c>
+      <c r="O116">
+        <v>200</v>
+      </c>
       <c r="P116">
         <v>100</v>
       </c>
       <c r="T116" t="s">
-        <v>546</v>
+        <v>509</v>
+      </c>
+      <c r="U116" t="s">
+        <v>548</v>
       </c>
       <c r="Z116" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AA116" t="s">
-        <v>556</v>
+        <v>550</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>531</v>
       </c>
       <c r="AD116">
         <v>4</v>
@@ -7140,22 +7170,22 @@
     </row>
     <row r="117" spans="1:32">
       <c r="A117">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B117" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C117" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="G117" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H117">
         <v>125</v>
       </c>
       <c r="I117">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M117">
         <v>75</v>
@@ -7163,20 +7193,20 @@
       <c r="N117">
         <v>10</v>
       </c>
-      <c r="P117">
-        <v>100</v>
+      <c r="O117">
+        <v>200</v>
       </c>
       <c r="T117" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="U117" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Z117" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AA117" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AD117">
         <v>4</v>
@@ -7184,25 +7214,25 @@
     </row>
     <row r="118" spans="1:32">
       <c r="A118">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C118" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="G118" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H118">
         <v>125</v>
       </c>
       <c r="I118">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L118" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M118">
         <v>75</v>
@@ -7210,17 +7240,23 @@
       <c r="N118">
         <v>10</v>
       </c>
+      <c r="O118">
+        <v>200</v>
+      </c>
       <c r="P118">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T118" t="s">
-        <v>557</v>
+        <v>551</v>
+      </c>
+      <c r="U118" t="s">
+        <v>559</v>
       </c>
       <c r="Z118" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AA118" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="AD118">
         <v>4</v>
@@ -7228,43 +7264,46 @@
     </row>
     <row r="119" spans="1:32">
       <c r="A119">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B119" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C119" t="s">
-        <v>553</v>
+        <v>398</v>
       </c>
       <c r="G119" t="s">
+        <v>558</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
+      <c r="I119">
+        <v>5000</v>
+      </c>
+      <c r="L119" t="s">
+        <v>563</v>
+      </c>
+      <c r="M119">
+        <v>25</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <v>150</v>
+      </c>
+      <c r="P119">
+        <v>250</v>
+      </c>
+      <c r="T119" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z119" t="s">
         <v>564</v>
       </c>
-      <c r="H119">
-        <v>125</v>
-      </c>
-      <c r="I119">
-        <v>10000</v>
-      </c>
-      <c r="L119" t="s">
-        <v>568</v>
-      </c>
-      <c r="M119">
-        <v>75</v>
-      </c>
-      <c r="N119">
-        <v>10</v>
-      </c>
-      <c r="P119">
-        <v>100</v>
-      </c>
-      <c r="T119" t="s">
-        <v>546</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>569</v>
-      </c>
       <c r="AA119" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AD119">
         <v>4</v>
@@ -7272,46 +7311,49 @@
     </row>
     <row r="120" spans="1:32">
       <c r="A120">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B120" t="s">
+        <v>566</v>
+      </c>
+      <c r="C120" t="s">
+        <v>567</v>
+      </c>
+      <c r="E120" t="s">
+        <v>568</v>
+      </c>
+      <c r="H120">
+        <v>125</v>
+      </c>
+      <c r="I120">
+        <v>2000</v>
+      </c>
+      <c r="L120" t="s">
+        <v>569</v>
+      </c>
+      <c r="M120">
+        <v>75</v>
+      </c>
+      <c r="N120">
+        <v>10</v>
+      </c>
+      <c r="O120">
+        <v>200</v>
+      </c>
+      <c r="P120">
+        <v>100</v>
+      </c>
+      <c r="T120" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA120" t="s">
         <v>571</v>
       </c>
-      <c r="C120" t="s">
-        <v>547</v>
-      </c>
-      <c r="E120" t="s">
-        <v>567</v>
-      </c>
-      <c r="M120">
-        <v>100</v>
-      </c>
-      <c r="N120">
-        <v>25</v>
-      </c>
-      <c r="O120">
-        <v>1000</v>
-      </c>
-      <c r="P120">
-        <v>100</v>
-      </c>
-      <c r="T120" t="s">
-        <v>567</v>
-      </c>
-      <c r="V120" t="s">
-        <v>572</v>
-      </c>
-      <c r="W120">
-        <v>2</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA120" t="s">
-        <v>574</v>
-      </c>
       <c r="AC120" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AD120">
         <v>4</v>
@@ -7319,40 +7361,40 @@
     </row>
     <row r="121" spans="1:32">
       <c r="A121">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
+        <v>572</v>
+      </c>
+      <c r="C121" t="s">
+        <v>573</v>
+      </c>
+      <c r="G121" t="s">
+        <v>574</v>
+      </c>
+      <c r="H121">
+        <v>125</v>
+      </c>
+      <c r="I121">
+        <v>1500</v>
+      </c>
+      <c r="M121">
+        <v>75</v>
+      </c>
+      <c r="N121">
+        <v>10</v>
+      </c>
+      <c r="P121">
+        <v>100</v>
+      </c>
+      <c r="T121" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z121" t="s">
         <v>575</v>
       </c>
-      <c r="C121" t="s">
-        <v>490</v>
-      </c>
-      <c r="M121">
-        <v>100</v>
-      </c>
-      <c r="N121">
-        <v>25</v>
-      </c>
-      <c r="O121">
-        <v>1000</v>
-      </c>
-      <c r="P121">
-        <v>100</v>
-      </c>
-      <c r="T121" t="s">
-        <v>571</v>
-      </c>
-      <c r="V121" t="s">
-        <v>572</v>
-      </c>
-      <c r="W121">
-        <v>4</v>
-      </c>
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>576</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>577</v>
       </c>
       <c r="AD121">
         <v>4</v>
@@ -7360,40 +7402,43 @@
     </row>
     <row r="122" spans="1:32">
       <c r="A122">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B122" t="s">
+        <v>577</v>
+      </c>
+      <c r="C122" t="s">
+        <v>573</v>
+      </c>
+      <c r="G122" t="s">
         <v>578</v>
       </c>
-      <c r="C122" t="s">
-        <v>398</v>
+      <c r="H122">
+        <v>125</v>
+      </c>
+      <c r="I122">
+        <v>1500</v>
       </c>
       <c r="M122">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="N122">
-        <v>50</v>
-      </c>
-      <c r="O122">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="P122">
         <v>100</v>
       </c>
       <c r="T122" t="s">
-        <v>575</v>
-      </c>
-      <c r="V122" t="s">
         <v>572</v>
       </c>
-      <c r="W122">
-        <v>5</v>
+      <c r="U122" t="s">
+        <v>579</v>
       </c>
       <c r="Z122" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AA122" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AD122">
         <v>4</v>
@@ -7401,22 +7446,25 @@
     </row>
     <row r="123" spans="1:32">
       <c r="A123">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B123" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C123" t="s">
-        <v>547</v>
-      </c>
-      <c r="E123" t="s">
-        <v>542</v>
+        <v>573</v>
+      </c>
+      <c r="G123" t="s">
+        <v>583</v>
       </c>
       <c r="H123">
         <v>125</v>
       </c>
       <c r="I123">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="L123" t="s">
+        <v>584</v>
       </c>
       <c r="M123">
         <v>75</v>
@@ -7424,23 +7472,17 @@
       <c r="N123">
         <v>10</v>
       </c>
-      <c r="O123">
-        <v>200</v>
-      </c>
       <c r="P123">
         <v>100</v>
       </c>
       <c r="T123" t="s">
-        <v>489</v>
+        <v>577</v>
       </c>
       <c r="Z123" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AA123" t="s">
-        <v>583</v>
-      </c>
-      <c r="AC123" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="AD123">
         <v>4</v>
@@ -7448,22 +7490,25 @@
     </row>
     <row r="124" spans="1:32">
       <c r="A124">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B124" t="s">
+        <v>587</v>
+      </c>
+      <c r="C124" t="s">
+        <v>573</v>
+      </c>
+      <c r="G124" t="s">
         <v>584</v>
-      </c>
-      <c r="C124" t="s">
-        <v>547</v>
-      </c>
-      <c r="G124" t="s">
-        <v>585</v>
       </c>
       <c r="H124">
         <v>125</v>
       </c>
       <c r="I124">
-        <v>500</v>
+        <v>10000</v>
+      </c>
+      <c r="L124" t="s">
+        <v>588</v>
       </c>
       <c r="M124">
         <v>75</v>
@@ -7471,20 +7516,17 @@
       <c r="N124">
         <v>10</v>
       </c>
-      <c r="O124">
-        <v>200</v>
-      </c>
       <c r="P124">
         <v>100</v>
       </c>
       <c r="T124" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="Z124" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AA124" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AD124">
         <v>4</v>
@@ -7492,40 +7534,46 @@
     </row>
     <row r="125" spans="1:32">
       <c r="A125">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C125" t="s">
-        <v>547</v>
-      </c>
-      <c r="H125">
-        <v>125</v>
-      </c>
-      <c r="I125">
-        <v>500</v>
+        <v>567</v>
+      </c>
+      <c r="E125" t="s">
+        <v>587</v>
       </c>
       <c r="M125">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N125">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O125">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="P125">
         <v>100</v>
       </c>
       <c r="T125" t="s">
-        <v>584</v>
+        <v>587</v>
+      </c>
+      <c r="V125" t="s">
+        <v>592</v>
+      </c>
+      <c r="W125">
+        <v>2</v>
       </c>
       <c r="Z125" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AA125" t="s">
-        <v>590</v>
+        <v>594</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>587</v>
       </c>
       <c r="AD125">
         <v>4</v>
@@ -7533,389 +7581,371 @@
     </row>
     <row r="126" spans="1:32">
       <c r="A126">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="C126" t="s">
-        <v>547</v>
-      </c>
-      <c r="G126" t="s">
-        <v>548</v>
-      </c>
-      <c r="H126">
-        <v>125</v>
-      </c>
-      <c r="I126">
+        <v>510</v>
+      </c>
+      <c r="M126">
+        <v>100</v>
+      </c>
+      <c r="N126">
+        <v>25</v>
+      </c>
+      <c r="O126">
         <v>1000</v>
       </c>
-      <c r="M126">
-        <v>75</v>
-      </c>
-      <c r="N126">
-        <v>10</v>
-      </c>
-      <c r="O126">
-        <v>200</v>
-      </c>
       <c r="P126">
         <v>100</v>
       </c>
       <c r="T126" t="s">
-        <v>588</v>
+        <v>591</v>
+      </c>
+      <c r="V126" t="s">
+        <v>592</v>
+      </c>
+      <c r="W126">
+        <v>4</v>
       </c>
       <c r="Z126" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AA126" t="s">
-        <v>592</v>
+        <v>597</v>
+      </c>
+      <c r="AD126">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:32">
       <c r="A127">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C127" t="s">
-        <v>490</v>
-      </c>
-      <c r="E127" t="s">
-        <v>578</v>
+        <v>398</v>
       </c>
       <c r="M127">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="N127">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O127">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P127">
         <v>100</v>
       </c>
       <c r="T127" t="s">
-        <v>489</v>
+        <v>595</v>
+      </c>
+      <c r="V127" t="s">
+        <v>592</v>
+      </c>
+      <c r="W127">
+        <v>5</v>
       </c>
       <c r="Z127" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="AA127" t="s">
-        <v>595</v>
-      </c>
-      <c r="AC127" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="AD127">
         <v>4</v>
       </c>
-      <c r="AE127" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF127">
-        <v>5</v>
-      </c>
     </row>
     <row r="128" spans="1:32">
       <c r="A128">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B128" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C128" t="s">
-        <v>490</v>
+        <v>567</v>
+      </c>
+      <c r="E128" t="s">
+        <v>562</v>
+      </c>
+      <c r="H128">
+        <v>125</v>
+      </c>
+      <c r="I128">
+        <v>100</v>
       </c>
       <c r="M128">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N128">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O128">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P128">
         <v>100</v>
       </c>
       <c r="T128" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
       <c r="Z128" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="AA128" t="s">
-        <v>598</v>
+        <v>603</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>562</v>
       </c>
       <c r="AD128">
         <v>4</v>
       </c>
-      <c r="AE128" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF128">
-        <v>10</v>
-      </c>
     </row>
     <row r="129" spans="1:32">
       <c r="A129">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B129" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C129" t="s">
-        <v>490</v>
+        <v>567</v>
+      </c>
+      <c r="G129" t="s">
+        <v>605</v>
+      </c>
+      <c r="H129">
+        <v>125</v>
+      </c>
+      <c r="I129">
+        <v>500</v>
       </c>
       <c r="M129">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N129">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O129">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P129">
         <v>100</v>
       </c>
       <c r="T129" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Z129" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AA129" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AD129">
         <v>4</v>
       </c>
-      <c r="AE129" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF129">
-        <v>15</v>
-      </c>
     </row>
     <row r="130" spans="1:32">
       <c r="A130">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B130" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C130" t="s">
-        <v>490</v>
+        <v>567</v>
+      </c>
+      <c r="H130">
+        <v>125</v>
+      </c>
+      <c r="I130">
+        <v>500</v>
       </c>
       <c r="M130">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N130">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O130">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P130">
         <v>100</v>
       </c>
       <c r="T130" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z130" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AA130" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AD130">
         <v>4</v>
       </c>
-      <c r="AE130" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF130">
-        <v>20</v>
-      </c>
     </row>
     <row r="131" spans="1:32">
       <c r="A131">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B131" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="C131" t="s">
-        <v>490</v>
-      </c>
-      <c r="L131" t="s">
-        <v>606</v>
+        <v>567</v>
+      </c>
+      <c r="G131" t="s">
+        <v>568</v>
+      </c>
+      <c r="H131">
+        <v>125</v>
+      </c>
+      <c r="I131">
+        <v>1000</v>
       </c>
       <c r="M131">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N131">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O131">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P131">
         <v>100</v>
       </c>
       <c r="T131" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="Z131" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="AA131" t="s">
-        <v>608</v>
-      </c>
-      <c r="AD131">
-        <v>4</v>
-      </c>
-      <c r="AE131" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF131">
-        <v>25</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:32">
       <c r="A132">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C132" t="s">
-        <v>490</v>
-      </c>
-      <c r="D132" t="s">
-        <v>610</v>
+        <v>510</v>
       </c>
       <c r="E132" t="s">
-        <v>562</v>
-      </c>
-      <c r="H132">
-        <v>125</v>
-      </c>
-      <c r="I132">
-        <v>25000</v>
+        <v>598</v>
       </c>
       <c r="M132">
+        <v>175</v>
+      </c>
+      <c r="N132">
         <v>75</v>
       </c>
-      <c r="N132">
-        <v>10</v>
-      </c>
       <c r="O132">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P132">
         <v>100</v>
       </c>
-      <c r="S132">
-        <v>1</v>
+      <c r="T132" t="s">
+        <v>509</v>
       </c>
       <c r="Z132" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AA132" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB132" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AC132" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="AD132">
         <v>4</v>
       </c>
+      <c r="AE132" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF132">
+        <v>5</v>
+      </c>
     </row>
     <row r="133" spans="1:32">
       <c r="A133">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
+        <v>616</v>
+      </c>
+      <c r="C133" t="s">
+        <v>510</v>
+      </c>
+      <c r="M133">
+        <v>175</v>
+      </c>
+      <c r="N133">
+        <v>75</v>
+      </c>
+      <c r="O133">
+        <v>2000</v>
+      </c>
+      <c r="P133">
+        <v>100</v>
+      </c>
+      <c r="T133" t="s">
         <v>613</v>
       </c>
-      <c r="C133" t="s">
-        <v>490</v>
-      </c>
-      <c r="G133" t="s">
-        <v>614</v>
-      </c>
-      <c r="H133">
-        <v>125</v>
-      </c>
-      <c r="I133">
-        <v>5000</v>
-      </c>
-      <c r="M133">
-        <v>75</v>
-      </c>
-      <c r="N133">
-        <v>10</v>
-      </c>
-      <c r="O133">
-        <v>200</v>
-      </c>
-      <c r="P133">
-        <v>100</v>
-      </c>
-      <c r="T133" t="s">
-        <v>609</v>
-      </c>
       <c r="Z133" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AA133" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AD133">
         <v>4</v>
       </c>
+      <c r="AE133" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF133">
+        <v>10</v>
+      </c>
     </row>
     <row r="134" spans="1:32">
       <c r="A134">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C134" t="s">
-        <v>490</v>
-      </c>
-      <c r="G134" t="s">
-        <v>618</v>
-      </c>
-      <c r="H134">
-        <v>125</v>
-      </c>
-      <c r="I134">
-        <v>10000</v>
+        <v>510</v>
       </c>
       <c r="M134">
+        <v>175</v>
+      </c>
+      <c r="N134">
         <v>75</v>
       </c>
-      <c r="N134">
-        <v>10</v>
+      <c r="O134">
+        <v>2000</v>
       </c>
       <c r="P134">
         <v>100</v>
       </c>
       <c r="T134" t="s">
-        <v>613</v>
-      </c>
-      <c r="U134" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Z134" t="s">
         <v>620</v>
@@ -7926,63 +7956,75 @@
       <c r="AD134">
         <v>4</v>
       </c>
+      <c r="AE134" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF134">
+        <v>15</v>
+      </c>
     </row>
     <row r="135" spans="1:32">
       <c r="A135">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
         <v>622</v>
       </c>
       <c r="C135" t="s">
-        <v>490</v>
-      </c>
-      <c r="G135" t="s">
+        <v>510</v>
+      </c>
+      <c r="M135">
+        <v>175</v>
+      </c>
+      <c r="N135">
+        <v>75</v>
+      </c>
+      <c r="O135">
+        <v>2000</v>
+      </c>
+      <c r="P135">
+        <v>100</v>
+      </c>
+      <c r="T135" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z135" t="s">
         <v>623</v>
       </c>
-      <c r="H135">
-        <v>125</v>
-      </c>
-      <c r="I135">
-        <v>2000</v>
-      </c>
-      <c r="O135">
-        <v>200</v>
-      </c>
-      <c r="P135">
-        <v>100</v>
-      </c>
-      <c r="T135" t="s">
-        <v>617</v>
-      </c>
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>624</v>
       </c>
-      <c r="AA135" t="s">
-        <v>625</v>
+      <c r="AD135">
+        <v>4</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF135">
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:32">
       <c r="A136">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
+        <v>625</v>
+      </c>
+      <c r="C136" t="s">
+        <v>510</v>
+      </c>
+      <c r="L136" t="s">
         <v>626</v>
       </c>
-      <c r="C136" t="s">
-        <v>490</v>
-      </c>
-      <c r="G136" t="s">
-        <v>627</v>
-      </c>
-      <c r="H136">
-        <v>125</v>
-      </c>
-      <c r="I136">
-        <v>20000</v>
+      <c r="M136">
+        <v>175</v>
+      </c>
+      <c r="N136">
+        <v>75</v>
       </c>
       <c r="O136">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P136">
         <v>100</v>
@@ -7991,54 +8033,69 @@
         <v>622</v>
       </c>
       <c r="Z136" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA136" t="s">
         <v>628</v>
-      </c>
-      <c r="AA136" t="s">
-        <v>629</v>
       </c>
       <c r="AD136">
         <v>4</v>
       </c>
+      <c r="AE136" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF136">
+        <v>25</v>
+      </c>
     </row>
     <row r="137" spans="1:32">
       <c r="A137">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B137" t="s">
+        <v>629</v>
+      </c>
+      <c r="C137" t="s">
+        <v>510</v>
+      </c>
+      <c r="D137" t="s">
         <v>630</v>
       </c>
-      <c r="C137" t="s">
-        <v>398</v>
-      </c>
-      <c r="G137" t="s">
-        <v>631</v>
+      <c r="E137" t="s">
+        <v>582</v>
       </c>
       <c r="H137">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I137">
         <v>25000</v>
       </c>
       <c r="M137">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O137">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="P137">
         <v>100</v>
       </c>
-      <c r="T137" t="s">
-        <v>626</v>
+      <c r="S137">
+        <v>1</v>
       </c>
       <c r="Z137" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA137" t="s">
         <v>632</v>
       </c>
-      <c r="AA137" t="s">
-        <v>633</v>
+      <c r="AB137" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>582</v>
       </c>
       <c r="AD137">
         <v>4</v>
@@ -8046,40 +8103,43 @@
     </row>
     <row r="138" spans="1:32">
       <c r="A138">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B138" t="s">
+        <v>633</v>
+      </c>
+      <c r="C138" t="s">
+        <v>510</v>
+      </c>
+      <c r="G138" t="s">
         <v>634</v>
-      </c>
-      <c r="C138" t="s">
-        <v>490</v>
-      </c>
-      <c r="E138" t="s">
-        <v>630</v>
-      </c>
-      <c r="G138" t="s">
-        <v>635</v>
       </c>
       <c r="H138">
         <v>125</v>
       </c>
       <c r="I138">
-        <v>20000</v>
+        <v>5000</v>
+      </c>
+      <c r="M138">
+        <v>75</v>
+      </c>
+      <c r="N138">
+        <v>10</v>
+      </c>
+      <c r="O138">
+        <v>200</v>
       </c>
       <c r="P138">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T138" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="Z138" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA138" t="s">
         <v>636</v>
-      </c>
-      <c r="AA138" t="s">
-        <v>637</v>
-      </c>
-      <c r="AC138" t="s">
-        <v>630</v>
       </c>
       <c r="AD138">
         <v>4</v>
@@ -8087,33 +8147,235 @@
     </row>
     <row r="139" spans="1:32">
       <c r="A139">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B139" t="s">
+        <v>637</v>
+      </c>
+      <c r="C139" t="s">
+        <v>510</v>
+      </c>
+      <c r="G139" t="s">
         <v>638</v>
-      </c>
-      <c r="C139" t="s">
-        <v>490</v>
       </c>
       <c r="H139">
         <v>125</v>
       </c>
       <c r="I139">
+        <v>10000</v>
+      </c>
+      <c r="M139">
+        <v>75</v>
+      </c>
+      <c r="N139">
+        <v>10</v>
+      </c>
+      <c r="P139">
+        <v>100</v>
+      </c>
+      <c r="T139" t="s">
+        <v>633</v>
+      </c>
+      <c r="U139" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>641</v>
+      </c>
+      <c r="AD139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32">
+      <c r="A140">
+        <v>121</v>
+      </c>
+      <c r="B140" t="s">
+        <v>642</v>
+      </c>
+      <c r="C140" t="s">
+        <v>510</v>
+      </c>
+      <c r="G140" t="s">
+        <v>643</v>
+      </c>
+      <c r="H140">
+        <v>125</v>
+      </c>
+      <c r="I140">
+        <v>2000</v>
+      </c>
+      <c r="O140">
+        <v>200</v>
+      </c>
+      <c r="P140">
+        <v>100</v>
+      </c>
+      <c r="T140" t="s">
+        <v>637</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32">
+      <c r="A141">
+        <v>122</v>
+      </c>
+      <c r="B141" t="s">
+        <v>646</v>
+      </c>
+      <c r="C141" t="s">
+        <v>510</v>
+      </c>
+      <c r="G141" t="s">
+        <v>647</v>
+      </c>
+      <c r="H141">
+        <v>125</v>
+      </c>
+      <c r="I141">
+        <v>20000</v>
+      </c>
+      <c r="O141">
+        <v>200</v>
+      </c>
+      <c r="P141">
+        <v>100</v>
+      </c>
+      <c r="T141" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32">
+      <c r="A142">
+        <v>123</v>
+      </c>
+      <c r="B142" t="s">
+        <v>650</v>
+      </c>
+      <c r="C142" t="s">
+        <v>398</v>
+      </c>
+      <c r="G142" t="s">
+        <v>651</v>
+      </c>
+      <c r="H142">
+        <v>100</v>
+      </c>
+      <c r="I142">
+        <v>25000</v>
+      </c>
+      <c r="M142">
+        <v>25</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142">
+        <v>150</v>
+      </c>
+      <c r="P142">
+        <v>100</v>
+      </c>
+      <c r="T142" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32">
+      <c r="A143">
+        <v>124</v>
+      </c>
+      <c r="B143" t="s">
+        <v>654</v>
+      </c>
+      <c r="C143" t="s">
+        <v>510</v>
+      </c>
+      <c r="E143" t="s">
+        <v>650</v>
+      </c>
+      <c r="G143" t="s">
+        <v>655</v>
+      </c>
+      <c r="H143">
+        <v>125</v>
+      </c>
+      <c r="I143">
+        <v>20000</v>
+      </c>
+      <c r="P143">
+        <v>200</v>
+      </c>
+      <c r="T143" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>657</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>650</v>
+      </c>
+      <c r="AD143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32">
+      <c r="A144">
+        <v>125</v>
+      </c>
+      <c r="B144" t="s">
+        <v>658</v>
+      </c>
+      <c r="C144" t="s">
+        <v>510</v>
+      </c>
+      <c r="H144">
+        <v>125</v>
+      </c>
+      <c r="I144">
         <v>30000</v>
       </c>
-      <c r="P139">
+      <c r="P144">
         <v>500</v>
       </c>
-      <c r="T139" t="s">
-        <v>634</v>
-      </c>
-      <c r="Z139" t="s">
-        <v>639</v>
-      </c>
-      <c r="AA139" t="s">
-        <v>640</v>
-      </c>
-      <c r="AD139">
+      <c r="T144" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>659</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD144">
         <v>4</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
   <si>
     <t>id</t>
   </si>
@@ -1079,6 +1079,75 @@
     <t>You pay The Scholar who begins his incantations, weaving magic here and there. You can feel the magic radiate through The Sky, through the earth, the bones of your being, and the soul of your mind. You can feel the darkness of hell creep deeper into your soul.&lt;br /&gt; &lt;br /&gt; You can see him, The Creator, a child, a simple child who looks at you, silent, studying. He approaches you in this vision of blackness and darkness—endless.&lt;br /&gt; &lt;br /&gt; “You are a child of this world; I am not. It is obvious now that you seek answers. I give you one; your power does not compare to mine; you cannot have what you seek unless you can compare to me. Can you do that? I tell you one thing: suicide is a tricky business. You end up in one place only to find yourself in a place of your own making. A mind broken, shattered, and disillusioned with what you think love is. Yes, love, this is all because of love. My entire creation, power, rage, hate, and world I have formed are all based...on..."&lt;br /&gt; &lt;br /&gt; A voice from the distance, louder, right in your ear: “CHILD!”&lt;br /&gt; &lt;br /&gt; Love. All of this is based on love.&lt;br /&gt; &lt;br /&gt; “Child!”&lt;br /&gt; &lt;br /&gt; You snap back to the world—back to the hellish world that is quite literally Hell.&lt;br /&gt; &lt;br /&gt; “I don’t know where you went or what just happened, but I have done it. You can Reincarnate now!”</t>
   </si>
   <si>
+    <t>Love is dangerous</t>
+  </si>
+  <si>
+    <t>The road to Hell</t>
+  </si>
+  <si>
+    <t>Emerald Necklace</t>
+  </si>
+  <si>
+    <t>You delve into the depths of Hell in search of the accountant of Hell itself, a demonic soul who feasts on the endless coin that Hell possesses, consuming gold and other currencies of the underworld.&lt;br /&gt; &lt;br /&gt; A whisper on the edge of your mind interrupts your search. "You seek me out," it says. Turning around, you're met with the sight of a smiling demon with teeth sharper than knives made of diamonds. Startled, you step back.&lt;br /&gt; &lt;br /&gt; "Fear not, child. We have conversed before, or do you forget?" The demon's appearance this time is more terrifying than in your previous encounter.&lt;br /&gt; &lt;br /&gt; "You desire entrance to the realm of twisted delusions. Alas, I cannot grant you that. However, I can provide access to Twisted Memories, ruled by the bishop of the long-forgotten church of the one true god." His maniacal laugh twists your stomach in sickness.</t>
+  </si>
+  <si>
+    <t>You recount the tales you've heard to the accountant. The demon listens from the shadows, his eyes ever-watchful, piercing through you.&lt;br /&gt; &lt;br /&gt; "Love is a dangerous thing," you begin. "A charming prince wanders the land, while a cosmic being seals away the essence of twisted memories, locking its door here in Hell. This prevents the demons of this plane from accessing a whole new world of excitement."&lt;br /&gt; &lt;br /&gt; The demon licks his lips and emerges from the shadows, his appearance still as frightening as ever, surely haunting your dreams.&lt;br /&gt; &lt;br /&gt; "Let us in, child. Let us in," he urges. You stand, preparing yourself for a fight, but the demon simply laughs.</t>
+  </si>
+  <si>
+    <t>Open the gates child</t>
+  </si>
+  <si>
+    <t>Vile of Twisted Laughter</t>
+  </si>
+  <si>
+    <t>You stand firm in your refusal to open any gate to allow Hell's spawn into any world. Your resolve remains unwavering.&lt;br /&gt; &lt;br /&gt; The demon laughs, retreating into the shadows. "Oh, child, you are most amusing when it comes to mortals meddling in cosmic matters," he taunts. "Did The Poet enlighten you about them? What is he? Him and The &lt;br /&gt; Wondering Merchant? No? He transcends comprehension, a creature woven into the fabric of the cosmic thread by those who control it—the very essence of reality. Beyond even their grasp, they venture here to guide &lt;br /&gt; the lost, only to lose themselves in the process. These cosmic beings are destined to fail, child. You should seek the source."&lt;br /&gt; &lt;br /&gt; You peer into the shadows, finding them empty, devoid of light. Not even the glint of the demon's eyes penetrates the darkness in which he hides.&lt;br /&gt; &lt;br /&gt; A long silence settles between the two of you.</t>
+  </si>
+  <si>
+    <t>You stroll along the beaches of Hell, where there is no water, only magma lapping against the shore. Surprisingly, the heat does not seem to affect you.&lt;br /&gt; &lt;br /&gt; Contemplating the accountant's words, you ponder the The Poet and others like him who transcend this plane. They exist beyond the boundaries of your reality, controlled by entities who manipulate it to their own &lt;br /&gt; desires. These beings lock away the chaos they create, concealing and disregarding their errors.&lt;br /&gt; &lt;br /&gt; Yet, there are entities even beyond them—unnamed and enigmatic forces that reign supreme, including those like The Poet.&lt;br /&gt; &lt;br /&gt; Do these nameless beings possess knowledge of The Creator? If they command those who serve as guides, are they unaware of the turmoil that has unfolded? Or do they simply not care?</t>
+  </si>
+  <si>
+    <t>Pulling the thread</t>
+  </si>
+  <si>
+    <t>QueenofHearts</t>
+  </si>
+  <si>
+    <t>Lover of the queens charred bones</t>
+  </si>
+  <si>
+    <t>How does any of this relate to The Wondering Prince? Perhaps it's all intertwined. Cosmic entities are manipulating and intertwining the threads of mortals and non-mortals—or beings from realms beyond &lt;br /&gt; comprehension. They are governed by entities whose names remain unknown, at least to you.&lt;br /&gt; &lt;br /&gt; You ponder whether there might be someone who knows if there's a connection to all of this. There's one individual who always seems open to bargaining, even if she tends to promote her own wares in the process.</t>
+  </si>
+  <si>
+    <t>"Ooooooh hoooohoooo, child! I am delighted to see you!" The queen, with her ample bosom, rushes towards you, enveloping you in her embrace, her generous curves pressing against you.&lt;br /&gt; &lt;br /&gt; "I've missed your lovely face, my beautiful child. Let me guess, that wretched old accountant spun you a tale or two, and now you're wondering about the charming prince. Am I correct?" She asks, and you nod in response, prompting her laughter: "Ooooooh hooo hooo!"&lt;br /&gt; &lt;br /&gt; "Let me enlighten you about those who control the puppeteers, as you described, my child." She twirls away from you momentarily before returning, a smile gracing her perfectly white teeth.&lt;br /&gt; &lt;br /&gt; "If you pull the thread, you'll open the gates. Opening the gates leads you to a man. He'll guide you to the emeralds—oh, they're exquisite! Once you've vanquished this reality's most profound sorrow, you must ascend to new heights. Only then will the nameless share their story."&lt;br /&gt; &lt;br /&gt; "So, how do you pull the thread, then?"</t>
+  </si>
+  <si>
+    <t>Time for some answers</t>
+  </si>
+  <si>
+    <t>Scholars Glasses</t>
+  </si>
+  <si>
+    <t>You spend your time wandering, hunting down various beasts, your mind filled with contemplation. Is what you suspect truly unfolding? Will The Wondering Prince lead me to the gates of his home world?&lt;br /&gt; &lt;br /&gt; Perhaps this will inevitably lead to an epic confrontation with The Creator. But what comes after? Ascension, like he was meant to? And then what? Do you encounter the nameless ones?&lt;br /&gt; &lt;br /&gt; The enormity of it all weighs heavily on your mind. There are more questions than answers in this intricate puzzle. One thing, however, remains crystal clear: The Wondering Prince holds the key. The battle is imminent, but what lies beyond?</t>
+  </si>
+  <si>
+    <t>You discover The Scholar perched on a rock, engrossed in his notebooks, murmuring to himself. He looks up as you approach.&lt;br /&gt; &lt;br /&gt; "Hello, child. What brings you here?" he inquires.&lt;br /&gt; &lt;br /&gt; You launch into your explanation, recounting everything. By the end, fatigue sets in from repeating yourself and deciphering cryptic remarks. Insisting on clarity, you implore him to be forthright if he possesses any knowledge.&lt;br /&gt; &lt;br /&gt; "I can sense your exhaustion from this ordeal, child. No one seems to be forthcoming with you," he acknowledges before trailing off.&lt;br /&gt; &lt;br /&gt; The Scholar rises and begins to rummage through his bags, eventually producing a book.&lt;br /&gt; &lt;br /&gt; "The queen was," he declares after a moment, while flipping through the pages. "Yes, the queen was straightforward with you."</t>
+  </si>
+  <si>
+    <t>Twisted Branches</t>
+  </si>
+  <si>
+    <t>Mothers Quill</t>
+  </si>
+  <si>
+    <t>Twisted Tree Branch</t>
+  </si>
+  <si>
+    <t>"Let me impart some knowledge to you, child," he begins solemnly. "This Wondering Prince is none other than The Emerald Prince. His realm, The Emerald Plane, is abundant with emeralds, serving as their currency. It is true that he sealed his world away from ours, altering the course of fate when The Shattering began."&lt;br /&gt; &lt;br /&gt; Pausing, he directs his gaze to his book. "It's documented here that he—the Emerald Prince—also closed the gates out of love. Love that he had lost, a love that tormented him."&lt;br /&gt; &lt;br /&gt; Raising his eyes from the pages, he continues, "He was the last to cherish The Child, before The Child became known as The Creator. It was that love—a distorted memory of what once was—that prevented The Child &lt;br /&gt; from ascending. He couldn't let go of the past; he couldn't confront..."&lt;br /&gt; &lt;br /&gt; He trails off, his eyes returning to the text. "...He couldn't face..."&lt;br /&gt; &lt;br /&gt; Looking back up at you, he utters, "Oh, child."&lt;br /&gt; &lt;br /&gt; Your curiosity piqued, and you inquired, What? What couldn't he face?</t>
+  </si>
+  <si>
+    <t>"Tell me!" you exclaim, your voice filled with urgency.&lt;br /&gt; &lt;br /&gt; "Christ! Calm down, child. It's just a smudge," The Scholar reassures you, his tone gentle.&lt;br /&gt; &lt;br /&gt; As he returns his gaze to the book, you press for more information. "What couldn't he face?"&lt;br /&gt; &lt;br /&gt; With a sigh, he responds, "His own death."&lt;br /&gt; &lt;br /&gt; "His own death?" you repeat incredulously.&lt;br /&gt; &lt;br /&gt; "Yes, how he died. How he ended up here. He couldn't confront whatever that was," The Scholar elaborates.&lt;br /&gt; &lt;br /&gt; Understanding dawns upon you, and you demand answers. In response, The Scholar offers you something—a twisted and gnarled branch. It feels ancient, smooth to the touch, and sturdy.&lt;br /&gt; &lt;br /&gt; "With this, you can enter the Twisted Memories realm and begin unravelling the answers to your questions," he explains.&lt;br /&gt; &lt;br /&gt; Taking the branch, you study it intently. It's time to start pulling the thread.</t>
+  </si>
+  <si>
     <t>The Creator and The Smith</t>
   </si>
   <si>
@@ -1389,9 +1458,6 @@
   </si>
   <si>
     <t>You attempt to press The Soldier for further details, insisting on obtaining answers. In response, he slams his hand on the table, causing nearby patrons to glance up from their drinks, and a couple of guards to turn their heads.&lt;br /&gt; &lt;br /&gt; After a tense moment, The Soldier speaks in a firm and deliberate tone, "This matter is not one for you to pry into. It is not your concern."&lt;br /&gt; &lt;br /&gt; Confusion and frustration swirl within you as you wonder about the secrets being guarded so closely. What could possibly be going on?</t>
-  </si>
-  <si>
-    <t>The road to Hell</t>
   </si>
   <si>
     <t>Ashes of the shade</t>
@@ -2337,7 +2403,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AF149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5266,160 +5332,163 @@
     </row>
     <row r="71" spans="1:32">
       <c r="A71">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
         <v>354</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71">
-        <v>15000</v>
-      </c>
-      <c r="I71">
-        <v>2000</v>
+        <v>309</v>
+      </c>
+      <c r="E71" t="s">
+        <v>355</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>356</v>
       </c>
       <c r="M71">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="N71">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="O71">
-        <v>1000000</v>
+        <v>2000000000</v>
       </c>
       <c r="P71">
-        <v>25</v>
-      </c>
-      <c r="S71">
-        <v>1</v>
+        <v>75000</v>
+      </c>
+      <c r="T71" t="s">
+        <v>308</v>
       </c>
       <c r="Z71" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC71" t="s">
         <v>355</v>
       </c>
-      <c r="AA71" t="s">
-        <v>356</v>
+      <c r="AE71" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF71">
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:32">
       <c r="A72">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="G72" t="s">
-        <v>358</v>
-      </c>
-      <c r="H72">
-        <v>500</v>
-      </c>
-      <c r="I72">
-        <v>3000</v>
+        <v>360</v>
       </c>
       <c r="M72">
-        <v>150</v>
+        <v>1000000</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>1000000</v>
       </c>
       <c r="O72">
-        <v>250</v>
+        <v>2000000000</v>
       </c>
       <c r="P72">
-        <v>25</v>
+        <v>75000</v>
       </c>
       <c r="T72" t="s">
         <v>354</v>
       </c>
-      <c r="U72" t="s">
-        <v>359</v>
-      </c>
       <c r="Z72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA72" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF72">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:32">
       <c r="A73">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>364</v>
       </c>
       <c r="G73" t="s">
-        <v>363</v>
-      </c>
-      <c r="L73" t="s">
-        <v>288</v>
+        <v>365</v>
+      </c>
+      <c r="M73">
+        <v>1000000</v>
+      </c>
+      <c r="N73">
+        <v>1000000</v>
+      </c>
+      <c r="O73">
+        <v>2000000000</v>
+      </c>
+      <c r="P73">
+        <v>75000</v>
       </c>
       <c r="T73" t="s">
-        <v>357</v>
-      </c>
-      <c r="U73" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE73" t="s">
         <v>364</v>
       </c>
-      <c r="Z73" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>366</v>
+      <c r="AF73">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:32">
       <c r="A74">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>368</v>
-      </c>
-      <c r="H74">
-        <v>500</v>
-      </c>
-      <c r="I74">
-        <v>5000</v>
-      </c>
-      <c r="J74">
-        <v>2500</v>
-      </c>
-      <c r="K74">
-        <v>1000</v>
-      </c>
-      <c r="L74" t="s">
         <v>369</v>
       </c>
       <c r="M74">
-        <v>150</v>
+        <v>1000000</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>1000000</v>
       </c>
       <c r="O74">
-        <v>250</v>
+        <v>2000000000</v>
       </c>
       <c r="P74">
-        <v>100</v>
+        <v>75000</v>
       </c>
       <c r="T74" t="s">
-        <v>362</v>
-      </c>
-      <c r="U74" t="s">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="Z74" t="s">
         <v>370</v>
@@ -5427,46 +5496,43 @@
       <c r="AA74" t="s">
         <v>371</v>
       </c>
+      <c r="AE74" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF74">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:32">
       <c r="A75">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
         <v>372</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="G75" t="s">
         <v>373</v>
       </c>
-      <c r="H75">
-        <v>5000</v>
-      </c>
-      <c r="I75">
-        <v>5000</v>
-      </c>
-      <c r="J75">
-        <v>50000</v>
-      </c>
       <c r="L75" t="s">
         <v>374</v>
       </c>
       <c r="M75">
-        <v>500</v>
+        <v>1000000</v>
       </c>
       <c r="N75">
-        <v>50</v>
+        <v>1000000</v>
       </c>
       <c r="O75">
-        <v>5000</v>
+        <v>2000000000</v>
       </c>
       <c r="P75">
-        <v>100</v>
+        <v>75000</v>
       </c>
       <c r="T75" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Z75" t="s">
         <v>375</v>
@@ -5474,19 +5540,28 @@
       <c r="AA75" t="s">
         <v>376</v>
       </c>
+      <c r="AE75" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF75">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" spans="1:32">
       <c r="A76">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
         <v>377</v>
       </c>
       <c r="C76" t="s">
-        <v>378</v>
-      </c>
-      <c r="G76" t="s">
-        <v>379</v>
+        <v>112</v>
+      </c>
+      <c r="H76">
+        <v>15000</v>
+      </c>
+      <c r="I76">
+        <v>2000</v>
       </c>
       <c r="M76">
         <v>1000</v>
@@ -5495,54 +5570,57 @@
         <v>100</v>
       </c>
       <c r="O76">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="P76">
-        <v>200</v>
-      </c>
-      <c r="T76" t="s">
-        <v>362</v>
+        <v>25</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
       </c>
       <c r="Z76" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AA76" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:32">
       <c r="A77">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C77" t="s">
-        <v>378</v>
-      </c>
-      <c r="L77" t="s">
-        <v>337</v>
+        <v>67</v>
+      </c>
+      <c r="G77" t="s">
+        <v>381</v>
+      </c>
+      <c r="H77">
+        <v>500</v>
+      </c>
+      <c r="I77">
+        <v>3000</v>
       </c>
       <c r="M77">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N77">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>10000000</v>
+        <v>250</v>
       </c>
       <c r="P77">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="T77" t="s">
         <v>377</v>
       </c>
-      <c r="V77" t="s">
-        <v>78</v>
-      </c>
-      <c r="W77">
-        <v>5</v>
+      <c r="U77" t="s">
+        <v>382</v>
       </c>
       <c r="Z77" t="s">
         <v>383</v>
@@ -5553,37 +5631,22 @@
     </row>
     <row r="78" spans="1:32">
       <c r="A78">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
         <v>385</v>
       </c>
       <c r="C78" t="s">
-        <v>67</v>
-      </c>
-      <c r="E78" t="s">
-        <v>168</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="G78" t="s">
         <v>386</v>
       </c>
-      <c r="M78">
-        <v>10000</v>
-      </c>
-      <c r="N78">
-        <v>1000</v>
-      </c>
-      <c r="O78">
-        <v>1000000</v>
-      </c>
-      <c r="P78">
-        <v>15000</v>
+      <c r="L78" t="s">
+        <v>288</v>
       </c>
       <c r="T78" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="U78" t="s">
         <v>387</v>
@@ -5594,351 +5657,339 @@
       <c r="AA78" t="s">
         <v>389</v>
       </c>
-      <c r="AC78" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF78">
-        <v>5</v>
-      </c>
     </row>
     <row r="79" spans="1:32">
       <c r="A79">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
         <v>390</v>
       </c>
       <c r="C79" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="G79" t="s">
         <v>391</v>
       </c>
+      <c r="H79">
+        <v>500</v>
+      </c>
+      <c r="I79">
+        <v>5000</v>
+      </c>
+      <c r="J79">
+        <v>2500</v>
+      </c>
+      <c r="K79">
+        <v>1000</v>
+      </c>
+      <c r="L79" t="s">
+        <v>392</v>
+      </c>
       <c r="M79">
-        <v>20000</v>
+        <v>150</v>
       </c>
       <c r="N79">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="O79">
-        <v>1000000000</v>
+        <v>250</v>
       </c>
       <c r="P79">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="T79" t="s">
         <v>385</v>
       </c>
+      <c r="U79" t="s">
+        <v>287</v>
+      </c>
       <c r="Z79" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA79" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF79">
-        <v>10</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:32">
       <c r="A80">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C80" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="G80" t="s">
+        <v>396</v>
+      </c>
+      <c r="H80">
+        <v>5000</v>
+      </c>
+      <c r="I80">
+        <v>5000</v>
+      </c>
+      <c r="J80">
+        <v>50000</v>
+      </c>
+      <c r="L80" t="s">
+        <v>397</v>
       </c>
       <c r="M80">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="N80">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="O80">
-        <v>1000000</v>
+        <v>5000</v>
       </c>
       <c r="P80">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="T80" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Z80" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AA80" t="s">
-        <v>396</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF80">
-        <v>20</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:32">
       <c r="A81">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C81" t="s">
-        <v>398</v>
+        <v>401</v>
+      </c>
+      <c r="G81" t="s">
+        <v>402</v>
       </c>
       <c r="M81">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="N81">
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="O81">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="P81">
-        <v>30000</v>
+        <v>200</v>
       </c>
       <c r="T81" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="Z81" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AA81" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>398</v>
-      </c>
-      <c r="AF81">
-        <v>15</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:32">
       <c r="A82">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C82" t="s">
         <v>401</v>
       </c>
-      <c r="C82" t="s">
-        <v>102</v>
+      <c r="L82" t="s">
+        <v>337</v>
       </c>
       <c r="M82">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="N82">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="O82">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="P82">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="T82" t="s">
-        <v>397</v>
+        <v>400</v>
+      </c>
+      <c r="V82" t="s">
+        <v>78</v>
+      </c>
+      <c r="W82">
+        <v>5</v>
       </c>
       <c r="Z82" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AA82" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF82">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:32">
       <c r="A83">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="E83" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>243</v>
-      </c>
-      <c r="H83">
-        <v>500</v>
-      </c>
-      <c r="I83">
+        <v>409</v>
+      </c>
+      <c r="M83">
+        <v>10000</v>
+      </c>
+      <c r="N83">
+        <v>1000</v>
+      </c>
+      <c r="O83">
+        <v>1000000</v>
+      </c>
+      <c r="P83">
+        <v>15000</v>
+      </c>
+      <c r="T83" t="s">
+        <v>385</v>
+      </c>
+      <c r="U83" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF83">
         <v>5</v>
-      </c>
-      <c r="L83" t="s">
-        <v>404</v>
-      </c>
-      <c r="M83">
-        <v>150</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>250</v>
-      </c>
-      <c r="P83">
-        <v>50</v>
-      </c>
-      <c r="S83">
-        <v>1</v>
-      </c>
-      <c r="V83" t="s">
-        <v>78</v>
-      </c>
-      <c r="W83">
-        <v>2</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:32">
       <c r="A84">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C84" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" t="s">
+        <v>414</v>
+      </c>
+      <c r="M84">
+        <v>20000</v>
+      </c>
+      <c r="N84">
+        <v>20000</v>
+      </c>
+      <c r="O84">
+        <v>1000000000</v>
+      </c>
+      <c r="P84">
+        <v>30000</v>
+      </c>
+      <c r="T84" t="s">
         <v>408</v>
       </c>
-      <c r="G84" t="s">
-        <v>409</v>
-      </c>
-      <c r="K84">
-        <v>500</v>
-      </c>
-      <c r="L84" t="s">
-        <v>410</v>
-      </c>
-      <c r="M84">
-        <v>500</v>
-      </c>
-      <c r="N84">
-        <v>50</v>
-      </c>
-      <c r="O84">
-        <v>5000</v>
-      </c>
-      <c r="P84">
-        <v>100</v>
-      </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-      <c r="U84" t="s">
-        <v>411</v>
-      </c>
-      <c r="V84" t="s">
-        <v>85</v>
-      </c>
-      <c r="W84">
-        <v>5</v>
-      </c>
       <c r="Z84" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AA84" t="s">
-        <v>413</v>
+        <v>416</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF84">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:32">
       <c r="A85">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C85" t="s">
-        <v>408</v>
-      </c>
-      <c r="G85" t="s">
-        <v>410</v>
-      </c>
-      <c r="K85">
-        <v>1000</v>
-      </c>
-      <c r="L85" t="s">
-        <v>415</v>
+        <v>67</v>
       </c>
       <c r="M85">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="N85">
-        <v>50</v>
+        <v>25000</v>
       </c>
       <c r="O85">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="P85">
-        <v>150</v>
+        <v>30000</v>
       </c>
       <c r="T85" t="s">
-        <v>407</v>
-      </c>
-      <c r="U85" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Z85" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA85" t="s">
-        <v>418</v>
+        <v>419</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF85">
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:32">
       <c r="A86">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C86" t="s">
-        <v>408</v>
-      </c>
-      <c r="G86" t="s">
-        <v>415</v>
-      </c>
-      <c r="K86">
-        <v>1500</v>
-      </c>
-      <c r="L86" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M86">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="N86">
-        <v>50</v>
+        <v>25000</v>
       </c>
       <c r="O86">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="P86">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="T86" t="s">
-        <v>414</v>
-      </c>
-      <c r="U86" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Z86" t="s">
         <v>422</v>
@@ -5946,128 +5997,143 @@
       <c r="AA86" t="s">
         <v>423</v>
       </c>
+      <c r="AE86" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF86">
+        <v>15</v>
+      </c>
     </row>
     <row r="87" spans="1:32">
       <c r="A87">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
         <v>424</v>
       </c>
       <c r="C87" t="s">
-        <v>408</v>
-      </c>
-      <c r="G87" t="s">
+        <v>102</v>
+      </c>
+      <c r="M87">
+        <v>50000</v>
+      </c>
+      <c r="N87">
+        <v>50000</v>
+      </c>
+      <c r="O87">
+        <v>2000000</v>
+      </c>
+      <c r="P87">
+        <v>50000</v>
+      </c>
+      <c r="T87" t="s">
         <v>420</v>
       </c>
-      <c r="K87">
-        <v>3000</v>
-      </c>
-      <c r="L87" t="s">
+      <c r="Z87" t="s">
         <v>425</v>
       </c>
-      <c r="M87">
-        <v>500</v>
-      </c>
-      <c r="N87">
-        <v>50</v>
-      </c>
-      <c r="O87">
-        <v>5000</v>
-      </c>
-      <c r="P87">
-        <v>300</v>
-      </c>
-      <c r="T87" t="s">
-        <v>419</v>
-      </c>
-      <c r="U87" t="s">
+      <c r="AA87" t="s">
         <v>426</v>
       </c>
-      <c r="Z87" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>428</v>
+      <c r="AE87" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF87">
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:32">
       <c r="A88">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B88" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" t="s">
+        <v>243</v>
+      </c>
+      <c r="H88">
+        <v>500</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="L88" t="s">
+        <v>427</v>
+      </c>
+      <c r="M88">
+        <v>150</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>250</v>
+      </c>
+      <c r="P88">
+        <v>50</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="V88" t="s">
+        <v>78</v>
+      </c>
+      <c r="W88">
+        <v>2</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA88" t="s">
         <v>429</v>
-      </c>
-      <c r="C88" t="s">
-        <v>82</v>
-      </c>
-      <c r="G88" t="s">
-        <v>430</v>
-      </c>
-      <c r="H88">
-        <v>5000</v>
-      </c>
-      <c r="I88">
-        <v>5000</v>
-      </c>
-      <c r="K88">
-        <v>5000</v>
-      </c>
-      <c r="M88">
-        <v>500</v>
-      </c>
-      <c r="N88">
-        <v>50</v>
-      </c>
-      <c r="O88">
-        <v>5000</v>
-      </c>
-      <c r="P88">
-        <v>250</v>
-      </c>
-      <c r="T88" t="s">
-        <v>407</v>
-      </c>
-      <c r="U88" t="s">
-        <v>431</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:32">
       <c r="A89">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
-      </c>
-      <c r="H89">
-        <v>5000</v>
-      </c>
-      <c r="I89">
-        <v>7000</v>
-      </c>
-      <c r="J89">
-        <v>50000</v>
+        <v>431</v>
+      </c>
+      <c r="G89" t="s">
+        <v>432</v>
       </c>
       <c r="K89">
-        <v>3000</v>
+        <v>500</v>
+      </c>
+      <c r="L89" t="s">
+        <v>433</v>
+      </c>
+      <c r="M89">
+        <v>500</v>
+      </c>
+      <c r="N89">
+        <v>50</v>
       </c>
       <c r="O89">
         <v>5000</v>
       </c>
       <c r="P89">
-        <v>250</v>
-      </c>
-      <c r="T89" t="s">
-        <v>429</v>
+        <v>100</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="U89" t="s">
+        <v>434</v>
+      </c>
+      <c r="V89" t="s">
+        <v>85</v>
+      </c>
+      <c r="W89">
+        <v>5</v>
       </c>
       <c r="Z89" t="s">
         <v>435</v>
@@ -6078,37 +6144,40 @@
     </row>
     <row r="90" spans="1:32">
       <c r="A90">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
         <v>437</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="G90" t="s">
+        <v>433</v>
+      </c>
+      <c r="K90">
+        <v>1000</v>
+      </c>
+      <c r="L90" t="s">
         <v>438</v>
       </c>
-      <c r="H90">
-        <v>5000</v>
-      </c>
-      <c r="I90">
-        <v>7500</v>
-      </c>
-      <c r="K90">
-        <v>10000</v>
-      </c>
-      <c r="L90" t="s">
-        <v>439</v>
+      <c r="M90">
+        <v>500</v>
+      </c>
+      <c r="N90">
+        <v>50</v>
       </c>
       <c r="O90">
         <v>5000</v>
       </c>
       <c r="P90">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="T90" t="s">
-        <v>434</v>
+        <v>430</v>
+      </c>
+      <c r="U90" t="s">
+        <v>439</v>
       </c>
       <c r="Z90" t="s">
         <v>440</v>
@@ -6119,306 +6188,324 @@
     </row>
     <row r="91" spans="1:32">
       <c r="A91">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
         <v>442</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E91" t="s">
-        <v>401</v>
-      </c>
-      <c r="F91">
-        <v>4</v>
+        <v>431</v>
       </c>
       <c r="G91" t="s">
+        <v>438</v>
+      </c>
+      <c r="K91">
+        <v>1500</v>
+      </c>
+      <c r="L91" t="s">
         <v>443</v>
       </c>
       <c r="M91">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="N91">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="O91">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="P91">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="T91" t="s">
-        <v>407</v>
+        <v>437</v>
+      </c>
+      <c r="U91" t="s">
+        <v>444</v>
       </c>
       <c r="Z91" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA91" t="s">
-        <v>445</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>401</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF91">
-        <v>5</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:32">
       <c r="A92">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="G92" t="s">
-        <v>447</v>
+        <v>443</v>
+      </c>
+      <c r="K92">
+        <v>3000</v>
+      </c>
+      <c r="L92" t="s">
+        <v>448</v>
       </c>
       <c r="M92">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="N92">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="O92">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="P92">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="T92" t="s">
         <v>442</v>
       </c>
+      <c r="U92" t="s">
+        <v>449</v>
+      </c>
       <c r="Z92" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AA92" t="s">
-        <v>449</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF92">
-        <v>10</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:32">
       <c r="A93">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="G93" t="s">
-        <v>451</v>
+        <v>453</v>
+      </c>
+      <c r="H93">
+        <v>5000</v>
+      </c>
+      <c r="I93">
+        <v>5000</v>
+      </c>
+      <c r="K93">
+        <v>5000</v>
+      </c>
+      <c r="M93">
+        <v>500</v>
+      </c>
+      <c r="N93">
+        <v>50</v>
+      </c>
+      <c r="O93">
+        <v>5000</v>
+      </c>
+      <c r="P93">
+        <v>250</v>
       </c>
       <c r="T93" t="s">
-        <v>446</v>
+        <v>430</v>
+      </c>
+      <c r="U93" t="s">
+        <v>454</v>
       </c>
       <c r="Z93" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AA93" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF93">
-        <v>10</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:32">
       <c r="A94">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" t="s">
-        <v>455</v>
-      </c>
-      <c r="M94">
-        <v>30000</v>
-      </c>
-      <c r="N94">
-        <v>30000</v>
+        <v>82</v>
+      </c>
+      <c r="H94">
+        <v>5000</v>
+      </c>
+      <c r="I94">
+        <v>7000</v>
+      </c>
+      <c r="J94">
+        <v>50000</v>
+      </c>
+      <c r="K94">
+        <v>3000</v>
       </c>
       <c r="O94">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="P94">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="T94" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Z94" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AA94" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF94">
-        <v>5</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:32">
       <c r="A95">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C95" t="s">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="G95" t="s">
-        <v>459</v>
-      </c>
-      <c r="M95">
-        <v>30000</v>
-      </c>
-      <c r="N95">
-        <v>30000</v>
+        <v>461</v>
+      </c>
+      <c r="H95">
+        <v>5000</v>
+      </c>
+      <c r="I95">
+        <v>7500</v>
+      </c>
+      <c r="K95">
+        <v>10000</v>
+      </c>
+      <c r="L95" t="s">
+        <v>462</v>
       </c>
       <c r="O95">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="P95">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="T95" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Z95" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AA95" t="s">
-        <v>461</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>408</v>
-      </c>
-      <c r="AF95">
-        <v>5</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:32">
       <c r="A96">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96" t="s">
-        <v>463</v>
+        <v>82</v>
+      </c>
+      <c r="E96" t="s">
+        <v>424</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+      <c r="M96">
+        <v>30000</v>
+      </c>
+      <c r="N96">
+        <v>30000</v>
       </c>
       <c r="O96">
-        <v>150</v>
+        <v>1500000000</v>
       </c>
       <c r="P96">
-        <v>1000</v>
-      </c>
-      <c r="S96">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="T96" t="s">
+        <v>430</v>
       </c>
       <c r="Z96" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AA96" t="s">
-        <v>466</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>463</v>
+        <v>468</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF96">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:32">
       <c r="A97">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
-      </c>
-      <c r="D97" t="s">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="G97" t="s">
-        <v>468</v>
-      </c>
-      <c r="L97" t="s">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="M97">
+        <v>30000</v>
+      </c>
+      <c r="N97">
+        <v>30000</v>
       </c>
       <c r="O97">
-        <v>150</v>
+        <v>1500000000</v>
       </c>
       <c r="P97">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="T97" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Z97" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA97" t="s">
-        <v>471</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>463</v>
+        <v>472</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF97">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:32">
       <c r="A98">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C98" t="s">
-        <v>473</v>
-      </c>
-      <c r="D98" t="s">
-        <v>463</v>
+        <v>112</v>
       </c>
       <c r="G98" t="s">
+        <v>474</v>
+      </c>
+      <c r="T98" t="s">
         <v>469</v>
-      </c>
-      <c r="L98" t="s">
-        <v>474</v>
-      </c>
-      <c r="O98">
-        <v>250</v>
-      </c>
-      <c r="P98">
-        <v>1000</v>
-      </c>
-      <c r="T98" t="s">
-        <v>467</v>
       </c>
       <c r="Z98" t="s">
         <v>475</v>
@@ -6426,40 +6513,40 @@
       <c r="AA98" t="s">
         <v>476</v>
       </c>
-      <c r="AB98" t="s">
-        <v>463</v>
+      <c r="AE98" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF98">
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:32">
       <c r="A99">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B99" t="s">
         <v>477</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>474</v>
-      </c>
-      <c r="H99">
-        <v>100</v>
+        <v>478</v>
+      </c>
+      <c r="M99">
+        <v>30000</v>
+      </c>
+      <c r="N99">
+        <v>30000</v>
       </c>
       <c r="O99">
-        <v>150</v>
+        <v>1500000000</v>
       </c>
       <c r="P99">
-        <v>1500</v>
+        <v>50000</v>
       </c>
       <c r="T99" t="s">
-        <v>472</v>
-      </c>
-      <c r="U99" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Z99" t="s">
         <v>479</v>
@@ -6467,122 +6554,116 @@
       <c r="AA99" t="s">
         <v>480</v>
       </c>
-      <c r="AB99" t="s">
-        <v>463</v>
+      <c r="AE99" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF99">
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:32">
       <c r="A100">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="B100" t="s">
+        <v>355</v>
+      </c>
+      <c r="C100" t="s">
+        <v>431</v>
+      </c>
+      <c r="G100" t="s">
         <v>481</v>
       </c>
-      <c r="C100" t="s">
-        <v>323</v>
-      </c>
-      <c r="D100" t="s">
-        <v>463</v>
-      </c>
-      <c r="G100" t="s">
-        <v>482</v>
+      <c r="M100">
+        <v>30000</v>
+      </c>
+      <c r="N100">
+        <v>30000</v>
       </c>
       <c r="O100">
-        <v>10000</v>
+        <v>1500000000</v>
       </c>
       <c r="P100">
-        <v>1500</v>
+        <v>50000</v>
       </c>
       <c r="T100" t="s">
         <v>477</v>
       </c>
-      <c r="U100" t="s">
+      <c r="Z100" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA100" t="s">
         <v>483</v>
       </c>
-      <c r="Z100" t="s">
-        <v>484</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>485</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>463</v>
+      <c r="AE100" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF100">
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:32">
       <c r="A101">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B101" t="s">
+        <v>484</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s">
+        <v>485</v>
+      </c>
+      <c r="G101" t="s">
         <v>486</v>
       </c>
-      <c r="C101" t="s">
-        <v>323</v>
-      </c>
-      <c r="D101" t="s">
-        <v>463</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="O101">
+        <v>150</v>
+      </c>
+      <c r="P101">
+        <v>1000</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="Z101" t="s">
         <v>487</v>
       </c>
-      <c r="H101">
-        <v>25000</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="AA101" t="s">
         <v>488</v>
       </c>
-      <c r="O101">
-        <v>10000</v>
-      </c>
-      <c r="P101">
-        <v>1600</v>
-      </c>
-      <c r="T101" t="s">
-        <v>481</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>490</v>
-      </c>
       <c r="AB101" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="1:32">
       <c r="A102">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
+        <v>489</v>
+      </c>
+      <c r="C102" t="s">
+        <v>421</v>
+      </c>
+      <c r="D102" t="s">
+        <v>485</v>
+      </c>
+      <c r="G102" t="s">
+        <v>490</v>
+      </c>
+      <c r="L102" t="s">
         <v>491</v>
-      </c>
-      <c r="C102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D102" t="s">
-        <v>463</v>
-      </c>
-      <c r="G102" t="s">
-        <v>488</v>
-      </c>
-      <c r="H102">
-        <v>100</v>
-      </c>
-      <c r="M102">
-        <v>25</v>
-      </c>
-      <c r="N102">
-        <v>2</v>
       </c>
       <c r="O102">
         <v>150</v>
       </c>
       <c r="P102">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="T102" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Z102" t="s">
         <v>492</v>
@@ -6591,346 +6672,370 @@
         <v>493</v>
       </c>
       <c r="AB102" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="1:32">
       <c r="A103">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
         <v>494</v>
       </c>
       <c r="C103" t="s">
-        <v>398</v>
+        <v>495</v>
       </c>
       <c r="D103" t="s">
-        <v>463</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>100</v>
-      </c>
-      <c r="I103">
-        <v>20000</v>
-      </c>
-      <c r="K103">
-        <v>10000</v>
+        <v>485</v>
+      </c>
+      <c r="G103" t="s">
+        <v>491</v>
+      </c>
+      <c r="L103" t="s">
+        <v>496</v>
       </c>
       <c r="O103">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="P103">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="T103" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="Z103" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AA103" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AB103" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:32">
       <c r="A104">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B104" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="G104" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H104">
-        <v>500</v>
-      </c>
-      <c r="I104">
-        <v>15000</v>
-      </c>
-      <c r="K104">
-        <v>15000</v>
+        <v>100</v>
       </c>
       <c r="O104">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="P104">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T104" t="s">
         <v>494</v>
       </c>
+      <c r="U104" t="s">
+        <v>500</v>
+      </c>
       <c r="Z104" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AA104" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AB104" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="1:32">
       <c r="A105">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B105" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="D105" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="G105" t="s">
-        <v>502</v>
-      </c>
-      <c r="L105" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O105">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="P105">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T105" t="s">
-        <v>497</v>
+        <v>499</v>
+      </c>
+      <c r="U105" t="s">
+        <v>505</v>
       </c>
       <c r="Z105" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AA105" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AB105" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:32">
       <c r="A106">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C106" t="s">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="G106" t="s">
+        <v>509</v>
+      </c>
+      <c r="H106">
+        <v>25000</v>
+      </c>
+      <c r="L106" t="s">
+        <v>510</v>
+      </c>
+      <c r="O106">
+        <v>10000</v>
+      </c>
+      <c r="P106">
+        <v>1600</v>
+      </c>
+      <c r="T106" t="s">
         <v>503</v>
       </c>
-      <c r="H106">
-        <v>100</v>
-      </c>
-      <c r="I106">
-        <v>100000</v>
-      </c>
-      <c r="K106">
-        <v>75000</v>
-      </c>
-      <c r="P106">
-        <v>5000</v>
-      </c>
-      <c r="T106" t="s">
-        <v>501</v>
-      </c>
-      <c r="X106">
-        <v>1</v>
-      </c>
       <c r="Z106" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="AA106" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AB106" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107" spans="1:32">
       <c r="A107">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B107" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" t="s">
+        <v>485</v>
+      </c>
+      <c r="G107" t="s">
         <v>510</v>
       </c>
-      <c r="G107" t="s">
-        <v>511</v>
-      </c>
       <c r="H107">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="M107">
+        <v>25</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
       </c>
       <c r="O107">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="P107">
-        <v>100</v>
-      </c>
-      <c r="S107">
-        <v>1</v>
+        <v>3000</v>
+      </c>
+      <c r="T107" t="s">
+        <v>508</v>
       </c>
       <c r="Z107" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AA107" t="s">
-        <v>513</v>
-      </c>
-      <c r="AD107">
-        <v>4</v>
+        <v>515</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:32">
       <c r="A108">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C108" t="s">
-        <v>398</v>
-      </c>
-      <c r="G108" t="s">
-        <v>515</v>
+        <v>421</v>
+      </c>
+      <c r="D108" t="s">
+        <v>485</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>100</v>
+      </c>
+      <c r="I108">
+        <v>20000</v>
+      </c>
+      <c r="K108">
+        <v>10000</v>
       </c>
       <c r="O108">
         <v>150</v>
       </c>
       <c r="P108">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="T108" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="Z108" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA108" t="s">
-        <v>517</v>
-      </c>
-      <c r="AD108">
-        <v>4</v>
+        <v>518</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="109" spans="1:32">
       <c r="A109">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C109" t="s">
-        <v>510</v>
+        <v>37</v>
+      </c>
+      <c r="D109" t="s">
+        <v>485</v>
       </c>
       <c r="G109" t="s">
-        <v>519</v>
+        <v>520</v>
+      </c>
+      <c r="H109">
+        <v>500</v>
+      </c>
+      <c r="I109">
+        <v>15000</v>
+      </c>
+      <c r="K109">
+        <v>15000</v>
       </c>
       <c r="O109">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="P109">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="T109" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Z109" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA109" t="s">
-        <v>521</v>
-      </c>
-      <c r="AD109">
-        <v>4</v>
+        <v>522</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="110" spans="1:32">
       <c r="A110">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B110" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C110" t="s">
-        <v>510</v>
-      </c>
-      <c r="H110">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="D110" t="s">
+        <v>485</v>
+      </c>
+      <c r="G110" t="s">
+        <v>524</v>
+      </c>
+      <c r="L110" t="s">
+        <v>525</v>
       </c>
       <c r="O110">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="P110">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="T110" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z110" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AA110" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD110">
-        <v>4</v>
+        <v>527</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="111" spans="1:32">
       <c r="A111">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B111" t="s">
+        <v>528</v>
+      </c>
+      <c r="C111" t="s">
+        <v>421</v>
+      </c>
+      <c r="D111" t="s">
+        <v>485</v>
+      </c>
+      <c r="G111" t="s">
         <v>525</v>
       </c>
-      <c r="C111" t="s">
-        <v>510</v>
-      </c>
-      <c r="E111" t="s">
-        <v>526</v>
-      </c>
-      <c r="G111" t="s">
-        <v>527</v>
-      </c>
       <c r="H111">
-        <v>125</v>
-      </c>
-      <c r="L111" t="s">
-        <v>528</v>
-      </c>
-      <c r="M111">
-        <v>75</v>
-      </c>
-      <c r="N111">
-        <v>10</v>
-      </c>
-      <c r="O111">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="I111">
+        <v>100000</v>
+      </c>
+      <c r="K111">
+        <v>75000</v>
       </c>
       <c r="P111">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="T111" t="s">
-        <v>518</v>
+        <v>523</v>
+      </c>
+      <c r="X111">
+        <v>1</v>
       </c>
       <c r="Z111" t="s">
         <v>529</v>
@@ -6938,49 +7043,40 @@
       <c r="AA111" t="s">
         <v>530</v>
       </c>
-      <c r="AC111" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD111">
-        <v>4</v>
+      <c r="AB111" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:32">
       <c r="A112">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B112" t="s">
         <v>531</v>
       </c>
       <c r="C112" t="s">
-        <v>510</v>
+        <v>532</v>
+      </c>
+      <c r="G112" t="s">
+        <v>533</v>
       </c>
       <c r="H112">
         <v>125</v>
       </c>
-      <c r="I112">
-        <v>1500</v>
-      </c>
-      <c r="M112">
-        <v>75</v>
-      </c>
-      <c r="N112">
-        <v>10</v>
-      </c>
       <c r="O112">
         <v>200</v>
       </c>
       <c r="P112">
         <v>100</v>
       </c>
-      <c r="T112" t="s">
-        <v>525</v>
+      <c r="S112">
+        <v>1</v>
       </c>
       <c r="Z112" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AA112" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AD112">
         <v>4</v>
@@ -6988,25 +7084,16 @@
     </row>
     <row r="113" spans="1:32">
       <c r="A113">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C113" t="s">
-        <v>398</v>
-      </c>
-      <c r="E113" t="s">
-        <v>522</v>
+        <v>421</v>
       </c>
       <c r="G113" t="s">
-        <v>535</v>
-      </c>
-      <c r="M113">
-        <v>25</v>
-      </c>
-      <c r="N113">
-        <v>2</v>
+        <v>537</v>
       </c>
       <c r="O113">
         <v>150</v>
@@ -7015,16 +7102,13 @@
         <v>100</v>
       </c>
       <c r="T113" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="Z113" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AA113" t="s">
-        <v>537</v>
-      </c>
-      <c r="AC113" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="AD113">
         <v>4</v>
@@ -7032,40 +7116,31 @@
     </row>
     <row r="114" spans="1:32">
       <c r="A114">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B114" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C114" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="G114" t="s">
-        <v>539</v>
-      </c>
-      <c r="H114">
-        <v>100</v>
-      </c>
-      <c r="M114">
-        <v>25</v>
-      </c>
-      <c r="N114">
-        <v>2</v>
+        <v>541</v>
       </c>
       <c r="O114">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="P114">
         <v>100</v>
       </c>
       <c r="T114" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Z114" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA114" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AD114">
         <v>4</v>
@@ -7073,49 +7148,31 @@
     </row>
     <row r="115" spans="1:32">
       <c r="A115">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B115" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C115" t="s">
-        <v>398</v>
-      </c>
-      <c r="G115" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H115">
-        <v>100</v>
-      </c>
-      <c r="I115">
+        <v>125</v>
+      </c>
+      <c r="O115">
         <v>200</v>
       </c>
-      <c r="J115">
-        <v>1000</v>
-      </c>
-      <c r="L115" t="s">
-        <v>543</v>
-      </c>
-      <c r="M115">
-        <v>25</v>
-      </c>
-      <c r="N115">
-        <v>2</v>
-      </c>
-      <c r="O115">
-        <v>150</v>
-      </c>
       <c r="P115">
         <v>100</v>
       </c>
       <c r="T115" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="Z115" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AA115" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AD115">
         <v>4</v>
@@ -7123,19 +7180,25 @@
     </row>
     <row r="116" spans="1:32">
       <c r="A116">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C116" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="E116" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="G116" t="s">
-        <v>547</v>
+        <v>549</v>
+      </c>
+      <c r="H116">
+        <v>125</v>
+      </c>
+      <c r="L116" t="s">
+        <v>550</v>
       </c>
       <c r="M116">
         <v>75</v>
@@ -7150,19 +7213,16 @@
         <v>100</v>
       </c>
       <c r="T116" t="s">
-        <v>509</v>
-      </c>
-      <c r="U116" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>552</v>
+      </c>
+      <c r="AC116" t="s">
         <v>548</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA116" t="s">
-        <v>550</v>
-      </c>
-      <c r="AC116" t="s">
-        <v>531</v>
       </c>
       <c r="AD116">
         <v>4</v>
@@ -7170,22 +7230,19 @@
     </row>
     <row r="117" spans="1:32">
       <c r="A117">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C117" t="s">
-        <v>510</v>
-      </c>
-      <c r="G117" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="H117">
         <v>125</v>
       </c>
       <c r="I117">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M117">
         <v>75</v>
@@ -7196,11 +7253,11 @@
       <c r="O117">
         <v>200</v>
       </c>
+      <c r="P117">
+        <v>100</v>
+      </c>
       <c r="T117" t="s">
-        <v>546</v>
-      </c>
-      <c r="U117" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Z117" t="s">
         <v>554</v>
@@ -7214,49 +7271,43 @@
     </row>
     <row r="118" spans="1:32">
       <c r="A118">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B118" t="s">
         <v>556</v>
       </c>
       <c r="C118" t="s">
-        <v>510</v>
+        <v>421</v>
+      </c>
+      <c r="E118" t="s">
+        <v>544</v>
       </c>
       <c r="G118" t="s">
         <v>557</v>
       </c>
-      <c r="H118">
-        <v>125</v>
-      </c>
-      <c r="I118">
-        <v>25000</v>
-      </c>
-      <c r="L118" t="s">
+      <c r="M118">
+        <v>25</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>150</v>
+      </c>
+      <c r="P118">
+        <v>100</v>
+      </c>
+      <c r="T118" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z118" t="s">
         <v>558</v>
       </c>
-      <c r="M118">
-        <v>75</v>
-      </c>
-      <c r="N118">
-        <v>10</v>
-      </c>
-      <c r="O118">
-        <v>200</v>
-      </c>
-      <c r="P118">
-        <v>200</v>
-      </c>
-      <c r="T118" t="s">
-        <v>551</v>
-      </c>
-      <c r="U118" t="s">
+      <c r="AA118" t="s">
         <v>559</v>
       </c>
-      <c r="Z118" t="s">
-        <v>560</v>
-      </c>
-      <c r="AA118" t="s">
-        <v>561</v>
+      <c r="AC118" t="s">
+        <v>544</v>
       </c>
       <c r="AD118">
         <v>4</v>
@@ -7264,25 +7315,19 @@
     </row>
     <row r="119" spans="1:32">
       <c r="A119">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B119" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C119" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="G119" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H119">
         <v>100</v>
-      </c>
-      <c r="I119">
-        <v>5000</v>
-      </c>
-      <c r="L119" t="s">
-        <v>563</v>
       </c>
       <c r="M119">
         <v>25</v>
@@ -7294,16 +7339,16 @@
         <v>150</v>
       </c>
       <c r="P119">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="T119" t="s">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="Z119" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AA119" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AD119">
         <v>4</v>
@@ -7311,49 +7356,49 @@
     </row>
     <row r="120" spans="1:32">
       <c r="A120">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
+        <v>548</v>
+      </c>
+      <c r="C120" t="s">
+        <v>421</v>
+      </c>
+      <c r="G120" t="s">
+        <v>564</v>
+      </c>
+      <c r="H120">
+        <v>100</v>
+      </c>
+      <c r="I120">
+        <v>200</v>
+      </c>
+      <c r="J120">
+        <v>1000</v>
+      </c>
+      <c r="L120" t="s">
+        <v>565</v>
+      </c>
+      <c r="M120">
+        <v>25</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120">
+        <v>150</v>
+      </c>
+      <c r="P120">
+        <v>100</v>
+      </c>
+      <c r="T120" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z120" t="s">
         <v>566</v>
       </c>
-      <c r="C120" t="s">
+      <c r="AA120" t="s">
         <v>567</v>
-      </c>
-      <c r="E120" t="s">
-        <v>568</v>
-      </c>
-      <c r="H120">
-        <v>125</v>
-      </c>
-      <c r="I120">
-        <v>2000</v>
-      </c>
-      <c r="L120" t="s">
-        <v>569</v>
-      </c>
-      <c r="M120">
-        <v>75</v>
-      </c>
-      <c r="N120">
-        <v>10</v>
-      </c>
-      <c r="O120">
-        <v>200</v>
-      </c>
-      <c r="P120">
-        <v>100</v>
-      </c>
-      <c r="T120" t="s">
-        <v>562</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>570</v>
-      </c>
-      <c r="AA120" t="s">
-        <v>571</v>
-      </c>
-      <c r="AC120" t="s">
-        <v>568</v>
       </c>
       <c r="AD120">
         <v>4</v>
@@ -7361,22 +7406,19 @@
     </row>
     <row r="121" spans="1:32">
       <c r="A121">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C121" t="s">
-        <v>573</v>
+        <v>532</v>
+      </c>
+      <c r="E121" t="s">
+        <v>553</v>
       </c>
       <c r="G121" t="s">
-        <v>574</v>
-      </c>
-      <c r="H121">
-        <v>125</v>
-      </c>
-      <c r="I121">
-        <v>1500</v>
+        <v>569</v>
       </c>
       <c r="M121">
         <v>75</v>
@@ -7384,17 +7426,26 @@
       <c r="N121">
         <v>10</v>
       </c>
+      <c r="O121">
+        <v>200</v>
+      </c>
       <c r="P121">
         <v>100</v>
       </c>
       <c r="T121" t="s">
-        <v>566</v>
+        <v>531</v>
+      </c>
+      <c r="U121" t="s">
+        <v>570</v>
       </c>
       <c r="Z121" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AA121" t="s">
-        <v>576</v>
+        <v>572</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>553</v>
       </c>
       <c r="AD121">
         <v>4</v>
@@ -7402,22 +7453,22 @@
     </row>
     <row r="122" spans="1:32">
       <c r="A122">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B122" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C122" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="G122" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H122">
         <v>125</v>
       </c>
       <c r="I122">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M122">
         <v>75</v>
@@ -7425,20 +7476,20 @@
       <c r="N122">
         <v>10</v>
       </c>
-      <c r="P122">
-        <v>100</v>
+      <c r="O122">
+        <v>200</v>
       </c>
       <c r="T122" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="U122" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Z122" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AA122" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AD122">
         <v>4</v>
@@ -7446,25 +7497,25 @@
     </row>
     <row r="123" spans="1:32">
       <c r="A123">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C123" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="G123" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H123">
         <v>125</v>
       </c>
       <c r="I123">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L123" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M123">
         <v>75</v>
@@ -7472,17 +7523,23 @@
       <c r="N123">
         <v>10</v>
       </c>
+      <c r="O123">
+        <v>200</v>
+      </c>
       <c r="P123">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T123" t="s">
-        <v>577</v>
+        <v>573</v>
+      </c>
+      <c r="U123" t="s">
+        <v>581</v>
       </c>
       <c r="Z123" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AA123" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AD123">
         <v>4</v>
@@ -7490,43 +7547,46 @@
     </row>
     <row r="124" spans="1:32">
       <c r="A124">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B124" t="s">
+        <v>584</v>
+      </c>
+      <c r="C124" t="s">
+        <v>421</v>
+      </c>
+      <c r="G124" t="s">
+        <v>580</v>
+      </c>
+      <c r="H124">
+        <v>100</v>
+      </c>
+      <c r="I124">
+        <v>5000</v>
+      </c>
+      <c r="L124" t="s">
+        <v>585</v>
+      </c>
+      <c r="M124">
+        <v>25</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124">
+        <v>150</v>
+      </c>
+      <c r="P124">
+        <v>250</v>
+      </c>
+      <c r="T124" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>586</v>
+      </c>
+      <c r="AA124" t="s">
         <v>587</v>
-      </c>
-      <c r="C124" t="s">
-        <v>573</v>
-      </c>
-      <c r="G124" t="s">
-        <v>584</v>
-      </c>
-      <c r="H124">
-        <v>125</v>
-      </c>
-      <c r="I124">
-        <v>10000</v>
-      </c>
-      <c r="L124" t="s">
-        <v>588</v>
-      </c>
-      <c r="M124">
-        <v>75</v>
-      </c>
-      <c r="N124">
-        <v>10</v>
-      </c>
-      <c r="P124">
-        <v>100</v>
-      </c>
-      <c r="T124" t="s">
-        <v>566</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>590</v>
       </c>
       <c r="AD124">
         <v>4</v>
@@ -7534,46 +7594,49 @@
     </row>
     <row r="125" spans="1:32">
       <c r="A125">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B125" t="s">
+        <v>588</v>
+      </c>
+      <c r="C125" t="s">
+        <v>589</v>
+      </c>
+      <c r="E125" t="s">
+        <v>590</v>
+      </c>
+      <c r="H125">
+        <v>125</v>
+      </c>
+      <c r="I125">
+        <v>2000</v>
+      </c>
+      <c r="L125" t="s">
         <v>591</v>
       </c>
-      <c r="C125" t="s">
-        <v>567</v>
-      </c>
-      <c r="E125" t="s">
-        <v>587</v>
-      </c>
       <c r="M125">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N125">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O125">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="P125">
         <v>100</v>
       </c>
       <c r="T125" t="s">
-        <v>587</v>
-      </c>
-      <c r="V125" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z125" t="s">
         <v>592</v>
       </c>
-      <c r="W125">
-        <v>2</v>
-      </c>
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>593</v>
       </c>
-      <c r="AA125" t="s">
-        <v>594</v>
-      </c>
       <c r="AC125" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AD125">
         <v>4</v>
@@ -7581,40 +7644,40 @@
     </row>
     <row r="126" spans="1:32">
       <c r="A126">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s">
+        <v>594</v>
+      </c>
+      <c r="C126" t="s">
         <v>595</v>
       </c>
-      <c r="C126" t="s">
-        <v>510</v>
+      <c r="G126" t="s">
+        <v>596</v>
+      </c>
+      <c r="H126">
+        <v>125</v>
+      </c>
+      <c r="I126">
+        <v>1500</v>
       </c>
       <c r="M126">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N126">
-        <v>25</v>
-      </c>
-      <c r="O126">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="P126">
         <v>100</v>
       </c>
       <c r="T126" t="s">
-        <v>591</v>
-      </c>
-      <c r="V126" t="s">
-        <v>592</v>
-      </c>
-      <c r="W126">
-        <v>4</v>
+        <v>588</v>
       </c>
       <c r="Z126" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA126" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AD126">
         <v>4</v>
@@ -7622,40 +7685,43 @@
     </row>
     <row r="127" spans="1:32">
       <c r="A127">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C127" t="s">
-        <v>398</v>
+        <v>595</v>
+      </c>
+      <c r="G127" t="s">
+        <v>600</v>
+      </c>
+      <c r="H127">
+        <v>125</v>
+      </c>
+      <c r="I127">
+        <v>1500</v>
       </c>
       <c r="M127">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="N127">
-        <v>50</v>
-      </c>
-      <c r="O127">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="P127">
         <v>100</v>
       </c>
       <c r="T127" t="s">
-        <v>595</v>
-      </c>
-      <c r="V127" t="s">
-        <v>592</v>
-      </c>
-      <c r="W127">
-        <v>5</v>
+        <v>594</v>
+      </c>
+      <c r="U127" t="s">
+        <v>601</v>
       </c>
       <c r="Z127" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AA127" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AD127">
         <v>4</v>
@@ -7663,22 +7729,25 @@
     </row>
     <row r="128" spans="1:32">
       <c r="A128">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C128" t="s">
-        <v>567</v>
-      </c>
-      <c r="E128" t="s">
-        <v>562</v>
+        <v>595</v>
+      </c>
+      <c r="G128" t="s">
+        <v>605</v>
       </c>
       <c r="H128">
         <v>125</v>
       </c>
       <c r="I128">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="L128" t="s">
+        <v>606</v>
       </c>
       <c r="M128">
         <v>75</v>
@@ -7686,23 +7755,17 @@
       <c r="N128">
         <v>10</v>
       </c>
-      <c r="O128">
-        <v>200</v>
-      </c>
       <c r="P128">
         <v>100</v>
       </c>
       <c r="T128" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="Z128" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AA128" t="s">
-        <v>603</v>
-      </c>
-      <c r="AC128" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
       <c r="AD128">
         <v>4</v>
@@ -7710,22 +7773,25 @@
     </row>
     <row r="129" spans="1:32">
       <c r="A129">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B129" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C129" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G129" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H129">
         <v>125</v>
       </c>
       <c r="I129">
-        <v>500</v>
+        <v>10000</v>
+      </c>
+      <c r="L129" t="s">
+        <v>610</v>
       </c>
       <c r="M129">
         <v>75</v>
@@ -7733,20 +7799,17 @@
       <c r="N129">
         <v>10</v>
       </c>
-      <c r="O129">
-        <v>200</v>
-      </c>
       <c r="P129">
         <v>100</v>
       </c>
       <c r="T129" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="Z129" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AA129" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AD129">
         <v>4</v>
@@ -7754,40 +7817,46 @@
     </row>
     <row r="130" spans="1:32">
       <c r="A130">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C130" t="s">
-        <v>567</v>
-      </c>
-      <c r="H130">
-        <v>125</v>
-      </c>
-      <c r="I130">
-        <v>500</v>
+        <v>589</v>
+      </c>
+      <c r="E130" t="s">
+        <v>609</v>
       </c>
       <c r="M130">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N130">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O130">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="P130">
         <v>100</v>
       </c>
       <c r="T130" t="s">
-        <v>604</v>
+        <v>609</v>
+      </c>
+      <c r="V130" t="s">
+        <v>614</v>
+      </c>
+      <c r="W130">
+        <v>2</v>
       </c>
       <c r="Z130" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>616</v>
+      </c>
+      <c r="AC130" t="s">
         <v>609</v>
-      </c>
-      <c r="AA130" t="s">
-        <v>610</v>
       </c>
       <c r="AD130">
         <v>4</v>
@@ -7795,512 +7864,521 @@
     </row>
     <row r="131" spans="1:32">
       <c r="A131">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
       <c r="C131" t="s">
-        <v>567</v>
-      </c>
-      <c r="G131" t="s">
-        <v>568</v>
-      </c>
-      <c r="H131">
-        <v>125</v>
-      </c>
-      <c r="I131">
+        <v>532</v>
+      </c>
+      <c r="M131">
+        <v>100</v>
+      </c>
+      <c r="N131">
+        <v>25</v>
+      </c>
+      <c r="O131">
         <v>1000</v>
       </c>
-      <c r="M131">
-        <v>75</v>
-      </c>
-      <c r="N131">
-        <v>10</v>
-      </c>
-      <c r="O131">
-        <v>200</v>
-      </c>
       <c r="P131">
         <v>100</v>
       </c>
       <c r="T131" t="s">
-        <v>608</v>
+        <v>613</v>
+      </c>
+      <c r="V131" t="s">
+        <v>614</v>
+      </c>
+      <c r="W131">
+        <v>4</v>
       </c>
       <c r="Z131" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="AA131" t="s">
-        <v>612</v>
+        <v>619</v>
+      </c>
+      <c r="AD131">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:32">
       <c r="A132">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C132" t="s">
-        <v>510</v>
-      </c>
-      <c r="E132" t="s">
-        <v>598</v>
+        <v>421</v>
       </c>
       <c r="M132">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="N132">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O132">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P132">
         <v>100</v>
       </c>
       <c r="T132" t="s">
-        <v>509</v>
+        <v>617</v>
+      </c>
+      <c r="V132" t="s">
+        <v>614</v>
+      </c>
+      <c r="W132">
+        <v>5</v>
       </c>
       <c r="Z132" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="AA132" t="s">
-        <v>615</v>
-      </c>
-      <c r="AC132" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="AD132">
         <v>4</v>
       </c>
-      <c r="AE132" t="s">
-        <v>510</v>
-      </c>
-      <c r="AF132">
-        <v>5</v>
-      </c>
     </row>
     <row r="133" spans="1:32">
       <c r="A133">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B133" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C133" t="s">
-        <v>510</v>
+        <v>589</v>
+      </c>
+      <c r="E133" t="s">
+        <v>584</v>
+      </c>
+      <c r="H133">
+        <v>125</v>
+      </c>
+      <c r="I133">
+        <v>100</v>
       </c>
       <c r="M133">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N133">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O133">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P133">
         <v>100</v>
       </c>
       <c r="T133" t="s">
-        <v>613</v>
+        <v>531</v>
       </c>
       <c r="Z133" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="AA133" t="s">
-        <v>618</v>
+        <v>625</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>584</v>
       </c>
       <c r="AD133">
         <v>4</v>
       </c>
-      <c r="AE133" t="s">
-        <v>510</v>
-      </c>
-      <c r="AF133">
-        <v>10</v>
-      </c>
     </row>
     <row r="134" spans="1:32">
       <c r="A134">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B134" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C134" t="s">
-        <v>510</v>
+        <v>589</v>
+      </c>
+      <c r="G134" t="s">
+        <v>627</v>
+      </c>
+      <c r="H134">
+        <v>125</v>
+      </c>
+      <c r="I134">
+        <v>500</v>
       </c>
       <c r="M134">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N134">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O134">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P134">
         <v>100</v>
       </c>
       <c r="T134" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="Z134" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="AA134" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="AD134">
         <v>4</v>
       </c>
-      <c r="AE134" t="s">
-        <v>510</v>
-      </c>
-      <c r="AF134">
-        <v>15</v>
-      </c>
     </row>
     <row r="135" spans="1:32">
       <c r="A135">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B135" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="C135" t="s">
-        <v>510</v>
+        <v>589</v>
+      </c>
+      <c r="H135">
+        <v>125</v>
+      </c>
+      <c r="I135">
+        <v>500</v>
       </c>
       <c r="M135">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N135">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O135">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P135">
         <v>100</v>
       </c>
       <c r="T135" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="Z135" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="AA135" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="AD135">
         <v>4</v>
       </c>
-      <c r="AE135" t="s">
-        <v>510</v>
-      </c>
-      <c r="AF135">
-        <v>20</v>
-      </c>
     </row>
     <row r="136" spans="1:32">
       <c r="A136">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B136" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="C136" t="s">
-        <v>510</v>
-      </c>
-      <c r="L136" t="s">
-        <v>626</v>
+        <v>589</v>
+      </c>
+      <c r="G136" t="s">
+        <v>590</v>
+      </c>
+      <c r="H136">
+        <v>125</v>
+      </c>
+      <c r="I136">
+        <v>1000</v>
       </c>
       <c r="M136">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N136">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O136">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P136">
         <v>100</v>
       </c>
       <c r="T136" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="Z136" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="AA136" t="s">
-        <v>628</v>
-      </c>
-      <c r="AD136">
-        <v>4</v>
-      </c>
-      <c r="AE136" t="s">
-        <v>510</v>
-      </c>
-      <c r="AF136">
-        <v>25</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:32">
       <c r="A137">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C137" t="s">
-        <v>510</v>
-      </c>
-      <c r="D137" t="s">
-        <v>630</v>
+        <v>532</v>
       </c>
       <c r="E137" t="s">
-        <v>582</v>
-      </c>
-      <c r="H137">
-        <v>125</v>
-      </c>
-      <c r="I137">
-        <v>25000</v>
+        <v>620</v>
       </c>
       <c r="M137">
+        <v>175</v>
+      </c>
+      <c r="N137">
         <v>75</v>
       </c>
-      <c r="N137">
-        <v>10</v>
-      </c>
       <c r="O137">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P137">
         <v>100</v>
       </c>
-      <c r="S137">
-        <v>1</v>
+      <c r="T137" t="s">
+        <v>531</v>
       </c>
       <c r="Z137" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA137" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB137" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="AC137" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="AD137">
         <v>4</v>
       </c>
+      <c r="AE137" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138" spans="1:32">
       <c r="A138">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C138" t="s">
-        <v>510</v>
-      </c>
-      <c r="G138" t="s">
-        <v>634</v>
-      </c>
-      <c r="H138">
-        <v>125</v>
-      </c>
-      <c r="I138">
-        <v>5000</v>
+        <v>532</v>
       </c>
       <c r="M138">
+        <v>175</v>
+      </c>
+      <c r="N138">
         <v>75</v>
       </c>
-      <c r="N138">
-        <v>10</v>
-      </c>
       <c r="O138">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P138">
         <v>100</v>
       </c>
       <c r="T138" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="Z138" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="AA138" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="AD138">
         <v>4</v>
       </c>
+      <c r="AE138" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF138">
+        <v>10</v>
+      </c>
     </row>
     <row r="139" spans="1:32">
       <c r="A139">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C139" t="s">
-        <v>510</v>
-      </c>
-      <c r="G139" t="s">
+        <v>532</v>
+      </c>
+      <c r="M139">
+        <v>175</v>
+      </c>
+      <c r="N139">
+        <v>75</v>
+      </c>
+      <c r="O139">
+        <v>2000</v>
+      </c>
+      <c r="P139">
+        <v>100</v>
+      </c>
+      <c r="T139" t="s">
         <v>638</v>
       </c>
-      <c r="H139">
-        <v>125</v>
-      </c>
-      <c r="I139">
-        <v>10000</v>
-      </c>
-      <c r="M139">
-        <v>75</v>
-      </c>
-      <c r="N139">
-        <v>10</v>
-      </c>
-      <c r="P139">
-        <v>100</v>
-      </c>
-      <c r="T139" t="s">
-        <v>633</v>
-      </c>
-      <c r="U139" t="s">
-        <v>639</v>
-      </c>
       <c r="Z139" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AA139" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AD139">
         <v>4</v>
       </c>
+      <c r="AE139" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF139">
+        <v>15</v>
+      </c>
     </row>
     <row r="140" spans="1:32">
       <c r="A140">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C140" t="s">
-        <v>510</v>
-      </c>
-      <c r="G140" t="s">
-        <v>643</v>
-      </c>
-      <c r="H140">
-        <v>125</v>
-      </c>
-      <c r="I140">
+        <v>532</v>
+      </c>
+      <c r="M140">
+        <v>175</v>
+      </c>
+      <c r="N140">
+        <v>75</v>
+      </c>
+      <c r="O140">
         <v>2000</v>
       </c>
-      <c r="O140">
-        <v>200</v>
-      </c>
       <c r="P140">
         <v>100</v>
       </c>
       <c r="T140" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="Z140" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA140" t="s">
-        <v>645</v>
+        <v>646</v>
+      </c>
+      <c r="AD140">
+        <v>4</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF140">
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:32">
       <c r="A141">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B141" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C141" t="s">
-        <v>510</v>
-      </c>
-      <c r="G141" t="s">
-        <v>647</v>
-      </c>
-      <c r="H141">
-        <v>125</v>
-      </c>
-      <c r="I141">
-        <v>20000</v>
+        <v>532</v>
+      </c>
+      <c r="L141" t="s">
+        <v>648</v>
+      </c>
+      <c r="M141">
+        <v>175</v>
+      </c>
+      <c r="N141">
+        <v>75</v>
       </c>
       <c r="O141">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P141">
         <v>100</v>
       </c>
       <c r="T141" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="Z141" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AA141" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AD141">
         <v>4</v>
       </c>
+      <c r="AE141" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF141">
+        <v>25</v>
+      </c>
     </row>
     <row r="142" spans="1:32">
       <c r="A142">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B142" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C142" t="s">
-        <v>398</v>
-      </c>
-      <c r="G142" t="s">
-        <v>651</v>
+        <v>532</v>
+      </c>
+      <c r="D142" t="s">
+        <v>652</v>
+      </c>
+      <c r="E142" t="s">
+        <v>604</v>
       </c>
       <c r="H142">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I142">
         <v>25000</v>
       </c>
       <c r="M142">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O142">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="P142">
         <v>100</v>
       </c>
-      <c r="T142" t="s">
-        <v>646</v>
+      <c r="S142">
+        <v>1</v>
       </c>
       <c r="Z142" t="s">
+        <v>653</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB142" t="s">
         <v>652</v>
       </c>
-      <c r="AA142" t="s">
-        <v>653</v>
+      <c r="AC142" t="s">
+        <v>604</v>
       </c>
       <c r="AD142">
         <v>4</v>
@@ -8308,40 +8386,43 @@
     </row>
     <row r="143" spans="1:32">
       <c r="A143">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B143" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C143" t="s">
-        <v>510</v>
-      </c>
-      <c r="E143" t="s">
-        <v>650</v>
+        <v>532</v>
       </c>
       <c r="G143" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H143">
         <v>125</v>
       </c>
       <c r="I143">
-        <v>20000</v>
+        <v>5000</v>
+      </c>
+      <c r="M143">
+        <v>75</v>
+      </c>
+      <c r="N143">
+        <v>10</v>
+      </c>
+      <c r="O143">
+        <v>200</v>
       </c>
       <c r="P143">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T143" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="Z143" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AA143" t="s">
-        <v>657</v>
-      </c>
-      <c r="AC143" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="AD143">
         <v>4</v>
@@ -8349,33 +8430,235 @@
     </row>
     <row r="144" spans="1:32">
       <c r="A144">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B144" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C144" t="s">
-        <v>510</v>
+        <v>532</v>
+      </c>
+      <c r="G144" t="s">
+        <v>660</v>
       </c>
       <c r="H144">
         <v>125</v>
       </c>
       <c r="I144">
+        <v>10000</v>
+      </c>
+      <c r="M144">
+        <v>75</v>
+      </c>
+      <c r="N144">
+        <v>10</v>
+      </c>
+      <c r="P144">
+        <v>100</v>
+      </c>
+      <c r="T144" t="s">
+        <v>655</v>
+      </c>
+      <c r="U144" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>663</v>
+      </c>
+      <c r="AD144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:32">
+      <c r="A145">
+        <v>121</v>
+      </c>
+      <c r="B145" t="s">
+        <v>664</v>
+      </c>
+      <c r="C145" t="s">
+        <v>532</v>
+      </c>
+      <c r="G145" t="s">
+        <v>665</v>
+      </c>
+      <c r="H145">
+        <v>125</v>
+      </c>
+      <c r="I145">
+        <v>2000</v>
+      </c>
+      <c r="O145">
+        <v>200</v>
+      </c>
+      <c r="P145">
+        <v>100</v>
+      </c>
+      <c r="T145" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="146" spans="1:32">
+      <c r="A146">
+        <v>122</v>
+      </c>
+      <c r="B146" t="s">
+        <v>668</v>
+      </c>
+      <c r="C146" t="s">
+        <v>532</v>
+      </c>
+      <c r="G146" t="s">
+        <v>669</v>
+      </c>
+      <c r="H146">
+        <v>125</v>
+      </c>
+      <c r="I146">
+        <v>20000</v>
+      </c>
+      <c r="O146">
+        <v>200</v>
+      </c>
+      <c r="P146">
+        <v>100</v>
+      </c>
+      <c r="T146" t="s">
+        <v>664</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>671</v>
+      </c>
+      <c r="AD146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:32">
+      <c r="A147">
+        <v>123</v>
+      </c>
+      <c r="B147" t="s">
+        <v>672</v>
+      </c>
+      <c r="C147" t="s">
+        <v>421</v>
+      </c>
+      <c r="G147" t="s">
+        <v>673</v>
+      </c>
+      <c r="H147">
+        <v>100</v>
+      </c>
+      <c r="I147">
+        <v>25000</v>
+      </c>
+      <c r="M147">
+        <v>25</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147">
+        <v>150</v>
+      </c>
+      <c r="P147">
+        <v>100</v>
+      </c>
+      <c r="T147" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>674</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:32">
+      <c r="A148">
+        <v>124</v>
+      </c>
+      <c r="B148" t="s">
+        <v>676</v>
+      </c>
+      <c r="C148" t="s">
+        <v>532</v>
+      </c>
+      <c r="E148" t="s">
+        <v>672</v>
+      </c>
+      <c r="G148" t="s">
+        <v>677</v>
+      </c>
+      <c r="H148">
+        <v>125</v>
+      </c>
+      <c r="I148">
+        <v>20000</v>
+      </c>
+      <c r="P148">
+        <v>200</v>
+      </c>
+      <c r="T148" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32">
+      <c r="A149">
+        <v>125</v>
+      </c>
+      <c r="B149" t="s">
+        <v>680</v>
+      </c>
+      <c r="C149" t="s">
+        <v>532</v>
+      </c>
+      <c r="H149">
+        <v>125</v>
+      </c>
+      <c r="I149">
         <v>30000</v>
       </c>
-      <c r="P144">
+      <c r="P149">
         <v>500</v>
       </c>
-      <c r="T144" t="s">
-        <v>654</v>
-      </c>
-      <c r="Z144" t="s">
-        <v>659</v>
-      </c>
-      <c r="AA144" t="s">
-        <v>660</v>
-      </c>
-      <c r="AD144">
+      <c r="T149" t="s">
+        <v>676</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD149">
         <v>4</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="728">
   <si>
     <t>id</t>
   </si>
@@ -2067,6 +2067,138 @@
   </si>
   <si>
     <t>You can’t seem to find a way out as the darkness starts to creep in further, as the cold and chill of these lost and corrupted memories start to settle into your soul, twisting it into something dark and all-consuming.&lt;br /&gt; &lt;br /&gt; A void starts to set in your mind.&lt;br /&gt; &lt;br /&gt; “There is something that might help.” Mr. Whiskers states as his voice grounds you back into a sense of reality and normalcy, even if it is only for a moment.&lt;br /&gt; &lt;br /&gt; You ask him what it is.&lt;br /&gt; &lt;br /&gt; “There is a wallet; I need it. it contains a picture. I can use that picture to distract The Queen and The Creator long enough for you to escape with some semblance of your sanity intact."</t>
+  </si>
+  <si>
+    <t>Madam and the Brothel</t>
+  </si>
+  <si>
+    <t>MadamTrixi</t>
+  </si>
+  <si>
+    <t>Vile of Sensual Perfume</t>
+  </si>
+  <si>
+    <t>Twisted Memories</t>
+  </si>
+  <si>
+    <t>You enter a dilapidated and worn-out town that is eerily silent, save for the laughter and voices emanating from nearby buildings. The streets are overgrown, with plant life thriving amidst the neglect. The few people who pass you by in the shadows whisper in hushed tones as they eye you warily.&lt;br /&gt; &lt;br /&gt; The women in the town, though few in number, are scantily dressed, accompanied by their inebriated male suitors who hail from the surrounding farmlands. Occasionally, you catch sight of a few holy men engaging in illicit activities with the women in the dimly lit alleys between buildings.&lt;br /&gt; &lt;br /&gt; You step into what appears to be an inn, only to find it overflowing with women laughing and dancing half-naked, while the male patrons cheer them on enthusiastically.&lt;br /&gt; &lt;br /&gt; An older woman approaches you, her gaze assessing.&lt;br /&gt; &lt;br /&gt; "You do not belong in such a place, child. What brings you to my inn?" she inquires.&lt;br /&gt; &lt;br /&gt; You scrutinize her in the dim, cacophonous establishment. She appears to be in her fifties, her makeup subdued, her hair frizzled, yet her larger form does not detract from her aging beauty.&lt;br /&gt; &lt;br /&gt; You begin to explain that you are in search of someone known as The Wandering—&lt;br /&gt; &lt;br /&gt; But she cuts you off abruptly. "Hush now, child. Speak not of such matters here. Come along; I have a private room in the back, reserved for someone as formidable as yourself."</t>
+  </si>
+  <si>
+    <t>She ushers you into a back room, ensuring the door is securely closed and checking for any signs of eavesdroppers or pursuers.&lt;br /&gt; &lt;br /&gt; Turning to face you with the door shut, she hisses, "You do not utter that name here. No one speaks that name here. I know whom you seek, and so does he. The Archbishop of The Church of God is ever vigilant in his pursuit of the man we both know."&lt;br /&gt; &lt;br /&gt; Curious, you inquire, "Why is the Archbishop searching for him?"&lt;br /&gt; &lt;br /&gt; "He is the third," she reveals, "the one who aided The Poet and The Wandering Merchant in sealing away the twisted memories of Fliniguss."&lt;br /&gt; &lt;br /&gt; You recoil, stunned by her revelation. Only recently have you learned that this world was sealed by The Poet, The Wandering Merchant, and "others." Now, you're informed that The Wandering Prince is the third crucial &lt;br /&gt; figure in that enigmatic alliance. The realization dawns on you: is this world a construct of Fliniguss's mind or his memories? That detail remains elusive at the moment.&lt;br /&gt; &lt;br /&gt; After a brief pause, you inquire further, "How do you know all this? Are you one of them? One of the puppeteers?"</t>
+  </si>
+  <si>
+    <t>The magic of the brothel</t>
+  </si>
+  <si>
+    <t>Broken Hand Mirror</t>
+  </si>
+  <si>
+    <t>She laughs at the notion, chuckles at your question, her amusement bordering on tears. "Oh, child, you truly amuse me. I am familiar with what you seek, not because I partake in their schemes, but because they dance to my tune. For I am merely a humble madam."&lt;br /&gt; &lt;br /&gt; A humble madam, yet these entities are entangled in her machinations… What game is she playing?</t>
+  </si>
+  <si>
+    <t>"I will allow you to stay here for the night. Rest, child. Another awaits to converse with you. He who tends to the graves of the departed," she informs you before departing the room.&lt;br /&gt; &lt;br /&gt; As she exits, you survey the room, noticing a bed, a small table adorned with a flickering candle. The once bustling sounds from the rest of the building have faded into silence. A peculiar sensation washes over you, &lt;br /&gt; your eyelids growing heavy. Guided by the pull of exhaustion, you make your way to the bed, sinking into the feather-stuffed pillow, slipping away into the realm of dreams.&lt;br /&gt; &lt;br /&gt; In your slumber, you witness a woman's anguished cries echoing over the lifeless body of her son, a gun lying by his side. Suddenly, his father rushes into the room, frantic shouts urging for emergency assistance. Your &lt;br /&gt; vision shifts, transitioning from one scene to another.&lt;br /&gt; &lt;br /&gt; Now, a child lies sprawled in a field, while The Poet stands nearby, observing with an intensity that pierces through the distance. As the child awakens, he discovers dried blood upon his head, yet finds no trace of injury. &lt;br /&gt; Perplexed, he calls out to The Poet.&lt;br /&gt; &lt;br /&gt; Throughout these fragmented scenes, you drift between realities. In one, a woman confronts The Poet within his home, discussing matters of choice and inevitable outcomes. She is the same woman who spoke to you.&lt;br /&gt; &lt;br /&gt; "The decision is yours, but the outcome remains unchanged. He will not ascend. We have foreseen this. We know what follows. We anticipate your every move before it even forms on your lips," she asserts.&lt;br /&gt; &lt;br /&gt; Briefly turning away, The Poet heads towards the kitchen, pausing to address her, "We are not alone." Startled, she turns to find you standing there, prompting a piercing scream that jolts you awake.&lt;br /&gt; &lt;br /&gt; Confusion clouds your mind as you ponder the significance of the vivid dream.</t>
+  </si>
+  <si>
+    <t>The Twisted Cleric</t>
+  </si>
+  <si>
+    <t>TwistedCleric</t>
+  </si>
+  <si>
+    <t>Faithless Scripture</t>
+  </si>
+  <si>
+    <t>You awaken to the morning sky stretching above you, the remnants of a ruined building surrounding you. As you sit up and survey your surroundings, it becomes evident that the structure is dilapidated, with missing upper floors and numerous breaches exposing the interior to the elements.&lt;br /&gt; &lt;br /&gt; Taking a moment to reflect on the dream that stirred you from sleep, you recall the three vivid scenes: The Creator's tragic end, his subsequent rebirth as The Child, and the enigmatic conversation between the woman from last night and The Poet. However, upon closer scrutiny, you question whether you truly encountered her.&lt;br /&gt; &lt;br /&gt; Pondering this uncertainty, you mull over the words exchanged between her and The Poet, piecing together fragmented memories. As your thoughts converge on the nature of this place, this plane of existence, you recall its designation as Twisted Memories. Could this dream be a distorted and fabricated recollection?&lt;br /&gt; &lt;br /&gt; Recalling her cryptic advice from the previous night about conversing with someone, you find yourself at a loss as to their identity. Yet, an instinctual intuition nudges you towards the north, hinting that your sought-after interlocutor may be found in that direction.</t>
+  </si>
+  <si>
+    <t>"You there! Whence do you hail? Whose divine guidance do you follow?" A man charges toward you, clad in clerical garb and brandishing a mace. Instinctively, you prepare for combat.&lt;br /&gt; &lt;br /&gt; As he draws near, the man halts, sensing the potent aura of magic emanating from your gear. "Enough of this. Declare your allegiance. Who is your God?"&lt;br /&gt; &lt;br /&gt; Summoning a falsehood, you respond, "The one true God."&lt;br /&gt; &lt;br /&gt; "You deceive yourself as you deceive others. You are a godless heathen, spawned from that accursed town, aren't you? I can detect the stench of its corruption upon you," he accuses.&lt;br /&gt; &lt;br /&gt; You clarify that the town lies in ruins now.&lt;br /&gt; &lt;br /&gt; "That's what she wants you to believe. She anticipates your every move before you even conceive it. I know this because she has crafted the path you tread," he reveals.&lt;br /&gt; &lt;br /&gt; Has she fashioned you as well?&lt;br /&gt; &lt;br /&gt; "In a manner of speaking," he admits.&lt;br /&gt; &lt;br /&gt; Perplexed, you inquire, Who is she?</t>
+  </si>
+  <si>
+    <t>Bloody white armour</t>
+  </si>
+  <si>
+    <t>Shattered Mace of The Holy</t>
+  </si>
+  <si>
+    <t>He remains silent, pivoting away from you and retracing his steps toward the church where your paths first crossed on your journey northward.&lt;br /&gt; &lt;br /&gt; You explain your quest to find someone as instructed by the enigmatic woman you encountered. Perhaps he possesses knowledge that could aid you.&lt;br /&gt; &lt;br /&gt; "I am privy to only that which she deems fit to divulge. I know naught but the barren expanse that surrounds us. She instructed you to seek out that which remains unknown to you. That is your sole directive," he responds.&lt;br /&gt; &lt;br /&gt; Baffled, you scratch your head in bewilderment. "So, I am to wander aimlessly in this desolate wasteland?"&lt;br /&gt; &lt;br /&gt; He shakes his head solemnly. "This land offers no refuge for godless heathens like yourself. The Archbishop will not permit you to venture beyond your current bounds."&lt;br /&gt; &lt;br /&gt; Beyond where you stand lies the north, the path to enlightenment. However, your curiosity piques regarding this enigmatic Archbishop.&lt;br /&gt; &lt;br /&gt; Inquiring about the Archbishop elicits a sudden fury from him. "You dare utter the name of The Archbishop? You bow your head in reverence when you speak of him. You venerate the very ground he treads upon!" His rage crescendos as he delivers a sharp blow across your face.&lt;br /&gt; &lt;br /&gt; "You are nothing but filth, a beast unleashed from the depths of Hell upon our land!" he spits venomously, delivering another forceful slap.&lt;br /&gt; &lt;br /&gt; Stumbling back, you brace yourself for confrontation. Yet, caught off guard, his mace connects with a powerful blow, rendering you unconscious as you collapse to the ground, blood trickling from your head.</t>
+  </si>
+  <si>
+    <t>You witness a harrowing scene unfold before you: a small child huddles in a corner of his home, tears streaming down his face. Nearby, his mother lies lifeless and bare-chested on the floor, a victim of unspeakable violence. The child's cries echo through the room, his fear rendering him immobile and inconsolable.&lt;br /&gt; &lt;br /&gt; Suddenly, a soldier clad in blood-stained white armor bursts into the room. His eyes linger on the deceased woman, a cruel smile twisting his lips as he revels in his brutality. With callous indifference, he advances toward the trembling child, seizing him by the front of his tunic and hoisting him into the air. The child's wide eyes, brimming with terror, meet the soldier's gaze.&lt;br /&gt; &lt;br /&gt; In an act of unspeakable cruelty, the soldier drives his blade into the child's abdomen. A feeble whimper escapes the child's lips as his body slackens, robbed of life and vitality.&lt;br /&gt; &lt;br /&gt; "May God show no mercy upon you or your wretched mother's soul," the soldier sneers, callously discarding the child's lifeless form beside his slain mother.&lt;br /&gt; &lt;br /&gt; You awaken abruptly, finding yourself amidst a vast field. Pain pulses through your head, a grim reminder of the horrors you've witnessed.</t>
+  </si>
+  <si>
+    <t>Godless puppet</t>
+  </si>
+  <si>
+    <t>Small wooden cross</t>
+  </si>
+  <si>
+    <t>"I see I didn't kill you," the Twisted Cleric's voice pierces through your still-spinning senses. "It's a shame, child."&lt;br /&gt; &lt;br /&gt; Gathering your wits, you meet his gaze, noting the gleam of his white armor. You confront him, accusing him of the heinous act— the murder of the mother and child.&lt;br /&gt; &lt;br /&gt; "She had it coming. She served her purpose well. But leaving behind a wailing child? That would not do," he retorts, a cruel laugh escaping his lips.&lt;br /&gt; &lt;br /&gt; Summoning your resolve, you rise to your feet, steadying yourself and invoking your own magic to mend your wounds and shield yourself from harm.&lt;br /&gt; &lt;br /&gt; "Your twisted magic won't save you, heathen," he sneers, dismissing your efforts with contempt.&lt;br /&gt; &lt;br /&gt; With defiance in your voice, you assert that the true embodiment of twistedness lies within him and the dark memories that birthed him.&lt;br /&gt; &lt;br /&gt; "Do you dare suggest that her desires are as twisted as mine? You speak out of turn, child," he snarls, launching himself at you with lethal intent.</t>
+  </si>
+  <si>
+    <t>Your magic surges around you, hurling the Twisted Cleric backward. He crashes onto his back with a loud grunt, momentarily stunned. As he struggles to his feet, your enchantments continue to radiate around you, repelling his every advance.&lt;br /&gt; &lt;br /&gt; Undeterred, he calls out to his deity, beseeching for strength to smite the witch before him. Yet once more, he is forcefully pushed back by the power of your magic.&lt;br /&gt; &lt;br /&gt; Taking advantage of his waning energy, you gradually ease off your magical assault, demanding answers about the woman and the bishop.&lt;br /&gt; &lt;br /&gt; "I divulge only what I know. My knowledge is fragmented and twisted. We wage war against rebels, slaughter liars, and convert the godless, even if by force," he confesses.&lt;br /&gt; &lt;br /&gt; Horrified, you condemn his atrocities—slaughtering children, violating women, and laying waste to entire villages. You reveal your awareness of The Federation, the intricate ties between The Church and Fliniguss, and the enigmatic role of The Arch Bishop.&lt;br /&gt; &lt;br /&gt; You mention The Poet, The Wandering Merchant, and the mysterious "others" who sealed this world away, withholding information about your true pursuit: The Wandering Prince.&lt;br /&gt; &lt;br /&gt; "You possess knowledge beyond your station. Forces beyond comprehension are at play here, yet she does not grant me insight into their nature. Fliniguss and The Arch Bishop forged a profitable alliance, but it was &lt;br /&gt; Fliniguss who succumbed to madness and fractured his own mind. His demise, if one could call it that, mirrors The Shattering you spoke of," he reveals, his voice tinged with uncertainty.&lt;br /&gt; &lt;br /&gt; He walks over to a boulder sticking out of the grassy hills and rests his mace beside it while slowly sitting down. It is clear that his attempts to best you, have done a number to his body.&lt;br /&gt; &lt;br /&gt; “I am a cleric, a soldier of this world. I am a man who is in service of not just The Federation but the Church of God.” He gestures behind him to the church in the distance.&lt;br /&gt; &lt;br /&gt; “I am here in service of The Arch Bishop. You are here in service of those without names. Those with guises.”&lt;br /&gt; &lt;br /&gt; He pauses and spits out blood and a tooth.&lt;br /&gt; &lt;br /&gt; “You are the puppet, the godless puppet.”&lt;br /&gt; &lt;br /&gt; He looks at you with hate in his eyes.</t>
+  </si>
+  <si>
+    <t>Haunting Visions of Death</t>
+  </si>
+  <si>
+    <t>LonleyRedHawkSoldier</t>
+  </si>
+  <si>
+    <t>Dry Firewood</t>
+  </si>
+  <si>
+    <t>Standing amidst the desolation, you survey your surroundings. The Twisted Cleric remains behind, seated upon his stone, consumed by the venom of his words and the torment within his gaze—an embodiment of his twisted convictions.&lt;br /&gt; &lt;br /&gt; He is a figure of darkness and derangement, capable of unspeakable atrocities, perpetuating his malevolence even beyond the confines of life itself.&lt;br /&gt; &lt;br /&gt; As you tread through the barren expanse, you journey for miles until you reach the verge of a lifeless forest. Ahead, the flickering glow of a dying campfire beckons, casting feeble light upon a solitary figure seated in the distance. Determined, you make your way toward him.</t>
+  </si>
+  <si>
+    <t>The man remains seated by the dwindling flames, his attention fixed on the dying embers. He makes no effort to acknowledge your presence or engage in conversation as you draw near.&lt;br /&gt; &lt;br /&gt; With a sense of empathy, you offer to replenish the fire with more wood, but he intervenes, halting your gesture with a solemn hand.&lt;br /&gt; &lt;br /&gt; Slowly, he lifts his gaze, revealing eyes haunted by unspeakable horrors. Despite his youth and outward comeliness, his countenance is marked by profound anguish and shattered resolve.&lt;br /&gt; &lt;br /&gt; "They're all dead," he declares, the words heavy with despair. The terror reflected in his eyes leaves an indelible imprint upon your consciousness, a haunting specter that lingers long after you depart.</t>
+  </si>
+  <si>
+    <t>Reality of the situation</t>
+  </si>
+  <si>
+    <t>Bloody Shield</t>
+  </si>
+  <si>
+    <t>Surveying the desolate landscape, you search for the bodies, pondering if they lie elsewhere—perhaps on a distant battlefield, abandoned to the scavenging crows.&lt;br /&gt; &lt;br /&gt; Seeking clarification, you inquire about his grim proclamation, attempting to offer solace with the gentleness of your voice. Yet, your efforts are met with a frenzied scream.&lt;br /&gt; &lt;br /&gt; "NO! THEY ARE ALL DEAD. BURN THE WOOD AND SEE!" he exclaims, releasing your hand abruptly. The wood tumbles onto the dying flames, igniting a sudden blaze that illuminates the horror before you.&lt;br /&gt; &lt;br /&gt; Amidst the trembling man's anguished cries, you witness the grim tableau—the scattered remains of fallen soldiers. Limbs severed, heads missing, torsos rent asunder, the blood-soaked earth bearing witness to &lt;br /&gt; unspeakable carnage. Arrows protrude from some, while others still clutch their weapons and shields, frozen in eternal combat. The lifeless forms of Red Hawk Soldiers lay strewn in profusion, their numbers surpassing comprehension.&lt;br /&gt; &lt;br /&gt; As the flames subside, their transient warmth fading, the man sinks back to the ground, his head cradled in his hands, tears flowing uncontrollably.&lt;br /&gt; &lt;br /&gt; "They are all dead," he repeats amidst his lament, a haunting refrain echoing through the desolation.</t>
+  </si>
+  <si>
+    <t>What happened? you inquire, your voice laden with concern.&lt;br /&gt; &lt;br /&gt; The man takes a moment to collect himself before meeting your gaze. "I told you. They are all dead.&lt;br /&gt; &lt;br /&gt; It's my fault. It's always my fault. Or is it his fault? I don't know. He had me in the throes of passion when they attacked. They slaughtered them one by one. Maybe he was manipulated, maybe I was manipulated—either &lt;br /&gt; way, I don't know who to blame."&lt;br /&gt; &lt;br /&gt; Blame for what? Who is he? you ask.&lt;br /&gt; &lt;br /&gt; "You do not speak the name of the beast that prowls the depths of sorrow," he murmurs, averting his gaze once more.&lt;br /&gt; &lt;br /&gt; "I am trapped in this twisted nightmare of reliving their death over and over again as punishment, aren't I?" he asks after a moment's pause, his voice tinged with despair.&lt;br /&gt; &lt;br /&gt; You find yourself at a loss for words, unsure of how to respond to such profound anguish.&lt;br /&gt; &lt;br /&gt; "Or are you trapped? Whose nightmare ensnares whom? Who manipulated whom?" he muses, his words laced with uncertainty.&lt;br /&gt; &lt;br /&gt; You ponder what your next move should be, but how do you handle all of this trauma dumping? It’s exhausting. People die, in horrific ways sometimes, but how do you stop your self from becoming so ingrained in it that &lt;br /&gt; you can’t even tell your self apart from the pain and lingering shadows of others pain?</t>
+  </si>
+  <si>
+    <t>Dreams inside of Dreams</t>
+  </si>
+  <si>
+    <t>Vile of the ocean</t>
+  </si>
+  <si>
+    <t>You depart from the tormented soul, his anguish too heavy a burden to carry alongside the myriad other traumas haunting this world. Death, devastation, suffering, and despair—these themes echo throughout the lives of those you encounter. Each one bears their own baggage, a weight they struggle to bear and often use to infect other worlds with corruption. It seems that this world, once known as The Old World but now dubbed &lt;br /&gt; Surface, serves as a crucible for facing and releasing one's trauma, transcending it to find peace.&lt;br /&gt; &lt;br /&gt; Contemplating the roles of The Poet and The Wandering Merchant, along with the enigmatic "others," you recognize them as guides, beings beyond mortal comprehension, manipulating the threads of fate within &lt;br /&gt; Surface. The cataclysmic events—the demise of Fliniguss and the thwarted Ascension of The Child—resulted in the shattering of Surface, trapping the twisted delusions within it. Yet, Fliniguss himself remains ensnared &lt;br /&gt; in another realm, known as Twisted Delusions.&lt;br /&gt; &lt;br /&gt; Your quest now centers on The Wandering Prince, sealed within his own world, as curiosity tugs at your thoughts, urging you to uncover the secrets beyond the gate. Equally compelling is the pursuit of Fliniguss, for his &lt;br /&gt; insight into The Poet's machinations and the manipulations of the nameless entities.&lt;br /&gt; &lt;br /&gt; Then, a realization dawns upon you. The woman you encountered possesses knowledge far beyond the norm for this plane, hinting at a deeper connection to the mysteries that shroud this world.</t>
+  </si>
+  <si>
+    <t>You return to the town where you encountered the enigmatic Madam, standing amidst the desolate ruins of the brothel-turned-inn. An eerie silence envelops the entire town, casting a palpable sense of emptiness around you.&lt;br /&gt; &lt;br /&gt; Settling onto a dilapidated pillow, the straw within rotted and worn, you close your eyes in an attempt to summon the dreams once more, hoping to beckon forth the elusive figure.&lt;br /&gt; &lt;br /&gt; Hours drift by in a haze until the stirrings of music and the fragrance of incense rouse you from your slumber. Startled, you sit up, scanning the room to find the Madam standing before your bed.&lt;br /&gt; &lt;br /&gt; "About time, child. You've slept the day away!" she exclaims with a hint of amusement in her voice.&lt;br /&gt; &lt;br /&gt; As you grapple with the surreal nature of your surroundings, a lingering question gnaws at your mind: In which dream do you truly reside?</t>
+  </si>
+  <si>
+    <t>Nameless in all things</t>
+  </si>
+  <si>
+    <t>Strand of golden hair</t>
+  </si>
+  <si>
+    <t>Standing beside your bed, the heavy-set woman gazes down at you with eyes that are both gentle and resolute. Time has weathered her features, etching the story of her tumultuous past into her wrinkled countenance.&lt;br /&gt; &lt;br /&gt; She gestures for you to follow as she strides towards the door, and you trail behind her, descending the stairs of the inn and entering the bustling pub where patrons revel in song, dance, and drink, unabashedly indulging in carnal pleasures.&lt;br /&gt; &lt;br /&gt; Stepping out into the town's streets, enveloped in the crisp night air, you walk alongside her in silence. Those who pass by avert their gazes, sensing her presence and acknowledging her with a mixture of fear and respect.&lt;br /&gt; &lt;br /&gt; Reaching the docks, you find yourselves alone; the gentle lapping of water against the pier is the only sound. Casting your eyes in the direction she indicates, you discern a couple immersed in their own world of intoxication and desire within the shadows.&lt;br /&gt; &lt;br /&gt; "This is a realm of lust, desire, and gratification," she remarks solemnly. "Not a realm of darkness, trauma, and the lingering specters of past demons haunting the souls of the long-departed. You have but tasted the pain that festers within the world crafted by men, concealing yet another misstep."&lt;br /&gt; &lt;br /&gt; A misstep you forewarned The Poet of, you interject.&lt;br /&gt; "Indeed, I did. Yet did he heed the warning? Clearly not," she replies, her voice tinged with resignation.&lt;br /&gt; &lt;br /&gt; In a moment of realization, the truth crystallizes within your mind, slipping effortlessly from your lips and resonating through the night air.&lt;br /&gt; &lt;br /&gt; You are one of the nameless ones.&lt;br /&gt; &lt;br /&gt; A smile graces her lips in response, a silent acknowledgement of your newfound understanding.</t>
+  </si>
+  <si>
+    <t>You step back, your heart pounding with dread, and take two swift strides before turning on your heel and bolting. Every fiber of your being, every essence of your soul, screams at you to flee.&lt;br /&gt; &lt;br /&gt; Through the streets you dash, a blur of motion in the darkness, hurtling past intertwined lovers, and women crooning in the night, their forms partially or fully exposed. You surge past inebriated figures retching up their &lt;br /&gt; excesses, expelling not just their drinks but their very essence of life.&lt;br /&gt; &lt;br /&gt; Out of town, you sprint, plunging into the enveloping darkness of the wilderness. Yet, despite your frantic escape, her laughter and her presence continue to haunt you, echoing in the depths of your mind.&lt;br /&gt; &lt;br /&gt; "Ooooooh, hoooo, hooo!"</t>
+  </si>
+  <si>
+    <t>Witness to the Ascension</t>
+  </si>
+  <si>
+    <t>Papers of Ascension</t>
+  </si>
+  <si>
+    <t>"You're back." His voice resonates as you approach the stone where you left him seated. The Twisted Cleric rises and strides towards you, his body still bearing the remnants of the previous encounter's brutality.&lt;br /&gt; &lt;br /&gt; Instinctively, you prepare to summon your magic, but he gestures for you to stand down. "I cannot overcome you through sheer force, child. With you, truth is my only weapon."&lt;br /&gt; &lt;br /&gt; His words ring hollow to you. There's no truth in his vitriol and malice; his deceptions unravel easily, particularly when his zeal for his supposed faith clouds his judgment.&lt;br /&gt; &lt;br /&gt; "Have you escaped her dimension once more, or have you merely awakened in another meticulously crafted dream? Which is it?" he taunts.&lt;br /&gt; &lt;br /&gt; The uncertainty gnaws at you. "Tangled in matters beyond your control, this is why The Arch Bishop ensnared her with his alchemical sorcery," he continues, his tone tinged with doubt. "His power, his unwavering faith—&lt;br /&gt; that is what contains her. Or does it? Even I am uncertain these days about the true nature of reality."&lt;br /&gt; &lt;br /&gt; His words linger in your mind as you contemplate their implications. Does a bishop truly possess such formidable power? Could there truly be a singular deity orchestrating the machinations of these powerful beings? Or &lt;br /&gt; is she manipulating circumstances, inflating his authority for her own ends?&lt;br /&gt; &lt;br /&gt; The latter seems more plausible, given her elusive nature and the whispers of her "namelessness."</t>
+  </si>
+  <si>
+    <t>You tell the Twisted Cleric about the man at the edge of the woods.&lt;br /&gt; &lt;br /&gt; “Oh him, yes, we slaughtered his entire camp while he and The Creator were caught up in the throws of passion. We had the inside information in exchange for the release of a child named Trix.”&lt;br /&gt; &lt;br /&gt; You stand aghast. From what you heard, The Child (The Creator) was helping the Red Hawks. Instead, he literally, in every sense of the word, screwed them over for some child The Church had captured.&lt;br /&gt; &lt;br /&gt; Were they also involved? You ask after a moment.&lt;br /&gt; &lt;br /&gt; “No, it was not like that. Trix is a child who was beaten by the church. Violated beyond words, and who had escaped The Church. He was first taken in by The Church when a battalion of soldiers raided a southern town. &lt;br /&gt; When his other refused to convert, to obey, to bow down to The one true god, they violated her, they mutilated her, and left her small boy broken beyond words.”&lt;br /&gt; &lt;br /&gt; You stand there, processing all of this. When he continues:&lt;br /&gt; &lt;br /&gt; “Trix told The Child he had once witnessed what The Child came to know as The Ascension. He saw the person rise from the ground and become a great beam of light. Where the person went was unknown. Alas there &lt;br /&gt; was a great sense of peace, love, and release across the immediate land.”&lt;br /&gt; &lt;br /&gt; Trix witnessed the Ascension. How? Why? Was that the justification to save him, to give up the position of a camp where the Red Hawks were? Was he hoping he could save them, bring them out of danger, and then save them and his lover? As well as this child?</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2538,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG149"/>
+  <dimension ref="A1:AG159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2416,10 +2548,10 @@
   <cols>
     <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="44.703" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="29.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="29.421" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="48.274" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -2445,7 +2577,7 @@
     <col min="29" max="29" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="29.421" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="23.423" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -5339,7 +5471,7 @@
     </row>
     <row r="71" spans="1:33">
       <c r="A71">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
         <v>355</v>
@@ -5392,7 +5524,7 @@
     </row>
     <row r="72" spans="1:33">
       <c r="A72">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
         <v>361</v>
@@ -5433,7 +5565,7 @@
     </row>
     <row r="73" spans="1:33">
       <c r="A73">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
         <v>365</v>
@@ -5474,7 +5606,7 @@
     </row>
     <row r="74" spans="1:33">
       <c r="A74">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
         <v>370</v>
@@ -5515,7 +5647,7 @@
     </row>
     <row r="75" spans="1:33">
       <c r="A75">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
         <v>374</v>
@@ -5899,7 +6031,7 @@
     </row>
     <row r="84" spans="1:33">
       <c r="A84">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
         <v>415</v>
@@ -5940,7 +6072,7 @@
     </row>
     <row r="85" spans="1:33">
       <c r="A85">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
         <v>419</v>
@@ -5978,7 +6110,7 @@
     </row>
     <row r="86" spans="1:33">
       <c r="A86">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B86" t="s">
         <v>422</v>
@@ -6016,7 +6148,7 @@
     </row>
     <row r="87" spans="1:33">
       <c r="A87">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
         <v>426</v>
@@ -6412,7 +6544,7 @@
     </row>
     <row r="96" spans="1:33">
       <c r="A96">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
         <v>357</v>
@@ -6465,7 +6597,7 @@
     </row>
     <row r="97" spans="1:33">
       <c r="A97">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
         <v>470</v>
@@ -6506,7 +6638,7 @@
     </row>
     <row r="98" spans="1:33">
       <c r="A98">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
         <v>474</v>
@@ -6535,7 +6667,7 @@
     </row>
     <row r="99" spans="1:33">
       <c r="A99">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B99" t="s">
         <v>478</v>
@@ -6576,7 +6708,7 @@
     </row>
     <row r="100" spans="1:33">
       <c r="A100">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
         <v>356</v>
@@ -7048,7 +7180,7 @@
         <v>524</v>
       </c>
       <c r="Y111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA111" t="s">
         <v>530</v>
@@ -8673,6 +8805,413 @@
       </c>
       <c r="AE149">
         <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>684</v>
+      </c>
+      <c r="C150" t="s">
+        <v>685</v>
+      </c>
+      <c r="E150" t="s">
+        <v>374</v>
+      </c>
+      <c r="F150" t="s">
+        <v>355</v>
+      </c>
+      <c r="G150">
+        <v>10</v>
+      </c>
+      <c r="H150" t="s">
+        <v>686</v>
+      </c>
+      <c r="N150">
+        <v>500000</v>
+      </c>
+      <c r="O150">
+        <v>500000</v>
+      </c>
+      <c r="P150">
+        <v>2000000000</v>
+      </c>
+      <c r="Q150">
+        <v>175000</v>
+      </c>
+      <c r="T150">
+        <v>1</v>
+      </c>
+      <c r="W150" t="s">
+        <v>687</v>
+      </c>
+      <c r="X150">
+        <v>5</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>689</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF150" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>690</v>
+      </c>
+      <c r="C151" t="s">
+        <v>685</v>
+      </c>
+      <c r="H151" t="s">
+        <v>691</v>
+      </c>
+      <c r="N151">
+        <v>500000</v>
+      </c>
+      <c r="O151">
+        <v>500000</v>
+      </c>
+      <c r="P151">
+        <v>2000000000</v>
+      </c>
+      <c r="Q151">
+        <v>175000</v>
+      </c>
+      <c r="U151" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF151" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>694</v>
+      </c>
+      <c r="C152" t="s">
+        <v>695</v>
+      </c>
+      <c r="H152" t="s">
+        <v>696</v>
+      </c>
+      <c r="N152">
+        <v>500000</v>
+      </c>
+      <c r="O152">
+        <v>500000</v>
+      </c>
+      <c r="P152">
+        <v>2000000000</v>
+      </c>
+      <c r="Q152">
+        <v>175000</v>
+      </c>
+      <c r="U152" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>697</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>698</v>
+      </c>
+      <c r="AF152" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>699</v>
+      </c>
+      <c r="C153" t="s">
+        <v>695</v>
+      </c>
+      <c r="H153" t="s">
+        <v>700</v>
+      </c>
+      <c r="N153">
+        <v>500000</v>
+      </c>
+      <c r="O153">
+        <v>500000</v>
+      </c>
+      <c r="P153">
+        <v>2000000000</v>
+      </c>
+      <c r="Q153">
+        <v>175000</v>
+      </c>
+      <c r="U153" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>701</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>703</v>
+      </c>
+      <c r="C154" t="s">
+        <v>695</v>
+      </c>
+      <c r="H154" t="s">
+        <v>704</v>
+      </c>
+      <c r="N154">
+        <v>500000</v>
+      </c>
+      <c r="O154">
+        <v>500000</v>
+      </c>
+      <c r="P154">
+        <v>2000000000</v>
+      </c>
+      <c r="Q154">
+        <v>175000</v>
+      </c>
+      <c r="U154" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>705</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>707</v>
+      </c>
+      <c r="C155" t="s">
+        <v>708</v>
+      </c>
+      <c r="E155" t="s">
+        <v>703</v>
+      </c>
+      <c r="F155" t="s">
+        <v>690</v>
+      </c>
+      <c r="H155" t="s">
+        <v>709</v>
+      </c>
+      <c r="N155">
+        <v>500000</v>
+      </c>
+      <c r="O155">
+        <v>500000</v>
+      </c>
+      <c r="P155">
+        <v>2000000000</v>
+      </c>
+      <c r="Q155">
+        <v>175000</v>
+      </c>
+      <c r="U155" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>711</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>703</v>
+      </c>
+      <c r="AF155" t="s">
+        <v>708</v>
+      </c>
+      <c r="AG155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>712</v>
+      </c>
+      <c r="C156" t="s">
+        <v>708</v>
+      </c>
+      <c r="H156" t="s">
+        <v>713</v>
+      </c>
+      <c r="N156">
+        <v>500000</v>
+      </c>
+      <c r="O156">
+        <v>500000</v>
+      </c>
+      <c r="P156">
+        <v>2000000000</v>
+      </c>
+      <c r="Q156">
+        <v>175000</v>
+      </c>
+      <c r="U156" t="s">
+        <v>707</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>708</v>
+      </c>
+      <c r="AG156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>716</v>
+      </c>
+      <c r="C157" t="s">
+        <v>685</v>
+      </c>
+      <c r="H157" t="s">
+        <v>717</v>
+      </c>
+      <c r="U157" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>719</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>720</v>
+      </c>
+      <c r="C158" t="s">
+        <v>685</v>
+      </c>
+      <c r="H158" t="s">
+        <v>721</v>
+      </c>
+      <c r="U158" t="s">
+        <v>716</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>723</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG158">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>724</v>
+      </c>
+      <c r="C159" t="s">
+        <v>695</v>
+      </c>
+      <c r="H159" t="s">
+        <v>725</v>
+      </c>
+      <c r="N159">
+        <v>500000</v>
+      </c>
+      <c r="O159">
+        <v>500000</v>
+      </c>
+      <c r="P159">
+        <v>2000000000</v>
+      </c>
+      <c r="Q159">
+        <v>175000</v>
+      </c>
+      <c r="U159" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>726</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG159">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="750">
   <si>
     <t>id</t>
   </si>
@@ -2141,7 +2141,7 @@
     <t>Haunting Visions of Death</t>
   </si>
   <si>
-    <t>LonleyRedHawkSoldier</t>
+    <t>LonelyRedHawkSoldier</t>
   </si>
   <si>
     <t>Dry Firewood</t>
@@ -2199,6 +2199,72 @@
   </si>
   <si>
     <t>You tell the Twisted Cleric about the man at the edge of the woods.&lt;br /&gt; &lt;br /&gt; “Oh him, yes, we slaughtered his entire camp while he and The Creator were caught up in the throws of passion. We had the inside information in exchange for the release of a child named Trix.”&lt;br /&gt; &lt;br /&gt; You stand aghast. From what you heard, The Child (The Creator) was helping the Red Hawks. Instead, he literally, in every sense of the word, screwed them over for some child The Church had captured.&lt;br /&gt; &lt;br /&gt; Were they also involved? You ask after a moment.&lt;br /&gt; &lt;br /&gt; “No, it was not like that. Trix is a child who was beaten by the church. Violated beyond words, and who had escaped The Church. He was first taken in by The Church when a battalion of soldiers raided a southern town. &lt;br /&gt; When his other refused to convert, to obey, to bow down to The one true god, they violated her, they mutilated her, and left her small boy broken beyond words.”&lt;br /&gt; &lt;br /&gt; You stand there, processing all of this. When he continues:&lt;br /&gt; &lt;br /&gt; “Trix told The Child he had once witnessed what The Child came to know as The Ascension. He saw the person rise from the ground and become a great beam of light. Where the person went was unknown. Alas there &lt;br /&gt; was a great sense of peace, love, and release across the immediate land.”&lt;br /&gt; &lt;br /&gt; Trix witnessed the Ascension. How? Why? Was that the justification to save him, to give up the position of a camp where the Red Hawks were? Was he hoping he could save them, bring them out of danger, and then save them and his lover? As well as this child?</t>
+  </si>
+  <si>
+    <t>The Twisted Grave</t>
+  </si>
+  <si>
+    <t>Silver Red Hawk Badge</t>
+  </si>
+  <si>
+    <t>There's much to absorb and much to process. A child, a runaway from The Church, had witnessed an ascension. Did Madam know? These questions swirl in your mind before you settle on one man who might hold the answer: The Poet. He was present; surely he would be aware if a child observed from a distance, wouldn't he?&lt;br /&gt; &lt;br /&gt; You continue to ponder while the Twisted Cleric fixates on you. "Got a lot on your mind, do we? It's a lot to process, isn't it? Perhaps too much for you to bear, but that's not my concern. I rely on God; what do you, a heathen, have?"&lt;br /&gt; &lt;br /&gt; There's no point in dwelling on these inquiries while a deranged fanatic, also guilty of the most abhorrent murders, whispers unsettling words in your ear.</t>
+  </si>
+  <si>
+    <t>You've spent time in the wilderness, steering clear of the port and the dark enchantments that linger there. You're aware she's watching your every move – every encounter you overcome.&lt;br /&gt; &lt;br /&gt; She wouldn't dare venture beyond her port. What keeps her from venturing out here, apart from the haunting truths of her own distorted memories?&lt;br /&gt; &lt;br /&gt; Finally, you return to the bauldor where the Twisted Cleric still waits. It's evident he's expecting you, written all over his face.&lt;br /&gt; &lt;br /&gt; "Child, I know of someone you could consult. A digger of the earth, a keeper of the dead."&lt;br /&gt; &lt;br /&gt; Curious, you ask for more details.&lt;br /&gt; &lt;br /&gt; "The Grave Digger, of course," he chuckles.</t>
+  </si>
+  <si>
+    <t>The Grave Digger</t>
+  </si>
+  <si>
+    <t>GraveDigger</t>
+  </si>
+  <si>
+    <t>Brothers Chipped Sword</t>
+  </si>
+  <si>
+    <t>Long ago, it was told – a Red Hawk Soldier perished in a battle, caught unawares by its ferocity. A battle that exacted more from him than he realized. Legend has it that this Soldier was interred in the depths of his own anguish, tormented by echoes of days gone by.&lt;br /&gt; &lt;br /&gt; It's also whispered that his brother tends to his grave, a solitary resting place. His sibling maintains the plot, trimming the grass short and polishing the gravestone crafted from scraps of marble with his own hands.&lt;br /&gt; &lt;br /&gt; As you tread the path toward the desolate grave, you mull over the tale recounted by the Twisted Cleric. You ponder whether this fallen soldier could be the same Lonely Red Hawk Soldier you encountered – the one &lt;br /&gt; haunted by trauma, the one betrayed by The Child. Could they be one and the same? Is he truly deceased, or merely a specter? Could everyone here be among the departed?</t>
+  </si>
+  <si>
+    <t>You stand solemnly before the grave, enveloped in silence. The air hangs still, the sky serene and unblemished. From the nearby shadows emerges a man, who strides forth to join you. After a moment's quietude, he speaks in a husky yet gentle voice: "My brother lies here."&lt;br /&gt; &lt;br /&gt; He gazes at you intently, though your eyes remain averted, fixed upon the ground. "My father slew him."&lt;br /&gt; &lt;br /&gt; Perplexed, you inquire, But why?&lt;br /&gt; &lt;br /&gt; "He defied an order. Refused to harm the children of the church. He reminded our father that we, the Red Hawks, exist to free the oppressed."&lt;br /&gt; &lt;br /&gt; With a heavy heart, he continues, stepping past the grave to gaze at the night sky. "My brother adored the stars. Hence, I laid him to rest here, upon these lofty hills."&lt;br /&gt; &lt;br /&gt; Curious, you press further, And how did your father respond to your brother's rationale?&lt;br /&gt; &lt;br /&gt; Turning back to you, the man's gaze is somber. "He impaled him with a sword, branding him a traitor."&lt;br /&gt; &lt;br /&gt; As you absorb the weight of his words, a haunting question lingers in your mind: Why must every tale conclude in death?</t>
+  </si>
+  <si>
+    <t>The running theme</t>
+  </si>
+  <si>
+    <t>Musty Childs Teddy bare</t>
+  </si>
+  <si>
+    <t>It's been several days since you parted ways with the Lonely Red Hawk Soldier, initially perceived as a mere apparition of the man interred in this very grave, only to discover that he was indeed a deceased Red Hawk &lt;br /&gt; Soldier, slain by his own desire of flesh.&lt;br /&gt; &lt;br /&gt; Death casts its long shadow over this realm, as it does across all planes of existence. Briefly, you ponder whether death serves as the central motif of this reality, as your own life seems entwined with a recurring theme &lt;br /&gt; of death. Moving through the narratives of others, seeking answers, only to find yourself inundated with information that has thus far led you down a path fraught with more death and desolation.&lt;br /&gt; &lt;br /&gt; In the past few days, you've lingered near the grave, setting up camp not far away. The man who introduced himself as the Grave Digger tends to this solitary resting place, although a grieving brother would have been a &lt;br /&gt; more fitting moniker. Yet another individual, another entity unable to release their grip on loss.&lt;br /&gt; &lt;br /&gt; It seems yet another theme has revealed itself.</t>
+  </si>
+  <si>
+    <t>The rain beats down relentlessly, your makeshift shelter holding back the water but not the chill of the damp air. It has been raining steadily for days now. Seated within your shelter, you gaze out into the downpour. The &lt;br /&gt; Grave Digger approaches, standing in the rain. You motion for him to come in from the deluge and join you by the fire at the shelter's entrance.&lt;br /&gt; &lt;br /&gt; "They say it's the tears of pain that fall from the sky. God's sorrow," he murmurs.&lt;br /&gt; &lt;br /&gt; You sit together in silence, the only sounds the patter of rain and the crackle of the firewood. Eventually, you break the quietude, inquiring about what he knows of The Madam, of Trix, of the Lonely Red Hawk Soldier.&lt;br /&gt; &lt;br /&gt; He meets your gaze squarely and replies, "More than you care to learn."&lt;br /&gt; &lt;br /&gt; Intrigued, you press further. "Tell me about Trix. About the man who failed to ascend."&lt;br /&gt; &lt;br /&gt; "Trix witnessed a man who met a similar fate, unable to ascend," he reveals. "Unlike The Child, he wasn't imprisoned. Instead, he roamed the land, succumbing to the darkness within his own mind."&lt;br /&gt; &lt;br /&gt; A man who failed to ascend, yet remains here. It dawns on you that perhaps all of you were confined for a reason.&lt;br /&gt; &lt;br /&gt; "Not so, child!" His voice brims with frustration. "We are not mere embodiments of corruption. We are the repercussions of sealing away The Shattering. We are as tangible as you, yet victims ensnared in the turmoil of &lt;br /&gt; war, echoes of a bygone conflict."&lt;br /&gt; &lt;br /&gt; His words hang heavy in the air, punctuated only by the relentless drumming of rain on the shelter's roof. You peer out into the sodden landscape, allowing the rhythm of the rainfall to drown out the world beyond.</t>
+  </si>
+  <si>
+    <t>Depesperate to escape</t>
+  </si>
+  <si>
+    <t>Black and Silver Ever Living Rose</t>
+  </si>
+  <si>
+    <t>The truth hangs heavy in the post-rain air, though the chill lingers, carrying with it the echoes of the past, however distorted they may be.&lt;br /&gt; &lt;br /&gt; Your mind drifts back to your original purpose: finding the Wandering Prince. Spotting the Grave Digger by his brother's grave, you approach and stand beside him. After a pause, he speaks: "She knows."&lt;br /&gt; &lt;br /&gt; She? You inquire, realizing he means The Madam. She knows. But what does she know?&lt;br /&gt; &lt;br /&gt; "Your true purpose for venturing into this warped and shattered prison. One that failed to confine him." He fixes his gaze on you. "Fliniguss." The name reverberates through your thoughts, sparking a flurry of questions.&lt;br /&gt; &lt;br /&gt; Could Fliniguss be connected to the Wandering Prince? Your thoughts race as you share your concerns with the Grave Digger.&lt;br /&gt; &lt;br /&gt; "I'm aware of her and her twisted sorcery," he responds after a moment. "She distorts reality, ensnaring those she encounters with her words. She'll manipulate you, prey on your deepest desires."&lt;br /&gt; &lt;br /&gt; Your mind reels. What's her endgame? You voice the question that weighs heavily on your thoughts.&lt;br /&gt; &lt;br /&gt; "To break free," he answers solemnly. "To tear through the very fabric of space and time that separates this realm of magic from what you perceive as reality."&lt;br /&gt; &lt;br /&gt; Why do you not intervene? The question escapes your lips, laden with uncertainty.&lt;br /&gt; &lt;br /&gt; "The bishop restrains her power, for now," he explains. "The rest of us are bound by our own pasts, trapped in stone by memories that haunt and ensnare. She exploits this, using our weaknesses to her advantage. Thus &lt;br /&gt; far, she's managed to penetrate even his twisted delusions."&lt;br /&gt; &lt;br /&gt; Why? It's a question that echoes within you, haunting every step of your journey.</t>
+  </si>
+  <si>
+    <t>The enigma of the bishop weighs heavily on your mind – once a confidant and political ally, even a partner to Fliniguss in his crusade to subjugate the free populace under a regime of oppression, religious tyranny, and death. No wonder the specter of the past looms so large, refusing to loosen its grip. No wonder the wounds of old refuse to heal, as they are constantly reopened by the ongoing oppression.&lt;br /&gt; &lt;br /&gt; The Poet, The Wandering Merchant, and The Wandering Prince – all ensnared in various planes when reality fractured due to The Child's refusal to ascend, her refusal to let go. But there's another figure, one left to his &lt;br /&gt; own devices, descending into alcoholism. How is it that his failure to ascend did not trigger the cataclysmic shattering of reality, akin to The Child's defiance?&lt;br /&gt; &lt;br /&gt; You pose this question to the Grave Digger.&lt;br /&gt; &lt;br /&gt; "The Drunk? He was denied ascension," he replies solemnly.&lt;br /&gt; &lt;br /&gt; Denied? The word reverberates in your mind. Why? How?</t>
+  </si>
+  <si>
+    <t>Puppet in her game</t>
+  </si>
+  <si>
+    <t>Emerald Chipped Ring</t>
+  </si>
+  <si>
+    <t>Old Silver Flask</t>
+  </si>
+  <si>
+    <t>As morning light filters through the makeshift shelter, you emerge to find the sun casting its warm embrace upon the land, causing heat waves to ripple across the horizon.&lt;br /&gt; &lt;br /&gt; Your search for The Grave Digger yields no results; the surroundings are devoid of any sign of him. The once-tidy grave now appears neglected, overgrown with vegetation, as if it hasn't been tended to in years.&lt;br /&gt; &lt;br /&gt; Laughter breaks the silence, echoing not from a single source but from many voices. Music fills the air. Your surroundings shift, and suddenly you find yourself inside a pub – the same one you fled from, the same one &lt;br /&gt; that compelled you to sprint through the streets in desperate flight.&lt;br /&gt; &lt;br /&gt; "Well, well, well. It seems we finally have something to discuss, child," a voice remarks from behind.&lt;br /&gt; &lt;br /&gt; You turn to find the same stout woman you encountered upon your arrival, her laughter echoing with eerie familiarity.&lt;br /&gt; &lt;br /&gt; "Oooooh hooo hooo hooo!" she cackles, sending a chill down your spine.</t>
+  </si>
+  <si>
+    <t>"Child, there's no need to fear," she reassures you as you instinctively retreat. The merriment of the revelers around you persists, seemingly oblivious to your presence. They dance, they sing, they drink, lost in their own world.&lt;br /&gt; &lt;br /&gt; "You're in pursuit of the man with the emeralds, the Wandering Prince," she continues, her voice cutting through the festive din. "A man forever barred from returning home, a man who's misplaced the key." With her final &lt;br /&gt; words, your gaze fixates on the glinting emerald earring adorning her left ear.&lt;br /&gt; &lt;br /&gt; "You're seeking a man whom I hunt with a vengeance. A man who stands in the way of my escape from this desolate wasteland of mundane diversions."&lt;br /&gt; &lt;br /&gt; It dawns on you – she may be one of the Nameless, but her power is not as formidable as it's been rumored. All this time, you've been naught but a pawn in her game, much like The Poet, manipulated by beings who &lt;br /&gt; seemingly possess omniscience. Yet, she's confined to this plane, limited by her own knowledge.&lt;br /&gt; &lt;br /&gt; She claps her hands together. "The past is but clay in my hands, molded to fit my whims. You possess only the knowledge I permit, to aid me in resolving my dilemmas."&lt;br /&gt; &lt;br /&gt; A puppet, manipulated to solve her problems.&lt;br /&gt; &lt;br /&gt; You meet her gaze squarely. Resolve your own dilemmas. You know naught of my quest.&lt;br /&gt; &lt;br /&gt; She laughs, a chilling sound that echoes through the room. "Ooooooh hoooo hooo, child. Be wary. My retribution knows no bounds!"</t>
   </si>
 </sst>
 </file>
@@ -2538,7 +2604,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG159"/>
+  <dimension ref="A1:AG164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,7 +2617,7 @@
     <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="29.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="30.564" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="48.274" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -9214,6 +9280,229 @@
         <v>20</v>
       </c>
     </row>
+    <row r="160" spans="1:33">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>728</v>
+      </c>
+      <c r="C160" t="s">
+        <v>695</v>
+      </c>
+      <c r="E160" t="s">
+        <v>724</v>
+      </c>
+      <c r="F160" t="s">
+        <v>707</v>
+      </c>
+      <c r="H160" t="s">
+        <v>729</v>
+      </c>
+      <c r="N160">
+        <v>500000</v>
+      </c>
+      <c r="O160">
+        <v>500000</v>
+      </c>
+      <c r="P160">
+        <v>2000000000</v>
+      </c>
+      <c r="Q160">
+        <v>175000</v>
+      </c>
+      <c r="U160" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>730</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>731</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>724</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG160">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>732</v>
+      </c>
+      <c r="C161" t="s">
+        <v>733</v>
+      </c>
+      <c r="H161" t="s">
+        <v>734</v>
+      </c>
+      <c r="L161">
+        <v>150000</v>
+      </c>
+      <c r="N161">
+        <v>500000</v>
+      </c>
+      <c r="O161">
+        <v>500000</v>
+      </c>
+      <c r="P161">
+        <v>2000000000</v>
+      </c>
+      <c r="Q161">
+        <v>175000</v>
+      </c>
+      <c r="U161" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>735</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>736</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>733</v>
+      </c>
+      <c r="AG161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>737</v>
+      </c>
+      <c r="C162" t="s">
+        <v>733</v>
+      </c>
+      <c r="H162" t="s">
+        <v>738</v>
+      </c>
+      <c r="L162">
+        <v>300000</v>
+      </c>
+      <c r="N162">
+        <v>500000</v>
+      </c>
+      <c r="O162">
+        <v>500000</v>
+      </c>
+      <c r="P162">
+        <v>2000000000</v>
+      </c>
+      <c r="Q162">
+        <v>175000</v>
+      </c>
+      <c r="U162" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>739</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>740</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>733</v>
+      </c>
+      <c r="AG162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>741</v>
+      </c>
+      <c r="C163" t="s">
+        <v>733</v>
+      </c>
+      <c r="H163" t="s">
+        <v>742</v>
+      </c>
+      <c r="L163">
+        <v>500000</v>
+      </c>
+      <c r="N163">
+        <v>500000</v>
+      </c>
+      <c r="O163">
+        <v>500000</v>
+      </c>
+      <c r="P163">
+        <v>2000000000</v>
+      </c>
+      <c r="Q163">
+        <v>175000</v>
+      </c>
+      <c r="U163" t="s">
+        <v>737</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>743</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>733</v>
+      </c>
+      <c r="AG163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>745</v>
+      </c>
+      <c r="C164" t="s">
+        <v>685</v>
+      </c>
+      <c r="G164">
+        <v>15</v>
+      </c>
+      <c r="H164" t="s">
+        <v>746</v>
+      </c>
+      <c r="M164" t="s">
+        <v>747</v>
+      </c>
+      <c r="N164">
+        <v>500000</v>
+      </c>
+      <c r="O164">
+        <v>500000</v>
+      </c>
+      <c r="P164">
+        <v>2000000000</v>
+      </c>
+      <c r="Q164">
+        <v>175000</v>
+      </c>
+      <c r="U164" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>748</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>749</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="776">
   <si>
     <t>id</t>
   </si>
@@ -2265,6 +2265,84 @@
   </si>
   <si>
     <t>"Child, there's no need to fear," she reassures you as you instinctively retreat. The merriment of the revelers around you persists, seemingly oblivious to your presence. They dance, they sing, they drink, lost in their own world.&lt;br /&gt; &lt;br /&gt; "You're in pursuit of the man with the emeralds, the Wandering Prince," she continues, her voice cutting through the festive din. "A man forever barred from returning home, a man who's misplaced the key." With her final &lt;br /&gt; words, your gaze fixates on the glinting emerald earring adorning her left ear.&lt;br /&gt; &lt;br /&gt; "You're seeking a man whom I hunt with a vengeance. A man who stands in the way of my escape from this desolate wasteland of mundane diversions."&lt;br /&gt; &lt;br /&gt; It dawns on you – she may be one of the Nameless, but her power is not as formidable as it's been rumored. All this time, you've been naught but a pawn in her game, much like The Poet, manipulated by beings who &lt;br /&gt; seemingly possess omniscience. Yet, she's confined to this plane, limited by her own knowledge.&lt;br /&gt; &lt;br /&gt; She claps her hands together. "The past is but clay in my hands, molded to fit my whims. You possess only the knowledge I permit, to aid me in resolving my dilemmas."&lt;br /&gt; &lt;br /&gt; A puppet, manipulated to solve her problems.&lt;br /&gt; &lt;br /&gt; You meet her gaze squarely. Resolve your own dilemmas. You know naught of my quest.&lt;br /&gt; &lt;br /&gt; She laughs, a chilling sound that echoes through the room. "Ooooooh hoooo hooo, child. Be wary. My retribution knows no bounds!"</t>
+  </si>
+  <si>
+    <t>Looking for the Jester</t>
+  </si>
+  <si>
+    <t>JesterofTime</t>
+  </si>
+  <si>
+    <t>Delusional Memories</t>
+  </si>
+  <si>
+    <t>There are stories of a jester who speaks of the magic of time. He has the ability to show you the truth of the situation, one that has become foggy in recent days, as if you cannot remember if you visited a realm of ice when others ask.&lt;br /&gt; &lt;br /&gt; You sit in the pub, listening to The Soldier regale you with his tales of the frozen land, where he met his past face-to-face. He tells you of his travels to a realm where the world is a set of memories—memories that are faded, twisted, broken, and damaged.&lt;br /&gt; &lt;br /&gt; Something about his tale sounds off, as if you were the only one you could envision being a part of the stories he tells—as the main character.&lt;br /&gt; &lt;br /&gt; Either way, you listen on, waiting for the hints and stories of a jester. Alas, he continues on his ramblings, although he does drop one tiny piece that almost slips through your bored ears: Nameless Ones.</t>
+  </si>
+  <si>
+    <t>You have spent some time investigating a new world that has mysteriously appeared as a magical portal opened on the Surface. The Poet and The Wandering Merchant were seen nearby in the last few days, investigating the portal.&lt;br /&gt; &lt;br /&gt; Alas, you managed to sneak through and collect something for The Soldier: a vial of dirt. A single vial of dirt from an old ruin. You never stayed long enough to properly investigate, but something about this new plane of existence seems off.</t>
+  </si>
+  <si>
+    <t>Answers are needed</t>
+  </si>
+  <si>
+    <t>Federation Broach</t>
+  </si>
+  <si>
+    <t>You find The Poet in the market at Smugglers Port.&lt;br /&gt; &lt;br /&gt; “Child, it has been some time since we last spoke.”&lt;br /&gt; &lt;br /&gt; He seems older and more frail than before. His youth has escaped.&lt;br /&gt; &lt;br /&gt; You tell him about the tales that The Soldier has told you and how they felt off—like they were your tale but weren’t. You wonder if it has to do with the new Plane you recently visited, where the dirt lay that you collected.&lt;br /&gt; &lt;br /&gt; “The tales you hear are from another reality, parallel to our own. It is said in the other reality that the tales you hear in this reality are the ones you have personally lived in another reality, and that eventually the rivers of time all come to a head as they, like all of us, head to the oceans to be absorbed into their ever-flowing vastness.”&lt;br /&gt; &lt;br /&gt; Another reality. Does it have anything to do with the tale of a jester who is involved in time? Or a Nameless one?&lt;br /&gt; &lt;br /&gt; The Poet smiles and moves past you to the next stall to investigate what’s being sold. He turns to you after a moment, in the bustle of the busy market, and states:&lt;br /&gt; &lt;br /&gt; “There is much you know and do not know at the same time. I can tell you about the puppets: the Nameless Ones pull the strings of the puppets. What I can tell you is that a jester, as you call him in your tales, and a woman—a madam—are...”&lt;br /&gt; &lt;br /&gt; He pauses and looks back at an emerald necklace. He picks it up and tells the merchant he will purchase it. After the exchange, he starts to walk on, and you call after him.&lt;br /&gt; &lt;br /&gt; “Are your answers” He calls back, never looking back.&lt;br /&gt; &lt;br /&gt; He disappears into the hustle and bustle of the market. You stand there for a moment, wondering what he meant.</t>
+  </si>
+  <si>
+    <t>You have been hanging out around Smugglers Port, seeking more answers. Alas, there are none to be had here. You figure it’s time to go to this new plane of existence and figure out who this jester is and what exactly the Nameless Ones are. Are they beyond what you understand The Poet and The Wandering Merchant to be? It has been alluded to in the past that they are cosmic beings. Alas, is there something beyond them?&lt;br /&gt; &lt;br /&gt; It becomes clear to you that your answers will not be found on this plane. You head out, and in the distance, you see the shadow of a wandering man walk by. You think nothing of it. However, it claws at the back of your mind.</t>
+  </si>
+  <si>
+    <t>Why are we naked?</t>
+  </si>
+  <si>
+    <t>Clerical Tome of Prairs</t>
+  </si>
+  <si>
+    <t>“Hello there!” comes a voice.&lt;br /&gt; Y&lt;br /&gt; ou have no idea where you are, but you know you are not on the Surface anymore. You look towards the voice and see a young man dressed in a variety of colors. He is handsome, well-groomed, and his eyes bluer than the sky itself.&lt;br /&gt; &lt;br /&gt; “How are you, child?! Oh, it’s been so long since we had a visitor of these parts. Would you like a tour of our fine establishment?”&lt;br /&gt; &lt;br /&gt; He is full of energy and comes off as extremely charismatic. You explain you are looking for two people: a Nameless One and a jester of some sort.&lt;br /&gt; &lt;br /&gt; “Well, there you go, child! Wrecking all the fun.”&lt;br /&gt; &lt;br /&gt; You look at him with a puzzled look.&lt;br /&gt; &lt;br /&gt; “Does this interest you?”&lt;br /&gt; &lt;br /&gt; He stands fully naked before you. It is quite a sight.</t>
+  </si>
+  <si>
+    <t>With your back turned to him, you ask him to put clothes on.&lt;br /&gt; &lt;br /&gt; “Why? Am I not attractive enough for you? Don’t you crave me?”&lt;br /&gt; &lt;br /&gt; You tell him he looks no older than sixteen and to dress quickly so we might talk like adults. You also explain that you are not here to indulge in any fantasies, that you are searching for answers, that The Poet sent you.&lt;br /&gt; &lt;br /&gt; “You can turn around. By the way, I am not a juvenile.” His voice seems upset, a tinge of anger.&lt;br /&gt; &lt;br /&gt; You do so, and he is dressed again, still handsome, but dressed. A part of your mind regrets your choices.&lt;br /&gt; &lt;br /&gt; “I can see into the darkest recesses of your mind, child. I am the most beautiful man here. With or without clothes. You will come to see that. As for your precious jester, I know not of what you speak. As for this nameless &lt;br /&gt; nonsense – I know of a woman. A woman in a place where even your memory becomes twisted. That’s it. That’s all I know.”&lt;br /&gt; &lt;br /&gt; He seems so disappointed. He perks up for a moment and states:&lt;br /&gt; &lt;br /&gt; “I do know, I fucking hate The Poet!” He storms off.</t>
+  </si>
+  <si>
+    <t>A cleric in time</t>
+  </si>
+  <si>
+    <t>WanderingCleric</t>
+  </si>
+  <si>
+    <t>Broken Childs Doll</t>
+  </si>
+  <si>
+    <t>You try to chase after the man who appeared, undressed, and tried to distract you with his beautiful naked body—a sight you do not want to let go of. That’s when you hear that familiar laughter:&lt;br /&gt; &lt;br /&gt; “Ooooooh hoooo hoooo hoooo”&lt;br /&gt; &lt;br /&gt; It echoes in your head, one you have heard before—not from The Queen of Hearts herself in hell, I mean yes, she laughs the same way, but this laughter—this laughter has a sense of darkness about it.&lt;br /&gt; &lt;br /&gt; “Halt, child!”&lt;br /&gt; &lt;br /&gt; A voice stops you in your path, a man holding a mace and dressed in holy garb comes over to you. A knight of The Church? Working for The Federation?&lt;br /&gt; &lt;br /&gt; “What business do you have in these lands, child? Speak not a single lie, for God is watching you and he shall judge your worth based on the weight of your words and the honesty in your heathen heart.”&lt;br /&gt; &lt;br /&gt; What?&lt;br /&gt; &lt;br /&gt; You study the man for a moment, he is also very handsome. Young, like the last man you encountered—who somehow vanished in this desolate wasteland of barren earth.&lt;br /&gt; &lt;br /&gt; You explain you are lost, you encountered a man who was naked and then not naked, who tried to distract you with his “sinfulness” as you put it, almost remembering there is a game to play with these sorts.&lt;br /&gt; &lt;br /&gt; “You found my brother. Where did he go?”&lt;br /&gt; &lt;br /&gt; Your brother?</t>
+  </si>
+  <si>
+    <t>You sit by a fire the holy-looking figure has created. He explains he is known as the Wandering Cleric, for he wanders the land searching for his brother. They were separated by their mother. He was always meant to &lt;br /&gt; look after his brother, keep him on the right path, the right direction. Alas, he fell in with a mysterious man, a man who would grant his insatiable desires.&lt;br /&gt; &lt;br /&gt; He continues to explain that his mother is of another plane of existence, trapped there by a man called The Poet, his associate The Wandering Merchant, and another man—a man whose name cannot be uttered.&lt;br /&gt; &lt;br /&gt; His mother would not allow her sons to be separated from her, so in a twist of rage, she separated them from each other, making one of them always long for and search out his lost brother, while the other falls into a pit &lt;br /&gt; of sensual desires and dreams he cannot escape, manipulated by the one thing we all don’t have enough of: Time.</t>
+  </si>
+  <si>
+    <t>The mother and the curse</t>
+  </si>
+  <si>
+    <t>Dwarven Chains</t>
+  </si>
+  <si>
+    <t>Slaves Journal</t>
+  </si>
+  <si>
+    <t>You stare at the Wandering Cleric for a moment. This sounds messed up. You explain that to him in such words. He laughs.&lt;br /&gt; &lt;br /&gt; “I always know where he is. He is with: Fliniguss, his lover.”&lt;br /&gt; &lt;br /&gt; And you? You just continue to search for him, your brother. All the while, you know where he is. It confuses you.&lt;br /&gt; &lt;br /&gt; “It is my fate, child. To search out my brother, to the end of time. To search for him. To long for him.”&lt;br /&gt; &lt;br /&gt; In what way, you ask with your brow raised. This story sounds familiar to you. A brother who longs for another. Wasn’t there a soldier and his brother? A sinful, lustful fantasy?&lt;br /&gt; &lt;br /&gt; “Not to that extent, child. I do not suffer my brother's afflictions.”&lt;br /&gt; &lt;br /&gt; You think to yourself, but alas – it rolls right off your tongue: You suffer from another type of delusion, don’t you?&lt;br /&gt; &lt;br /&gt; You’re shocked at your own words. They echo in the silence of the night.&lt;br /&gt; &lt;br /&gt; The Wandering Cleric rises, walks over, and sits beside you. He puts his hand on your lap, a bit far up your lap. He whispers in your ear: “Don’t we all?”&lt;br /&gt; &lt;br /&gt; A shiver runs down your spine. The laughter floods your head: Oooooh hooo hooo hooo.</t>
+  </si>
+  <si>
+    <t>You awaken in the morning. A naked man lies on his side, full frontal – smiling at you. As you adjust your eyes, you see that it is the charismatic man you met earlier. He sure likes to be naked a lot.&lt;br /&gt; &lt;br /&gt; “Do not worry, child, I am not here for your desires or earthly pleasures. I seek out the love of my life.”&lt;br /&gt; &lt;br /&gt; He stands and dances in the morning light – fully naked, without a care in the world.&lt;br /&gt; &lt;br /&gt; You ask him about Fliniguss, his brother, and his mother. He stops dancing, and as he walks over, it's as if clothing just appears on his body. By the time he sits right in front of you, he is fully clothed.&lt;br /&gt; &lt;br /&gt; “What the heck is wrong with you?” He asks after a moment – irritated at your questions.&lt;br /&gt; &lt;br /&gt; “Can’t you just have some fun? I know you look amazing under all that armor. We don’t have to get nasty, friend, I have someone for that. Oh, the sex – it’s AMAZING!”&lt;br /&gt; &lt;br /&gt; He laughs and falls back to lay on his back.&lt;br /&gt; &lt;br /&gt; “Alas, child, you ask me all the questions I care not for. Whatever will I do with you?”</t>
+  </si>
+  <si>
+    <t>The Poet and The Wandering Merchant</t>
+  </si>
+  <si>
+    <t>You have spent the last few days searching for the Wandering Cleric and his brother, this man who likes to be naked a lot. He proclaims to be the most beautiful man. One thing does draw your mind back on track from the mysterious and sexy naked man.&lt;br /&gt; &lt;br /&gt; His mother, their mother. Separated – locked away. The Poet, maybe that’s why this mysterious, sexy naked man does not like The Poet. You decide to head back to the Surface and track down the answers you want.</t>
+  </si>
+  <si>
+    <t>You find him sitting in a pub with The Wandering Merchant. You approach the both of them, and they warmly greet you.&lt;br /&gt; &lt;br /&gt; You sit with them and start to explain your adventures in this new plane.&lt;br /&gt; &lt;br /&gt; “A place of delusional thoughts. A place where people live in a memory they believe to have existed,” states The Wandering Merchant.&lt;br /&gt; &lt;br /&gt; The Poet nods and adds, “A place we thought we locked away all those years ago, back when The Shattering happened.”&lt;br /&gt; &lt;br /&gt; The Shattering sounds familiar, but you cannot place it; it’s almost foggy. The Wandering Merchant sees this confusion on your face and chimes in, almost clearing the fog away.&lt;br /&gt; &lt;br /&gt; “The Shattering happened back when The Child, or The Creator, as you know him, failed to ascend. Failed to ‘move on,’ if you will.” He pauses, and The Poet looks away, refusing to meet either gaze.&lt;br /&gt; &lt;br /&gt; After a moment, The Poet states, “It was her, that I failed to listen to. She knew everything that would happen. I assumed when we closed those doors. Closed her doors, that her own twisted memories would just reside within the prison. Alas, she created her own world. A world of delusions.”&lt;br /&gt; &lt;br /&gt; That sounds off, and you explain what the naked man said. What his brother said. How the naked man hates you.&lt;br /&gt; &lt;br /&gt; “He hates me because I locked his mother, who, because of his afflictions, cursed her children to never be together. To always be alone. She assumed they were together. She could not have that. Her children must be pure. It was only later she discovered the truth, alas, she has been trapped in her own twisted memories.”&lt;br /&gt; &lt;br /&gt; The Poet coughs and tries to catch his breath. The Wandering Merchant places his hand on The Poet’s shoulder as if to ease his friend’s suffering.</t>
   </si>
 </sst>
 </file>
@@ -2604,7 +2682,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG164"/>
+  <dimension ref="A1:AG170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -9503,6 +9581,258 @@
         <v>749</v>
       </c>
     </row>
+    <row r="165" spans="1:33">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>750</v>
+      </c>
+      <c r="C165" t="s">
+        <v>751</v>
+      </c>
+      <c r="N165">
+        <v>1000</v>
+      </c>
+      <c r="O165">
+        <v>500</v>
+      </c>
+      <c r="P165">
+        <v>10000</v>
+      </c>
+      <c r="Q165">
+        <v>250</v>
+      </c>
+      <c r="T165">
+        <v>1</v>
+      </c>
+      <c r="W165" t="s">
+        <v>752</v>
+      </c>
+      <c r="X165">
+        <v>1</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>755</v>
+      </c>
+      <c r="C166" t="s">
+        <v>423</v>
+      </c>
+      <c r="H166" t="s">
+        <v>756</v>
+      </c>
+      <c r="N166">
+        <v>1000</v>
+      </c>
+      <c r="O166">
+        <v>500</v>
+      </c>
+      <c r="P166">
+        <v>10000</v>
+      </c>
+      <c r="Q166">
+        <v>250</v>
+      </c>
+      <c r="U166" t="s">
+        <v>750</v>
+      </c>
+      <c r="W166" t="s">
+        <v>752</v>
+      </c>
+      <c r="X166">
+        <v>2</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>759</v>
+      </c>
+      <c r="C167" t="s">
+        <v>751</v>
+      </c>
+      <c r="H167" t="s">
+        <v>760</v>
+      </c>
+      <c r="N167">
+        <v>1000</v>
+      </c>
+      <c r="O167">
+        <v>500</v>
+      </c>
+      <c r="P167">
+        <v>10000</v>
+      </c>
+      <c r="Q167">
+        <v>250</v>
+      </c>
+      <c r="U167" t="s">
+        <v>755</v>
+      </c>
+      <c r="W167" t="s">
+        <v>752</v>
+      </c>
+      <c r="X167">
+        <v>3</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>763</v>
+      </c>
+      <c r="C168" t="s">
+        <v>764</v>
+      </c>
+      <c r="H168" t="s">
+        <v>765</v>
+      </c>
+      <c r="N168">
+        <v>1000</v>
+      </c>
+      <c r="O168">
+        <v>500</v>
+      </c>
+      <c r="P168">
+        <v>10000</v>
+      </c>
+      <c r="Q168">
+        <v>250</v>
+      </c>
+      <c r="U168" t="s">
+        <v>759</v>
+      </c>
+      <c r="W168" t="s">
+        <v>752</v>
+      </c>
+      <c r="X168">
+        <v>4</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>766</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>768</v>
+      </c>
+      <c r="C169" t="s">
+        <v>764</v>
+      </c>
+      <c r="H169" t="s">
+        <v>769</v>
+      </c>
+      <c r="N169">
+        <v>1000</v>
+      </c>
+      <c r="O169">
+        <v>500</v>
+      </c>
+      <c r="P169">
+        <v>10000</v>
+      </c>
+      <c r="Q169">
+        <v>250</v>
+      </c>
+      <c r="U169" t="s">
+        <v>763</v>
+      </c>
+      <c r="V169" t="s">
+        <v>770</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>771</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>773</v>
+      </c>
+      <c r="C170" t="s">
+        <v>423</v>
+      </c>
+      <c r="N170">
+        <v>1000</v>
+      </c>
+      <c r="O170">
+        <v>500</v>
+      </c>
+      <c r="P170">
+        <v>10000</v>
+      </c>
+      <c r="Q170">
+        <v>250</v>
+      </c>
+      <c r="U170" t="s">
+        <v>768</v>
+      </c>
+      <c r="W170" t="s">
+        <v>752</v>
+      </c>
+      <c r="X170">
+        <v>5</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE170">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="796">
   <si>
     <t>id</t>
   </si>
@@ -2300,7 +2300,7 @@
     <t>Clerical Tome of Prairs</t>
   </si>
   <si>
-    <t>“Hello there!” comes a voice.&lt;br /&gt; Y&lt;br /&gt; ou have no idea where you are, but you know you are not on the Surface anymore. You look towards the voice and see a young man dressed in a variety of colors. He is handsome, well-groomed, and his eyes bluer than the sky itself.&lt;br /&gt; &lt;br /&gt; “How are you, child?! Oh, it’s been so long since we had a visitor of these parts. Would you like a tour of our fine establishment?”&lt;br /&gt; &lt;br /&gt; He is full of energy and comes off as extremely charismatic. You explain you are looking for two people: a Nameless One and a jester of some sort.&lt;br /&gt; &lt;br /&gt; “Well, there you go, child! Wrecking all the fun.”&lt;br /&gt; &lt;br /&gt; You look at him with a puzzled look.&lt;br /&gt; &lt;br /&gt; “Does this interest you?”&lt;br /&gt; &lt;br /&gt; He stands fully naked before you. It is quite a sight.</t>
+    <t>“Hello there!” comes a voice.&lt;br /&gt; &lt;br /&gt; You have no idea where you are, but you know you are not on the Surface anymore. You look towards the voice and see a young man dressed in a variety of colors. He is handsome, well-groomed, and his eyes bluer than the sky itself.&lt;br /&gt; &lt;br /&gt; “How are you, child?! Oh, it’s been so long since we had a visitor of these parts. Would you like a tour of our fine establishment?”&lt;br /&gt; &lt;br /&gt; He is full of energy and comes off as extremely charismatic. You explain you are looking for two people: a Nameless One and a jester of some sort.&lt;br /&gt; &lt;br /&gt; “Well, there you go, child! Wrecking all the fun.”&lt;br /&gt; &lt;br /&gt; You look at him with a puzzled look.&lt;br /&gt; &lt;br /&gt; “Does this interest you?”&lt;br /&gt; &lt;br /&gt; He stands fully naked before you. It is quite a sight.</t>
   </si>
   <si>
     <t>With your back turned to him, you ask him to put clothes on.&lt;br /&gt; &lt;br /&gt; “Why? Am I not attractive enough for you? Don’t you crave me?”&lt;br /&gt; &lt;br /&gt; You tell him he looks no older than sixteen and to dress quickly so we might talk like adults. You also explain that you are not here to indulge in any fantasies, that you are searching for answers, that The Poet sent you.&lt;br /&gt; &lt;br /&gt; “You can turn around. By the way, I am not a juvenile.” His voice seems upset, a tinge of anger.&lt;br /&gt; &lt;br /&gt; You do so, and he is dressed again, still handsome, but dressed. A part of your mind regrets your choices.&lt;br /&gt; &lt;br /&gt; “I can see into the darkest recesses of your mind, child. I am the most beautiful man here. With or without clothes. You will come to see that. As for your precious jester, I know not of what you speak. As for this nameless &lt;br /&gt; nonsense – I know of a woman. A woman in a place where even your memory becomes twisted. That’s it. That’s all I know.”&lt;br /&gt; &lt;br /&gt; He seems so disappointed. He perks up for a moment and states:&lt;br /&gt; &lt;br /&gt; “I do know, I fucking hate The Poet!” He storms off.</t>
@@ -2343,6 +2343,66 @@
   </si>
   <si>
     <t>You find him sitting in a pub with The Wandering Merchant. You approach the both of them, and they warmly greet you.&lt;br /&gt; &lt;br /&gt; You sit with them and start to explain your adventures in this new plane.&lt;br /&gt; &lt;br /&gt; “A place of delusional thoughts. A place where people live in a memory they believe to have existed,” states The Wandering Merchant.&lt;br /&gt; &lt;br /&gt; The Poet nods and adds, “A place we thought we locked away all those years ago, back when The Shattering happened.”&lt;br /&gt; &lt;br /&gt; The Shattering sounds familiar, but you cannot place it; it’s almost foggy. The Wandering Merchant sees this confusion on your face and chimes in, almost clearing the fog away.&lt;br /&gt; &lt;br /&gt; “The Shattering happened back when The Child, or The Creator, as you know him, failed to ascend. Failed to ‘move on,’ if you will.” He pauses, and The Poet looks away, refusing to meet either gaze.&lt;br /&gt; &lt;br /&gt; After a moment, The Poet states, “It was her, that I failed to listen to. She knew everything that would happen. I assumed when we closed those doors. Closed her doors, that her own twisted memories would just reside within the prison. Alas, she created her own world. A world of delusions.”&lt;br /&gt; &lt;br /&gt; That sounds off, and you explain what the naked man said. What his brother said. How the naked man hates you.&lt;br /&gt; &lt;br /&gt; “He hates me because I locked his mother, who, because of his afflictions, cursed her children to never be together. To always be alone. She assumed they were together. She could not have that. Her children must be pure. It was only later she discovered the truth, alas, she has been trapped in her own twisted memories.”&lt;br /&gt; &lt;br /&gt; The Poet coughs and tries to catch his breath. The Wandering Merchant places his hand on The Poet’s shoulder as if to ease his friend’s suffering.</t>
+  </si>
+  <si>
+    <t>The Faithless</t>
+  </si>
+  <si>
+    <t>FaithlessChild</t>
+  </si>
+  <si>
+    <t>It has been a few weeks since your last venture into such a delusional place. The Poet appears older, sicker, and more frail. His time on this earth, this plane, this existence is almost over. There is a sadness there, a &lt;br /&gt; history of tales and information. He is a friend, a comfort in the darkness.&lt;br /&gt; &lt;br /&gt; You delve into the depths of despair, searching for answers. You seek to understand twisted and demented people. The Shattering, the locking away of the darkest aspects of one's mind, are prisons where the gates &lt;br /&gt; open to allow one to travel through its demented lands.&lt;br /&gt; &lt;br /&gt; Delusional Memories. That’s what they call it. Memories of another time have become twisted and warped. You wonder what a mother and her sons have to do with it. She is locked away with a curse on her children, &lt;br /&gt; one she might regret placing upon them or one she might not. You are not sure about that.&lt;br /&gt; &lt;br /&gt; The information you have doesn’t really help you.&lt;br /&gt; &lt;br /&gt; You traverse the land in search of him. The naked man. The Jester.</t>
+  </si>
+  <si>
+    <t>"Excuse me," comes a frail and fragile voice.&lt;br /&gt; &lt;br /&gt; You look down and see a small child, no older than six or seven years old, dressed in rags.&lt;br /&gt; &lt;br /&gt; "Do you know where the man went?" the child asks.&lt;br /&gt; &lt;br /&gt; You inquire which man.&lt;br /&gt; &lt;br /&gt; "The faithless man. He came, and he saved me. He saved me from them."&lt;br /&gt; &lt;br /&gt; "Them?" you prompt.&lt;br /&gt; &lt;br /&gt; "Them," is all he states, his voice growing sad. He looks up at you, his eyes big and brown, his hair shaggy and unkempt, and his skin dirty.&lt;br /&gt; &lt;br /&gt; "Where are you trying to go, child?" you ask, concern evident in your voice.&lt;br /&gt; &lt;br /&gt; "I don’t know. I need him, though—the faithless man."&lt;br /&gt; &lt;br /&gt; You don’t know who this man is, but you assure the child that you will help him.</t>
+  </si>
+  <si>
+    <t>Looking for the faithless man</t>
+  </si>
+  <si>
+    <t>The child appears happy, excited, and even giddy. It’s a total shift from the sad and frail-looking child just a few moments ago.&lt;br /&gt; &lt;br /&gt; You inquire further about the faithless man. He explains that this man came from another time, helped him escape, and instructed him to find him.&lt;br /&gt; &lt;br /&gt; "Find him? Find him where?" you ask.&lt;br /&gt; &lt;br /&gt; "He never said. But he said others would know."&lt;br /&gt; &lt;br /&gt; "Others? Who are the others?" you press.&lt;br /&gt; &lt;br /&gt; "I don’t know," he replies.&lt;br /&gt; &lt;br /&gt; There is not a lot to go on here.</t>
+  </si>
+  <si>
+    <t>Fliniguss. He is not a child, but he could be faithless. You ask the child if it is him whom you seek.&lt;br /&gt; &lt;br /&gt; “No, that's a bad man. He sent soldiers who ran a sword through my mother. One of them is a cleric. His mind is twisted and dark. He has done things. Things that I cannot speak of,” the child reveals, sniffling, indicating &lt;br /&gt; he clearly has his own demons.&lt;br /&gt; &lt;br /&gt; You ask if there is more he can share—any details or physical characteristics.&lt;br /&gt; &lt;br /&gt; “He likes to dance,” the child offers.&lt;br /&gt; &lt;br /&gt; You know someone who likes to dance.</t>
+  </si>
+  <si>
+    <t>Dancing Queen</t>
+  </si>
+  <si>
+    <t>There is only one man you know who likes to dance. You assure the child that you will head out and find the man, bringing him back to the child.&lt;br /&gt; &lt;br /&gt; “Why can’t I go with you? This world is so scary alone. Don’t leave me alone,” the child pleads.&lt;br /&gt; &lt;br /&gt; After a while, you agree. It doesn’t make sense to leave the child here, but you also don’t know how dangerous the journey will be, what the man who likes to dance will do or say, or even if he will be clothed. You pray, &lt;br /&gt; for the child's sake, that he is.&lt;br /&gt; &lt;br /&gt; It has been a few days of travel. The child doesn’t share much about himself, keeping those aspects close to his chest. However, he does share that the faithless man has no fear of life or death. He dances to the beat of &lt;br /&gt; his own music, which is never heard except in his head.&lt;br /&gt; &lt;br /&gt; “The faithless man talked about his dreams. Dreams of finding his beloved brother, the one his mother said he would never find again. He would then dance through the night or day, singing songs about Fliniguss, the &lt;br /&gt; bad man. I asked him why he saved me when he sang of this man whom he admired. He told me it's because he has grander plans for me,” the child shares.&lt;br /&gt; &lt;br /&gt; The child pauses for a moment, looking up at you as you turn back, and states, “He never told me what they were.”&lt;br /&gt; &lt;br /&gt; The child seems so sad.</t>
+  </si>
+  <si>
+    <t>"Child!" comes a charming voice, full of joy and glee.&lt;br /&gt; &lt;br /&gt; "Oh, I see you brought a friend. My faithless little friend," remarks the voice.&lt;br /&gt; &lt;br /&gt; Faithless? Who, you or the child?&lt;br /&gt; &lt;br /&gt; "The child, silly. You have faith. Faith in something beyond the silliness here," explains the voice.&lt;br /&gt; &lt;br /&gt; The child laughs and runs over to the mysterious man, embracing him. "I have missed you, Jester."&lt;br /&gt; &lt;br /&gt; Jester? Is he the jester you are looking for? You guard your thoughts, masking them in pointless questions and hiding the real ones in a web.&lt;br /&gt; &lt;br /&gt; "Child, your mind is as easy to read as a cryptic book," the Jester states.&lt;br /&gt; &lt;br /&gt; "I am the Jester of Time. This is my faithless creation, a child I have saved, all part of my grander game and plan to break the curse," he elaborates.&lt;br /&gt; &lt;br /&gt; He knows. How does he know?&lt;br /&gt; &lt;br /&gt; "I know what was, not what will be; I barely remember what was, though."&lt;br /&gt; &lt;br /&gt; He seems confused, but then smiles and dances off with the child in his arms, both laughing.</t>
+  </si>
+  <si>
+    <t>The Knight and his God</t>
+  </si>
+  <si>
+    <t>HolyKnight</t>
+  </si>
+  <si>
+    <t>You chase them down, but before you can reach them, they disappear. It's as if the horizon sucked them into its vast, foreboding vastness of time.&lt;br /&gt; &lt;br /&gt; The Jester of Time was right before you. He would know why it feels like your memory is clouded in fog. He also seems to know about the curse his mother placed on him. You wonder if his brother knows.&lt;br /&gt; &lt;br /&gt; He knows The Poet locked him away; he knows—or probably knows—that The Poet also locked them away, but why two different worlds? Why her in one, one you cannot remember if you have been to, and one where &lt;br /&gt; he, this Jest of Time, exists?&lt;br /&gt; &lt;br /&gt; You searched for his brother. Nothing and no one. The land is mostly silent. You have heard of Federation Soldier movements and The Church's Holy Knights movements. You wonder: if they are on the move, are The &lt;br /&gt; Red Hawks on the move? Soldiers who you remember being told about fought against The Federation and The Church back in the day.&lt;br /&gt; &lt;br /&gt; Since this world is created from delusional memories, this war constantly rages, and it seems like this Jester created this child, but he called the child Faithless. You have so many questions, and as per usual, it seems &lt;br /&gt; you have no answers. Just questions.</t>
+  </si>
+  <si>
+    <t>You have come no closer to finding the movements of The Holy Knights, nor have you discovered if The Federation Soldiers are mobilizing, and if so, in which direction and where.&lt;br /&gt; &lt;br /&gt; There is no sign of anyone around; it’s as if the land is empty of life.&lt;br /&gt; &lt;br /&gt; “You there. Drop your weapons!” commands a voice.&lt;br /&gt; &lt;br /&gt; You turn around and see a man dressed in white, adorned with a silver plate and a white cloak. He carries a giant sword and a white shield. You wonder how he manages the sword with such a shield.&lt;br /&gt; &lt;br /&gt; “I said! Drop your fucking weapons!” he repeats more urgently.&lt;br /&gt; &lt;br /&gt; You prepare your magic and feel the power of your enchantments surge.</t>
+  </si>
+  <si>
+    <t>"I am not having fun"</t>
+  </si>
+  <si>
+    <t>“I won’t tell you again! I will smite the heathen before me in the name of the one true God!” bellows a voice.&lt;br /&gt; &lt;br /&gt; You retort that you've heard these lies before. You've spoken to twisted and wandering clerics of The Church, a corrupt institution of torture, rape, and genocide in the name of a false god.&lt;br /&gt; &lt;br /&gt; He rages and lunges at you, his sword bouncing off your enchantments as your magic wraps itself around him, squeezing the life force out of this knight. He slams his shield into your enchantments, and a bright, brilliant light appears.&lt;br /&gt; &lt;br /&gt; You are both knocked back. He lands on his back, some fifty feet away. You stand with your head spinning, tasting the coppery tang of blood in your mouth.&lt;br /&gt; &lt;br /&gt; The knight stands and prepares for battle.&lt;br /&gt; &lt;br /&gt; Another light appears, and a voice booms out: “ENOUGH!”</t>
+  </si>
+  <si>
+    <t>“This is not fun! I do not like it when things are not fun! Why are we not having fun?” complains a voice.&lt;br /&gt; &lt;br /&gt; The knight stops and bows before the blinding light, from which you shield your eyes. As the light fades, a naked man stands before both of you.&lt;br /&gt; &lt;br /&gt; “Your lord, should you not cover yourself? Take my cloak,” the knight starts to remove his cloak, averting his eyes from the naked man.&lt;br /&gt; &lt;br /&gt; "Oh, for fuck's sakes. I am enjoying the natural form that your god created me in. I am sorry, our god. I know how precious your false idol is to you,” the naked man retorts.&lt;br /&gt; &lt;br /&gt; The Jester. The knight looks up and meets the man's gaze. There is a hint of anger hiding behind his loyalty and honor.&lt;br /&gt; &lt;br /&gt; “Come, child,” the Jester states to you, reaching out his hand. His gaze slowly meets yours.&lt;br /&gt; &lt;br /&gt; You hesitate.&lt;br /&gt; &lt;br /&gt; “Either come or the faithless child dies. Pick one.”&lt;br /&gt; &lt;br /&gt; You stand there aghast that such a threat would be made.&lt;br /&gt; &lt;br /&gt; “Fine, have it your way,” the Jester vanishes, leaving you and The Holy Knight in a sense of confusion.&lt;br /&gt; &lt;br /&gt; What was that?</t>
+  </si>
+  <si>
+    <t>Blood and Guts</t>
+  </si>
+  <si>
+    <t>"Games," the knight states as he stands from his bowed position. "All fucking games. How I would love to shove my sword through that man's gut."&lt;br /&gt; &lt;br /&gt; "You could do that," the Jester's voice rings through the air.&lt;br /&gt; &lt;br /&gt; He appears, blood covering his face as if he had painted it on.&lt;br /&gt; &lt;br /&gt; You ask him where the blood came from.&lt;br /&gt; &lt;br /&gt; "The Faithless Child’s guts. I ripped them out and painted the walls of my room with them, and then I thought I needed to be young and beautiful. So I painted my face with the youth of his blood. How fun, wouldn’t you &lt;br /&gt; say?" The Jester responds.&lt;br /&gt; &lt;br /&gt; "You’re a monster." The words just slip from your mouth.&lt;br /&gt; &lt;br /&gt; The Holy Knight rushes towards the Jester; his sword goes right through the man. The clothing he wears becomes soaked in blood as the sword sticks out. The Jester falls to the ground as the knight pulls the sword out.&lt;br /&gt; &lt;br /&gt; “There. Done,” the knight states after a moment, panting.&lt;br /&gt; &lt;br /&gt; "What have you done?" you ask.&lt;br /&gt; &lt;br /&gt; “I killed a heathen. Much like I will kill you. A godless heathen. A beast of hell, set free to crawl the land in suffering and misery. Much like he was," the knight declares, looking down at the dead body of the Jester.&lt;br /&gt; &lt;br /&gt; The knight looks back at you, opens his mouth, and explodes into a pile of blood, bits of bone, and guts.&lt;br /&gt; &lt;br /&gt; The shock alone causes you to start weeping and vomiting.&lt;br /&gt; &lt;br /&gt; “Hahahahahahaha!” comes a sinister laughter.&lt;br /&gt; &lt;br /&gt; You compose yourself enough to start running. You stumble and fall; you can barely see through your tears; you taste vomit and blood; and all you can do is run.&lt;br /&gt; &lt;br /&gt; You make it to a cliff; below you is the rushing river. The laughter follows you, haunting you and taunting you. You jump into the river.</t>
+  </si>
+  <si>
+    <t>You awaken on a shore, slowly sitting up and looking around, coughing out water as you do so.&lt;br /&gt; &lt;br /&gt; There is a small child playing on the river banks, engrossed in the muddy sand with sticks.&lt;br /&gt; &lt;br /&gt; “Hi!” he states as he comes over. Your vision is still blurry, but this child looks familiar.&lt;br /&gt; &lt;br /&gt; “He said you would wake soon, and I should not leave you.”&lt;br /&gt; &lt;br /&gt; He? Your head races.&lt;br /&gt; &lt;br /&gt; “The Wandering Cleric. He saved me.”&lt;br /&gt; &lt;br /&gt; Your vision comes to: The Faithless Child, as the Jester of Time called him, stands before you, smiling.</t>
   </si>
 </sst>
 </file>
@@ -2682,7 +2742,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG170"/>
+  <dimension ref="A1:AG176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2694,7 +2754,7 @@
     <col min="2" max="2" width="44.703" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="42.418" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="30.564" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="48.274" bestFit="true" customWidth="true" style="0"/>
@@ -2719,7 +2779,7 @@
     <col min="27" max="27" width="2556.376" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="2944.424" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="42.418" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="23.423" bestFit="true" customWidth="true" style="0"/>
@@ -9831,6 +9891,279 @@
       </c>
       <c r="AE170">
         <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>776</v>
+      </c>
+      <c r="C171" t="s">
+        <v>777</v>
+      </c>
+      <c r="E171" t="s">
+        <v>773</v>
+      </c>
+      <c r="F171" t="s">
+        <v>750</v>
+      </c>
+      <c r="I171">
+        <v>100</v>
+      </c>
+      <c r="J171">
+        <v>100</v>
+      </c>
+      <c r="K171">
+        <v>1000</v>
+      </c>
+      <c r="N171">
+        <v>100</v>
+      </c>
+      <c r="O171">
+        <v>500</v>
+      </c>
+      <c r="P171">
+        <v>10000</v>
+      </c>
+      <c r="Q171">
+        <v>250</v>
+      </c>
+      <c r="U171" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>779</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE171">
+        <v>8</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>777</v>
+      </c>
+      <c r="AG171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>780</v>
+      </c>
+      <c r="C172" t="s">
+        <v>777</v>
+      </c>
+      <c r="I172">
+        <v>100</v>
+      </c>
+      <c r="J172">
+        <v>100</v>
+      </c>
+      <c r="K172">
+        <v>1000</v>
+      </c>
+      <c r="N172">
+        <v>1000</v>
+      </c>
+      <c r="O172">
+        <v>500</v>
+      </c>
+      <c r="P172">
+        <v>10000</v>
+      </c>
+      <c r="Q172">
+        <v>250</v>
+      </c>
+      <c r="U172" t="s">
+        <v>776</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE172">
+        <v>8</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>777</v>
+      </c>
+      <c r="AG172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>783</v>
+      </c>
+      <c r="C173" t="s">
+        <v>751</v>
+      </c>
+      <c r="N173">
+        <v>1000</v>
+      </c>
+      <c r="O173">
+        <v>500</v>
+      </c>
+      <c r="P173">
+        <v>10000</v>
+      </c>
+      <c r="Q173">
+        <v>250</v>
+      </c>
+      <c r="U173" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>785</v>
+      </c>
+      <c r="AE173">
+        <v>8</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>751</v>
+      </c>
+      <c r="AG173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>786</v>
+      </c>
+      <c r="C174" t="s">
+        <v>787</v>
+      </c>
+      <c r="K174">
+        <v>5000</v>
+      </c>
+      <c r="N174">
+        <v>1000</v>
+      </c>
+      <c r="O174">
+        <v>500</v>
+      </c>
+      <c r="P174">
+        <v>10000</v>
+      </c>
+      <c r="Q174">
+        <v>250</v>
+      </c>
+      <c r="U174" t="s">
+        <v>783</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>788</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE174">
+        <v>8</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>787</v>
+      </c>
+      <c r="AG174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>790</v>
+      </c>
+      <c r="C175" t="s">
+        <v>787</v>
+      </c>
+      <c r="I175">
+        <v>1000</v>
+      </c>
+      <c r="J175">
+        <v>1000</v>
+      </c>
+      <c r="K175">
+        <v>5000</v>
+      </c>
+      <c r="U175" t="s">
+        <v>786</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>791</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>792</v>
+      </c>
+      <c r="AE175">
+        <v>8</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>787</v>
+      </c>
+      <c r="AG175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>793</v>
+      </c>
+      <c r="C176" t="s">
+        <v>751</v>
+      </c>
+      <c r="N176">
+        <v>1000</v>
+      </c>
+      <c r="O176">
+        <v>500</v>
+      </c>
+      <c r="P176">
+        <v>10000</v>
+      </c>
+      <c r="Q176">
+        <v>250</v>
+      </c>
+      <c r="U176" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>794</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>795</v>
+      </c>
+      <c r="AE176">
+        <v>8</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>751</v>
+      </c>
+      <c r="AG176">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="808">
   <si>
     <t>id</t>
   </si>
@@ -2403,6 +2403,42 @@
   </si>
   <si>
     <t>You awaken on a shore, slowly sitting up and looking around, coughing out water as you do so.&lt;br /&gt; &lt;br /&gt; There is a small child playing on the river banks, engrossed in the muddy sand with sticks.&lt;br /&gt; &lt;br /&gt; “Hi!” he states as he comes over. Your vision is still blurry, but this child looks familiar.&lt;br /&gt; &lt;br /&gt; “He said you would wake soon, and I should not leave you.”&lt;br /&gt; &lt;br /&gt; He? Your head races.&lt;br /&gt; &lt;br /&gt; “The Wandering Cleric. He saved me.”&lt;br /&gt; &lt;br /&gt; Your vision comes to: The Faithless Child, as the Jester of Time called him, stands before you, smiling.</t>
+  </si>
+  <si>
+    <t>The Child Returns</t>
+  </si>
+  <si>
+    <t>You stand, startled to see the child, yet you embrace him tightly. There's something about this child that instills hope within you. As he returns the hug, he murmurs, "I missed you."&lt;br /&gt; &lt;br /&gt; Stepping back, you observe him for a moment. His hair is clean, and his face is devoid of the prison of grime. He appears happier than last time and less afraid. Curiously, you inquire about what happened, and he &lt;br /&gt; gestures towards a man—the man you recognize—your brother, the Wandering Cleric.&lt;br /&gt; &lt;br /&gt; "I see the heathen has awoken," he remarks. You brush off his words and recount the recent events to him.&lt;br /&gt; &lt;br /&gt; "My brother is indulging in his games again, finding amusement in them," he sighs, continuing, "He has never faced his pain, his loss, or his grief. He has never truly accepted our parting."&lt;br /&gt; &lt;br /&gt; He appears twisted.&lt;br /&gt; &lt;br /&gt; "Twisted indeed, much like our mother, who was a madam—a madam of a twisted brothel that exists beyond the confines of time and space, a realm she is not only bound to but also imprisoned within. Only a bishop &lt;br /&gt; possesses the power to confine her to her brothel, yet the twisted corruption has spread throughout the land."&lt;br /&gt; &lt;br /&gt; Approaching, he places his hands on the child's shoulders. The child gazes up at him, a wide grin adorning his face.&lt;br /&gt; &lt;br /&gt; Who is this child to these two men? Men were separated by magic and cursed. Or is it?&lt;br /&gt; &lt;br /&gt; "I have to leave soon," the child announces unexpectedly.&lt;br /&gt; &lt;br /&gt; "Leave for where?" the cleric inquires.&lt;br /&gt; &lt;br /&gt; "Home. I have to go home."&lt;br /&gt; &lt;br /&gt; Where is home?</t>
+  </si>
+  <si>
+    <t>The Faithless Child looks at you, sadness and heaviness evident in his eyes.&lt;br /&gt; &lt;br /&gt; "I have to go home," he murmurs, glancing at the ground and kicking a stone. "But I don't want to."&lt;br /&gt; &lt;br /&gt; The cleric attempts to comfort the child, but he recoils and begins to walk away from both of you. You both call out to him, but he vanishes, as though he were never there to begin with.&lt;br /&gt; &lt;br /&gt; What just happened?</t>
+  </si>
+  <si>
+    <t>Tell me about the Emerald Prince</t>
+  </si>
+  <si>
+    <t>You glance at The Wandering Cleric standing beside you, both of you wearing expressions of perplexity regarding what just occurred.&lt;br /&gt; &lt;br /&gt; Turning to him, you inquire about Fliniguss.&lt;br /&gt; &lt;br /&gt; "A man far worse than any I've encountered before," he begins solemnly. "Corrupted by power and greed, as so many are. The Church utilized him, twisting their own teachings and beliefs to accommodate his tyranny &lt;br /&gt; over the free people of the south."&lt;br /&gt; &lt;br /&gt; You question whether he believes this to be justified.&lt;br /&gt; &lt;br /&gt; "The twisted and corrupted forms of magic employed, the heretical alchemical research, the exploitation of children in their experiments—the darkness that engulfed The Church has never dissipated," he asserts.&lt;br /&gt; &lt;br /&gt; As he walks away, he adds on the whisper of a dead wind, "They tainted their own God with falsehoods. And they embraced those falsehoods."</t>
+  </si>
+  <si>
+    <t>You trail after him in silence, each step heavy with unanswered questions. After a while, he halts and turns back to you.&lt;br /&gt; &lt;br /&gt; "Why do you follow me?" he demands.&lt;br /&gt; &lt;br /&gt; You launch into an explanation, frustration coloring your words. The child, supposedly dead, disappears before your very eyes. His brother appears to be a delusional killer of miracles. Your thirst for answers crescendos, culminating in a plea for clarity about The Wandering Prince's true identity. Could he be The Emerald Princ---&lt;br /&gt; &lt;br /&gt; "Enough, child," the Cleric interjects sharply.&lt;br /&gt; &lt;br /&gt; "You prattle on about foul beasts from distant realms, about magics twisted by fallen gods. Your tales reek of falsehoods and whimsy. Emeralds and dashing princes, the downfall of a nameless foe—it's all nothing but fanciful drivel."&lt;br /&gt; &lt;br /&gt; Nameless. The word stirs a memory.&lt;br /&gt; &lt;br /&gt; "I have no answers for you," he continues, his tone cutting. "There's nothing here for you in these tales. You are not of this realm; you're ensnared in the delusions and warped memories of another land."&lt;br /&gt; &lt;br /&gt; Am I? Or perhaps it's you?&lt;br /&gt; &lt;br /&gt; His anger simmers, threatening to boil over.</t>
+  </si>
+  <si>
+    <t>The Child and The Poet</t>
+  </si>
+  <si>
+    <t>You leave The Wandering Cleric behind, his anger and religious fervor not only irritating but also his attempts to smite you, as he calls it, to extinguish your supposed heretical beliefs, your afflictions that allegedly &lt;br /&gt; prevent you from seeing the light of the one true god.&lt;br /&gt; &lt;br /&gt; There is no god. No deity would permit such suffering, you think.&lt;br /&gt; &lt;br /&gt; "Hello there. I am lost."&lt;br /&gt; &lt;br /&gt; You whirl around faster than you can recall and there he stands—the child, The Faithless Child.&lt;br /&gt; &lt;br /&gt; Who are you? What are you?&lt;br /&gt; &lt;br /&gt; "A creation, born of twisted magics. A mediator."&lt;br /&gt; &lt;br /&gt; A mediator?&lt;br /&gt; &lt;br /&gt; "Between my brothers."&lt;br /&gt; &lt;br /&gt; You gasp in astonishment.&lt;br /&gt; &lt;br /&gt; "The Jester of Time birthed me. But I was ensnared, I was…." His voice fades, a shroud of darkness enveloping him. You reassure him, asking if he can lead you to The Jester of Time.&lt;br /&gt; &lt;br /&gt; "No. I don't know his whereabouts. I don't sense his presence. I don't feel anything."&lt;br /&gt; &lt;br /&gt; You inquire about his cryptic words.&lt;br /&gt; &lt;br /&gt; "I emerged from my father, fashioned from nothing. I am faithless, unwanted, unloved."&lt;br /&gt; &lt;br /&gt; That cannot be true; all beings are cherished.&lt;br /&gt; &lt;br /&gt; "Not by God."&lt;br /&gt; &lt;br /&gt; If such a god exists, then he or she loves all equally.&lt;br /&gt; &lt;br /&gt; "Lies! You speak lies!"&lt;br /&gt; &lt;br /&gt; The child morphs into a monstrous form of shadows, twisting with ancient magics, shaping itself into a formless mass of delusional memories that dance through glimmers of hope.&lt;br /&gt; &lt;br /&gt; Your magic and enchantments swirl around you, the land crackling and thundering with an unfamiliar magic.&lt;br /&gt; &lt;br /&gt; He materializes.&lt;br /&gt; &lt;br /&gt; "Stop."</t>
+  </si>
+  <si>
+    <t>You gaze at him. You know him, yet you dare not utter his name, feeling his essence enveloping, surrounding, and engulfing you.&lt;br /&gt; &lt;br /&gt; "I beseech you. Cease this. Why must you delve into such matters? Why must you be here?" His words resonate in your ears, his questions echoing in your mind.&lt;br /&gt; &lt;br /&gt; "Why must you inflict pain upon me? What have I done to deserve this?" You yearn to retort, to lash out, but as you survey your surroundings, time itself has frozen. The swirling magics have stilled, everything—frozen.&lt;br /&gt; &lt;br /&gt; "I know you recognize me, know what I am. I know you seek him, The Wandering Prince. He is whom you pursue: The Emerald Prince. But I haven't seen him in these lands for eons, ever since The Poet sealed it away. &lt;br /&gt; It's been ages since I last laid eyes on him."&lt;br /&gt; &lt;br /&gt; You direct your inquiry to the child before you, covered in blood, a wound in his skull from which blood flows. A name you dare not even think.&lt;br /&gt; &lt;br /&gt; "The Poet has been manipulated. You are being manipulated. I implore you to halt. Cease your attempts to open the gates and unearth ancient mysteries. Cease your search for answers to questions long forgotten."&lt;br /&gt; &lt;br /&gt; He pauses, then continues before you can interject.&lt;br /&gt; &lt;br /&gt; "You are the source of pain and suffering. Not I. You. You opened the gates, ventured into realms long forsaken, sought out the corruption."&lt;br /&gt; &lt;br /&gt; You remained entrenched, unwilling to move forward, ensnared in your own distorted memories of the past, apprehensive of the future.&lt;br /&gt; &lt;br /&gt; "I know what lies ahead, yet I find solace in a realm of my own creation."&lt;br /&gt; &lt;br /&gt; Aren't you, too, manipulated by those unnamed?&lt;br /&gt; &lt;br /&gt; "I am nobody's puppet. I am The Creator."</t>
+  </si>
+  <si>
+    <t>A man named: Fliniguss</t>
+  </si>
+  <si>
+    <t>You awaken downstream, realizing it was all a dream. The Faithless Child, The Wandering Cleric—even him—a mere creation of the plane's magics, twisting and corrupting your mind.&lt;br /&gt; &lt;br /&gt; "About time you woke up. Look what I have for you," a familiar voice says. Before you can fully register it, something is tossed beside you. Slowly rising, you see more clearly—the Jester of Time.&lt;br /&gt; &lt;br /&gt; You glance down—The Faithless Child's lifeless body.&lt;br /&gt; &lt;br /&gt; "Now, are you finished with all this nonsense? I've dispatched so many things today," the Jester remarks.&lt;br /&gt; &lt;br /&gt; So it was merely a dream, you mumble to yourself.&lt;br /&gt; &lt;br /&gt; "A dream? What dream, child? Did you see him?"&lt;br /&gt; &lt;br /&gt; Him. You saw him.&lt;br /&gt; &lt;br /&gt; "You saw him, didn't you?"&lt;br /&gt; &lt;br /&gt; You look up at the Jester.&lt;br /&gt; &lt;br /&gt; "Of course you did. He enjoys meddling in my affairs as well. He mentioned his lover? The Emerald Prince?"&lt;br /&gt; &lt;br /&gt; Lover?&lt;br /&gt; &lt;br /&gt; "You're aware they were once involved. There wasn't a handsome man around that… Hmm, child, sounds inappropriate. Oh well, that lad wouldn't yield either."&lt;br /&gt; &lt;br /&gt; He's twenty-seven. The number slips from your lips.&lt;br /&gt; &lt;br /&gt; "Oh, he's older than that. Older than many things, but not of the nameless. Come, child, I wish to show you something."&lt;br /&gt; &lt;br /&gt; What else, besides a literal child's corpse, could you possibly reveal?&lt;br /&gt; &lt;br /&gt; "A man's deceased body!" he exclaims gleefully.&lt;br /&gt; &lt;br /&gt; Before you know it, he's stripped naked and dancing through the clearing by the stream, disappearing into the encroaching forest.&lt;br /&gt; &lt;br /&gt; You gaze up at the sky; rain is on the horizon.</t>
+  </si>
+  <si>
+    <t>You trail after the dancing, naked man as he serenades with his songs of love, lust, and desire. Several times he pauses to inquire if you're interested in some intimacy, but you firmly decline, urging him to lead on. &lt;br /&gt; Disappointed by your refusal, he continues dancing and singing.&lt;br /&gt; &lt;br /&gt; Days pass on this journey until you finally reach the outskirts of an ancient village, lost to the devastation of war, reclaimed by the relentless march of time.&lt;br /&gt; &lt;br /&gt; The few remaining houses echo with the ghosts of the past, memories of families lost to time's cruel embrace.&lt;br /&gt; &lt;br /&gt; The jester pauses, lifting a child's skull from the overgrown remnants of a road leading into town.&lt;br /&gt; &lt;br /&gt; "This isn't it. But it's a child's skull. A child felled by The Federation, by my Fliniguss. Ah, how I adore that man. His depravity knows no bounds." He chuckles and dances onward, you following in silence.&lt;br /&gt; &lt;br /&gt; Eventually, you reach a dilapidated house, its windows blown out, barely standing amidst the encroaching wilderness.&lt;br /&gt; &lt;br /&gt; As you enter, you attempt to ward yourself, but the jester dismisses your efforts with a wave of his hand. "No need for that here, child. All things related to The Federation are already dead."&lt;br /&gt; &lt;br /&gt; You step into a room, understanding his words immediately. A man, dressed in Federation uniform, slumps in a chair, his eyes absent.&lt;br /&gt; &lt;br /&gt; "Meet Fliniguss! My beloved!" the jester declares.&lt;br /&gt; &lt;br /&gt; You point out that the man is clearly deceased, judging by the odor.&lt;br /&gt; &lt;br /&gt; "No, no. He's as fresh and lively as ever. Trust me," the jester insists.&lt;br /&gt; &lt;br /&gt; Bewildered, you're overcome by the stench of decay.&lt;br /&gt; &lt;br /&gt; "My dear Fliniguss, we have visitors," the jester announces with a smile, approaching the corpse. He props it up, planting a kiss on its cheek. "Fliniguss, darling. We have guests," he repeats, his smile twisted and &lt;br /&gt; sinister as he looks at you.&lt;br /&gt; &lt;br /&gt; "Care to join us and complete our trio?" he laughs, sending shivers down your spine.&lt;br /&gt; &lt;br /&gt; You flee.</t>
   </si>
 </sst>
 </file>
@@ -2742,7 +2778,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG176"/>
+  <dimension ref="A1:AG180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -10166,6 +10202,179 @@
         <v>10</v>
       </c>
     </row>
+    <row r="177" spans="1:33">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>796</v>
+      </c>
+      <c r="C177" t="s">
+        <v>777</v>
+      </c>
+      <c r="E177" t="s">
+        <v>793</v>
+      </c>
+      <c r="F177" t="s">
+        <v>776</v>
+      </c>
+      <c r="N177">
+        <v>1000</v>
+      </c>
+      <c r="O177">
+        <v>500</v>
+      </c>
+      <c r="P177">
+        <v>10000</v>
+      </c>
+      <c r="Q177">
+        <v>250</v>
+      </c>
+      <c r="U177" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>798</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>793</v>
+      </c>
+      <c r="AE177">
+        <v>8</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>777</v>
+      </c>
+      <c r="AG177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>799</v>
+      </c>
+      <c r="C178" t="s">
+        <v>764</v>
+      </c>
+      <c r="N178">
+        <v>1000</v>
+      </c>
+      <c r="O178">
+        <v>500</v>
+      </c>
+      <c r="P178">
+        <v>10000</v>
+      </c>
+      <c r="Q178">
+        <v>250</v>
+      </c>
+      <c r="U178" t="s">
+        <v>796</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>801</v>
+      </c>
+      <c r="AE178">
+        <v>8</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>764</v>
+      </c>
+      <c r="AG178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>802</v>
+      </c>
+      <c r="C179" t="s">
+        <v>777</v>
+      </c>
+      <c r="N179">
+        <v>1000</v>
+      </c>
+      <c r="O179">
+        <v>500</v>
+      </c>
+      <c r="P179">
+        <v>10000</v>
+      </c>
+      <c r="Q179">
+        <v>250</v>
+      </c>
+      <c r="U179" t="s">
+        <v>799</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>803</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>804</v>
+      </c>
+      <c r="AE179">
+        <v>8</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>777</v>
+      </c>
+      <c r="AG179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>805</v>
+      </c>
+      <c r="C180" t="s">
+        <v>751</v>
+      </c>
+      <c r="N180">
+        <v>1000</v>
+      </c>
+      <c r="O180">
+        <v>500</v>
+      </c>
+      <c r="P180">
+        <v>10000</v>
+      </c>
+      <c r="Q180">
+        <v>250</v>
+      </c>
+      <c r="U180" t="s">
+        <v>802</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>806</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE180">
+        <v>8</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>777</v>
+      </c>
+      <c r="AG180">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="822">
   <si>
     <t>id</t>
   </si>
@@ -2439,6 +2439,48 @@
   </si>
   <si>
     <t>You trail after the dancing, naked man as he serenades with his songs of love, lust, and desire. Several times he pauses to inquire if you're interested in some intimacy, but you firmly decline, urging him to lead on. &lt;br /&gt; Disappointed by your refusal, he continues dancing and singing.&lt;br /&gt; &lt;br /&gt; Days pass on this journey until you finally reach the outskirts of an ancient village, lost to the devastation of war, reclaimed by the relentless march of time.&lt;br /&gt; &lt;br /&gt; The few remaining houses echo with the ghosts of the past, memories of families lost to time's cruel embrace.&lt;br /&gt; &lt;br /&gt; The jester pauses, lifting a child's skull from the overgrown remnants of a road leading into town.&lt;br /&gt; &lt;br /&gt; "This isn't it. But it's a child's skull. A child felled by The Federation, by my Fliniguss. Ah, how I adore that man. His depravity knows no bounds." He chuckles and dances onward, you following in silence.&lt;br /&gt; &lt;br /&gt; Eventually, you reach a dilapidated house, its windows blown out, barely standing amidst the encroaching wilderness.&lt;br /&gt; &lt;br /&gt; As you enter, you attempt to ward yourself, but the jester dismisses your efforts with a wave of his hand. "No need for that here, child. All things related to The Federation are already dead."&lt;br /&gt; &lt;br /&gt; You step into a room, understanding his words immediately. A man, dressed in Federation uniform, slumps in a chair, his eyes absent.&lt;br /&gt; &lt;br /&gt; "Meet Fliniguss! My beloved!" the jester declares.&lt;br /&gt; &lt;br /&gt; You point out that the man is clearly deceased, judging by the odor.&lt;br /&gt; &lt;br /&gt; "No, no. He's as fresh and lively as ever. Trust me," the jester insists.&lt;br /&gt; &lt;br /&gt; Bewildered, you're overcome by the stench of decay.&lt;br /&gt; &lt;br /&gt; "My dear Fliniguss, we have visitors," the jester announces with a smile, approaching the corpse. He props it up, planting a kiss on its cheek. "Fliniguss, darling. We have guests," he repeats, his smile twisted and &lt;br /&gt; sinister as he looks at you.&lt;br /&gt; &lt;br /&gt; "Care to join us and complete our trio?" he laughs, sending shivers down your spine.&lt;br /&gt; &lt;br /&gt; You flee.</t>
+  </si>
+  <si>
+    <t>Infiltrating the Enemy</t>
+  </si>
+  <si>
+    <t>FederationChancellor</t>
+  </si>
+  <si>
+    <t>You venture to Federation City in the far north to rendezvous with a man known only as the Federation Chancellor. Disguised under the pretense of investigating corruption within the upper echelons of The Federation, possibly implicating—as revealed by The Jester of Time, Fliniguss' absence—his potential involvement.&lt;br /&gt; &lt;br /&gt; The Federation Chancellor acquiesces to your meeting, accompanied by representatives from the church. You've heard rumors of the twisted and sinister deeds attributed to both The Federation and The Church: the &lt;br /&gt; carnage, death, enslavement, and even more abhorrent horrors lurking within one's psyche, forbidden from surfacing.&lt;br /&gt; &lt;br /&gt; This city appears more technologically advanced than what you're accustomed to, contrasting the stone and wood constructions of other cities. Here, metal, steam, and gears prevail, indicative of a higher level of &lt;br /&gt; advancement. Giant airships dominate the skies, while individuals rush about the streets in modern attire.&lt;br /&gt; &lt;br /&gt; You feel conspicuously out of place, not just in this era but also in this locale.&lt;br /&gt; &lt;br /&gt; Navigating through one of the bustling main streets, teeming with small pubs, eateries, and shops brimming with peculiar curiosities, you pause to peer into a shop window. Suddenly, a voice startles you from behind: &lt;br /&gt; "Steampunk is the design, or so they say. Contraptions fueled by steam are presumably crafted by mischievous individuals. Whatever the case, these toys captivate my children for hours."&lt;br /&gt; &lt;br /&gt; You turn to behold a sharply dressed man.&lt;br /&gt; &lt;br /&gt; "I am the Federation Chancellor you seek. My office lies across the street. A bishop and clergy await us. Shall we proceed?" he inquires.&lt;br /&gt; &lt;br /&gt; You nod in affirmation and trail behind him as he strides across the street and into the building.</t>
+  </si>
+  <si>
+    <t>You find yourself seated at a substantial oak table alongside a Bishop of The Church, a clergy member of The Church, and the Federation Chancellor. Their exchange is fraught with argument and contention:&lt;br /&gt; &lt;br /&gt; "It's preposterous! These are sheer fabrications!" the Bishop bellows across the table.&lt;br /&gt; &lt;br /&gt; "I'm unfamiliar with you. Whom do you represent?" the clergy member directs towards you after a pause.&lt;br /&gt; &lt;br /&gt; You gaze at both men, fabricating a story with practiced ease. You claim allegiance to Fliniguss and assert that his recent disappearance prompted your inquiry into matters that hinted at corruption. Your search led you &lt;br /&gt; to unsettling revelations, culminating in the discovery of his lifeless body.&lt;br /&gt; &lt;br /&gt; "Nonsense! I refuse to entertain such baseless claims. If Fliniguss were missing or worse, the Arch Bishop would have been informed by now," the Bishop retorts vehemently.&lt;br /&gt; &lt;br /&gt; "I propose we subject this heretic to the judgment of the prophet. He shall discern truth from falsehood," the Bishop declares, slamming his hand on the table. "No! We must deliver him to The Church, allowing divine scrutiny to reveal the purity of his soul," counters another.&lt;br /&gt; &lt;br /&gt; "I concur. Why entrust him to a prophet the church has disavowed?" A query begins to form in your mind, but the Chancellor interjects.&lt;br /&gt; &lt;br /&gt; "Fliniguss would choose this course. I understand his mindset. He would opt for the prophet in the forsaken village, believing wholeheartedly in the man's divine connection," the Chancellor asserts.&lt;br /&gt; &lt;br /&gt; "He's a heretic, a deceiver, and it's common knowledge that the Arch Bishop turns a blind eye to Fliniguss and his association with this individual," the clergy member interjects.&lt;br /&gt; &lt;br /&gt; A heavy silence descends upon the table, but you declare your willingness to proceed with this plan. The Chancellor's reasoning resonates; Fliniguss would indeed opt for such a path. Let us, if nothing else, honor that &lt;br /&gt; aspect of the man's memory.&lt;br /&gt; &lt;br /&gt; "A shrewd maneuver indeed. We shall see who emerges victorious," the Chancellor remarks with a smile. The others recline in their chairs, scrutinizing you intently.&lt;br /&gt; &lt;br /&gt; A game is set in motion, one that promises either revelation or demise.</t>
+  </si>
+  <si>
+    <t>A word from our prophet</t>
+  </si>
+  <si>
+    <t>ProphetofTheChurch</t>
+  </si>
+  <si>
+    <t>After days of travel, you stumble upon an abandoned chapel nestled in the heart of a desolate village. Not a soul stirs; the pervasive silence weighs heavily, suffocating in its loneliness.&lt;br /&gt; &lt;br /&gt; Venturing inside the dilapidated chapel, its structure half-burnt and mostly crumbled, you encounter a solitary figure seated upon a remaining pew. As he rises to greet you, his appearance strikes a balance between age and vitality – weathered by time yet possessing a serene countenance.&lt;br /&gt; &lt;br /&gt; "Child, I understand your purpose here," he intones softly.&lt;br /&gt; &lt;br /&gt; You convey your mission: persuading the Chancellor and the Bishop of Fliniguss's demise, unable to disclose further details but hoping to glean insights into their next course of action now that their organization's leader is no more.&lt;br /&gt; &lt;br /&gt; "He cannot have perished, child. That does not align with God's plan for him," he responds with gentle certainty. Intrigued, you inquire how he is so certain.&lt;br /&gt; &lt;br /&gt; "Silly child. God speaks to me. He also reveals a trial awaiting you – four judges who roam the corridors of the old church. Judges tasked with testing your mettle in confronting harsh truths," he explains, a faint chuckle &lt;br /&gt; escaping his lips as he steps past you and exits the chapel into the desolate village.&lt;br /&gt; &lt;br /&gt; "This place," he begins, gesturing around him, "once teemed with life. Now, it is but a testament to death. Each inhabitant faced judgment, yet few prevailed."&lt;br /&gt; &lt;br /&gt; He turns to regard you intently.&lt;br /&gt; &lt;br /&gt; "But he survived. He is not among the deceased," he asserts.</t>
+  </si>
+  <si>
+    <t>You find yourself spending a considerable amount of time within the village, engaging in activities such as hunting local wildlife and assisting the prophet with his enigmatic "chores."&lt;br /&gt; &lt;br /&gt; Despite your efforts, answers remain elusive – a man ostensibly deceased yet alive, the enigmatic Jester of Time, and elusive dreams of The Creator.&lt;br /&gt; &lt;br /&gt; Your attempts at espionage against The Federation are stymied by a man who claims divine communication. The concept of God perplexes you – is it akin to the gods and celestial beings of this realm? Or is it yet &lt;br /&gt; another unseen force pulling strings behind the scenes?&lt;br /&gt; &lt;br /&gt; Questions multiply, answers remain elusive. This individual leads you in circles, offering cryptic hints but no clear solutions. Yet, the prospect of facing the judges intrigues you – perhaps therein lies a semblance of clarity amid the chaos.</t>
+  </si>
+  <si>
+    <t>The judges of time</t>
+  </si>
+  <si>
+    <t>Inquiring with the prophet about the judges yields cryptic insight.&lt;br /&gt; &lt;br /&gt; "There are four of them, child. They judge the essence of your being, not through brute force like your hunts here, but by surviving through the guidance of God's voice and grace. It is through divine guidance that you &lt;br /&gt; shall find the answers you seek," he explains.&lt;br /&gt; &lt;br /&gt; You scoff, claiming he knows nothing of your inquiries.&lt;br /&gt; &lt;br /&gt; "I am aware of your pursuit of the prince, your encounters with the jester, and your struggles with the illusions of this world. But what you fail to see is the bigger picture – you are as blind as The Child, as The Creator, &lt;br /&gt; even as the Madam who believes she controls memories lost to the twisted whims of time," he asserts, fixing his gaze upon you.&lt;br /&gt; &lt;br /&gt; After a pregnant pause, he continues, "I perceive a yearning within you, a quest for something beyond your comprehension. And I know you are an inadequate spy. Your deceit brought you this far, but The Federation &lt;br /&gt; holds no answers for you."&lt;br /&gt; &lt;br /&gt; Not even regarding Fliniguss's true demise? Or the thwarted ascension? You are aware that this is a distorted memory from a deluded era.&lt;br /&gt; &lt;br /&gt; "You are not of this time, child. You possess knowledge beyond your era and recall memories obscured by fog, yet clarified by your words," he remarks before turning away.&lt;br /&gt; &lt;br /&gt; As you call out to him, he continues walking, his destination shrouded in mystery. Where is he headed?</t>
+  </si>
+  <si>
+    <t>You wait in anticipation, but days pass without the prophet's presence. The rhythm of rain and silence envelops the land.&lt;br /&gt; &lt;br /&gt; One day, as you return to the chapel after foraging for herbs and game, you spot him standing at the entrance. Observing him for a moment, you approach and inquire about his absence.&lt;br /&gt; &lt;br /&gt; "I sought revelation, child. There is much to discuss," he replies, his hand resting on your shoulder.&lt;br /&gt; &lt;br /&gt; Though he claims not to recall you, he acknowledges awareness of your kind – transient beings who emerge from obscurity, probing with countless inquiries before fading away once more. According to his divine insight, &lt;br /&gt; you possess the capacity to confront the judges of time – arbiters of your essence, body, and psyche; arbiters of your anguish.&lt;br /&gt; &lt;br /&gt; Eagerly, you inquire how to face these judges, hoping for further elucidation.&lt;br /&gt; &lt;br /&gt; "They hold no answers," he responds with a smile.</t>
+  </si>
+  <si>
+    <t>Celestial Hunt</t>
+  </si>
+  <si>
+    <t>Early one morning, as you approach the ruined chapel to meet the prophet, he greets you with news delivered by carrier pigeon.&lt;br /&gt; &lt;br /&gt; "They inquired about your progress," he reveals. "Whether they should dispatch the guard. I responded by informing them that I have sent you to the Judges."&lt;br /&gt; &lt;br /&gt; You express frustration, recounting the Bishop and the clergy's dismissal of your credibility, branding you a heretic.&lt;br /&gt; &lt;br /&gt; "They hurl insults, they cast their stones. Yet God speaks to me, and the Arch Bishop, he discerns the truth. Despite murmurs of doubt, I perceive the state of his soul. It has undergone judgment," he declares, settling on &lt;br /&gt; the chapel steps.&lt;br /&gt; &lt;br /&gt; Seizing the opportunity, you inquire about the whereabouts of the judges and how to reach them, how to engage in this confrontation.&lt;br /&gt; &lt;br /&gt; "First, child, you must survive," he cryptically replies.&lt;br /&gt; &lt;br /&gt; Survive? Survive what?</t>
+  </si>
+  <si>
+    <t>"There exist creatures in this realm more fearsome than the quarry of your hunts for bones and teeth," the prophet remarks solemnly.&lt;br /&gt; &lt;br /&gt; You inform him of these beings, known as celestials. Their origins remain a mystery, yet you've heard of individuals possessing the magic to summon them. Moreover, you recount instances when they emerge from their &lt;br /&gt; hidden lairs, fueled by rage, hatred, and the depths of darkness they harbor.&lt;br /&gt; &lt;br /&gt; "Abominable creations. They must be vanquished! We must restore peace to God's earth," he declares with fervor.&lt;br /&gt; &lt;br /&gt; However, you cannot help but ponder that true peace seems an elusive dream as long as darkness persists.</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2820,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG180"/>
+  <dimension ref="A1:AG184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2796,7 +2838,7 @@
     <col min="8" max="8" width="48.274" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="41.133" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="19.995" bestFit="true" customWidth="true" style="0"/>
@@ -10375,6 +10417,206 @@
         <v>25</v>
       </c>
     </row>
+    <row r="181" spans="1:33">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>808</v>
+      </c>
+      <c r="C181" t="s">
+        <v>809</v>
+      </c>
+      <c r="E181" t="s">
+        <v>805</v>
+      </c>
+      <c r="F181" t="s">
+        <v>796</v>
+      </c>
+      <c r="G181">
+        <v>20</v>
+      </c>
+      <c r="H181" t="s">
+        <v>376</v>
+      </c>
+      <c r="I181">
+        <v>550000</v>
+      </c>
+      <c r="J181">
+        <v>550000</v>
+      </c>
+      <c r="K181">
+        <v>150000000000</v>
+      </c>
+      <c r="L181">
+        <v>700000</v>
+      </c>
+      <c r="N181">
+        <v>500000</v>
+      </c>
+      <c r="O181">
+        <v>500000</v>
+      </c>
+      <c r="P181">
+        <v>2000000000</v>
+      </c>
+      <c r="Q181">
+        <v>175000</v>
+      </c>
+      <c r="U181" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>810</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>811</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>805</v>
+      </c>
+      <c r="AE181">
+        <v>8</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>809</v>
+      </c>
+      <c r="AG181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>812</v>
+      </c>
+      <c r="C182" t="s">
+        <v>813</v>
+      </c>
+      <c r="L182">
+        <v>150000</v>
+      </c>
+      <c r="N182">
+        <v>500000</v>
+      </c>
+      <c r="O182">
+        <v>500000</v>
+      </c>
+      <c r="P182">
+        <v>2000000000</v>
+      </c>
+      <c r="Q182">
+        <v>175000</v>
+      </c>
+      <c r="U182" t="s">
+        <v>808</v>
+      </c>
+      <c r="W182" t="s">
+        <v>687</v>
+      </c>
+      <c r="X182">
+        <v>5</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>814</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>815</v>
+      </c>
+      <c r="AE182">
+        <v>8</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>813</v>
+      </c>
+      <c r="AG182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>816</v>
+      </c>
+      <c r="C183" t="s">
+        <v>813</v>
+      </c>
+      <c r="N183">
+        <v>500000</v>
+      </c>
+      <c r="O183">
+        <v>500000</v>
+      </c>
+      <c r="P183">
+        <v>2000000000</v>
+      </c>
+      <c r="Q183">
+        <v>175000</v>
+      </c>
+      <c r="U183" t="s">
+        <v>812</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE183">
+        <v>8</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>813</v>
+      </c>
+      <c r="AG183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>819</v>
+      </c>
+      <c r="C184" t="s">
+        <v>813</v>
+      </c>
+      <c r="N184">
+        <v>500000</v>
+      </c>
+      <c r="O184">
+        <v>500000</v>
+      </c>
+      <c r="P184">
+        <v>2000000000</v>
+      </c>
+      <c r="Q184">
+        <v>175000</v>
+      </c>
+      <c r="U184" t="s">
+        <v>816</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>820</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE184">
+        <v>8</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>813</v>
+      </c>
+      <c r="AG184">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="857">
   <si>
     <t>id</t>
   </si>
@@ -2481,6 +2481,111 @@
   </si>
   <si>
     <t>"There exist creatures in this realm more fearsome than the quarry of your hunts for bones and teeth," the prophet remarks solemnly.&lt;br /&gt; &lt;br /&gt; You inform him of these beings, known as celestials. Their origins remain a mystery, yet you've heard of individuals possessing the magic to summon them. Moreover, you recount instances when they emerge from their &lt;br /&gt; hidden lairs, fueled by rage, hatred, and the depths of darkness they harbor.&lt;br /&gt; &lt;br /&gt; "Abominable creations. They must be vanquished! We must restore peace to God's earth," he declares with fervor.&lt;br /&gt; &lt;br /&gt; However, you cannot help but ponder that true peace seems an elusive dream as long as darkness persists.</t>
+  </si>
+  <si>
+    <t>Blame The Church</t>
+  </si>
+  <si>
+    <t>The Jester of Time</t>
+  </si>
+  <si>
+    <t>You stand before the Federation Chancellor in a meeting room of his office. He gazes out the window, observing airships fly by and the people below on the street.&lt;br /&gt; &lt;br /&gt; Speaking in a soft tone, he breaks the silence by saying, "I know the truth."&lt;br /&gt; &lt;br /&gt; Pausing, you remain silent as a hush falls over the room.&lt;br /&gt; &lt;br /&gt; "Fliniguss is dead. I witnessed it during our scouting mission. I have presented evidence to the bishop and his clergy. The truth is undeniable."&lt;br /&gt; &lt;br /&gt; Recalling what the prophet conveyed to you, you assert, "But he isn’t dead. It wasn’t in God’s plan."&lt;br /&gt; &lt;br /&gt; Turning to face you, the Chancellor queries, "And what is God's plan? If this man is alive, whose decayed head did I deliver to the bishop?"&lt;br /&gt; &lt;br /&gt; Moving to the table, he sets down his gun and sword, retrieving two knives from his boots and placing them alongside. &lt;br /&gt; &lt;br /&gt; "The Federation's aim was always to unite the peoples under one government. It's The Church that enforced a single religion, utilizing our military and their covert, corrupt alchemy."&lt;br /&gt; &lt;br /&gt; You challenge, "Are you blaming them for our atrocities?" with a trace of amusement.&lt;br /&gt; &lt;br /&gt; "I blame no one. I simply state the facts; consequences be damned."&lt;br /&gt; &lt;br /&gt; Skeptically, you regard him.</t>
+  </si>
+  <si>
+    <t>"Who do you think does all the slaughtering and killing? The Church," he states after a moment's pause.&lt;br /&gt; &lt;br /&gt; "They supply the military and the power to propagate their religious agenda. The Church executes the condemned without mercy. It matters not if you kneel before them; they'll slay you, they'll butcher you. They'll commit &lt;br /&gt; atrocities beyond imagination. They turn a blind eye, all in the name of their God."&lt;br /&gt; &lt;br /&gt; "And you? The Federation?" you prompt, seeking clarification on their stance.&lt;br /&gt; &lt;br /&gt; "No, what you've heard pertains to The Church. They're accountable for that. We, on the other hand, are the political machinery financing the bloodshed. We're not the ones wielding the blades; we simply provide the &lt;br /&gt; funds. We bankroll The Church."&lt;br /&gt; &lt;br /&gt; "Then why continue?" you question.&lt;br /&gt; &lt;br /&gt; "Politics isn't your forte, is it? It's a labyrinth of fragile alliances. One thread unravels, and they all collapse. One weakens, and they all crumble."</t>
+  </si>
+  <si>
+    <t>Whats reality?</t>
+  </si>
+  <si>
+    <t>You spend most of your time wandering around the city, exploring the shops, the merchandise, and the various establishments for leisure activities.&lt;br /&gt; &lt;br /&gt; Reflecting on the Chancellor's words, you ponder your knowledge of The Federation and The Red Hawks. Where are they? Not a single Red Hawk has crossed your path since your arrival. It's perplexing. What you &lt;br /&gt; recall is that The Red Hawks brought down The Federation, leading to the collapse of The Church.&lt;br /&gt; &lt;br /&gt; You're aware that The Red Hawk and The Child were pivotal in this downfall. Following that, The Poet guided The Child toward ascension, culminating in The Shattering. Yet, amidst this knowledge, you feel lost. This &lt;br /&gt; land feels foreign, akin to The Ice Plane. Nothing resembles your familiar surroundings.&lt;br /&gt; &lt;br /&gt; So, what's your next move?</t>
+  </si>
+  <si>
+    <t>You find the prophet standing at the entrance of his chapel, amidst the village's ruins, offering you a warm smile.&lt;br /&gt; &lt;br /&gt; "Child, I see you've encountered entities from another realm. Entities that warp memories," he remarks.&lt;br /&gt; &lt;br /&gt; You divulge everything you know to him, uncertain whether it's right or wrong. You recount tales of The Emerald Prince and the distorted memories and nightmares.&lt;br /&gt; &lt;br /&gt; "Child, I exist as a mere memory of a fantasy. A fantasy where the war was victorious, where The Child met his end, and where the Red Hawks perished. This world is shaped by one man's lust for life, another's quest for &lt;br /&gt; reunion, and an insatiable thirst for blood."&lt;br /&gt; &lt;br /&gt; "A blood thirst?" you inquire after a pause.&lt;br /&gt; &lt;br /&gt; "The Jester, the mastermind behind the deaths. The one who manipulates time, distorting reality. None of this is real, child. Can't you perceive the truth behind this twisted illusion? How blind must you be not to see?"&lt;br /&gt; &lt;br /&gt; With a sudden realization, you turn pale. None of this is real.</t>
+  </si>
+  <si>
+    <t>Question and Bedtime Stories</t>
+  </si>
+  <si>
+    <t>You return to the city after a few days of rest from your journey and make your way to the Federation Chancellor's office. Armed with the realization that none of this is real, you're consumed by a burning question that races through your mind.&lt;br /&gt; &lt;br /&gt; Finding him in a small office on the main floor, engrossed in writing notes, you abruptly inquire about the fate of the Red Hawks.&lt;br /&gt; &lt;br /&gt; He looks up, his expression puzzled. "How long have you been in Fliniguss's service?" he counters.&lt;br /&gt; &lt;br /&gt; Once more, you resort to falsehood, a skill honed through repetition. You fabricate a tale of arriving from the east six months ago at Fliniguss's behest, under the guise of serving as his assistant. Intrigued by rumors of &lt;br /&gt; The Church's expansion, you claim to have come for investigative purposes.&lt;br /&gt; &lt;br /&gt; He nods, seemingly accepting your explanation. "Naturally, your arrival was driven by curiosity."&lt;br /&gt; &lt;br /&gt; "The Red Hawks," he continues, "were obliterated in the war. The Church's ambitions were thwarted, but now we're focused on expanding in the absence of the Red Hawks."&lt;br /&gt; &lt;br /&gt; You cautiously mention "reports" of a figure known as "The Child" associated with them, guided by someone called The Poet.&lt;br /&gt; &lt;br /&gt; A glint of hatred flickers in his eyes, a shadow of rage crossing his face momentarily. But just as quickly, he responds with a smile, "They're all dead. These traitors, spreading lies. Who fills your head with such tales?"&lt;br /&gt; &lt;br /&gt; You deflect, attributing it to mere hearsay and bedtime stories, denying any specific source.</t>
+  </si>
+  <si>
+    <t>You grasp the truth of the situation, yet one aspect remains confounding: the connection between the deceased figures in this distorted world and the enigmatic figure known as the Jester of Time.&lt;br /&gt; &lt;br /&gt; In a circuitous manner, you inquire about the existence of an individual who goes by the name of the Jester of Time or similar titles.&lt;br /&gt; &lt;br /&gt; "I've heard rumors of a lunatic who frolics naked in the woods, a man who preys on innocent children," he responds cryptically. "There's talk of someone dabbling in dark arts, weaving illusions of pain and death. And &lt;br /&gt; they say his laughter chills the soul."&lt;br /&gt; &lt;br /&gt; You stare at him incredulously, but he erupts into laughter. "Child, those are nothing more than fanciful tales spun for children's bedtime stories. Hahaha!"</t>
+  </si>
+  <si>
+    <t>Setting out for answers</t>
+  </si>
+  <si>
+    <t>You find yourself pondering over all you've discovered, grappling with the paradox of reality and illusion. In one realm, The Child and The Poet meet their demise, while in another, The Child is revered as The Creator, &lt;br /&gt; but what exactly does he create?&lt;br /&gt; &lt;br /&gt; "Chasing ghosts?" The Chancellor's voice interrupts your thoughts.&lt;br /&gt; &lt;br /&gt; You turn to him, explaining that you were contemplating the stories you've heard and the complexities of the situation. You inquire about his plans now that the war has concluded. Will he pursue shadows of the past?&lt;br /&gt; &lt;br /&gt; "The Federation is charting its next steps carefully. I highly doubt The Church will have a role to play," he asserts confidently.&lt;br /&gt; &lt;br /&gt; His certainty strikes you. Yet, from what you've gleaned, The Church's influence is pervasive, infiltrating and distorting everything it touches.&lt;br /&gt; &lt;br /&gt; Then it hits you. It's all interconnected, isn't it?</t>
+  </si>
+  <si>
+    <t>You inquire if the chancellor requires anything from you, as you must continue your journey to seek an answer to a question that neither he nor The Church could possibly answer—a question rooted in deep reflection. &lt;br /&gt; Yet another fabrication slips from your lips.&lt;br /&gt; &lt;br /&gt; "You're quite the enigmatic individual, aren't you, child? You harbor numerous inquiries, absorb countless tales, engage with many souls, and dedicate a considerable amount of time to pondering their significance. &lt;br /&gt; Assessing their value," he remarks, his tone thoughtful.&lt;br /&gt; &lt;br /&gt; He pauses, then adds, "I admire that."&lt;br /&gt; &lt;br /&gt; With a reassuring pat on your shoulder, he bids you farewell. In another time, another place, your penchant for deceit might have cost you dearly, were it not for your convincing facade.</t>
+  </si>
+  <si>
+    <t>Its because of The Shattering</t>
+  </si>
+  <si>
+    <t>You finally locate the man you've been seeking, the one who holds the key to unraveling the mysteries surrounding his brother.&lt;br /&gt; &lt;br /&gt; "You've come seeking me?" a voice from the past echoes, familiar yet haunting—the Wandering Cleric.&lt;br /&gt; &lt;br /&gt; You disclose your realization that everything is a convoluted illusion, interconnected in some inexplicable manner, crafting a distorted fantasy of sorts. Yet, you remain in the dark regarding its true nature.&lt;br /&gt; &lt;br /&gt; "The Shattering, child," he declares solemnly.&lt;br /&gt; &lt;br /&gt; In that moment, it all clicks into place.</t>
+  </si>
+  <si>
+    <t>In this moment of clarity, you understand that The Shattering occurred when The Child failed to ascend. The Poet, The Wandering Merchant, and The Emerald Prince played roles in sealing away corrupted fragments of reality. Yet, this doesn't explain the fate of your brother, you express, grappling with the complexities of it all.&lt;br /&gt; &lt;br /&gt; "Doesn't it? A distorted, fabricated recollection of events that never transpired?" the Wandering Cleric suggests cryptically. He identifies the culprit as the Jester of Time, a being who not only distorts time but also &lt;br /&gt; fabricates his own outcomes.&lt;br /&gt; &lt;br /&gt; You question the reality of your existence, to which he responds, "I exist as I was created by my mother, born into darkness. I persist in my endless quest for my brother, who has succumbed to madness and warped a &lt;br /&gt; memory of war. I exist as I perished."&lt;br /&gt; &lt;br /&gt; "Perished?" you repeat, taken aback.&lt;br /&gt; &lt;br /&gt; "For eons now, I've been a wandering spirit, a remnant of a twisted memory—the one thing tethering my brother to reality, a glimmer of hope in his distorted world."&lt;br /&gt; &lt;br /&gt; "Is the Jester even alive?" you wonder aloud.&lt;br /&gt; &lt;br /&gt; "He is very much alive, trapped within his own mind. It seems everyone is ensnared within their own psyche, don't you think?" the Cleric muses.&lt;br /&gt; &lt;br /&gt; You've traversed realms, witnessed horrors, and endured sorrow beyond measure.</t>
+  </si>
+  <si>
+    <t>What are you really after?</t>
+  </si>
+  <si>
+    <t>The cleric regards you with a solemn gaze before breaking the silence with a pointed question.&lt;br /&gt; &lt;br /&gt; "Did he come to you?" he inquires.&lt;br /&gt; &lt;br /&gt; Confusion clouds your expression as you seek clarification. "Who?" you ask.&lt;br /&gt; &lt;br /&gt; "Him. The Child," he clarifies. "Did he appear to you?"&lt;br /&gt; &lt;br /&gt; You ponder the reality of the encounter. "Was that even real?"&lt;br /&gt; &lt;br /&gt; "It was. He stood before you, just as he did before me, delivering his message," the cleric asserts.&lt;br /&gt; &lt;br /&gt; You recount The Child's words, how he urged you to cease your involvement, to step aside.&lt;br /&gt; &lt;br /&gt; "It's all part of the same narrative, repeated across every world you traverse, every breach that opens. Why do you persist in this game? For scraps of information? Meaningless tidbits?" the cleric challenges.&lt;br /&gt; &lt;br /&gt; Attempting to divert the conversation, you inquire about The Child's message to him.&lt;br /&gt; &lt;br /&gt; "It matters not, child. You evade my question," he rebukes, his frustration palpable. "Why do you squander your time? Do you treat this realm like a fleeting fancy, discarding it after a mere dalliance? Do you even &lt;br /&gt; appreciate the magic woven into its fabric—a tapestry of mystery and enchantment, with surprises at every turn?"&lt;br /&gt; &lt;br /&gt; Once more, you sidestep his query, prompting his growing impatience.</t>
+  </si>
+  <si>
+    <t>In the absence of communication from the cleric for several days, you find yourself pondering the interconnectedness of it all. You reflect on the questions he posed to you, questioning your motivations and the purpose behind your pursuit.&lt;br /&gt; &lt;br /&gt; Why do you persist in chasing these leads, only to confront creatures born of twisted imagination? What joy do you derive from it? Why does The Child hold any significance to you, beyond morbid curiosity about his identity?&lt;br /&gt; &lt;br /&gt; Then, it dawns on you. You care because of what you know. The Child is supposedly confined to Purgatory. The existence of these alternate planes and ruptures in the fabric of reality shouldn't be possible. The war has ended, lives have been lost, and the world has moved on. But he hasn't. He remains consumed by rage, orchestrating this intricate web, controlling every aspect. He's the one responsible for leaving breadcrumbs, &lt;br /&gt; guiding you along this path.&lt;br /&gt; &lt;br /&gt; For a fleeting moment, you wonder if he's aware of what you've come to understand—knowledge that perhaps you shouldn't possess.</t>
+  </si>
+  <si>
+    <t>He's dead, accept it</t>
+  </si>
+  <si>
+    <t>Picture of the Wandering Cleric</t>
+  </si>
+  <si>
+    <t>Over the past few days, you've been immersed in thought, replaying conversations in your mind. The notion that you're merely a pawn, led along by someone whose own sorrow binds them, is unfathomable.&lt;br /&gt; &lt;br /&gt; Each plane of existence owes its existence to The Shattering, a cataclysm brought about by a failed ascension—a refusal to let go of pain, a denial of reality.&lt;br /&gt; &lt;br /&gt; Shaking off these troubling thoughts, you're startled to see him—the jester—standing before you, clothed for once.&lt;br /&gt; &lt;br /&gt; "Do you finally possess the last piece of the puzzle?" he inquires, a sinister grin playing on his lips.&lt;br /&gt; &lt;br /&gt; You claim you do, though you pose one final question: Why haven't the Nameless ones intervened to set things right?&lt;br /&gt; &lt;br /&gt; "Silly child, you haven't unravelled the final answer yet. But you can. Hahahaha," he chuckles.&lt;br /&gt; &lt;br /&gt; Another trial?&lt;br /&gt; &lt;br /&gt; "One that requires you to fetch me a picture. A picture of my brother."&lt;br /&gt; &lt;br /&gt; Despite everything, you still long for his presence, his essence, his love.&lt;br /&gt; &lt;br /&gt; "You paint me as deranged. I confess, I miss him. But I have my own diversions. I spin time and weave memories to fashion my own playground," he explains.&lt;br /&gt; &lt;br /&gt; You assert matter-of-factly that he twists the memories of his deceased brother.&lt;br /&gt; &lt;br /&gt; His eyes flare with anger. "He's not dead. He's alive, kept away by my mother."</t>
+  </si>
+  <si>
+    <t>You present a simple picture, not a painting but somehow fused with the paper.&lt;br /&gt; &lt;br /&gt; "A photograph," the jester explains as you hand it over.&lt;br /&gt; &lt;br /&gt; "A what?" you inquire, unfamiliar with the term.&lt;br /&gt; &lt;br /&gt; "It's a picture that's one with the paper, created by a special device," he clarifies.&lt;br /&gt; &lt;br /&gt; Fascinating, you retort, your tone dripping with mockery and sarcasm. What could he possibly want with a picture of his supposed deceased brother?&lt;br /&gt; &lt;br /&gt; "I've told you, child, he's not dead. He's entombed beneath layers of memories. I must locate him and shatter this curse. However, I lack the power to manipulate time to a point before the events of the gates. My abilities &lt;br /&gt; are limited to twisting the fabric of this plane's existence from a moment after its creation. If I could reach before that moment, or even within it, I could unravel the magic and gain my freedom. Alas, my power has its &lt;br /&gt; bounds," he explains.&lt;br /&gt; &lt;br /&gt; You speculate if the picture serves as a key to unlocking such power.&lt;br /&gt; &lt;br /&gt; "No, child. It's simply a memory I won't distort," he replies, holding the picture close.</t>
+  </si>
+  <si>
+    <t>A sliver of truth in your lies</t>
+  </si>
+  <si>
+    <t>Journal of another time</t>
+  </si>
+  <si>
+    <t>You fix your gaze on the jester, a fleeting sense of pity washing over you before you push it aside. You inquire about the Faithless Child and the Holy Knight, seeking the truth behind their fates.&lt;br /&gt; &lt;br /&gt; "You truly are dense, aren't you, child? Why not return to my 'dead brother' and ask him? Ask him what transpired," the jester taunts.&lt;br /&gt; &lt;br /&gt; But they are deceased, just like Fliniguss, The Child, The Poet, and the Red Hawks. You retort that a different narrative unfolded—one of chaos, devoid of leadership, engulfed in fear, awaiting plunder and destruction.&lt;br /&gt; &lt;br /&gt; "As I mentioned, child, this is all of my creation. I can twist even your feeble mind and mold it into my playground. Just as he did," the jester asserts cryptically.&lt;br /&gt; &lt;br /&gt; He? you question.&lt;br /&gt; &lt;br /&gt; "Child, there exists a journal kept by The Poet of this realm. It contains something of interest to you—a sliver of truth, a chilling revelation," he reveals.&lt;br /&gt; &lt;br /&gt; Determined, you resolve to locate the journal. Even the smallest shard of truth is worth pursuing.</t>
+  </si>
+  <si>
+    <t>You delve into the journal, scouring its pages for any hint of truth. Eventually, you stumble upon an entry that seems to offer a clue.&lt;br /&gt; &lt;br /&gt; "The Child has failed, or perhaps I have failed The Child," it reads. "I attempted to rectify the world, but something lingers—a sliver of light in my dreams, hinting at another time, another version of myself. Perhaps it's &lt;br /&gt; merely a haunting dream, a reminder of what could have been."&lt;br /&gt; &lt;br /&gt; The entry continues, detailing how The Poet allowed The Child to become embroiled in the Red Hawks' politics and their conflict with The Federation, all while being controlled and manipulated by The Church. The hope &lt;br /&gt; was that witnessing death firsthand would compel The Child to accept his mortality, yet he continued to evade the truth, trapped and deluded by pain.&lt;br /&gt; &lt;br /&gt; "It's all there," the jester remarks.&lt;br /&gt; &lt;br /&gt; But where? You question, perplexed by an entry recounting a man's failures, one who, by his own admission, allowed all this to unfold. Yet, you turn to face the jester, accusing him: "You are the puppet master."&lt;br /&gt; &lt;br /&gt; The jester applauds, a smile dancing on his lips.&lt;br /&gt; &lt;br /&gt; "Nameless in all things," he declares.</t>
+  </si>
+  <si>
+    <t>Stab me once</t>
+  </si>
+  <si>
+    <t>Old bloody rusty knife</t>
+  </si>
+  <si>
+    <t>You've been trekking for days, distancing yourself from the Jester of Time and his manipulations. Pity mingles with contempt for this man who has twisted reality's truths and fabricated memories.&lt;br /&gt; &lt;br /&gt; Is this the nature of these puppet masters, these nameless beings? Who created them? Where do they hail from? To whom do they answer? Countless questions swirl in your mind. You know their mother—the &lt;br /&gt; Wandering Cleric—and the Jester of Time are among these entities.&lt;br /&gt; &lt;br /&gt; They wield formidable power—over time, over memories, over reality itself. Yet, they're imprisoned within their own realms, unable to continue their manipulations.&lt;br /&gt; &lt;br /&gt; All these alternate realities are but fractured fragments of the primary world, of Surface. They're shattered remnants, akin to pieces of a fractured mind, each piece forming its own plane of existence.&lt;br /&gt; &lt;br /&gt; The thoughts racing through your mind verge on the surreal, too bizarre to fully comprehend.&lt;br /&gt; &lt;br /&gt; You locate the cleric and, after exchanging pleasantries, divulge everything—the encounters, the revelations, the meeting with his brother.&lt;br /&gt; &lt;br /&gt; "He cannot confront his actions. But I have a means to show him," the cleric announces. "I just need you to fetch the knife."&lt;br /&gt; &lt;br /&gt; The knife?</t>
+  </si>
+  <si>
+    <t>You grip the knife tightly, unsure if it's merely another twisted creation of the jester's or a tangible reality. As you clutch it, a searing pain grips your skull, driving you to your knees as a vision unfolds—a vision revealing &lt;br /&gt; the harrowing truth.&lt;br /&gt; &lt;br /&gt; In the vision, the Jester of Time plunges the knife into his brother, ranting that he's not real, that he's merely a manifestation of his mother's curse—a torment sent to haunt him. But in a moment of horrifying realization, &lt;br /&gt; the jester understands that his brother is indeed real, and he's slain him with his own hand.&lt;br /&gt; &lt;br /&gt; Returning to the present, you find the Wandering Cleric before you.&lt;br /&gt; &lt;br /&gt; "You witnessed it, didn't you?" he asks.&lt;br /&gt; &lt;br /&gt; But what about the curse that kept them apart?&lt;br /&gt; &lt;br /&gt; "It was never real," the cleric explains. "The Poet and others placed a curse upon the jester's mind, driving him to madness. His descent into madness only deepened when he realized the truth of his actions. All of this—&lt;br /&gt; the twisted realities, the shattered planes—is a consequence of that curse."&lt;br /&gt; &lt;br /&gt; You gaze down at the knife, knowing what must be done.</t>
+  </si>
+  <si>
+    <t>He's dead, accept it Pt. 2</t>
+  </si>
+  <si>
+    <t>Silver Blade of Time</t>
+  </si>
+  <si>
+    <t>You pass the knife to the cleric, affirming that you understand what needs to be done. However, you require something of silver. He directs you to seek out the silver blade, indicating it will aid you in your task.&lt;br /&gt; &lt;br /&gt; Both of you grasp the gravity of the situation. It's time to bring an end to the illusion, to the twisted memories and delusions. It's time to dispel the lies that have shrouded reality, each falsehood layered upon another, &lt;br /&gt; perpetuated by delusion and a refusal to acknowledge the truth.&lt;br /&gt; &lt;br /&gt; Shaking off these grim reflections, you focus your thoughts on the mission ahead: tracking down the beast—slaughtering the jester.</t>
+  </si>
+  <si>
+    <t>You locate the silver blade and return to find the jester in a grotesque display, dancing amidst a heap of corpses, naked and engaging in repulsive acts. He ignites the pile, cackling madly.&lt;br /&gt; &lt;br /&gt; As he notices you, he rushes over, intending to embrace you. However, his joy turns to confusion as he observes the blood staining his stomach, a silver blade protruding from the wound. In a swift motion, you thrust the &lt;br /&gt; blade into him, piercing through his body.&lt;br /&gt; &lt;br /&gt; "Why?" he chokes out, coughing up blood as he collapses to the ground. "Why, child?"&lt;br /&gt; &lt;br /&gt; You explain that it's time to end the madness, acknowledging his role in the twisted delusions while recognizing the true source of the curse.&lt;br /&gt; &lt;br /&gt; A smile flickers across his face. "Ah, child... You are wiser than I realized."&lt;br /&gt; &lt;br /&gt; With those words, he fades away, leaving you standing alone, holding the bloodied silver blade. The world falls silent as you contemplate the heavens, pondering if The Creator has observed these events. You wonder &lt;br /&gt; why he hasn't intervened, questioning whether The Poet holds the answers.&lt;br /&gt; &lt;br /&gt; You drop the blade and walk away from the jester's lifeless body, leaving behind the chaos and deception that defined his existence.</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2925,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG184"/>
+  <dimension ref="A1:AG194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2843,7 +2948,7 @@
     <col min="13" max="13" width="41.133" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="22.28" bestFit="true" customWidth="true" style="0"/>
@@ -10617,6 +10722,536 @@
         <v>15</v>
       </c>
     </row>
+    <row r="185" spans="1:33">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>822</v>
+      </c>
+      <c r="C185" t="s">
+        <v>809</v>
+      </c>
+      <c r="D185" t="s">
+        <v>823</v>
+      </c>
+      <c r="E185" t="s">
+        <v>805</v>
+      </c>
+      <c r="F185" t="s">
+        <v>796</v>
+      </c>
+      <c r="N185">
+        <v>50000</v>
+      </c>
+      <c r="O185">
+        <v>50000</v>
+      </c>
+      <c r="P185">
+        <v>150000000000</v>
+      </c>
+      <c r="Q185">
+        <v>750</v>
+      </c>
+      <c r="T185">
+        <v>1</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>825</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>823</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>805</v>
+      </c>
+      <c r="AE185">
+        <v>8</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>809</v>
+      </c>
+      <c r="AG185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:33">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>826</v>
+      </c>
+      <c r="C186" t="s">
+        <v>813</v>
+      </c>
+      <c r="D186" t="s">
+        <v>823</v>
+      </c>
+      <c r="N186">
+        <v>50000</v>
+      </c>
+      <c r="O186">
+        <v>50000</v>
+      </c>
+      <c r="P186">
+        <v>1500000000</v>
+      </c>
+      <c r="Q186">
+        <v>750</v>
+      </c>
+      <c r="U186" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>827</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>828</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE186">
+        <v>8</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>813</v>
+      </c>
+      <c r="AG186">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:33">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>829</v>
+      </c>
+      <c r="C187" t="s">
+        <v>809</v>
+      </c>
+      <c r="D187" t="s">
+        <v>823</v>
+      </c>
+      <c r="N187">
+        <v>50000</v>
+      </c>
+      <c r="O187">
+        <v>50000</v>
+      </c>
+      <c r="P187">
+        <v>1500000000</v>
+      </c>
+      <c r="Q187">
+        <v>750</v>
+      </c>
+      <c r="U187" t="s">
+        <v>826</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>830</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>831</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE187">
+        <v>8</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>809</v>
+      </c>
+      <c r="AG187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>832</v>
+      </c>
+      <c r="C188" t="s">
+        <v>809</v>
+      </c>
+      <c r="D188" t="s">
+        <v>823</v>
+      </c>
+      <c r="N188">
+        <v>50000</v>
+      </c>
+      <c r="O188">
+        <v>50000</v>
+      </c>
+      <c r="P188">
+        <v>1500000000</v>
+      </c>
+      <c r="Q188">
+        <v>750</v>
+      </c>
+      <c r="U188" t="s">
+        <v>829</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>833</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE188">
+        <v>8</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>809</v>
+      </c>
+      <c r="AG188">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>835</v>
+      </c>
+      <c r="C189" t="s">
+        <v>764</v>
+      </c>
+      <c r="D189" t="s">
+        <v>823</v>
+      </c>
+      <c r="N189">
+        <v>50000</v>
+      </c>
+      <c r="O189">
+        <v>50000</v>
+      </c>
+      <c r="P189">
+        <v>1500000000</v>
+      </c>
+      <c r="Q189">
+        <v>750</v>
+      </c>
+      <c r="U189" t="s">
+        <v>832</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>836</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE189">
+        <v>8</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>764</v>
+      </c>
+      <c r="AG189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>838</v>
+      </c>
+      <c r="C190" t="s">
+        <v>764</v>
+      </c>
+      <c r="D190" t="s">
+        <v>823</v>
+      </c>
+      <c r="N190">
+        <v>500000</v>
+      </c>
+      <c r="O190">
+        <v>500000</v>
+      </c>
+      <c r="P190">
+        <v>1500000000</v>
+      </c>
+      <c r="Q190">
+        <v>75000</v>
+      </c>
+      <c r="U190" t="s">
+        <v>835</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>840</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE190">
+        <v>8</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>764</v>
+      </c>
+      <c r="AG190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>841</v>
+      </c>
+      <c r="C191" t="s">
+        <v>751</v>
+      </c>
+      <c r="D191" t="s">
+        <v>823</v>
+      </c>
+      <c r="E191" t="s">
+        <v>745</v>
+      </c>
+      <c r="F191" t="s">
+        <v>728</v>
+      </c>
+      <c r="G191">
+        <v>25</v>
+      </c>
+      <c r="H191" t="s">
+        <v>842</v>
+      </c>
+      <c r="K191">
+        <v>2000000000</v>
+      </c>
+      <c r="N191">
+        <v>1000000</v>
+      </c>
+      <c r="O191">
+        <v>1000000</v>
+      </c>
+      <c r="P191">
+        <v>2000000000</v>
+      </c>
+      <c r="Q191">
+        <v>200000</v>
+      </c>
+      <c r="U191" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>843</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>844</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>823</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE191">
+        <v>8</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>751</v>
+      </c>
+      <c r="AG191">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>845</v>
+      </c>
+      <c r="C192" t="s">
+        <v>751</v>
+      </c>
+      <c r="D192" t="s">
+        <v>823</v>
+      </c>
+      <c r="E192" t="s">
+        <v>838</v>
+      </c>
+      <c r="F192" t="s">
+        <v>822</v>
+      </c>
+      <c r="H192" t="s">
+        <v>846</v>
+      </c>
+      <c r="N192">
+        <v>1000000</v>
+      </c>
+      <c r="O192">
+        <v>1000000</v>
+      </c>
+      <c r="P192">
+        <v>2000000000</v>
+      </c>
+      <c r="Q192">
+        <v>200000</v>
+      </c>
+      <c r="U192" t="s">
+        <v>841</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>847</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>848</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>823</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE192">
+        <v>8</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>751</v>
+      </c>
+      <c r="AG192">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>849</v>
+      </c>
+      <c r="C193" t="s">
+        <v>764</v>
+      </c>
+      <c r="D193" t="s">
+        <v>823</v>
+      </c>
+      <c r="H193" t="s">
+        <v>850</v>
+      </c>
+      <c r="N193">
+        <v>1000000</v>
+      </c>
+      <c r="O193">
+        <v>1000000</v>
+      </c>
+      <c r="P193">
+        <v>2000000000</v>
+      </c>
+      <c r="Q193">
+        <v>2000000</v>
+      </c>
+      <c r="T193">
+        <v>1</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>851</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE193">
+        <v>8</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>764</v>
+      </c>
+      <c r="AG193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:33">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>853</v>
+      </c>
+      <c r="C194" t="s">
+        <v>751</v>
+      </c>
+      <c r="D194" t="s">
+        <v>823</v>
+      </c>
+      <c r="H194" t="s">
+        <v>854</v>
+      </c>
+      <c r="I194">
+        <v>20000</v>
+      </c>
+      <c r="J194">
+        <v>30000</v>
+      </c>
+      <c r="K194">
+        <v>150000000000</v>
+      </c>
+      <c r="L194">
+        <v>700000</v>
+      </c>
+      <c r="N194">
+        <v>1000000</v>
+      </c>
+      <c r="O194">
+        <v>1000000</v>
+      </c>
+      <c r="P194">
+        <v>2000000000</v>
+      </c>
+      <c r="Q194">
+        <v>200000</v>
+      </c>
+      <c r="T194">
+        <v>1</v>
+      </c>
+      <c r="Y194">
+        <v>3</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>855</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>856</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE194">
+        <v>8</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>751</v>
+      </c>
+      <c r="AG194">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -11165,8 +11165,8 @@
       <c r="Q193">
         <v>2000000</v>
       </c>
-      <c r="T193">
-        <v>1</v>
+      <c r="U193" t="s">
+        <v>845</v>
       </c>
       <c r="AA193" t="s">
         <v>851</v>
@@ -11227,11 +11227,11 @@
       <c r="Q194">
         <v>200000</v>
       </c>
-      <c r="T194">
-        <v>1</v>
+      <c r="U194" t="s">
+        <v>849</v>
       </c>
       <c r="Y194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA194" t="s">
         <v>855</v>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
   <si>
     <t>id</t>
   </si>
@@ -944,6 +944,42 @@
     <t>You have the bones, and you return to The Candle Maker with them in hand.&lt;br /&gt; &lt;br /&gt; “The bones. That’s right!”&lt;br /&gt; &lt;br /&gt; He takes the bones and smashes them down into dust. After bashing, breaking, and crushing them, he turns them into dust, which is then mixed with candle wax.&lt;br /&gt; &lt;br /&gt; He studies the scroll, flips the pages of the book, and chants the same chant you heard in your vision. The skies crackle with thunder and lightning for a moment before the candle flame is blown out by the wind.&lt;br /&gt; &lt;br /&gt; There is a silence that returns to the world—a silence that is deafening and rattles your core.&lt;br /&gt; &lt;br /&gt; “It is done!”&lt;br /&gt; &lt;br /&gt; What is done? You ask.&lt;br /&gt; &lt;br /&gt; “I have given you the power of the children. Call them forth, for their boons will be beneficial to you.”&lt;br /&gt; &lt;br /&gt; That’s it? What about the voice? What about The Creator or whatever possessed him?&lt;br /&gt; &lt;br /&gt; “There is more to this than meets the eye, that's for sure.” The Candle Maker begins.&lt;br /&gt; &lt;br /&gt; “There is a force at work here, be it The Creator, something else, or someone else. There is a darkness that crawls through the wood of this box, a shadow that haunts the back of even my mind. Seek it out in the skies.”&lt;br /&gt; &lt;br /&gt; He turns and walks away from you, but turns back for a second: “Use this power wisely, child; it can bring you great rewards.”</t>
   </si>
   <si>
+    <t>Shiny Objects</t>
+  </si>
+  <si>
+    <t>Haggard'OlGoblin</t>
+  </si>
+  <si>
+    <t>Shiny Metal Trinket</t>
+  </si>
+  <si>
+    <t>Rumors are circulating about a goblin, rumored to not be as helpless or afraid of people as one might think. You find yourself pondering if this will lead to a hunting expedition. Perhaps it possesses jewels, gold, or even magical items. Perhaps its flesh is as delectable as the rabbit you recently enjoyed.&lt;br /&gt; &lt;br /&gt; The rumor itself is straightforward: There exists a goblin residing in Labyrinth, seeking forbidden treasures in return for knowledge about your kingdoms.&lt;br /&gt; &lt;br /&gt; What secrets might it hold? What other treasures could it possess?</t>
+  </si>
+  <si>
+    <t>"Shiny items! Ah, I know a man, the brother of another man who adores his shiny items."&lt;br /&gt; &lt;br /&gt; Before you stands a goblin, reminiscent of the Helpless Goblin, albeit with a noticeable difference: he lacks an arm, replaced by a metallic claw. Sporting an eye patch, he appears significantly more weathered. Despite his appearance, he poses no immediate threat, instead showing a keen interest in the shiny objects you've presented.&lt;br /&gt; &lt;br /&gt; "You seek something from me, do you not? I, in turn, desire more shiny items. My acquaintance, he was quite fond of such treasures. I wonder what became of him?"&lt;br /&gt; &lt;br /&gt; A man with a penchant for shiny items? Who could resist their allure? You inquire about the knowledge he possesses regarding kingdoms. Having provided him with an offering, you now expect something in return.&lt;br /&gt; &lt;br /&gt; He chuckles and delivers a punch to your abdomen, causing you to double over in excruciating pain.&lt;br /&gt; &lt;br /&gt; "When I am content with your capabilities, then I shall grant you the information you seek. Until then, you are at my mercy!"</t>
+  </si>
+  <si>
+    <t>Do as you are told</t>
+  </si>
+  <si>
+    <t>Shiny Foil Paper</t>
+  </si>
+  <si>
+    <t>You find yourself in a dream. A man—cloaked, a wandering shadow of the past. A farmer, engaged in an argument.&lt;br /&gt; &lt;br /&gt; "I want shiny items!" one of them screams.&lt;br /&gt; &lt;br /&gt; "I want to be able to pay the bills around here! Why don't you help me with the lands instead of chasing these stupid shiny items?"&lt;br /&gt; &lt;br /&gt; You can't see them, but you can feel them. They are fragments of the past, distant memories of another time.&lt;br /&gt; &lt;br /&gt; "Wake up, child!" a familiar voice pierces through your dream.&lt;br /&gt; &lt;br /&gt; As you open your eyes, you're greeted by the goblin.&lt;br /&gt; &lt;br /&gt; "You act as if I stabbed you. I merely asserted my dominance over this situation. I am not as helpless as you might think, child."&lt;br /&gt; &lt;br /&gt; You slowly rise to your feet, looming over him.&lt;br /&gt; &lt;br /&gt; "Now, get to work!"</t>
+  </si>
+  <si>
+    <t>Yet another shiny item, another relic lost to the past. Clinging to history, holding onto it tightly. It all sounds so familiar.&lt;br /&gt; &lt;br /&gt; You hand the item over to the goblin.&lt;br /&gt; &lt;br /&gt; "Good. I like this. It's very shiny. Even shinier than the last item you gave me. He will appreciate this."&lt;br /&gt; &lt;br /&gt; Who is "he"?&lt;br /&gt; &lt;br /&gt; "The brother, child! Have you not been paying attention? One of them adores shiny items!"&lt;br /&gt; &lt;br /&gt; You inquire about what happened to this man the last time the goblin saw him.&lt;br /&gt; &lt;br /&gt; "Child, I just stated I have no idea what happened to him. The last time I spoke to him, he mentioned wanting shiny items."&lt;br /&gt; &lt;br /&gt; It matters little to you. You assert that you've provided him with two shiny items and now he owes you. This time, you guard your vulnerable areas.&lt;br /&gt; &lt;br /&gt; He delivers a kick to your shin, and the pain is so intense that you collapse to your knees, crying out.&lt;br /&gt; &lt;br /&gt; "Like I said, bitch."</t>
+  </si>
+  <si>
+    <t>Rag dolls and rage</t>
+  </si>
+  <si>
+    <t>The dream resurfaces, depicting two men standing before the council, both clad in regal attire. Short hair, dark eyes, clean-shaven.&lt;br /&gt; &lt;br /&gt; Amidst the fog and haze, the council and the men engage in discussion. Fragments of their conversation manage to pierce through.&lt;br /&gt; &lt;br /&gt; "He, my brother, has been absent for the past six months, hunting in the Gold Mines for shiny items."&lt;br /&gt; &lt;br /&gt; More dialogue follows, but it's indecipherable.&lt;br /&gt; &lt;br /&gt; "I might have neglected my kingdoms. I've been consumed by the pursuit of reincarnation."&lt;br /&gt; &lt;br /&gt; Laughter ensues, accompanied by more incomprehensible words.&lt;br /&gt; &lt;br /&gt; "Child!" A voice penetrates the dream.&lt;br /&gt; &lt;br /&gt; You awaken to find the goblin standing before you. Swiftly, you rise to your feet, casting up your enchantments and hurling him across the clearing, much like a child discards a doll.&lt;br /&gt; &lt;br /&gt; Enough is enough.</t>
+  </si>
+  <si>
+    <t>You stand over the goblin, lying on the ground. As you reach down, you realize he's still alive, merely unconscious.&lt;br /&gt; &lt;br /&gt; Though you feel a pang of guilt, you refuse to be anyone's pawn.&lt;br /&gt; &lt;br /&gt; Eventually, he regains consciousness and begins to sit up.&lt;br /&gt; &lt;br /&gt; "Child. You are cruel. I abhor cruelty."&lt;br /&gt; &lt;br /&gt; You attempt to explain, but he dismisses you with a wave of his hand and a shake of his head.&lt;br /&gt; &lt;br /&gt; "Child. You are cruel. I. Do. Not. Tolerate. Cruelty!" With those words, he rises and summons a tempest of magical power. The winds howl, lightning rends the sky.&lt;br /&gt; &lt;br /&gt; "Please don't," a soft voice pleads. Instantly, the storm dissipates, and the goblin rushes to the voice's side. He embraces the creature tenderly, then turns to face you, guarding it protectively. "Leave now."&lt;br /&gt; &lt;br /&gt; You glance over and see a Helpless Goblin.</t>
+  </si>
+  <si>
     <t>Tell me your story</t>
   </si>
   <si>
@@ -2297,7 +2333,7 @@
     <t>Why are we naked?</t>
   </si>
   <si>
-    <t>Clerical Tome of Prairs</t>
+    <t>Clerical Tome of Prayers</t>
   </si>
   <si>
     <t>“Hello there!” comes a voice.&lt;br /&gt; &lt;br /&gt; You have no idea where you are, but you know you are not on the Surface anymore. You look towards the voice and see a young man dressed in a variety of colors. He is handsome, well-groomed, and his eyes bluer than the sky itself.&lt;br /&gt; &lt;br /&gt; “How are you, child?! Oh, it’s been so long since we had a visitor of these parts. Would you like a tour of our fine establishment?”&lt;br /&gt; &lt;br /&gt; He is full of energy and comes off as extremely charismatic. You explain you are looking for two people: a Nameless One and a jester of some sort.&lt;br /&gt; &lt;br /&gt; “Well, there you go, child! Wrecking all the fun.”&lt;br /&gt; &lt;br /&gt; You look at him with a puzzled look.&lt;br /&gt; &lt;br /&gt; “Does this interest you?”&lt;br /&gt; &lt;br /&gt; He stands fully naked before you. It is quite a sight.</t>
@@ -2925,7 +2961,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG194"/>
+  <dimension ref="A1:AG197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5460,7 +5496,7 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="B61" t="s">
         <v>309</v>
@@ -5468,49 +5504,64 @@
       <c r="C61" t="s">
         <v>310</v>
       </c>
-      <c r="I61">
-        <v>25000</v>
-      </c>
-      <c r="J61">
-        <v>5000</v>
+      <c r="H61" t="s">
+        <v>311</v>
       </c>
       <c r="K61">
         <v>100000</v>
       </c>
+      <c r="N61">
+        <v>1000</v>
+      </c>
       <c r="O61">
-        <v>125</v>
+        <v>1000</v>
       </c>
       <c r="P61">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="Q61">
         <v>100</v>
       </c>
-      <c r="T61">
+      <c r="U61" t="s">
+        <v>252</v>
+      </c>
+      <c r="W61" t="s">
+        <v>79</v>
+      </c>
+      <c r="X61">
         <v>1</v>
       </c>
       <c r="AA61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:33">
       <c r="A62">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C62" t="s">
         <v>310</v>
       </c>
       <c r="H62" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="K62">
+        <v>100000</v>
+      </c>
+      <c r="N62">
+        <v>1000</v>
+      </c>
+      <c r="O62">
+        <v>500</v>
       </c>
       <c r="P62">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="Q62">
         <v>100</v>
@@ -5519,80 +5570,74 @@
         <v>309</v>
       </c>
       <c r="W62" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="X62">
         <v>5</v>
       </c>
       <c r="AA62" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB62" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C63" t="s">
         <v>310</v>
       </c>
-      <c r="H63" t="s">
-        <v>318</v>
-      </c>
-      <c r="M63" t="s">
-        <v>319</v>
-      </c>
       <c r="N63">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="O63">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="P63">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="Q63">
         <v>100</v>
       </c>
       <c r="U63" t="s">
-        <v>313</v>
-      </c>
-      <c r="V63" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB63" t="s">
         <v>320</v>
       </c>
-      <c r="W63" t="s">
-        <v>86</v>
-      </c>
-      <c r="X63">
+      <c r="AF63" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG63">
         <v>5</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:33">
       <c r="A64">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C64" t="s">
-        <v>324</v>
-      </c>
-      <c r="H64" t="s">
-        <v>325</v>
-      </c>
-      <c r="N64">
-        <v>2500</v>
+        <v>322</v>
+      </c>
+      <c r="I64">
+        <v>25000</v>
+      </c>
+      <c r="J64">
+        <v>5000</v>
+      </c>
+      <c r="K64">
+        <v>100000</v>
       </c>
       <c r="O64">
         <v>125</v>
@@ -5603,63 +5648,66 @@
       <c r="Q64">
         <v>100</v>
       </c>
-      <c r="U64" t="s">
-        <v>309</v>
+      <c r="T64">
+        <v>1</v>
       </c>
       <c r="AA64" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AB64" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:33">
       <c r="A65">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H65" t="s">
-        <v>329</v>
-      </c>
-      <c r="N65">
-        <v>2500</v>
-      </c>
-      <c r="O65">
-        <v>125</v>
+        <v>326</v>
       </c>
       <c r="P65">
         <v>10000</v>
       </c>
       <c r="Q65">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="U65" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="W65" t="s">
+        <v>104</v>
+      </c>
+      <c r="X65">
+        <v>5</v>
       </c>
       <c r="AA65" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AB65" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:33">
       <c r="A66">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H66" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="M66" t="s">
+        <v>331</v>
       </c>
       <c r="N66">
         <v>2500</v>
@@ -5671,33 +5719,39 @@
         <v>10000</v>
       </c>
       <c r="Q66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U66" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="V66" t="s">
+        <v>332</v>
+      </c>
+      <c r="W66" t="s">
+        <v>86</v>
+      </c>
+      <c r="X66">
+        <v>5</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB66" t="s">
         <v>334</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:33">
       <c r="A67">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" t="s">
+        <v>336</v>
+      </c>
+      <c r="H67" t="s">
         <v>337</v>
-      </c>
-      <c r="C67" t="s">
-        <v>324</v>
-      </c>
-      <c r="H67" t="s">
-        <v>338</v>
       </c>
       <c r="N67">
         <v>2500</v>
@@ -5709,45 +5763,30 @@
         <v>10000</v>
       </c>
       <c r="Q67">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U67" t="s">
-        <v>332</v>
-      </c>
-      <c r="V67" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB67" t="s">
         <v>339</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:33">
       <c r="A68">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C68" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="H68" t="s">
-        <v>344</v>
-      </c>
-      <c r="I68">
-        <v>25000</v>
-      </c>
-      <c r="J68">
-        <v>200</v>
-      </c>
-      <c r="L68">
-        <v>1000</v>
+        <v>341</v>
       </c>
       <c r="N68">
         <v>2500</v>
@@ -5759,30 +5798,30 @@
         <v>10000</v>
       </c>
       <c r="Q68">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="U68" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="AA68" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AB68" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:33">
       <c r="A69">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C69" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="H69" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N69">
         <v>2500</v>
@@ -5794,42 +5833,33 @@
         <v>10000</v>
       </c>
       <c r="Q69">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="U69" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="V69" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AA69" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AB69" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:33">
       <c r="A70">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C70" t="s">
-        <v>324</v>
-      </c>
-      <c r="I70">
-        <v>25000</v>
-      </c>
-      <c r="J70">
-        <v>10000</v>
-      </c>
-      <c r="K70">
-        <v>100000</v>
-      </c>
-      <c r="L70">
-        <v>50000</v>
+        <v>336</v>
+      </c>
+      <c r="H70" t="s">
+        <v>350</v>
       </c>
       <c r="N70">
         <v>2500</v>
@@ -5844,10 +5874,13 @@
         <v>500</v>
       </c>
       <c r="U70" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
+        <v>344</v>
+      </c>
+      <c r="V70" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>352</v>
       </c>
       <c r="AA70" t="s">
         <v>353</v>
@@ -5858,157 +5891,160 @@
     </row>
     <row r="71" spans="1:33">
       <c r="A71">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
         <v>355</v>
       </c>
       <c r="C71" t="s">
-        <v>310</v>
-      </c>
-      <c r="E71" t="s">
+        <v>336</v>
+      </c>
+      <c r="H71" t="s">
         <v>356</v>
       </c>
-      <c r="F71" t="s">
+      <c r="I71">
+        <v>25000</v>
+      </c>
+      <c r="J71">
+        <v>200</v>
+      </c>
+      <c r="L71">
+        <v>1000</v>
+      </c>
+      <c r="N71">
+        <v>2500</v>
+      </c>
+      <c r="O71">
+        <v>125</v>
+      </c>
+      <c r="P71">
+        <v>10000</v>
+      </c>
+      <c r="Q71">
+        <v>250</v>
+      </c>
+      <c r="U71" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA71" t="s">
         <v>357</v>
       </c>
-      <c r="G71">
-        <v>6</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="AB71" t="s">
         <v>358</v>
-      </c>
-      <c r="N71">
-        <v>100000</v>
-      </c>
-      <c r="O71">
-        <v>100000</v>
-      </c>
-      <c r="P71">
-        <v>2000000000</v>
-      </c>
-      <c r="Q71">
-        <v>75000</v>
-      </c>
-      <c r="U71" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG71">
-        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:33">
       <c r="A72">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="H72" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N72">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="O72">
-        <v>1000000</v>
+        <v>125</v>
       </c>
       <c r="P72">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q72">
-        <v>75000</v>
+        <v>250</v>
       </c>
       <c r="U72" t="s">
         <v>355</v>
       </c>
+      <c r="V72" t="s">
+        <v>361</v>
+      </c>
       <c r="AA72" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB72" t="s">
         <v>363</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG72">
-        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:33">
       <c r="A73">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" t="s">
+        <v>336</v>
+      </c>
+      <c r="I73">
+        <v>25000</v>
+      </c>
+      <c r="J73">
+        <v>10000</v>
+      </c>
+      <c r="K73">
+        <v>100000</v>
+      </c>
+      <c r="L73">
+        <v>50000</v>
+      </c>
+      <c r="N73">
+        <v>2500</v>
+      </c>
+      <c r="O73">
+        <v>125</v>
+      </c>
+      <c r="P73">
+        <v>10000</v>
+      </c>
+      <c r="Q73">
+        <v>500</v>
+      </c>
+      <c r="U73" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="s">
         <v>365</v>
       </c>
-      <c r="C73" t="s">
+      <c r="AB73" t="s">
         <v>366</v>
-      </c>
-      <c r="H73" t="s">
-        <v>367</v>
-      </c>
-      <c r="N73">
-        <v>1000000</v>
-      </c>
-      <c r="O73">
-        <v>1000000</v>
-      </c>
-      <c r="P73">
-        <v>2000000000</v>
-      </c>
-      <c r="Q73">
-        <v>75000</v>
-      </c>
-      <c r="U73" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG73">
-        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:33">
       <c r="A74">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
+        <v>367</v>
+      </c>
+      <c r="C74" t="s">
+        <v>322</v>
+      </c>
+      <c r="E74" t="s">
+        <v>368</v>
+      </c>
+      <c r="F74" t="s">
+        <v>369</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+      <c r="H74" t="s">
         <v>370</v>
       </c>
-      <c r="C74" t="s">
-        <v>324</v>
-      </c>
-      <c r="H74" t="s">
-        <v>371</v>
-      </c>
       <c r="N74">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="O74">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="P74">
         <v>2000000000</v>
@@ -6017,16 +6053,19 @@
         <v>75000</v>
       </c>
       <c r="U74" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="AA74" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB74" t="s">
         <v>372</v>
       </c>
-      <c r="AB74" t="s">
-        <v>373</v>
+      <c r="AD74" t="s">
+        <v>368</v>
       </c>
       <c r="AF74" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG74">
         <v>5</v>
@@ -6034,19 +6073,16 @@
     </row>
     <row r="75" spans="1:33">
       <c r="A75">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
+        <v>373</v>
+      </c>
+      <c r="C75" t="s">
+        <v>322</v>
+      </c>
+      <c r="H75" t="s">
         <v>374</v>
-      </c>
-      <c r="C75" t="s">
-        <v>324</v>
-      </c>
-      <c r="H75" t="s">
-        <v>375</v>
-      </c>
-      <c r="M75" t="s">
-        <v>376</v>
       </c>
       <c r="N75">
         <v>1000000</v>
@@ -6061,16 +6097,16 @@
         <v>75000</v>
       </c>
       <c r="U75" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AA75" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AB75" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AF75" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG75">
         <v>10</v>
@@ -6078,34 +6114,31 @@
     </row>
     <row r="76" spans="1:33">
       <c r="A76">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
+        <v>377</v>
+      </c>
+      <c r="C76" t="s">
+        <v>378</v>
+      </c>
+      <c r="H76" t="s">
         <v>379</v>
       </c>
-      <c r="C76" t="s">
-        <v>113</v>
-      </c>
-      <c r="I76">
-        <v>15000</v>
-      </c>
-      <c r="J76">
-        <v>2000</v>
-      </c>
       <c r="N76">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="O76">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="P76">
-        <v>1000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q76">
-        <v>25</v>
-      </c>
-      <c r="T76">
-        <v>1</v>
+        <v>75000</v>
+      </c>
+      <c r="U76" t="s">
+        <v>373</v>
       </c>
       <c r="AA76" t="s">
         <v>380</v>
@@ -6113,336 +6146,336 @@
       <c r="AB76" t="s">
         <v>381</v>
       </c>
+      <c r="AF76" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG76">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" spans="1:33">
       <c r="A77">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
         <v>382</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
+        <v>336</v>
       </c>
       <c r="H77" t="s">
         <v>383</v>
       </c>
-      <c r="I77">
-        <v>500</v>
-      </c>
-      <c r="J77">
-        <v>3000</v>
-      </c>
       <c r="N77">
-        <v>150</v>
+        <v>1000000</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>1000000</v>
       </c>
       <c r="P77">
-        <v>250</v>
+        <v>2000000000</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>75000</v>
       </c>
       <c r="U77" t="s">
-        <v>379</v>
-      </c>
-      <c r="V77" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA77" t="s">
         <v>384</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>385</v>
       </c>
-      <c r="AB77" t="s">
-        <v>386</v>
+      <c r="AF77" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG77">
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:33">
       <c r="A78">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="B78" t="s">
+        <v>386</v>
+      </c>
+      <c r="C78" t="s">
+        <v>336</v>
+      </c>
+      <c r="H78" t="s">
         <v>387</v>
       </c>
-      <c r="C78" t="s">
-        <v>253</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="M78" t="s">
         <v>388</v>
       </c>
-      <c r="M78" t="s">
-        <v>289</v>
+      <c r="N78">
+        <v>1000000</v>
+      </c>
+      <c r="O78">
+        <v>1000000</v>
+      </c>
+      <c r="P78">
+        <v>2000000000</v>
+      </c>
+      <c r="Q78">
+        <v>75000</v>
       </c>
       <c r="U78" t="s">
         <v>382</v>
       </c>
-      <c r="V78" t="s">
+      <c r="AA78" t="s">
         <v>389</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>390</v>
       </c>
-      <c r="AB78" t="s">
-        <v>391</v>
+      <c r="AF78" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG78">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:33">
       <c r="A79">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
+        <v>391</v>
+      </c>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+      <c r="I79">
+        <v>15000</v>
+      </c>
+      <c r="J79">
+        <v>2000</v>
+      </c>
+      <c r="N79">
+        <v>1000</v>
+      </c>
+      <c r="O79">
+        <v>100</v>
+      </c>
+      <c r="P79">
+        <v>1000000</v>
+      </c>
+      <c r="Q79">
+        <v>25</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="AA79" t="s">
         <v>392</v>
       </c>
-      <c r="C79" t="s">
-        <v>253</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="AB79" t="s">
         <v>393</v>
-      </c>
-      <c r="I79">
-        <v>500</v>
-      </c>
-      <c r="J79">
-        <v>5000</v>
-      </c>
-      <c r="K79">
-        <v>2500</v>
-      </c>
-      <c r="L79">
-        <v>1000</v>
-      </c>
-      <c r="M79" t="s">
-        <v>394</v>
-      </c>
-      <c r="N79">
-        <v>150</v>
-      </c>
-      <c r="O79">
-        <v>2</v>
-      </c>
-      <c r="P79">
-        <v>250</v>
-      </c>
-      <c r="Q79">
-        <v>100</v>
-      </c>
-      <c r="U79" t="s">
-        <v>387</v>
-      </c>
-      <c r="V79" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>395</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:33">
       <c r="A80">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" t="s">
+        <v>395</v>
+      </c>
+      <c r="I80">
+        <v>500</v>
+      </c>
+      <c r="J80">
+        <v>3000</v>
+      </c>
+      <c r="N80">
+        <v>150</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+      <c r="P80">
+        <v>250</v>
+      </c>
+      <c r="Q80">
+        <v>25</v>
+      </c>
+      <c r="U80" t="s">
+        <v>391</v>
+      </c>
+      <c r="V80" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA80" t="s">
         <v>397</v>
       </c>
-      <c r="C80" t="s">
-        <v>83</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="AB80" t="s">
         <v>398</v>
-      </c>
-      <c r="I80">
-        <v>5000</v>
-      </c>
-      <c r="J80">
-        <v>5000</v>
-      </c>
-      <c r="K80">
-        <v>50000</v>
-      </c>
-      <c r="M80" t="s">
-        <v>399</v>
-      </c>
-      <c r="N80">
-        <v>500</v>
-      </c>
-      <c r="O80">
-        <v>50</v>
-      </c>
-      <c r="P80">
-        <v>5000</v>
-      </c>
-      <c r="Q80">
-        <v>100</v>
-      </c>
-      <c r="U80" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:33">
       <c r="A81">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
+        <v>399</v>
+      </c>
+      <c r="C81" t="s">
+        <v>253</v>
+      </c>
+      <c r="H81" t="s">
+        <v>400</v>
+      </c>
+      <c r="M81" t="s">
+        <v>289</v>
+      </c>
+      <c r="U81" t="s">
+        <v>394</v>
+      </c>
+      <c r="V81" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA81" t="s">
         <v>402</v>
       </c>
-      <c r="C81" t="s">
+      <c r="AB81" t="s">
         <v>403</v>
-      </c>
-      <c r="H81" t="s">
-        <v>404</v>
-      </c>
-      <c r="N81">
-        <v>1000</v>
-      </c>
-      <c r="O81">
-        <v>100</v>
-      </c>
-      <c r="P81">
-        <v>10000000</v>
-      </c>
-      <c r="Q81">
-        <v>200</v>
-      </c>
-      <c r="U81" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:33">
       <c r="A82">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
+        <v>404</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
+      </c>
+      <c r="H82" t="s">
+        <v>405</v>
+      </c>
+      <c r="I82">
+        <v>500</v>
+      </c>
+      <c r="J82">
+        <v>5000</v>
+      </c>
+      <c r="K82">
+        <v>2500</v>
+      </c>
+      <c r="L82">
+        <v>1000</v>
+      </c>
+      <c r="M82" t="s">
+        <v>406</v>
+      </c>
+      <c r="N82">
+        <v>150</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82">
+        <v>250</v>
+      </c>
+      <c r="Q82">
+        <v>100</v>
+      </c>
+      <c r="U82" t="s">
+        <v>399</v>
+      </c>
+      <c r="V82" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA82" t="s">
         <v>407</v>
       </c>
-      <c r="C82" t="s">
-        <v>403</v>
-      </c>
-      <c r="M82" t="s">
-        <v>338</v>
-      </c>
-      <c r="N82">
-        <v>1000</v>
-      </c>
-      <c r="O82">
-        <v>500</v>
-      </c>
-      <c r="P82">
-        <v>10000000</v>
-      </c>
-      <c r="Q82">
-        <v>200</v>
-      </c>
-      <c r="U82" t="s">
-        <v>402</v>
-      </c>
-      <c r="W82" t="s">
-        <v>79</v>
-      </c>
-      <c r="X82">
-        <v>5</v>
-      </c>
-      <c r="AA82" t="s">
+      <c r="AB82" t="s">
         <v>408</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:33">
       <c r="A83">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
+        <v>409</v>
+      </c>
+      <c r="C83" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" t="s">
         <v>410</v>
       </c>
-      <c r="C83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E83" t="s">
-        <v>169</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="I83">
+        <v>5000</v>
+      </c>
+      <c r="J83">
+        <v>5000</v>
+      </c>
+      <c r="K83">
+        <v>50000</v>
+      </c>
+      <c r="M83" t="s">
         <v>411</v>
       </c>
       <c r="N83">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="O83">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="P83">
-        <v>1000000</v>
+        <v>5000</v>
       </c>
       <c r="Q83">
-        <v>15000</v>
+        <v>100</v>
       </c>
       <c r="U83" t="s">
-        <v>387</v>
-      </c>
-      <c r="V83" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA83" t="s">
         <v>412</v>
       </c>
-      <c r="AA83" t="s">
+      <c r="AB83" t="s">
         <v>413</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF83" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG83">
-        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:33">
       <c r="A84">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" t="s">
         <v>415</v>
-      </c>
-      <c r="C84" t="s">
-        <v>68</v>
       </c>
       <c r="H84" t="s">
         <v>416</v>
       </c>
       <c r="N84">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="O84">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="P84">
-        <v>1000000000</v>
+        <v>10000000</v>
       </c>
       <c r="Q84">
-        <v>30000</v>
+        <v>200</v>
       </c>
       <c r="U84" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AA84" t="s">
         <v>417</v>
@@ -6450,37 +6483,40 @@
       <c r="AB84" t="s">
         <v>418</v>
       </c>
-      <c r="AF84" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG84">
-        <v>10</v>
-      </c>
     </row>
     <row r="85" spans="1:33">
       <c r="A85">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
         <v>419</v>
       </c>
       <c r="C85" t="s">
-        <v>68</v>
+        <v>415</v>
+      </c>
+      <c r="M85" t="s">
+        <v>350</v>
       </c>
       <c r="N85">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="O85">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="P85">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="Q85">
-        <v>30000</v>
+        <v>200</v>
       </c>
       <c r="U85" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="W85" t="s">
+        <v>79</v>
+      </c>
+      <c r="X85">
+        <v>5</v>
       </c>
       <c r="AA85" t="s">
         <v>420</v>
@@ -6488,295 +6524,283 @@
       <c r="AB85" t="s">
         <v>421</v>
       </c>
-      <c r="AF85" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG85">
-        <v>20</v>
-      </c>
     </row>
     <row r="86" spans="1:33">
       <c r="A86">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
         <v>422</v>
       </c>
       <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" t="s">
+        <v>169</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
         <v>423</v>
       </c>
       <c r="N86">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O86">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="P86">
         <v>1000000</v>
       </c>
       <c r="Q86">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="U86" t="s">
-        <v>419</v>
+        <v>399</v>
+      </c>
+      <c r="V86" t="s">
+        <v>424</v>
       </c>
       <c r="AA86" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AB86" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>169</v>
       </c>
       <c r="AF86" t="s">
-        <v>423</v>
+        <v>68</v>
       </c>
       <c r="AG86">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:33">
       <c r="A87">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>68</v>
+      </c>
+      <c r="H87" t="s">
+        <v>428</v>
       </c>
       <c r="N87">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="O87">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="P87">
-        <v>2000000</v>
+        <v>1000000000</v>
       </c>
       <c r="Q87">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="U87" t="s">
         <v>422</v>
       </c>
       <c r="AA87" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AB87" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AF87" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="AG87">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:33">
       <c r="A88">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
-      </c>
-      <c r="H88" t="s">
-        <v>244</v>
-      </c>
-      <c r="I88">
-        <v>500</v>
-      </c>
-      <c r="J88">
-        <v>5</v>
-      </c>
-      <c r="M88" t="s">
-        <v>429</v>
+        <v>68</v>
       </c>
       <c r="N88">
-        <v>150</v>
+        <v>25000</v>
       </c>
       <c r="O88">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="P88">
-        <v>250</v>
+        <v>1000000</v>
       </c>
       <c r="Q88">
-        <v>50</v>
-      </c>
-      <c r="T88">
-        <v>1</v>
-      </c>
-      <c r="W88" t="s">
-        <v>79</v>
-      </c>
-      <c r="X88">
-        <v>2</v>
+        <v>30000</v>
+      </c>
+      <c r="U88" t="s">
+        <v>427</v>
       </c>
       <c r="AA88" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AB88" t="s">
-        <v>431</v>
+        <v>433</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG88">
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:33">
       <c r="A89">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C89" t="s">
-        <v>433</v>
-      </c>
-      <c r="H89" t="s">
-        <v>434</v>
-      </c>
-      <c r="L89">
-        <v>500</v>
-      </c>
-      <c r="M89" t="s">
         <v>435</v>
       </c>
       <c r="N89">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="O89">
-        <v>50</v>
+        <v>25000</v>
       </c>
       <c r="P89">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="Q89">
-        <v>100</v>
-      </c>
-      <c r="T89">
-        <v>1</v>
-      </c>
-      <c r="V89" t="s">
+        <v>30000</v>
+      </c>
+      <c r="U89" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA89" t="s">
         <v>436</v>
       </c>
-      <c r="W89" t="s">
-        <v>86</v>
-      </c>
-      <c r="X89">
-        <v>5</v>
-      </c>
-      <c r="AA89" t="s">
+      <c r="AB89" t="s">
         <v>437</v>
       </c>
-      <c r="AB89" t="s">
-        <v>438</v>
+      <c r="AF89" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG89">
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:33">
       <c r="A90">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
+        <v>438</v>
+      </c>
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="N90">
+        <v>50000</v>
+      </c>
+      <c r="O90">
+        <v>50000</v>
+      </c>
+      <c r="P90">
+        <v>2000000</v>
+      </c>
+      <c r="Q90">
+        <v>50000</v>
+      </c>
+      <c r="U90" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA90" t="s">
         <v>439</v>
       </c>
-      <c r="C90" t="s">
-        <v>433</v>
-      </c>
-      <c r="H90" t="s">
-        <v>435</v>
-      </c>
-      <c r="L90">
-        <v>1000</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="AB90" t="s">
         <v>440</v>
       </c>
-      <c r="N90">
-        <v>500</v>
-      </c>
-      <c r="O90">
-        <v>50</v>
-      </c>
-      <c r="P90">
-        <v>5000</v>
-      </c>
-      <c r="Q90">
-        <v>150</v>
-      </c>
-      <c r="U90" t="s">
-        <v>432</v>
-      </c>
-      <c r="V90" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>443</v>
+      <c r="AF90" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG90">
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:33">
       <c r="A91">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C91" t="s">
-        <v>433</v>
+        <v>38</v>
       </c>
       <c r="H91" t="s">
-        <v>440</v>
-      </c>
-      <c r="L91">
-        <v>1500</v>
+        <v>244</v>
+      </c>
+      <c r="I91">
+        <v>500</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
       </c>
       <c r="M91" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N91">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <v>250</v>
+      </c>
+      <c r="Q91">
         <v>50</v>
       </c>
-      <c r="P91">
-        <v>5000</v>
-      </c>
-      <c r="Q91">
-        <v>200</v>
-      </c>
-      <c r="U91" t="s">
-        <v>439</v>
-      </c>
-      <c r="V91" t="s">
-        <v>446</v>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="W91" t="s">
+        <v>79</v>
+      </c>
+      <c r="X91">
+        <v>2</v>
       </c>
       <c r="AA91" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AB91" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:33">
       <c r="A92">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C92" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="H92" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L92">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="M92" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N92">
         <v>500</v>
@@ -6788,42 +6812,45 @@
         <v>5000</v>
       </c>
       <c r="Q92">
-        <v>300</v>
-      </c>
-      <c r="U92" t="s">
-        <v>444</v>
+        <v>100</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
       </c>
       <c r="V92" t="s">
-        <v>451</v>
+        <v>448</v>
+      </c>
+      <c r="W92" t="s">
+        <v>86</v>
+      </c>
+      <c r="X92">
+        <v>5</v>
       </c>
       <c r="AA92" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AB92" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:33">
       <c r="A93">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>445</v>
       </c>
       <c r="H93" t="s">
-        <v>455</v>
-      </c>
-      <c r="I93">
-        <v>5000</v>
-      </c>
-      <c r="J93">
-        <v>5000</v>
+        <v>447</v>
       </c>
       <c r="L93">
-        <v>5000</v>
+        <v>1000</v>
+      </c>
+      <c r="M93" t="s">
+        <v>452</v>
       </c>
       <c r="N93">
         <v>500</v>
@@ -6835,83 +6862,89 @@
         <v>5000</v>
       </c>
       <c r="Q93">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="U93" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="V93" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AA93" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AB93" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:33">
       <c r="A94">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
-      </c>
-      <c r="I94">
-        <v>5000</v>
-      </c>
-      <c r="J94">
-        <v>7000</v>
-      </c>
-      <c r="K94">
-        <v>50000</v>
+        <v>445</v>
+      </c>
+      <c r="H94" t="s">
+        <v>452</v>
       </c>
       <c r="L94">
-        <v>3000</v>
+        <v>1500</v>
+      </c>
+      <c r="M94" t="s">
+        <v>457</v>
+      </c>
+      <c r="N94">
+        <v>500</v>
+      </c>
+      <c r="O94">
+        <v>50</v>
       </c>
       <c r="P94">
         <v>5000</v>
       </c>
       <c r="Q94">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="U94" t="s">
-        <v>454</v>
+        <v>451</v>
+      </c>
+      <c r="V94" t="s">
+        <v>458</v>
       </c>
       <c r="AA94" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB94" t="s">
         <v>460</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:33">
       <c r="A95">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
+        <v>461</v>
+      </c>
+      <c r="C95" t="s">
+        <v>445</v>
+      </c>
+      <c r="H95" t="s">
+        <v>457</v>
+      </c>
+      <c r="L95">
+        <v>3000</v>
+      </c>
+      <c r="M95" t="s">
         <v>462</v>
       </c>
-      <c r="C95" t="s">
-        <v>83</v>
-      </c>
-      <c r="H95" t="s">
-        <v>463</v>
-      </c>
-      <c r="I95">
-        <v>5000</v>
-      </c>
-      <c r="J95">
-        <v>7500</v>
-      </c>
-      <c r="L95">
-        <v>10000</v>
-      </c>
-      <c r="M95" t="s">
-        <v>464</v>
+      <c r="N95">
+        <v>500</v>
+      </c>
+      <c r="O95">
+        <v>50</v>
       </c>
       <c r="P95">
         <v>5000</v>
@@ -6920,95 +6953,95 @@
         <v>300</v>
       </c>
       <c r="U95" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+      <c r="V95" t="s">
+        <v>463</v>
       </c>
       <c r="AA95" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB95" t="s">
         <v>465</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="96" spans="1:33">
       <c r="A96">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="C96" t="s">
         <v>83</v>
       </c>
-      <c r="E96" t="s">
-        <v>426</v>
-      </c>
-      <c r="F96" t="s">
-        <v>410</v>
-      </c>
-      <c r="G96">
-        <v>4</v>
-      </c>
       <c r="H96" t="s">
         <v>467</v>
       </c>
+      <c r="I96">
+        <v>5000</v>
+      </c>
+      <c r="J96">
+        <v>5000</v>
+      </c>
+      <c r="L96">
+        <v>5000</v>
+      </c>
       <c r="N96">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="O96">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="P96">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q96">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="U96" t="s">
-        <v>432</v>
+        <v>444</v>
+      </c>
+      <c r="V96" t="s">
+        <v>468</v>
       </c>
       <c r="AA96" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AB96" t="s">
-        <v>469</v>
-      </c>
-      <c r="AD96" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG96">
-        <v>5</v>
+        <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:33">
       <c r="A97">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C97" t="s">
         <v>83</v>
       </c>
-      <c r="H97" t="s">
-        <v>471</v>
-      </c>
-      <c r="N97">
-        <v>30000</v>
-      </c>
-      <c r="O97">
-        <v>30000</v>
+      <c r="I97">
+        <v>5000</v>
+      </c>
+      <c r="J97">
+        <v>7000</v>
+      </c>
+      <c r="K97">
+        <v>50000</v>
+      </c>
+      <c r="L97">
+        <v>3000</v>
       </c>
       <c r="P97">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q97">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="U97" t="s">
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="AA97" t="s">
         <v>472</v>
@@ -7016,51 +7049,66 @@
       <c r="AB97" t="s">
         <v>473</v>
       </c>
-      <c r="AF97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG97">
-        <v>10</v>
-      </c>
     </row>
     <row r="98" spans="1:33">
       <c r="A98">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
         <v>474</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H98" t="s">
         <v>475</v>
       </c>
+      <c r="I98">
+        <v>5000</v>
+      </c>
+      <c r="J98">
+        <v>7500</v>
+      </c>
+      <c r="L98">
+        <v>10000</v>
+      </c>
+      <c r="M98" t="s">
+        <v>476</v>
+      </c>
+      <c r="P98">
+        <v>5000</v>
+      </c>
+      <c r="Q98">
+        <v>300</v>
+      </c>
       <c r="U98" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA98" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AB98" t="s">
-        <v>477</v>
-      </c>
-      <c r="AF98" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG98">
-        <v>10</v>
+        <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:33">
       <c r="A99">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>83</v>
+      </c>
+      <c r="E99" t="s">
+        <v>438</v>
+      </c>
+      <c r="F99" t="s">
+        <v>422</v>
+      </c>
+      <c r="G99">
+        <v>4</v>
       </c>
       <c r="H99" t="s">
         <v>479</v>
@@ -7078,7 +7126,7 @@
         <v>50000</v>
       </c>
       <c r="U99" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="AA99" t="s">
         <v>480</v>
@@ -7086,8 +7134,11 @@
       <c r="AB99" t="s">
         <v>481</v>
       </c>
+      <c r="AD99" t="s">
+        <v>438</v>
+      </c>
       <c r="AF99" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="AG99">
         <v>5</v>
@@ -7095,16 +7146,16 @@
     </row>
     <row r="100" spans="1:33">
       <c r="A100">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="C100" t="s">
-        <v>433</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N100">
         <v>30000</v>
@@ -7119,45 +7170,36 @@
         <v>50000</v>
       </c>
       <c r="U100" t="s">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="AA100" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB100" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF100" t="s">
-        <v>433</v>
+        <v>83</v>
       </c>
       <c r="AG100">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:33">
       <c r="A101">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="B101" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101" t="s">
-        <v>486</v>
+        <v>113</v>
       </c>
       <c r="H101" t="s">
         <v>487</v>
       </c>
-      <c r="P101">
-        <v>150</v>
-      </c>
-      <c r="Q101">
-        <v>1000</v>
-      </c>
-      <c r="T101">
-        <v>1</v>
+      <c r="U101" t="s">
+        <v>482</v>
       </c>
       <c r="AA101" t="s">
         <v>488</v>
@@ -7165,365 +7207,359 @@
       <c r="AB101" t="s">
         <v>489</v>
       </c>
-      <c r="AC101" t="s">
-        <v>486</v>
+      <c r="AF101" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG101">
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:33">
       <c r="A102">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s">
         <v>490</v>
       </c>
       <c r="C102" t="s">
-        <v>423</v>
-      </c>
-      <c r="D102" t="s">
-        <v>486</v>
+        <v>32</v>
       </c>
       <c r="H102" t="s">
         <v>491</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102">
+        <v>30000</v>
+      </c>
+      <c r="O102">
+        <v>30000</v>
+      </c>
+      <c r="P102">
+        <v>1500000000</v>
+      </c>
+      <c r="Q102">
+        <v>50000</v>
+      </c>
+      <c r="U102" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA102" t="s">
         <v>492</v>
       </c>
-      <c r="P102">
-        <v>150</v>
-      </c>
-      <c r="Q102">
-        <v>1000</v>
-      </c>
-      <c r="U102" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA102" t="s">
+      <c r="AB102" t="s">
         <v>493</v>
       </c>
-      <c r="AB102" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>486</v>
+      <c r="AF102" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG102">
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:33">
       <c r="A103">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="B103" t="s">
-        <v>495</v>
+        <v>368</v>
       </c>
       <c r="C103" t="s">
-        <v>496</v>
-      </c>
-      <c r="D103" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="H103" t="s">
-        <v>492</v>
-      </c>
-      <c r="M103" t="s">
-        <v>497</v>
+        <v>494</v>
+      </c>
+      <c r="N103">
+        <v>30000</v>
+      </c>
+      <c r="O103">
+        <v>30000</v>
       </c>
       <c r="P103">
-        <v>250</v>
+        <v>1500000000</v>
       </c>
       <c r="Q103">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="U103" t="s">
         <v>490</v>
       </c>
       <c r="AA103" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AB103" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>486</v>
+        <v>496</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG103">
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:33">
       <c r="A104">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="H104" t="s">
-        <v>497</v>
-      </c>
-      <c r="I104">
-        <v>100</v>
+        <v>499</v>
       </c>
       <c r="P104">
         <v>150</v>
       </c>
       <c r="Q104">
-        <v>1500</v>
-      </c>
-      <c r="U104" t="s">
-        <v>495</v>
-      </c>
-      <c r="V104" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB104" t="s">
         <v>501</v>
       </c>
-      <c r="AA104" t="s">
-        <v>502</v>
-      </c>
-      <c r="AB104" t="s">
-        <v>503</v>
-      </c>
       <c r="AC104" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="1:33">
       <c r="A105">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B105" t="s">
+        <v>502</v>
+      </c>
+      <c r="C105" t="s">
+        <v>435</v>
+      </c>
+      <c r="D105" t="s">
+        <v>498</v>
+      </c>
+      <c r="H105" t="s">
+        <v>503</v>
+      </c>
+      <c r="M105" t="s">
         <v>504</v>
       </c>
-      <c r="C105" t="s">
-        <v>324</v>
-      </c>
-      <c r="D105" t="s">
-        <v>486</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="P105">
+        <v>150</v>
+      </c>
+      <c r="Q105">
+        <v>1000</v>
+      </c>
+      <c r="U105" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA105" t="s">
         <v>505</v>
       </c>
-      <c r="P105">
-        <v>10000</v>
-      </c>
-      <c r="Q105">
-        <v>1500</v>
-      </c>
-      <c r="U105" t="s">
-        <v>500</v>
-      </c>
-      <c r="V105" t="s">
+      <c r="AB105" t="s">
         <v>506</v>
       </c>
-      <c r="AA105" t="s">
-        <v>507</v>
-      </c>
-      <c r="AB105" t="s">
-        <v>508</v>
-      </c>
       <c r="AC105" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="106" spans="1:33">
       <c r="A106">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B106" t="s">
+        <v>507</v>
+      </c>
+      <c r="C106" t="s">
+        <v>508</v>
+      </c>
+      <c r="D106" t="s">
+        <v>498</v>
+      </c>
+      <c r="H106" t="s">
+        <v>504</v>
+      </c>
+      <c r="M106" t="s">
         <v>509</v>
       </c>
-      <c r="C106" t="s">
-        <v>324</v>
-      </c>
-      <c r="D106" t="s">
-        <v>486</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="P106">
+        <v>250</v>
+      </c>
+      <c r="Q106">
+        <v>1000</v>
+      </c>
+      <c r="U106" t="s">
+        <v>502</v>
+      </c>
+      <c r="AA106" t="s">
         <v>510</v>
       </c>
-      <c r="I106">
-        <v>25000</v>
-      </c>
-      <c r="M106" t="s">
+      <c r="AB106" t="s">
         <v>511</v>
       </c>
-      <c r="P106">
-        <v>10000</v>
-      </c>
-      <c r="Q106">
-        <v>1600</v>
-      </c>
-      <c r="U106" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>512</v>
-      </c>
-      <c r="AB106" t="s">
-        <v>513</v>
-      </c>
       <c r="AC106" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:33">
       <c r="A107">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C107" t="s">
         <v>103</v>
       </c>
       <c r="D107" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="H107" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I107">
         <v>100</v>
       </c>
-      <c r="N107">
-        <v>25</v>
-      </c>
-      <c r="O107">
-        <v>2</v>
-      </c>
       <c r="P107">
         <v>150</v>
       </c>
       <c r="Q107">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="U107" t="s">
-        <v>509</v>
+        <v>507</v>
+      </c>
+      <c r="V107" t="s">
+        <v>513</v>
       </c>
       <c r="AA107" t="s">
+        <v>514</v>
+      </c>
+      <c r="AB107" t="s">
         <v>515</v>
       </c>
-      <c r="AB107" t="s">
-        <v>516</v>
-      </c>
       <c r="AC107" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:33">
       <c r="A108">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B108" t="s">
+        <v>516</v>
+      </c>
+      <c r="C108" t="s">
+        <v>336</v>
+      </c>
+      <c r="D108" t="s">
+        <v>498</v>
+      </c>
+      <c r="H108" t="s">
         <v>517</v>
       </c>
-      <c r="C108" t="s">
-        <v>423</v>
-      </c>
-      <c r="D108" t="s">
-        <v>486</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>100</v>
-      </c>
-      <c r="J108">
-        <v>20000</v>
-      </c>
-      <c r="L108">
+      <c r="P108">
         <v>10000</v>
       </c>
-      <c r="P108">
-        <v>150</v>
-      </c>
       <c r="Q108">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="U108" t="s">
-        <v>485</v>
+        <v>512</v>
+      </c>
+      <c r="V108" t="s">
+        <v>518</v>
       </c>
       <c r="AA108" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB108" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AC108" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="1:33">
       <c r="A109">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B109" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="D109" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="H109" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I109">
-        <v>500</v>
-      </c>
-      <c r="J109">
-        <v>15000</v>
-      </c>
-      <c r="L109">
-        <v>15000</v>
+        <v>25000</v>
+      </c>
+      <c r="M109" t="s">
+        <v>523</v>
       </c>
       <c r="P109">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="Q109">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="U109" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AA109" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AB109" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AC109" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="1:33">
       <c r="A110">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B110" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="H110" t="s">
-        <v>525</v>
-      </c>
-      <c r="M110" t="s">
-        <v>526</v>
+        <v>523</v>
+      </c>
+      <c r="I110">
+        <v>100</v>
+      </c>
+      <c r="N110">
+        <v>25</v>
+      </c>
+      <c r="O110">
+        <v>2</v>
       </c>
       <c r="P110">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q110">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="U110" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA110" t="s">
         <v>527</v>
@@ -7532,42 +7568,42 @@
         <v>528</v>
       </c>
       <c r="AC110" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="1:33">
       <c r="A111">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
         <v>529</v>
       </c>
       <c r="C111" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="D111" t="s">
-        <v>486</v>
-      </c>
-      <c r="H111" t="s">
-        <v>526</v>
+        <v>498</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
       </c>
       <c r="I111">
         <v>100</v>
       </c>
       <c r="J111">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="L111">
-        <v>75000</v>
+        <v>10000</v>
+      </c>
+      <c r="P111">
+        <v>150</v>
       </c>
       <c r="Q111">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="U111" t="s">
-        <v>524</v>
-      </c>
-      <c r="Y111">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="AA111" t="s">
         <v>530</v>
@@ -7576,62 +7612,77 @@
         <v>531</v>
       </c>
       <c r="AC111" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="1:33">
       <c r="A112">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B112" t="s">
         <v>532</v>
       </c>
       <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s">
+        <v>498</v>
+      </c>
+      <c r="H112" t="s">
         <v>533</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112">
+        <v>500</v>
+      </c>
+      <c r="J112">
+        <v>15000</v>
+      </c>
+      <c r="L112">
+        <v>15000</v>
+      </c>
+      <c r="P112">
+        <v>250</v>
+      </c>
+      <c r="Q112">
+        <v>4000</v>
+      </c>
+      <c r="U112" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA112" t="s">
         <v>534</v>
       </c>
-      <c r="I112">
-        <v>125</v>
-      </c>
-      <c r="P112">
-        <v>200</v>
-      </c>
-      <c r="Q112">
-        <v>100</v>
-      </c>
-      <c r="T112">
-        <v>1</v>
-      </c>
-      <c r="AA112" t="s">
+      <c r="AB112" t="s">
         <v>535</v>
       </c>
-      <c r="AB112" t="s">
-        <v>536</v>
-      </c>
-      <c r="AE112">
-        <v>4</v>
+      <c r="AC112" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="113" spans="1:33">
       <c r="A113">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B113" t="s">
+        <v>536</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>498</v>
+      </c>
+      <c r="H113" t="s">
         <v>537</v>
       </c>
-      <c r="C113" t="s">
-        <v>423</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="M113" t="s">
         <v>538</v>
       </c>
       <c r="P113">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q113">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="U113" t="s">
         <v>532</v>
@@ -7642,51 +7693,66 @@
       <c r="AB113" t="s">
         <v>540</v>
       </c>
-      <c r="AE113">
-        <v>4</v>
+      <c r="AC113" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="114" spans="1:33">
       <c r="A114">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B114" t="s">
         <v>541</v>
       </c>
       <c r="C114" t="s">
-        <v>533</v>
+        <v>435</v>
+      </c>
+      <c r="D114" t="s">
+        <v>498</v>
       </c>
       <c r="H114" t="s">
+        <v>538</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+      <c r="J114">
+        <v>100000</v>
+      </c>
+      <c r="L114">
+        <v>75000</v>
+      </c>
+      <c r="Q114">
+        <v>5000</v>
+      </c>
+      <c r="U114" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y114">
+        <v>1</v>
+      </c>
+      <c r="AA114" t="s">
         <v>542</v>
       </c>
-      <c r="P114">
-        <v>200</v>
-      </c>
-      <c r="Q114">
-        <v>100</v>
-      </c>
-      <c r="U114" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
         <v>543</v>
       </c>
-      <c r="AB114" t="s">
-        <v>544</v>
-      </c>
-      <c r="AE114">
-        <v>4</v>
+      <c r="AC114" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="115" spans="1:33">
       <c r="A115">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B115" t="s">
+        <v>544</v>
+      </c>
+      <c r="C115" t="s">
         <v>545</v>
       </c>
-      <c r="C115" t="s">
-        <v>533</v>
+      <c r="H115" t="s">
+        <v>546</v>
       </c>
       <c r="I115">
         <v>125</v>
@@ -7697,14 +7763,14 @@
       <c r="Q115">
         <v>100</v>
       </c>
-      <c r="U115" t="s">
-        <v>541</v>
+      <c r="T115">
+        <v>1</v>
       </c>
       <c r="AA115" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB115" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AE115">
         <v>4</v>
@@ -7712,49 +7778,31 @@
     </row>
     <row r="116" spans="1:33">
       <c r="A116">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B116" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C116" t="s">
-        <v>533</v>
-      </c>
-      <c r="E116" t="s">
-        <v>549</v>
+        <v>435</v>
       </c>
       <c r="H116" t="s">
         <v>550</v>
       </c>
-      <c r="I116">
-        <v>125</v>
-      </c>
-      <c r="M116" t="s">
-        <v>551</v>
-      </c>
-      <c r="N116">
-        <v>75</v>
-      </c>
-      <c r="O116">
-        <v>10</v>
-      </c>
       <c r="P116">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q116">
         <v>100</v>
       </c>
       <c r="U116" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AA116" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB116" t="s">
         <v>552</v>
-      </c>
-      <c r="AB116" t="s">
-        <v>553</v>
-      </c>
-      <c r="AD116" t="s">
-        <v>549</v>
       </c>
       <c r="AE116">
         <v>4</v>
@@ -7762,25 +7810,16 @@
     </row>
     <row r="117" spans="1:33">
       <c r="A117">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B117" t="s">
+        <v>553</v>
+      </c>
+      <c r="C117" t="s">
+        <v>545</v>
+      </c>
+      <c r="H117" t="s">
         <v>554</v>
-      </c>
-      <c r="C117" t="s">
-        <v>533</v>
-      </c>
-      <c r="I117">
-        <v>125</v>
-      </c>
-      <c r="J117">
-        <v>1500</v>
-      </c>
-      <c r="N117">
-        <v>75</v>
-      </c>
-      <c r="O117">
-        <v>10</v>
       </c>
       <c r="P117">
         <v>200</v>
@@ -7789,7 +7828,7 @@
         <v>100</v>
       </c>
       <c r="U117" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AA117" t="s">
         <v>555</v>
@@ -7803,43 +7842,31 @@
     </row>
     <row r="118" spans="1:33">
       <c r="A118">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B118" t="s">
         <v>557</v>
       </c>
       <c r="C118" t="s">
-        <v>423</v>
-      </c>
-      <c r="E118" t="s">
         <v>545</v>
       </c>
-      <c r="H118" t="s">
-        <v>558</v>
-      </c>
-      <c r="N118">
-        <v>25</v>
-      </c>
-      <c r="O118">
-        <v>2</v>
+      <c r="I118">
+        <v>125</v>
       </c>
       <c r="P118">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q118">
         <v>100</v>
       </c>
       <c r="U118" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="AA118" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB118" t="s">
         <v>559</v>
-      </c>
-      <c r="AB118" t="s">
-        <v>560</v>
-      </c>
-      <c r="AD118" t="s">
-        <v>545</v>
       </c>
       <c r="AE118">
         <v>4</v>
@@ -7847,40 +7874,49 @@
     </row>
     <row r="119" spans="1:33">
       <c r="A119">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B119" t="s">
+        <v>560</v>
+      </c>
+      <c r="C119" t="s">
+        <v>545</v>
+      </c>
+      <c r="E119" t="s">
         <v>561</v>
-      </c>
-      <c r="C119" t="s">
-        <v>423</v>
       </c>
       <c r="H119" t="s">
         <v>562</v>
       </c>
       <c r="I119">
-        <v>100</v>
+        <v>125</v>
+      </c>
+      <c r="M119" t="s">
+        <v>563</v>
       </c>
       <c r="N119">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="O119">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P119">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q119">
         <v>100</v>
       </c>
       <c r="U119" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AA119" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB119" t="s">
-        <v>564</v>
+        <v>565</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>561</v>
       </c>
       <c r="AE119">
         <v>4</v>
@@ -7888,43 +7924,34 @@
     </row>
     <row r="120" spans="1:33">
       <c r="A120">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B120" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="C120" t="s">
-        <v>423</v>
-      </c>
-      <c r="H120" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="I120">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J120">
+        <v>1500</v>
+      </c>
+      <c r="N120">
+        <v>75</v>
+      </c>
+      <c r="O120">
+        <v>10</v>
+      </c>
+      <c r="P120">
         <v>200</v>
-      </c>
-      <c r="K120">
-        <v>1000</v>
-      </c>
-      <c r="M120" t="s">
-        <v>566</v>
-      </c>
-      <c r="N120">
-        <v>25</v>
-      </c>
-      <c r="O120">
-        <v>2</v>
-      </c>
-      <c r="P120">
-        <v>150</v>
       </c>
       <c r="Q120">
         <v>100</v>
       </c>
       <c r="U120" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA120" t="s">
         <v>567</v>
@@ -7938,46 +7965,43 @@
     </row>
     <row r="121" spans="1:33">
       <c r="A121">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B121" t="s">
         <v>569</v>
       </c>
       <c r="C121" t="s">
-        <v>533</v>
+        <v>435</v>
       </c>
       <c r="E121" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H121" t="s">
         <v>570</v>
       </c>
       <c r="N121">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O121">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P121">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q121">
         <v>100</v>
       </c>
       <c r="U121" t="s">
-        <v>532</v>
-      </c>
-      <c r="V121" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA121" t="s">
         <v>571</v>
       </c>
-      <c r="AA121" t="s">
+      <c r="AB121" t="s">
         <v>572</v>
       </c>
-      <c r="AB121" t="s">
-        <v>573</v>
-      </c>
       <c r="AD121" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AE121">
         <v>4</v>
@@ -7985,43 +8009,40 @@
     </row>
     <row r="122" spans="1:33">
       <c r="A122">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B122" t="s">
+        <v>573</v>
+      </c>
+      <c r="C122" t="s">
+        <v>435</v>
+      </c>
+      <c r="H122" t="s">
         <v>574</v>
       </c>
-      <c r="C122" t="s">
-        <v>533</v>
-      </c>
-      <c r="H122" t="s">
-        <v>575</v>
-      </c>
       <c r="I122">
-        <v>125</v>
-      </c>
-      <c r="J122">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="N122">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O122">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P122">
-        <v>200</v>
+        <v>150</v>
+      </c>
+      <c r="Q122">
+        <v>100</v>
       </c>
       <c r="U122" t="s">
         <v>569</v>
       </c>
-      <c r="V122" t="s">
+      <c r="AA122" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB122" t="s">
         <v>576</v>
-      </c>
-      <c r="AA122" t="s">
-        <v>577</v>
-      </c>
-      <c r="AB122" t="s">
-        <v>578</v>
       </c>
       <c r="AE122">
         <v>4</v>
@@ -8029,49 +8050,49 @@
     </row>
     <row r="123" spans="1:33">
       <c r="A123">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B123" t="s">
+        <v>561</v>
+      </c>
+      <c r="C123" t="s">
+        <v>435</v>
+      </c>
+      <c r="H123" t="s">
+        <v>577</v>
+      </c>
+      <c r="I123">
+        <v>100</v>
+      </c>
+      <c r="J123">
+        <v>200</v>
+      </c>
+      <c r="K123">
+        <v>1000</v>
+      </c>
+      <c r="M123" t="s">
+        <v>578</v>
+      </c>
+      <c r="N123">
+        <v>25</v>
+      </c>
+      <c r="O123">
+        <v>2</v>
+      </c>
+      <c r="P123">
+        <v>150</v>
+      </c>
+      <c r="Q123">
+        <v>100</v>
+      </c>
+      <c r="U123" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA123" t="s">
         <v>579</v>
       </c>
-      <c r="C123" t="s">
-        <v>533</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="AB123" t="s">
         <v>580</v>
-      </c>
-      <c r="I123">
-        <v>125</v>
-      </c>
-      <c r="J123">
-        <v>25000</v>
-      </c>
-      <c r="M123" t="s">
-        <v>581</v>
-      </c>
-      <c r="N123">
-        <v>75</v>
-      </c>
-      <c r="O123">
-        <v>10</v>
-      </c>
-      <c r="P123">
-        <v>200</v>
-      </c>
-      <c r="Q123">
-        <v>200</v>
-      </c>
-      <c r="U123" t="s">
-        <v>574</v>
-      </c>
-      <c r="V123" t="s">
-        <v>582</v>
-      </c>
-      <c r="AA123" t="s">
-        <v>583</v>
-      </c>
-      <c r="AB123" t="s">
-        <v>584</v>
       </c>
       <c r="AE123">
         <v>4</v>
@@ -8079,46 +8100,46 @@
     </row>
     <row r="124" spans="1:33">
       <c r="A124">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B124" t="s">
+        <v>581</v>
+      </c>
+      <c r="C124" t="s">
+        <v>545</v>
+      </c>
+      <c r="E124" t="s">
+        <v>566</v>
+      </c>
+      <c r="H124" t="s">
+        <v>582</v>
+      </c>
+      <c r="N124">
+        <v>75</v>
+      </c>
+      <c r="O124">
+        <v>10</v>
+      </c>
+      <c r="P124">
+        <v>200</v>
+      </c>
+      <c r="Q124">
+        <v>100</v>
+      </c>
+      <c r="U124" t="s">
+        <v>544</v>
+      </c>
+      <c r="V124" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>584</v>
+      </c>
+      <c r="AB124" t="s">
         <v>585</v>
       </c>
-      <c r="C124" t="s">
-        <v>423</v>
-      </c>
-      <c r="H124" t="s">
-        <v>581</v>
-      </c>
-      <c r="I124">
-        <v>100</v>
-      </c>
-      <c r="J124">
-        <v>5000</v>
-      </c>
-      <c r="M124" t="s">
-        <v>586</v>
-      </c>
-      <c r="N124">
-        <v>25</v>
-      </c>
-      <c r="O124">
-        <v>2</v>
-      </c>
-      <c r="P124">
-        <v>150</v>
-      </c>
-      <c r="Q124">
-        <v>250</v>
-      </c>
-      <c r="U124" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>587</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>588</v>
+      <c r="AD124" t="s">
+        <v>566</v>
       </c>
       <c r="AE124">
         <v>4</v>
@@ -8126,16 +8147,16 @@
     </row>
     <row r="125" spans="1:33">
       <c r="A125">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B125" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C125" t="s">
-        <v>590</v>
-      </c>
-      <c r="E125" t="s">
-        <v>591</v>
+        <v>545</v>
+      </c>
+      <c r="H125" t="s">
+        <v>587</v>
       </c>
       <c r="I125">
         <v>125</v>
@@ -8143,9 +8164,6 @@
       <c r="J125">
         <v>2000</v>
       </c>
-      <c r="M125" t="s">
-        <v>592</v>
-      </c>
       <c r="N125">
         <v>75</v>
       </c>
@@ -8155,20 +8173,17 @@
       <c r="P125">
         <v>200</v>
       </c>
-      <c r="Q125">
-        <v>100</v>
-      </c>
       <c r="U125" t="s">
-        <v>585</v>
+        <v>581</v>
+      </c>
+      <c r="V125" t="s">
+        <v>588</v>
       </c>
       <c r="AA125" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AB125" t="s">
-        <v>594</v>
-      </c>
-      <c r="AD125" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AE125">
         <v>4</v>
@@ -8176,22 +8191,25 @@
     </row>
     <row r="126" spans="1:33">
       <c r="A126">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B126" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C126" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
       <c r="H126" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="I126">
         <v>125</v>
       </c>
       <c r="J126">
-        <v>1500</v>
+        <v>25000</v>
+      </c>
+      <c r="M126" t="s">
+        <v>593</v>
       </c>
       <c r="N126">
         <v>75</v>
@@ -8199,17 +8217,23 @@
       <c r="O126">
         <v>10</v>
       </c>
+      <c r="P126">
+        <v>200</v>
+      </c>
       <c r="Q126">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U126" t="s">
-        <v>589</v>
+        <v>586</v>
+      </c>
+      <c r="V126" t="s">
+        <v>594</v>
       </c>
       <c r="AA126" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AB126" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AE126">
         <v>4</v>
@@ -8217,43 +8241,46 @@
     </row>
     <row r="127" spans="1:33">
       <c r="A127">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
+        <v>597</v>
+      </c>
+      <c r="C127" t="s">
+        <v>435</v>
+      </c>
+      <c r="H127" t="s">
+        <v>593</v>
+      </c>
+      <c r="I127">
+        <v>100</v>
+      </c>
+      <c r="J127">
+        <v>5000</v>
+      </c>
+      <c r="M127" t="s">
+        <v>598</v>
+      </c>
+      <c r="N127">
+        <v>25</v>
+      </c>
+      <c r="O127">
+        <v>2</v>
+      </c>
+      <c r="P127">
+        <v>150</v>
+      </c>
+      <c r="Q127">
+        <v>250</v>
+      </c>
+      <c r="U127" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB127" t="s">
         <v>600</v>
-      </c>
-      <c r="C127" t="s">
-        <v>596</v>
-      </c>
-      <c r="H127" t="s">
-        <v>601</v>
-      </c>
-      <c r="I127">
-        <v>125</v>
-      </c>
-      <c r="J127">
-        <v>1500</v>
-      </c>
-      <c r="N127">
-        <v>75</v>
-      </c>
-      <c r="O127">
-        <v>10</v>
-      </c>
-      <c r="Q127">
-        <v>100</v>
-      </c>
-      <c r="U127" t="s">
-        <v>595</v>
-      </c>
-      <c r="V127" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>603</v>
-      </c>
-      <c r="AB127" t="s">
-        <v>604</v>
       </c>
       <c r="AE127">
         <v>4</v>
@@ -8261,25 +8288,25 @@
     </row>
     <row r="128" spans="1:33">
       <c r="A128">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C128" t="s">
-        <v>596</v>
-      </c>
-      <c r="H128" t="s">
-        <v>606</v>
+        <v>602</v>
+      </c>
+      <c r="E128" t="s">
+        <v>603</v>
       </c>
       <c r="I128">
         <v>125</v>
       </c>
       <c r="J128">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M128" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N128">
         <v>75</v>
@@ -8287,17 +8314,23 @@
       <c r="O128">
         <v>10</v>
       </c>
+      <c r="P128">
+        <v>200</v>
+      </c>
       <c r="Q128">
         <v>100</v>
       </c>
       <c r="U128" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AA128" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AB128" t="s">
-        <v>609</v>
+        <v>606</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>603</v>
       </c>
       <c r="AE128">
         <v>4</v>
@@ -8305,25 +8338,22 @@
     </row>
     <row r="129" spans="1:33">
       <c r="A129">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B129" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C129" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="H129" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I129">
         <v>125</v>
       </c>
       <c r="J129">
-        <v>10000</v>
-      </c>
-      <c r="M129" t="s">
-        <v>611</v>
+        <v>1500</v>
       </c>
       <c r="N129">
         <v>75</v>
@@ -8335,13 +8365,13 @@
         <v>100</v>
       </c>
       <c r="U129" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AA129" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AB129" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AE129">
         <v>4</v>
@@ -8349,46 +8379,43 @@
     </row>
     <row r="130" spans="1:33">
       <c r="A130">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B130" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C130" t="s">
-        <v>590</v>
-      </c>
-      <c r="E130" t="s">
-        <v>610</v>
+        <v>608</v>
+      </c>
+      <c r="H130" t="s">
+        <v>613</v>
+      </c>
+      <c r="I130">
+        <v>125</v>
+      </c>
+      <c r="J130">
+        <v>1500</v>
       </c>
       <c r="N130">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O130">
-        <v>25</v>
-      </c>
-      <c r="P130">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q130">
         <v>100</v>
       </c>
       <c r="U130" t="s">
-        <v>610</v>
-      </c>
-      <c r="W130" t="s">
+        <v>607</v>
+      </c>
+      <c r="V130" t="s">
+        <v>614</v>
+      </c>
+      <c r="AA130" t="s">
         <v>615</v>
       </c>
-      <c r="X130">
-        <v>2</v>
-      </c>
-      <c r="AA130" t="s">
+      <c r="AB130" t="s">
         <v>616</v>
-      </c>
-      <c r="AB130" t="s">
-        <v>617</v>
-      </c>
-      <c r="AD130" t="s">
-        <v>610</v>
       </c>
       <c r="AE130">
         <v>4</v>
@@ -8396,40 +8423,43 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B131" t="s">
+        <v>617</v>
+      </c>
+      <c r="C131" t="s">
+        <v>608</v>
+      </c>
+      <c r="H131" t="s">
         <v>618</v>
       </c>
-      <c r="C131" t="s">
-        <v>533</v>
+      <c r="I131">
+        <v>125</v>
+      </c>
+      <c r="J131">
+        <v>5000</v>
+      </c>
+      <c r="M131" t="s">
+        <v>619</v>
       </c>
       <c r="N131">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O131">
-        <v>25</v>
-      </c>
-      <c r="P131">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q131">
         <v>100</v>
       </c>
       <c r="U131" t="s">
-        <v>614</v>
-      </c>
-      <c r="W131" t="s">
-        <v>615</v>
-      </c>
-      <c r="X131">
-        <v>4</v>
+        <v>612</v>
       </c>
       <c r="AA131" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AB131" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AE131">
         <v>4</v>
@@ -8437,40 +8467,43 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B132" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C132" t="s">
-        <v>423</v>
+        <v>608</v>
+      </c>
+      <c r="H132" t="s">
+        <v>619</v>
+      </c>
+      <c r="I132">
+        <v>125</v>
+      </c>
+      <c r="J132">
+        <v>10000</v>
+      </c>
+      <c r="M132" t="s">
+        <v>623</v>
       </c>
       <c r="N132">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O132">
-        <v>50</v>
-      </c>
-      <c r="P132">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q132">
         <v>100</v>
       </c>
       <c r="U132" t="s">
-        <v>618</v>
-      </c>
-      <c r="W132" t="s">
-        <v>615</v>
-      </c>
-      <c r="X132">
-        <v>5</v>
+        <v>601</v>
       </c>
       <c r="AA132" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AB132" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AE132">
         <v>4</v>
@@ -8478,46 +8511,46 @@
     </row>
     <row r="133" spans="1:33">
       <c r="A133">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B133" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C133" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E133" t="s">
-        <v>585</v>
-      </c>
-      <c r="I133">
-        <v>125</v>
-      </c>
-      <c r="J133">
+        <v>622</v>
+      </c>
+      <c r="N133">
         <v>100</v>
       </c>
-      <c r="N133">
-        <v>75</v>
-      </c>
       <c r="O133">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P133">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q133">
         <v>100</v>
       </c>
       <c r="U133" t="s">
-        <v>532</v>
+        <v>622</v>
+      </c>
+      <c r="W133" t="s">
+        <v>627</v>
+      </c>
+      <c r="X133">
+        <v>2</v>
       </c>
       <c r="AA133" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="AB133" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AD133" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="AE133">
         <v>4</v>
@@ -8525,43 +8558,40 @@
     </row>
     <row r="134" spans="1:33">
       <c r="A134">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B134" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C134" t="s">
-        <v>590</v>
-      </c>
-      <c r="H134" t="s">
-        <v>628</v>
-      </c>
-      <c r="I134">
-        <v>125</v>
-      </c>
-      <c r="J134">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="N134">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O134">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P134">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q134">
         <v>100</v>
       </c>
       <c r="U134" t="s">
-        <v>624</v>
+        <v>626</v>
+      </c>
+      <c r="W134" t="s">
+        <v>627</v>
+      </c>
+      <c r="X134">
+        <v>4</v>
       </c>
       <c r="AA134" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AB134" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AE134">
         <v>4</v>
@@ -8569,40 +8599,40 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B135" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C135" t="s">
-        <v>590</v>
-      </c>
-      <c r="I135">
+        <v>435</v>
+      </c>
+      <c r="N135">
         <v>125</v>
       </c>
-      <c r="J135">
-        <v>500</v>
-      </c>
-      <c r="N135">
-        <v>75</v>
-      </c>
       <c r="O135">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P135">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q135">
         <v>100</v>
       </c>
       <c r="U135" t="s">
+        <v>630</v>
+      </c>
+      <c r="W135" t="s">
         <v>627</v>
       </c>
+      <c r="X135">
+        <v>5</v>
+      </c>
       <c r="AA135" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AB135" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AE135">
         <v>4</v>
@@ -8610,22 +8640,22 @@
     </row>
     <row r="136" spans="1:33">
       <c r="A136">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="C136" t="s">
-        <v>590</v>
-      </c>
-      <c r="H136" t="s">
-        <v>591</v>
+        <v>602</v>
+      </c>
+      <c r="E136" t="s">
+        <v>597</v>
       </c>
       <c r="I136">
         <v>125</v>
       </c>
       <c r="J136">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N136">
         <v>75</v>
@@ -8640,153 +8670,159 @@
         <v>100</v>
       </c>
       <c r="U136" t="s">
-        <v>631</v>
+        <v>544</v>
       </c>
       <c r="AA136" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AB136" t="s">
-        <v>635</v>
+        <v>638</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE136">
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:33">
       <c r="A137">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B137" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C137" t="s">
-        <v>533</v>
-      </c>
-      <c r="E137" t="s">
-        <v>621</v>
+        <v>602</v>
+      </c>
+      <c r="H137" t="s">
+        <v>640</v>
+      </c>
+      <c r="I137">
+        <v>125</v>
+      </c>
+      <c r="J137">
+        <v>500</v>
       </c>
       <c r="N137">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O137">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P137">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q137">
         <v>100</v>
       </c>
       <c r="U137" t="s">
-        <v>532</v>
+        <v>636</v>
       </c>
       <c r="AA137" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="AB137" t="s">
-        <v>638</v>
-      </c>
-      <c r="AD137" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="AE137">
         <v>4</v>
       </c>
-      <c r="AF137" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG137">
-        <v>5</v>
-      </c>
     </row>
     <row r="138" spans="1:33">
       <c r="A138">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C138" t="s">
-        <v>533</v>
+        <v>602</v>
+      </c>
+      <c r="I138">
+        <v>125</v>
+      </c>
+      <c r="J138">
+        <v>500</v>
       </c>
       <c r="N138">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O138">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P138">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q138">
         <v>100</v>
       </c>
       <c r="U138" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AA138" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="AB138" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="AE138">
         <v>4</v>
       </c>
-      <c r="AF138" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG138">
-        <v>10</v>
-      </c>
     </row>
     <row r="139" spans="1:33">
       <c r="A139">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B139" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="C139" t="s">
-        <v>533</v>
+        <v>602</v>
+      </c>
+      <c r="H139" t="s">
+        <v>603</v>
+      </c>
+      <c r="I139">
+        <v>125</v>
+      </c>
+      <c r="J139">
+        <v>1000</v>
       </c>
       <c r="N139">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O139">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P139">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q139">
         <v>100</v>
       </c>
       <c r="U139" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="AA139" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="AB139" t="s">
-        <v>644</v>
-      </c>
-      <c r="AE139">
-        <v>4</v>
-      </c>
-      <c r="AF139" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG139">
-        <v>15</v>
+        <v>647</v>
       </c>
     </row>
     <row r="140" spans="1:33">
       <c r="A140">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B140" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C140" t="s">
-        <v>533</v>
+        <v>545</v>
+      </c>
+      <c r="E140" t="s">
+        <v>633</v>
       </c>
       <c r="N140">
         <v>175</v>
@@ -8801,36 +8837,36 @@
         <v>100</v>
       </c>
       <c r="U140" t="s">
-        <v>642</v>
+        <v>544</v>
       </c>
       <c r="AA140" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AB140" t="s">
-        <v>647</v>
+        <v>650</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>633</v>
       </c>
       <c r="AE140">
         <v>4</v>
       </c>
       <c r="AF140" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="AG140">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:33">
       <c r="A141">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C141" t="s">
-        <v>533</v>
-      </c>
-      <c r="M141" t="s">
-        <v>649</v>
+        <v>545</v>
       </c>
       <c r="N141">
         <v>175</v>
@@ -8845,110 +8881,89 @@
         <v>100</v>
       </c>
       <c r="U141" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AA141" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AB141" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AE141">
         <v>4</v>
       </c>
       <c r="AF141" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="AG141">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:33">
       <c r="A142">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C142" t="s">
-        <v>533</v>
-      </c>
-      <c r="D142" t="s">
-        <v>653</v>
-      </c>
-      <c r="E142" t="s">
-        <v>605</v>
-      </c>
-      <c r="I142">
-        <v>125</v>
-      </c>
-      <c r="J142">
-        <v>25000</v>
+        <v>545</v>
       </c>
       <c r="N142">
+        <v>175</v>
+      </c>
+      <c r="O142">
         <v>75</v>
       </c>
-      <c r="O142">
-        <v>10</v>
-      </c>
       <c r="P142">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q142">
         <v>100</v>
       </c>
-      <c r="T142">
-        <v>1</v>
+      <c r="U142" t="s">
+        <v>651</v>
       </c>
       <c r="AA142" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AB142" t="s">
-        <v>655</v>
-      </c>
-      <c r="AC142" t="s">
-        <v>653</v>
-      </c>
-      <c r="AD142" t="s">
-        <v>605</v>
+        <v>656</v>
       </c>
       <c r="AE142">
         <v>4</v>
       </c>
+      <c r="AF142" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG142">
+        <v>15</v>
+      </c>
     </row>
     <row r="143" spans="1:33">
       <c r="A143">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C143" t="s">
-        <v>533</v>
-      </c>
-      <c r="H143" t="s">
-        <v>657</v>
-      </c>
-      <c r="I143">
-        <v>125</v>
-      </c>
-      <c r="J143">
-        <v>5000</v>
+        <v>545</v>
       </c>
       <c r="N143">
+        <v>175</v>
+      </c>
+      <c r="O143">
         <v>75</v>
       </c>
-      <c r="O143">
-        <v>10</v>
-      </c>
       <c r="P143">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q143">
         <v>100</v>
       </c>
       <c r="U143" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="AA143" t="s">
         <v>658</v>
@@ -8959,69 +8974,84 @@
       <c r="AE143">
         <v>4</v>
       </c>
+      <c r="AF143" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG143">
+        <v>20</v>
+      </c>
     </row>
     <row r="144" spans="1:33">
       <c r="A144">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B144" t="s">
         <v>660</v>
       </c>
       <c r="C144" t="s">
-        <v>533</v>
-      </c>
-      <c r="H144" t="s">
+        <v>545</v>
+      </c>
+      <c r="M144" t="s">
         <v>661</v>
       </c>
-      <c r="I144">
-        <v>125</v>
-      </c>
-      <c r="J144">
-        <v>10000</v>
-      </c>
       <c r="N144">
+        <v>175</v>
+      </c>
+      <c r="O144">
         <v>75</v>
       </c>
-      <c r="O144">
-        <v>10</v>
+      <c r="P144">
+        <v>2000</v>
       </c>
       <c r="Q144">
         <v>100</v>
       </c>
       <c r="U144" t="s">
-        <v>656</v>
-      </c>
-      <c r="V144" t="s">
+        <v>657</v>
+      </c>
+      <c r="AA144" t="s">
         <v>662</v>
       </c>
-      <c r="AA144" t="s">
+      <c r="AB144" t="s">
         <v>663</v>
-      </c>
-      <c r="AB144" t="s">
-        <v>664</v>
       </c>
       <c r="AE144">
         <v>4</v>
       </c>
+      <c r="AF144" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG144">
+        <v>25</v>
+      </c>
     </row>
     <row r="145" spans="1:33">
       <c r="A145">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B145" t="s">
+        <v>664</v>
+      </c>
+      <c r="C145" t="s">
+        <v>545</v>
+      </c>
+      <c r="D145" t="s">
         <v>665</v>
       </c>
-      <c r="C145" t="s">
-        <v>533</v>
-      </c>
-      <c r="H145" t="s">
-        <v>666</v>
+      <c r="E145" t="s">
+        <v>617</v>
       </c>
       <c r="I145">
         <v>125</v>
       </c>
       <c r="J145">
-        <v>2000</v>
+        <v>25000</v>
+      </c>
+      <c r="N145">
+        <v>75</v>
+      </c>
+      <c r="O145">
+        <v>10</v>
       </c>
       <c r="P145">
         <v>200</v>
@@ -9029,34 +9059,49 @@
       <c r="Q145">
         <v>100</v>
       </c>
-      <c r="U145" t="s">
-        <v>660</v>
+      <c r="T145">
+        <v>1</v>
       </c>
       <c r="AA145" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB145" t="s">
         <v>667</v>
       </c>
-      <c r="AB145" t="s">
-        <v>668</v>
+      <c r="AC145" t="s">
+        <v>665</v>
+      </c>
+      <c r="AD145" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE145">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:33">
       <c r="A146">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B146" t="s">
+        <v>668</v>
+      </c>
+      <c r="C146" t="s">
+        <v>545</v>
+      </c>
+      <c r="H146" t="s">
         <v>669</v>
-      </c>
-      <c r="C146" t="s">
-        <v>533</v>
-      </c>
-      <c r="H146" t="s">
-        <v>670</v>
       </c>
       <c r="I146">
         <v>125</v>
       </c>
       <c r="J146">
-        <v>20000</v>
+        <v>5000</v>
+      </c>
+      <c r="N146">
+        <v>75</v>
+      </c>
+      <c r="O146">
+        <v>10</v>
       </c>
       <c r="P146">
         <v>200</v>
@@ -9065,13 +9110,13 @@
         <v>100</v>
       </c>
       <c r="U146" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AA146" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB146" t="s">
         <v>671</v>
-      </c>
-      <c r="AB146" t="s">
-        <v>672</v>
       </c>
       <c r="AE146">
         <v>4</v>
@@ -9079,37 +9124,37 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B147" t="s">
+        <v>672</v>
+      </c>
+      <c r="C147" t="s">
+        <v>545</v>
+      </c>
+      <c r="H147" t="s">
         <v>673</v>
       </c>
-      <c r="C147" t="s">
-        <v>423</v>
-      </c>
-      <c r="H147" t="s">
-        <v>674</v>
-      </c>
       <c r="I147">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J147">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N147">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="O147">
-        <v>2</v>
-      </c>
-      <c r="P147">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="Q147">
         <v>100</v>
       </c>
       <c r="U147" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="V147" t="s">
+        <v>674</v>
       </c>
       <c r="AA147" t="s">
         <v>675</v>
@@ -9123,16 +9168,13 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B148" t="s">
         <v>677</v>
       </c>
       <c r="C148" t="s">
-        <v>533</v>
-      </c>
-      <c r="E148" t="s">
-        <v>673</v>
+        <v>545</v>
       </c>
       <c r="H148" t="s">
         <v>678</v>
@@ -9141,13 +9183,16 @@
         <v>125</v>
       </c>
       <c r="J148">
-        <v>20000</v>
+        <v>2000</v>
+      </c>
+      <c r="P148">
+        <v>200</v>
       </c>
       <c r="Q148">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U148" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="AA148" t="s">
         <v>679</v>
@@ -9155,40 +9200,40 @@
       <c r="AB148" t="s">
         <v>680</v>
       </c>
-      <c r="AD148" t="s">
-        <v>673</v>
-      </c>
-      <c r="AE148">
-        <v>4</v>
-      </c>
     </row>
     <row r="149" spans="1:33">
       <c r="A149">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B149" t="s">
         <v>681</v>
       </c>
       <c r="C149" t="s">
-        <v>533</v>
+        <v>545</v>
+      </c>
+      <c r="H149" t="s">
+        <v>682</v>
       </c>
       <c r="I149">
         <v>125</v>
       </c>
       <c r="J149">
-        <v>30000</v>
+        <v>20000</v>
+      </c>
+      <c r="P149">
+        <v>200</v>
       </c>
       <c r="Q149">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U149" t="s">
         <v>677</v>
       </c>
       <c r="AA149" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AB149" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AE149">
         <v>4</v>
@@ -9196,157 +9241,145 @@
     </row>
     <row r="150" spans="1:33">
       <c r="A150">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B150" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C150" t="s">
-        <v>685</v>
-      </c>
-      <c r="E150" t="s">
-        <v>374</v>
-      </c>
-      <c r="F150" t="s">
-        <v>355</v>
-      </c>
-      <c r="G150">
-        <v>10</v>
+        <v>435</v>
       </c>
       <c r="H150" t="s">
         <v>686</v>
       </c>
+      <c r="I150">
+        <v>100</v>
+      </c>
+      <c r="J150">
+        <v>25000</v>
+      </c>
       <c r="N150">
-        <v>500000</v>
+        <v>25</v>
       </c>
       <c r="O150">
-        <v>500000</v>
+        <v>2</v>
       </c>
       <c r="P150">
-        <v>2000000000</v>
+        <v>150</v>
       </c>
       <c r="Q150">
-        <v>175000</v>
-      </c>
-      <c r="T150">
-        <v>1</v>
-      </c>
-      <c r="W150" t="s">
+        <v>100</v>
+      </c>
+      <c r="U150" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA150" t="s">
         <v>687</v>
       </c>
-      <c r="X150">
-        <v>5</v>
-      </c>
-      <c r="AA150" t="s">
+      <c r="AB150" t="s">
         <v>688</v>
       </c>
-      <c r="AB150" t="s">
-        <v>689</v>
-      </c>
-      <c r="AD150" t="s">
-        <v>374</v>
-      </c>
-      <c r="AF150" t="s">
-        <v>685</v>
-      </c>
-      <c r="AG150">
-        <v>5</v>
+      <c r="AE150">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:33">
       <c r="A151">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B151" t="s">
+        <v>689</v>
+      </c>
+      <c r="C151" t="s">
+        <v>545</v>
+      </c>
+      <c r="E151" t="s">
+        <v>685</v>
+      </c>
+      <c r="H151" t="s">
         <v>690</v>
       </c>
-      <c r="C151" t="s">
+      <c r="I151">
+        <v>125</v>
+      </c>
+      <c r="J151">
+        <v>20000</v>
+      </c>
+      <c r="Q151">
+        <v>200</v>
+      </c>
+      <c r="U151" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD151" t="s">
         <v>685</v>
       </c>
-      <c r="H151" t="s">
-        <v>691</v>
-      </c>
-      <c r="N151">
-        <v>500000</v>
-      </c>
-      <c r="O151">
-        <v>500000</v>
-      </c>
-      <c r="P151">
-        <v>2000000000</v>
-      </c>
-      <c r="Q151">
-        <v>175000</v>
-      </c>
-      <c r="U151" t="s">
-        <v>684</v>
-      </c>
-      <c r="AA151" t="s">
-        <v>692</v>
-      </c>
-      <c r="AB151" t="s">
-        <v>693</v>
-      </c>
-      <c r="AF151" t="s">
-        <v>685</v>
-      </c>
-      <c r="AG151">
-        <v>10</v>
+      <c r="AE151">
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:33">
       <c r="A152">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B152" t="s">
+        <v>693</v>
+      </c>
+      <c r="C152" t="s">
+        <v>545</v>
+      </c>
+      <c r="I152">
+        <v>125</v>
+      </c>
+      <c r="J152">
+        <v>30000</v>
+      </c>
+      <c r="Q152">
+        <v>500</v>
+      </c>
+      <c r="U152" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y152">
+        <v>2</v>
+      </c>
+      <c r="AA152" t="s">
         <v>694</v>
       </c>
-      <c r="C152" t="s">
+      <c r="AB152" t="s">
         <v>695</v>
       </c>
-      <c r="H152" t="s">
-        <v>696</v>
-      </c>
-      <c r="N152">
-        <v>500000</v>
-      </c>
-      <c r="O152">
-        <v>500000</v>
-      </c>
-      <c r="P152">
-        <v>2000000000</v>
-      </c>
-      <c r="Q152">
-        <v>175000</v>
-      </c>
-      <c r="U152" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA152" t="s">
-        <v>697</v>
-      </c>
-      <c r="AB152" t="s">
-        <v>698</v>
-      </c>
-      <c r="AF152" t="s">
-        <v>695</v>
-      </c>
-      <c r="AG152">
-        <v>5</v>
+      <c r="AE152">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:33">
       <c r="A153">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C153" t="s">
-        <v>695</v>
+        <v>697</v>
+      </c>
+      <c r="E153" t="s">
+        <v>386</v>
+      </c>
+      <c r="F153" t="s">
+        <v>367</v>
+      </c>
+      <c r="G153">
+        <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="N153">
         <v>500000</v>
@@ -9360,34 +9393,43 @@
       <c r="Q153">
         <v>175000</v>
       </c>
-      <c r="U153" t="s">
-        <v>694</v>
+      <c r="T153">
+        <v>1</v>
+      </c>
+      <c r="W153" t="s">
+        <v>699</v>
+      </c>
+      <c r="X153">
+        <v>5</v>
       </c>
       <c r="AA153" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB153" t="s">
         <v>701</v>
       </c>
-      <c r="AB153" t="s">
-        <v>702</v>
+      <c r="AD153" t="s">
+        <v>386</v>
       </c>
       <c r="AF153" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AG153">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:33">
       <c r="A154">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
+        <v>702</v>
+      </c>
+      <c r="C154" t="s">
+        <v>697</v>
+      </c>
+      <c r="H154" t="s">
         <v>703</v>
-      </c>
-      <c r="C154" t="s">
-        <v>695</v>
-      </c>
-      <c r="H154" t="s">
-        <v>704</v>
       </c>
       <c r="N154">
         <v>500000</v>
@@ -9402,33 +9444,33 @@
         <v>175000</v>
       </c>
       <c r="U154" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AA154" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB154" t="s">
         <v>705</v>
       </c>
-      <c r="AB154" t="s">
-        <v>706</v>
+      <c r="AF154" t="s">
+        <v>697</v>
+      </c>
+      <c r="AG154">
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:33">
       <c r="A155">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
+        <v>706</v>
+      </c>
+      <c r="C155" t="s">
         <v>707</v>
       </c>
-      <c r="C155" t="s">
+      <c r="H155" t="s">
         <v>708</v>
-      </c>
-      <c r="E155" t="s">
-        <v>703</v>
-      </c>
-      <c r="F155" t="s">
-        <v>690</v>
-      </c>
-      <c r="H155" t="s">
-        <v>709</v>
       </c>
       <c r="N155">
         <v>500000</v>
@@ -9443,19 +9485,16 @@
         <v>175000</v>
       </c>
       <c r="U155" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="AA155" t="s">
+        <v>709</v>
+      </c>
+      <c r="AB155" t="s">
         <v>710</v>
       </c>
-      <c r="AB155" t="s">
-        <v>711</v>
-      </c>
-      <c r="AD155" t="s">
-        <v>703</v>
-      </c>
       <c r="AF155" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AG155">
         <v>5</v>
@@ -9463,16 +9502,16 @@
     </row>
     <row r="156" spans="1:33">
       <c r="A156">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
+        <v>711</v>
+      </c>
+      <c r="C156" t="s">
+        <v>707</v>
+      </c>
+      <c r="H156" t="s">
         <v>712</v>
-      </c>
-      <c r="C156" t="s">
-        <v>708</v>
-      </c>
-      <c r="H156" t="s">
-        <v>713</v>
       </c>
       <c r="N156">
         <v>500000</v>
@@ -9487,65 +9526,89 @@
         <v>175000</v>
       </c>
       <c r="U156" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>714</v>
+      </c>
+      <c r="AF156" t="s">
         <v>707</v>
       </c>
-      <c r="AA156" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB156" t="s">
-        <v>715</v>
-      </c>
-      <c r="AF156" t="s">
-        <v>708</v>
-      </c>
       <c r="AG156">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:33">
       <c r="A157">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
+        <v>715</v>
+      </c>
+      <c r="C157" t="s">
+        <v>707</v>
+      </c>
+      <c r="H157" t="s">
         <v>716</v>
       </c>
-      <c r="C157" t="s">
-        <v>685</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="N157">
+        <v>500000</v>
+      </c>
+      <c r="O157">
+        <v>500000</v>
+      </c>
+      <c r="P157">
+        <v>2000000000</v>
+      </c>
+      <c r="Q157">
+        <v>175000</v>
+      </c>
+      <c r="U157" t="s">
+        <v>711</v>
+      </c>
+      <c r="AA157" t="s">
         <v>717</v>
       </c>
-      <c r="U157" t="s">
-        <v>712</v>
-      </c>
-      <c r="AA157" t="s">
+      <c r="AB157" t="s">
         <v>718</v>
-      </c>
-      <c r="AB157" t="s">
-        <v>719</v>
-      </c>
-      <c r="AF157" t="s">
-        <v>685</v>
-      </c>
-      <c r="AG157">
-        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:33">
       <c r="A158">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
+        <v>719</v>
+      </c>
+      <c r="C158" t="s">
         <v>720</v>
       </c>
-      <c r="C158" t="s">
-        <v>685</v>
+      <c r="E158" t="s">
+        <v>715</v>
+      </c>
+      <c r="F158" t="s">
+        <v>702</v>
       </c>
       <c r="H158" t="s">
         <v>721</v>
       </c>
+      <c r="N158">
+        <v>500000</v>
+      </c>
+      <c r="O158">
+        <v>500000</v>
+      </c>
+      <c r="P158">
+        <v>2000000000</v>
+      </c>
+      <c r="Q158">
+        <v>175000</v>
+      </c>
       <c r="U158" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="AA158" t="s">
         <v>722</v>
@@ -9553,22 +9616,25 @@
       <c r="AB158" t="s">
         <v>723</v>
       </c>
+      <c r="AD158" t="s">
+        <v>715</v>
+      </c>
       <c r="AF158" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="AG158">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:33">
       <c r="A159">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
         <v>724</v>
       </c>
       <c r="C159" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="H159" t="s">
         <v>725</v>
@@ -9586,7 +9652,7 @@
         <v>175000</v>
       </c>
       <c r="U159" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA159" t="s">
         <v>726</v>
@@ -9595,45 +9661,27 @@
         <v>727</v>
       </c>
       <c r="AF159" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="AG159">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:33">
       <c r="A160">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
         <v>728</v>
       </c>
       <c r="C160" t="s">
-        <v>695</v>
-      </c>
-      <c r="E160" t="s">
-        <v>724</v>
-      </c>
-      <c r="F160" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="H160" t="s">
         <v>729</v>
       </c>
-      <c r="N160">
-        <v>500000</v>
-      </c>
-      <c r="O160">
-        <v>500000</v>
-      </c>
-      <c r="P160">
-        <v>2000000000</v>
-      </c>
-      <c r="Q160">
-        <v>175000</v>
-      </c>
       <c r="U160" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="AA160" t="s">
         <v>730</v>
@@ -9641,75 +9689,54 @@
       <c r="AB160" t="s">
         <v>731</v>
       </c>
-      <c r="AD160" t="s">
-        <v>724</v>
-      </c>
       <c r="AF160" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AG160">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:33">
       <c r="A161">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
         <v>732</v>
       </c>
       <c r="C161" t="s">
+        <v>697</v>
+      </c>
+      <c r="H161" t="s">
         <v>733</v>
-      </c>
-      <c r="H161" t="s">
-        <v>734</v>
-      </c>
-      <c r="L161">
-        <v>150000</v>
-      </c>
-      <c r="N161">
-        <v>500000</v>
-      </c>
-      <c r="O161">
-        <v>500000</v>
-      </c>
-      <c r="P161">
-        <v>2000000000</v>
-      </c>
-      <c r="Q161">
-        <v>175000</v>
       </c>
       <c r="U161" t="s">
         <v>728</v>
       </c>
       <c r="AA161" t="s">
+        <v>734</v>
+      </c>
+      <c r="AB161" t="s">
         <v>735</v>
       </c>
-      <c r="AB161" t="s">
-        <v>736</v>
-      </c>
       <c r="AF161" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="AG161">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:33">
       <c r="A162">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
+        <v>736</v>
+      </c>
+      <c r="C162" t="s">
+        <v>707</v>
+      </c>
+      <c r="H162" t="s">
         <v>737</v>
-      </c>
-      <c r="C162" t="s">
-        <v>733</v>
-      </c>
-      <c r="H162" t="s">
-        <v>738</v>
-      </c>
-      <c r="L162">
-        <v>300000</v>
       </c>
       <c r="N162">
         <v>500000</v>
@@ -9727,33 +9754,36 @@
         <v>732</v>
       </c>
       <c r="AA162" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB162" t="s">
         <v>739</v>
       </c>
-      <c r="AB162" t="s">
-        <v>740</v>
-      </c>
       <c r="AF162" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="AG162">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:33">
       <c r="A163">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
+        <v>740</v>
+      </c>
+      <c r="C163" t="s">
+        <v>707</v>
+      </c>
+      <c r="E163" t="s">
+        <v>736</v>
+      </c>
+      <c r="F163" t="s">
+        <v>719</v>
+      </c>
+      <c r="H163" t="s">
         <v>741</v>
-      </c>
-      <c r="C163" t="s">
-        <v>733</v>
-      </c>
-      <c r="H163" t="s">
-        <v>742</v>
-      </c>
-      <c r="L163">
-        <v>500000</v>
       </c>
       <c r="N163">
         <v>500000</v>
@@ -9768,39 +9798,39 @@
         <v>175000</v>
       </c>
       <c r="U163" t="s">
-        <v>737</v>
+        <v>696</v>
       </c>
       <c r="AA163" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB163" t="s">
         <v>743</v>
       </c>
-      <c r="AB163" t="s">
-        <v>744</v>
+      <c r="AD163" t="s">
+        <v>736</v>
       </c>
       <c r="AF163" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="AG163">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:33">
       <c r="A164">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
+        <v>744</v>
+      </c>
+      <c r="C164" t="s">
         <v>745</v>
-      </c>
-      <c r="C164" t="s">
-        <v>685</v>
-      </c>
-      <c r="G164">
-        <v>15</v>
       </c>
       <c r="H164" t="s">
         <v>746</v>
       </c>
-      <c r="M164" t="s">
-        <v>747</v>
+      <c r="L164">
+        <v>150000</v>
       </c>
       <c r="N164">
         <v>500000</v>
@@ -9815,156 +9845,159 @@
         <v>175000</v>
       </c>
       <c r="U164" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AA164" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB164" t="s">
         <v>748</v>
       </c>
-      <c r="AB164" t="s">
-        <v>749</v>
+      <c r="AF164" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG164">
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:33">
       <c r="A165">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
+        <v>749</v>
+      </c>
+      <c r="C165" t="s">
+        <v>745</v>
+      </c>
+      <c r="H165" t="s">
         <v>750</v>
       </c>
-      <c r="C165" t="s">
+      <c r="L165">
+        <v>300000</v>
+      </c>
+      <c r="N165">
+        <v>500000</v>
+      </c>
+      <c r="O165">
+        <v>500000</v>
+      </c>
+      <c r="P165">
+        <v>2000000000</v>
+      </c>
+      <c r="Q165">
+        <v>175000</v>
+      </c>
+      <c r="U165" t="s">
+        <v>744</v>
+      </c>
+      <c r="AA165" t="s">
         <v>751</v>
       </c>
-      <c r="N165">
-        <v>1000</v>
-      </c>
-      <c r="O165">
-        <v>500</v>
-      </c>
-      <c r="P165">
-        <v>10000</v>
-      </c>
-      <c r="Q165">
-        <v>250</v>
-      </c>
-      <c r="T165">
-        <v>1</v>
-      </c>
-      <c r="W165" t="s">
+      <c r="AB165" t="s">
         <v>752</v>
       </c>
-      <c r="X165">
-        <v>1</v>
-      </c>
-      <c r="AA165" t="s">
-        <v>753</v>
-      </c>
-      <c r="AB165" t="s">
-        <v>754</v>
-      </c>
-      <c r="AE165">
-        <v>8</v>
+      <c r="AF165" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG165">
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:33">
       <c r="A166">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
+        <v>753</v>
+      </c>
+      <c r="C166" t="s">
+        <v>745</v>
+      </c>
+      <c r="H166" t="s">
+        <v>754</v>
+      </c>
+      <c r="L166">
+        <v>500000</v>
+      </c>
+      <c r="N166">
+        <v>500000</v>
+      </c>
+      <c r="O166">
+        <v>500000</v>
+      </c>
+      <c r="P166">
+        <v>2000000000</v>
+      </c>
+      <c r="Q166">
+        <v>175000</v>
+      </c>
+      <c r="U166" t="s">
+        <v>749</v>
+      </c>
+      <c r="AA166" t="s">
         <v>755</v>
       </c>
-      <c r="C166" t="s">
-        <v>423</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="AB166" t="s">
         <v>756</v>
       </c>
-      <c r="N166">
-        <v>1000</v>
-      </c>
-      <c r="O166">
-        <v>500</v>
-      </c>
-      <c r="P166">
-        <v>10000</v>
-      </c>
-      <c r="Q166">
-        <v>250</v>
-      </c>
-      <c r="U166" t="s">
-        <v>750</v>
-      </c>
-      <c r="W166" t="s">
-        <v>752</v>
-      </c>
-      <c r="X166">
-        <v>2</v>
-      </c>
-      <c r="AA166" t="s">
-        <v>757</v>
-      </c>
-      <c r="AB166" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE166">
-        <v>8</v>
+      <c r="AF166" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG166">
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:33">
       <c r="A167">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
+        <v>757</v>
+      </c>
+      <c r="C167" t="s">
+        <v>697</v>
+      </c>
+      <c r="G167">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>758</v>
+      </c>
+      <c r="M167" t="s">
         <v>759</v>
       </c>
-      <c r="C167" t="s">
-        <v>751</v>
-      </c>
-      <c r="H167" t="s">
+      <c r="N167">
+        <v>500000</v>
+      </c>
+      <c r="O167">
+        <v>500000</v>
+      </c>
+      <c r="P167">
+        <v>2000000000</v>
+      </c>
+      <c r="Q167">
+        <v>175000</v>
+      </c>
+      <c r="U167" t="s">
+        <v>753</v>
+      </c>
+      <c r="AA167" t="s">
         <v>760</v>
       </c>
-      <c r="N167">
-        <v>1000</v>
-      </c>
-      <c r="O167">
-        <v>500</v>
-      </c>
-      <c r="P167">
-        <v>10000</v>
-      </c>
-      <c r="Q167">
-        <v>250</v>
-      </c>
-      <c r="U167" t="s">
-        <v>755</v>
-      </c>
-      <c r="W167" t="s">
-        <v>752</v>
-      </c>
-      <c r="X167">
-        <v>3</v>
-      </c>
-      <c r="AA167" t="s">
+      <c r="AB167" t="s">
         <v>761</v>
-      </c>
-      <c r="AB167" t="s">
-        <v>762</v>
-      </c>
-      <c r="AE167">
-        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:33">
       <c r="A168">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
+        <v>762</v>
+      </c>
+      <c r="C168" t="s">
         <v>763</v>
-      </c>
-      <c r="C168" t="s">
-        <v>764</v>
-      </c>
-      <c r="H168" t="s">
-        <v>765</v>
       </c>
       <c r="N168">
         <v>1000</v>
@@ -9978,20 +10011,20 @@
       <c r="Q168">
         <v>250</v>
       </c>
-      <c r="U168" t="s">
-        <v>759</v>
+      <c r="T168">
+        <v>1</v>
       </c>
       <c r="W168" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="X168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA168" t="s">
+        <v>765</v>
+      </c>
+      <c r="AB168" t="s">
         <v>766</v>
-      </c>
-      <c r="AB168" t="s">
-        <v>767</v>
       </c>
       <c r="AE168">
         <v>8</v>
@@ -9999,16 +10032,16 @@
     </row>
     <row r="169" spans="1:33">
       <c r="A169">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
+        <v>767</v>
+      </c>
+      <c r="C169" t="s">
+        <v>435</v>
+      </c>
+      <c r="H169" t="s">
         <v>768</v>
-      </c>
-      <c r="C169" t="s">
-        <v>764</v>
-      </c>
-      <c r="H169" t="s">
-        <v>769</v>
       </c>
       <c r="N169">
         <v>1000</v>
@@ -10023,27 +10056,36 @@
         <v>250</v>
       </c>
       <c r="U169" t="s">
-        <v>763</v>
-      </c>
-      <c r="V169" t="s">
+        <v>762</v>
+      </c>
+      <c r="W169" t="s">
+        <v>764</v>
+      </c>
+      <c r="X169">
+        <v>2</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>769</v>
+      </c>
+      <c r="AB169" t="s">
         <v>770</v>
       </c>
-      <c r="AA169" t="s">
-        <v>771</v>
-      </c>
-      <c r="AB169" t="s">
-        <v>772</v>
+      <c r="AE169">
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:33">
       <c r="A170">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C170" t="s">
-        <v>423</v>
+        <v>763</v>
+      </c>
+      <c r="H170" t="s">
+        <v>772</v>
       </c>
       <c r="N170">
         <v>1000</v>
@@ -10058,19 +10100,19 @@
         <v>250</v>
       </c>
       <c r="U170" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="W170" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="X170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA170" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB170" t="s">
         <v>774</v>
-      </c>
-      <c r="AB170" t="s">
-        <v>775</v>
       </c>
       <c r="AE170">
         <v>8</v>
@@ -10078,31 +10120,19 @@
     </row>
     <row r="171" spans="1:33">
       <c r="A171">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B171" t="s">
+        <v>775</v>
+      </c>
+      <c r="C171" t="s">
         <v>776</v>
       </c>
-      <c r="C171" t="s">
+      <c r="H171" t="s">
         <v>777</v>
       </c>
-      <c r="E171" t="s">
-        <v>773</v>
-      </c>
-      <c r="F171" t="s">
-        <v>750</v>
-      </c>
-      <c r="I171">
-        <v>100</v>
-      </c>
-      <c r="J171">
-        <v>100</v>
-      </c>
-      <c r="K171">
+      <c r="N171">
         <v>1000</v>
-      </c>
-      <c r="N171">
-        <v>100</v>
       </c>
       <c r="O171">
         <v>500</v>
@@ -10114,7 +10144,13 @@
         <v>250</v>
       </c>
       <c r="U171" t="s">
-        <v>750</v>
+        <v>771</v>
+      </c>
+      <c r="W171" t="s">
+        <v>764</v>
+      </c>
+      <c r="X171">
+        <v>4</v>
       </c>
       <c r="AA171" t="s">
         <v>778</v>
@@ -10122,37 +10158,22 @@
       <c r="AB171" t="s">
         <v>779</v>
       </c>
-      <c r="AD171" t="s">
-        <v>773</v>
-      </c>
       <c r="AE171">
         <v>8</v>
       </c>
-      <c r="AF171" t="s">
-        <v>777</v>
-      </c>
-      <c r="AG171">
-        <v>5</v>
-      </c>
     </row>
     <row r="172" spans="1:33">
       <c r="A172">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
         <v>780</v>
       </c>
       <c r="C172" t="s">
-        <v>777</v>
-      </c>
-      <c r="I172">
-        <v>100</v>
-      </c>
-      <c r="J172">
-        <v>100</v>
-      </c>
-      <c r="K172">
-        <v>1000</v>
+        <v>776</v>
+      </c>
+      <c r="H172" t="s">
+        <v>781</v>
       </c>
       <c r="N172">
         <v>1000</v>
@@ -10167,33 +10188,27 @@
         <v>250</v>
       </c>
       <c r="U172" t="s">
-        <v>776</v>
+        <v>775</v>
+      </c>
+      <c r="V172" t="s">
+        <v>782</v>
       </c>
       <c r="AA172" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="AB172" t="s">
-        <v>782</v>
-      </c>
-      <c r="AE172">
-        <v>8</v>
-      </c>
-      <c r="AF172" t="s">
-        <v>777</v>
-      </c>
-      <c r="AG172">
-        <v>10</v>
+        <v>784</v>
       </c>
     </row>
     <row r="173" spans="1:33">
       <c r="A173">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C173" t="s">
-        <v>751</v>
+        <v>435</v>
       </c>
       <c r="N173">
         <v>1000</v>
@@ -10210,37 +10225,49 @@
       <c r="U173" t="s">
         <v>780</v>
       </c>
+      <c r="W173" t="s">
+        <v>764</v>
+      </c>
+      <c r="X173">
+        <v>5</v>
+      </c>
       <c r="AA173" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AB173" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AE173">
         <v>8</v>
       </c>
-      <c r="AF173" t="s">
-        <v>751</v>
-      </c>
-      <c r="AG173">
-        <v>5</v>
-      </c>
     </row>
     <row r="174" spans="1:33">
       <c r="A174">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C174" t="s">
-        <v>787</v>
+        <v>789</v>
+      </c>
+      <c r="E174" t="s">
+        <v>785</v>
+      </c>
+      <c r="F174" t="s">
+        <v>762</v>
+      </c>
+      <c r="I174">
+        <v>100</v>
+      </c>
+      <c r="J174">
+        <v>100</v>
       </c>
       <c r="K174">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="N174">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O174">
         <v>500</v>
@@ -10252,19 +10279,22 @@
         <v>250</v>
       </c>
       <c r="U174" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="AA174" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AB174" t="s">
-        <v>789</v>
+        <v>791</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>785</v>
       </c>
       <c r="AE174">
         <v>8</v>
       </c>
       <c r="AF174" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AG174">
         <v>5</v>
@@ -10272,37 +10302,49 @@
     </row>
     <row r="175" spans="1:33">
       <c r="A175">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C175" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="I175">
+        <v>100</v>
+      </c>
+      <c r="J175">
+        <v>100</v>
+      </c>
+      <c r="K175">
         <v>1000</v>
       </c>
-      <c r="J175">
+      <c r="N175">
         <v>1000</v>
       </c>
-      <c r="K175">
-        <v>5000</v>
+      <c r="O175">
+        <v>500</v>
+      </c>
+      <c r="P175">
+        <v>10000</v>
+      </c>
+      <c r="Q175">
+        <v>250</v>
       </c>
       <c r="U175" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AA175" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AB175" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AE175">
         <v>8</v>
       </c>
       <c r="AF175" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AG175">
         <v>10</v>
@@ -10310,13 +10352,13 @@
     </row>
     <row r="176" spans="1:33">
       <c r="A176">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C176" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="N176">
         <v>1000</v>
@@ -10331,39 +10373,36 @@
         <v>250</v>
       </c>
       <c r="U176" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AA176" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AB176" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AE176">
         <v>8</v>
       </c>
       <c r="AF176" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="AG176">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:33">
       <c r="A177">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C177" t="s">
-        <v>777</v>
-      </c>
-      <c r="E177" t="s">
-        <v>793</v>
-      </c>
-      <c r="F177" t="s">
-        <v>776</v>
+        <v>799</v>
+      </c>
+      <c r="K177">
+        <v>5000</v>
       </c>
       <c r="N177">
         <v>1000</v>
@@ -10378,22 +10417,19 @@
         <v>250</v>
       </c>
       <c r="U177" t="s">
-        <v>750</v>
+        <v>795</v>
       </c>
       <c r="AA177" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AB177" t="s">
-        <v>798</v>
-      </c>
-      <c r="AD177" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="AE177">
         <v>8</v>
       </c>
       <c r="AF177" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="AG177">
         <v>5</v>
@@ -10401,40 +10437,37 @@
     </row>
     <row r="178" spans="1:33">
       <c r="A178">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B178" t="s">
+        <v>802</v>
+      </c>
+      <c r="C178" t="s">
         <v>799</v>
       </c>
-      <c r="C178" t="s">
-        <v>764</v>
-      </c>
-      <c r="N178">
+      <c r="I178">
         <v>1000</v>
       </c>
-      <c r="O178">
-        <v>500</v>
-      </c>
-      <c r="P178">
-        <v>10000</v>
-      </c>
-      <c r="Q178">
-        <v>250</v>
+      <c r="J178">
+        <v>1000</v>
+      </c>
+      <c r="K178">
+        <v>5000</v>
       </c>
       <c r="U178" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AA178" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AB178" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="AE178">
         <v>8</v>
       </c>
       <c r="AF178" t="s">
-        <v>764</v>
+        <v>799</v>
       </c>
       <c r="AG178">
         <v>10</v>
@@ -10442,13 +10475,13 @@
     </row>
     <row r="179" spans="1:33">
       <c r="A179">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B179" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C179" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="N179">
         <v>1000</v>
@@ -10463,19 +10496,19 @@
         <v>250</v>
       </c>
       <c r="U179" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AA179" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AB179" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="AE179">
         <v>8</v>
       </c>
       <c r="AF179" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="AG179">
         <v>10</v>
@@ -10483,13 +10516,19 @@
     </row>
     <row r="180" spans="1:33">
       <c r="A180">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B180" t="s">
+        <v>808</v>
+      </c>
+      <c r="C180" t="s">
+        <v>789</v>
+      </c>
+      <c r="E180" t="s">
         <v>805</v>
       </c>
-      <c r="C180" t="s">
-        <v>751</v>
+      <c r="F180" t="s">
+        <v>788</v>
       </c>
       <c r="N180">
         <v>1000</v>
@@ -10504,192 +10543,183 @@
         <v>250</v>
       </c>
       <c r="U180" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="AA180" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="AB180" t="s">
-        <v>807</v>
+        <v>810</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>805</v>
       </c>
       <c r="AE180">
         <v>8</v>
       </c>
       <c r="AF180" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="AG180">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:33">
       <c r="A181">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
+        <v>811</v>
+      </c>
+      <c r="C181" t="s">
+        <v>776</v>
+      </c>
+      <c r="N181">
+        <v>1000</v>
+      </c>
+      <c r="O181">
+        <v>500</v>
+      </c>
+      <c r="P181">
+        <v>10000</v>
+      </c>
+      <c r="Q181">
+        <v>250</v>
+      </c>
+      <c r="U181" t="s">
         <v>808</v>
       </c>
-      <c r="C181" t="s">
-        <v>809</v>
-      </c>
-      <c r="E181" t="s">
-        <v>805</v>
-      </c>
-      <c r="F181" t="s">
-        <v>796</v>
-      </c>
-      <c r="G181">
-        <v>20</v>
-      </c>
-      <c r="H181" t="s">
-        <v>376</v>
-      </c>
-      <c r="I181">
-        <v>550000</v>
-      </c>
-      <c r="J181">
-        <v>550000</v>
-      </c>
-      <c r="K181">
-        <v>150000000000</v>
-      </c>
-      <c r="L181">
-        <v>700000</v>
-      </c>
-      <c r="N181">
-        <v>500000</v>
-      </c>
-      <c r="O181">
-        <v>500000</v>
-      </c>
-      <c r="P181">
-        <v>2000000000</v>
-      </c>
-      <c r="Q181">
-        <v>175000</v>
-      </c>
-      <c r="U181" t="s">
-        <v>750</v>
-      </c>
       <c r="AA181" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AB181" t="s">
-        <v>811</v>
-      </c>
-      <c r="AD181" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="AE181">
         <v>8</v>
       </c>
       <c r="AF181" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
       <c r="AG181">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:33">
       <c r="A182">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B182" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C182" t="s">
-        <v>813</v>
-      </c>
-      <c r="L182">
-        <v>150000</v>
+        <v>789</v>
       </c>
       <c r="N182">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O182">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P182">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q182">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U182" t="s">
-        <v>808</v>
-      </c>
-      <c r="W182" t="s">
-        <v>687</v>
-      </c>
-      <c r="X182">
-        <v>5</v>
+        <v>811</v>
       </c>
       <c r="AA182" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AB182" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AE182">
         <v>8</v>
       </c>
       <c r="AF182" t="s">
-        <v>813</v>
+        <v>789</v>
       </c>
       <c r="AG182">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:33">
       <c r="A183">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B183" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C183" t="s">
-        <v>813</v>
+        <v>763</v>
       </c>
       <c r="N183">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O183">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P183">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q183">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U183" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AA183" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AB183" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AE183">
         <v>8</v>
       </c>
       <c r="AF183" t="s">
-        <v>813</v>
+        <v>789</v>
       </c>
       <c r="AG183">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="1:33">
       <c r="A184">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B184" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C184" t="s">
-        <v>813</v>
+        <v>821</v>
+      </c>
+      <c r="E184" t="s">
+        <v>817</v>
+      </c>
+      <c r="F184" t="s">
+        <v>808</v>
+      </c>
+      <c r="G184">
+        <v>20</v>
+      </c>
+      <c r="H184" t="s">
+        <v>388</v>
+      </c>
+      <c r="I184">
+        <v>550000</v>
+      </c>
+      <c r="J184">
+        <v>550000</v>
+      </c>
+      <c r="K184">
+        <v>150000000000</v>
+      </c>
+      <c r="L184">
+        <v>700000</v>
       </c>
       <c r="N184">
         <v>500000</v>
@@ -10704,169 +10734,154 @@
         <v>175000</v>
       </c>
       <c r="U184" t="s">
-        <v>816</v>
+        <v>762</v>
       </c>
       <c r="AA184" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AB184" t="s">
-        <v>821</v>
+        <v>823</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>817</v>
       </c>
       <c r="AE184">
         <v>8</v>
       </c>
       <c r="AF184" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="AG184">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:33">
       <c r="A185">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C185" t="s">
-        <v>809</v>
-      </c>
-      <c r="D185" t="s">
-        <v>823</v>
-      </c>
-      <c r="E185" t="s">
-        <v>805</v>
-      </c>
-      <c r="F185" t="s">
-        <v>796</v>
+        <v>825</v>
+      </c>
+      <c r="L185">
+        <v>150000</v>
       </c>
       <c r="N185">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O185">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P185">
-        <v>150000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q185">
-        <v>750</v>
-      </c>
-      <c r="T185">
-        <v>1</v>
+        <v>175000</v>
+      </c>
+      <c r="U185" t="s">
+        <v>820</v>
+      </c>
+      <c r="W185" t="s">
+        <v>699</v>
+      </c>
+      <c r="X185">
+        <v>5</v>
       </c>
       <c r="AA185" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AB185" t="s">
-        <v>825</v>
-      </c>
-      <c r="AC185" t="s">
-        <v>823</v>
-      </c>
-      <c r="AD185" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="AE185">
         <v>8</v>
       </c>
       <c r="AF185" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="AG185">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:33">
       <c r="A186">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C186" t="s">
-        <v>813</v>
-      </c>
-      <c r="D186" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="N186">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O186">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P186">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q186">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U186" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AA186" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AB186" t="s">
-        <v>828</v>
-      </c>
-      <c r="AC186" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="AE186">
         <v>8</v>
       </c>
       <c r="AF186" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="AG186">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:33">
       <c r="A187">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C187" t="s">
-        <v>809</v>
-      </c>
-      <c r="D187" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="N187">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O187">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P187">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q187">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U187" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="AA187" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AB187" t="s">
-        <v>831</v>
-      </c>
-      <c r="AC187" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="AE187">
         <v>8</v>
       </c>
       <c r="AF187" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="AG187">
         <v>15</v>
@@ -10874,16 +10889,22 @@
     </row>
     <row r="188" spans="1:33">
       <c r="A188">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C188" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="D188" t="s">
-        <v>823</v>
+        <v>835</v>
+      </c>
+      <c r="E188" t="s">
+        <v>817</v>
+      </c>
+      <c r="F188" t="s">
+        <v>808</v>
       </c>
       <c r="N188">
         <v>50000</v>
@@ -10892,45 +10913,48 @@
         <v>50000</v>
       </c>
       <c r="P188">
-        <v>1500000000</v>
+        <v>150000000000</v>
       </c>
       <c r="Q188">
         <v>750</v>
       </c>
-      <c r="U188" t="s">
-        <v>829</v>
+      <c r="T188">
+        <v>1</v>
       </c>
       <c r="AA188" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="AB188" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="AC188" t="s">
-        <v>823</v>
+        <v>835</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>817</v>
       </c>
       <c r="AE188">
         <v>8</v>
       </c>
       <c r="AF188" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="AG188">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:33">
       <c r="A189">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B189" t="s">
+        <v>838</v>
+      </c>
+      <c r="C189" t="s">
+        <v>825</v>
+      </c>
+      <c r="D189" t="s">
         <v>835</v>
-      </c>
-      <c r="C189" t="s">
-        <v>764</v>
-      </c>
-      <c r="D189" t="s">
-        <v>823</v>
       </c>
       <c r="N189">
         <v>50000</v>
@@ -10945,134 +10969,116 @@
         <v>750</v>
       </c>
       <c r="U189" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AA189" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="AB189" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="AC189" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="AE189">
         <v>8</v>
       </c>
       <c r="AF189" t="s">
-        <v>764</v>
+        <v>825</v>
       </c>
       <c r="AG189">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:33">
       <c r="A190">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C190" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
       <c r="D190" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="N190">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="O190">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="P190">
         <v>1500000000</v>
       </c>
       <c r="Q190">
-        <v>75000</v>
+        <v>750</v>
       </c>
       <c r="U190" t="s">
+        <v>838</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>842</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>843</v>
+      </c>
+      <c r="AC190" t="s">
         <v>835</v>
-      </c>
-      <c r="AA190" t="s">
-        <v>839</v>
-      </c>
-      <c r="AB190" t="s">
-        <v>840</v>
-      </c>
-      <c r="AC190" t="s">
-        <v>823</v>
       </c>
       <c r="AE190">
         <v>8</v>
       </c>
       <c r="AF190" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
       <c r="AG190">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:33">
       <c r="A191">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B191" t="s">
+        <v>844</v>
+      </c>
+      <c r="C191" t="s">
+        <v>821</v>
+      </c>
+      <c r="D191" t="s">
+        <v>835</v>
+      </c>
+      <c r="N191">
+        <v>50000</v>
+      </c>
+      <c r="O191">
+        <v>50000</v>
+      </c>
+      <c r="P191">
+        <v>1500000000</v>
+      </c>
+      <c r="Q191">
+        <v>750</v>
+      </c>
+      <c r="U191" t="s">
         <v>841</v>
       </c>
-      <c r="C191" t="s">
-        <v>751</v>
-      </c>
-      <c r="D191" t="s">
-        <v>823</v>
-      </c>
-      <c r="E191" t="s">
-        <v>745</v>
-      </c>
-      <c r="F191" t="s">
-        <v>728</v>
-      </c>
-      <c r="G191">
-        <v>25</v>
-      </c>
-      <c r="H191" t="s">
-        <v>842</v>
-      </c>
-      <c r="K191">
-        <v>2000000000</v>
-      </c>
-      <c r="N191">
-        <v>1000000</v>
-      </c>
-      <c r="O191">
-        <v>1000000</v>
-      </c>
-      <c r="P191">
-        <v>2000000000</v>
-      </c>
-      <c r="Q191">
-        <v>200000</v>
-      </c>
-      <c r="U191" t="s">
-        <v>822</v>
-      </c>
       <c r="AA191" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AB191" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AC191" t="s">
-        <v>823</v>
-      </c>
-      <c r="AD191" t="s">
-        <v>745</v>
+        <v>835</v>
       </c>
       <c r="AE191">
         <v>8</v>
       </c>
       <c r="AF191" t="s">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="AG191">
         <v>20</v>
@@ -11080,93 +11086,78 @@
     </row>
     <row r="192" spans="1:33">
       <c r="A192">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B192" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C192" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="D192" t="s">
-        <v>823</v>
-      </c>
-      <c r="E192" t="s">
-        <v>838</v>
-      </c>
-      <c r="F192" t="s">
-        <v>822</v>
-      </c>
-      <c r="H192" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="N192">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O192">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P192">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q192">
-        <v>200000</v>
+        <v>750</v>
       </c>
       <c r="U192" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="AA192" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AB192" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AC192" t="s">
-        <v>823</v>
-      </c>
-      <c r="AD192" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AE192">
         <v>8</v>
       </c>
       <c r="AF192" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="AG192">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:33">
       <c r="A193">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B193" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C193" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="D193" t="s">
-        <v>823</v>
-      </c>
-      <c r="H193" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="N193">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="O193">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="P193">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q193">
-        <v>2000000</v>
+        <v>75000</v>
       </c>
       <c r="U193" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AA193" t="s">
         <v>851</v>
@@ -11175,13 +11166,13 @@
         <v>852</v>
       </c>
       <c r="AC193" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="AE193">
         <v>8</v>
       </c>
       <c r="AF193" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="AG193">
         <v>20</v>
@@ -11189,31 +11180,31 @@
     </row>
     <row r="194" spans="1:33">
       <c r="A194">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B194" t="s">
         <v>853</v>
       </c>
       <c r="C194" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D194" t="s">
-        <v>823</v>
+        <v>835</v>
+      </c>
+      <c r="E194" t="s">
+        <v>757</v>
+      </c>
+      <c r="F194" t="s">
+        <v>740</v>
+      </c>
+      <c r="G194">
+        <v>25</v>
       </c>
       <c r="H194" t="s">
         <v>854</v>
       </c>
-      <c r="I194">
-        <v>20000</v>
-      </c>
-      <c r="J194">
-        <v>30000</v>
-      </c>
       <c r="K194">
-        <v>150000000000</v>
-      </c>
-      <c r="L194">
-        <v>700000</v>
+        <v>2000000000</v>
       </c>
       <c r="N194">
         <v>1000000</v>
@@ -11228,10 +11219,7 @@
         <v>200000</v>
       </c>
       <c r="U194" t="s">
-        <v>849</v>
-      </c>
-      <c r="Y194">
-        <v>2</v>
+        <v>834</v>
       </c>
       <c r="AA194" t="s">
         <v>855</v>
@@ -11240,15 +11228,192 @@
         <v>856</v>
       </c>
       <c r="AC194" t="s">
-        <v>823</v>
+        <v>835</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>757</v>
       </c>
       <c r="AE194">
         <v>8</v>
       </c>
       <c r="AF194" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="AG194">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33">
+      <c r="A195">
+        <v>191</v>
+      </c>
+      <c r="B195" t="s">
+        <v>857</v>
+      </c>
+      <c r="C195" t="s">
+        <v>763</v>
+      </c>
+      <c r="D195" t="s">
+        <v>835</v>
+      </c>
+      <c r="E195" t="s">
+        <v>850</v>
+      </c>
+      <c r="F195" t="s">
+        <v>834</v>
+      </c>
+      <c r="H195" t="s">
+        <v>858</v>
+      </c>
+      <c r="N195">
+        <v>1000000</v>
+      </c>
+      <c r="O195">
+        <v>1000000</v>
+      </c>
+      <c r="P195">
+        <v>2000000000</v>
+      </c>
+      <c r="Q195">
+        <v>200000</v>
+      </c>
+      <c r="U195" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>859</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>860</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>835</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>850</v>
+      </c>
+      <c r="AE195">
+        <v>8</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>763</v>
+      </c>
+      <c r="AG195">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:33">
+      <c r="A196">
+        <v>192</v>
+      </c>
+      <c r="B196" t="s">
+        <v>861</v>
+      </c>
+      <c r="C196" t="s">
+        <v>776</v>
+      </c>
+      <c r="D196" t="s">
+        <v>835</v>
+      </c>
+      <c r="H196" t="s">
+        <v>862</v>
+      </c>
+      <c r="N196">
+        <v>1000000</v>
+      </c>
+      <c r="O196">
+        <v>1000000</v>
+      </c>
+      <c r="P196">
+        <v>2000000000</v>
+      </c>
+      <c r="Q196">
+        <v>2000000</v>
+      </c>
+      <c r="U196" t="s">
+        <v>857</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>863</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>864</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>835</v>
+      </c>
+      <c r="AE196">
+        <v>8</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>776</v>
+      </c>
+      <c r="AG196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:33">
+      <c r="A197">
+        <v>193</v>
+      </c>
+      <c r="B197" t="s">
+        <v>865</v>
+      </c>
+      <c r="C197" t="s">
+        <v>763</v>
+      </c>
+      <c r="D197" t="s">
+        <v>835</v>
+      </c>
+      <c r="H197" t="s">
+        <v>866</v>
+      </c>
+      <c r="I197">
+        <v>20000</v>
+      </c>
+      <c r="J197">
+        <v>30000</v>
+      </c>
+      <c r="K197">
+        <v>150000000000</v>
+      </c>
+      <c r="L197">
+        <v>700000</v>
+      </c>
+      <c r="N197">
+        <v>1000000</v>
+      </c>
+      <c r="O197">
+        <v>1000000</v>
+      </c>
+      <c r="P197">
+        <v>2000000000</v>
+      </c>
+      <c r="Q197">
+        <v>200000</v>
+      </c>
+      <c r="U197" t="s">
+        <v>861</v>
+      </c>
+      <c r="Y197">
+        <v>3</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>867</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>868</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>835</v>
+      </c>
+      <c r="AE197">
+        <v>8</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>763</v>
+      </c>
+      <c r="AG197">
         <v>25</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="873">
   <si>
     <t>id</t>
   </si>
@@ -978,6 +978,18 @@
   </si>
   <si>
     <t>You stand over the goblin, lying on the ground. As you reach down, you realize he's still alive, merely unconscious.&lt;br /&gt; &lt;br /&gt; Though you feel a pang of guilt, you refuse to be anyone's pawn.&lt;br /&gt; &lt;br /&gt; Eventually, he regains consciousness and begins to sit up.&lt;br /&gt; &lt;br /&gt; "Child. You are cruel. I abhor cruelty."&lt;br /&gt; &lt;br /&gt; You attempt to explain, but he dismisses you with a wave of his hand and a shake of his head.&lt;br /&gt; &lt;br /&gt; "Child. You are cruel. I. Do. Not. Tolerate. Cruelty!" With those words, he rises and summons a tempest of magical power. The winds howl, lightning rends the sky.&lt;br /&gt; &lt;br /&gt; "Please don't," a soft voice pleads. Instantly, the storm dissipates, and the goblin rushes to the voice's side. He embraces the creature tenderly, then turns to face you, guarding it protectively. "Leave now."&lt;br /&gt; &lt;br /&gt; You glance over and see a Helpless Goblin.</t>
+  </si>
+  <si>
+    <t>All roads lead to The Emerald Prince</t>
+  </si>
+  <si>
+    <t>Market Place</t>
+  </si>
+  <si>
+    <t>You assert that you won't leave, but you won't harm your friend, gesturing towards the Helpless Goblin.&lt;br /&gt; &lt;br /&gt; The Helpless Goblin peeks over the shoulder of the goblin standing before him.&lt;br /&gt; &lt;br /&gt; "Hi, friend," he says, stepping out from behind and addressing the goblin guarding him. "I'm sorry, father. I wanted to go exploring. I got lost. This is my friend," he explains, pointing at you.&lt;br /&gt; &lt;br /&gt; "Your friend? This creature? They tossed me around like a neglected doll," the goblin retorts.&lt;br /&gt; &lt;br /&gt; You justify your actions, stating that he deserved it. The Helpless Goblin intervenes, saying, "My daddy is assisting a man, a man who covets shiny items. A man who possesses knowledge of the Emerald Prince."&lt;br /&gt; &lt;br /&gt; Your interest is undoubtedly piqued.</t>
+  </si>
+  <si>
+    <t>You press for more information about the enigmatic man, but the Helpless Goblin's father adamantly refuses to divulge further details, even as you offer yet another shiny item.&lt;br /&gt; &lt;br /&gt; "No, child. I have no desire to assist you," he declares.&lt;br /&gt; &lt;br /&gt; His son interjects, "But I do." He gazes at his father, who shoots him an angry glare. "There comes a time when a portal opens, a portal to another world."&lt;br /&gt; &lt;br /&gt; "Shut up!" the haggard goblin barks.&lt;br /&gt; &lt;br /&gt; The Helpless Goblin looks at him with sad eyes and retreats in fear.&lt;br /&gt; &lt;br /&gt; The haggard father sighs and approaches his son, placing a comforting hand on his shoulder. "There exists a place, created by The Creator himself. I do not know why. This place is governed by two brothers. Both inherited their father's realms equally upon his passing. However, one of them, he hunts relentlessly. It is said he is cursed, cursed to covet shiny things."&lt;br /&gt; &lt;br /&gt; A solemn silence follows as the Helpless Goblin gazes at his father, who returns a reassuring smile.&lt;br /&gt; &lt;br /&gt; They begin to depart, leaving behind a trinket on the ground. You pick it up and realize its significance—a means to attain everything you've ever desired. Now, it's time to return home and commence your research!</t>
   </si>
   <si>
     <t>Tell me your story</t>
@@ -2961,7 +2973,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG197"/>
+  <dimension ref="A1:AG198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5622,34 +5634,31 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
         <v>321</v>
       </c>
       <c r="C64" t="s">
+        <v>310</v>
+      </c>
+      <c r="N64">
+        <v>1000</v>
+      </c>
+      <c r="O64">
+        <v>500</v>
+      </c>
+      <c r="P64">
+        <v>1000000</v>
+      </c>
+      <c r="Q64">
+        <v>200</v>
+      </c>
+      <c r="U64" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z64" t="s">
         <v>322</v>
-      </c>
-      <c r="I64">
-        <v>25000</v>
-      </c>
-      <c r="J64">
-        <v>5000</v>
-      </c>
-      <c r="K64">
-        <v>100000</v>
-      </c>
-      <c r="O64">
-        <v>125</v>
-      </c>
-      <c r="P64">
-        <v>10000</v>
-      </c>
-      <c r="Q64">
-        <v>100</v>
-      </c>
-      <c r="T64">
-        <v>1</v>
       </c>
       <c r="AA64" t="s">
         <v>323</v>
@@ -5657,19 +5666,34 @@
       <c r="AB64" t="s">
         <v>324</v>
       </c>
+      <c r="AF64" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG64">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="1:33">
       <c r="A65">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
         <v>325</v>
       </c>
       <c r="C65" t="s">
-        <v>322</v>
-      </c>
-      <c r="H65" t="s">
         <v>326</v>
+      </c>
+      <c r="I65">
+        <v>25000</v>
+      </c>
+      <c r="J65">
+        <v>5000</v>
+      </c>
+      <c r="K65">
+        <v>100000</v>
+      </c>
+      <c r="O65">
+        <v>125</v>
       </c>
       <c r="P65">
         <v>10000</v>
@@ -5677,14 +5701,8 @@
       <c r="Q65">
         <v>100</v>
       </c>
-      <c r="U65" t="s">
-        <v>321</v>
-      </c>
-      <c r="W65" t="s">
-        <v>104</v>
-      </c>
-      <c r="X65">
-        <v>5</v>
+      <c r="T65">
+        <v>1</v>
       </c>
       <c r="AA65" t="s">
         <v>327</v>
@@ -5695,26 +5713,17 @@
     </row>
     <row r="66" spans="1:33">
       <c r="A66">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
         <v>329</v>
       </c>
       <c r="C66" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H66" t="s">
         <v>330</v>
       </c>
-      <c r="M66" t="s">
-        <v>331</v>
-      </c>
-      <c r="N66">
-        <v>2500</v>
-      </c>
-      <c r="O66">
-        <v>125</v>
-      </c>
       <c r="P66">
         <v>10000</v>
       </c>
@@ -5724,34 +5733,34 @@
       <c r="U66" t="s">
         <v>325</v>
       </c>
-      <c r="V66" t="s">
-        <v>332</v>
-      </c>
       <c r="W66" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="X66">
         <v>5</v>
       </c>
       <c r="AA66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AB66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:33">
       <c r="A67">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" t="s">
+        <v>326</v>
+      </c>
+      <c r="H67" t="s">
+        <v>334</v>
+      </c>
+      <c r="M67" t="s">
         <v>335</v>
-      </c>
-      <c r="C67" t="s">
-        <v>336</v>
-      </c>
-      <c r="H67" t="s">
-        <v>337</v>
       </c>
       <c r="N67">
         <v>2500</v>
@@ -5766,24 +5775,33 @@
         <v>100</v>
       </c>
       <c r="U67" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="V67" t="s">
+        <v>336</v>
+      </c>
+      <c r="W67" t="s">
+        <v>86</v>
+      </c>
+      <c r="X67">
+        <v>5</v>
       </c>
       <c r="AA67" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB67" t="s">
         <v>338</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:33">
       <c r="A68">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" t="s">
         <v>340</v>
-      </c>
-      <c r="C68" t="s">
-        <v>336</v>
       </c>
       <c r="H68" t="s">
         <v>341</v>
@@ -5798,10 +5816,10 @@
         <v>10000</v>
       </c>
       <c r="Q68">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="U68" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AA68" t="s">
         <v>342</v>
@@ -5812,13 +5830,13 @@
     </row>
     <row r="69" spans="1:33">
       <c r="A69">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
         <v>344</v>
       </c>
       <c r="C69" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H69" t="s">
         <v>345</v>
@@ -5833,33 +5851,30 @@
         <v>10000</v>
       </c>
       <c r="Q69">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="U69" t="s">
-        <v>340</v>
-      </c>
-      <c r="V69" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA69" t="s">
         <v>346</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>347</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:33">
       <c r="A70">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" t="s">
+        <v>340</v>
+      </c>
+      <c r="H70" t="s">
         <v>349</v>
-      </c>
-      <c r="C70" t="s">
-        <v>336</v>
-      </c>
-      <c r="H70" t="s">
-        <v>350</v>
       </c>
       <c r="N70">
         <v>2500</v>
@@ -5871,45 +5886,33 @@
         <v>10000</v>
       </c>
       <c r="Q70">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="U70" t="s">
         <v>344</v>
       </c>
       <c r="V70" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA70" t="s">
         <v>351</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AB70" t="s">
         <v>352</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:33">
       <c r="A71">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H71" t="s">
-        <v>356</v>
-      </c>
-      <c r="I71">
-        <v>25000</v>
-      </c>
-      <c r="J71">
-        <v>200</v>
-      </c>
-      <c r="L71">
-        <v>1000</v>
+        <v>354</v>
       </c>
       <c r="N71">
         <v>2500</v>
@@ -5921,10 +5924,16 @@
         <v>10000</v>
       </c>
       <c r="Q71">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="U71" t="s">
-        <v>321</v>
+        <v>348</v>
+      </c>
+      <c r="V71" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>356</v>
       </c>
       <c r="AA71" t="s">
         <v>357</v>
@@ -5935,17 +5944,26 @@
     </row>
     <row r="72" spans="1:33">
       <c r="A72">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
         <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H72" t="s">
         <v>360</v>
       </c>
+      <c r="I72">
+        <v>25000</v>
+      </c>
+      <c r="J72">
+        <v>200</v>
+      </c>
+      <c r="L72">
+        <v>1000</v>
+      </c>
       <c r="N72">
         <v>2500</v>
       </c>
@@ -5959,39 +5977,27 @@
         <v>250</v>
       </c>
       <c r="U72" t="s">
-        <v>355</v>
-      </c>
-      <c r="V72" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA72" t="s">
         <v>361</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>362</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:33">
       <c r="A73">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
+        <v>363</v>
+      </c>
+      <c r="C73" t="s">
+        <v>340</v>
+      </c>
+      <c r="H73" t="s">
         <v>364</v>
-      </c>
-      <c r="C73" t="s">
-        <v>336</v>
-      </c>
-      <c r="I73">
-        <v>25000</v>
-      </c>
-      <c r="J73">
-        <v>10000</v>
-      </c>
-      <c r="K73">
-        <v>100000</v>
-      </c>
-      <c r="L73">
-        <v>50000</v>
       </c>
       <c r="N73">
         <v>2500</v>
@@ -6003,92 +6009,95 @@
         <v>10000</v>
       </c>
       <c r="Q73">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="U73" t="s">
         <v>359</v>
       </c>
-      <c r="Y73">
-        <v>0</v>
+      <c r="V73" t="s">
+        <v>365</v>
       </c>
       <c r="AA73" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AB73" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:33">
       <c r="A74">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C74" t="s">
-        <v>322</v>
-      </c>
-      <c r="E74" t="s">
-        <v>368</v>
-      </c>
-      <c r="F74" t="s">
+        <v>340</v>
+      </c>
+      <c r="I74">
+        <v>25000</v>
+      </c>
+      <c r="J74">
+        <v>10000</v>
+      </c>
+      <c r="K74">
+        <v>100000</v>
+      </c>
+      <c r="L74">
+        <v>50000</v>
+      </c>
+      <c r="N74">
+        <v>2500</v>
+      </c>
+      <c r="O74">
+        <v>125</v>
+      </c>
+      <c r="P74">
+        <v>10000</v>
+      </c>
+      <c r="Q74">
+        <v>500</v>
+      </c>
+      <c r="U74" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="s">
         <v>369</v>
       </c>
-      <c r="G74">
-        <v>6</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="AB74" t="s">
         <v>370</v>
-      </c>
-      <c r="N74">
-        <v>100000</v>
-      </c>
-      <c r="O74">
-        <v>100000</v>
-      </c>
-      <c r="P74">
-        <v>2000000000</v>
-      </c>
-      <c r="Q74">
-        <v>75000</v>
-      </c>
-      <c r="U74" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG74">
-        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:33">
       <c r="A75">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" t="s">
+        <v>326</v>
+      </c>
+      <c r="E75" t="s">
+        <v>372</v>
+      </c>
+      <c r="F75" t="s">
         <v>373</v>
       </c>
-      <c r="C75" t="s">
-        <v>322</v>
+      <c r="G75">
+        <v>6</v>
       </c>
       <c r="H75" t="s">
         <v>374</v>
       </c>
       <c r="N75">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="O75">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="P75">
         <v>2000000000</v>
@@ -6097,7 +6106,7 @@
         <v>75000</v>
       </c>
       <c r="U75" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="AA75" t="s">
         <v>375</v>
@@ -6105,25 +6114,28 @@
       <c r="AB75" t="s">
         <v>376</v>
       </c>
+      <c r="AD75" t="s">
+        <v>372</v>
+      </c>
       <c r="AF75" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AG75">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:33">
       <c r="A76">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
         <v>377</v>
       </c>
       <c r="C76" t="s">
+        <v>326</v>
+      </c>
+      <c r="H76" t="s">
         <v>378</v>
-      </c>
-      <c r="H76" t="s">
-        <v>379</v>
       </c>
       <c r="N76">
         <v>1000000</v>
@@ -6138,16 +6150,16 @@
         <v>75000</v>
       </c>
       <c r="U76" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AA76" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB76" t="s">
         <v>380</v>
       </c>
-      <c r="AB76" t="s">
-        <v>381</v>
-      </c>
       <c r="AF76" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="AG76">
         <v>10</v>
@@ -6155,13 +6167,13 @@
     </row>
     <row r="77" spans="1:33">
       <c r="A77">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
+        <v>381</v>
+      </c>
+      <c r="C77" t="s">
         <v>382</v>
-      </c>
-      <c r="C77" t="s">
-        <v>336</v>
       </c>
       <c r="H77" t="s">
         <v>383</v>
@@ -6188,28 +6200,25 @@
         <v>385</v>
       </c>
       <c r="AF77" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="AG77">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:33">
       <c r="A78">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
         <v>386</v>
       </c>
       <c r="C78" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H78" t="s">
         <v>387</v>
       </c>
-      <c r="M78" t="s">
-        <v>388</v>
-      </c>
       <c r="N78">
         <v>1000000</v>
       </c>
@@ -6223,285 +6232,294 @@
         <v>75000</v>
       </c>
       <c r="U78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA78" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB78" t="s">
         <v>389</v>
       </c>
-      <c r="AB78" t="s">
-        <v>390</v>
-      </c>
       <c r="AF78" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AG78">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:33">
       <c r="A79">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s">
+        <v>390</v>
+      </c>
+      <c r="C79" t="s">
+        <v>340</v>
+      </c>
+      <c r="H79" t="s">
         <v>391</v>
       </c>
-      <c r="C79" t="s">
-        <v>113</v>
-      </c>
-      <c r="I79">
-        <v>15000</v>
-      </c>
-      <c r="J79">
-        <v>2000</v>
+      <c r="M79" t="s">
+        <v>392</v>
       </c>
       <c r="N79">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="O79">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="P79">
-        <v>1000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q79">
-        <v>25</v>
-      </c>
-      <c r="T79">
-        <v>1</v>
+        <v>75000</v>
+      </c>
+      <c r="U79" t="s">
+        <v>386</v>
       </c>
       <c r="AA79" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AB79" t="s">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG79">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:33">
       <c r="A80">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
-      </c>
-      <c r="H80" t="s">
-        <v>395</v>
+        <v>113</v>
       </c>
       <c r="I80">
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="J80">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N80">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="O80">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="P80">
-        <v>250</v>
+        <v>1000000</v>
       </c>
       <c r="Q80">
         <v>25</v>
       </c>
-      <c r="U80" t="s">
-        <v>391</v>
-      </c>
-      <c r="V80" t="s">
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="AA80" t="s">
         <v>396</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="AB80" t="s">
         <v>397</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="81" spans="1:33">
       <c r="A81">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
+        <v>398</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" t="s">
         <v>399</v>
       </c>
-      <c r="C81" t="s">
-        <v>253</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I81">
+        <v>500</v>
+      </c>
+      <c r="J81">
+        <v>3000</v>
+      </c>
+      <c r="N81">
+        <v>150</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="P81">
+        <v>250</v>
+      </c>
+      <c r="Q81">
+        <v>25</v>
+      </c>
+      <c r="U81" t="s">
+        <v>395</v>
+      </c>
+      <c r="V81" t="s">
         <v>400</v>
       </c>
-      <c r="M81" t="s">
-        <v>289</v>
-      </c>
-      <c r="U81" t="s">
-        <v>394</v>
-      </c>
-      <c r="V81" t="s">
+      <c r="AA81" t="s">
         <v>401</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="AB81" t="s">
         <v>402</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="82" spans="1:33">
       <c r="A82">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C82" t="s">
         <v>253</v>
       </c>
       <c r="H82" t="s">
+        <v>404</v>
+      </c>
+      <c r="M82" t="s">
+        <v>289</v>
+      </c>
+      <c r="U82" t="s">
+        <v>398</v>
+      </c>
+      <c r="V82" t="s">
         <v>405</v>
       </c>
-      <c r="I82">
-        <v>500</v>
-      </c>
-      <c r="J82">
-        <v>5000</v>
-      </c>
-      <c r="K82">
-        <v>2500</v>
-      </c>
-      <c r="L82">
-        <v>1000</v>
-      </c>
-      <c r="M82" t="s">
+      <c r="AA82" t="s">
         <v>406</v>
       </c>
-      <c r="N82">
-        <v>150</v>
-      </c>
-      <c r="O82">
-        <v>2</v>
-      </c>
-      <c r="P82">
-        <v>250</v>
-      </c>
-      <c r="Q82">
-        <v>100</v>
-      </c>
-      <c r="U82" t="s">
-        <v>399</v>
-      </c>
-      <c r="V82" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA82" t="s">
+      <c r="AB82" t="s">
         <v>407</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:33">
       <c r="A83">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
+        <v>408</v>
+      </c>
+      <c r="C83" t="s">
+        <v>253</v>
+      </c>
+      <c r="H83" t="s">
         <v>409</v>
       </c>
-      <c r="C83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H83" t="s">
-        <v>410</v>
-      </c>
       <c r="I83">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="J83">
         <v>5000</v>
       </c>
       <c r="K83">
-        <v>50000</v>
+        <v>2500</v>
+      </c>
+      <c r="L83">
+        <v>1000</v>
       </c>
       <c r="M83" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N83">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="O83">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="P83">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>100</v>
       </c>
       <c r="U83" t="s">
-        <v>399</v>
+        <v>403</v>
+      </c>
+      <c r="V83" t="s">
+        <v>288</v>
       </c>
       <c r="AA83" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB83" t="s">
         <v>412</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:33">
       <c r="A84">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
+        <v>413</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
         <v>414</v>
       </c>
-      <c r="C84" t="s">
+      <c r="I84">
+        <v>5000</v>
+      </c>
+      <c r="J84">
+        <v>5000</v>
+      </c>
+      <c r="K84">
+        <v>50000</v>
+      </c>
+      <c r="M84" t="s">
         <v>415</v>
       </c>
-      <c r="H84" t="s">
+      <c r="N84">
+        <v>500</v>
+      </c>
+      <c r="O84">
+        <v>50</v>
+      </c>
+      <c r="P84">
+        <v>5000</v>
+      </c>
+      <c r="Q84">
+        <v>100</v>
+      </c>
+      <c r="U84" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA84" t="s">
         <v>416</v>
       </c>
-      <c r="N84">
-        <v>1000</v>
-      </c>
-      <c r="O84">
-        <v>100</v>
-      </c>
-      <c r="P84">
-        <v>10000000</v>
-      </c>
-      <c r="Q84">
-        <v>200</v>
-      </c>
-      <c r="U84" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA84" t="s">
+      <c r="AB84" t="s">
         <v>417</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:33">
       <c r="A85">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
+        <v>418</v>
+      </c>
+      <c r="C85" t="s">
         <v>419</v>
       </c>
-      <c r="C85" t="s">
-        <v>415</v>
-      </c>
-      <c r="M85" t="s">
-        <v>350</v>
+      <c r="H85" t="s">
+        <v>420</v>
       </c>
       <c r="N85">
         <v>1000</v>
       </c>
       <c r="O85">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P85">
         <v>10000000</v>
@@ -6510,101 +6528,92 @@
         <v>200</v>
       </c>
       <c r="U85" t="s">
-        <v>414</v>
-      </c>
-      <c r="W85" t="s">
-        <v>79</v>
-      </c>
-      <c r="X85">
-        <v>5</v>
+        <v>403</v>
       </c>
       <c r="AA85" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AB85" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:33">
       <c r="A86">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C86" t="s">
-        <v>68</v>
-      </c>
-      <c r="E86" t="s">
-        <v>169</v>
-      </c>
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86" t="s">
-        <v>423</v>
+        <v>419</v>
+      </c>
+      <c r="M86" t="s">
+        <v>354</v>
       </c>
       <c r="N86">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O86">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P86">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="Q86">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="U86" t="s">
-        <v>399</v>
-      </c>
-      <c r="V86" t="s">
+        <v>418</v>
+      </c>
+      <c r="W86" t="s">
+        <v>79</v>
+      </c>
+      <c r="X86">
+        <v>5</v>
+      </c>
+      <c r="AA86" t="s">
         <v>424</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="AB86" t="s">
         <v>425</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>426</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF86" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG86">
-        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:33">
       <c r="A87">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
       </c>
+      <c r="E87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
       <c r="H87" t="s">
+        <v>427</v>
+      </c>
+      <c r="N87">
+        <v>10000</v>
+      </c>
+      <c r="O87">
+        <v>1000</v>
+      </c>
+      <c r="P87">
+        <v>1000000</v>
+      </c>
+      <c r="Q87">
+        <v>15000</v>
+      </c>
+      <c r="U87" t="s">
+        <v>403</v>
+      </c>
+      <c r="V87" t="s">
         <v>428</v>
-      </c>
-      <c r="N87">
-        <v>20000</v>
-      </c>
-      <c r="O87">
-        <v>20000</v>
-      </c>
-      <c r="P87">
-        <v>1000000000</v>
-      </c>
-      <c r="Q87">
-        <v>30000</v>
-      </c>
-      <c r="U87" t="s">
-        <v>422</v>
       </c>
       <c r="AA87" t="s">
         <v>429</v>
@@ -6612,16 +6621,19 @@
       <c r="AB87" t="s">
         <v>430</v>
       </c>
+      <c r="AD87" t="s">
+        <v>169</v>
+      </c>
       <c r="AF87" t="s">
         <v>68</v>
       </c>
       <c r="AG87">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:33">
       <c r="A88">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
         <v>431</v>
@@ -6629,43 +6641,46 @@
       <c r="C88" t="s">
         <v>68</v>
       </c>
+      <c r="H88" t="s">
+        <v>432</v>
+      </c>
       <c r="N88">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O88">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P88">
-        <v>1000000</v>
+        <v>1000000000</v>
       </c>
       <c r="Q88">
         <v>30000</v>
       </c>
       <c r="U88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA88" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB88" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF88" t="s">
         <v>68</v>
       </c>
       <c r="AG88">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:33">
       <c r="A89">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C89" t="s">
-        <v>435</v>
+        <v>68</v>
       </c>
       <c r="N89">
         <v>25000</v>
@@ -6689,45 +6704,45 @@
         <v>437</v>
       </c>
       <c r="AF89" t="s">
-        <v>435</v>
+        <v>68</v>
       </c>
       <c r="AG89">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:33">
       <c r="A90">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
         <v>438</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>439</v>
       </c>
       <c r="N90">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="O90">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="P90">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="Q90">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="U90" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA90" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF90" t="s">
         <v>439</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>440</v>
-      </c>
-      <c r="AF90" t="s">
-        <v>103</v>
       </c>
       <c r="AG90">
         <v>15</v>
@@ -6735,122 +6750,110 @@
     </row>
     <row r="91" spans="1:33">
       <c r="A91">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91" t="s">
-        <v>244</v>
-      </c>
-      <c r="I91">
-        <v>500</v>
-      </c>
-      <c r="J91">
-        <v>5</v>
-      </c>
-      <c r="M91" t="s">
-        <v>441</v>
+        <v>103</v>
       </c>
       <c r="N91">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="P91">
-        <v>250</v>
+        <v>2000000</v>
       </c>
       <c r="Q91">
-        <v>50</v>
-      </c>
-      <c r="T91">
-        <v>1</v>
-      </c>
-      <c r="W91" t="s">
-        <v>79</v>
-      </c>
-      <c r="X91">
-        <v>2</v>
+        <v>50000</v>
+      </c>
+      <c r="U91" t="s">
+        <v>438</v>
       </c>
       <c r="AA91" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AB91" t="s">
-        <v>443</v>
+        <v>444</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG91">
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:33">
       <c r="A92">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" t="s">
+        <v>244</v>
+      </c>
+      <c r="I92">
+        <v>500</v>
+      </c>
+      <c r="J92">
+        <v>5</v>
+      </c>
+      <c r="M92" t="s">
         <v>445</v>
       </c>
-      <c r="H92" t="s">
-        <v>446</v>
-      </c>
-      <c r="L92">
-        <v>500</v>
-      </c>
-      <c r="M92" t="s">
-        <v>447</v>
-      </c>
       <c r="N92">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="O92">
+        <v>2</v>
+      </c>
+      <c r="P92">
+        <v>250</v>
+      </c>
+      <c r="Q92">
         <v>50</v>
-      </c>
-      <c r="P92">
-        <v>5000</v>
-      </c>
-      <c r="Q92">
-        <v>100</v>
       </c>
       <c r="T92">
         <v>1</v>
       </c>
-      <c r="V92" t="s">
-        <v>448</v>
-      </c>
       <c r="W92" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="X92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA92" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AB92" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:33">
       <c r="A93">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B93" t="s">
+        <v>448</v>
+      </c>
+      <c r="C93" t="s">
+        <v>449</v>
+      </c>
+      <c r="H93" t="s">
+        <v>450</v>
+      </c>
+      <c r="L93">
+        <v>500</v>
+      </c>
+      <c r="M93" t="s">
         <v>451</v>
-      </c>
-      <c r="C93" t="s">
-        <v>445</v>
-      </c>
-      <c r="H93" t="s">
-        <v>447</v>
-      </c>
-      <c r="L93">
-        <v>1000</v>
-      </c>
-      <c r="M93" t="s">
-        <v>452</v>
       </c>
       <c r="N93">
         <v>500</v>
@@ -6862,39 +6865,45 @@
         <v>5000</v>
       </c>
       <c r="Q93">
-        <v>150</v>
-      </c>
-      <c r="U93" t="s">
-        <v>444</v>
+        <v>100</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
       </c>
       <c r="V93" t="s">
+        <v>452</v>
+      </c>
+      <c r="W93" t="s">
+        <v>86</v>
+      </c>
+      <c r="X93">
+        <v>5</v>
+      </c>
+      <c r="AA93" t="s">
         <v>453</v>
       </c>
-      <c r="AA93" t="s">
+      <c r="AB93" t="s">
         <v>454</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:33">
       <c r="A94">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
+        <v>455</v>
+      </c>
+      <c r="C94" t="s">
+        <v>449</v>
+      </c>
+      <c r="H94" t="s">
+        <v>451</v>
+      </c>
+      <c r="L94">
+        <v>1000</v>
+      </c>
+      <c r="M94" t="s">
         <v>456</v>
-      </c>
-      <c r="C94" t="s">
-        <v>445</v>
-      </c>
-      <c r="H94" t="s">
-        <v>452</v>
-      </c>
-      <c r="L94">
-        <v>1500</v>
-      </c>
-      <c r="M94" t="s">
-        <v>457</v>
       </c>
       <c r="N94">
         <v>500</v>
@@ -6906,39 +6915,39 @@
         <v>5000</v>
       </c>
       <c r="Q94">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="U94" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="V94" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA94" t="s">
         <v>458</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="AB94" t="s">
         <v>459</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:33">
       <c r="A95">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
+        <v>460</v>
+      </c>
+      <c r="C95" t="s">
+        <v>449</v>
+      </c>
+      <c r="H95" t="s">
+        <v>456</v>
+      </c>
+      <c r="L95">
+        <v>1500</v>
+      </c>
+      <c r="M95" t="s">
         <v>461</v>
-      </c>
-      <c r="C95" t="s">
-        <v>445</v>
-      </c>
-      <c r="H95" t="s">
-        <v>457</v>
-      </c>
-      <c r="L95">
-        <v>3000</v>
-      </c>
-      <c r="M95" t="s">
-        <v>462</v>
       </c>
       <c r="N95">
         <v>500</v>
@@ -6950,42 +6959,39 @@
         <v>5000</v>
       </c>
       <c r="Q95">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V95" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA95" t="s">
         <v>463</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="AB95" t="s">
         <v>464</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:33">
       <c r="A96">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
+        <v>465</v>
+      </c>
+      <c r="C96" t="s">
+        <v>449</v>
+      </c>
+      <c r="H96" t="s">
+        <v>461</v>
+      </c>
+      <c r="L96">
+        <v>3000</v>
+      </c>
+      <c r="M96" t="s">
         <v>466</v>
-      </c>
-      <c r="C96" t="s">
-        <v>83</v>
-      </c>
-      <c r="H96" t="s">
-        <v>467</v>
-      </c>
-      <c r="I96">
-        <v>5000</v>
-      </c>
-      <c r="J96">
-        <v>5000</v>
-      </c>
-      <c r="L96">
-        <v>5000</v>
       </c>
       <c r="N96">
         <v>500</v>
@@ -6997,42 +7003,48 @@
         <v>5000</v>
       </c>
       <c r="Q96">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="U96" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="V96" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA96" t="s">
         <v>468</v>
       </c>
-      <c r="AA96" t="s">
+      <c r="AB96" t="s">
         <v>469</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:33">
       <c r="A97">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C97" t="s">
         <v>83</v>
       </c>
+      <c r="H97" t="s">
+        <v>471</v>
+      </c>
       <c r="I97">
         <v>5000</v>
       </c>
       <c r="J97">
-        <v>7000</v>
-      </c>
-      <c r="K97">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="L97">
-        <v>3000</v>
+        <v>5000</v>
+      </c>
+      <c r="N97">
+        <v>500</v>
+      </c>
+      <c r="O97">
+        <v>50</v>
       </c>
       <c r="P97">
         <v>5000</v>
@@ -7041,119 +7053,116 @@
         <v>250</v>
       </c>
       <c r="U97" t="s">
-        <v>466</v>
+        <v>448</v>
+      </c>
+      <c r="V97" t="s">
+        <v>472</v>
       </c>
       <c r="AA97" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AB97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="1:33">
       <c r="A98">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C98" t="s">
         <v>83</v>
       </c>
-      <c r="H98" t="s">
-        <v>475</v>
-      </c>
       <c r="I98">
         <v>5000</v>
       </c>
       <c r="J98">
-        <v>7500</v>
+        <v>7000</v>
+      </c>
+      <c r="K98">
+        <v>50000</v>
       </c>
       <c r="L98">
-        <v>10000</v>
-      </c>
-      <c r="M98" t="s">
-        <v>476</v>
+        <v>3000</v>
       </c>
       <c r="P98">
         <v>5000</v>
       </c>
       <c r="Q98">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="U98" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AA98" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB98" t="s">
         <v>477</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:33">
       <c r="A99">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>478</v>
       </c>
       <c r="C99" t="s">
         <v>83</v>
       </c>
-      <c r="E99" t="s">
-        <v>438</v>
-      </c>
-      <c r="F99" t="s">
-        <v>422</v>
-      </c>
-      <c r="G99">
-        <v>4</v>
-      </c>
       <c r="H99" t="s">
         <v>479</v>
       </c>
-      <c r="N99">
-        <v>30000</v>
-      </c>
-      <c r="O99">
-        <v>30000</v>
+      <c r="I99">
+        <v>5000</v>
+      </c>
+      <c r="J99">
+        <v>7500</v>
+      </c>
+      <c r="L99">
+        <v>10000</v>
+      </c>
+      <c r="M99" t="s">
+        <v>480</v>
       </c>
       <c r="P99">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q99">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="U99" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="AA99" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AB99" t="s">
-        <v>481</v>
-      </c>
-      <c r="AD99" t="s">
-        <v>438</v>
-      </c>
-      <c r="AF99" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG99">
-        <v>5</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100" spans="1:33">
       <c r="A100">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s">
-        <v>482</v>
+        <v>373</v>
       </c>
       <c r="C100" t="s">
         <v>83</v>
       </c>
+      <c r="E100" t="s">
+        <v>442</v>
+      </c>
+      <c r="F100" t="s">
+        <v>426</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
       <c r="H100" t="s">
         <v>483</v>
       </c>
@@ -7170,7 +7179,7 @@
         <v>50000</v>
       </c>
       <c r="U100" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="AA100" t="s">
         <v>484</v>
@@ -7178,28 +7187,43 @@
       <c r="AB100" t="s">
         <v>485</v>
       </c>
+      <c r="AD100" t="s">
+        <v>442</v>
+      </c>
       <c r="AF100" t="s">
         <v>83</v>
       </c>
       <c r="AG100">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:33">
       <c r="A101">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B101" t="s">
         <v>486</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H101" t="s">
         <v>487</v>
       </c>
+      <c r="N101">
+        <v>30000</v>
+      </c>
+      <c r="O101">
+        <v>30000</v>
+      </c>
+      <c r="P101">
+        <v>1500000000</v>
+      </c>
+      <c r="Q101">
+        <v>50000</v>
+      </c>
       <c r="U101" t="s">
-        <v>482</v>
+        <v>373</v>
       </c>
       <c r="AA101" t="s">
         <v>488</v>
@@ -7208,7 +7232,7 @@
         <v>489</v>
       </c>
       <c r="AF101" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AG101">
         <v>10</v>
@@ -7216,29 +7240,17 @@
     </row>
     <row r="102" spans="1:33">
       <c r="A102">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B102" t="s">
         <v>490</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="H102" t="s">
         <v>491</v>
       </c>
-      <c r="N102">
-        <v>30000</v>
-      </c>
-      <c r="O102">
-        <v>30000</v>
-      </c>
-      <c r="P102">
-        <v>1500000000</v>
-      </c>
-      <c r="Q102">
-        <v>50000</v>
-      </c>
       <c r="U102" t="s">
         <v>486</v>
       </c>
@@ -7249,24 +7261,24 @@
         <v>493</v>
       </c>
       <c r="AF102" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="AG102">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:33">
       <c r="A103">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B103" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="C103" t="s">
-        <v>445</v>
+        <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N103">
         <v>30000</v>
@@ -7284,13 +7296,13 @@
         <v>490</v>
       </c>
       <c r="AA103" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AB103" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF103" t="s">
-        <v>445</v>
+        <v>32</v>
       </c>
       <c r="AG103">
         <v>5</v>
@@ -7298,145 +7310,145 @@
     </row>
     <row r="104" spans="1:33">
       <c r="A104">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>497</v>
+        <v>372</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" t="s">
+        <v>449</v>
+      </c>
+      <c r="H104" t="s">
         <v>498</v>
       </c>
-      <c r="H104" t="s">
+      <c r="N104">
+        <v>30000</v>
+      </c>
+      <c r="O104">
+        <v>30000</v>
+      </c>
+      <c r="P104">
+        <v>1500000000</v>
+      </c>
+      <c r="Q104">
+        <v>50000</v>
+      </c>
+      <c r="U104" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA104" t="s">
         <v>499</v>
       </c>
-      <c r="P104">
-        <v>150</v>
-      </c>
-      <c r="Q104">
-        <v>1000</v>
-      </c>
-      <c r="T104">
-        <v>1</v>
-      </c>
-      <c r="AA104" t="s">
+      <c r="AB104" t="s">
         <v>500</v>
       </c>
-      <c r="AB104" t="s">
-        <v>501</v>
-      </c>
-      <c r="AC104" t="s">
-        <v>498</v>
+      <c r="AF104" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG104">
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:33">
       <c r="A105">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B105" t="s">
+        <v>501</v>
+      </c>
+      <c r="C105" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" t="s">
         <v>502</v>
-      </c>
-      <c r="C105" t="s">
-        <v>435</v>
-      </c>
-      <c r="D105" t="s">
-        <v>498</v>
       </c>
       <c r="H105" t="s">
         <v>503</v>
       </c>
-      <c r="M105" t="s">
-        <v>504</v>
-      </c>
       <c r="P105">
         <v>150</v>
       </c>
       <c r="Q105">
         <v>1000</v>
       </c>
-      <c r="U105" t="s">
-        <v>497</v>
+      <c r="T105">
+        <v>1</v>
       </c>
       <c r="AA105" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB105" t="s">
         <v>505</v>
       </c>
-      <c r="AB105" t="s">
-        <v>506</v>
-      </c>
       <c r="AC105" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:33">
       <c r="A106">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106" t="s">
+        <v>506</v>
+      </c>
+      <c r="C106" t="s">
+        <v>439</v>
+      </c>
+      <c r="D106" t="s">
+        <v>502</v>
+      </c>
+      <c r="H106" t="s">
         <v>507</v>
       </c>
-      <c r="C106" t="s">
+      <c r="M106" t="s">
         <v>508</v>
       </c>
-      <c r="D106" t="s">
-        <v>498</v>
-      </c>
-      <c r="H106" t="s">
-        <v>504</v>
-      </c>
-      <c r="M106" t="s">
-        <v>509</v>
-      </c>
       <c r="P106">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q106">
         <v>1000</v>
       </c>
       <c r="U106" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC106" t="s">
         <v>502</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>510</v>
-      </c>
-      <c r="AB106" t="s">
-        <v>511</v>
-      </c>
-      <c r="AC106" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:33">
       <c r="A107">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107" t="s">
+        <v>511</v>
+      </c>
+      <c r="C107" t="s">
         <v>512</v>
       </c>
-      <c r="C107" t="s">
-        <v>103</v>
-      </c>
       <c r="D107" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H107" t="s">
-        <v>509</v>
-      </c>
-      <c r="I107">
-        <v>100</v>
+        <v>508</v>
+      </c>
+      <c r="M107" t="s">
+        <v>513</v>
       </c>
       <c r="P107">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q107">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="U107" t="s">
-        <v>507</v>
-      </c>
-      <c r="V107" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AA107" t="s">
         <v>514</v>
@@ -7445,156 +7457,153 @@
         <v>515</v>
       </c>
       <c r="AC107" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:33">
       <c r="A108">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B108" t="s">
         <v>516</v>
       </c>
       <c r="C108" t="s">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H108" t="s">
-        <v>517</v>
+        <v>513</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
       </c>
       <c r="P108">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="Q108">
         <v>1500</v>
       </c>
       <c r="U108" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V108" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA108" t="s">
         <v>518</v>
       </c>
-      <c r="AA108" t="s">
+      <c r="AB108" t="s">
         <v>519</v>
       </c>
-      <c r="AB108" t="s">
-        <v>520</v>
-      </c>
       <c r="AC108" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:33">
       <c r="A109">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B109" t="s">
+        <v>520</v>
+      </c>
+      <c r="C109" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" t="s">
+        <v>502</v>
+      </c>
+      <c r="H109" t="s">
         <v>521</v>
-      </c>
-      <c r="C109" t="s">
-        <v>336</v>
-      </c>
-      <c r="D109" t="s">
-        <v>498</v>
-      </c>
-      <c r="H109" t="s">
-        <v>522</v>
-      </c>
-      <c r="I109">
-        <v>25000</v>
-      </c>
-      <c r="M109" t="s">
-        <v>523</v>
       </c>
       <c r="P109">
         <v>10000</v>
       </c>
       <c r="Q109">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="U109" t="s">
         <v>516</v>
       </c>
+      <c r="V109" t="s">
+        <v>522</v>
+      </c>
       <c r="AA109" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB109" t="s">
         <v>524</v>
       </c>
-      <c r="AB109" t="s">
-        <v>525</v>
-      </c>
       <c r="AC109" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:33">
       <c r="A110">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
+        <v>525</v>
+      </c>
+      <c r="C110" t="s">
+        <v>340</v>
+      </c>
+      <c r="D110" t="s">
+        <v>502</v>
+      </c>
+      <c r="H110" t="s">
         <v>526</v>
       </c>
-      <c r="C110" t="s">
-        <v>103</v>
-      </c>
-      <c r="D110" t="s">
-        <v>498</v>
-      </c>
-      <c r="H110" t="s">
-        <v>523</v>
-      </c>
       <c r="I110">
-        <v>100</v>
-      </c>
-      <c r="N110">
-        <v>25</v>
-      </c>
-      <c r="O110">
-        <v>2</v>
+        <v>25000</v>
+      </c>
+      <c r="M110" t="s">
+        <v>527</v>
       </c>
       <c r="P110">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="Q110">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="U110" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA110" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AB110" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AC110" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:33">
       <c r="A111">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C111" t="s">
-        <v>435</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>498</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
+        <v>502</v>
+      </c>
+      <c r="H111" t="s">
+        <v>527</v>
       </c>
       <c r="I111">
         <v>100</v>
       </c>
-      <c r="J111">
-        <v>20000</v>
-      </c>
-      <c r="L111">
-        <v>10000</v>
+      <c r="N111">
+        <v>25</v>
+      </c>
+      <c r="O111">
+        <v>2</v>
       </c>
       <c r="P111">
         <v>150</v>
@@ -7603,51 +7612,51 @@
         <v>3000</v>
       </c>
       <c r="U111" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="AA111" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AB111" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AC111" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:33">
       <c r="A112">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="D112" t="s">
-        <v>498</v>
-      </c>
-      <c r="H112" t="s">
-        <v>533</v>
+        <v>502</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J112">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L112">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P112">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q112">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="U112" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="AA112" t="s">
         <v>534</v>
@@ -7656,27 +7665,33 @@
         <v>535</v>
       </c>
       <c r="AC112" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="1:33">
       <c r="A113">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B113" t="s">
         <v>536</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H113" t="s">
         <v>537</v>
       </c>
-      <c r="M113" t="s">
-        <v>538</v>
+      <c r="I113">
+        <v>500</v>
+      </c>
+      <c r="J113">
+        <v>15000</v>
+      </c>
+      <c r="L113">
+        <v>15000</v>
       </c>
       <c r="P113">
         <v>250</v>
@@ -7685,118 +7700,124 @@
         <v>4000</v>
       </c>
       <c r="U113" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA113" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB113" t="s">
         <v>539</v>
       </c>
-      <c r="AB113" t="s">
-        <v>540</v>
-      </c>
       <c r="AC113" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:33">
       <c r="A114">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" t="s">
+        <v>540</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>502</v>
+      </c>
+      <c r="H114" t="s">
         <v>541</v>
       </c>
-      <c r="C114" t="s">
-        <v>435</v>
-      </c>
-      <c r="D114" t="s">
-        <v>498</v>
-      </c>
-      <c r="H114" t="s">
-        <v>538</v>
-      </c>
-      <c r="I114">
-        <v>100</v>
-      </c>
-      <c r="J114">
-        <v>100000</v>
-      </c>
-      <c r="L114">
-        <v>75000</v>
+      <c r="M114" t="s">
+        <v>542</v>
+      </c>
+      <c r="P114">
+        <v>250</v>
       </c>
       <c r="Q114">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="U114" t="s">
         <v>536</v>
       </c>
-      <c r="Y114">
-        <v>1</v>
-      </c>
       <c r="AA114" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AB114" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AC114" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115" spans="1:33">
       <c r="A115">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C115" t="s">
-        <v>545</v>
+        <v>439</v>
+      </c>
+      <c r="D115" t="s">
+        <v>502</v>
       </c>
       <c r="H115" t="s">
+        <v>542</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="J115">
+        <v>100000</v>
+      </c>
+      <c r="L115">
+        <v>75000</v>
+      </c>
+      <c r="Q115">
+        <v>5000</v>
+      </c>
+      <c r="U115" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y115">
+        <v>1</v>
+      </c>
+      <c r="AA115" t="s">
         <v>546</v>
       </c>
-      <c r="I115">
-        <v>125</v>
-      </c>
-      <c r="P115">
-        <v>200</v>
-      </c>
-      <c r="Q115">
-        <v>100</v>
-      </c>
-      <c r="T115">
-        <v>1</v>
-      </c>
-      <c r="AA115" t="s">
+      <c r="AB115" t="s">
         <v>547</v>
       </c>
-      <c r="AB115" t="s">
-        <v>548</v>
-      </c>
-      <c r="AE115">
-        <v>4</v>
+      <c r="AC115" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:33">
       <c r="A116">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" t="s">
+        <v>548</v>
+      </c>
+      <c r="C116" t="s">
         <v>549</v>
-      </c>
-      <c r="C116" t="s">
-        <v>435</v>
       </c>
       <c r="H116" t="s">
         <v>550</v>
       </c>
+      <c r="I116">
+        <v>125</v>
+      </c>
       <c r="P116">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q116">
         <v>100</v>
       </c>
-      <c r="U116" t="s">
-        <v>544</v>
+      <c r="T116">
+        <v>1</v>
       </c>
       <c r="AA116" t="s">
         <v>551</v>
@@ -7810,25 +7831,25 @@
     </row>
     <row r="117" spans="1:33">
       <c r="A117">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B117" t="s">
         <v>553</v>
       </c>
       <c r="C117" t="s">
-        <v>545</v>
+        <v>439</v>
       </c>
       <c r="H117" t="s">
         <v>554</v>
       </c>
       <c r="P117">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q117">
         <v>100</v>
       </c>
       <c r="U117" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AA117" t="s">
         <v>555</v>
@@ -7842,16 +7863,16 @@
     </row>
     <row r="118" spans="1:33">
       <c r="A118">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B118" t="s">
         <v>557</v>
       </c>
       <c r="C118" t="s">
-        <v>545</v>
-      </c>
-      <c r="I118">
-        <v>125</v>
+        <v>549</v>
+      </c>
+      <c r="H118" t="s">
+        <v>558</v>
       </c>
       <c r="P118">
         <v>200</v>
@@ -7863,10 +7884,10 @@
         <v>553</v>
       </c>
       <c r="AA118" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AB118" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AE118">
         <v>4</v>
@@ -7874,32 +7895,17 @@
     </row>
     <row r="119" spans="1:33">
       <c r="A119">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C119" t="s">
-        <v>545</v>
-      </c>
-      <c r="E119" t="s">
-        <v>561</v>
-      </c>
-      <c r="H119" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="I119">
         <v>125</v>
       </c>
-      <c r="M119" t="s">
-        <v>563</v>
-      </c>
-      <c r="N119">
-        <v>75</v>
-      </c>
-      <c r="O119">
-        <v>10</v>
-      </c>
       <c r="P119">
         <v>200</v>
       </c>
@@ -7907,16 +7913,13 @@
         <v>100</v>
       </c>
       <c r="U119" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AA119" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AB119" t="s">
-        <v>565</v>
-      </c>
-      <c r="AD119" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AE119">
         <v>4</v>
@@ -7924,19 +7927,25 @@
     </row>
     <row r="120" spans="1:33">
       <c r="A120">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120" t="s">
+        <v>564</v>
+      </c>
+      <c r="C120" t="s">
+        <v>549</v>
+      </c>
+      <c r="E120" t="s">
+        <v>565</v>
+      </c>
+      <c r="H120" t="s">
         <v>566</v>
-      </c>
-      <c r="C120" t="s">
-        <v>545</v>
       </c>
       <c r="I120">
         <v>125</v>
       </c>
-      <c r="J120">
-        <v>1500</v>
+      <c r="M120" t="s">
+        <v>567</v>
       </c>
       <c r="N120">
         <v>75</v>
@@ -7951,13 +7960,16 @@
         <v>100</v>
       </c>
       <c r="U120" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AA120" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AB120" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>565</v>
       </c>
       <c r="AE120">
         <v>4</v>
@@ -7965,34 +7977,34 @@
     </row>
     <row r="121" spans="1:33">
       <c r="A121">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C121" t="s">
-        <v>435</v>
-      </c>
-      <c r="E121" t="s">
-        <v>557</v>
-      </c>
-      <c r="H121" t="s">
-        <v>570</v>
+        <v>549</v>
+      </c>
+      <c r="I121">
+        <v>125</v>
+      </c>
+      <c r="J121">
+        <v>1500</v>
       </c>
       <c r="N121">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="O121">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P121">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q121">
         <v>100</v>
       </c>
       <c r="U121" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="AA121" t="s">
         <v>571</v>
@@ -8000,29 +8012,26 @@
       <c r="AB121" t="s">
         <v>572</v>
       </c>
-      <c r="AD121" t="s">
-        <v>557</v>
-      </c>
       <c r="AE121">
         <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:33">
       <c r="A122">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
         <v>573</v>
       </c>
       <c r="C122" t="s">
-        <v>435</v>
+        <v>439</v>
+      </c>
+      <c r="E122" t="s">
+        <v>561</v>
       </c>
       <c r="H122" t="s">
         <v>574</v>
       </c>
-      <c r="I122">
-        <v>100</v>
-      </c>
       <c r="N122">
         <v>25</v>
       </c>
@@ -8036,7 +8045,7 @@
         <v>100</v>
       </c>
       <c r="U122" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="AA122" t="s">
         <v>575</v>
@@ -8044,35 +8053,29 @@
       <c r="AB122" t="s">
         <v>576</v>
       </c>
+      <c r="AD122" t="s">
+        <v>561</v>
+      </c>
       <c r="AE122">
         <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:33">
       <c r="A123">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B123" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="C123" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H123" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I123">
         <v>100</v>
       </c>
-      <c r="J123">
-        <v>200</v>
-      </c>
-      <c r="K123">
-        <v>1000</v>
-      </c>
-      <c r="M123" t="s">
-        <v>578</v>
-      </c>
       <c r="N123">
         <v>25</v>
       </c>
@@ -8100,46 +8103,49 @@
     </row>
     <row r="124" spans="1:33">
       <c r="A124">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124" t="s">
+        <v>565</v>
+      </c>
+      <c r="C124" t="s">
+        <v>439</v>
+      </c>
+      <c r="H124" t="s">
         <v>581</v>
       </c>
-      <c r="C124" t="s">
-        <v>545</v>
-      </c>
-      <c r="E124" t="s">
-        <v>566</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="I124">
+        <v>100</v>
+      </c>
+      <c r="J124">
+        <v>200</v>
+      </c>
+      <c r="K124">
+        <v>1000</v>
+      </c>
+      <c r="M124" t="s">
         <v>582</v>
       </c>
       <c r="N124">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O124">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P124">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q124">
         <v>100</v>
       </c>
       <c r="U124" t="s">
-        <v>544</v>
-      </c>
-      <c r="V124" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA124" t="s">
         <v>583</v>
       </c>
-      <c r="AA124" t="s">
+      <c r="AB124" t="s">
         <v>584</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>585</v>
-      </c>
-      <c r="AD124" t="s">
-        <v>566</v>
       </c>
       <c r="AE124">
         <v>4</v>
@@ -8147,22 +8153,19 @@
     </row>
     <row r="125" spans="1:33">
       <c r="A125">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B125" t="s">
+        <v>585</v>
+      </c>
+      <c r="C125" t="s">
+        <v>549</v>
+      </c>
+      <c r="E125" t="s">
+        <v>570</v>
+      </c>
+      <c r="H125" t="s">
         <v>586</v>
-      </c>
-      <c r="C125" t="s">
-        <v>545</v>
-      </c>
-      <c r="H125" t="s">
-        <v>587</v>
-      </c>
-      <c r="I125">
-        <v>125</v>
-      </c>
-      <c r="J125">
-        <v>2000</v>
       </c>
       <c r="N125">
         <v>75</v>
@@ -8173,17 +8176,23 @@
       <c r="P125">
         <v>200</v>
       </c>
+      <c r="Q125">
+        <v>100</v>
+      </c>
       <c r="U125" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="V125" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA125" t="s">
         <v>588</v>
       </c>
-      <c r="AA125" t="s">
+      <c r="AB125" t="s">
         <v>589</v>
       </c>
-      <c r="AB125" t="s">
-        <v>590</v>
+      <c r="AD125" t="s">
+        <v>570</v>
       </c>
       <c r="AE125">
         <v>4</v>
@@ -8191,25 +8200,22 @@
     </row>
     <row r="126" spans="1:33">
       <c r="A126">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126" t="s">
+        <v>590</v>
+      </c>
+      <c r="C126" t="s">
+        <v>549</v>
+      </c>
+      <c r="H126" t="s">
         <v>591</v>
-      </c>
-      <c r="C126" t="s">
-        <v>545</v>
-      </c>
-      <c r="H126" t="s">
-        <v>592</v>
       </c>
       <c r="I126">
         <v>125</v>
       </c>
       <c r="J126">
-        <v>25000</v>
-      </c>
-      <c r="M126" t="s">
-        <v>593</v>
+        <v>2000</v>
       </c>
       <c r="N126">
         <v>75</v>
@@ -8220,20 +8226,17 @@
       <c r="P126">
         <v>200</v>
       </c>
-      <c r="Q126">
-        <v>200</v>
-      </c>
       <c r="U126" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="V126" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB126" t="s">
         <v>594</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>595</v>
-      </c>
-      <c r="AB126" t="s">
-        <v>596</v>
       </c>
       <c r="AE126">
         <v>4</v>
@@ -8241,40 +8244,43 @@
     </row>
     <row r="127" spans="1:33">
       <c r="A127">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B127" t="s">
+        <v>595</v>
+      </c>
+      <c r="C127" t="s">
+        <v>549</v>
+      </c>
+      <c r="H127" t="s">
+        <v>596</v>
+      </c>
+      <c r="I127">
+        <v>125</v>
+      </c>
+      <c r="J127">
+        <v>25000</v>
+      </c>
+      <c r="M127" t="s">
         <v>597</v>
       </c>
-      <c r="C127" t="s">
-        <v>435</v>
-      </c>
-      <c r="H127" t="s">
-        <v>593</v>
-      </c>
-      <c r="I127">
-        <v>100</v>
-      </c>
-      <c r="J127">
-        <v>5000</v>
-      </c>
-      <c r="M127" t="s">
+      <c r="N127">
+        <v>75</v>
+      </c>
+      <c r="O127">
+        <v>10</v>
+      </c>
+      <c r="P127">
+        <v>200</v>
+      </c>
+      <c r="Q127">
+        <v>200</v>
+      </c>
+      <c r="U127" t="s">
+        <v>590</v>
+      </c>
+      <c r="V127" t="s">
         <v>598</v>
-      </c>
-      <c r="N127">
-        <v>25</v>
-      </c>
-      <c r="O127">
-        <v>2</v>
-      </c>
-      <c r="P127">
-        <v>150</v>
-      </c>
-      <c r="Q127">
-        <v>250</v>
-      </c>
-      <c r="U127" t="s">
-        <v>544</v>
       </c>
       <c r="AA127" t="s">
         <v>599</v>
@@ -8288,49 +8294,46 @@
     </row>
     <row r="128" spans="1:33">
       <c r="A128">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B128" t="s">
         <v>601</v>
       </c>
       <c r="C128" t="s">
+        <v>439</v>
+      </c>
+      <c r="H128" t="s">
+        <v>597</v>
+      </c>
+      <c r="I128">
+        <v>100</v>
+      </c>
+      <c r="J128">
+        <v>5000</v>
+      </c>
+      <c r="M128" t="s">
         <v>602</v>
       </c>
-      <c r="E128" t="s">
+      <c r="N128">
+        <v>25</v>
+      </c>
+      <c r="O128">
+        <v>2</v>
+      </c>
+      <c r="P128">
+        <v>150</v>
+      </c>
+      <c r="Q128">
+        <v>250</v>
+      </c>
+      <c r="U128" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA128" t="s">
         <v>603</v>
       </c>
-      <c r="I128">
-        <v>125</v>
-      </c>
-      <c r="J128">
-        <v>2000</v>
-      </c>
-      <c r="M128" t="s">
+      <c r="AB128" t="s">
         <v>604</v>
-      </c>
-      <c r="N128">
-        <v>75</v>
-      </c>
-      <c r="O128">
-        <v>10</v>
-      </c>
-      <c r="P128">
-        <v>200</v>
-      </c>
-      <c r="Q128">
-        <v>100</v>
-      </c>
-      <c r="U128" t="s">
-        <v>597</v>
-      </c>
-      <c r="AA128" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB128" t="s">
-        <v>606</v>
-      </c>
-      <c r="AD128" t="s">
-        <v>603</v>
       </c>
       <c r="AE128">
         <v>4</v>
@@ -8338,22 +8341,25 @@
     </row>
     <row r="129" spans="1:33">
       <c r="A129">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B129" t="s">
+        <v>605</v>
+      </c>
+      <c r="C129" t="s">
+        <v>606</v>
+      </c>
+      <c r="E129" t="s">
         <v>607</v>
-      </c>
-      <c r="C129" t="s">
-        <v>608</v>
-      </c>
-      <c r="H129" t="s">
-        <v>609</v>
       </c>
       <c r="I129">
         <v>125</v>
       </c>
       <c r="J129">
-        <v>1500</v>
+        <v>2000</v>
+      </c>
+      <c r="M129" t="s">
+        <v>608</v>
       </c>
       <c r="N129">
         <v>75</v>
@@ -8361,6 +8367,9 @@
       <c r="O129">
         <v>10</v>
       </c>
+      <c r="P129">
+        <v>200</v>
+      </c>
       <c r="Q129">
         <v>100</v>
       </c>
@@ -8368,10 +8377,13 @@
         <v>601</v>
       </c>
       <c r="AA129" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB129" t="s">
         <v>610</v>
       </c>
-      <c r="AB129" t="s">
-        <v>611</v>
+      <c r="AD129" t="s">
+        <v>607</v>
       </c>
       <c r="AE129">
         <v>4</v>
@@ -8379,13 +8391,13 @@
     </row>
     <row r="130" spans="1:33">
       <c r="A130">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B130" t="s">
+        <v>611</v>
+      </c>
+      <c r="C130" t="s">
         <v>612</v>
-      </c>
-      <c r="C130" t="s">
-        <v>608</v>
       </c>
       <c r="H130" t="s">
         <v>613</v>
@@ -8406,16 +8418,13 @@
         <v>100</v>
       </c>
       <c r="U130" t="s">
-        <v>607</v>
-      </c>
-      <c r="V130" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA130" t="s">
         <v>614</v>
       </c>
-      <c r="AA130" t="s">
+      <c r="AB130" t="s">
         <v>615</v>
-      </c>
-      <c r="AB130" t="s">
-        <v>616</v>
       </c>
       <c r="AE130">
         <v>4</v>
@@ -8423,25 +8432,22 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B131" t="s">
+        <v>616</v>
+      </c>
+      <c r="C131" t="s">
+        <v>612</v>
+      </c>
+      <c r="H131" t="s">
         <v>617</v>
-      </c>
-      <c r="C131" t="s">
-        <v>608</v>
-      </c>
-      <c r="H131" t="s">
-        <v>618</v>
       </c>
       <c r="I131">
         <v>125</v>
       </c>
       <c r="J131">
-        <v>5000</v>
-      </c>
-      <c r="M131" t="s">
-        <v>619</v>
+        <v>1500</v>
       </c>
       <c r="N131">
         <v>75</v>
@@ -8453,13 +8459,16 @@
         <v>100</v>
       </c>
       <c r="U131" t="s">
-        <v>612</v>
+        <v>611</v>
+      </c>
+      <c r="V131" t="s">
+        <v>618</v>
       </c>
       <c r="AA131" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB131" t="s">
         <v>620</v>
-      </c>
-      <c r="AB131" t="s">
-        <v>621</v>
       </c>
       <c r="AE131">
         <v>4</v>
@@ -8467,22 +8476,22 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B132" t="s">
+        <v>621</v>
+      </c>
+      <c r="C132" t="s">
+        <v>612</v>
+      </c>
+      <c r="H132" t="s">
         <v>622</v>
-      </c>
-      <c r="C132" t="s">
-        <v>608</v>
-      </c>
-      <c r="H132" t="s">
-        <v>619</v>
       </c>
       <c r="I132">
         <v>125</v>
       </c>
       <c r="J132">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M132" t="s">
         <v>623</v>
@@ -8497,7 +8506,7 @@
         <v>100</v>
       </c>
       <c r="U132" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="AA132" t="s">
         <v>624</v>
@@ -8511,37 +8520,37 @@
     </row>
     <row r="133" spans="1:33">
       <c r="A133">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B133" t="s">
         <v>626</v>
       </c>
       <c r="C133" t="s">
-        <v>602</v>
-      </c>
-      <c r="E133" t="s">
-        <v>622</v>
+        <v>612</v>
+      </c>
+      <c r="H133" t="s">
+        <v>623</v>
+      </c>
+      <c r="I133">
+        <v>125</v>
+      </c>
+      <c r="J133">
+        <v>10000</v>
+      </c>
+      <c r="M133" t="s">
+        <v>627</v>
       </c>
       <c r="N133">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O133">
-        <v>25</v>
-      </c>
-      <c r="P133">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q133">
         <v>100</v>
       </c>
       <c r="U133" t="s">
-        <v>622</v>
-      </c>
-      <c r="W133" t="s">
-        <v>627</v>
-      </c>
-      <c r="X133">
-        <v>2</v>
+        <v>605</v>
       </c>
       <c r="AA133" t="s">
         <v>628</v>
@@ -8549,22 +8558,22 @@
       <c r="AB133" t="s">
         <v>629</v>
       </c>
-      <c r="AD133" t="s">
-        <v>622</v>
-      </c>
       <c r="AE133">
         <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:33">
       <c r="A134">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134" t="s">
         <v>630</v>
       </c>
       <c r="C134" t="s">
-        <v>545</v>
+        <v>606</v>
+      </c>
+      <c r="E134" t="s">
+        <v>626</v>
       </c>
       <c r="N134">
         <v>100</v>
@@ -8582,16 +8591,19 @@
         <v>626</v>
       </c>
       <c r="W134" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="X134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA134" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AB134" t="s">
-        <v>632</v>
+        <v>633</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>626</v>
       </c>
       <c r="AE134">
         <v>4</v>
@@ -8599,19 +8611,19 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C135" t="s">
-        <v>435</v>
+        <v>549</v>
       </c>
       <c r="N135">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O135">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P135">
         <v>1000</v>
@@ -8623,16 +8635,16 @@
         <v>630</v>
       </c>
       <c r="W135" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="X135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA135" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AB135" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AE135">
         <v>4</v>
@@ -8640,46 +8652,40 @@
     </row>
     <row r="136" spans="1:33">
       <c r="A136">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B136" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C136" t="s">
-        <v>602</v>
-      </c>
-      <c r="E136" t="s">
-        <v>597</v>
-      </c>
-      <c r="I136">
+        <v>439</v>
+      </c>
+      <c r="N136">
         <v>125</v>
       </c>
-      <c r="J136">
-        <v>100</v>
-      </c>
-      <c r="N136">
-        <v>75</v>
-      </c>
       <c r="O136">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P136">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q136">
         <v>100</v>
       </c>
       <c r="U136" t="s">
-        <v>544</v>
+        <v>634</v>
+      </c>
+      <c r="W136" t="s">
+        <v>631</v>
+      </c>
+      <c r="X136">
+        <v>5</v>
       </c>
       <c r="AA136" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AB136" t="s">
-        <v>638</v>
-      </c>
-      <c r="AD136" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="AE136">
         <v>4</v>
@@ -8687,22 +8693,22 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C137" t="s">
-        <v>602</v>
-      </c>
-      <c r="H137" t="s">
-        <v>640</v>
+        <v>606</v>
+      </c>
+      <c r="E137" t="s">
+        <v>601</v>
       </c>
       <c r="I137">
         <v>125</v>
       </c>
       <c r="J137">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N137">
         <v>75</v>
@@ -8717,7 +8723,7 @@
         <v>100</v>
       </c>
       <c r="U137" t="s">
-        <v>636</v>
+        <v>548</v>
       </c>
       <c r="AA137" t="s">
         <v>641</v>
@@ -8725,19 +8731,25 @@
       <c r="AB137" t="s">
         <v>642</v>
       </c>
+      <c r="AD137" t="s">
+        <v>601</v>
+      </c>
       <c r="AE137">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:33">
       <c r="A138">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B138" t="s">
         <v>643</v>
       </c>
       <c r="C138" t="s">
-        <v>602</v>
+        <v>606</v>
+      </c>
+      <c r="H138" t="s">
+        <v>644</v>
       </c>
       <c r="I138">
         <v>125</v>
@@ -8758,13 +8770,13 @@
         <v>100</v>
       </c>
       <c r="U138" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AA138" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB138" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AE138">
         <v>4</v>
@@ -8772,22 +8784,19 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B139" t="s">
-        <v>603</v>
+        <v>647</v>
       </c>
       <c r="C139" t="s">
-        <v>602</v>
-      </c>
-      <c r="H139" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="I139">
         <v>125</v>
       </c>
       <c r="J139">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N139">
         <v>75</v>
@@ -8805,68 +8814,68 @@
         <v>643</v>
       </c>
       <c r="AA139" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AB139" t="s">
-        <v>647</v>
+        <v>649</v>
+      </c>
+      <c r="AE139">
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:33">
       <c r="A140">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B140" t="s">
-        <v>648</v>
+        <v>607</v>
       </c>
       <c r="C140" t="s">
-        <v>545</v>
-      </c>
-      <c r="E140" t="s">
-        <v>633</v>
+        <v>606</v>
+      </c>
+      <c r="H140" t="s">
+        <v>607</v>
+      </c>
+      <c r="I140">
+        <v>125</v>
+      </c>
+      <c r="J140">
+        <v>1000</v>
       </c>
       <c r="N140">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O140">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P140">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q140">
         <v>100</v>
       </c>
       <c r="U140" t="s">
-        <v>544</v>
+        <v>647</v>
       </c>
       <c r="AA140" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AB140" t="s">
-        <v>650</v>
-      </c>
-      <c r="AD140" t="s">
-        <v>633</v>
-      </c>
-      <c r="AE140">
-        <v>4</v>
-      </c>
-      <c r="AF140" t="s">
-        <v>545</v>
-      </c>
-      <c r="AG140">
-        <v>5</v>
+        <v>651</v>
       </c>
     </row>
     <row r="141" spans="1:33">
       <c r="A141">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C141" t="s">
-        <v>545</v>
+        <v>549</v>
+      </c>
+      <c r="E141" t="s">
+        <v>637</v>
       </c>
       <c r="N141">
         <v>175</v>
@@ -8881,33 +8890,36 @@
         <v>100</v>
       </c>
       <c r="U141" t="s">
-        <v>648</v>
+        <v>548</v>
       </c>
       <c r="AA141" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AB141" t="s">
-        <v>653</v>
+        <v>654</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>637</v>
       </c>
       <c r="AE141">
         <v>4</v>
       </c>
       <c r="AF141" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AG141">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:33">
       <c r="A142">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C142" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="N142">
         <v>175</v>
@@ -8922,33 +8934,33 @@
         <v>100</v>
       </c>
       <c r="U142" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AA142" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AB142" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AE142">
         <v>4</v>
       </c>
       <c r="AF142" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AG142">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:33">
       <c r="A143">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B143" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C143" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="N143">
         <v>175</v>
@@ -8963,36 +8975,33 @@
         <v>100</v>
       </c>
       <c r="U143" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AA143" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AB143" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AE143">
         <v>4</v>
       </c>
       <c r="AF143" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AG143">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:33">
       <c r="A144">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C144" t="s">
-        <v>545</v>
-      </c>
-      <c r="M144" t="s">
-        <v>661</v>
+        <v>549</v>
       </c>
       <c r="N144">
         <v>175</v>
@@ -9007,7 +9016,7 @@
         <v>100</v>
       </c>
       <c r="U144" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AA144" t="s">
         <v>662</v>
@@ -9019,48 +9028,39 @@
         <v>4</v>
       </c>
       <c r="AF144" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AG144">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:33">
       <c r="A145">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B145" t="s">
         <v>664</v>
       </c>
       <c r="C145" t="s">
-        <v>545</v>
-      </c>
-      <c r="D145" t="s">
+        <v>549</v>
+      </c>
+      <c r="M145" t="s">
         <v>665</v>
       </c>
-      <c r="E145" t="s">
-        <v>617</v>
-      </c>
-      <c r="I145">
-        <v>125</v>
-      </c>
-      <c r="J145">
-        <v>25000</v>
-      </c>
       <c r="N145">
+        <v>175</v>
+      </c>
+      <c r="O145">
         <v>75</v>
       </c>
-      <c r="O145">
-        <v>10</v>
-      </c>
       <c r="P145">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q145">
         <v>100</v>
       </c>
-      <c r="T145">
-        <v>1</v>
+      <c r="U145" t="s">
+        <v>661</v>
       </c>
       <c r="AA145" t="s">
         <v>666</v>
@@ -9068,34 +9068,37 @@
       <c r="AB145" t="s">
         <v>667</v>
       </c>
-      <c r="AC145" t="s">
-        <v>665</v>
-      </c>
-      <c r="AD145" t="s">
-        <v>617</v>
-      </c>
       <c r="AE145">
         <v>4</v>
       </c>
+      <c r="AF145" t="s">
+        <v>549</v>
+      </c>
+      <c r="AG145">
+        <v>25</v>
+      </c>
     </row>
     <row r="146" spans="1:33">
       <c r="A146">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B146" t="s">
         <v>668</v>
       </c>
       <c r="C146" t="s">
-        <v>545</v>
-      </c>
-      <c r="H146" t="s">
+        <v>549</v>
+      </c>
+      <c r="D146" t="s">
         <v>669</v>
+      </c>
+      <c r="E146" t="s">
+        <v>621</v>
       </c>
       <c r="I146">
         <v>125</v>
       </c>
       <c r="J146">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="N146">
         <v>75</v>
@@ -9109,8 +9112,8 @@
       <c r="Q146">
         <v>100</v>
       </c>
-      <c r="U146" t="s">
-        <v>664</v>
+      <c r="T146">
+        <v>1</v>
       </c>
       <c r="AA146" t="s">
         <v>670</v>
@@ -9118,19 +9121,25 @@
       <c r="AB146" t="s">
         <v>671</v>
       </c>
+      <c r="AC146" t="s">
+        <v>669</v>
+      </c>
+      <c r="AD146" t="s">
+        <v>621</v>
+      </c>
       <c r="AE146">
         <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:33">
       <c r="A147">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" t="s">
         <v>672</v>
       </c>
       <c r="C147" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H147" t="s">
         <v>673</v>
@@ -9139,7 +9148,7 @@
         <v>125</v>
       </c>
       <c r="J147">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N147">
         <v>75</v>
@@ -9147,20 +9156,20 @@
       <c r="O147">
         <v>10</v>
       </c>
+      <c r="P147">
+        <v>200</v>
+      </c>
       <c r="Q147">
         <v>100</v>
       </c>
       <c r="U147" t="s">
         <v>668</v>
       </c>
-      <c r="V147" t="s">
+      <c r="AA147" t="s">
         <v>674</v>
       </c>
-      <c r="AA147" t="s">
+      <c r="AB147" t="s">
         <v>675</v>
-      </c>
-      <c r="AB147" t="s">
-        <v>676</v>
       </c>
       <c r="AE147">
         <v>4</v>
@@ -9168,25 +9177,28 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B148" t="s">
+        <v>676</v>
+      </c>
+      <c r="C148" t="s">
+        <v>549</v>
+      </c>
+      <c r="H148" t="s">
         <v>677</v>
-      </c>
-      <c r="C148" t="s">
-        <v>545</v>
-      </c>
-      <c r="H148" t="s">
-        <v>678</v>
       </c>
       <c r="I148">
         <v>125</v>
       </c>
       <c r="J148">
-        <v>2000</v>
-      </c>
-      <c r="P148">
-        <v>200</v>
+        <v>10000</v>
+      </c>
+      <c r="N148">
+        <v>75</v>
+      </c>
+      <c r="O148">
+        <v>10</v>
       </c>
       <c r="Q148">
         <v>100</v>
@@ -9194,22 +9206,28 @@
       <c r="U148" t="s">
         <v>672</v>
       </c>
+      <c r="V148" t="s">
+        <v>678</v>
+      </c>
       <c r="AA148" t="s">
         <v>679</v>
       </c>
       <c r="AB148" t="s">
         <v>680</v>
       </c>
+      <c r="AE148">
+        <v>4</v>
+      </c>
     </row>
     <row r="149" spans="1:33">
       <c r="A149">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B149" t="s">
         <v>681</v>
       </c>
       <c r="C149" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H149" t="s">
         <v>682</v>
@@ -9218,7 +9236,7 @@
         <v>125</v>
       </c>
       <c r="J149">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="P149">
         <v>200</v>
@@ -9227,7 +9245,7 @@
         <v>100</v>
       </c>
       <c r="U149" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AA149" t="s">
         <v>683</v>
@@ -9235,37 +9253,28 @@
       <c r="AB149" t="s">
         <v>684</v>
       </c>
-      <c r="AE149">
-        <v>4</v>
-      </c>
     </row>
     <row r="150" spans="1:33">
       <c r="A150">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B150" t="s">
         <v>685</v>
       </c>
       <c r="C150" t="s">
-        <v>435</v>
+        <v>549</v>
       </c>
       <c r="H150" t="s">
         <v>686</v>
       </c>
       <c r="I150">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J150">
-        <v>25000</v>
-      </c>
-      <c r="N150">
-        <v>25</v>
-      </c>
-      <c r="O150">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="P150">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q150">
         <v>100</v>
@@ -9285,31 +9294,37 @@
     </row>
     <row r="151" spans="1:33">
       <c r="A151">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B151" t="s">
         <v>689</v>
       </c>
       <c r="C151" t="s">
-        <v>545</v>
-      </c>
-      <c r="E151" t="s">
-        <v>685</v>
+        <v>439</v>
       </c>
       <c r="H151" t="s">
         <v>690</v>
       </c>
       <c r="I151">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J151">
-        <v>20000</v>
+        <v>25000</v>
+      </c>
+      <c r="N151">
+        <v>25</v>
+      </c>
+      <c r="O151">
+        <v>2</v>
+      </c>
+      <c r="P151">
+        <v>150</v>
       </c>
       <c r="Q151">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U151" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="AA151" t="s">
         <v>691</v>
@@ -9317,43 +9332,46 @@
       <c r="AB151" t="s">
         <v>692</v>
       </c>
-      <c r="AD151" t="s">
-        <v>685</v>
-      </c>
       <c r="AE151">
         <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:33">
       <c r="A152">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B152" t="s">
         <v>693</v>
       </c>
       <c r="C152" t="s">
-        <v>545</v>
+        <v>549</v>
+      </c>
+      <c r="E152" t="s">
+        <v>689</v>
+      </c>
+      <c r="H152" t="s">
+        <v>694</v>
       </c>
       <c r="I152">
         <v>125</v>
       </c>
       <c r="J152">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q152">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="U152" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>695</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>696</v>
+      </c>
+      <c r="AD152" t="s">
         <v>689</v>
-      </c>
-      <c r="Y152">
-        <v>2</v>
-      </c>
-      <c r="AA152" t="s">
-        <v>694</v>
-      </c>
-      <c r="AB152" t="s">
-        <v>695</v>
       </c>
       <c r="AE152">
         <v>4</v>
@@ -9361,75 +9379,60 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B153" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C153" t="s">
-        <v>697</v>
-      </c>
-      <c r="E153" t="s">
-        <v>386</v>
-      </c>
-      <c r="F153" t="s">
-        <v>367</v>
-      </c>
-      <c r="G153">
-        <v>10</v>
-      </c>
-      <c r="H153" t="s">
+        <v>549</v>
+      </c>
+      <c r="I153">
+        <v>125</v>
+      </c>
+      <c r="J153">
+        <v>30000</v>
+      </c>
+      <c r="Q153">
+        <v>500</v>
+      </c>
+      <c r="U153" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y153">
+        <v>2</v>
+      </c>
+      <c r="AA153" t="s">
         <v>698</v>
       </c>
-      <c r="N153">
-        <v>500000</v>
-      </c>
-      <c r="O153">
-        <v>500000</v>
-      </c>
-      <c r="P153">
-        <v>2000000000</v>
-      </c>
-      <c r="Q153">
-        <v>175000</v>
-      </c>
-      <c r="T153">
-        <v>1</v>
-      </c>
-      <c r="W153" t="s">
+      <c r="AB153" t="s">
         <v>699</v>
       </c>
-      <c r="X153">
-        <v>5</v>
-      </c>
-      <c r="AA153" t="s">
-        <v>700</v>
-      </c>
-      <c r="AB153" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD153" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF153" t="s">
-        <v>697</v>
-      </c>
-      <c r="AG153">
-        <v>5</v>
+      <c r="AE153">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:33">
       <c r="A154">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B154" t="s">
+        <v>700</v>
+      </c>
+      <c r="C154" t="s">
+        <v>701</v>
+      </c>
+      <c r="E154" t="s">
+        <v>390</v>
+      </c>
+      <c r="F154" t="s">
+        <v>371</v>
+      </c>
+      <c r="G154">
+        <v>10</v>
+      </c>
+      <c r="H154" t="s">
         <v>702</v>
-      </c>
-      <c r="C154" t="s">
-        <v>697</v>
-      </c>
-      <c r="H154" t="s">
-        <v>703</v>
       </c>
       <c r="N154">
         <v>500000</v>
@@ -9443,8 +9446,14 @@
       <c r="Q154">
         <v>175000</v>
       </c>
-      <c r="U154" t="s">
-        <v>696</v>
+      <c r="T154">
+        <v>1</v>
+      </c>
+      <c r="W154" t="s">
+        <v>703</v>
+      </c>
+      <c r="X154">
+        <v>5</v>
       </c>
       <c r="AA154" t="s">
         <v>704</v>
@@ -9452,25 +9461,28 @@
       <c r="AB154" t="s">
         <v>705</v>
       </c>
+      <c r="AD154" t="s">
+        <v>390</v>
+      </c>
       <c r="AF154" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="AG154">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:33">
       <c r="A155">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B155" t="s">
         <v>706</v>
       </c>
       <c r="C155" t="s">
+        <v>701</v>
+      </c>
+      <c r="H155" t="s">
         <v>707</v>
-      </c>
-      <c r="H155" t="s">
-        <v>708</v>
       </c>
       <c r="N155">
         <v>500000</v>
@@ -9485,30 +9497,30 @@
         <v>175000</v>
       </c>
       <c r="U155" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AA155" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB155" t="s">
         <v>709</v>
       </c>
-      <c r="AB155" t="s">
-        <v>710</v>
-      </c>
       <c r="AF155" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="AG155">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:33">
       <c r="A156">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B156" t="s">
+        <v>710</v>
+      </c>
+      <c r="C156" t="s">
         <v>711</v>
-      </c>
-      <c r="C156" t="s">
-        <v>707</v>
       </c>
       <c r="H156" t="s">
         <v>712</v>
@@ -9535,21 +9547,21 @@
         <v>714</v>
       </c>
       <c r="AF156" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="AG156">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:33">
       <c r="A157">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B157" t="s">
         <v>715</v>
       </c>
       <c r="C157" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="H157" t="s">
         <v>716</v>
@@ -9567,7 +9579,7 @@
         <v>175000</v>
       </c>
       <c r="U157" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AA157" t="s">
         <v>717</v>
@@ -9575,25 +9587,25 @@
       <c r="AB157" t="s">
         <v>718</v>
       </c>
+      <c r="AF157" t="s">
+        <v>711</v>
+      </c>
+      <c r="AG157">
+        <v>10</v>
+      </c>
     </row>
     <row r="158" spans="1:33">
       <c r="A158">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B158" t="s">
         <v>719</v>
       </c>
       <c r="C158" t="s">
+        <v>711</v>
+      </c>
+      <c r="H158" t="s">
         <v>720</v>
-      </c>
-      <c r="E158" t="s">
-        <v>715</v>
-      </c>
-      <c r="F158" t="s">
-        <v>702</v>
-      </c>
-      <c r="H158" t="s">
-        <v>721</v>
       </c>
       <c r="N158">
         <v>500000</v>
@@ -9608,33 +9620,30 @@
         <v>175000</v>
       </c>
       <c r="U158" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="AA158" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB158" t="s">
         <v>722</v>
-      </c>
-      <c r="AB158" t="s">
-        <v>723</v>
-      </c>
-      <c r="AD158" t="s">
-        <v>715</v>
-      </c>
-      <c r="AF158" t="s">
-        <v>720</v>
-      </c>
-      <c r="AG158">
-        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:33">
       <c r="A159">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B159" t="s">
+        <v>723</v>
+      </c>
+      <c r="C159" t="s">
         <v>724</v>
       </c>
-      <c r="C159" t="s">
-        <v>720</v>
+      <c r="E159" t="s">
+        <v>719</v>
+      </c>
+      <c r="F159" t="s">
+        <v>706</v>
       </c>
       <c r="H159" t="s">
         <v>725</v>
@@ -9652,7 +9661,7 @@
         <v>175000</v>
       </c>
       <c r="U159" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="AA159" t="s">
         <v>726</v>
@@ -9660,28 +9669,43 @@
       <c r="AB159" t="s">
         <v>727</v>
       </c>
+      <c r="AD159" t="s">
+        <v>719</v>
+      </c>
       <c r="AF159" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="AG159">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:33">
       <c r="A160">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
         <v>728</v>
       </c>
       <c r="C160" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="H160" t="s">
         <v>729</v>
       </c>
+      <c r="N160">
+        <v>500000</v>
+      </c>
+      <c r="O160">
+        <v>500000</v>
+      </c>
+      <c r="P160">
+        <v>2000000000</v>
+      </c>
+      <c r="Q160">
+        <v>175000</v>
+      </c>
       <c r="U160" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA160" t="s">
         <v>730</v>
@@ -9690,21 +9714,21 @@
         <v>731</v>
       </c>
       <c r="AF160" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="AG160">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:33">
       <c r="A161">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B161" t="s">
         <v>732</v>
       </c>
       <c r="C161" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H161" t="s">
         <v>733</v>
@@ -9719,37 +9743,25 @@
         <v>735</v>
       </c>
       <c r="AF161" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="AG161">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:33">
       <c r="A162">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B162" t="s">
         <v>736</v>
       </c>
       <c r="C162" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="H162" t="s">
         <v>737</v>
       </c>
-      <c r="N162">
-        <v>500000</v>
-      </c>
-      <c r="O162">
-        <v>500000</v>
-      </c>
-      <c r="P162">
-        <v>2000000000</v>
-      </c>
-      <c r="Q162">
-        <v>175000</v>
-      </c>
       <c r="U162" t="s">
         <v>732</v>
       </c>
@@ -9760,27 +9772,21 @@
         <v>739</v>
       </c>
       <c r="AF162" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="AG162">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:33">
       <c r="A163">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B163" t="s">
         <v>740</v>
       </c>
       <c r="C163" t="s">
-        <v>707</v>
-      </c>
-      <c r="E163" t="s">
-        <v>736</v>
-      </c>
-      <c r="F163" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="H163" t="s">
         <v>741</v>
@@ -9798,7 +9804,7 @@
         <v>175000</v>
       </c>
       <c r="U163" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="AA163" t="s">
         <v>742</v>
@@ -9806,31 +9812,31 @@
       <c r="AB163" t="s">
         <v>743</v>
       </c>
-      <c r="AD163" t="s">
-        <v>736</v>
-      </c>
       <c r="AF163" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="AG163">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:33">
       <c r="A164">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B164" t="s">
         <v>744</v>
       </c>
       <c r="C164" t="s">
+        <v>711</v>
+      </c>
+      <c r="E164" t="s">
+        <v>740</v>
+      </c>
+      <c r="F164" t="s">
+        <v>723</v>
+      </c>
+      <c r="H164" t="s">
         <v>745</v>
-      </c>
-      <c r="H164" t="s">
-        <v>746</v>
-      </c>
-      <c r="L164">
-        <v>150000</v>
       </c>
       <c r="N164">
         <v>500000</v>
@@ -9845,36 +9851,39 @@
         <v>175000</v>
       </c>
       <c r="U164" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD164" t="s">
         <v>740</v>
       </c>
-      <c r="AA164" t="s">
-        <v>747</v>
-      </c>
-      <c r="AB164" t="s">
-        <v>748</v>
-      </c>
       <c r="AF164" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="AG164">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:33">
       <c r="A165">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B165" t="s">
+        <v>748</v>
+      </c>
+      <c r="C165" t="s">
         <v>749</v>
-      </c>
-      <c r="C165" t="s">
-        <v>745</v>
       </c>
       <c r="H165" t="s">
         <v>750</v>
       </c>
       <c r="L165">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="N165">
         <v>500000</v>
@@ -9898,27 +9907,27 @@
         <v>752</v>
       </c>
       <c r="AF165" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="AG165">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:33">
       <c r="A166">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B166" t="s">
         <v>753</v>
       </c>
       <c r="C166" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H166" t="s">
         <v>754</v>
       </c>
       <c r="L166">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="N166">
         <v>500000</v>
@@ -9933,7 +9942,7 @@
         <v>175000</v>
       </c>
       <c r="U166" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AA166" t="s">
         <v>755</v>
@@ -9942,30 +9951,27 @@
         <v>756</v>
       </c>
       <c r="AF166" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="AG166">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:33">
       <c r="A167">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B167" t="s">
         <v>757</v>
       </c>
       <c r="C167" t="s">
-        <v>697</v>
-      </c>
-      <c r="G167">
-        <v>15</v>
+        <v>749</v>
       </c>
       <c r="H167" t="s">
         <v>758</v>
       </c>
-      <c r="M167" t="s">
-        <v>759</v>
+      <c r="L167">
+        <v>500000</v>
       </c>
       <c r="N167">
         <v>500000</v>
@@ -9983,65 +9989,68 @@
         <v>753</v>
       </c>
       <c r="AA167" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB167" t="s">
         <v>760</v>
       </c>
-      <c r="AB167" t="s">
-        <v>761</v>
+      <c r="AF167" t="s">
+        <v>749</v>
+      </c>
+      <c r="AG167">
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:33">
       <c r="A168">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B168" t="s">
+        <v>761</v>
+      </c>
+      <c r="C168" t="s">
+        <v>701</v>
+      </c>
+      <c r="G168">
+        <v>15</v>
+      </c>
+      <c r="H168" t="s">
         <v>762</v>
       </c>
-      <c r="C168" t="s">
+      <c r="M168" t="s">
         <v>763</v>
       </c>
       <c r="N168">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O168">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P168">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q168">
-        <v>250</v>
-      </c>
-      <c r="T168">
-        <v>1</v>
-      </c>
-      <c r="W168" t="s">
+        <v>175000</v>
+      </c>
+      <c r="U168" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA168" t="s">
         <v>764</v>
       </c>
-      <c r="X168">
-        <v>1</v>
-      </c>
-      <c r="AA168" t="s">
+      <c r="AB168" t="s">
         <v>765</v>
-      </c>
-      <c r="AB168" t="s">
-        <v>766</v>
-      </c>
-      <c r="AE168">
-        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:33">
       <c r="A169">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B169" t="s">
+        <v>766</v>
+      </c>
+      <c r="C169" t="s">
         <v>767</v>
-      </c>
-      <c r="C169" t="s">
-        <v>435</v>
-      </c>
-      <c r="H169" t="s">
-        <v>768</v>
       </c>
       <c r="N169">
         <v>1000</v>
@@ -10055,14 +10064,14 @@
       <c r="Q169">
         <v>250</v>
       </c>
-      <c r="U169" t="s">
-        <v>762</v>
+      <c r="T169">
+        <v>1</v>
       </c>
       <c r="W169" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="X169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA169" t="s">
         <v>769</v>
@@ -10076,13 +10085,13 @@
     </row>
     <row r="170" spans="1:33">
       <c r="A170">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B170" t="s">
         <v>771</v>
       </c>
       <c r="C170" t="s">
-        <v>763</v>
+        <v>439</v>
       </c>
       <c r="H170" t="s">
         <v>772</v>
@@ -10100,13 +10109,13 @@
         <v>250</v>
       </c>
       <c r="U170" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="W170" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="X170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA170" t="s">
         <v>773</v>
@@ -10120,16 +10129,16 @@
     </row>
     <row r="171" spans="1:33">
       <c r="A171">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B171" t="s">
         <v>775</v>
       </c>
       <c r="C171" t="s">
+        <v>767</v>
+      </c>
+      <c r="H171" t="s">
         <v>776</v>
-      </c>
-      <c r="H171" t="s">
-        <v>777</v>
       </c>
       <c r="N171">
         <v>1000</v>
@@ -10147,16 +10156,16 @@
         <v>771</v>
       </c>
       <c r="W171" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="X171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA171" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB171" t="s">
         <v>778</v>
-      </c>
-      <c r="AB171" t="s">
-        <v>779</v>
       </c>
       <c r="AE171">
         <v>8</v>
@@ -10164,13 +10173,13 @@
     </row>
     <row r="172" spans="1:33">
       <c r="A172">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B172" t="s">
+        <v>779</v>
+      </c>
+      <c r="C172" t="s">
         <v>780</v>
-      </c>
-      <c r="C172" t="s">
-        <v>776</v>
       </c>
       <c r="H172" t="s">
         <v>781</v>
@@ -10190,25 +10199,34 @@
       <c r="U172" t="s">
         <v>775</v>
       </c>
-      <c r="V172" t="s">
+      <c r="W172" t="s">
+        <v>768</v>
+      </c>
+      <c r="X172">
+        <v>4</v>
+      </c>
+      <c r="AA172" t="s">
         <v>782</v>
       </c>
-      <c r="AA172" t="s">
+      <c r="AB172" t="s">
         <v>783</v>
       </c>
-      <c r="AB172" t="s">
-        <v>784</v>
+      <c r="AE172">
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:33">
       <c r="A173">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B173" t="s">
+        <v>784</v>
+      </c>
+      <c r="C173" t="s">
+        <v>780</v>
+      </c>
+      <c r="H173" t="s">
         <v>785</v>
-      </c>
-      <c r="C173" t="s">
-        <v>435</v>
       </c>
       <c r="N173">
         <v>1000</v>
@@ -10223,51 +10241,30 @@
         <v>250</v>
       </c>
       <c r="U173" t="s">
-        <v>780</v>
-      </c>
-      <c r="W173" t="s">
-        <v>764</v>
-      </c>
-      <c r="X173">
-        <v>5</v>
+        <v>779</v>
+      </c>
+      <c r="V173" t="s">
+        <v>786</v>
       </c>
       <c r="AA173" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AB173" t="s">
-        <v>787</v>
-      </c>
-      <c r="AE173">
-        <v>8</v>
+        <v>788</v>
       </c>
     </row>
     <row r="174" spans="1:33">
       <c r="A174">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C174" t="s">
-        <v>789</v>
-      </c>
-      <c r="E174" t="s">
-        <v>785</v>
-      </c>
-      <c r="F174" t="s">
-        <v>762</v>
-      </c>
-      <c r="I174">
-        <v>100</v>
-      </c>
-      <c r="J174">
-        <v>100</v>
-      </c>
-      <c r="K174">
+        <v>439</v>
+      </c>
+      <c r="N174">
         <v>1000</v>
-      </c>
-      <c r="N174">
-        <v>100</v>
       </c>
       <c r="O174">
         <v>500</v>
@@ -10279,7 +10276,13 @@
         <v>250</v>
       </c>
       <c r="U174" t="s">
-        <v>762</v>
+        <v>784</v>
+      </c>
+      <c r="W174" t="s">
+        <v>768</v>
+      </c>
+      <c r="X174">
+        <v>5</v>
       </c>
       <c r="AA174" t="s">
         <v>790</v>
@@ -10287,28 +10290,25 @@
       <c r="AB174" t="s">
         <v>791</v>
       </c>
-      <c r="AD174" t="s">
-        <v>785</v>
-      </c>
       <c r="AE174">
         <v>8</v>
       </c>
-      <c r="AF174" t="s">
-        <v>789</v>
-      </c>
-      <c r="AG174">
-        <v>5</v>
-      </c>
     </row>
     <row r="175" spans="1:33">
       <c r="A175">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B175" t="s">
         <v>792</v>
       </c>
       <c r="C175" t="s">
+        <v>793</v>
+      </c>
+      <c r="E175" t="s">
         <v>789</v>
+      </c>
+      <c r="F175" t="s">
+        <v>766</v>
       </c>
       <c r="I175">
         <v>100</v>
@@ -10320,7 +10320,7 @@
         <v>1000</v>
       </c>
       <c r="N175">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O175">
         <v>500</v>
@@ -10332,33 +10332,45 @@
         <v>250</v>
       </c>
       <c r="U175" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="AA175" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AB175" t="s">
-        <v>794</v>
+        <v>795</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>789</v>
       </c>
       <c r="AE175">
         <v>8</v>
       </c>
       <c r="AF175" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="AG175">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:33">
       <c r="A176">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C176" t="s">
-        <v>763</v>
+        <v>793</v>
+      </c>
+      <c r="I176">
+        <v>100</v>
+      </c>
+      <c r="J176">
+        <v>100</v>
+      </c>
+      <c r="K176">
+        <v>1000</v>
       </c>
       <c r="N176">
         <v>1000</v>
@@ -10376,33 +10388,30 @@
         <v>792</v>
       </c>
       <c r="AA176" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AB176" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AE176">
         <v>8</v>
       </c>
       <c r="AF176" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="AG176">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:33">
       <c r="A177">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C177" t="s">
-        <v>799</v>
-      </c>
-      <c r="K177">
-        <v>5000</v>
+        <v>767</v>
       </c>
       <c r="N177">
         <v>1000</v>
@@ -10417,7 +10426,7 @@
         <v>250</v>
       </c>
       <c r="U177" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AA177" t="s">
         <v>800</v>
@@ -10429,7 +10438,7 @@
         <v>8</v>
       </c>
       <c r="AF177" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="AG177">
         <v>5</v>
@@ -10437,78 +10446,81 @@
     </row>
     <row r="178" spans="1:33">
       <c r="A178">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B178" t="s">
         <v>802</v>
       </c>
       <c r="C178" t="s">
-        <v>799</v>
-      </c>
-      <c r="I178">
-        <v>1000</v>
-      </c>
-      <c r="J178">
-        <v>1000</v>
+        <v>803</v>
       </c>
       <c r="K178">
         <v>5000</v>
       </c>
+      <c r="N178">
+        <v>1000</v>
+      </c>
+      <c r="O178">
+        <v>500</v>
+      </c>
+      <c r="P178">
+        <v>10000</v>
+      </c>
+      <c r="Q178">
+        <v>250</v>
+      </c>
       <c r="U178" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AA178" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AB178" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AE178">
         <v>8</v>
       </c>
       <c r="AF178" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="AG178">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:33">
       <c r="A179">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C179" t="s">
-        <v>763</v>
-      </c>
-      <c r="N179">
+        <v>803</v>
+      </c>
+      <c r="I179">
         <v>1000</v>
       </c>
-      <c r="O179">
-        <v>500</v>
-      </c>
-      <c r="P179">
-        <v>10000</v>
-      </c>
-      <c r="Q179">
-        <v>250</v>
+      <c r="J179">
+        <v>1000</v>
+      </c>
+      <c r="K179">
+        <v>5000</v>
       </c>
       <c r="U179" t="s">
         <v>802</v>
       </c>
       <c r="AA179" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AB179" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AE179">
         <v>8</v>
       </c>
       <c r="AF179" t="s">
-        <v>763</v>
+        <v>803</v>
       </c>
       <c r="AG179">
         <v>10</v>
@@ -10516,19 +10528,13 @@
     </row>
     <row r="180" spans="1:33">
       <c r="A180">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C180" t="s">
-        <v>789</v>
-      </c>
-      <c r="E180" t="s">
-        <v>805</v>
-      </c>
-      <c r="F180" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="N180">
         <v>1000</v>
@@ -10543,36 +10549,39 @@
         <v>250</v>
       </c>
       <c r="U180" t="s">
-        <v>762</v>
+        <v>806</v>
       </c>
       <c r="AA180" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AB180" t="s">
-        <v>810</v>
-      </c>
-      <c r="AD180" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="AE180">
         <v>8</v>
       </c>
       <c r="AF180" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="AG180">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:33">
       <c r="A181">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C181" t="s">
-        <v>776</v>
+        <v>793</v>
+      </c>
+      <c r="E181" t="s">
+        <v>809</v>
+      </c>
+      <c r="F181" t="s">
+        <v>792</v>
       </c>
       <c r="N181">
         <v>1000</v>
@@ -10587,33 +10596,36 @@
         <v>250</v>
       </c>
       <c r="U181" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="AA181" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AB181" t="s">
-        <v>813</v>
+        <v>814</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>809</v>
       </c>
       <c r="AE181">
         <v>8</v>
       </c>
       <c r="AF181" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="AG181">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:33">
       <c r="A182">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C182" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="N182">
         <v>1000</v>
@@ -10628,19 +10640,19 @@
         <v>250</v>
       </c>
       <c r="U182" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AA182" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AB182" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AE182">
         <v>8</v>
       </c>
       <c r="AF182" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="AG182">
         <v>10</v>
@@ -10648,13 +10660,13 @@
     </row>
     <row r="183" spans="1:33">
       <c r="A183">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C183" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="N183">
         <v>1000</v>
@@ -10669,72 +10681,48 @@
         <v>250</v>
       </c>
       <c r="U183" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AA183" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AB183" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AE183">
         <v>8</v>
       </c>
       <c r="AF183" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="AG183">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:33">
       <c r="A184">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C184" t="s">
-        <v>821</v>
-      </c>
-      <c r="E184" t="s">
-        <v>817</v>
-      </c>
-      <c r="F184" t="s">
-        <v>808</v>
-      </c>
-      <c r="G184">
-        <v>20</v>
-      </c>
-      <c r="H184" t="s">
-        <v>388</v>
-      </c>
-      <c r="I184">
-        <v>550000</v>
-      </c>
-      <c r="J184">
-        <v>550000</v>
-      </c>
-      <c r="K184">
-        <v>150000000000</v>
-      </c>
-      <c r="L184">
-        <v>700000</v>
+        <v>767</v>
       </c>
       <c r="N184">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O184">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P184">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q184">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U184" t="s">
-        <v>762</v>
+        <v>818</v>
       </c>
       <c r="AA184" t="s">
         <v>822</v>
@@ -10742,22 +10730,19 @@
       <c r="AB184" t="s">
         <v>823</v>
       </c>
-      <c r="AD184" t="s">
-        <v>817</v>
-      </c>
       <c r="AE184">
         <v>8</v>
       </c>
       <c r="AF184" t="s">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="AG184">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="1:33">
       <c r="A185">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B185" t="s">
         <v>824</v>
@@ -10765,8 +10750,29 @@
       <c r="C185" t="s">
         <v>825</v>
       </c>
+      <c r="E185" t="s">
+        <v>821</v>
+      </c>
+      <c r="F185" t="s">
+        <v>812</v>
+      </c>
+      <c r="G185">
+        <v>20</v>
+      </c>
+      <c r="H185" t="s">
+        <v>392</v>
+      </c>
+      <c r="I185">
+        <v>550000</v>
+      </c>
+      <c r="J185">
+        <v>550000</v>
+      </c>
+      <c r="K185">
+        <v>150000000000</v>
+      </c>
       <c r="L185">
-        <v>150000</v>
+        <v>700000</v>
       </c>
       <c r="N185">
         <v>500000</v>
@@ -10781,13 +10787,7 @@
         <v>175000</v>
       </c>
       <c r="U185" t="s">
-        <v>820</v>
-      </c>
-      <c r="W185" t="s">
-        <v>699</v>
-      </c>
-      <c r="X185">
-        <v>5</v>
+        <v>766</v>
       </c>
       <c r="AA185" t="s">
         <v>826</v>
@@ -10795,6 +10795,9 @@
       <c r="AB185" t="s">
         <v>827</v>
       </c>
+      <c r="AD185" t="s">
+        <v>821</v>
+      </c>
       <c r="AE185">
         <v>8</v>
       </c>
@@ -10807,13 +10810,16 @@
     </row>
     <row r="186" spans="1:33">
       <c r="A186">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B186" t="s">
         <v>828</v>
       </c>
       <c r="C186" t="s">
-        <v>825</v>
+        <v>829</v>
+      </c>
+      <c r="L186">
+        <v>150000</v>
       </c>
       <c r="N186">
         <v>500000</v>
@@ -10830,31 +10836,37 @@
       <c r="U186" t="s">
         <v>824</v>
       </c>
+      <c r="W186" t="s">
+        <v>703</v>
+      </c>
+      <c r="X186">
+        <v>5</v>
+      </c>
       <c r="AA186" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AB186" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AE186">
         <v>8</v>
       </c>
       <c r="AF186" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="AG186">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:33">
       <c r="A187">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C187" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="N187">
         <v>500000</v>
@@ -10872,54 +10884,45 @@
         <v>828</v>
       </c>
       <c r="AA187" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AB187" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AE187">
         <v>8</v>
       </c>
       <c r="AF187" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="AG187">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:33">
       <c r="A188">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C188" t="s">
-        <v>821</v>
-      </c>
-      <c r="D188" t="s">
-        <v>835</v>
-      </c>
-      <c r="E188" t="s">
-        <v>817</v>
-      </c>
-      <c r="F188" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="N188">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O188">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P188">
-        <v>150000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q188">
-        <v>750</v>
-      </c>
-      <c r="T188">
-        <v>1</v>
+        <v>175000</v>
+      </c>
+      <c r="U188" t="s">
+        <v>832</v>
       </c>
       <c r="AA188" t="s">
         <v>836</v>
@@ -10927,25 +10930,19 @@
       <c r="AB188" t="s">
         <v>837</v>
       </c>
-      <c r="AC188" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD188" t="s">
-        <v>817</v>
-      </c>
       <c r="AE188">
         <v>8</v>
       </c>
       <c r="AF188" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="AG188">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:33">
       <c r="A189">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B189" t="s">
         <v>838</v>
@@ -10954,7 +10951,13 @@
         <v>825</v>
       </c>
       <c r="D189" t="s">
-        <v>835</v>
+        <v>839</v>
+      </c>
+      <c r="E189" t="s">
+        <v>821</v>
+      </c>
+      <c r="F189" t="s">
+        <v>812</v>
       </c>
       <c r="N189">
         <v>50000</v>
@@ -10963,22 +10966,25 @@
         <v>50000</v>
       </c>
       <c r="P189">
-        <v>1500000000</v>
+        <v>150000000000</v>
       </c>
       <c r="Q189">
         <v>750</v>
       </c>
-      <c r="U189" t="s">
-        <v>834</v>
+      <c r="T189">
+        <v>1</v>
       </c>
       <c r="AA189" t="s">
+        <v>840</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>841</v>
+      </c>
+      <c r="AC189" t="s">
         <v>839</v>
       </c>
-      <c r="AB189" t="s">
-        <v>840</v>
-      </c>
-      <c r="AC189" t="s">
-        <v>835</v>
+      <c r="AD189" t="s">
+        <v>821</v>
       </c>
       <c r="AE189">
         <v>8</v>
@@ -10987,21 +10993,21 @@
         <v>825</v>
       </c>
       <c r="AG189">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:33">
       <c r="A190">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C190" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="D190" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="N190">
         <v>50000</v>
@@ -11019,36 +11025,36 @@
         <v>838</v>
       </c>
       <c r="AA190" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AB190" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AC190" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="AE190">
         <v>8</v>
       </c>
       <c r="AF190" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="AG190">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:33">
       <c r="A191">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B191" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C191" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D191" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="N191">
         <v>50000</v>
@@ -11063,39 +11069,39 @@
         <v>750</v>
       </c>
       <c r="U191" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AA191" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AB191" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AC191" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="AE191">
         <v>8</v>
       </c>
       <c r="AF191" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="AG191">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:33">
       <c r="A192">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B192" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C192" t="s">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="D192" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="N192">
         <v>50000</v>
@@ -11110,116 +11116,101 @@
         <v>750</v>
       </c>
       <c r="U192" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AA192" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AB192" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AC192" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="AE192">
         <v>8</v>
       </c>
       <c r="AF192" t="s">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="AG192">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:33">
       <c r="A193">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C193" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D193" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="N193">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="O193">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="P193">
         <v>1500000000</v>
       </c>
       <c r="Q193">
-        <v>75000</v>
+        <v>750</v>
       </c>
       <c r="U193" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AA193" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AB193" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AC193" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="AE193">
         <v>8</v>
       </c>
       <c r="AF193" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="AG193">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:33">
       <c r="A194">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B194" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C194" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="D194" t="s">
-        <v>835</v>
-      </c>
-      <c r="E194" t="s">
-        <v>757</v>
-      </c>
-      <c r="F194" t="s">
-        <v>740</v>
-      </c>
-      <c r="G194">
-        <v>25</v>
-      </c>
-      <c r="H194" t="s">
-        <v>854</v>
-      </c>
-      <c r="K194">
-        <v>2000000000</v>
+        <v>839</v>
       </c>
       <c r="N194">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="O194">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="P194">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q194">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="U194" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="AA194" t="s">
         <v>855</v>
@@ -11228,16 +11219,13 @@
         <v>856</v>
       </c>
       <c r="AC194" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD194" t="s">
-        <v>757</v>
+        <v>839</v>
       </c>
       <c r="AE194">
         <v>8</v>
       </c>
       <c r="AF194" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="AG194">
         <v>20</v>
@@ -11245,26 +11233,32 @@
     </row>
     <row r="195" spans="1:33">
       <c r="A195">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B195" t="s">
         <v>857</v>
       </c>
       <c r="C195" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D195" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="E195" t="s">
-        <v>850</v>
+        <v>761</v>
       </c>
       <c r="F195" t="s">
-        <v>834</v>
+        <v>744</v>
+      </c>
+      <c r="G195">
+        <v>25</v>
       </c>
       <c r="H195" t="s">
         <v>858</v>
       </c>
+      <c r="K195">
+        <v>2000000000</v>
+      </c>
       <c r="N195">
         <v>1000000</v>
       </c>
@@ -11278,7 +11272,7 @@
         <v>200000</v>
       </c>
       <c r="U195" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="AA195" t="s">
         <v>859</v>
@@ -11287,33 +11281,39 @@
         <v>860</v>
       </c>
       <c r="AC195" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="AD195" t="s">
-        <v>850</v>
+        <v>761</v>
       </c>
       <c r="AE195">
         <v>8</v>
       </c>
       <c r="AF195" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="AG195">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:33">
       <c r="A196">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B196" t="s">
         <v>861</v>
       </c>
       <c r="C196" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D196" t="s">
-        <v>835</v>
+        <v>839</v>
+      </c>
+      <c r="E196" t="s">
+        <v>854</v>
+      </c>
+      <c r="F196" t="s">
+        <v>838</v>
       </c>
       <c r="H196" t="s">
         <v>862</v>
@@ -11328,7 +11328,7 @@
         <v>2000000000</v>
       </c>
       <c r="Q196">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="U196" t="s">
         <v>857</v>
@@ -11340,46 +11340,37 @@
         <v>864</v>
       </c>
       <c r="AC196" t="s">
-        <v>835</v>
+        <v>839</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>854</v>
       </c>
       <c r="AE196">
         <v>8</v>
       </c>
       <c r="AF196" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="AG196">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:33">
       <c r="A197">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B197" t="s">
         <v>865</v>
       </c>
       <c r="C197" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="D197" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="H197" t="s">
         <v>866</v>
       </c>
-      <c r="I197">
-        <v>20000</v>
-      </c>
-      <c r="J197">
-        <v>30000</v>
-      </c>
-      <c r="K197">
-        <v>150000000000</v>
-      </c>
-      <c r="L197">
-        <v>700000</v>
-      </c>
       <c r="N197">
         <v>1000000</v>
       </c>
@@ -11390,14 +11381,11 @@
         <v>2000000000</v>
       </c>
       <c r="Q197">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="U197" t="s">
         <v>861</v>
       </c>
-      <c r="Y197">
-        <v>3</v>
-      </c>
       <c r="AA197" t="s">
         <v>867</v>
       </c>
@@ -11405,15 +11393,80 @@
         <v>868</v>
       </c>
       <c r="AC197" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="AE197">
         <v>8</v>
       </c>
       <c r="AF197" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="AG197">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33">
+      <c r="A198">
+        <v>193</v>
+      </c>
+      <c r="B198" t="s">
+        <v>869</v>
+      </c>
+      <c r="C198" t="s">
+        <v>767</v>
+      </c>
+      <c r="D198" t="s">
+        <v>839</v>
+      </c>
+      <c r="H198" t="s">
+        <v>870</v>
+      </c>
+      <c r="I198">
+        <v>20000</v>
+      </c>
+      <c r="J198">
+        <v>30000</v>
+      </c>
+      <c r="K198">
+        <v>150000000000</v>
+      </c>
+      <c r="L198">
+        <v>700000</v>
+      </c>
+      <c r="N198">
+        <v>1000000</v>
+      </c>
+      <c r="O198">
+        <v>1000000</v>
+      </c>
+      <c r="P198">
+        <v>2000000000</v>
+      </c>
+      <c r="Q198">
+        <v>200000</v>
+      </c>
+      <c r="U198" t="s">
+        <v>865</v>
+      </c>
+      <c r="Y198">
+        <v>3</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>871</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>872</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>839</v>
+      </c>
+      <c r="AE198">
+        <v>8</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>767</v>
+      </c>
+      <c r="AG198">
         <v>25</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="890">
   <si>
     <t>id</t>
   </si>
@@ -1518,6 +1518,57 @@
   </si>
   <si>
     <t>You wait in anticipation for the arrival of the Child of Shade. As he materializes before you, you express your urgency in reaching Fliniguss's home.&lt;br /&gt; &lt;br /&gt; "You'll never penetrate his abode, for it lies beyond doors even The Creator tightly secures, fearful of the nightmarish delusions that lurk within—nameless horrors," the child responds ominously. "However, you may &lt;br /&gt; access a land torn by war, ruled by a bishop enforcing religious persecution upon dissenters."&lt;br /&gt; &lt;br /&gt; Puzzled, you wonder about the significance of Fliniguss in such a place.&lt;br /&gt; &lt;br /&gt; "Too many inquiries," the child remarks cryptically. "But I can disclose this much—the bishop dwells within his own distorted recollections of the war, ensnared by his convictions."&lt;br /&gt; &lt;br /&gt; In a sudden impulse, you blurt out a question: "Is there a God? A true god?"&lt;br /&gt; &lt;br /&gt; "To him, yes. To some, perhaps. The Accountant may hold the answers," the child suggests enigmatically.&lt;br /&gt; &lt;br /&gt; With a sense of foreboding, you realize the journey ahead may lead to a place akin to hell.</t>
+  </si>
+  <si>
+    <t>The Curse of the Shiny</t>
+  </si>
+  <si>
+    <t>Glinting Gem of The Deep</t>
+  </si>
+  <si>
+    <t>You search through the library of Smugglers Port, only to find no clues to any sets of brothers in a land created by The Creator him self. You seek out The Poet, alas his home lies empty, the shelves that once housed the books and journals – are empty and dust covered.&lt;br /&gt; &lt;br /&gt; Death hangs in the air, a silent and desperate darkness creeps its way into your mind.&lt;br /&gt; &lt;br /&gt; Not knowing what to do you seek out the Helpless Goblin, perhaps there is more he can tell you.</t>
+  </si>
+  <si>
+    <t>You find the goblin in a clearing, alone. His father is not in sight. You approach with a gift you have hunted from a fiend. A shiny gem.&lt;br /&gt; &lt;br /&gt; The glint of it, catches his eye and you hold it up. He comes bounding across the clearing with a smile upon his face.&lt;br /&gt; &lt;br /&gt; “Friend!” He calls out.&lt;br /&gt; &lt;br /&gt; “I see you have a shiny treasure there, where ever did you find it?”&lt;br /&gt; &lt;br /&gt; You explain, as he comes walking closer and takes the gem from your out stretched hand, that you slaughtered a foul beast in the depths of a dungeon for it. You slaughtered the beast to gain a treasure you knew he would like.&lt;br /&gt; &lt;br /&gt; The goblin looks up at you.&lt;br /&gt; &lt;br /&gt; “You want to know about the curse? I can tell you about the shiny curse!”</t>
+  </si>
+  <si>
+    <t>The Long Night and The Wild Hunt</t>
+  </si>
+  <si>
+    <t>Goblins Hankerchief</t>
+  </si>
+  <si>
+    <t>“I know what my father knows.” The goblin continues, studying the gem. “I know there was a hunt, a hunt for a legendary shiny item, one beyond comprehension – it is said to defy time and space it’s self.”&lt;br /&gt; &lt;br /&gt; He pauses and puts the gem in his pocket.&lt;br /&gt; &lt;br /&gt; “Father told me of a story where The Child after escaping Purgatory managed to create a key, a key for his friend – the voices in his head – made real by his own delusional memories of a time that never came to pass.”&lt;br /&gt; &lt;br /&gt; The goblin pauses and looks down at his feet.&lt;br /&gt; &lt;br /&gt; “I know the rest, but the rest is scary.”&lt;br /&gt; &lt;br /&gt; He looks up at you with sadness in his eyes.&lt;br /&gt; &lt;br /&gt; “He is a lonely and broken man – The Child.”&lt;br /&gt; &lt;br /&gt; The Goblin tears up.</t>
+  </si>
+  <si>
+    <t>You ask him why he cries.&lt;br /&gt; &lt;br /&gt; “The Child is said to have hallucinated the existence of these two brothers, so much so that his own thoughts created them to be real. It is said he locked them away to keep them safe from The Poet and others, others who locked away his love.”&lt;br /&gt; &lt;br /&gt; Hi love, others. Sounds familiar. You press on.&lt;br /&gt; &lt;br /&gt; “The Shadows of time, they would know more. I think that's what my dad said. Lost to the shadows of time.”&lt;br /&gt; &lt;br /&gt; The Shadows of time?</t>
+  </si>
+  <si>
+    <t>Shadow of Pain</t>
+  </si>
+  <si>
+    <t>Pags Journal</t>
+  </si>
+  <si>
+    <t>Key to the Stronghold</t>
+  </si>
+  <si>
+    <t>You travel through the only place you know that is covered in the shadows of yesterday, The Shadow Plane.&lt;br /&gt; &lt;br /&gt; You see the shadows dance, hear their whispers. You know the Shade Lord is close by. A man in the cloaks of another time stands before you. Your own eyes do not deceive you, but your mind might be playing tricks.&lt;br /&gt; &lt;br /&gt; “See.” Is all the man states as he vanishes into the air.&lt;br /&gt; &lt;br /&gt; See what?</t>
+  </si>
+  <si>
+    <t>You hunted through the Wrecked Ship and found an old journal penned by a name unknown to you. Pags.&lt;br /&gt; &lt;br /&gt; You read the pages of the journal:&lt;br /&gt; &lt;br /&gt; “I search for that which alludes my own mind. Substance I cannot find, yet I long for. Where did he go? I have escaped the prison of his own making, alas I die alone on a sinking ship.”&lt;br /&gt; &lt;br /&gt; This must have been one of the brothers.&lt;br /&gt; &lt;br /&gt; You look up and see the Shade Lord standing before you, a cloak of shadows and a whisper of yesterday.&lt;br /&gt; &lt;br /&gt; He holds out his hand, that of a young man, you take it and the smoke and shadows dissipate, leaving a man before you. A young man.&lt;br /&gt; &lt;br /&gt; There is blood from his head, his eyes are dark.&lt;br /&gt; &lt;br /&gt; He holds on tightly.&lt;br /&gt; &lt;br /&gt; “You seek what you cannot understand. Alas one lives on in my memories child. You play games, you seek answers, you hunt things. You know nothing of the puppet masters. This … All of this, was a construct of death.”&lt;br /&gt; &lt;br /&gt; The man disappears and the shade lord returns. He stands before you. Whispering of times past.</t>
+  </si>
+  <si>
+    <t>Facing The Lords</t>
+  </si>
+  <si>
+    <t>Krogs Journal</t>
+  </si>
+  <si>
+    <t>You stand before the Shade Lord, both of you stand in silence. You ask him if that was a manifestation or if the The Creator actually reached out.&lt;br /&gt; &lt;br /&gt; “Corrupted memories play out and dance before The Lords.”&lt;br /&gt; &lt;br /&gt; The Lords?&lt;br /&gt; &lt;br /&gt; “The Lord of Land, The Lord of Time and The Lord of Chaos.” He pauses.&lt;br /&gt; &lt;br /&gt; “The Corrupted memories play out and dance before The Lords”&lt;br /&gt; &lt;br /&gt; You ask him where you find these lords.&lt;br /&gt; &lt;br /&gt; “In a place before you, in a land around you. Seek out the Lords Strong Hold. For only The Lord of Chaos holds the truth.”&lt;br /&gt; &lt;br /&gt; A hunting you shall go!</t>
+  </si>
+  <si>
+    <t>You hold before you a book, another journal. Written by a different man: Krogs.&lt;br /&gt; &lt;br /&gt; “My brother wails about the shadows haunting his mind. He calls out for the Shiny objects and the man who vanished into the sun set. He wails for his friend. His existence is questioned by his own twisted thoughts. I cannot save him from this curse. I cannot save my own brother.”&lt;br /&gt; &lt;br /&gt; You flip a couple pages and find another entry:&lt;br /&gt; &lt;br /&gt; “My brother has gone. Beyond the sunset, to another land. Did he die? I do not know, but alas not by my hands if true. Did he seek out The Creator? I do not know that either. I know he went to follow his heart. Will he be back? Time will tell. For I have a kingdom to run.”&lt;br /&gt; &lt;br /&gt; One afflicted by the shiny curse and the other, responsible brother, runs the realm given to him.</t>
   </si>
   <si>
     <t>Pirates and Merchants</t>
@@ -2973,7 +3024,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG198"/>
+  <dimension ref="A1:AG202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2985,7 +3036,7 @@
     <col min="2" max="2" width="44.703" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="42.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="43.561" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="30.564" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="48.274" bestFit="true" customWidth="true" style="0"/>
@@ -3010,7 +3061,7 @@
     <col min="27" max="27" width="2556.376" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="2944.424" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="42.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="43.561" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="23.423" bestFit="true" customWidth="true" style="0"/>
@@ -7351,268 +7402,283 @@
     </row>
     <row r="105" spans="1:33">
       <c r="A105">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s">
         <v>501</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
-      </c>
-      <c r="D105" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" t="s">
+        <v>321</v>
+      </c>
+      <c r="F105" t="s">
+        <v>309</v>
+      </c>
+      <c r="H105" t="s">
         <v>502</v>
       </c>
-      <c r="H105" t="s">
+      <c r="N105">
+        <v>10000</v>
+      </c>
+      <c r="O105">
+        <v>1000</v>
+      </c>
+      <c r="P105">
+        <v>1000000</v>
+      </c>
+      <c r="Q105">
+        <v>75</v>
+      </c>
+      <c r="U105" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA105" t="s">
         <v>503</v>
       </c>
-      <c r="P105">
-        <v>150</v>
-      </c>
-      <c r="Q105">
-        <v>1000</v>
-      </c>
-      <c r="T105">
-        <v>1</v>
-      </c>
-      <c r="AA105" t="s">
+      <c r="AB105" t="s">
         <v>504</v>
       </c>
-      <c r="AB105" t="s">
-        <v>505</v>
-      </c>
-      <c r="AC105" t="s">
-        <v>502</v>
+      <c r="AD105" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG105">
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:33">
       <c r="A106">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
+        <v>505</v>
+      </c>
+      <c r="C106" t="s">
+        <v>176</v>
+      </c>
+      <c r="H106" t="s">
         <v>506</v>
       </c>
-      <c r="C106" t="s">
-        <v>439</v>
-      </c>
-      <c r="D106" t="s">
-        <v>502</v>
-      </c>
-      <c r="H106" t="s">
-        <v>507</v>
-      </c>
-      <c r="M106" t="s">
-        <v>508</v>
+      <c r="N106">
+        <v>10000</v>
+      </c>
+      <c r="O106">
+        <v>1000</v>
       </c>
       <c r="P106">
+        <v>1000000</v>
+      </c>
+      <c r="Q106">
         <v>150</v>
-      </c>
-      <c r="Q106">
-        <v>1000</v>
       </c>
       <c r="U106" t="s">
         <v>501</v>
       </c>
       <c r="AA106" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AB106" t="s">
-        <v>510</v>
-      </c>
-      <c r="AC106" t="s">
-        <v>502</v>
+        <v>508</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG106">
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:33">
       <c r="A107">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
+        <v>509</v>
+      </c>
+      <c r="C107" t="s">
+        <v>83</v>
+      </c>
+      <c r="H107" t="s">
+        <v>510</v>
+      </c>
+      <c r="M107" t="s">
         <v>511</v>
       </c>
-      <c r="C107" t="s">
+      <c r="N107">
+        <v>10000</v>
+      </c>
+      <c r="O107">
+        <v>1000</v>
+      </c>
+      <c r="P107">
+        <v>1000000</v>
+      </c>
+      <c r="Q107">
+        <v>200</v>
+      </c>
+      <c r="U107" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA107" t="s">
         <v>512</v>
       </c>
-      <c r="D107" t="s">
-        <v>502</v>
-      </c>
-      <c r="H107" t="s">
-        <v>508</v>
-      </c>
-      <c r="M107" t="s">
+      <c r="AB107" t="s">
         <v>513</v>
       </c>
-      <c r="P107">
-        <v>250</v>
-      </c>
-      <c r="Q107">
-        <v>1000</v>
-      </c>
-      <c r="U107" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>514</v>
-      </c>
-      <c r="AB107" t="s">
-        <v>515</v>
-      </c>
-      <c r="AC107" t="s">
-        <v>502</v>
+      <c r="AF107" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG107">
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:33">
       <c r="A108">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
+        <v>514</v>
+      </c>
+      <c r="C108" t="s">
+        <v>83</v>
+      </c>
+      <c r="H108" t="s">
+        <v>515</v>
+      </c>
+      <c r="N108">
+        <v>20000</v>
+      </c>
+      <c r="O108">
+        <v>2000</v>
+      </c>
+      <c r="P108">
+        <v>2000000</v>
+      </c>
+      <c r="Q108">
+        <v>300</v>
+      </c>
+      <c r="U108" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y108">
+        <v>4</v>
+      </c>
+      <c r="AA108" t="s">
         <v>516</v>
       </c>
-      <c r="C108" t="s">
-        <v>103</v>
-      </c>
-      <c r="D108" t="s">
-        <v>502</v>
-      </c>
-      <c r="H108" t="s">
-        <v>513</v>
-      </c>
-      <c r="I108">
-        <v>100</v>
-      </c>
-      <c r="P108">
-        <v>150</v>
-      </c>
-      <c r="Q108">
-        <v>1500</v>
-      </c>
-      <c r="U108" t="s">
-        <v>511</v>
-      </c>
-      <c r="V108" t="s">
+      <c r="AB108" t="s">
         <v>517</v>
       </c>
-      <c r="AA108" t="s">
-        <v>518</v>
-      </c>
-      <c r="AB108" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>502</v>
+      <c r="AF108" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG108">
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:33">
       <c r="A109">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
+        <v>518</v>
+      </c>
+      <c r="C109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" t="s">
+        <v>519</v>
+      </c>
+      <c r="H109" t="s">
         <v>520</v>
       </c>
-      <c r="C109" t="s">
-        <v>340</v>
-      </c>
-      <c r="D109" t="s">
-        <v>502</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="P109">
+        <v>150</v>
+      </c>
+      <c r="Q109">
+        <v>1000</v>
+      </c>
+      <c r="T109">
+        <v>1</v>
+      </c>
+      <c r="AA109" t="s">
         <v>521</v>
       </c>
-      <c r="P109">
-        <v>10000</v>
-      </c>
-      <c r="Q109">
-        <v>1500</v>
-      </c>
-      <c r="U109" t="s">
-        <v>516</v>
-      </c>
-      <c r="V109" t="s">
+      <c r="AB109" t="s">
         <v>522</v>
       </c>
-      <c r="AA109" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB109" t="s">
-        <v>524</v>
-      </c>
       <c r="AC109" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="110" spans="1:33">
       <c r="A110">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
+        <v>523</v>
+      </c>
+      <c r="C110" t="s">
+        <v>439</v>
+      </c>
+      <c r="D110" t="s">
+        <v>519</v>
+      </c>
+      <c r="H110" t="s">
+        <v>524</v>
+      </c>
+      <c r="M110" t="s">
         <v>525</v>
       </c>
-      <c r="C110" t="s">
-        <v>340</v>
-      </c>
-      <c r="D110" t="s">
-        <v>502</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="P110">
+        <v>150</v>
+      </c>
+      <c r="Q110">
+        <v>1000</v>
+      </c>
+      <c r="U110" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA110" t="s">
         <v>526</v>
       </c>
-      <c r="I110">
-        <v>25000</v>
-      </c>
-      <c r="M110" t="s">
+      <c r="AB110" t="s">
         <v>527</v>
       </c>
-      <c r="P110">
-        <v>10000</v>
-      </c>
-      <c r="Q110">
-        <v>1600</v>
-      </c>
-      <c r="U110" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>528</v>
-      </c>
-      <c r="AB110" t="s">
-        <v>529</v>
-      </c>
       <c r="AC110" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="111" spans="1:33">
       <c r="A111">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
+        <v>528</v>
+      </c>
+      <c r="C111" t="s">
+        <v>529</v>
+      </c>
+      <c r="D111" t="s">
+        <v>519</v>
+      </c>
+      <c r="H111" t="s">
+        <v>525</v>
+      </c>
+      <c r="M111" t="s">
         <v>530</v>
       </c>
-      <c r="C111" t="s">
-        <v>103</v>
-      </c>
-      <c r="D111" t="s">
-        <v>502</v>
-      </c>
-      <c r="H111" t="s">
-        <v>527</v>
-      </c>
-      <c r="I111">
-        <v>100</v>
-      </c>
-      <c r="N111">
-        <v>25</v>
-      </c>
-      <c r="O111">
-        <v>2</v>
-      </c>
       <c r="P111">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q111">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="U111" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA111" t="s">
         <v>531</v>
@@ -7621,203 +7687,206 @@
         <v>532</v>
       </c>
       <c r="AC111" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="112" spans="1:33">
       <c r="A112">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B112" t="s">
         <v>533</v>
       </c>
       <c r="C112" t="s">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>502</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
+        <v>519</v>
+      </c>
+      <c r="H112" t="s">
+        <v>530</v>
       </c>
       <c r="I112">
         <v>100</v>
       </c>
-      <c r="J112">
-        <v>20000</v>
-      </c>
-      <c r="L112">
-        <v>10000</v>
-      </c>
       <c r="P112">
         <v>150</v>
       </c>
       <c r="Q112">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="U112" t="s">
-        <v>501</v>
+        <v>528</v>
+      </c>
+      <c r="V112" t="s">
+        <v>534</v>
       </c>
       <c r="AA112" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AB112" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AC112" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" spans="1:33">
       <c r="A113">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="D113" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="H113" t="s">
-        <v>537</v>
-      </c>
-      <c r="I113">
-        <v>500</v>
-      </c>
-      <c r="J113">
-        <v>15000</v>
-      </c>
-      <c r="L113">
-        <v>15000</v>
+        <v>538</v>
       </c>
       <c r="P113">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="Q113">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="U113" t="s">
         <v>533</v>
       </c>
+      <c r="V113" t="s">
+        <v>539</v>
+      </c>
       <c r="AA113" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AB113" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AC113" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" spans="1:33">
       <c r="A114">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="D114" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="H114" t="s">
-        <v>541</v>
+        <v>543</v>
+      </c>
+      <c r="I114">
+        <v>25000</v>
       </c>
       <c r="M114" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P114">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="Q114">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="U114" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AA114" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AB114" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AC114" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115" spans="1:33">
       <c r="A115">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B115" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C115" t="s">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="H115" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I115">
         <v>100</v>
       </c>
-      <c r="J115">
-        <v>100000</v>
-      </c>
-      <c r="L115">
-        <v>75000</v>
+      <c r="N115">
+        <v>25</v>
+      </c>
+      <c r="O115">
+        <v>2</v>
+      </c>
+      <c r="P115">
+        <v>150</v>
       </c>
       <c r="Q115">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="U115" t="s">
-        <v>540</v>
-      </c>
-      <c r="Y115">
-        <v>1</v>
+        <v>542</v>
       </c>
       <c r="AA115" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AB115" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AC115" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116" spans="1:33">
       <c r="A116">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C116" t="s">
-        <v>549</v>
-      </c>
-      <c r="H116" t="s">
-        <v>550</v>
+        <v>439</v>
+      </c>
+      <c r="D116" t="s">
+        <v>519</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="J116">
+        <v>20000</v>
+      </c>
+      <c r="L116">
+        <v>10000</v>
       </c>
       <c r="P116">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q116">
-        <v>100</v>
-      </c>
-      <c r="T116">
-        <v>1</v>
+        <v>3000</v>
+      </c>
+      <c r="U116" t="s">
+        <v>518</v>
       </c>
       <c r="AA116" t="s">
         <v>551</v>
@@ -7825,31 +7894,43 @@
       <c r="AB116" t="s">
         <v>552</v>
       </c>
-      <c r="AE116">
-        <v>4</v>
+      <c r="AC116" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:33">
       <c r="A117">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
         <v>553</v>
       </c>
       <c r="C117" t="s">
-        <v>439</v>
+        <v>38</v>
+      </c>
+      <c r="D117" t="s">
+        <v>519</v>
       </c>
       <c r="H117" t="s">
         <v>554</v>
       </c>
+      <c r="I117">
+        <v>500</v>
+      </c>
+      <c r="J117">
+        <v>15000</v>
+      </c>
+      <c r="L117">
+        <v>15000</v>
+      </c>
       <c r="P117">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q117">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="U117" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AA117" t="s">
         <v>555</v>
@@ -7857,110 +7938,116 @@
       <c r="AB117" t="s">
         <v>556</v>
       </c>
-      <c r="AE117">
-        <v>4</v>
+      <c r="AC117" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="118" spans="1:33">
       <c r="A118">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B118" t="s">
         <v>557</v>
       </c>
       <c r="C118" t="s">
-        <v>549</v>
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>519</v>
       </c>
       <c r="H118" t="s">
         <v>558</v>
       </c>
+      <c r="M118" t="s">
+        <v>559</v>
+      </c>
       <c r="P118">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q118">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="U118" t="s">
         <v>553</v>
       </c>
       <c r="AA118" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AB118" t="s">
-        <v>560</v>
-      </c>
-      <c r="AE118">
-        <v>4</v>
+        <v>561</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="119" spans="1:33">
       <c r="A119">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B119" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C119" t="s">
-        <v>549</v>
+        <v>439</v>
+      </c>
+      <c r="D119" t="s">
+        <v>519</v>
+      </c>
+      <c r="H119" t="s">
+        <v>559</v>
       </c>
       <c r="I119">
-        <v>125</v>
-      </c>
-      <c r="P119">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="J119">
+        <v>100000</v>
+      </c>
+      <c r="L119">
+        <v>75000</v>
       </c>
       <c r="Q119">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="U119" t="s">
         <v>557</v>
       </c>
+      <c r="Y119">
+        <v>1</v>
+      </c>
       <c r="AA119" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AB119" t="s">
-        <v>563</v>
-      </c>
-      <c r="AE119">
-        <v>4</v>
+        <v>564</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="120" spans="1:33">
       <c r="A120">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B120" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C120" t="s">
-        <v>549</v>
-      </c>
-      <c r="E120" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H120" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I120">
         <v>125</v>
       </c>
-      <c r="M120" t="s">
-        <v>567</v>
-      </c>
-      <c r="N120">
-        <v>75</v>
-      </c>
-      <c r="O120">
-        <v>10</v>
-      </c>
       <c r="P120">
         <v>200</v>
       </c>
       <c r="Q120">
         <v>100</v>
       </c>
-      <c r="U120" t="s">
-        <v>557</v>
+      <c r="T120">
+        <v>1</v>
       </c>
       <c r="AA120" t="s">
         <v>568</v>
@@ -7968,49 +8055,37 @@
       <c r="AB120" t="s">
         <v>569</v>
       </c>
-      <c r="AD120" t="s">
-        <v>565</v>
-      </c>
       <c r="AE120">
         <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:33">
       <c r="A121">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B121" t="s">
         <v>570</v>
       </c>
       <c r="C121" t="s">
-        <v>549</v>
-      </c>
-      <c r="I121">
-        <v>125</v>
-      </c>
-      <c r="J121">
-        <v>1500</v>
-      </c>
-      <c r="N121">
-        <v>75</v>
-      </c>
-      <c r="O121">
-        <v>10</v>
+        <v>439</v>
+      </c>
+      <c r="H121" t="s">
+        <v>571</v>
       </c>
       <c r="P121">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q121">
         <v>100</v>
       </c>
       <c r="U121" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA121" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AB121" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AE121">
         <v>4</v>
@@ -8018,43 +8093,31 @@
     </row>
     <row r="122" spans="1:33">
       <c r="A122">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B122" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C122" t="s">
-        <v>439</v>
-      </c>
-      <c r="E122" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="H122" t="s">
-        <v>574</v>
-      </c>
-      <c r="N122">
-        <v>25</v>
-      </c>
-      <c r="O122">
-        <v>2</v>
+        <v>575</v>
       </c>
       <c r="P122">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q122">
         <v>100</v>
       </c>
       <c r="U122" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="AA122" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AB122" t="s">
-        <v>576</v>
-      </c>
-      <c r="AD122" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="AE122">
         <v>4</v>
@@ -8062,34 +8125,25 @@
     </row>
     <row r="123" spans="1:33">
       <c r="A123">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C123" t="s">
-        <v>439</v>
-      </c>
-      <c r="H123" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="I123">
-        <v>100</v>
-      </c>
-      <c r="N123">
-        <v>25</v>
-      </c>
-      <c r="O123">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="P123">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q123">
         <v>100</v>
       </c>
       <c r="U123" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA123" t="s">
         <v>579</v>
@@ -8103,49 +8157,49 @@
     </row>
     <row r="124" spans="1:33">
       <c r="A124">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B124" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="C124" t="s">
-        <v>439</v>
+        <v>566</v>
+      </c>
+      <c r="E124" t="s">
+        <v>582</v>
       </c>
       <c r="H124" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I124">
-        <v>100</v>
-      </c>
-      <c r="J124">
+        <v>125</v>
+      </c>
+      <c r="M124" t="s">
+        <v>584</v>
+      </c>
+      <c r="N124">
+        <v>75</v>
+      </c>
+      <c r="O124">
+        <v>10</v>
+      </c>
+      <c r="P124">
         <v>200</v>
-      </c>
-      <c r="K124">
-        <v>1000</v>
-      </c>
-      <c r="M124" t="s">
-        <v>582</v>
-      </c>
-      <c r="N124">
-        <v>25</v>
-      </c>
-      <c r="O124">
-        <v>2</v>
-      </c>
-      <c r="P124">
-        <v>150</v>
       </c>
       <c r="Q124">
         <v>100</v>
       </c>
       <c r="U124" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AA124" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AB124" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>582</v>
       </c>
       <c r="AE124">
         <v>4</v>
@@ -8153,19 +8207,19 @@
     </row>
     <row r="125" spans="1:33">
       <c r="A125">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B125" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C125" t="s">
-        <v>549</v>
-      </c>
-      <c r="E125" t="s">
-        <v>570</v>
-      </c>
-      <c r="H125" t="s">
-        <v>586</v>
+        <v>566</v>
+      </c>
+      <c r="I125">
+        <v>125</v>
+      </c>
+      <c r="J125">
+        <v>1500</v>
       </c>
       <c r="N125">
         <v>75</v>
@@ -8180,10 +8234,7 @@
         <v>100</v>
       </c>
       <c r="U125" t="s">
-        <v>548</v>
-      </c>
-      <c r="V125" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="AA125" t="s">
         <v>588</v>
@@ -8191,52 +8242,49 @@
       <c r="AB125" t="s">
         <v>589</v>
       </c>
-      <c r="AD125" t="s">
-        <v>570</v>
-      </c>
       <c r="AE125">
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:33">
       <c r="A126">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B126" t="s">
         <v>590</v>
       </c>
       <c r="C126" t="s">
-        <v>549</v>
+        <v>439</v>
+      </c>
+      <c r="E126" t="s">
+        <v>578</v>
       </c>
       <c r="H126" t="s">
         <v>591</v>
       </c>
-      <c r="I126">
-        <v>125</v>
-      </c>
-      <c r="J126">
-        <v>2000</v>
-      </c>
       <c r="N126">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O126">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P126">
-        <v>200</v>
+        <v>150</v>
+      </c>
+      <c r="Q126">
+        <v>100</v>
       </c>
       <c r="U126" t="s">
-        <v>585</v>
-      </c>
-      <c r="V126" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA126" t="s">
         <v>592</v>
       </c>
-      <c r="AA126" t="s">
+      <c r="AB126" t="s">
         <v>593</v>
       </c>
-      <c r="AB126" t="s">
-        <v>594</v>
+      <c r="AD126" t="s">
+        <v>578</v>
       </c>
       <c r="AE126">
         <v>4</v>
@@ -8244,49 +8292,40 @@
     </row>
     <row r="127" spans="1:33">
       <c r="A127">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B127" t="s">
+        <v>594</v>
+      </c>
+      <c r="C127" t="s">
+        <v>439</v>
+      </c>
+      <c r="H127" t="s">
         <v>595</v>
       </c>
-      <c r="C127" t="s">
-        <v>549</v>
-      </c>
-      <c r="H127" t="s">
-        <v>596</v>
-      </c>
       <c r="I127">
-        <v>125</v>
-      </c>
-      <c r="J127">
-        <v>25000</v>
-      </c>
-      <c r="M127" t="s">
-        <v>597</v>
+        <v>100</v>
       </c>
       <c r="N127">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O127">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P127">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q127">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U127" t="s">
         <v>590</v>
       </c>
-      <c r="V127" t="s">
-        <v>598</v>
-      </c>
       <c r="AA127" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AB127" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AE127">
         <v>4</v>
@@ -8294,25 +8333,28 @@
     </row>
     <row r="128" spans="1:33">
       <c r="A128">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B128" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="C128" t="s">
         <v>439</v>
       </c>
       <c r="H128" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I128">
         <v>100</v>
       </c>
       <c r="J128">
-        <v>5000</v>
+        <v>200</v>
+      </c>
+      <c r="K128">
+        <v>1000</v>
       </c>
       <c r="M128" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N128">
         <v>25</v>
@@ -8324,16 +8366,16 @@
         <v>150</v>
       </c>
       <c r="Q128">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="U128" t="s">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="AA128" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AB128" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AE128">
         <v>4</v>
@@ -8341,25 +8383,19 @@
     </row>
     <row r="129" spans="1:33">
       <c r="A129">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B129" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C129" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="E129" t="s">
-        <v>607</v>
-      </c>
-      <c r="I129">
-        <v>125</v>
-      </c>
-      <c r="J129">
-        <v>2000</v>
-      </c>
-      <c r="M129" t="s">
-        <v>608</v>
+        <v>587</v>
+      </c>
+      <c r="H129" t="s">
+        <v>603</v>
       </c>
       <c r="N129">
         <v>75</v>
@@ -8374,16 +8410,19 @@
         <v>100</v>
       </c>
       <c r="U129" t="s">
-        <v>601</v>
+        <v>565</v>
+      </c>
+      <c r="V129" t="s">
+        <v>604</v>
       </c>
       <c r="AA129" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AB129" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AD129" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="AE129">
         <v>4</v>
@@ -8391,22 +8430,22 @@
     </row>
     <row r="130" spans="1:33">
       <c r="A130">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B130" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C130" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="H130" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="I130">
         <v>125</v>
       </c>
       <c r="J130">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N130">
         <v>75</v>
@@ -8414,17 +8453,20 @@
       <c r="O130">
         <v>10</v>
       </c>
-      <c r="Q130">
-        <v>100</v>
+      <c r="P130">
+        <v>200</v>
       </c>
       <c r="U130" t="s">
-        <v>605</v>
+        <v>602</v>
+      </c>
+      <c r="V130" t="s">
+        <v>609</v>
       </c>
       <c r="AA130" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AB130" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AE130">
         <v>4</v>
@@ -8432,22 +8474,25 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B131" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C131" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="H131" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I131">
         <v>125</v>
       </c>
       <c r="J131">
-        <v>1500</v>
+        <v>25000</v>
+      </c>
+      <c r="M131" t="s">
+        <v>614</v>
       </c>
       <c r="N131">
         <v>75</v>
@@ -8455,20 +8500,23 @@
       <c r="O131">
         <v>10</v>
       </c>
+      <c r="P131">
+        <v>200</v>
+      </c>
       <c r="Q131">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U131" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="V131" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AA131" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AB131" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AE131">
         <v>4</v>
@@ -8476,43 +8524,46 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B132" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C132" t="s">
-        <v>612</v>
+        <v>439</v>
       </c>
       <c r="H132" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="I132">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J132">
         <v>5000</v>
       </c>
       <c r="M132" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="N132">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O132">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="P132">
+        <v>150</v>
       </c>
       <c r="Q132">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="U132" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="AA132" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AB132" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AE132">
         <v>4</v>
@@ -8520,25 +8571,25 @@
     </row>
     <row r="133" spans="1:33">
       <c r="A133">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C133" t="s">
-        <v>612</v>
-      </c>
-      <c r="H133" t="s">
         <v>623</v>
+      </c>
+      <c r="E133" t="s">
+        <v>624</v>
       </c>
       <c r="I133">
         <v>125</v>
       </c>
       <c r="J133">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M133" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N133">
         <v>75</v>
@@ -8546,17 +8597,23 @@
       <c r="O133">
         <v>10</v>
       </c>
+      <c r="P133">
+        <v>200</v>
+      </c>
       <c r="Q133">
         <v>100</v>
       </c>
       <c r="U133" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="AA133" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AB133" t="s">
-        <v>629</v>
+        <v>627</v>
+      </c>
+      <c r="AD133" t="s">
+        <v>624</v>
       </c>
       <c r="AE133">
         <v>4</v>
@@ -8564,46 +8621,40 @@
     </row>
     <row r="134" spans="1:33">
       <c r="A134">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B134" t="s">
+        <v>628</v>
+      </c>
+      <c r="C134" t="s">
+        <v>629</v>
+      </c>
+      <c r="H134" t="s">
         <v>630</v>
       </c>
-      <c r="C134" t="s">
-        <v>606</v>
-      </c>
-      <c r="E134" t="s">
-        <v>626</v>
+      <c r="I134">
+        <v>125</v>
+      </c>
+      <c r="J134">
+        <v>1500</v>
       </c>
       <c r="N134">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O134">
-        <v>25</v>
-      </c>
-      <c r="P134">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q134">
         <v>100</v>
       </c>
       <c r="U134" t="s">
-        <v>626</v>
-      </c>
-      <c r="W134" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA134" t="s">
         <v>631</v>
       </c>
-      <c r="X134">
-        <v>2</v>
-      </c>
-      <c r="AA134" t="s">
+      <c r="AB134" t="s">
         <v>632</v>
-      </c>
-      <c r="AB134" t="s">
-        <v>633</v>
-      </c>
-      <c r="AD134" t="s">
-        <v>626</v>
       </c>
       <c r="AE134">
         <v>4</v>
@@ -8611,40 +8662,43 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
+        <v>633</v>
+      </c>
+      <c r="C135" t="s">
+        <v>629</v>
+      </c>
+      <c r="H135" t="s">
         <v>634</v>
       </c>
-      <c r="C135" t="s">
-        <v>549</v>
+      <c r="I135">
+        <v>125</v>
+      </c>
+      <c r="J135">
+        <v>1500</v>
       </c>
       <c r="N135">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O135">
-        <v>25</v>
-      </c>
-      <c r="P135">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q135">
         <v>100</v>
       </c>
       <c r="U135" t="s">
-        <v>630</v>
-      </c>
-      <c r="W135" t="s">
-        <v>631</v>
-      </c>
-      <c r="X135">
-        <v>4</v>
+        <v>628</v>
+      </c>
+      <c r="V135" t="s">
+        <v>635</v>
       </c>
       <c r="AA135" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AB135" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AE135">
         <v>4</v>
@@ -8652,40 +8706,43 @@
     </row>
     <row r="136" spans="1:33">
       <c r="A136">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B136" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C136" t="s">
-        <v>439</v>
+        <v>629</v>
+      </c>
+      <c r="H136" t="s">
+        <v>639</v>
+      </c>
+      <c r="I136">
+        <v>125</v>
+      </c>
+      <c r="J136">
+        <v>5000</v>
+      </c>
+      <c r="M136" t="s">
+        <v>640</v>
       </c>
       <c r="N136">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O136">
-        <v>50</v>
-      </c>
-      <c r="P136">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q136">
         <v>100</v>
       </c>
       <c r="U136" t="s">
-        <v>634</v>
-      </c>
-      <c r="W136" t="s">
-        <v>631</v>
-      </c>
-      <c r="X136">
-        <v>5</v>
+        <v>633</v>
       </c>
       <c r="AA136" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AB136" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AE136">
         <v>4</v>
@@ -8693,22 +8750,25 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B137" t="s">
+        <v>643</v>
+      </c>
+      <c r="C137" t="s">
+        <v>629</v>
+      </c>
+      <c r="H137" t="s">
         <v>640</v>
-      </c>
-      <c r="C137" t="s">
-        <v>606</v>
-      </c>
-      <c r="E137" t="s">
-        <v>601</v>
       </c>
       <c r="I137">
         <v>125</v>
       </c>
       <c r="J137">
-        <v>100</v>
+        <v>10000</v>
+      </c>
+      <c r="M137" t="s">
+        <v>644</v>
       </c>
       <c r="N137">
         <v>75</v>
@@ -8716,23 +8776,17 @@
       <c r="O137">
         <v>10</v>
       </c>
-      <c r="P137">
-        <v>200</v>
-      </c>
       <c r="Q137">
         <v>100</v>
       </c>
       <c r="U137" t="s">
-        <v>548</v>
+        <v>622</v>
       </c>
       <c r="AA137" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="AB137" t="s">
-        <v>642</v>
-      </c>
-      <c r="AD137" t="s">
-        <v>601</v>
+        <v>646</v>
       </c>
       <c r="AE137">
         <v>4</v>
@@ -8740,43 +8794,46 @@
     </row>
     <row r="138" spans="1:33">
       <c r="A138">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B138" t="s">
+        <v>647</v>
+      </c>
+      <c r="C138" t="s">
+        <v>623</v>
+      </c>
+      <c r="E138" t="s">
         <v>643</v>
       </c>
-      <c r="C138" t="s">
-        <v>606</v>
-      </c>
-      <c r="H138" t="s">
-        <v>644</v>
-      </c>
-      <c r="I138">
-        <v>125</v>
-      </c>
-      <c r="J138">
-        <v>500</v>
-      </c>
       <c r="N138">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O138">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P138">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q138">
         <v>100</v>
       </c>
       <c r="U138" t="s">
-        <v>640</v>
+        <v>643</v>
+      </c>
+      <c r="W138" t="s">
+        <v>648</v>
+      </c>
+      <c r="X138">
+        <v>2</v>
       </c>
       <c r="AA138" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="AB138" t="s">
-        <v>646</v>
+        <v>650</v>
+      </c>
+      <c r="AD138" t="s">
+        <v>643</v>
       </c>
       <c r="AE138">
         <v>4</v>
@@ -8784,40 +8841,40 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B139" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C139" t="s">
-        <v>606</v>
-      </c>
-      <c r="I139">
-        <v>125</v>
-      </c>
-      <c r="J139">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="N139">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O139">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P139">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q139">
         <v>100</v>
       </c>
       <c r="U139" t="s">
-        <v>643</v>
+        <v>647</v>
+      </c>
+      <c r="W139" t="s">
+        <v>648</v>
+      </c>
+      <c r="X139">
+        <v>4</v>
       </c>
       <c r="AA139" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="AB139" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="AE139">
         <v>4</v>
@@ -8825,227 +8882,230 @@
     </row>
     <row r="140" spans="1:33">
       <c r="A140">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B140" t="s">
-        <v>607</v>
+        <v>654</v>
       </c>
       <c r="C140" t="s">
-        <v>606</v>
-      </c>
-      <c r="H140" t="s">
-        <v>607</v>
-      </c>
-      <c r="I140">
+        <v>439</v>
+      </c>
+      <c r="N140">
         <v>125</v>
       </c>
-      <c r="J140">
+      <c r="O140">
+        <v>50</v>
+      </c>
+      <c r="P140">
         <v>1000</v>
-      </c>
-      <c r="N140">
-        <v>75</v>
-      </c>
-      <c r="O140">
-        <v>10</v>
-      </c>
-      <c r="P140">
-        <v>200</v>
       </c>
       <c r="Q140">
         <v>100</v>
       </c>
       <c r="U140" t="s">
-        <v>647</v>
+        <v>651</v>
+      </c>
+      <c r="W140" t="s">
+        <v>648</v>
+      </c>
+      <c r="X140">
+        <v>5</v>
       </c>
       <c r="AA140" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AB140" t="s">
-        <v>651</v>
+        <v>656</v>
+      </c>
+      <c r="AE140">
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:33">
       <c r="A141">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B141" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C141" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="E141" t="s">
-        <v>637</v>
+        <v>618</v>
+      </c>
+      <c r="I141">
+        <v>125</v>
+      </c>
+      <c r="J141">
+        <v>100</v>
       </c>
       <c r="N141">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O141">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P141">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q141">
         <v>100</v>
       </c>
       <c r="U141" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="AA141" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AB141" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AD141" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="AE141">
         <v>4</v>
       </c>
-      <c r="AF141" t="s">
-        <v>549</v>
-      </c>
-      <c r="AG141">
-        <v>5</v>
-      </c>
     </row>
     <row r="142" spans="1:33">
       <c r="A142">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B142" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C142" t="s">
-        <v>549</v>
+        <v>623</v>
+      </c>
+      <c r="H142" t="s">
+        <v>661</v>
+      </c>
+      <c r="I142">
+        <v>125</v>
+      </c>
+      <c r="J142">
+        <v>500</v>
       </c>
       <c r="N142">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O142">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P142">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q142">
         <v>100</v>
       </c>
       <c r="U142" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AA142" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="AB142" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="AE142">
         <v>4</v>
       </c>
-      <c r="AF142" t="s">
-        <v>549</v>
-      </c>
-      <c r="AG142">
-        <v>10</v>
-      </c>
     </row>
     <row r="143" spans="1:33">
       <c r="A143">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B143" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C143" t="s">
-        <v>549</v>
+        <v>623</v>
+      </c>
+      <c r="I143">
+        <v>125</v>
+      </c>
+      <c r="J143">
+        <v>500</v>
       </c>
       <c r="N143">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O143">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P143">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q143">
         <v>100</v>
       </c>
       <c r="U143" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AA143" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="AB143" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AE143">
         <v>4</v>
       </c>
-      <c r="AF143" t="s">
-        <v>549</v>
-      </c>
-      <c r="AG143">
-        <v>15</v>
-      </c>
     </row>
     <row r="144" spans="1:33">
       <c r="A144">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B144" t="s">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="C144" t="s">
-        <v>549</v>
+        <v>623</v>
+      </c>
+      <c r="H144" t="s">
+        <v>624</v>
+      </c>
+      <c r="I144">
+        <v>125</v>
+      </c>
+      <c r="J144">
+        <v>1000</v>
       </c>
       <c r="N144">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O144">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P144">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q144">
         <v>100</v>
       </c>
       <c r="U144" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="AA144" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AB144" t="s">
-        <v>663</v>
-      </c>
-      <c r="AE144">
-        <v>4</v>
-      </c>
-      <c r="AF144" t="s">
-        <v>549</v>
-      </c>
-      <c r="AG144">
-        <v>20</v>
+        <v>668</v>
       </c>
     </row>
     <row r="145" spans="1:33">
       <c r="A145">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B145" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C145" t="s">
-        <v>549</v>
-      </c>
-      <c r="M145" t="s">
-        <v>665</v>
+        <v>566</v>
+      </c>
+      <c r="E145" t="s">
+        <v>654</v>
       </c>
       <c r="N145">
         <v>175</v>
@@ -9060,154 +9120,133 @@
         <v>100</v>
       </c>
       <c r="U145" t="s">
-        <v>661</v>
+        <v>565</v>
       </c>
       <c r="AA145" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="AB145" t="s">
-        <v>667</v>
+        <v>671</v>
+      </c>
+      <c r="AD145" t="s">
+        <v>654</v>
       </c>
       <c r="AE145">
         <v>4</v>
       </c>
       <c r="AF145" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="AG145">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:33">
       <c r="A146">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B146" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C146" t="s">
-        <v>549</v>
-      </c>
-      <c r="D146" t="s">
-        <v>669</v>
-      </c>
-      <c r="E146" t="s">
-        <v>621</v>
-      </c>
-      <c r="I146">
-        <v>125</v>
-      </c>
-      <c r="J146">
-        <v>25000</v>
+        <v>566</v>
       </c>
       <c r="N146">
+        <v>175</v>
+      </c>
+      <c r="O146">
         <v>75</v>
       </c>
-      <c r="O146">
-        <v>10</v>
-      </c>
       <c r="P146">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q146">
         <v>100</v>
       </c>
-      <c r="T146">
-        <v>1</v>
+      <c r="U146" t="s">
+        <v>669</v>
       </c>
       <c r="AA146" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AB146" t="s">
-        <v>671</v>
-      </c>
-      <c r="AC146" t="s">
-        <v>669</v>
-      </c>
-      <c r="AD146" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="AE146">
         <v>4</v>
       </c>
+      <c r="AF146" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG146">
+        <v>10</v>
+      </c>
     </row>
     <row r="147" spans="1:33">
       <c r="A147">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B147" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C147" t="s">
-        <v>549</v>
-      </c>
-      <c r="H147" t="s">
-        <v>673</v>
-      </c>
-      <c r="I147">
-        <v>125</v>
-      </c>
-      <c r="J147">
-        <v>5000</v>
+        <v>566</v>
       </c>
       <c r="N147">
+        <v>175</v>
+      </c>
+      <c r="O147">
         <v>75</v>
       </c>
-      <c r="O147">
-        <v>10</v>
-      </c>
       <c r="P147">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q147">
         <v>100</v>
       </c>
       <c r="U147" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="AA147" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AB147" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AE147">
         <v>4</v>
       </c>
+      <c r="AF147" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG147">
+        <v>15</v>
+      </c>
     </row>
     <row r="148" spans="1:33">
       <c r="A148">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B148" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C148" t="s">
-        <v>549</v>
-      </c>
-      <c r="H148" t="s">
-        <v>677</v>
-      </c>
-      <c r="I148">
-        <v>125</v>
-      </c>
-      <c r="J148">
-        <v>10000</v>
+        <v>566</v>
       </c>
       <c r="N148">
+        <v>175</v>
+      </c>
+      <c r="O148">
         <v>75</v>
       </c>
-      <c r="O148">
-        <v>10</v>
+      <c r="P148">
+        <v>2000</v>
       </c>
       <c r="Q148">
         <v>100</v>
       </c>
       <c r="U148" t="s">
-        <v>672</v>
-      </c>
-      <c r="V148" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA148" t="s">
         <v>679</v>
@@ -9218,34 +9257,40 @@
       <c r="AE148">
         <v>4</v>
       </c>
+      <c r="AF148" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG148">
+        <v>20</v>
+      </c>
     </row>
     <row r="149" spans="1:33">
       <c r="A149">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B149" t="s">
         <v>681</v>
       </c>
       <c r="C149" t="s">
-        <v>549</v>
-      </c>
-      <c r="H149" t="s">
+        <v>566</v>
+      </c>
+      <c r="M149" t="s">
         <v>682</v>
       </c>
-      <c r="I149">
-        <v>125</v>
-      </c>
-      <c r="J149">
+      <c r="N149">
+        <v>175</v>
+      </c>
+      <c r="O149">
+        <v>75</v>
+      </c>
+      <c r="P149">
         <v>2000</v>
-      </c>
-      <c r="P149">
-        <v>200</v>
       </c>
       <c r="Q149">
         <v>100</v>
       </c>
       <c r="U149" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AA149" t="s">
         <v>683</v>
@@ -9253,25 +9298,43 @@
       <c r="AB149" t="s">
         <v>684</v>
       </c>
+      <c r="AE149">
+        <v>4</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG149">
+        <v>25</v>
+      </c>
     </row>
     <row r="150" spans="1:33">
       <c r="A150">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B150" t="s">
         <v>685</v>
       </c>
       <c r="C150" t="s">
-        <v>549</v>
-      </c>
-      <c r="H150" t="s">
+        <v>566</v>
+      </c>
+      <c r="D150" t="s">
         <v>686</v>
+      </c>
+      <c r="E150" t="s">
+        <v>638</v>
       </c>
       <c r="I150">
         <v>125</v>
       </c>
       <c r="J150">
-        <v>20000</v>
+        <v>25000</v>
+      </c>
+      <c r="N150">
+        <v>75</v>
+      </c>
+      <c r="O150">
+        <v>10</v>
       </c>
       <c r="P150">
         <v>200</v>
@@ -9279,8 +9342,8 @@
       <c r="Q150">
         <v>100</v>
       </c>
-      <c r="U150" t="s">
-        <v>681</v>
+      <c r="T150">
+        <v>1</v>
       </c>
       <c r="AA150" t="s">
         <v>687</v>
@@ -9288,37 +9351,43 @@
       <c r="AB150" t="s">
         <v>688</v>
       </c>
+      <c r="AC150" t="s">
+        <v>686</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>638</v>
+      </c>
       <c r="AE150">
         <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:33">
       <c r="A151">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B151" t="s">
         <v>689</v>
       </c>
       <c r="C151" t="s">
-        <v>439</v>
+        <v>566</v>
       </c>
       <c r="H151" t="s">
         <v>690</v>
       </c>
       <c r="I151">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J151">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="N151">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="O151">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P151">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q151">
         <v>100</v>
@@ -9338,16 +9407,13 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B152" t="s">
         <v>693</v>
       </c>
       <c r="C152" t="s">
-        <v>549</v>
-      </c>
-      <c r="E152" t="s">
-        <v>689</v>
+        <v>566</v>
       </c>
       <c r="H152" t="s">
         <v>694</v>
@@ -9356,22 +9422,28 @@
         <v>125</v>
       </c>
       <c r="J152">
-        <v>20000</v>
+        <v>10000</v>
+      </c>
+      <c r="N152">
+        <v>75</v>
+      </c>
+      <c r="O152">
+        <v>10</v>
       </c>
       <c r="Q152">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U152" t="s">
-        <v>668</v>
+        <v>689</v>
+      </c>
+      <c r="V152" t="s">
+        <v>695</v>
       </c>
       <c r="AA152" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AB152" t="s">
-        <v>696</v>
-      </c>
-      <c r="AD152" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="AE152">
         <v>4</v>
@@ -9379,81 +9451,66 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C153" t="s">
-        <v>549</v>
+        <v>566</v>
+      </c>
+      <c r="H153" t="s">
+        <v>699</v>
       </c>
       <c r="I153">
         <v>125</v>
       </c>
       <c r="J153">
-        <v>30000</v>
+        <v>2000</v>
+      </c>
+      <c r="P153">
+        <v>200</v>
       </c>
       <c r="Q153">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U153" t="s">
         <v>693</v>
       </c>
-      <c r="Y153">
-        <v>2</v>
-      </c>
       <c r="AA153" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AB153" t="s">
-        <v>699</v>
-      </c>
-      <c r="AE153">
-        <v>4</v>
+        <v>701</v>
       </c>
     </row>
     <row r="154" spans="1:33">
       <c r="A154">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C154" t="s">
-        <v>701</v>
-      </c>
-      <c r="E154" t="s">
-        <v>390</v>
-      </c>
-      <c r="F154" t="s">
-        <v>371</v>
-      </c>
-      <c r="G154">
-        <v>10</v>
+        <v>566</v>
       </c>
       <c r="H154" t="s">
-        <v>702</v>
-      </c>
-      <c r="N154">
-        <v>500000</v>
-      </c>
-      <c r="O154">
-        <v>500000</v>
+        <v>703</v>
+      </c>
+      <c r="I154">
+        <v>125</v>
+      </c>
+      <c r="J154">
+        <v>20000</v>
       </c>
       <c r="P154">
-        <v>2000000000</v>
+        <v>200</v>
       </c>
       <c r="Q154">
-        <v>175000</v>
-      </c>
-      <c r="T154">
-        <v>1</v>
-      </c>
-      <c r="W154" t="s">
-        <v>703</v>
-      </c>
-      <c r="X154">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="U154" t="s">
+        <v>698</v>
       </c>
       <c r="AA154" t="s">
         <v>704</v>
@@ -9461,43 +9518,43 @@
       <c r="AB154" t="s">
         <v>705</v>
       </c>
-      <c r="AD154" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF154" t="s">
-        <v>701</v>
-      </c>
-      <c r="AG154">
-        <v>5</v>
+      <c r="AE154">
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:33">
       <c r="A155">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B155" t="s">
         <v>706</v>
       </c>
       <c r="C155" t="s">
-        <v>701</v>
+        <v>439</v>
       </c>
       <c r="H155" t="s">
         <v>707</v>
       </c>
+      <c r="I155">
+        <v>100</v>
+      </c>
+      <c r="J155">
+        <v>25000</v>
+      </c>
       <c r="N155">
-        <v>500000</v>
+        <v>25</v>
       </c>
       <c r="O155">
-        <v>500000</v>
+        <v>2</v>
       </c>
       <c r="P155">
-        <v>2000000000</v>
+        <v>150</v>
       </c>
       <c r="Q155">
-        <v>175000</v>
+        <v>100</v>
       </c>
       <c r="U155" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AA155" t="s">
         <v>708</v>
@@ -9505,107 +9562,107 @@
       <c r="AB155" t="s">
         <v>709</v>
       </c>
-      <c r="AF155" t="s">
-        <v>701</v>
-      </c>
-      <c r="AG155">
-        <v>10</v>
+      <c r="AE155">
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:33">
       <c r="A156">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B156" t="s">
         <v>710</v>
       </c>
       <c r="C156" t="s">
+        <v>566</v>
+      </c>
+      <c r="E156" t="s">
+        <v>706</v>
+      </c>
+      <c r="H156" t="s">
         <v>711</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156">
+        <v>125</v>
+      </c>
+      <c r="J156">
+        <v>20000</v>
+      </c>
+      <c r="Q156">
+        <v>200</v>
+      </c>
+      <c r="U156" t="s">
+        <v>685</v>
+      </c>
+      <c r="AA156" t="s">
         <v>712</v>
       </c>
-      <c r="N156">
-        <v>500000</v>
-      </c>
-      <c r="O156">
-        <v>500000</v>
-      </c>
-      <c r="P156">
-        <v>2000000000</v>
-      </c>
-      <c r="Q156">
-        <v>175000</v>
-      </c>
-      <c r="U156" t="s">
+      <c r="AB156" t="s">
+        <v>713</v>
+      </c>
+      <c r="AD156" t="s">
         <v>706</v>
       </c>
-      <c r="AA156" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB156" t="s">
-        <v>714</v>
-      </c>
-      <c r="AF156" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG156">
-        <v>5</v>
+      <c r="AE156">
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:33">
       <c r="A157">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C157" t="s">
-        <v>711</v>
-      </c>
-      <c r="H157" t="s">
-        <v>716</v>
-      </c>
-      <c r="N157">
-        <v>500000</v>
-      </c>
-      <c r="O157">
-        <v>500000</v>
-      </c>
-      <c r="P157">
-        <v>2000000000</v>
+        <v>566</v>
+      </c>
+      <c r="I157">
+        <v>125</v>
+      </c>
+      <c r="J157">
+        <v>30000</v>
       </c>
       <c r="Q157">
-        <v>175000</v>
+        <v>500</v>
       </c>
       <c r="U157" t="s">
         <v>710</v>
       </c>
+      <c r="Y157">
+        <v>2</v>
+      </c>
       <c r="AA157" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AB157" t="s">
-        <v>718</v>
-      </c>
-      <c r="AF157" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG157">
-        <v>10</v>
+        <v>716</v>
+      </c>
+      <c r="AE157">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:33">
       <c r="A158">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B158" t="s">
+        <v>717</v>
+      </c>
+      <c r="C158" t="s">
+        <v>718</v>
+      </c>
+      <c r="E158" t="s">
+        <v>390</v>
+      </c>
+      <c r="F158" t="s">
+        <v>371</v>
+      </c>
+      <c r="G158">
+        <v>10</v>
+      </c>
+      <c r="H158" t="s">
         <v>719</v>
-      </c>
-      <c r="C158" t="s">
-        <v>711</v>
-      </c>
-      <c r="H158" t="s">
-        <v>720</v>
       </c>
       <c r="N158">
         <v>500000</v>
@@ -9619,8 +9676,14 @@
       <c r="Q158">
         <v>175000</v>
       </c>
-      <c r="U158" t="s">
-        <v>715</v>
+      <c r="T158">
+        <v>1</v>
+      </c>
+      <c r="W158" t="s">
+        <v>720</v>
+      </c>
+      <c r="X158">
+        <v>5</v>
       </c>
       <c r="AA158" t="s">
         <v>721</v>
@@ -9628,25 +9691,28 @@
       <c r="AB158" t="s">
         <v>722</v>
       </c>
+      <c r="AD158" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>718</v>
+      </c>
+      <c r="AG158">
+        <v>5</v>
+      </c>
     </row>
     <row r="159" spans="1:33">
       <c r="A159">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B159" t="s">
         <v>723</v>
       </c>
       <c r="C159" t="s">
+        <v>718</v>
+      </c>
+      <c r="H159" t="s">
         <v>724</v>
-      </c>
-      <c r="E159" t="s">
-        <v>719</v>
-      </c>
-      <c r="F159" t="s">
-        <v>706</v>
-      </c>
-      <c r="H159" t="s">
-        <v>725</v>
       </c>
       <c r="N159">
         <v>500000</v>
@@ -9661,33 +9727,30 @@
         <v>175000</v>
       </c>
       <c r="U159" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="AA159" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB159" t="s">
         <v>726</v>
       </c>
-      <c r="AB159" t="s">
-        <v>727</v>
-      </c>
-      <c r="AD159" t="s">
-        <v>719</v>
-      </c>
       <c r="AF159" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AG159">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:33">
       <c r="A160">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B160" t="s">
+        <v>727</v>
+      </c>
+      <c r="C160" t="s">
         <v>728</v>
-      </c>
-      <c r="C160" t="s">
-        <v>724</v>
       </c>
       <c r="H160" t="s">
         <v>729</v>
@@ -9714,27 +9777,39 @@
         <v>731</v>
       </c>
       <c r="AF160" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="AG160">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:33">
       <c r="A161">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B161" t="s">
         <v>732</v>
       </c>
       <c r="C161" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="H161" t="s">
         <v>733</v>
       </c>
+      <c r="N161">
+        <v>500000</v>
+      </c>
+      <c r="O161">
+        <v>500000</v>
+      </c>
+      <c r="P161">
+        <v>2000000000</v>
+      </c>
+      <c r="Q161">
+        <v>175000</v>
+      </c>
       <c r="U161" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AA161" t="s">
         <v>734</v>
@@ -9743,25 +9818,37 @@
         <v>735</v>
       </c>
       <c r="AF161" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="AG161">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:33">
       <c r="A162">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B162" t="s">
         <v>736</v>
       </c>
       <c r="C162" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="H162" t="s">
         <v>737</v>
       </c>
+      <c r="N162">
+        <v>500000</v>
+      </c>
+      <c r="O162">
+        <v>500000</v>
+      </c>
+      <c r="P162">
+        <v>2000000000</v>
+      </c>
+      <c r="Q162">
+        <v>175000</v>
+      </c>
       <c r="U162" t="s">
         <v>732</v>
       </c>
@@ -9771,25 +9858,25 @@
       <c r="AB162" t="s">
         <v>739</v>
       </c>
-      <c r="AF162" t="s">
-        <v>701</v>
-      </c>
-      <c r="AG162">
-        <v>25</v>
-      </c>
     </row>
     <row r="163" spans="1:33">
       <c r="A163">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B163" t="s">
         <v>740</v>
       </c>
       <c r="C163" t="s">
-        <v>711</v>
+        <v>741</v>
+      </c>
+      <c r="E163" t="s">
+        <v>736</v>
+      </c>
+      <c r="F163" t="s">
+        <v>723</v>
       </c>
       <c r="H163" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N163">
         <v>500000</v>
@@ -9804,39 +9891,36 @@
         <v>175000</v>
       </c>
       <c r="U163" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>743</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD163" t="s">
         <v>736</v>
       </c>
-      <c r="AA163" t="s">
-        <v>742</v>
-      </c>
-      <c r="AB163" t="s">
-        <v>743</v>
-      </c>
       <c r="AF163" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
       <c r="AG163">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:33">
       <c r="A164">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C164" t="s">
-        <v>711</v>
-      </c>
-      <c r="E164" t="s">
-        <v>740</v>
-      </c>
-      <c r="F164" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="H164" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="N164">
         <v>500000</v>
@@ -9851,54 +9935,36 @@
         <v>175000</v>
       </c>
       <c r="U164" t="s">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="AA164" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AB164" t="s">
-        <v>747</v>
-      </c>
-      <c r="AD164" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="AF164" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
       <c r="AG164">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:33">
       <c r="A165">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B165" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C165" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="H165" t="s">
         <v>750</v>
       </c>
-      <c r="L165">
-        <v>150000</v>
-      </c>
-      <c r="N165">
-        <v>500000</v>
-      </c>
-      <c r="O165">
-        <v>500000</v>
-      </c>
-      <c r="P165">
-        <v>2000000000</v>
-      </c>
-      <c r="Q165">
-        <v>175000</v>
-      </c>
       <c r="U165" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AA165" t="s">
         <v>751</v>
@@ -9907,42 +9973,27 @@
         <v>752</v>
       </c>
       <c r="AF165" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="AG165">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:33">
       <c r="A166">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B166" t="s">
         <v>753</v>
       </c>
       <c r="C166" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="H166" t="s">
         <v>754</v>
       </c>
-      <c r="L166">
-        <v>300000</v>
-      </c>
-      <c r="N166">
-        <v>500000</v>
-      </c>
-      <c r="O166">
-        <v>500000</v>
-      </c>
-      <c r="P166">
-        <v>2000000000</v>
-      </c>
-      <c r="Q166">
-        <v>175000</v>
-      </c>
       <c r="U166" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AA166" t="s">
         <v>755</v>
@@ -9951,28 +10002,25 @@
         <v>756</v>
       </c>
       <c r="AF166" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="AG166">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:33">
       <c r="A167">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B167" t="s">
         <v>757</v>
       </c>
       <c r="C167" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="H167" t="s">
         <v>758</v>
       </c>
-      <c r="L167">
-        <v>500000</v>
-      </c>
       <c r="N167">
         <v>500000</v>
       </c>
@@ -9995,31 +10043,31 @@
         <v>760</v>
       </c>
       <c r="AF167" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="AG167">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:33">
       <c r="A168">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B168" t="s">
         <v>761</v>
       </c>
       <c r="C168" t="s">
-        <v>701</v>
-      </c>
-      <c r="G168">
-        <v>15</v>
+        <v>728</v>
+      </c>
+      <c r="E168" t="s">
+        <v>757</v>
+      </c>
+      <c r="F168" t="s">
+        <v>740</v>
       </c>
       <c r="H168" t="s">
         <v>762</v>
       </c>
-      <c r="M168" t="s">
-        <v>763</v>
-      </c>
       <c r="N168">
         <v>500000</v>
       </c>
@@ -10033,200 +10081,206 @@
         <v>175000</v>
       </c>
       <c r="U168" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>763</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD168" t="s">
         <v>757</v>
       </c>
-      <c r="AA168" t="s">
-        <v>764</v>
-      </c>
-      <c r="AB168" t="s">
-        <v>765</v>
+      <c r="AF168" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG168">
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:33">
       <c r="A169">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B169" t="s">
+        <v>765</v>
+      </c>
+      <c r="C169" t="s">
         <v>766</v>
       </c>
-      <c r="C169" t="s">
+      <c r="H169" t="s">
         <v>767</v>
       </c>
+      <c r="L169">
+        <v>150000</v>
+      </c>
       <c r="N169">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O169">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P169">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q169">
-        <v>250</v>
-      </c>
-      <c r="T169">
-        <v>1</v>
-      </c>
-      <c r="W169" t="s">
+        <v>175000</v>
+      </c>
+      <c r="U169" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA169" t="s">
         <v>768</v>
       </c>
-      <c r="X169">
-        <v>1</v>
-      </c>
-      <c r="AA169" t="s">
+      <c r="AB169" t="s">
         <v>769</v>
       </c>
-      <c r="AB169" t="s">
-        <v>770</v>
-      </c>
-      <c r="AE169">
-        <v>8</v>
+      <c r="AF169" t="s">
+        <v>766</v>
+      </c>
+      <c r="AG169">
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:33">
       <c r="A170">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B170" t="s">
+        <v>770</v>
+      </c>
+      <c r="C170" t="s">
+        <v>766</v>
+      </c>
+      <c r="H170" t="s">
         <v>771</v>
       </c>
-      <c r="C170" t="s">
-        <v>439</v>
-      </c>
-      <c r="H170" t="s">
+      <c r="L170">
+        <v>300000</v>
+      </c>
+      <c r="N170">
+        <v>500000</v>
+      </c>
+      <c r="O170">
+        <v>500000</v>
+      </c>
+      <c r="P170">
+        <v>2000000000</v>
+      </c>
+      <c r="Q170">
+        <v>175000</v>
+      </c>
+      <c r="U170" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA170" t="s">
         <v>772</v>
       </c>
-      <c r="N170">
-        <v>1000</v>
-      </c>
-      <c r="O170">
-        <v>500</v>
-      </c>
-      <c r="P170">
-        <v>10000</v>
-      </c>
-      <c r="Q170">
-        <v>250</v>
-      </c>
-      <c r="U170" t="s">
+      <c r="AB170" t="s">
+        <v>773</v>
+      </c>
+      <c r="AF170" t="s">
         <v>766</v>
       </c>
-      <c r="W170" t="s">
-        <v>768</v>
-      </c>
-      <c r="X170">
-        <v>2</v>
-      </c>
-      <c r="AA170" t="s">
-        <v>773</v>
-      </c>
-      <c r="AB170" t="s">
-        <v>774</v>
-      </c>
-      <c r="AE170">
-        <v>8</v>
+      <c r="AG170">
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:33">
       <c r="A171">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B171" t="s">
+        <v>774</v>
+      </c>
+      <c r="C171" t="s">
+        <v>766</v>
+      </c>
+      <c r="H171" t="s">
         <v>775</v>
       </c>
-      <c r="C171" t="s">
-        <v>767</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="L171">
+        <v>500000</v>
+      </c>
+      <c r="N171">
+        <v>500000</v>
+      </c>
+      <c r="O171">
+        <v>500000</v>
+      </c>
+      <c r="P171">
+        <v>2000000000</v>
+      </c>
+      <c r="Q171">
+        <v>175000</v>
+      </c>
+      <c r="U171" t="s">
+        <v>770</v>
+      </c>
+      <c r="AA171" t="s">
         <v>776</v>
       </c>
-      <c r="N171">
-        <v>1000</v>
-      </c>
-      <c r="O171">
-        <v>500</v>
-      </c>
-      <c r="P171">
-        <v>10000</v>
-      </c>
-      <c r="Q171">
-        <v>250</v>
-      </c>
-      <c r="U171" t="s">
-        <v>771</v>
-      </c>
-      <c r="W171" t="s">
-        <v>768</v>
-      </c>
-      <c r="X171">
-        <v>3</v>
-      </c>
-      <c r="AA171" t="s">
+      <c r="AB171" t="s">
         <v>777</v>
       </c>
-      <c r="AB171" t="s">
-        <v>778</v>
-      </c>
-      <c r="AE171">
-        <v>8</v>
+      <c r="AF171" t="s">
+        <v>766</v>
+      </c>
+      <c r="AG171">
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:33">
       <c r="A172">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B172" t="s">
+        <v>778</v>
+      </c>
+      <c r="C172" t="s">
+        <v>718</v>
+      </c>
+      <c r="G172">
+        <v>15</v>
+      </c>
+      <c r="H172" t="s">
         <v>779</v>
       </c>
-      <c r="C172" t="s">
+      <c r="M172" t="s">
         <v>780</v>
       </c>
-      <c r="H172" t="s">
+      <c r="N172">
+        <v>500000</v>
+      </c>
+      <c r="O172">
+        <v>500000</v>
+      </c>
+      <c r="P172">
+        <v>2000000000</v>
+      </c>
+      <c r="Q172">
+        <v>175000</v>
+      </c>
+      <c r="U172" t="s">
+        <v>774</v>
+      </c>
+      <c r="AA172" t="s">
         <v>781</v>
       </c>
-      <c r="N172">
-        <v>1000</v>
-      </c>
-      <c r="O172">
-        <v>500</v>
-      </c>
-      <c r="P172">
-        <v>10000</v>
-      </c>
-      <c r="Q172">
-        <v>250</v>
-      </c>
-      <c r="U172" t="s">
-        <v>775</v>
-      </c>
-      <c r="W172" t="s">
-        <v>768</v>
-      </c>
-      <c r="X172">
-        <v>4</v>
-      </c>
-      <c r="AA172" t="s">
+      <c r="AB172" t="s">
         <v>782</v>
-      </c>
-      <c r="AB172" t="s">
-        <v>783</v>
-      </c>
-      <c r="AE172">
-        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:33">
       <c r="A173">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B173" t="s">
+        <v>783</v>
+      </c>
+      <c r="C173" t="s">
         <v>784</v>
-      </c>
-      <c r="C173" t="s">
-        <v>780</v>
-      </c>
-      <c r="H173" t="s">
-        <v>785</v>
       </c>
       <c r="N173">
         <v>1000</v>
@@ -10240,29 +10294,38 @@
       <c r="Q173">
         <v>250</v>
       </c>
-      <c r="U173" t="s">
-        <v>779</v>
-      </c>
-      <c r="V173" t="s">
+      <c r="T173">
+        <v>1</v>
+      </c>
+      <c r="W173" t="s">
+        <v>785</v>
+      </c>
+      <c r="X173">
+        <v>1</v>
+      </c>
+      <c r="AA173" t="s">
         <v>786</v>
       </c>
-      <c r="AA173" t="s">
+      <c r="AB173" t="s">
         <v>787</v>
       </c>
-      <c r="AB173" t="s">
-        <v>788</v>
+      <c r="AE173">
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:33">
       <c r="A174">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B174" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C174" t="s">
         <v>439</v>
       </c>
+      <c r="H174" t="s">
+        <v>789</v>
+      </c>
       <c r="N174">
         <v>1000</v>
       </c>
@@ -10276,13 +10339,13 @@
         <v>250</v>
       </c>
       <c r="U174" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="W174" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="X174">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA174" t="s">
         <v>790</v>
@@ -10296,31 +10359,19 @@
     </row>
     <row r="175" spans="1:33">
       <c r="A175">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B175" t="s">
         <v>792</v>
       </c>
       <c r="C175" t="s">
+        <v>784</v>
+      </c>
+      <c r="H175" t="s">
         <v>793</v>
       </c>
-      <c r="E175" t="s">
-        <v>789</v>
-      </c>
-      <c r="F175" t="s">
-        <v>766</v>
-      </c>
-      <c r="I175">
-        <v>100</v>
-      </c>
-      <c r="J175">
-        <v>100</v>
-      </c>
-      <c r="K175">
+      <c r="N175">
         <v>1000</v>
-      </c>
-      <c r="N175">
-        <v>100</v>
       </c>
       <c r="O175">
         <v>500</v>
@@ -10332,7 +10383,13 @@
         <v>250</v>
       </c>
       <c r="U175" t="s">
-        <v>766</v>
+        <v>788</v>
+      </c>
+      <c r="W175" t="s">
+        <v>785</v>
+      </c>
+      <c r="X175">
+        <v>3</v>
       </c>
       <c r="AA175" t="s">
         <v>794</v>
@@ -10340,37 +10397,22 @@
       <c r="AB175" t="s">
         <v>795</v>
       </c>
-      <c r="AD175" t="s">
-        <v>789</v>
-      </c>
       <c r="AE175">
         <v>8</v>
       </c>
-      <c r="AF175" t="s">
-        <v>793</v>
-      </c>
-      <c r="AG175">
-        <v>5</v>
-      </c>
     </row>
     <row r="176" spans="1:33">
       <c r="A176">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B176" t="s">
         <v>796</v>
       </c>
       <c r="C176" t="s">
-        <v>793</v>
-      </c>
-      <c r="I176">
-        <v>100</v>
-      </c>
-      <c r="J176">
-        <v>100</v>
-      </c>
-      <c r="K176">
-        <v>1000</v>
+        <v>797</v>
+      </c>
+      <c r="H176" t="s">
+        <v>798</v>
       </c>
       <c r="N176">
         <v>1000</v>
@@ -10387,31 +10429,34 @@
       <c r="U176" t="s">
         <v>792</v>
       </c>
+      <c r="W176" t="s">
+        <v>785</v>
+      </c>
+      <c r="X176">
+        <v>4</v>
+      </c>
       <c r="AA176" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AB176" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AE176">
         <v>8</v>
       </c>
-      <c r="AF176" t="s">
-        <v>793</v>
-      </c>
-      <c r="AG176">
-        <v>10</v>
-      </c>
     </row>
     <row r="177" spans="1:33">
       <c r="A177">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B177" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C177" t="s">
-        <v>767</v>
+        <v>797</v>
+      </c>
+      <c r="H177" t="s">
+        <v>802</v>
       </c>
       <c r="N177">
         <v>1000</v>
@@ -10428,34 +10473,25 @@
       <c r="U177" t="s">
         <v>796</v>
       </c>
+      <c r="V177" t="s">
+        <v>803</v>
+      </c>
       <c r="AA177" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="AB177" t="s">
-        <v>801</v>
-      </c>
-      <c r="AE177">
-        <v>8</v>
-      </c>
-      <c r="AF177" t="s">
-        <v>767</v>
-      </c>
-      <c r="AG177">
-        <v>5</v>
+        <v>805</v>
       </c>
     </row>
     <row r="178" spans="1:33">
       <c r="A178">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B178" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C178" t="s">
-        <v>803</v>
-      </c>
-      <c r="K178">
-        <v>5000</v>
+        <v>439</v>
       </c>
       <c r="N178">
         <v>1000</v>
@@ -10470,71 +10506,101 @@
         <v>250</v>
       </c>
       <c r="U178" t="s">
-        <v>799</v>
+        <v>801</v>
+      </c>
+      <c r="W178" t="s">
+        <v>785</v>
+      </c>
+      <c r="X178">
+        <v>5</v>
       </c>
       <c r="AA178" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="AB178" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="AE178">
         <v>8</v>
       </c>
-      <c r="AF178" t="s">
-        <v>803</v>
-      </c>
-      <c r="AG178">
-        <v>5</v>
-      </c>
     </row>
     <row r="179" spans="1:33">
       <c r="A179">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B179" t="s">
+        <v>809</v>
+      </c>
+      <c r="C179" t="s">
+        <v>810</v>
+      </c>
+      <c r="E179" t="s">
         <v>806</v>
       </c>
-      <c r="C179" t="s">
-        <v>803</v>
+      <c r="F179" t="s">
+        <v>783</v>
       </c>
       <c r="I179">
+        <v>100</v>
+      </c>
+      <c r="J179">
+        <v>100</v>
+      </c>
+      <c r="K179">
         <v>1000</v>
       </c>
-      <c r="J179">
-        <v>1000</v>
-      </c>
-      <c r="K179">
-        <v>5000</v>
+      <c r="N179">
+        <v>100</v>
+      </c>
+      <c r="O179">
+        <v>500</v>
+      </c>
+      <c r="P179">
+        <v>10000</v>
+      </c>
+      <c r="Q179">
+        <v>250</v>
       </c>
       <c r="U179" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="AA179" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="AB179" t="s">
-        <v>808</v>
+        <v>812</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>806</v>
       </c>
       <c r="AE179">
         <v>8</v>
       </c>
       <c r="AF179" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="AG179">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:33">
       <c r="A180">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B180" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C180" t="s">
-        <v>767</v>
+        <v>810</v>
+      </c>
+      <c r="I180">
+        <v>100</v>
+      </c>
+      <c r="J180">
+        <v>100</v>
+      </c>
+      <c r="K180">
+        <v>1000</v>
       </c>
       <c r="N180">
         <v>1000</v>
@@ -10549,19 +10615,19 @@
         <v>250</v>
       </c>
       <c r="U180" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="AA180" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="AB180" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="AE180">
         <v>8</v>
       </c>
       <c r="AF180" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="AG180">
         <v>10</v>
@@ -10569,19 +10635,13 @@
     </row>
     <row r="181" spans="1:33">
       <c r="A181">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B181" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C181" t="s">
-        <v>793</v>
-      </c>
-      <c r="E181" t="s">
-        <v>809</v>
-      </c>
-      <c r="F181" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="N181">
         <v>1000</v>
@@ -10596,22 +10656,19 @@
         <v>250</v>
       </c>
       <c r="U181" t="s">
-        <v>766</v>
+        <v>813</v>
       </c>
       <c r="AA181" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="AB181" t="s">
-        <v>814</v>
-      </c>
-      <c r="AD181" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="AE181">
         <v>8</v>
       </c>
       <c r="AF181" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="AG181">
         <v>5</v>
@@ -10619,13 +10676,16 @@
     </row>
     <row r="182" spans="1:33">
       <c r="A182">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B182" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C182" t="s">
-        <v>780</v>
+        <v>820</v>
+      </c>
+      <c r="K182">
+        <v>5000</v>
       </c>
       <c r="N182">
         <v>1000</v>
@@ -10640,60 +10700,57 @@
         <v>250</v>
       </c>
       <c r="U182" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AA182" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="AB182" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="AE182">
         <v>8</v>
       </c>
       <c r="AF182" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="AG182">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:33">
       <c r="A183">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B183" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="C183" t="s">
-        <v>793</v>
-      </c>
-      <c r="N183">
+        <v>820</v>
+      </c>
+      <c r="I183">
         <v>1000</v>
       </c>
-      <c r="O183">
-        <v>500</v>
-      </c>
-      <c r="P183">
-        <v>10000</v>
-      </c>
-      <c r="Q183">
-        <v>250</v>
+      <c r="J183">
+        <v>1000</v>
+      </c>
+      <c r="K183">
+        <v>5000</v>
       </c>
       <c r="U183" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="AA183" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="AB183" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="AE183">
         <v>8</v>
       </c>
       <c r="AF183" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
       <c r="AG183">
         <v>10</v>
@@ -10701,13 +10758,13 @@
     </row>
     <row r="184" spans="1:33">
       <c r="A184">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B184" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="C184" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="N184">
         <v>1000</v>
@@ -10722,87 +10779,69 @@
         <v>250</v>
       </c>
       <c r="U184" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="AA184" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="AB184" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="AE184">
         <v>8</v>
       </c>
       <c r="AF184" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="AG184">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:33">
       <c r="A185">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B185" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C185" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="E185" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="F185" t="s">
-        <v>812</v>
-      </c>
-      <c r="G185">
-        <v>20</v>
-      </c>
-      <c r="H185" t="s">
-        <v>392</v>
-      </c>
-      <c r="I185">
-        <v>550000</v>
-      </c>
-      <c r="J185">
-        <v>550000</v>
-      </c>
-      <c r="K185">
-        <v>150000000000</v>
-      </c>
-      <c r="L185">
-        <v>700000</v>
+        <v>809</v>
       </c>
       <c r="N185">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O185">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P185">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q185">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U185" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="AA185" t="s">
+        <v>830</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>831</v>
+      </c>
+      <c r="AD185" t="s">
         <v>826</v>
-      </c>
-      <c r="AB185" t="s">
-        <v>827</v>
-      </c>
-      <c r="AD185" t="s">
-        <v>821</v>
       </c>
       <c r="AE185">
         <v>8</v>
       </c>
       <c r="AF185" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="AG185">
         <v>5</v>
@@ -10810,90 +10849,81 @@
     </row>
     <row r="186" spans="1:33">
       <c r="A186">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B186" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C186" t="s">
+        <v>797</v>
+      </c>
+      <c r="N186">
+        <v>1000</v>
+      </c>
+      <c r="O186">
+        <v>500</v>
+      </c>
+      <c r="P186">
+        <v>10000</v>
+      </c>
+      <c r="Q186">
+        <v>250</v>
+      </c>
+      <c r="U186" t="s">
         <v>829</v>
       </c>
-      <c r="L186">
-        <v>150000</v>
-      </c>
-      <c r="N186">
-        <v>500000</v>
-      </c>
-      <c r="O186">
-        <v>500000</v>
-      </c>
-      <c r="P186">
-        <v>2000000000</v>
-      </c>
-      <c r="Q186">
-        <v>175000</v>
-      </c>
-      <c r="U186" t="s">
-        <v>824</v>
-      </c>
-      <c r="W186" t="s">
-        <v>703</v>
-      </c>
-      <c r="X186">
-        <v>5</v>
-      </c>
       <c r="AA186" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="AB186" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="AE186">
         <v>8</v>
       </c>
       <c r="AF186" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="AG186">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:33">
       <c r="A187">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B187" t="s">
+        <v>835</v>
+      </c>
+      <c r="C187" t="s">
+        <v>810</v>
+      </c>
+      <c r="N187">
+        <v>1000</v>
+      </c>
+      <c r="O187">
+        <v>500</v>
+      </c>
+      <c r="P187">
+        <v>10000</v>
+      </c>
+      <c r="Q187">
+        <v>250</v>
+      </c>
+      <c r="U187" t="s">
         <v>832</v>
       </c>
-      <c r="C187" t="s">
-        <v>829</v>
-      </c>
-      <c r="N187">
-        <v>500000</v>
-      </c>
-      <c r="O187">
-        <v>500000</v>
-      </c>
-      <c r="P187">
-        <v>2000000000</v>
-      </c>
-      <c r="Q187">
-        <v>175000</v>
-      </c>
-      <c r="U187" t="s">
-        <v>828</v>
-      </c>
       <c r="AA187" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="AB187" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="AE187">
         <v>8</v>
       </c>
       <c r="AF187" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="AG187">
         <v>10</v>
@@ -10901,254 +10931,263 @@
     </row>
     <row r="188" spans="1:33">
       <c r="A188">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B188" t="s">
+        <v>838</v>
+      </c>
+      <c r="C188" t="s">
+        <v>784</v>
+      </c>
+      <c r="N188">
+        <v>1000</v>
+      </c>
+      <c r="O188">
+        <v>500</v>
+      </c>
+      <c r="P188">
+        <v>10000</v>
+      </c>
+      <c r="Q188">
+        <v>250</v>
+      </c>
+      <c r="U188" t="s">
         <v>835</v>
       </c>
-      <c r="C188" t="s">
-        <v>829</v>
-      </c>
-      <c r="N188">
-        <v>500000</v>
-      </c>
-      <c r="O188">
-        <v>500000</v>
-      </c>
-      <c r="P188">
-        <v>2000000000</v>
-      </c>
-      <c r="Q188">
-        <v>175000</v>
-      </c>
-      <c r="U188" t="s">
-        <v>832</v>
-      </c>
       <c r="AA188" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="AB188" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="AE188">
         <v>8</v>
       </c>
       <c r="AF188" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="AG188">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" spans="1:33">
       <c r="A189">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B189" t="s">
+        <v>841</v>
+      </c>
+      <c r="C189" t="s">
+        <v>842</v>
+      </c>
+      <c r="E189" t="s">
         <v>838</v>
       </c>
-      <c r="C189" t="s">
-        <v>825</v>
-      </c>
-      <c r="D189" t="s">
-        <v>839</v>
-      </c>
-      <c r="E189" t="s">
-        <v>821</v>
-      </c>
       <c r="F189" t="s">
-        <v>812</v>
+        <v>829</v>
+      </c>
+      <c r="G189">
+        <v>20</v>
+      </c>
+      <c r="H189" t="s">
+        <v>392</v>
+      </c>
+      <c r="I189">
+        <v>550000</v>
+      </c>
+      <c r="J189">
+        <v>550000</v>
+      </c>
+      <c r="K189">
+        <v>150000000000</v>
+      </c>
+      <c r="L189">
+        <v>700000</v>
       </c>
       <c r="N189">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O189">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P189">
-        <v>150000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q189">
-        <v>750</v>
-      </c>
-      <c r="T189">
-        <v>1</v>
+        <v>175000</v>
+      </c>
+      <c r="U189" t="s">
+        <v>783</v>
       </c>
       <c r="AA189" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="AB189" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC189" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="AD189" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="AE189">
         <v>8</v>
       </c>
       <c r="AF189" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="AG189">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:33">
       <c r="A190">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B190" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C190" t="s">
-        <v>829</v>
-      </c>
-      <c r="D190" t="s">
-        <v>839</v>
+        <v>846</v>
+      </c>
+      <c r="L190">
+        <v>150000</v>
       </c>
       <c r="N190">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O190">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P190">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q190">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U190" t="s">
-        <v>838</v>
+        <v>841</v>
+      </c>
+      <c r="W190" t="s">
+        <v>720</v>
+      </c>
+      <c r="X190">
+        <v>5</v>
       </c>
       <c r="AA190" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="AB190" t="s">
-        <v>844</v>
-      </c>
-      <c r="AC190" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="AE190">
         <v>8</v>
       </c>
       <c r="AF190" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="AG190">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:33">
       <c r="A191">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B191" t="s">
+        <v>849</v>
+      </c>
+      <c r="C191" t="s">
+        <v>846</v>
+      </c>
+      <c r="N191">
+        <v>500000</v>
+      </c>
+      <c r="O191">
+        <v>500000</v>
+      </c>
+      <c r="P191">
+        <v>2000000000</v>
+      </c>
+      <c r="Q191">
+        <v>175000</v>
+      </c>
+      <c r="U191" t="s">
         <v>845</v>
       </c>
-      <c r="C191" t="s">
-        <v>825</v>
-      </c>
-      <c r="D191" t="s">
-        <v>839</v>
-      </c>
-      <c r="N191">
-        <v>50000</v>
-      </c>
-      <c r="O191">
-        <v>50000</v>
-      </c>
-      <c r="P191">
-        <v>1500000000</v>
-      </c>
-      <c r="Q191">
-        <v>750</v>
-      </c>
-      <c r="U191" t="s">
-        <v>842</v>
-      </c>
       <c r="AA191" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="AB191" t="s">
-        <v>847</v>
-      </c>
-      <c r="AC191" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="AE191">
         <v>8</v>
       </c>
       <c r="AF191" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
       <c r="AG191">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:33">
       <c r="A192">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B192" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C192" t="s">
-        <v>825</v>
-      </c>
-      <c r="D192" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="N192">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O192">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P192">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q192">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U192" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="AA192" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="AB192" t="s">
-        <v>850</v>
-      </c>
-      <c r="AC192" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="AE192">
         <v>8</v>
       </c>
       <c r="AF192" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
       <c r="AG192">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:33">
       <c r="A193">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B193" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C193" t="s">
-        <v>780</v>
+        <v>842</v>
       </c>
       <c r="D193" t="s">
-        <v>839</v>
+        <v>856</v>
+      </c>
+      <c r="E193" t="s">
+        <v>838</v>
+      </c>
+      <c r="F193" t="s">
+        <v>829</v>
       </c>
       <c r="N193">
         <v>50000</v>
@@ -11157,28 +11196,31 @@
         <v>50000</v>
       </c>
       <c r="P193">
-        <v>1500000000</v>
+        <v>150000000000</v>
       </c>
       <c r="Q193">
         <v>750</v>
       </c>
-      <c r="U193" t="s">
-        <v>848</v>
+      <c r="T193">
+        <v>1</v>
       </c>
       <c r="AA193" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="AB193" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="AC193" t="s">
-        <v>839</v>
+        <v>856</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>838</v>
       </c>
       <c r="AE193">
         <v>8</v>
       </c>
       <c r="AF193" t="s">
-        <v>780</v>
+        <v>842</v>
       </c>
       <c r="AG193">
         <v>10</v>
@@ -11186,46 +11228,46 @@
     </row>
     <row r="194" spans="1:33">
       <c r="A194">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B194" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="C194" t="s">
-        <v>780</v>
+        <v>846</v>
       </c>
       <c r="D194" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="N194">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="O194">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="P194">
         <v>1500000000</v>
       </c>
       <c r="Q194">
-        <v>75000</v>
+        <v>750</v>
       </c>
       <c r="U194" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="AA194" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="AB194" t="s">
+        <v>861</v>
+      </c>
+      <c r="AC194" t="s">
         <v>856</v>
-      </c>
-      <c r="AC194" t="s">
-        <v>839</v>
       </c>
       <c r="AE194">
         <v>8</v>
       </c>
       <c r="AF194" t="s">
-        <v>780</v>
+        <v>846</v>
       </c>
       <c r="AG194">
         <v>20</v>
@@ -11233,240 +11275,428 @@
     </row>
     <row r="195" spans="1:33">
       <c r="A195">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B195" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="C195" t="s">
-        <v>767</v>
+        <v>842</v>
       </c>
       <c r="D195" t="s">
-        <v>839</v>
-      </c>
-      <c r="E195" t="s">
-        <v>761</v>
-      </c>
-      <c r="F195" t="s">
-        <v>744</v>
-      </c>
-      <c r="G195">
-        <v>25</v>
-      </c>
-      <c r="H195" t="s">
-        <v>858</v>
-      </c>
-      <c r="K195">
-        <v>2000000000</v>
+        <v>856</v>
       </c>
       <c r="N195">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O195">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P195">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q195">
-        <v>200000</v>
+        <v>750</v>
       </c>
       <c r="U195" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
       <c r="AA195" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="AB195" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="AC195" t="s">
-        <v>839</v>
-      </c>
-      <c r="AD195" t="s">
-        <v>761</v>
+        <v>856</v>
       </c>
       <c r="AE195">
         <v>8</v>
       </c>
       <c r="AF195" t="s">
-        <v>767</v>
+        <v>842</v>
       </c>
       <c r="AG195">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:33">
       <c r="A196">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B196" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C196" t="s">
-        <v>767</v>
+        <v>842</v>
       </c>
       <c r="D196" t="s">
-        <v>839</v>
-      </c>
-      <c r="E196" t="s">
-        <v>854</v>
-      </c>
-      <c r="F196" t="s">
-        <v>838</v>
-      </c>
-      <c r="H196" t="s">
+        <v>856</v>
+      </c>
+      <c r="N196">
+        <v>50000</v>
+      </c>
+      <c r="O196">
+        <v>50000</v>
+      </c>
+      <c r="P196">
+        <v>1500000000</v>
+      </c>
+      <c r="Q196">
+        <v>750</v>
+      </c>
+      <c r="U196" t="s">
         <v>862</v>
       </c>
-      <c r="N196">
-        <v>1000000</v>
-      </c>
-      <c r="O196">
-        <v>1000000</v>
-      </c>
-      <c r="P196">
-        <v>2000000000</v>
-      </c>
-      <c r="Q196">
-        <v>200000</v>
-      </c>
-      <c r="U196" t="s">
-        <v>857</v>
-      </c>
       <c r="AA196" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="AB196" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="AC196" t="s">
-        <v>839</v>
-      </c>
-      <c r="AD196" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AE196">
         <v>8</v>
       </c>
       <c r="AF196" t="s">
-        <v>767</v>
+        <v>842</v>
       </c>
       <c r="AG196">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:33">
       <c r="A197">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B197" t="s">
+        <v>868</v>
+      </c>
+      <c r="C197" t="s">
+        <v>797</v>
+      </c>
+      <c r="D197" t="s">
+        <v>856</v>
+      </c>
+      <c r="N197">
+        <v>50000</v>
+      </c>
+      <c r="O197">
+        <v>50000</v>
+      </c>
+      <c r="P197">
+        <v>1500000000</v>
+      </c>
+      <c r="Q197">
+        <v>750</v>
+      </c>
+      <c r="U197" t="s">
         <v>865</v>
       </c>
-      <c r="C197" t="s">
-        <v>780</v>
-      </c>
-      <c r="D197" t="s">
-        <v>839</v>
-      </c>
-      <c r="H197" t="s">
-        <v>866</v>
-      </c>
-      <c r="N197">
-        <v>1000000</v>
-      </c>
-      <c r="O197">
-        <v>1000000</v>
-      </c>
-      <c r="P197">
-        <v>2000000000</v>
-      </c>
-      <c r="Q197">
-        <v>2000000</v>
-      </c>
-      <c r="U197" t="s">
-        <v>861</v>
-      </c>
       <c r="AA197" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AB197" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AC197" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="AE197">
         <v>8</v>
       </c>
       <c r="AF197" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="AG197">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:33">
       <c r="A198">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B198" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C198" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="D198" t="s">
-        <v>839</v>
-      </c>
-      <c r="H198" t="s">
-        <v>870</v>
-      </c>
-      <c r="I198">
-        <v>20000</v>
-      </c>
-      <c r="J198">
-        <v>30000</v>
-      </c>
-      <c r="K198">
-        <v>150000000000</v>
-      </c>
-      <c r="L198">
-        <v>700000</v>
+        <v>856</v>
       </c>
       <c r="N198">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="O198">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="P198">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q198">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="U198" t="s">
-        <v>865</v>
-      </c>
-      <c r="Y198">
-        <v>3</v>
+        <v>868</v>
       </c>
       <c r="AA198" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AB198" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AC198" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="AE198">
         <v>8</v>
       </c>
       <c r="AF198" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="AG198">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33">
+      <c r="A199">
+        <v>190</v>
+      </c>
+      <c r="B199" t="s">
+        <v>874</v>
+      </c>
+      <c r="C199" t="s">
+        <v>784</v>
+      </c>
+      <c r="D199" t="s">
+        <v>856</v>
+      </c>
+      <c r="E199" t="s">
+        <v>778</v>
+      </c>
+      <c r="F199" t="s">
+        <v>761</v>
+      </c>
+      <c r="G199">
+        <v>25</v>
+      </c>
+      <c r="H199" t="s">
+        <v>875</v>
+      </c>
+      <c r="K199">
+        <v>2000000000</v>
+      </c>
+      <c r="N199">
+        <v>1000000</v>
+      </c>
+      <c r="O199">
+        <v>1000000</v>
+      </c>
+      <c r="P199">
+        <v>2000000000</v>
+      </c>
+      <c r="Q199">
+        <v>200000</v>
+      </c>
+      <c r="U199" t="s">
+        <v>855</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>876</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>877</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE199">
+        <v>8</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>784</v>
+      </c>
+      <c r="AG199">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:33">
+      <c r="A200">
+        <v>191</v>
+      </c>
+      <c r="B200" t="s">
+        <v>878</v>
+      </c>
+      <c r="C200" t="s">
+        <v>784</v>
+      </c>
+      <c r="D200" t="s">
+        <v>856</v>
+      </c>
+      <c r="E200" t="s">
+        <v>871</v>
+      </c>
+      <c r="F200" t="s">
+        <v>855</v>
+      </c>
+      <c r="H200" t="s">
+        <v>879</v>
+      </c>
+      <c r="N200">
+        <v>1000000</v>
+      </c>
+      <c r="O200">
+        <v>1000000</v>
+      </c>
+      <c r="P200">
+        <v>2000000000</v>
+      </c>
+      <c r="Q200">
+        <v>200000</v>
+      </c>
+      <c r="U200" t="s">
+        <v>874</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>880</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>871</v>
+      </c>
+      <c r="AE200">
+        <v>8</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>784</v>
+      </c>
+      <c r="AG200">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:33">
+      <c r="A201">
+        <v>192</v>
+      </c>
+      <c r="B201" t="s">
+        <v>882</v>
+      </c>
+      <c r="C201" t="s">
+        <v>797</v>
+      </c>
+      <c r="D201" t="s">
+        <v>856</v>
+      </c>
+      <c r="H201" t="s">
+        <v>883</v>
+      </c>
+      <c r="N201">
+        <v>1000000</v>
+      </c>
+      <c r="O201">
+        <v>1000000</v>
+      </c>
+      <c r="P201">
+        <v>2000000000</v>
+      </c>
+      <c r="Q201">
+        <v>2000000</v>
+      </c>
+      <c r="U201" t="s">
+        <v>878</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>884</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>885</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>856</v>
+      </c>
+      <c r="AE201">
+        <v>8</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>797</v>
+      </c>
+      <c r="AG201">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33">
+      <c r="A202">
+        <v>193</v>
+      </c>
+      <c r="B202" t="s">
+        <v>886</v>
+      </c>
+      <c r="C202" t="s">
+        <v>784</v>
+      </c>
+      <c r="D202" t="s">
+        <v>856</v>
+      </c>
+      <c r="H202" t="s">
+        <v>887</v>
+      </c>
+      <c r="I202">
+        <v>20000</v>
+      </c>
+      <c r="J202">
+        <v>30000</v>
+      </c>
+      <c r="K202">
+        <v>150000000000</v>
+      </c>
+      <c r="L202">
+        <v>700000</v>
+      </c>
+      <c r="N202">
+        <v>1000000</v>
+      </c>
+      <c r="O202">
+        <v>1000000</v>
+      </c>
+      <c r="P202">
+        <v>2000000000</v>
+      </c>
+      <c r="Q202">
+        <v>200000</v>
+      </c>
+      <c r="U202" t="s">
+        <v>882</v>
+      </c>
+      <c r="Y202">
+        <v>3</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>888</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>889</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>856</v>
+      </c>
+      <c r="AE202">
+        <v>8</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>784</v>
+      </c>
+      <c r="AG202">
         <v>25</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="911">
   <si>
     <t>id</t>
   </si>
@@ -1202,6 +1202,75 @@
     <t>"Tell me!" you exclaim, your voice filled with urgency.&lt;br /&gt; &lt;br /&gt; "Christ! Calm down, child. It's just a smudge," The Scholar reassures you, his tone gentle.&lt;br /&gt; &lt;br /&gt; As he returns his gaze to the book, you press for more information. "What couldn't he face?"&lt;br /&gt; &lt;br /&gt; With a sigh, he responds, "His own death."&lt;br /&gt; &lt;br /&gt; "His own death?" you repeat incredulously.&lt;br /&gt; &lt;br /&gt; "Yes, how he died. How he ended up here. He couldn't confront whatever that was," The Scholar elaborates.&lt;br /&gt; &lt;br /&gt; Understanding dawns upon you, and you demand answers. In response, The Scholar offers you something—a twisted and gnarled branch. It feels ancient, smooth to the touch, and sturdy.&lt;br /&gt; &lt;br /&gt; "With this, you can enter the Twisted Memories realm and begin unravelling the answers to your questions," he explains.&lt;br /&gt; &lt;br /&gt; Taking the branch, you study it intently. It's time to start pulling the thread.</t>
   </si>
   <si>
+    <t>The responsible thing to do</t>
+  </si>
+  <si>
+    <t>Facing The Lords</t>
+  </si>
+  <si>
+    <t>Krogs Letter to Pags</t>
+  </si>
+  <si>
+    <t>Capital City Building Requests</t>
+  </si>
+  <si>
+    <t>You keep flipping through Krog's journal, looking for clues about how his brother could have crossed the threshold—one that would be locked, locked by The Creator himself. You remember the Shade Lord, the one who &lt;br /&gt; was The Creator, or was it The Creator all along?&lt;br /&gt; &lt;br /&gt; Questions abound in your mind as you chase down a man obsessed with shiny objects.&lt;br /&gt; &lt;br /&gt; "You seem troubled," comes a voice. The Scholar of Hell stands before you, dressed in clean, pressed robes of red and black. He carries a walking stick, blacker than night and shiny, carved with intricate designs and &lt;br /&gt; patterns that vibrate with magic.&lt;br /&gt; &lt;br /&gt; You explain what you are searching for. You take a moment and describe a man, cursed to find shiny objects, who escaped a world The Creator himself created and locked, a world he does not want anyone poking around in.&lt;br /&gt; &lt;br /&gt; "I see," the Scholar states after a moment, pondering your words.&lt;br /&gt; &lt;br /&gt; "I know of a tale, one that speaks of a rift in time. It opens for those seeking a challenge, one that tests their ability to lead their people and their strength. I don't know if it's truly a tale or not, but I know of a way to find &lt;br /&gt; out. Find me a letter that confirms this story."&lt;br /&gt; &lt;br /&gt; A letter? What kind of letter? you wonder.</t>
+  </si>
+  <si>
+    <t>You find a letter that Krog wrote to Pags a long time ago.&lt;br /&gt; &lt;br /&gt; "My dear brother, I write to you today to let you know there has been an invasion. One that I fear we will not be able to hold back much longer without your assistance. I am sending this letter to you before you seek out this 'door' to another world and waste everyone's time with this nonsense of 'comic' gifts that 'rain down from the delusional trials.' I beg of you, and I, as your king, hereby order you to return and help me, your brother—defend our lands from the night that is coming."&lt;br /&gt; &lt;br /&gt; You hand the letter over to the scholar, who takes a closer look at it.&lt;br /&gt; &lt;br /&gt; "Delusional trials…." He ponders for a moment.&lt;br /&gt; &lt;br /&gt; "There is a place of Twisted Memories that might shed light on this. Alas, I do not think he could have faced the trials required to enter such a place. People would have heard of his exploits."&lt;br /&gt; &lt;br /&gt; He takes another moment to ponder, and you sit before a prepared fire, staring into the crackling flames and contemplating the letter and its words.</t>
+  </si>
+  <si>
+    <t>The River Man</t>
+  </si>
+  <si>
+    <t>ThePoet</t>
+  </si>
+  <si>
+    <t>The River Mans Journal</t>
+  </si>
+  <si>
+    <t>Invitation to the council</t>
+  </si>
+  <si>
+    <t>Night turns to day, and your sleep is as restless as your mind. You keep thinking back to the letter. Delusional trials—what could that be? The scholar also mentioned Twisted Memories. You have heard the rumors but remember that even if the scholar is correct, people would have heard of Pags by now—his exploits, his search.&lt;br /&gt; &lt;br /&gt; His search.&lt;br /&gt; &lt;br /&gt; You stand and set off, knowing where you must go now.</t>
+  </si>
+  <si>
+    <t>You stop off in a dark and foreboding dungeon to hunt for a specific kind of treasure, one you have seen before but never bothered to gather on your travels into the depths of a plane littered with remnants of the past.&lt;br /&gt; &lt;br /&gt; After your travels into the depths, you head to the surface and find The Poet sitting out front of his house. He seems to have been waiting for you.&lt;br /&gt; &lt;br /&gt; As you approach, you tell him you came by before but the house seemed empty.&lt;br /&gt; &lt;br /&gt; "Time is a fickle thing, child," he states after a moment.&lt;br /&gt; &lt;br /&gt; You explain you need his help searching for a man named Pags. His brother Krog—he cuts you off.&lt;br /&gt; &lt;br /&gt; "You seek doors to places you do not belong, child. You seek lands beyond the reach of even those who walk beside man."&lt;br /&gt; &lt;br /&gt; The Poet stares at you hard. His eyes pierce through you, causing you to take a step back.&lt;br /&gt; &lt;br /&gt; "There is a man, a man you seek—long since dead now. He was a manifestation, a creation. One of the first creations. An illusion of friendship."&lt;br /&gt; &lt;br /&gt; The Poet's voice grows lower, harsher—like a whisper to a knife.&lt;br /&gt; &lt;br /&gt; "A creation escaped the gates, came seeking his 'friend.' I put him down, buried him in the back. Twisted and broken was his mind. A broken creation by a twisted and foul man."&lt;br /&gt; &lt;br /&gt; The Poet stands and states, "I will not speak of this darkness anymore. This journal belonged to a man long lost to the sands of time. Best to leave some doors closed, child."&lt;br /&gt; &lt;br /&gt; You stand there, aghast, as he walks inside and closes the door.&lt;br /&gt; &lt;br /&gt; There is one other who might speak of The River Man.</t>
+  </si>
+  <si>
+    <t>The Child and The Merchant</t>
+  </si>
+  <si>
+    <t>Broken Blessed Sword of Pags</t>
+  </si>
+  <si>
+    <t>Ripped and Bloody Mythical Leather</t>
+  </si>
+  <si>
+    <t>Capital City Unit Requests</t>
+  </si>
+  <si>
+    <t>If The Poet refuses to speak on the matter, then perhaps The Wandering Merchant will. You seek him out, finding him sitting by a river under an old spruce tree.&lt;br /&gt; &lt;br /&gt; "Hello there, child," he greets you.&lt;br /&gt; &lt;br /&gt; You ask him if he has heard of Pags and Krog, even The River Man.&lt;br /&gt; &lt;br /&gt; "Yes, child, I know of the stories you seek to expose. Some are better off not told."&lt;br /&gt; &lt;br /&gt; You tell him how you know of Krog being a responsible landowner and how Pags somehow escaped this "other world" and came looking for The Creator.&lt;br /&gt; &lt;br /&gt; "You are twisting yourself into knots, child, seeking out things in the dark that should stay hidden."&lt;br /&gt; &lt;br /&gt; You begin to get frustrated and demand straight answers.&lt;br /&gt; &lt;br /&gt; "A council took the sword. The sword is the key, but you will also need to find the armor."&lt;br /&gt; &lt;br /&gt; "A hunting expedition?" you ask.&lt;br /&gt; &lt;br /&gt; "One for the past, if you dare seek it. I have one piece. You just need the other."&lt;br /&gt; &lt;br /&gt; You ask what these items mean, what they symbolize.&lt;br /&gt; &lt;br /&gt; "A man's death."&lt;br /&gt; &lt;br /&gt; A breeze kicks up, cold and chilling, down to the bone.</t>
+  </si>
+  <si>
+    <t>You find the sword and return to The Wandering Merchant, who awaits you in the same place as before.&lt;br /&gt; &lt;br /&gt; "You did it, child. You used that relentlessness and determination to crack yet another page in a never-ending book of darkness."&lt;br /&gt; &lt;br /&gt; He takes the sword from you and studies it. "He was one of mine, a failed guidance through an already broken world."&lt;br /&gt; &lt;br /&gt; One of yours?&lt;br /&gt; &lt;br /&gt; "One of mine," he states, looking up at you. "I tried to guide him as The Poet did The Child. Alas, like him, I failed."&lt;br /&gt; &lt;br /&gt; A tear runs down his cheek, and you wonder to yourself why he sheds a tear for a dead man.&lt;br /&gt; &lt;br /&gt; "I left it all to my son. I tried to guide my other son—to a world where his wounds would heal. He was already dead…" He breaks down and sobs.</t>
+  </si>
+  <si>
+    <t>A creation</t>
+  </si>
+  <si>
+    <t>Hand mirror into the past</t>
+  </si>
+  <si>
+    <t>Speedy Resources</t>
+  </si>
+  <si>
+    <t>You return to the Scholar after consoling The Wandering Merchant. Pags and Krog, brothers—their father, The Wandering Merchant. Pags apparently died in battle a week before his brother sent the letter ordering him &lt;br /&gt; to come home. It was not a glorious battle; it was a bar fight over the existence of a plane called Delusional Memories, where powerful champions would face off against powerful beasts who, in turn, could reward the &lt;br /&gt; champion with something "cosmic." He died trying to defend the existence of a place that may or may not exist, on the basis that it may or may not hold shiny god-tier items.&lt;br /&gt; &lt;br /&gt; Pags appeared on the surface. The Wandering Merchant tried to guide him to another place, a place of Ascension. Alas, Pags was drawn to his creator, The Creator—the original creation sought out its own creator. &lt;br /&gt; Why? Why the insistent searching? Why the failed ascension? You still do not know.</t>
+  </si>
+  <si>
+    <t>"And perhaps you will never know, child," the Scholar of Hell says, walking up to you.&lt;br /&gt; &lt;br /&gt; You look at him for a moment and explain about The River Man.&lt;br /&gt; &lt;br /&gt; "A time god, you see, one created before The Creator's arrival and failed ascension. One that unlocks time itself."&lt;br /&gt; &lt;br /&gt; A time god? Is The Poet and—&lt;br /&gt; &lt;br /&gt; "No, child. There are many gods. Many creations, creatures, and foul things. Some cosmic and beyond your own comprehension, and some that are mere mortals. The Poet and his friends are something else, puppets &lt;br /&gt; to the masters that pull the strings. You, on the other hand, are something else…"&lt;br /&gt; &lt;br /&gt; A mere mortal with a bit of fame, you jest.&lt;br /&gt; &lt;br /&gt; "A creation."&lt;br /&gt; &lt;br /&gt; A… creation?</t>
+  </si>
+  <si>
     <t>The Creator and The Smith</t>
   </si>
   <si>
@@ -1334,9 +1403,6 @@
     <t>The Poets Story</t>
   </si>
   <si>
-    <t>ThePoet</t>
-  </si>
-  <si>
     <t>"I made a choice, back then—to seal away the shattering," The Poet states as the two of you sit in his living room, surrounded by forest. You walked through the same clearing to get here that The Creator woke up in; then he was known as The Child. A child covered in blood, a child who committed suicide, a child who refused to accept reality.&lt;br /&gt; &lt;br /&gt; "It was after the war when I told The Child, 'You must ascend now. You have fought hard, you have come a long way—now is the time the land must heal, now is the time you must heal.'"&lt;br /&gt; &lt;br /&gt; The Poet stands, an old man—age is rapidly ascending upon him.&lt;br /&gt; &lt;br /&gt; "My time is almost over in this world, child. I have failed and they know it. But in the grand scheme of things, you have made it further than I would have anticipated given the circumstances of this world."&lt;br /&gt; &lt;br /&gt; He walks out of the living room into the kitchen. Staring out the window, he looks longingly for his youth.&lt;br /&gt; &lt;br /&gt; You follow him and sit at the small table off to the side, watching him for a moment.&lt;br /&gt; &lt;br /&gt; "We were sent here to guide those who tragically died. This was always a land between where they came from and where they go to, a place between. But it shattered, and I tried to contain it as best I can."&lt;br /&gt; &lt;br /&gt; He trails off into silence. You begin to ponder his words for a moment in the deafening silence of the kitchen.</t>
   </si>
   <si>
@@ -1557,9 +1623,6 @@
   </si>
   <si>
     <t>You hunted through the Wrecked Ship and found an old journal penned by a name unknown to you. Pags.&lt;br /&gt; &lt;br /&gt; You read the pages of the journal:&lt;br /&gt; &lt;br /&gt; “I search for that which alludes my own mind. Substance I cannot find, yet I long for. Where did he go? I have escaped the prison of his own making, alas I die alone on a sinking ship.”&lt;br /&gt; &lt;br /&gt; This must have been one of the brothers.&lt;br /&gt; &lt;br /&gt; You look up and see the Shade Lord standing before you, a cloak of shadows and a whisper of yesterday.&lt;br /&gt; &lt;br /&gt; He holds out his hand, that of a young man, you take it and the smoke and shadows dissipate, leaving a man before you. A young man.&lt;br /&gt; &lt;br /&gt; There is blood from his head, his eyes are dark.&lt;br /&gt; &lt;br /&gt; He holds on tightly.&lt;br /&gt; &lt;br /&gt; “You seek what you cannot understand. Alas one lives on in my memories child. You play games, you seek answers, you hunt things. You know nothing of the puppet masters. This … All of this, was a construct of death.”&lt;br /&gt; &lt;br /&gt; The man disappears and the shade lord returns. He stands before you. Whispering of times past.</t>
-  </si>
-  <si>
-    <t>Facing The Lords</t>
   </si>
   <si>
     <t>Krogs Journal</t>
@@ -3024,7 +3087,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG202"/>
+  <dimension ref="A1:AG206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,7 +3120,7 @@
     <col min="23" max="23" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="2556.376" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="2944.424" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="28.136" bestFit="true" customWidth="true" style="0"/>
@@ -6344,723 +6407,741 @@
     </row>
     <row r="80" spans="1:33">
       <c r="A80">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="B80" t="s">
         <v>395</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
-      </c>
-      <c r="I80">
-        <v>15000</v>
-      </c>
-      <c r="J80">
-        <v>2000</v>
+        <v>340</v>
+      </c>
+      <c r="E80" t="s">
+        <v>396</v>
+      </c>
+      <c r="H80" t="s">
+        <v>397</v>
       </c>
       <c r="N80">
         <v>1000</v>
       </c>
       <c r="O80">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P80">
         <v>1000000</v>
       </c>
       <c r="Q80">
-        <v>25</v>
-      </c>
-      <c r="T80">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="U80" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>398</v>
       </c>
       <c r="AA80" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD80" t="s">
         <v>396</v>
       </c>
-      <c r="AB80" t="s">
-        <v>397</v>
+      <c r="AF80" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG80">
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:33">
       <c r="A81">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="H81" t="s">
-        <v>399</v>
-      </c>
-      <c r="I81">
-        <v>500</v>
-      </c>
-      <c r="J81">
-        <v>3000</v>
+        <v>403</v>
+      </c>
+      <c r="M81" t="s">
+        <v>404</v>
       </c>
       <c r="N81">
+        <v>1000</v>
+      </c>
+      <c r="O81">
+        <v>1000</v>
+      </c>
+      <c r="P81">
+        <v>1000000</v>
+      </c>
+      <c r="Q81">
         <v>150</v>
-      </c>
-      <c r="O81">
-        <v>2</v>
-      </c>
-      <c r="P81">
-        <v>250</v>
-      </c>
-      <c r="Q81">
-        <v>25</v>
       </c>
       <c r="U81" t="s">
         <v>395</v>
       </c>
-      <c r="V81" t="s">
-        <v>400</v>
+      <c r="W81" t="s">
+        <v>116</v>
+      </c>
+      <c r="X81">
+        <v>5</v>
       </c>
       <c r="AA81" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AB81" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF81" t="s">
         <v>402</v>
+      </c>
+      <c r="AG81">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:33">
       <c r="A82">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="B82" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>103</v>
+      </c>
+      <c r="E82" t="s">
+        <v>401</v>
       </c>
       <c r="H82" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M82" t="s">
-        <v>289</v>
+        <v>409</v>
+      </c>
+      <c r="N82">
+        <v>1000</v>
+      </c>
+      <c r="O82">
+        <v>1000</v>
+      </c>
+      <c r="P82">
+        <v>1000000</v>
+      </c>
+      <c r="Q82">
+        <v>200</v>
       </c>
       <c r="U82" t="s">
-        <v>398</v>
-      </c>
-      <c r="V82" t="s">
-        <v>405</v>
+        <v>401</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>410</v>
       </c>
       <c r="AA82" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AB82" t="s">
-        <v>407</v>
+        <v>412</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG82">
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:33">
       <c r="A83">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>340</v>
       </c>
       <c r="H83" t="s">
         <v>409</v>
       </c>
-      <c r="I83">
+      <c r="N83">
+        <v>1000000</v>
+      </c>
+      <c r="O83">
+        <v>500000</v>
+      </c>
+      <c r="P83">
+        <v>10000000</v>
+      </c>
+      <c r="Q83">
         <v>500</v>
       </c>
-      <c r="J83">
-        <v>5000</v>
-      </c>
-      <c r="K83">
-        <v>2500</v>
-      </c>
-      <c r="L83">
-        <v>1000</v>
-      </c>
-      <c r="M83" t="s">
-        <v>410</v>
-      </c>
-      <c r="N83">
-        <v>150</v>
-      </c>
-      <c r="O83">
-        <v>2</v>
-      </c>
-      <c r="P83">
-        <v>250</v>
-      </c>
-      <c r="Q83">
-        <v>100</v>
-      </c>
       <c r="U83" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="V83" t="s">
-        <v>288</v>
+        <v>414</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>415</v>
       </c>
       <c r="AA83" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AB83" t="s">
-        <v>412</v>
+        <v>417</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG83">
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:33">
       <c r="A84">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
-      </c>
-      <c r="H84" t="s">
-        <v>414</v>
+        <v>113</v>
       </c>
       <c r="I84">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="J84">
-        <v>5000</v>
-      </c>
-      <c r="K84">
-        <v>50000</v>
-      </c>
-      <c r="M84" t="s">
-        <v>415</v>
+        <v>2000</v>
       </c>
       <c r="N84">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="O84">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P84">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="Q84">
-        <v>100</v>
-      </c>
-      <c r="U84" t="s">
-        <v>403</v>
+        <v>25</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
       </c>
       <c r="AA84" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AB84" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:33">
       <c r="A85">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
+        <v>421</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" t="s">
+        <v>422</v>
+      </c>
+      <c r="I85">
+        <v>500</v>
+      </c>
+      <c r="J85">
+        <v>3000</v>
+      </c>
+      <c r="N85">
+        <v>150</v>
+      </c>
+      <c r="O85">
+        <v>2</v>
+      </c>
+      <c r="P85">
+        <v>250</v>
+      </c>
+      <c r="Q85">
+        <v>25</v>
+      </c>
+      <c r="U85" t="s">
         <v>418</v>
       </c>
-      <c r="C85" t="s">
-        <v>419</v>
-      </c>
-      <c r="H85" t="s">
-        <v>420</v>
-      </c>
-      <c r="N85">
-        <v>1000</v>
-      </c>
-      <c r="O85">
-        <v>100</v>
-      </c>
-      <c r="P85">
-        <v>10000000</v>
-      </c>
-      <c r="Q85">
-        <v>200</v>
-      </c>
-      <c r="U85" t="s">
-        <v>403</v>
+      <c r="V85" t="s">
+        <v>423</v>
       </c>
       <c r="AA85" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AB85" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:33">
       <c r="A86">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C86" t="s">
-        <v>419</v>
+        <v>253</v>
+      </c>
+      <c r="H86" t="s">
+        <v>427</v>
       </c>
       <c r="M86" t="s">
-        <v>354</v>
-      </c>
-      <c r="N86">
-        <v>1000</v>
-      </c>
-      <c r="O86">
-        <v>500</v>
-      </c>
-      <c r="P86">
-        <v>10000000</v>
-      </c>
-      <c r="Q86">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="U86" t="s">
-        <v>418</v>
-      </c>
-      <c r="W86" t="s">
-        <v>79</v>
-      </c>
-      <c r="X86">
-        <v>5</v>
+        <v>421</v>
+      </c>
+      <c r="V86" t="s">
+        <v>428</v>
       </c>
       <c r="AA86" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AB86" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" spans="1:33">
       <c r="A87">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
+        <v>431</v>
+      </c>
+      <c r="C87" t="s">
+        <v>253</v>
+      </c>
+      <c r="H87" t="s">
+        <v>432</v>
+      </c>
+      <c r="I87">
+        <v>500</v>
+      </c>
+      <c r="J87">
+        <v>5000</v>
+      </c>
+      <c r="K87">
+        <v>2500</v>
+      </c>
+      <c r="L87">
+        <v>1000</v>
+      </c>
+      <c r="M87" t="s">
+        <v>433</v>
+      </c>
+      <c r="N87">
+        <v>150</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>250</v>
+      </c>
+      <c r="Q87">
+        <v>100</v>
+      </c>
+      <c r="U87" t="s">
         <v>426</v>
       </c>
-      <c r="C87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E87" t="s">
-        <v>169</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-      <c r="H87" t="s">
-        <v>427</v>
-      </c>
-      <c r="N87">
-        <v>10000</v>
-      </c>
-      <c r="O87">
-        <v>1000</v>
-      </c>
-      <c r="P87">
-        <v>1000000</v>
-      </c>
-      <c r="Q87">
-        <v>15000</v>
-      </c>
-      <c r="U87" t="s">
-        <v>403</v>
-      </c>
       <c r="V87" t="s">
-        <v>428</v>
+        <v>288</v>
       </c>
       <c r="AA87" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AB87" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF87" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG87">
-        <v>5</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:33">
       <c r="A88">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s">
-        <v>432</v>
+        <v>437</v>
+      </c>
+      <c r="I88">
+        <v>5000</v>
+      </c>
+      <c r="J88">
+        <v>5000</v>
+      </c>
+      <c r="K88">
+        <v>50000</v>
+      </c>
+      <c r="M88" t="s">
+        <v>438</v>
       </c>
       <c r="N88">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="O88">
-        <v>20000</v>
+        <v>50</v>
       </c>
       <c r="P88">
-        <v>1000000000</v>
+        <v>5000</v>
       </c>
       <c r="Q88">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="U88" t="s">
         <v>426</v>
       </c>
       <c r="AA88" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="AB88" t="s">
-        <v>434</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG88">
-        <v>10</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:33">
       <c r="A89">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C89" t="s">
-        <v>68</v>
+        <v>442</v>
+      </c>
+      <c r="H89" t="s">
+        <v>443</v>
       </c>
       <c r="N89">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="O89">
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="P89">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="Q89">
-        <v>30000</v>
+        <v>200</v>
       </c>
       <c r="U89" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AA89" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="AB89" t="s">
-        <v>437</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG89">
-        <v>20</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:33">
       <c r="A90">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C90" t="s">
-        <v>439</v>
+        <v>442</v>
+      </c>
+      <c r="M90" t="s">
+        <v>354</v>
       </c>
       <c r="N90">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="O90">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="P90">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="Q90">
-        <v>30000</v>
+        <v>200</v>
       </c>
       <c r="U90" t="s">
-        <v>435</v>
+        <v>441</v>
+      </c>
+      <c r="W90" t="s">
+        <v>79</v>
+      </c>
+      <c r="X90">
+        <v>5</v>
       </c>
       <c r="AA90" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AB90" t="s">
-        <v>441</v>
-      </c>
-      <c r="AF90" t="s">
-        <v>439</v>
-      </c>
-      <c r="AG90">
-        <v>15</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:33">
       <c r="A91">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>68</v>
+      </c>
+      <c r="E91" t="s">
+        <v>169</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>450</v>
       </c>
       <c r="N91">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="O91">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="P91">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="Q91">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="U91" t="s">
-        <v>438</v>
+        <v>426</v>
+      </c>
+      <c r="V91" t="s">
+        <v>451</v>
       </c>
       <c r="AA91" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AB91" t="s">
-        <v>444</v>
+        <v>453</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>169</v>
       </c>
       <c r="AF91" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="AG91">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:33">
       <c r="A92">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="H92" t="s">
-        <v>244</v>
-      </c>
-      <c r="I92">
-        <v>500</v>
-      </c>
-      <c r="J92">
-        <v>5</v>
-      </c>
-      <c r="M92" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="N92">
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="O92">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="P92">
-        <v>250</v>
+        <v>1000000000</v>
       </c>
       <c r="Q92">
-        <v>50</v>
-      </c>
-      <c r="T92">
-        <v>1</v>
-      </c>
-      <c r="W92" t="s">
-        <v>79</v>
-      </c>
-      <c r="X92">
-        <v>2</v>
+        <v>30000</v>
+      </c>
+      <c r="U92" t="s">
+        <v>449</v>
       </c>
       <c r="AA92" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AB92" t="s">
-        <v>447</v>
+        <v>457</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG92">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:33">
       <c r="A93">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C93" t="s">
-        <v>449</v>
-      </c>
-      <c r="H93" t="s">
-        <v>450</v>
-      </c>
-      <c r="L93">
-        <v>500</v>
-      </c>
-      <c r="M93" t="s">
-        <v>451</v>
+        <v>68</v>
       </c>
       <c r="N93">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="O93">
-        <v>50</v>
+        <v>25000</v>
       </c>
       <c r="P93">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="Q93">
-        <v>100</v>
-      </c>
-      <c r="T93">
-        <v>1</v>
-      </c>
-      <c r="V93" t="s">
-        <v>452</v>
-      </c>
-      <c r="W93" t="s">
-        <v>86</v>
-      </c>
-      <c r="X93">
-        <v>5</v>
+        <v>30000</v>
+      </c>
+      <c r="U93" t="s">
+        <v>454</v>
       </c>
       <c r="AA93" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="AB93" t="s">
-        <v>454</v>
+        <v>460</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG93">
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:33">
       <c r="A94">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C94" t="s">
-        <v>449</v>
-      </c>
-      <c r="H94" t="s">
-        <v>451</v>
-      </c>
-      <c r="L94">
-        <v>1000</v>
-      </c>
-      <c r="M94" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="N94">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="O94">
-        <v>50</v>
+        <v>25000</v>
       </c>
       <c r="P94">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="Q94">
-        <v>150</v>
+        <v>30000</v>
       </c>
       <c r="U94" t="s">
-        <v>448</v>
-      </c>
-      <c r="V94" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA94" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AB94" t="s">
-        <v>459</v>
+        <v>463</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG94">
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:33">
       <c r="A95">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C95" t="s">
-        <v>449</v>
-      </c>
-      <c r="H95" t="s">
-        <v>456</v>
-      </c>
-      <c r="L95">
-        <v>1500</v>
-      </c>
-      <c r="M95" t="s">
+        <v>103</v>
+      </c>
+      <c r="N95">
+        <v>50000</v>
+      </c>
+      <c r="O95">
+        <v>50000</v>
+      </c>
+      <c r="P95">
+        <v>2000000</v>
+      </c>
+      <c r="Q95">
+        <v>50000</v>
+      </c>
+      <c r="U95" t="s">
         <v>461</v>
       </c>
-      <c r="N95">
-        <v>500</v>
-      </c>
-      <c r="O95">
-        <v>50</v>
-      </c>
-      <c r="P95">
-        <v>5000</v>
-      </c>
-      <c r="Q95">
-        <v>200</v>
-      </c>
-      <c r="U95" t="s">
-        <v>455</v>
-      </c>
-      <c r="V95" t="s">
-        <v>462</v>
-      </c>
       <c r="AA95" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AB95" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG95">
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:33">
       <c r="A96">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C96" t="s">
-        <v>449</v>
+        <v>38</v>
       </c>
       <c r="H96" t="s">
-        <v>461</v>
-      </c>
-      <c r="L96">
-        <v>3000</v>
+        <v>244</v>
+      </c>
+      <c r="I96">
+        <v>500</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
       </c>
       <c r="M96" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N96">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96">
+        <v>250</v>
+      </c>
+      <c r="Q96">
         <v>50</v>
       </c>
-      <c r="P96">
-        <v>5000</v>
-      </c>
-      <c r="Q96">
-        <v>300</v>
-      </c>
-      <c r="U96" t="s">
-        <v>460</v>
-      </c>
-      <c r="V96" t="s">
-        <v>467</v>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="W96" t="s">
+        <v>79</v>
+      </c>
+      <c r="X96">
+        <v>2</v>
       </c>
       <c r="AA96" t="s">
         <v>468</v>
@@ -7071,25 +7152,22 @@
     </row>
     <row r="97" spans="1:33">
       <c r="A97">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
         <v>470</v>
       </c>
       <c r="C97" t="s">
-        <v>83</v>
+        <v>471</v>
       </c>
       <c r="H97" t="s">
-        <v>471</v>
-      </c>
-      <c r="I97">
-        <v>5000</v>
-      </c>
-      <c r="J97">
-        <v>5000</v>
+        <v>472</v>
       </c>
       <c r="L97">
-        <v>5000</v>
+        <v>500</v>
+      </c>
+      <c r="M97" t="s">
+        <v>473</v>
       </c>
       <c r="N97">
         <v>500</v>
@@ -7101,276 +7179,306 @@
         <v>5000</v>
       </c>
       <c r="Q97">
-        <v>250</v>
-      </c>
-      <c r="U97" t="s">
-        <v>448</v>
+        <v>100</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
       </c>
       <c r="V97" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="W97" t="s">
+        <v>86</v>
+      </c>
+      <c r="X97">
+        <v>5</v>
       </c>
       <c r="AA97" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AB97" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:33">
       <c r="A98">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C98" t="s">
-        <v>83</v>
-      </c>
-      <c r="I98">
-        <v>5000</v>
-      </c>
-      <c r="J98">
-        <v>7000</v>
-      </c>
-      <c r="K98">
-        <v>50000</v>
+        <v>471</v>
+      </c>
+      <c r="H98" t="s">
+        <v>473</v>
       </c>
       <c r="L98">
-        <v>3000</v>
+        <v>1000</v>
+      </c>
+      <c r="M98" t="s">
+        <v>478</v>
+      </c>
+      <c r="N98">
+        <v>500</v>
+      </c>
+      <c r="O98">
+        <v>50</v>
       </c>
       <c r="P98">
         <v>5000</v>
       </c>
       <c r="Q98">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="U98" t="s">
         <v>470</v>
       </c>
+      <c r="V98" t="s">
+        <v>479</v>
+      </c>
       <c r="AA98" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AB98" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:33">
       <c r="A99">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
+        <v>482</v>
+      </c>
+      <c r="C99" t="s">
+        <v>471</v>
+      </c>
+      <c r="H99" t="s">
         <v>478</v>
       </c>
-      <c r="C99" t="s">
-        <v>83</v>
-      </c>
-      <c r="H99" t="s">
-        <v>479</v>
-      </c>
-      <c r="I99">
-        <v>5000</v>
-      </c>
-      <c r="J99">
-        <v>7500</v>
-      </c>
       <c r="L99">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="M99" t="s">
-        <v>480</v>
+        <v>483</v>
+      </c>
+      <c r="N99">
+        <v>500</v>
+      </c>
+      <c r="O99">
+        <v>50</v>
       </c>
       <c r="P99">
         <v>5000</v>
       </c>
       <c r="Q99">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U99" t="s">
-        <v>475</v>
+        <v>477</v>
+      </c>
+      <c r="V99" t="s">
+        <v>484</v>
       </c>
       <c r="AA99" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AB99" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:33">
       <c r="A100">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>373</v>
+        <v>487</v>
       </c>
       <c r="C100" t="s">
-        <v>83</v>
-      </c>
-      <c r="E100" t="s">
-        <v>442</v>
-      </c>
-      <c r="F100" t="s">
-        <v>426</v>
-      </c>
-      <c r="G100">
-        <v>4</v>
+        <v>471</v>
       </c>
       <c r="H100" t="s">
         <v>483</v>
       </c>
+      <c r="L100">
+        <v>3000</v>
+      </c>
+      <c r="M100" t="s">
+        <v>488</v>
+      </c>
       <c r="N100">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="O100">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="P100">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q100">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="U100" t="s">
-        <v>448</v>
+        <v>482</v>
+      </c>
+      <c r="V100" t="s">
+        <v>489</v>
       </c>
       <c r="AA100" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="AB100" t="s">
-        <v>485</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF100" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG100">
-        <v>5</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101" spans="1:33">
       <c r="A101">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="B101" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C101" t="s">
         <v>83</v>
       </c>
       <c r="H101" t="s">
-        <v>487</v>
+        <v>493</v>
+      </c>
+      <c r="I101">
+        <v>5000</v>
+      </c>
+      <c r="J101">
+        <v>5000</v>
+      </c>
+      <c r="L101">
+        <v>5000</v>
       </c>
       <c r="N101">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="O101">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="P101">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q101">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="U101" t="s">
-        <v>373</v>
+        <v>470</v>
+      </c>
+      <c r="V101" t="s">
+        <v>494</v>
       </c>
       <c r="AA101" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="AB101" t="s">
-        <v>489</v>
-      </c>
-      <c r="AF101" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG101">
-        <v>10</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:33">
       <c r="A102">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
-      </c>
-      <c r="H102" t="s">
-        <v>491</v>
+        <v>83</v>
+      </c>
+      <c r="I102">
+        <v>5000</v>
+      </c>
+      <c r="J102">
+        <v>7000</v>
+      </c>
+      <c r="K102">
+        <v>50000</v>
+      </c>
+      <c r="L102">
+        <v>3000</v>
+      </c>
+      <c r="P102">
+        <v>5000</v>
+      </c>
+      <c r="Q102">
+        <v>250</v>
       </c>
       <c r="U102" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AA102" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AB102" t="s">
-        <v>493</v>
-      </c>
-      <c r="AF102" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG102">
-        <v>10</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:33">
       <c r="A103">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="H103" t="s">
-        <v>495</v>
-      </c>
-      <c r="N103">
-        <v>30000</v>
-      </c>
-      <c r="O103">
-        <v>30000</v>
+        <v>501</v>
+      </c>
+      <c r="I103">
+        <v>5000</v>
+      </c>
+      <c r="J103">
+        <v>7500</v>
+      </c>
+      <c r="L103">
+        <v>10000</v>
+      </c>
+      <c r="M103" t="s">
+        <v>502</v>
       </c>
       <c r="P103">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q103">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="U103" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AA103" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AB103" t="s">
-        <v>497</v>
-      </c>
-      <c r="AF103" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG103">
-        <v>5</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:33">
       <c r="A104">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C104" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" t="s">
+        <v>464</v>
+      </c>
+      <c r="F104" t="s">
         <v>449</v>
       </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
       <c r="H104" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="N104">
         <v>30000</v>
@@ -7385,16 +7493,19 @@
         <v>50000</v>
       </c>
       <c r="U104" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="AA104" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AB104" t="s">
-        <v>500</v>
+        <v>507</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>464</v>
       </c>
       <c r="AF104" t="s">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="AG104">
         <v>5</v>
@@ -7402,49 +7513,40 @@
     </row>
     <row r="105" spans="1:33">
       <c r="A105">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C105" t="s">
-        <v>176</v>
-      </c>
-      <c r="E105" t="s">
-        <v>321</v>
-      </c>
-      <c r="F105" t="s">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="H105" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N105">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O105">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="P105">
-        <v>1000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q105">
-        <v>75</v>
+        <v>50000</v>
       </c>
       <c r="U105" t="s">
-        <v>448</v>
+        <v>373</v>
       </c>
       <c r="AA105" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AB105" t="s">
-        <v>504</v>
-      </c>
-      <c r="AD105" t="s">
-        <v>321</v>
+        <v>511</v>
       </c>
       <c r="AF105" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AG105">
         <v>10</v>
@@ -7452,754 +7554,769 @@
     </row>
     <row r="106" spans="1:33">
       <c r="A106">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C106" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="H106" t="s">
-        <v>506</v>
-      </c>
-      <c r="N106">
-        <v>10000</v>
-      </c>
-      <c r="O106">
-        <v>1000</v>
-      </c>
-      <c r="P106">
-        <v>1000000</v>
-      </c>
-      <c r="Q106">
-        <v>150</v>
+        <v>513</v>
       </c>
       <c r="U106" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AA106" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AB106" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AF106" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="AG106">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:33">
       <c r="A107">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C107" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="H107" t="s">
-        <v>510</v>
-      </c>
-      <c r="M107" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="N107">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O107">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="P107">
-        <v>1000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q107">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="U107" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AA107" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AB107" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="AF107" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="AG107">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:33">
       <c r="A108">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
-        <v>514</v>
+        <v>372</v>
       </c>
       <c r="C108" t="s">
-        <v>83</v>
+        <v>471</v>
       </c>
       <c r="H108" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="N108">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O108">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="P108">
-        <v>2000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q108">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="U108" t="s">
-        <v>509</v>
-      </c>
-      <c r="Y108">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="AA108" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="AB108" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="AF108" t="s">
-        <v>83</v>
+        <v>471</v>
       </c>
       <c r="AG108">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:33">
       <c r="A109">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" t="s">
-        <v>519</v>
+        <v>176</v>
+      </c>
+      <c r="E109" t="s">
+        <v>321</v>
+      </c>
+      <c r="F109" t="s">
+        <v>309</v>
       </c>
       <c r="H109" t="s">
-        <v>520</v>
+        <v>524</v>
+      </c>
+      <c r="N109">
+        <v>10000</v>
+      </c>
+      <c r="O109">
+        <v>1000</v>
       </c>
       <c r="P109">
-        <v>150</v>
+        <v>1000000</v>
       </c>
       <c r="Q109">
-        <v>1000</v>
-      </c>
-      <c r="T109">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="U109" t="s">
+        <v>470</v>
       </c>
       <c r="AA109" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AB109" t="s">
-        <v>522</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>519</v>
+        <v>526</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG109">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:33">
       <c r="A110">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="B110" t="s">
+        <v>527</v>
+      </c>
+      <c r="C110" t="s">
+        <v>176</v>
+      </c>
+      <c r="H110" t="s">
+        <v>528</v>
+      </c>
+      <c r="N110">
+        <v>10000</v>
+      </c>
+      <c r="O110">
+        <v>1000</v>
+      </c>
+      <c r="P110">
+        <v>1000000</v>
+      </c>
+      <c r="Q110">
+        <v>150</v>
+      </c>
+      <c r="U110" t="s">
         <v>523</v>
       </c>
-      <c r="C110" t="s">
-        <v>439</v>
-      </c>
-      <c r="D110" t="s">
-        <v>519</v>
-      </c>
-      <c r="H110" t="s">
-        <v>524</v>
-      </c>
-      <c r="M110" t="s">
-        <v>525</v>
-      </c>
-      <c r="P110">
-        <v>150</v>
-      </c>
-      <c r="Q110">
-        <v>1000</v>
-      </c>
-      <c r="U110" t="s">
-        <v>518</v>
-      </c>
       <c r="AA110" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AB110" t="s">
-        <v>527</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>519</v>
+        <v>530</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG110">
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:33">
       <c r="A111">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C111" t="s">
-        <v>529</v>
-      </c>
-      <c r="D111" t="s">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="H111" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M111" t="s">
-        <v>530</v>
+        <v>533</v>
+      </c>
+      <c r="N111">
+        <v>10000</v>
+      </c>
+      <c r="O111">
+        <v>1000</v>
       </c>
       <c r="P111">
-        <v>250</v>
+        <v>1000000</v>
       </c>
       <c r="Q111">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="U111" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AA111" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AB111" t="s">
-        <v>532</v>
-      </c>
-      <c r="AC111" t="s">
-        <v>519</v>
+        <v>535</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG111">
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:33">
       <c r="A112">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>533</v>
+        <v>396</v>
       </c>
       <c r="C112" t="s">
-        <v>103</v>
-      </c>
-      <c r="D112" t="s">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="H112" t="s">
-        <v>530</v>
-      </c>
-      <c r="I112">
-        <v>100</v>
+        <v>536</v>
+      </c>
+      <c r="N112">
+        <v>20000</v>
+      </c>
+      <c r="O112">
+        <v>2000</v>
       </c>
       <c r="P112">
-        <v>150</v>
+        <v>2000000</v>
       </c>
       <c r="Q112">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="U112" t="s">
-        <v>528</v>
-      </c>
-      <c r="V112" t="s">
-        <v>534</v>
+        <v>531</v>
+      </c>
+      <c r="Y112">
+        <v>4</v>
       </c>
       <c r="AA112" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AB112" t="s">
-        <v>536</v>
-      </c>
-      <c r="AC112" t="s">
-        <v>519</v>
+        <v>538</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG112">
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:33">
       <c r="A113">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B113" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C113" t="s">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="H113" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="P113">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="Q113">
-        <v>1500</v>
-      </c>
-      <c r="U113" t="s">
-        <v>533</v>
-      </c>
-      <c r="V113" t="s">
-        <v>539</v>
+        <v>1000</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
       </c>
       <c r="AA113" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC113" t="s">
         <v>540</v>
-      </c>
-      <c r="AB113" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC113" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="114" spans="1:33">
       <c r="A114">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B114" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C114" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="D114" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="H114" t="s">
-        <v>543</v>
-      </c>
-      <c r="I114">
-        <v>25000</v>
+        <v>545</v>
       </c>
       <c r="M114" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="P114">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="Q114">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="U114" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AA114" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AB114" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AC114" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="115" spans="1:33">
       <c r="A115">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>550</v>
       </c>
       <c r="D115" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="H115" t="s">
+        <v>546</v>
+      </c>
+      <c r="M115" t="s">
+        <v>551</v>
+      </c>
+      <c r="P115">
+        <v>250</v>
+      </c>
+      <c r="Q115">
+        <v>1000</v>
+      </c>
+      <c r="U115" t="s">
         <v>544</v>
       </c>
-      <c r="I115">
-        <v>100</v>
-      </c>
-      <c r="N115">
-        <v>25</v>
-      </c>
-      <c r="O115">
-        <v>2</v>
-      </c>
-      <c r="P115">
-        <v>150</v>
-      </c>
-      <c r="Q115">
-        <v>3000</v>
-      </c>
-      <c r="U115" t="s">
-        <v>542</v>
-      </c>
       <c r="AA115" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AB115" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AC115" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="116" spans="1:33">
       <c r="A116">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B116" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C116" t="s">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>519</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
+        <v>540</v>
+      </c>
+      <c r="H116" t="s">
+        <v>551</v>
       </c>
       <c r="I116">
         <v>100</v>
       </c>
-      <c r="J116">
-        <v>20000</v>
-      </c>
-      <c r="L116">
-        <v>10000</v>
-      </c>
       <c r="P116">
         <v>150</v>
       </c>
       <c r="Q116">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="U116" t="s">
-        <v>518</v>
+        <v>549</v>
+      </c>
+      <c r="V116" t="s">
+        <v>555</v>
       </c>
       <c r="AA116" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="AB116" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="AC116" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="117" spans="1:33">
       <c r="A117">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B117" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="D117" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="H117" t="s">
+        <v>559</v>
+      </c>
+      <c r="P117">
+        <v>10000</v>
+      </c>
+      <c r="Q117">
+        <v>1500</v>
+      </c>
+      <c r="U117" t="s">
         <v>554</v>
       </c>
-      <c r="I117">
-        <v>500</v>
-      </c>
-      <c r="J117">
-        <v>15000</v>
-      </c>
-      <c r="L117">
-        <v>15000</v>
-      </c>
-      <c r="P117">
-        <v>250</v>
-      </c>
-      <c r="Q117">
-        <v>4000</v>
-      </c>
-      <c r="U117" t="s">
-        <v>550</v>
+      <c r="V117" t="s">
+        <v>560</v>
       </c>
       <c r="AA117" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AB117" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AC117" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:33">
       <c r="A118">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B118" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C118" t="s">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="D118" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="H118" t="s">
+        <v>564</v>
+      </c>
+      <c r="I118">
+        <v>25000</v>
+      </c>
+      <c r="M118" t="s">
+        <v>565</v>
+      </c>
+      <c r="P118">
+        <v>10000</v>
+      </c>
+      <c r="Q118">
+        <v>1600</v>
+      </c>
+      <c r="U118" t="s">
         <v>558</v>
       </c>
-      <c r="M118" t="s">
-        <v>559</v>
-      </c>
-      <c r="P118">
-        <v>250</v>
-      </c>
-      <c r="Q118">
-        <v>4000</v>
-      </c>
-      <c r="U118" t="s">
-        <v>553</v>
-      </c>
       <c r="AA118" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AB118" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="AC118" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="119" spans="1:33">
       <c r="A119">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B119" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C119" t="s">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="D119" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="H119" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="I119">
         <v>100</v>
       </c>
-      <c r="J119">
-        <v>100000</v>
-      </c>
-      <c r="L119">
-        <v>75000</v>
+      <c r="N119">
+        <v>25</v>
+      </c>
+      <c r="O119">
+        <v>2</v>
+      </c>
+      <c r="P119">
+        <v>150</v>
       </c>
       <c r="Q119">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="U119" t="s">
-        <v>557</v>
-      </c>
-      <c r="Y119">
-        <v>1</v>
+        <v>563</v>
       </c>
       <c r="AA119" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="AB119" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AC119" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="120" spans="1:33">
       <c r="A120">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B120" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C120" t="s">
-        <v>566</v>
-      </c>
-      <c r="H120" t="s">
-        <v>567</v>
+        <v>402</v>
+      </c>
+      <c r="D120" t="s">
+        <v>540</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="J120">
+        <v>20000</v>
+      </c>
+      <c r="L120">
+        <v>10000</v>
       </c>
       <c r="P120">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q120">
-        <v>100</v>
-      </c>
-      <c r="T120">
-        <v>1</v>
+        <v>3000</v>
+      </c>
+      <c r="U120" t="s">
+        <v>539</v>
       </c>
       <c r="AA120" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AB120" t="s">
-        <v>569</v>
-      </c>
-      <c r="AE120">
-        <v>4</v>
+        <v>573</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="121" spans="1:33">
       <c r="A121">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B121" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C121" t="s">
-        <v>439</v>
+        <v>38</v>
+      </c>
+      <c r="D121" t="s">
+        <v>540</v>
       </c>
       <c r="H121" t="s">
+        <v>575</v>
+      </c>
+      <c r="I121">
+        <v>500</v>
+      </c>
+      <c r="J121">
+        <v>15000</v>
+      </c>
+      <c r="L121">
+        <v>15000</v>
+      </c>
+      <c r="P121">
+        <v>250</v>
+      </c>
+      <c r="Q121">
+        <v>4000</v>
+      </c>
+      <c r="U121" t="s">
         <v>571</v>
       </c>
-      <c r="P121">
-        <v>150</v>
-      </c>
-      <c r="Q121">
-        <v>100</v>
-      </c>
-      <c r="U121" t="s">
-        <v>565</v>
-      </c>
       <c r="AA121" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="AB121" t="s">
-        <v>573</v>
-      </c>
-      <c r="AE121">
-        <v>4</v>
+        <v>577</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="1:33">
       <c r="A122">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B122" t="s">
+        <v>578</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>540</v>
+      </c>
+      <c r="H122" t="s">
+        <v>579</v>
+      </c>
+      <c r="M122" t="s">
+        <v>580</v>
+      </c>
+      <c r="P122">
+        <v>250</v>
+      </c>
+      <c r="Q122">
+        <v>4000</v>
+      </c>
+      <c r="U122" t="s">
         <v>574</v>
       </c>
-      <c r="C122" t="s">
-        <v>566</v>
-      </c>
-      <c r="H122" t="s">
-        <v>575</v>
-      </c>
-      <c r="P122">
-        <v>200</v>
-      </c>
-      <c r="Q122">
-        <v>100</v>
-      </c>
-      <c r="U122" t="s">
-        <v>570</v>
-      </c>
       <c r="AA122" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AB122" t="s">
-        <v>577</v>
-      </c>
-      <c r="AE122">
-        <v>4</v>
+        <v>582</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="123" spans="1:33">
       <c r="A123">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B123" t="s">
+        <v>583</v>
+      </c>
+      <c r="C123" t="s">
+        <v>402</v>
+      </c>
+      <c r="D123" t="s">
+        <v>540</v>
+      </c>
+      <c r="H123" t="s">
+        <v>580</v>
+      </c>
+      <c r="I123">
+        <v>100</v>
+      </c>
+      <c r="J123">
+        <v>100000</v>
+      </c>
+      <c r="L123">
+        <v>75000</v>
+      </c>
+      <c r="Q123">
+        <v>5000</v>
+      </c>
+      <c r="U123" t="s">
         <v>578</v>
       </c>
-      <c r="C123" t="s">
-        <v>566</v>
-      </c>
-      <c r="I123">
-        <v>125</v>
-      </c>
-      <c r="P123">
-        <v>200</v>
-      </c>
-      <c r="Q123">
-        <v>100</v>
-      </c>
-      <c r="U123" t="s">
-        <v>574</v>
+      <c r="Y123">
+        <v>1</v>
       </c>
       <c r="AA123" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="AB123" t="s">
-        <v>580</v>
-      </c>
-      <c r="AE123">
-        <v>4</v>
+        <v>585</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="124" spans="1:33">
       <c r="A124">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B124" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C124" t="s">
-        <v>566</v>
-      </c>
-      <c r="E124" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="H124" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="I124">
         <v>125</v>
       </c>
-      <c r="M124" t="s">
-        <v>584</v>
-      </c>
-      <c r="N124">
-        <v>75</v>
-      </c>
-      <c r="O124">
-        <v>10</v>
-      </c>
       <c r="P124">
         <v>200</v>
       </c>
       <c r="Q124">
         <v>100</v>
       </c>
-      <c r="U124" t="s">
-        <v>574</v>
+      <c r="T124">
+        <v>1</v>
       </c>
       <c r="AA124" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AB124" t="s">
-        <v>586</v>
-      </c>
-      <c r="AD124" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="AE124">
         <v>4</v>
@@ -8207,40 +8324,31 @@
     </row>
     <row r="125" spans="1:33">
       <c r="A125">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C125" t="s">
-        <v>566</v>
-      </c>
-      <c r="I125">
-        <v>125</v>
-      </c>
-      <c r="J125">
-        <v>1500</v>
-      </c>
-      <c r="N125">
-        <v>75</v>
-      </c>
-      <c r="O125">
-        <v>10</v>
+        <v>402</v>
+      </c>
+      <c r="H125" t="s">
+        <v>592</v>
       </c>
       <c r="P125">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q125">
         <v>100</v>
       </c>
       <c r="U125" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AA125" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AB125" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AE125">
         <v>4</v>
@@ -8248,43 +8356,31 @@
     </row>
     <row r="126" spans="1:33">
       <c r="A126">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B126" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C126" t="s">
-        <v>439</v>
-      </c>
-      <c r="E126" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="H126" t="s">
-        <v>591</v>
-      </c>
-      <c r="N126">
-        <v>25</v>
-      </c>
-      <c r="O126">
-        <v>2</v>
+        <v>596</v>
       </c>
       <c r="P126">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q126">
         <v>100</v>
       </c>
       <c r="U126" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="AA126" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="AB126" t="s">
-        <v>593</v>
-      </c>
-      <c r="AD126" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="AE126">
         <v>4</v>
@@ -8292,40 +8388,31 @@
     </row>
     <row r="127" spans="1:33">
       <c r="A127">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C127" t="s">
-        <v>439</v>
-      </c>
-      <c r="H127" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="I127">
-        <v>100</v>
-      </c>
-      <c r="N127">
-        <v>25</v>
-      </c>
-      <c r="O127">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="P127">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q127">
         <v>100</v>
       </c>
       <c r="U127" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="AA127" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AB127" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="AE127">
         <v>4</v>
@@ -8333,49 +8420,49 @@
     </row>
     <row r="128" spans="1:33">
       <c r="A128">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B128" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="C128" t="s">
-        <v>439</v>
+        <v>587</v>
+      </c>
+      <c r="E128" t="s">
+        <v>603</v>
       </c>
       <c r="H128" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I128">
-        <v>100</v>
-      </c>
-      <c r="J128">
+        <v>125</v>
+      </c>
+      <c r="M128" t="s">
+        <v>605</v>
+      </c>
+      <c r="N128">
+        <v>75</v>
+      </c>
+      <c r="O128">
+        <v>10</v>
+      </c>
+      <c r="P128">
         <v>200</v>
-      </c>
-      <c r="K128">
-        <v>1000</v>
-      </c>
-      <c r="M128" t="s">
-        <v>599</v>
-      </c>
-      <c r="N128">
-        <v>25</v>
-      </c>
-      <c r="O128">
-        <v>2</v>
-      </c>
-      <c r="P128">
-        <v>150</v>
       </c>
       <c r="Q128">
         <v>100</v>
       </c>
       <c r="U128" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AA128" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AB128" t="s">
-        <v>601</v>
+        <v>607</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>603</v>
       </c>
       <c r="AE128">
         <v>4</v>
@@ -8383,19 +8470,19 @@
     </row>
     <row r="129" spans="1:33">
       <c r="A129">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B129" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C129" t="s">
-        <v>566</v>
-      </c>
-      <c r="E129" t="s">
         <v>587</v>
       </c>
-      <c r="H129" t="s">
-        <v>603</v>
+      <c r="I129">
+        <v>125</v>
+      </c>
+      <c r="J129">
+        <v>1500</v>
       </c>
       <c r="N129">
         <v>75</v>
@@ -8410,19 +8497,13 @@
         <v>100</v>
       </c>
       <c r="U129" t="s">
-        <v>565</v>
-      </c>
-      <c r="V129" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AA129" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="AB129" t="s">
-        <v>606</v>
-      </c>
-      <c r="AD129" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="AE129">
         <v>4</v>
@@ -8430,43 +8511,43 @@
     </row>
     <row r="130" spans="1:33">
       <c r="A130">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B130" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C130" t="s">
-        <v>566</v>
+        <v>402</v>
+      </c>
+      <c r="E130" t="s">
+        <v>599</v>
       </c>
       <c r="H130" t="s">
-        <v>608</v>
-      </c>
-      <c r="I130">
-        <v>125</v>
-      </c>
-      <c r="J130">
-        <v>2000</v>
+        <v>612</v>
       </c>
       <c r="N130">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O130">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P130">
-        <v>200</v>
+        <v>150</v>
+      </c>
+      <c r="Q130">
+        <v>100</v>
       </c>
       <c r="U130" t="s">
-        <v>602</v>
-      </c>
-      <c r="V130" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="AA130" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AB130" t="s">
-        <v>611</v>
+        <v>614</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>599</v>
       </c>
       <c r="AE130">
         <v>4</v>
@@ -8474,49 +8555,40 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B131" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C131" t="s">
-        <v>566</v>
+        <v>402</v>
       </c>
       <c r="H131" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="I131">
-        <v>125</v>
-      </c>
-      <c r="J131">
-        <v>25000</v>
-      </c>
-      <c r="M131" t="s">
-        <v>614</v>
+        <v>100</v>
       </c>
       <c r="N131">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O131">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P131">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q131">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U131" t="s">
-        <v>607</v>
-      </c>
-      <c r="V131" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AA131" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AB131" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AE131">
         <v>4</v>
@@ -8524,25 +8596,28 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B132" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C132" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="H132" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="I132">
         <v>100</v>
       </c>
       <c r="J132">
-        <v>5000</v>
+        <v>200</v>
+      </c>
+      <c r="K132">
+        <v>1000</v>
       </c>
       <c r="M132" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N132">
         <v>25</v>
@@ -8554,16 +8629,16 @@
         <v>150</v>
       </c>
       <c r="Q132">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="U132" t="s">
-        <v>565</v>
+        <v>615</v>
       </c>
       <c r="AA132" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AB132" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AE132">
         <v>4</v>
@@ -8571,25 +8646,19 @@
     </row>
     <row r="133" spans="1:33">
       <c r="A133">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B133" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C133" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="E133" t="s">
+        <v>608</v>
+      </c>
+      <c r="H133" t="s">
         <v>624</v>
-      </c>
-      <c r="I133">
-        <v>125</v>
-      </c>
-      <c r="J133">
-        <v>2000</v>
-      </c>
-      <c r="M133" t="s">
-        <v>625</v>
       </c>
       <c r="N133">
         <v>75</v>
@@ -8604,7 +8673,10 @@
         <v>100</v>
       </c>
       <c r="U133" t="s">
-        <v>618</v>
+        <v>586</v>
+      </c>
+      <c r="V133" t="s">
+        <v>625</v>
       </c>
       <c r="AA133" t="s">
         <v>626</v>
@@ -8613,7 +8685,7 @@
         <v>627</v>
       </c>
       <c r="AD133" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="AE133">
         <v>4</v>
@@ -8621,22 +8693,22 @@
     </row>
     <row r="134" spans="1:33">
       <c r="A134">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B134" t="s">
         <v>628</v>
       </c>
       <c r="C134" t="s">
+        <v>587</v>
+      </c>
+      <c r="H134" t="s">
         <v>629</v>
-      </c>
-      <c r="H134" t="s">
-        <v>630</v>
       </c>
       <c r="I134">
         <v>125</v>
       </c>
       <c r="J134">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N134">
         <v>75</v>
@@ -8644,11 +8716,14 @@
       <c r="O134">
         <v>10</v>
       </c>
-      <c r="Q134">
-        <v>100</v>
+      <c r="P134">
+        <v>200</v>
       </c>
       <c r="U134" t="s">
-        <v>622</v>
+        <v>623</v>
+      </c>
+      <c r="V134" t="s">
+        <v>630</v>
       </c>
       <c r="AA134" t="s">
         <v>631</v>
@@ -8662,13 +8737,13 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B135" t="s">
         <v>633</v>
       </c>
       <c r="C135" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="H135" t="s">
         <v>634</v>
@@ -8677,7 +8752,10 @@
         <v>125</v>
       </c>
       <c r="J135">
-        <v>1500</v>
+        <v>25000</v>
+      </c>
+      <c r="M135" t="s">
+        <v>635</v>
       </c>
       <c r="N135">
         <v>75</v>
@@ -8685,20 +8763,23 @@
       <c r="O135">
         <v>10</v>
       </c>
+      <c r="P135">
+        <v>200</v>
+      </c>
       <c r="Q135">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U135" t="s">
         <v>628</v>
       </c>
       <c r="V135" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AA135" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AB135" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AE135">
         <v>4</v>
@@ -8706,19 +8787,19 @@
     </row>
     <row r="136" spans="1:33">
       <c r="A136">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B136" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C136" t="s">
-        <v>629</v>
+        <v>402</v>
       </c>
       <c r="H136" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I136">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J136">
         <v>5000</v>
@@ -8727,16 +8808,19 @@
         <v>640</v>
       </c>
       <c r="N136">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O136">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="P136">
+        <v>150</v>
       </c>
       <c r="Q136">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="U136" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="AA136" t="s">
         <v>641</v>
@@ -8750,25 +8834,25 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B137" t="s">
         <v>643</v>
       </c>
       <c r="C137" t="s">
-        <v>629</v>
-      </c>
-      <c r="H137" t="s">
-        <v>640</v>
+        <v>644</v>
+      </c>
+      <c r="E137" t="s">
+        <v>645</v>
       </c>
       <c r="I137">
         <v>125</v>
       </c>
       <c r="J137">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M137" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N137">
         <v>75</v>
@@ -8776,17 +8860,23 @@
       <c r="O137">
         <v>10</v>
       </c>
+      <c r="P137">
+        <v>200</v>
+      </c>
       <c r="Q137">
         <v>100</v>
       </c>
       <c r="U137" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="AA137" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD137" t="s">
         <v>645</v>
-      </c>
-      <c r="AB137" t="s">
-        <v>646</v>
       </c>
       <c r="AE137">
         <v>4</v>
@@ -8794,25 +8884,28 @@
     </row>
     <row r="138" spans="1:33">
       <c r="A138">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B138" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C138" t="s">
-        <v>623</v>
-      </c>
-      <c r="E138" t="s">
-        <v>643</v>
+        <v>650</v>
+      </c>
+      <c r="H138" t="s">
+        <v>651</v>
+      </c>
+      <c r="I138">
+        <v>125</v>
+      </c>
+      <c r="J138">
+        <v>1500</v>
       </c>
       <c r="N138">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O138">
-        <v>25</v>
-      </c>
-      <c r="P138">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q138">
         <v>100</v>
@@ -8820,20 +8913,11 @@
       <c r="U138" t="s">
         <v>643</v>
       </c>
-      <c r="W138" t="s">
-        <v>648</v>
-      </c>
-      <c r="X138">
-        <v>2</v>
-      </c>
       <c r="AA138" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AB138" t="s">
-        <v>650</v>
-      </c>
-      <c r="AD138" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="AE138">
         <v>4</v>
@@ -8841,40 +8925,43 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B139" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C139" t="s">
-        <v>566</v>
+        <v>650</v>
+      </c>
+      <c r="H139" t="s">
+        <v>655</v>
+      </c>
+      <c r="I139">
+        <v>125</v>
+      </c>
+      <c r="J139">
+        <v>1500</v>
       </c>
       <c r="N139">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O139">
-        <v>25</v>
-      </c>
-      <c r="P139">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q139">
         <v>100</v>
       </c>
       <c r="U139" t="s">
-        <v>647</v>
-      </c>
-      <c r="W139" t="s">
-        <v>648</v>
-      </c>
-      <c r="X139">
-        <v>4</v>
+        <v>649</v>
+      </c>
+      <c r="V139" t="s">
+        <v>656</v>
       </c>
       <c r="AA139" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AB139" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AE139">
         <v>4</v>
@@ -8882,40 +8969,43 @@
     </row>
     <row r="140" spans="1:33">
       <c r="A140">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B140" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C140" t="s">
-        <v>439</v>
+        <v>650</v>
+      </c>
+      <c r="H140" t="s">
+        <v>660</v>
+      </c>
+      <c r="I140">
+        <v>125</v>
+      </c>
+      <c r="J140">
+        <v>5000</v>
+      </c>
+      <c r="M140" t="s">
+        <v>661</v>
       </c>
       <c r="N140">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O140">
-        <v>50</v>
-      </c>
-      <c r="P140">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q140">
         <v>100</v>
       </c>
       <c r="U140" t="s">
-        <v>651</v>
-      </c>
-      <c r="W140" t="s">
-        <v>648</v>
-      </c>
-      <c r="X140">
-        <v>5</v>
+        <v>654</v>
       </c>
       <c r="AA140" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="AB140" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="AE140">
         <v>4</v>
@@ -8923,22 +9013,25 @@
     </row>
     <row r="141" spans="1:33">
       <c r="A141">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B141" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C141" t="s">
-        <v>623</v>
-      </c>
-      <c r="E141" t="s">
-        <v>618</v>
+        <v>650</v>
+      </c>
+      <c r="H141" t="s">
+        <v>661</v>
       </c>
       <c r="I141">
         <v>125</v>
       </c>
       <c r="J141">
-        <v>100</v>
+        <v>10000</v>
+      </c>
+      <c r="M141" t="s">
+        <v>665</v>
       </c>
       <c r="N141">
         <v>75</v>
@@ -8946,23 +9039,17 @@
       <c r="O141">
         <v>10</v>
       </c>
-      <c r="P141">
-        <v>200</v>
-      </c>
       <c r="Q141">
         <v>100</v>
       </c>
       <c r="U141" t="s">
-        <v>565</v>
+        <v>643</v>
       </c>
       <c r="AA141" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="AB141" t="s">
-        <v>659</v>
-      </c>
-      <c r="AD141" t="s">
-        <v>618</v>
+        <v>667</v>
       </c>
       <c r="AE141">
         <v>4</v>
@@ -8970,43 +9057,46 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B142" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="C142" t="s">
-        <v>623</v>
-      </c>
-      <c r="H142" t="s">
-        <v>661</v>
-      </c>
-      <c r="I142">
-        <v>125</v>
-      </c>
-      <c r="J142">
-        <v>500</v>
+        <v>644</v>
+      </c>
+      <c r="E142" t="s">
+        <v>664</v>
       </c>
       <c r="N142">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O142">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P142">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q142">
         <v>100</v>
       </c>
       <c r="U142" t="s">
-        <v>657</v>
+        <v>664</v>
+      </c>
+      <c r="W142" t="s">
+        <v>669</v>
+      </c>
+      <c r="X142">
+        <v>2</v>
       </c>
       <c r="AA142" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="AB142" t="s">
-        <v>663</v>
+        <v>671</v>
+      </c>
+      <c r="AD142" t="s">
+        <v>664</v>
       </c>
       <c r="AE142">
         <v>4</v>
@@ -9014,40 +9104,40 @@
     </row>
     <row r="143" spans="1:33">
       <c r="A143">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B143" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="C143" t="s">
-        <v>623</v>
-      </c>
-      <c r="I143">
-        <v>125</v>
-      </c>
-      <c r="J143">
-        <v>500</v>
+        <v>587</v>
       </c>
       <c r="N143">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O143">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P143">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q143">
         <v>100</v>
       </c>
       <c r="U143" t="s">
-        <v>660</v>
+        <v>668</v>
+      </c>
+      <c r="W143" t="s">
+        <v>669</v>
+      </c>
+      <c r="X143">
+        <v>4</v>
       </c>
       <c r="AA143" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="AB143" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="AE143">
         <v>4</v>
@@ -9055,227 +9145,230 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B144" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="C144" t="s">
-        <v>623</v>
-      </c>
-      <c r="H144" t="s">
-        <v>624</v>
-      </c>
-      <c r="I144">
+        <v>402</v>
+      </c>
+      <c r="N144">
         <v>125</v>
       </c>
-      <c r="J144">
+      <c r="O144">
+        <v>50</v>
+      </c>
+      <c r="P144">
         <v>1000</v>
-      </c>
-      <c r="N144">
-        <v>75</v>
-      </c>
-      <c r="O144">
-        <v>10</v>
-      </c>
-      <c r="P144">
-        <v>200</v>
       </c>
       <c r="Q144">
         <v>100</v>
       </c>
       <c r="U144" t="s">
-        <v>664</v>
+        <v>672</v>
+      </c>
+      <c r="W144" t="s">
+        <v>669</v>
+      </c>
+      <c r="X144">
+        <v>5</v>
       </c>
       <c r="AA144" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="AB144" t="s">
-        <v>668</v>
+        <v>677</v>
+      </c>
+      <c r="AE144">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:33">
       <c r="A145">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="C145" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="E145" t="s">
-        <v>654</v>
+        <v>639</v>
+      </c>
+      <c r="I145">
+        <v>125</v>
+      </c>
+      <c r="J145">
+        <v>100</v>
       </c>
       <c r="N145">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O145">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P145">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q145">
         <v>100</v>
       </c>
       <c r="U145" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="AA145" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="AB145" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="AD145" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="AE145">
         <v>4</v>
       </c>
-      <c r="AF145" t="s">
-        <v>566</v>
-      </c>
-      <c r="AG145">
-        <v>5</v>
-      </c>
     </row>
     <row r="146" spans="1:33">
       <c r="A146">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C146" t="s">
-        <v>566</v>
+        <v>644</v>
+      </c>
+      <c r="H146" t="s">
+        <v>682</v>
+      </c>
+      <c r="I146">
+        <v>125</v>
+      </c>
+      <c r="J146">
+        <v>500</v>
       </c>
       <c r="N146">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O146">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P146">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q146">
         <v>100</v>
       </c>
       <c r="U146" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="AA146" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="AB146" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="AE146">
         <v>4</v>
       </c>
-      <c r="AF146" t="s">
-        <v>566</v>
-      </c>
-      <c r="AG146">
-        <v>10</v>
-      </c>
     </row>
     <row r="147" spans="1:33">
       <c r="A147">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B147" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="C147" t="s">
-        <v>566</v>
+        <v>644</v>
+      </c>
+      <c r="I147">
+        <v>125</v>
+      </c>
+      <c r="J147">
+        <v>500</v>
       </c>
       <c r="N147">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O147">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P147">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q147">
         <v>100</v>
       </c>
       <c r="U147" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="AA147" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="AB147" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="AE147">
         <v>4</v>
       </c>
-      <c r="AF147" t="s">
-        <v>566</v>
-      </c>
-      <c r="AG147">
-        <v>15</v>
-      </c>
     </row>
     <row r="148" spans="1:33">
       <c r="A148">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B148" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="C148" t="s">
-        <v>566</v>
+        <v>644</v>
+      </c>
+      <c r="H148" t="s">
+        <v>645</v>
+      </c>
+      <c r="I148">
+        <v>125</v>
+      </c>
+      <c r="J148">
+        <v>1000</v>
       </c>
       <c r="N148">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O148">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P148">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q148">
         <v>100</v>
       </c>
       <c r="U148" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="AA148" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="AB148" t="s">
-        <v>680</v>
-      </c>
-      <c r="AE148">
-        <v>4</v>
-      </c>
-      <c r="AF148" t="s">
-        <v>566</v>
-      </c>
-      <c r="AG148">
-        <v>20</v>
+        <v>689</v>
       </c>
     </row>
     <row r="149" spans="1:33">
       <c r="A149">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B149" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="C149" t="s">
-        <v>566</v>
-      </c>
-      <c r="M149" t="s">
-        <v>682</v>
+        <v>587</v>
+      </c>
+      <c r="E149" t="s">
+        <v>675</v>
       </c>
       <c r="N149">
         <v>175</v>
@@ -9290,218 +9383,221 @@
         <v>100</v>
       </c>
       <c r="U149" t="s">
-        <v>678</v>
+        <v>586</v>
       </c>
       <c r="AA149" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="AB149" t="s">
-        <v>684</v>
+        <v>692</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>675</v>
       </c>
       <c r="AE149">
         <v>4</v>
       </c>
       <c r="AF149" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="AG149">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:33">
       <c r="A150">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B150" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="C150" t="s">
-        <v>566</v>
-      </c>
-      <c r="D150" t="s">
-        <v>686</v>
-      </c>
-      <c r="E150" t="s">
-        <v>638</v>
-      </c>
-      <c r="I150">
-        <v>125</v>
-      </c>
-      <c r="J150">
-        <v>25000</v>
+        <v>587</v>
       </c>
       <c r="N150">
+        <v>175</v>
+      </c>
+      <c r="O150">
         <v>75</v>
       </c>
-      <c r="O150">
-        <v>10</v>
-      </c>
       <c r="P150">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q150">
         <v>100</v>
       </c>
-      <c r="T150">
-        <v>1</v>
+      <c r="U150" t="s">
+        <v>690</v>
       </c>
       <c r="AA150" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="AB150" t="s">
-        <v>688</v>
-      </c>
-      <c r="AC150" t="s">
-        <v>686</v>
-      </c>
-      <c r="AD150" t="s">
-        <v>638</v>
+        <v>695</v>
       </c>
       <c r="AE150">
         <v>4</v>
       </c>
+      <c r="AF150" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG150">
+        <v>10</v>
+      </c>
     </row>
     <row r="151" spans="1:33">
       <c r="A151">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B151" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="C151" t="s">
-        <v>566</v>
-      </c>
-      <c r="H151" t="s">
-        <v>690</v>
-      </c>
-      <c r="I151">
-        <v>125</v>
-      </c>
-      <c r="J151">
-        <v>5000</v>
+        <v>587</v>
       </c>
       <c r="N151">
+        <v>175</v>
+      </c>
+      <c r="O151">
         <v>75</v>
       </c>
-      <c r="O151">
-        <v>10</v>
-      </c>
       <c r="P151">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q151">
         <v>100</v>
       </c>
       <c r="U151" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="AA151" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="AB151" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="AE151">
         <v>4</v>
       </c>
+      <c r="AF151" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG151">
+        <v>15</v>
+      </c>
     </row>
     <row r="152" spans="1:33">
       <c r="A152">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B152" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C152" t="s">
-        <v>566</v>
-      </c>
-      <c r="H152" t="s">
-        <v>694</v>
-      </c>
-      <c r="I152">
-        <v>125</v>
-      </c>
-      <c r="J152">
-        <v>10000</v>
+        <v>587</v>
       </c>
       <c r="N152">
+        <v>175</v>
+      </c>
+      <c r="O152">
         <v>75</v>
       </c>
-      <c r="O152">
-        <v>10</v>
+      <c r="P152">
+        <v>2000</v>
       </c>
       <c r="Q152">
         <v>100</v>
       </c>
       <c r="U152" t="s">
-        <v>689</v>
-      </c>
-      <c r="V152" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AA152" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="AB152" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="AE152">
         <v>4</v>
       </c>
+      <c r="AF152" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG152">
+        <v>20</v>
+      </c>
     </row>
     <row r="153" spans="1:33">
       <c r="A153">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B153" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C153" t="s">
-        <v>566</v>
-      </c>
-      <c r="H153" t="s">
-        <v>699</v>
-      </c>
-      <c r="I153">
-        <v>125</v>
-      </c>
-      <c r="J153">
+        <v>587</v>
+      </c>
+      <c r="M153" t="s">
+        <v>703</v>
+      </c>
+      <c r="N153">
+        <v>175</v>
+      </c>
+      <c r="O153">
+        <v>75</v>
+      </c>
+      <c r="P153">
         <v>2000</v>
-      </c>
-      <c r="P153">
-        <v>200</v>
       </c>
       <c r="Q153">
         <v>100</v>
       </c>
       <c r="U153" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="AA153" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="AB153" t="s">
-        <v>701</v>
+        <v>705</v>
+      </c>
+      <c r="AE153">
+        <v>4</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG153">
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:33">
       <c r="A154">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B154" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C154" t="s">
-        <v>566</v>
-      </c>
-      <c r="H154" t="s">
-        <v>703</v>
+        <v>587</v>
+      </c>
+      <c r="D154" t="s">
+        <v>707</v>
+      </c>
+      <c r="E154" t="s">
+        <v>659</v>
       </c>
       <c r="I154">
         <v>125</v>
       </c>
       <c r="J154">
-        <v>20000</v>
+        <v>25000</v>
+      </c>
+      <c r="N154">
+        <v>75</v>
+      </c>
+      <c r="O154">
+        <v>10</v>
       </c>
       <c r="P154">
         <v>200</v>
@@ -9509,14 +9605,20 @@
       <c r="Q154">
         <v>100</v>
       </c>
-      <c r="U154" t="s">
-        <v>698</v>
+      <c r="T154">
+        <v>1</v>
       </c>
       <c r="AA154" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="AB154" t="s">
-        <v>705</v>
+        <v>709</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>707</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>659</v>
       </c>
       <c r="AE154">
         <v>4</v>
@@ -9524,43 +9626,43 @@
     </row>
     <row r="155" spans="1:33">
       <c r="A155">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C155" t="s">
-        <v>439</v>
+        <v>587</v>
       </c>
       <c r="H155" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="I155">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J155">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="N155">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="O155">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P155">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q155">
         <v>100</v>
       </c>
       <c r="U155" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="AA155" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="AB155" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="AE155">
         <v>4</v>
@@ -9568,40 +9670,43 @@
     </row>
     <row r="156" spans="1:33">
       <c r="A156">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B156" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C156" t="s">
-        <v>566</v>
-      </c>
-      <c r="E156" t="s">
-        <v>706</v>
+        <v>587</v>
       </c>
       <c r="H156" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="I156">
         <v>125</v>
       </c>
       <c r="J156">
-        <v>20000</v>
+        <v>10000</v>
+      </c>
+      <c r="N156">
+        <v>75</v>
+      </c>
+      <c r="O156">
+        <v>10</v>
       </c>
       <c r="Q156">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U156" t="s">
-        <v>685</v>
+        <v>710</v>
+      </c>
+      <c r="V156" t="s">
+        <v>716</v>
       </c>
       <c r="AA156" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AB156" t="s">
-        <v>713</v>
-      </c>
-      <c r="AD156" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="AE156">
         <v>4</v>
@@ -9609,233 +9714,218 @@
     </row>
     <row r="157" spans="1:33">
       <c r="A157">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B157" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C157" t="s">
-        <v>566</v>
+        <v>587</v>
+      </c>
+      <c r="H157" t="s">
+        <v>720</v>
       </c>
       <c r="I157">
         <v>125</v>
       </c>
       <c r="J157">
-        <v>30000</v>
+        <v>2000</v>
+      </c>
+      <c r="P157">
+        <v>200</v>
       </c>
       <c r="Q157">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U157" t="s">
-        <v>710</v>
-      </c>
-      <c r="Y157">
-        <v>2</v>
+        <v>714</v>
       </c>
       <c r="AA157" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="AB157" t="s">
-        <v>716</v>
-      </c>
-      <c r="AE157">
-        <v>4</v>
+        <v>722</v>
       </c>
     </row>
     <row r="158" spans="1:33">
       <c r="A158">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B158" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C158" t="s">
-        <v>718</v>
-      </c>
-      <c r="E158" t="s">
-        <v>390</v>
-      </c>
-      <c r="F158" t="s">
-        <v>371</v>
-      </c>
-      <c r="G158">
-        <v>10</v>
+        <v>587</v>
       </c>
       <c r="H158" t="s">
+        <v>724</v>
+      </c>
+      <c r="I158">
+        <v>125</v>
+      </c>
+      <c r="J158">
+        <v>20000</v>
+      </c>
+      <c r="P158">
+        <v>200</v>
+      </c>
+      <c r="Q158">
+        <v>100</v>
+      </c>
+      <c r="U158" t="s">
         <v>719</v>
       </c>
-      <c r="N158">
-        <v>500000</v>
-      </c>
-      <c r="O158">
-        <v>500000</v>
-      </c>
-      <c r="P158">
-        <v>2000000000</v>
-      </c>
-      <c r="Q158">
-        <v>175000</v>
-      </c>
-      <c r="T158">
-        <v>1</v>
-      </c>
-      <c r="W158" t="s">
-        <v>720</v>
-      </c>
-      <c r="X158">
-        <v>5</v>
-      </c>
       <c r="AA158" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="AB158" t="s">
-        <v>722</v>
-      </c>
-      <c r="AD158" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF158" t="s">
-        <v>718</v>
-      </c>
-      <c r="AG158">
-        <v>5</v>
+        <v>726</v>
+      </c>
+      <c r="AE158">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:33">
       <c r="A159">
+        <v>123</v>
+      </c>
+      <c r="B159" t="s">
+        <v>727</v>
+      </c>
+      <c r="C159" t="s">
+        <v>402</v>
+      </c>
+      <c r="H159" t="s">
+        <v>728</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+      <c r="J159">
+        <v>25000</v>
+      </c>
+      <c r="N159">
+        <v>25</v>
+      </c>
+      <c r="O159">
+        <v>2</v>
+      </c>
+      <c r="P159">
         <v>150</v>
       </c>
-      <c r="B159" t="s">
+      <c r="Q159">
+        <v>100</v>
+      </c>
+      <c r="U159" t="s">
         <v>723</v>
       </c>
-      <c r="C159" t="s">
-        <v>718</v>
-      </c>
-      <c r="H159" t="s">
-        <v>724</v>
-      </c>
-      <c r="N159">
-        <v>500000</v>
-      </c>
-      <c r="O159">
-        <v>500000</v>
-      </c>
-      <c r="P159">
-        <v>2000000000</v>
-      </c>
-      <c r="Q159">
-        <v>175000</v>
-      </c>
-      <c r="U159" t="s">
-        <v>717</v>
-      </c>
       <c r="AA159" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="AB159" t="s">
-        <v>726</v>
-      </c>
-      <c r="AF159" t="s">
-        <v>718</v>
-      </c>
-      <c r="AG159">
-        <v>10</v>
+        <v>730</v>
+      </c>
+      <c r="AE159">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:33">
       <c r="A160">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B160" t="s">
+        <v>731</v>
+      </c>
+      <c r="C160" t="s">
+        <v>587</v>
+      </c>
+      <c r="E160" t="s">
         <v>727</v>
       </c>
-      <c r="C160" t="s">
-        <v>728</v>
-      </c>
       <c r="H160" t="s">
-        <v>729</v>
-      </c>
-      <c r="N160">
-        <v>500000</v>
-      </c>
-      <c r="O160">
-        <v>500000</v>
-      </c>
-      <c r="P160">
-        <v>2000000000</v>
+        <v>732</v>
+      </c>
+      <c r="I160">
+        <v>125</v>
+      </c>
+      <c r="J160">
+        <v>20000</v>
       </c>
       <c r="Q160">
-        <v>175000</v>
+        <v>200</v>
       </c>
       <c r="U160" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="AA160" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="AB160" t="s">
-        <v>731</v>
-      </c>
-      <c r="AF160" t="s">
-        <v>728</v>
-      </c>
-      <c r="AG160">
-        <v>5</v>
+        <v>734</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>727</v>
+      </c>
+      <c r="AE160">
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:33">
       <c r="A161">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B161" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C161" t="s">
-        <v>728</v>
-      </c>
-      <c r="H161" t="s">
-        <v>733</v>
-      </c>
-      <c r="N161">
-        <v>500000</v>
-      </c>
-      <c r="O161">
-        <v>500000</v>
-      </c>
-      <c r="P161">
-        <v>2000000000</v>
+        <v>587</v>
+      </c>
+      <c r="I161">
+        <v>125</v>
+      </c>
+      <c r="J161">
+        <v>30000</v>
       </c>
       <c r="Q161">
-        <v>175000</v>
+        <v>500</v>
       </c>
       <c r="U161" t="s">
-        <v>727</v>
+        <v>731</v>
+      </c>
+      <c r="Y161">
+        <v>2</v>
       </c>
       <c r="AA161" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AB161" t="s">
-        <v>735</v>
-      </c>
-      <c r="AF161" t="s">
-        <v>728</v>
-      </c>
-      <c r="AG161">
-        <v>10</v>
+        <v>737</v>
+      </c>
+      <c r="AE161">
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:33">
       <c r="A162">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B162" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C162" t="s">
-        <v>728</v>
+        <v>739</v>
+      </c>
+      <c r="E162" t="s">
+        <v>390</v>
+      </c>
+      <c r="F162" t="s">
+        <v>371</v>
+      </c>
+      <c r="G162">
+        <v>10</v>
       </c>
       <c r="H162" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="N162">
         <v>500000</v>
@@ -9849,34 +9939,43 @@
       <c r="Q162">
         <v>175000</v>
       </c>
-      <c r="U162" t="s">
-        <v>732</v>
+      <c r="T162">
+        <v>1</v>
+      </c>
+      <c r="W162" t="s">
+        <v>741</v>
+      </c>
+      <c r="X162">
+        <v>5</v>
       </c>
       <c r="AA162" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="AB162" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD162" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF162" t="s">
         <v>739</v>
+      </c>
+      <c r="AG162">
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:33">
       <c r="A163">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B163" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C163" t="s">
-        <v>741</v>
-      </c>
-      <c r="E163" t="s">
-        <v>736</v>
-      </c>
-      <c r="F163" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="H163" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="N163">
         <v>500000</v>
@@ -9891,36 +9990,33 @@
         <v>175000</v>
       </c>
       <c r="U163" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="AA163" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="AB163" t="s">
-        <v>744</v>
-      </c>
-      <c r="AD163" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="AF163" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AG163">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:33">
       <c r="A164">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B164" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C164" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H164" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="N164">
         <v>500000</v>
@@ -9935,91 +10031,115 @@
         <v>175000</v>
       </c>
       <c r="U164" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="AA164" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="AB164" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="AF164" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="AG164">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:33">
       <c r="A165">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B165" t="s">
+        <v>753</v>
+      </c>
+      <c r="C165" t="s">
         <v>749</v>
       </c>
-      <c r="C165" t="s">
-        <v>718</v>
-      </c>
       <c r="H165" t="s">
-        <v>750</v>
+        <v>754</v>
+      </c>
+      <c r="N165">
+        <v>500000</v>
+      </c>
+      <c r="O165">
+        <v>500000</v>
+      </c>
+      <c r="P165">
+        <v>2000000000</v>
+      </c>
+      <c r="Q165">
+        <v>175000</v>
       </c>
       <c r="U165" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="AA165" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AB165" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="AF165" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="AG165">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:33">
       <c r="A166">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B166" t="s">
+        <v>757</v>
+      </c>
+      <c r="C166" t="s">
+        <v>749</v>
+      </c>
+      <c r="H166" t="s">
+        <v>758</v>
+      </c>
+      <c r="N166">
+        <v>500000</v>
+      </c>
+      <c r="O166">
+        <v>500000</v>
+      </c>
+      <c r="P166">
+        <v>2000000000</v>
+      </c>
+      <c r="Q166">
+        <v>175000</v>
+      </c>
+      <c r="U166" t="s">
         <v>753</v>
       </c>
-      <c r="C166" t="s">
-        <v>718</v>
-      </c>
-      <c r="H166" t="s">
-        <v>754</v>
-      </c>
-      <c r="U166" t="s">
-        <v>749</v>
-      </c>
       <c r="AA166" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AB166" t="s">
-        <v>756</v>
-      </c>
-      <c r="AF166" t="s">
-        <v>718</v>
-      </c>
-      <c r="AG166">
-        <v>25</v>
+        <v>760</v>
       </c>
     </row>
     <row r="167" spans="1:33">
       <c r="A167">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B167" t="s">
+        <v>761</v>
+      </c>
+      <c r="C167" t="s">
+        <v>762</v>
+      </c>
+      <c r="E167" t="s">
         <v>757</v>
       </c>
-      <c r="C167" t="s">
-        <v>728</v>
+      <c r="F167" t="s">
+        <v>744</v>
       </c>
       <c r="H167" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="N167">
         <v>500000</v>
@@ -10034,39 +10154,36 @@
         <v>175000</v>
       </c>
       <c r="U167" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="AA167" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="AB167" t="s">
-        <v>760</v>
+        <v>765</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>757</v>
       </c>
       <c r="AF167" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="AG167">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:33">
       <c r="A168">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B168" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C168" t="s">
-        <v>728</v>
-      </c>
-      <c r="E168" t="s">
-        <v>757</v>
-      </c>
-      <c r="F168" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="H168" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="N168">
         <v>500000</v>
@@ -10081,127 +10198,91 @@
         <v>175000</v>
       </c>
       <c r="U168" t="s">
-        <v>717</v>
+        <v>761</v>
       </c>
       <c r="AA168" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="AB168" t="s">
-        <v>764</v>
-      </c>
-      <c r="AD168" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="AF168" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="AG168">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:33">
       <c r="A169">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B169" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C169" t="s">
+        <v>739</v>
+      </c>
+      <c r="H169" t="s">
+        <v>771</v>
+      </c>
+      <c r="U169" t="s">
         <v>766</v>
       </c>
-      <c r="H169" t="s">
-        <v>767</v>
-      </c>
-      <c r="L169">
-        <v>150000</v>
-      </c>
-      <c r="N169">
-        <v>500000</v>
-      </c>
-      <c r="O169">
-        <v>500000</v>
-      </c>
-      <c r="P169">
-        <v>2000000000</v>
-      </c>
-      <c r="Q169">
-        <v>175000</v>
-      </c>
-      <c r="U169" t="s">
-        <v>761</v>
-      </c>
       <c r="AA169" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="AB169" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="AF169" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="AG169">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:33">
       <c r="A170">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B170" t="s">
+        <v>774</v>
+      </c>
+      <c r="C170" t="s">
+        <v>739</v>
+      </c>
+      <c r="H170" t="s">
+        <v>775</v>
+      </c>
+      <c r="U170" t="s">
         <v>770</v>
       </c>
-      <c r="C170" t="s">
-        <v>766</v>
-      </c>
-      <c r="H170" t="s">
-        <v>771</v>
-      </c>
-      <c r="L170">
-        <v>300000</v>
-      </c>
-      <c r="N170">
-        <v>500000</v>
-      </c>
-      <c r="O170">
-        <v>500000</v>
-      </c>
-      <c r="P170">
-        <v>2000000000</v>
-      </c>
-      <c r="Q170">
-        <v>175000</v>
-      </c>
-      <c r="U170" t="s">
-        <v>765</v>
-      </c>
       <c r="AA170" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="AB170" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="AF170" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="AG170">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:33">
       <c r="A171">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B171" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C171" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="H171" t="s">
-        <v>775</v>
-      </c>
-      <c r="L171">
-        <v>500000</v>
+        <v>779</v>
       </c>
       <c r="N171">
         <v>500000</v>
@@ -10216,39 +10297,39 @@
         <v>175000</v>
       </c>
       <c r="U171" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="AA171" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="AB171" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="AF171" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="AG171">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:33">
       <c r="A172">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B172" t="s">
+        <v>782</v>
+      </c>
+      <c r="C172" t="s">
+        <v>749</v>
+      </c>
+      <c r="E172" t="s">
         <v>778</v>
       </c>
-      <c r="C172" t="s">
-        <v>718</v>
-      </c>
-      <c r="G172">
-        <v>15</v>
+      <c r="F172" t="s">
+        <v>761</v>
       </c>
       <c r="H172" t="s">
-        <v>779</v>
-      </c>
-      <c r="M172" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="N172">
         <v>500000</v>
@@ -10263,200 +10344,206 @@
         <v>175000</v>
       </c>
       <c r="U172" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="AA172" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="AB172" t="s">
-        <v>782</v>
+        <v>785</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>778</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>749</v>
+      </c>
+      <c r="AG172">
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:33">
       <c r="A173">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B173" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C173" t="s">
-        <v>784</v>
+        <v>787</v>
+      </c>
+      <c r="H173" t="s">
+        <v>788</v>
+      </c>
+      <c r="L173">
+        <v>150000</v>
       </c>
       <c r="N173">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O173">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P173">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q173">
-        <v>250</v>
-      </c>
-      <c r="T173">
-        <v>1</v>
-      </c>
-      <c r="W173" t="s">
-        <v>785</v>
-      </c>
-      <c r="X173">
-        <v>1</v>
+        <v>175000</v>
+      </c>
+      <c r="U173" t="s">
+        <v>782</v>
       </c>
       <c r="AA173" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AB173" t="s">
+        <v>790</v>
+      </c>
+      <c r="AF173" t="s">
         <v>787</v>
       </c>
-      <c r="AE173">
-        <v>8</v>
+      <c r="AG173">
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:33">
       <c r="A174">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B174" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C174" t="s">
-        <v>439</v>
+        <v>787</v>
       </c>
       <c r="H174" t="s">
-        <v>789</v>
+        <v>792</v>
+      </c>
+      <c r="L174">
+        <v>300000</v>
       </c>
       <c r="N174">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O174">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P174">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q174">
-        <v>250</v>
+        <v>175000</v>
       </c>
       <c r="U174" t="s">
-        <v>783</v>
-      </c>
-      <c r="W174" t="s">
-        <v>785</v>
-      </c>
-      <c r="X174">
-        <v>2</v>
+        <v>786</v>
       </c>
       <c r="AA174" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AB174" t="s">
-        <v>791</v>
-      </c>
-      <c r="AE174">
-        <v>8</v>
+        <v>794</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>787</v>
+      </c>
+      <c r="AG174">
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:33">
       <c r="A175">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B175" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C175" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="H175" t="s">
-        <v>793</v>
+        <v>796</v>
+      </c>
+      <c r="L175">
+        <v>500000</v>
       </c>
       <c r="N175">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O175">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P175">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q175">
-        <v>250</v>
+        <v>175000</v>
       </c>
       <c r="U175" t="s">
-        <v>788</v>
-      </c>
-      <c r="W175" t="s">
-        <v>785</v>
-      </c>
-      <c r="X175">
-        <v>3</v>
+        <v>791</v>
       </c>
       <c r="AA175" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="AB175" t="s">
-        <v>795</v>
-      </c>
-      <c r="AE175">
-        <v>8</v>
+        <v>798</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>787</v>
+      </c>
+      <c r="AG175">
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:33">
       <c r="A176">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B176" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C176" t="s">
-        <v>797</v>
+        <v>739</v>
+      </c>
+      <c r="G176">
+        <v>15</v>
       </c>
       <c r="H176" t="s">
-        <v>798</v>
+        <v>800</v>
+      </c>
+      <c r="M176" t="s">
+        <v>801</v>
       </c>
       <c r="N176">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O176">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P176">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q176">
-        <v>250</v>
+        <v>175000</v>
       </c>
       <c r="U176" t="s">
-        <v>792</v>
-      </c>
-      <c r="W176" t="s">
-        <v>785</v>
-      </c>
-      <c r="X176">
-        <v>4</v>
+        <v>795</v>
       </c>
       <c r="AA176" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AB176" t="s">
-        <v>800</v>
-      </c>
-      <c r="AE176">
-        <v>8</v>
+        <v>803</v>
       </c>
     </row>
     <row r="177" spans="1:33">
       <c r="A177">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B177" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C177" t="s">
-        <v>797</v>
-      </c>
-      <c r="H177" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="N177">
         <v>1000</v>
@@ -10470,28 +10557,37 @@
       <c r="Q177">
         <v>250</v>
       </c>
-      <c r="U177" t="s">
-        <v>796</v>
-      </c>
-      <c r="V177" t="s">
-        <v>803</v>
+      <c r="T177">
+        <v>1</v>
+      </c>
+      <c r="W177" t="s">
+        <v>806</v>
+      </c>
+      <c r="X177">
+        <v>1</v>
       </c>
       <c r="AA177" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="AB177" t="s">
-        <v>805</v>
+        <v>808</v>
+      </c>
+      <c r="AE177">
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:33">
       <c r="A178">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B178" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C178" t="s">
-        <v>439</v>
+        <v>402</v>
+      </c>
+      <c r="H178" t="s">
+        <v>810</v>
       </c>
       <c r="N178">
         <v>1000</v>
@@ -10506,19 +10602,19 @@
         <v>250</v>
       </c>
       <c r="U178" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="W178" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="X178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA178" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="AB178" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="AE178">
         <v>8</v>
@@ -10526,31 +10622,19 @@
     </row>
     <row r="179" spans="1:33">
       <c r="A179">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B179" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C179" t="s">
-        <v>810</v>
-      </c>
-      <c r="E179" t="s">
-        <v>806</v>
-      </c>
-      <c r="F179" t="s">
-        <v>783</v>
-      </c>
-      <c r="I179">
-        <v>100</v>
-      </c>
-      <c r="J179">
-        <v>100</v>
-      </c>
-      <c r="K179">
+        <v>805</v>
+      </c>
+      <c r="H179" t="s">
+        <v>814</v>
+      </c>
+      <c r="N179">
         <v>1000</v>
-      </c>
-      <c r="N179">
-        <v>100</v>
       </c>
       <c r="O179">
         <v>500</v>
@@ -10562,45 +10646,36 @@
         <v>250</v>
       </c>
       <c r="U179" t="s">
-        <v>783</v>
+        <v>809</v>
+      </c>
+      <c r="W179" t="s">
+        <v>806</v>
+      </c>
+      <c r="X179">
+        <v>3</v>
       </c>
       <c r="AA179" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="AB179" t="s">
-        <v>812</v>
-      </c>
-      <c r="AD179" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="AE179">
         <v>8</v>
       </c>
-      <c r="AF179" t="s">
-        <v>810</v>
-      </c>
-      <c r="AG179">
-        <v>5</v>
-      </c>
     </row>
     <row r="180" spans="1:33">
       <c r="A180">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B180" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C180" t="s">
-        <v>810</v>
-      </c>
-      <c r="I180">
-        <v>100</v>
-      </c>
-      <c r="J180">
-        <v>100</v>
-      </c>
-      <c r="K180">
-        <v>1000</v>
+        <v>818</v>
+      </c>
+      <c r="H180" t="s">
+        <v>819</v>
       </c>
       <c r="N180">
         <v>1000</v>
@@ -10615,33 +10690,36 @@
         <v>250</v>
       </c>
       <c r="U180" t="s">
-        <v>809</v>
+        <v>813</v>
+      </c>
+      <c r="W180" t="s">
+        <v>806</v>
+      </c>
+      <c r="X180">
+        <v>4</v>
       </c>
       <c r="AA180" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="AB180" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="AE180">
         <v>8</v>
       </c>
-      <c r="AF180" t="s">
-        <v>810</v>
-      </c>
-      <c r="AG180">
-        <v>10</v>
-      </c>
     </row>
     <row r="181" spans="1:33">
       <c r="A181">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B181" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="C181" t="s">
-        <v>784</v>
+        <v>818</v>
+      </c>
+      <c r="H181" t="s">
+        <v>823</v>
       </c>
       <c r="N181">
         <v>1000</v>
@@ -10656,36 +10734,27 @@
         <v>250</v>
       </c>
       <c r="U181" t="s">
-        <v>813</v>
+        <v>817</v>
+      </c>
+      <c r="V181" t="s">
+        <v>824</v>
       </c>
       <c r="AA181" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="AB181" t="s">
-        <v>818</v>
-      </c>
-      <c r="AE181">
-        <v>8</v>
-      </c>
-      <c r="AF181" t="s">
-        <v>784</v>
-      </c>
-      <c r="AG181">
-        <v>5</v>
+        <v>826</v>
       </c>
     </row>
     <row r="182" spans="1:33">
       <c r="A182">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B182" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="C182" t="s">
-        <v>820</v>
-      </c>
-      <c r="K182">
-        <v>5000</v>
+        <v>402</v>
       </c>
       <c r="N182">
         <v>1000</v>
@@ -10700,71 +10769,101 @@
         <v>250</v>
       </c>
       <c r="U182" t="s">
-        <v>816</v>
+        <v>822</v>
+      </c>
+      <c r="W182" t="s">
+        <v>806</v>
+      </c>
+      <c r="X182">
+        <v>5</v>
       </c>
       <c r="AA182" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="AB182" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="AE182">
         <v>8</v>
       </c>
-      <c r="AF182" t="s">
-        <v>820</v>
-      </c>
-      <c r="AG182">
-        <v>5</v>
-      </c>
     </row>
     <row r="183" spans="1:33">
       <c r="A183">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B183" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="C183" t="s">
-        <v>820</v>
+        <v>831</v>
+      </c>
+      <c r="E183" t="s">
+        <v>827</v>
+      </c>
+      <c r="F183" t="s">
+        <v>804</v>
       </c>
       <c r="I183">
+        <v>100</v>
+      </c>
+      <c r="J183">
+        <v>100</v>
+      </c>
+      <c r="K183">
         <v>1000</v>
       </c>
-      <c r="J183">
-        <v>1000</v>
-      </c>
-      <c r="K183">
-        <v>5000</v>
+      <c r="N183">
+        <v>100</v>
+      </c>
+      <c r="O183">
+        <v>500</v>
+      </c>
+      <c r="P183">
+        <v>10000</v>
+      </c>
+      <c r="Q183">
+        <v>250</v>
       </c>
       <c r="U183" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="AA183" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="AB183" t="s">
-        <v>825</v>
+        <v>833</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>827</v>
       </c>
       <c r="AE183">
         <v>8</v>
       </c>
       <c r="AF183" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="AG183">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:33">
       <c r="A184">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B184" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C184" t="s">
-        <v>784</v>
+        <v>831</v>
+      </c>
+      <c r="I184">
+        <v>100</v>
+      </c>
+      <c r="J184">
+        <v>100</v>
+      </c>
+      <c r="K184">
+        <v>1000</v>
       </c>
       <c r="N184">
         <v>1000</v>
@@ -10779,19 +10878,19 @@
         <v>250</v>
       </c>
       <c r="U184" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="AA184" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="AB184" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="AE184">
         <v>8</v>
       </c>
       <c r="AF184" t="s">
-        <v>784</v>
+        <v>831</v>
       </c>
       <c r="AG184">
         <v>10</v>
@@ -10799,19 +10898,13 @@
     </row>
     <row r="185" spans="1:33">
       <c r="A185">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B185" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="C185" t="s">
-        <v>810</v>
-      </c>
-      <c r="E185" t="s">
-        <v>826</v>
-      </c>
-      <c r="F185" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="N185">
         <v>1000</v>
@@ -10826,22 +10919,19 @@
         <v>250</v>
       </c>
       <c r="U185" t="s">
-        <v>783</v>
+        <v>834</v>
       </c>
       <c r="AA185" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="AB185" t="s">
-        <v>831</v>
-      </c>
-      <c r="AD185" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="AE185">
         <v>8</v>
       </c>
       <c r="AF185" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="AG185">
         <v>5</v>
@@ -10849,13 +10939,16 @@
     </row>
     <row r="186" spans="1:33">
       <c r="A186">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B186" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="C186" t="s">
-        <v>797</v>
+        <v>841</v>
+      </c>
+      <c r="K186">
+        <v>5000</v>
       </c>
       <c r="N186">
         <v>1000</v>
@@ -10870,60 +10963,57 @@
         <v>250</v>
       </c>
       <c r="U186" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="AA186" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="AB186" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="AE186">
         <v>8</v>
       </c>
       <c r="AF186" t="s">
-        <v>797</v>
+        <v>841</v>
       </c>
       <c r="AG186">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:33">
       <c r="A187">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B187" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="C187" t="s">
-        <v>810</v>
-      </c>
-      <c r="N187">
+        <v>841</v>
+      </c>
+      <c r="I187">
         <v>1000</v>
       </c>
-      <c r="O187">
-        <v>500</v>
-      </c>
-      <c r="P187">
-        <v>10000</v>
-      </c>
-      <c r="Q187">
-        <v>250</v>
+      <c r="J187">
+        <v>1000</v>
+      </c>
+      <c r="K187">
+        <v>5000</v>
       </c>
       <c r="U187" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="AA187" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="AB187" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="AE187">
         <v>8</v>
       </c>
       <c r="AF187" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="AG187">
         <v>10</v>
@@ -10931,13 +11021,13 @@
     </row>
     <row r="188" spans="1:33">
       <c r="A188">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B188" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="C188" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="N188">
         <v>1000</v>
@@ -10952,87 +11042,69 @@
         <v>250</v>
       </c>
       <c r="U188" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="AA188" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="AB188" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="AE188">
         <v>8</v>
       </c>
       <c r="AF188" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="AG188">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:33">
       <c r="A189">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B189" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="C189" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="E189" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="F189" t="s">
-        <v>829</v>
-      </c>
-      <c r="G189">
-        <v>20</v>
-      </c>
-      <c r="H189" t="s">
-        <v>392</v>
-      </c>
-      <c r="I189">
-        <v>550000</v>
-      </c>
-      <c r="J189">
-        <v>550000</v>
-      </c>
-      <c r="K189">
-        <v>150000000000</v>
-      </c>
-      <c r="L189">
-        <v>700000</v>
+        <v>830</v>
       </c>
       <c r="N189">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O189">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P189">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q189">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U189" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="AA189" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="AB189" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="AD189" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="AE189">
         <v>8</v>
       </c>
       <c r="AF189" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="AG189">
         <v>5</v>
@@ -11040,90 +11112,81 @@
     </row>
     <row r="190" spans="1:33">
       <c r="A190">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="C190" t="s">
-        <v>846</v>
-      </c>
-      <c r="L190">
-        <v>150000</v>
+        <v>818</v>
       </c>
       <c r="N190">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O190">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P190">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q190">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U190" t="s">
-        <v>841</v>
-      </c>
-      <c r="W190" t="s">
-        <v>720</v>
-      </c>
-      <c r="X190">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="AA190" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="AB190" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="AE190">
         <v>8</v>
       </c>
       <c r="AF190" t="s">
-        <v>846</v>
+        <v>818</v>
       </c>
       <c r="AG190">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:33">
       <c r="A191">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="C191" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="N191">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O191">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P191">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q191">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U191" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="AA191" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="AB191" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="AE191">
         <v>8</v>
       </c>
       <c r="AF191" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="AG191">
         <v>10</v>
@@ -11131,254 +11194,263 @@
     </row>
     <row r="192" spans="1:33">
       <c r="A192">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B192" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="C192" t="s">
-        <v>846</v>
+        <v>805</v>
       </c>
       <c r="N192">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O192">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P192">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q192">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U192" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="AA192" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="AB192" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="AE192">
         <v>8</v>
       </c>
       <c r="AF192" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="AG192">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:33">
       <c r="A193">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B193" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="C193" t="s">
-        <v>842</v>
-      </c>
-      <c r="D193" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="E193" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
       <c r="F193" t="s">
-        <v>829</v>
+        <v>850</v>
+      </c>
+      <c r="G193">
+        <v>20</v>
+      </c>
+      <c r="H193" t="s">
+        <v>392</v>
+      </c>
+      <c r="I193">
+        <v>550000</v>
+      </c>
+      <c r="J193">
+        <v>550000</v>
+      </c>
+      <c r="K193">
+        <v>150000000000</v>
+      </c>
+      <c r="L193">
+        <v>700000</v>
       </c>
       <c r="N193">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O193">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P193">
-        <v>150000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q193">
-        <v>750</v>
-      </c>
-      <c r="T193">
-        <v>1</v>
+        <v>175000</v>
+      </c>
+      <c r="U193" t="s">
+        <v>804</v>
       </c>
       <c r="AA193" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="AB193" t="s">
-        <v>858</v>
-      </c>
-      <c r="AC193" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="AD193" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
       <c r="AE193">
         <v>8</v>
       </c>
       <c r="AF193" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="AG193">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:33">
       <c r="A194">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="C194" t="s">
-        <v>846</v>
-      </c>
-      <c r="D194" t="s">
-        <v>856</v>
+        <v>867</v>
+      </c>
+      <c r="L194">
+        <v>150000</v>
       </c>
       <c r="N194">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O194">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P194">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q194">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U194" t="s">
-        <v>855</v>
+        <v>862</v>
+      </c>
+      <c r="W194" t="s">
+        <v>741</v>
+      </c>
+      <c r="X194">
+        <v>5</v>
       </c>
       <c r="AA194" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="AB194" t="s">
-        <v>861</v>
-      </c>
-      <c r="AC194" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="AE194">
         <v>8</v>
       </c>
       <c r="AF194" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
       <c r="AG194">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:33">
       <c r="A195">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="C195" t="s">
-        <v>842</v>
-      </c>
-      <c r="D195" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="N195">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O195">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P195">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q195">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U195" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="AA195" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="AB195" t="s">
-        <v>864</v>
-      </c>
-      <c r="AC195" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="AE195">
         <v>8</v>
       </c>
       <c r="AF195" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="AG195">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:33">
       <c r="A196">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B196" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="C196" t="s">
-        <v>842</v>
-      </c>
-      <c r="D196" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="N196">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O196">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P196">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q196">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U196" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="AA196" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="AB196" t="s">
-        <v>867</v>
-      </c>
-      <c r="AC196" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="AE196">
         <v>8</v>
       </c>
       <c r="AF196" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="AG196">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:33">
       <c r="A197">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B197" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="C197" t="s">
-        <v>797</v>
+        <v>863</v>
       </c>
       <c r="D197" t="s">
-        <v>856</v>
+        <v>877</v>
+      </c>
+      <c r="E197" t="s">
+        <v>859</v>
+      </c>
+      <c r="F197" t="s">
+        <v>850</v>
       </c>
       <c r="N197">
         <v>50000</v>
@@ -11387,28 +11459,31 @@
         <v>50000</v>
       </c>
       <c r="P197">
-        <v>1500000000</v>
+        <v>150000000000</v>
       </c>
       <c r="Q197">
         <v>750</v>
       </c>
-      <c r="U197" t="s">
-        <v>865</v>
+      <c r="T197">
+        <v>1</v>
       </c>
       <c r="AA197" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="AB197" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="AC197" t="s">
-        <v>856</v>
+        <v>877</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>859</v>
       </c>
       <c r="AE197">
         <v>8</v>
       </c>
       <c r="AF197" t="s">
-        <v>797</v>
+        <v>863</v>
       </c>
       <c r="AG197">
         <v>10</v>
@@ -11416,46 +11491,46 @@
     </row>
     <row r="198" spans="1:33">
       <c r="A198">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B198" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="C198" t="s">
-        <v>797</v>
+        <v>867</v>
       </c>
       <c r="D198" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
       <c r="N198">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="O198">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="P198">
         <v>1500000000</v>
       </c>
       <c r="Q198">
-        <v>75000</v>
+        <v>750</v>
       </c>
       <c r="U198" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="AA198" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="AB198" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="AC198" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
       <c r="AE198">
         <v>8</v>
       </c>
       <c r="AF198" t="s">
-        <v>797</v>
+        <v>867</v>
       </c>
       <c r="AG198">
         <v>20</v>
@@ -11463,240 +11538,428 @@
     </row>
     <row r="199" spans="1:33">
       <c r="A199">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B199" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="C199" t="s">
-        <v>784</v>
+        <v>863</v>
       </c>
       <c r="D199" t="s">
-        <v>856</v>
-      </c>
-      <c r="E199" t="s">
-        <v>778</v>
-      </c>
-      <c r="F199" t="s">
-        <v>761</v>
-      </c>
-      <c r="G199">
-        <v>25</v>
-      </c>
-      <c r="H199" t="s">
-        <v>875</v>
-      </c>
-      <c r="K199">
-        <v>2000000000</v>
+        <v>877</v>
       </c>
       <c r="N199">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O199">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P199">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q199">
-        <v>200000</v>
+        <v>750</v>
       </c>
       <c r="U199" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="AA199" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="AB199" t="s">
+        <v>885</v>
+      </c>
+      <c r="AC199" t="s">
         <v>877</v>
-      </c>
-      <c r="AC199" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD199" t="s">
-        <v>778</v>
       </c>
       <c r="AE199">
         <v>8</v>
       </c>
       <c r="AF199" t="s">
-        <v>784</v>
+        <v>863</v>
       </c>
       <c r="AG199">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:33">
       <c r="A200">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B200" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="C200" t="s">
-        <v>784</v>
+        <v>863</v>
       </c>
       <c r="D200" t="s">
-        <v>856</v>
-      </c>
-      <c r="E200" t="s">
-        <v>871</v>
-      </c>
-      <c r="F200" t="s">
-        <v>855</v>
-      </c>
-      <c r="H200" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="N200">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O200">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P200">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q200">
-        <v>200000</v>
+        <v>750</v>
       </c>
       <c r="U200" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="AA200" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="AB200" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="AC200" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD200" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="AE200">
         <v>8</v>
       </c>
       <c r="AF200" t="s">
-        <v>784</v>
+        <v>863</v>
       </c>
       <c r="AG200">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:33">
       <c r="A201">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B201" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="C201" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
       <c r="D201" t="s">
-        <v>856</v>
-      </c>
-      <c r="H201" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="N201">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O201">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P201">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q201">
-        <v>2000000</v>
+        <v>750</v>
       </c>
       <c r="U201" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="AA201" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="AB201" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="AC201" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
       <c r="AE201">
         <v>8</v>
       </c>
       <c r="AF201" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
       <c r="AG201">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:33">
       <c r="A202">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B202" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C202" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="D202" t="s">
-        <v>856</v>
-      </c>
-      <c r="H202" t="s">
-        <v>887</v>
-      </c>
-      <c r="I202">
-        <v>20000</v>
-      </c>
-      <c r="J202">
-        <v>30000</v>
-      </c>
-      <c r="K202">
-        <v>150000000000</v>
-      </c>
-      <c r="L202">
-        <v>700000</v>
+        <v>877</v>
       </c>
       <c r="N202">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="O202">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="P202">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q202">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="U202" t="s">
-        <v>882</v>
-      </c>
-      <c r="Y202">
-        <v>3</v>
+        <v>889</v>
       </c>
       <c r="AA202" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="AB202" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="AC202" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
       <c r="AE202">
         <v>8</v>
       </c>
       <c r="AF202" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="AG202">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33">
+      <c r="A203">
+        <v>190</v>
+      </c>
+      <c r="B203" t="s">
+        <v>895</v>
+      </c>
+      <c r="C203" t="s">
+        <v>805</v>
+      </c>
+      <c r="D203" t="s">
+        <v>877</v>
+      </c>
+      <c r="E203" t="s">
+        <v>799</v>
+      </c>
+      <c r="F203" t="s">
+        <v>782</v>
+      </c>
+      <c r="G203">
+        <v>25</v>
+      </c>
+      <c r="H203" t="s">
+        <v>896</v>
+      </c>
+      <c r="K203">
+        <v>2000000000</v>
+      </c>
+      <c r="N203">
+        <v>1000000</v>
+      </c>
+      <c r="O203">
+        <v>1000000</v>
+      </c>
+      <c r="P203">
+        <v>2000000000</v>
+      </c>
+      <c r="Q203">
+        <v>200000</v>
+      </c>
+      <c r="U203" t="s">
+        <v>876</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>897</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>898</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>877</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>799</v>
+      </c>
+      <c r="AE203">
+        <v>8</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>805</v>
+      </c>
+      <c r="AG203">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:33">
+      <c r="A204">
+        <v>191</v>
+      </c>
+      <c r="B204" t="s">
+        <v>899</v>
+      </c>
+      <c r="C204" t="s">
+        <v>805</v>
+      </c>
+      <c r="D204" t="s">
+        <v>877</v>
+      </c>
+      <c r="E204" t="s">
+        <v>892</v>
+      </c>
+      <c r="F204" t="s">
+        <v>876</v>
+      </c>
+      <c r="H204" t="s">
+        <v>900</v>
+      </c>
+      <c r="N204">
+        <v>1000000</v>
+      </c>
+      <c r="O204">
+        <v>1000000</v>
+      </c>
+      <c r="P204">
+        <v>2000000000</v>
+      </c>
+      <c r="Q204">
+        <v>200000</v>
+      </c>
+      <c r="U204" t="s">
+        <v>895</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>901</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>877</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>892</v>
+      </c>
+      <c r="AE204">
+        <v>8</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>805</v>
+      </c>
+      <c r="AG204">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:33">
+      <c r="A205">
+        <v>192</v>
+      </c>
+      <c r="B205" t="s">
+        <v>903</v>
+      </c>
+      <c r="C205" t="s">
+        <v>818</v>
+      </c>
+      <c r="D205" t="s">
+        <v>877</v>
+      </c>
+      <c r="H205" t="s">
+        <v>904</v>
+      </c>
+      <c r="N205">
+        <v>1000000</v>
+      </c>
+      <c r="O205">
+        <v>1000000</v>
+      </c>
+      <c r="P205">
+        <v>2000000000</v>
+      </c>
+      <c r="Q205">
+        <v>2000000</v>
+      </c>
+      <c r="U205" t="s">
+        <v>899</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>905</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>906</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>877</v>
+      </c>
+      <c r="AE205">
+        <v>8</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>818</v>
+      </c>
+      <c r="AG205">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:33">
+      <c r="A206">
+        <v>193</v>
+      </c>
+      <c r="B206" t="s">
+        <v>907</v>
+      </c>
+      <c r="C206" t="s">
+        <v>805</v>
+      </c>
+      <c r="D206" t="s">
+        <v>877</v>
+      </c>
+      <c r="H206" t="s">
+        <v>908</v>
+      </c>
+      <c r="I206">
+        <v>20000</v>
+      </c>
+      <c r="J206">
+        <v>30000</v>
+      </c>
+      <c r="K206">
+        <v>150000000000</v>
+      </c>
+      <c r="L206">
+        <v>700000</v>
+      </c>
+      <c r="N206">
+        <v>1000000</v>
+      </c>
+      <c r="O206">
+        <v>1000000</v>
+      </c>
+      <c r="P206">
+        <v>2000000000</v>
+      </c>
+      <c r="Q206">
+        <v>200000</v>
+      </c>
+      <c r="U206" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y206">
+        <v>3</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>909</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>910</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>877</v>
+      </c>
+      <c r="AE206">
+        <v>8</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>805</v>
+      </c>
+      <c r="AG206">
         <v>25</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="911">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3031,8 +3031,8 @@
   </sheetPr>
   <dimension ref="A1:AG206"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U82" activeCellId="0" sqref="U82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6478,6 +6478,9 @@
       <c r="Q82" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="U82" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="Z82" s="1" t="s">
         <v>410</v>
       </c>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="945">
   <si>
     <t>id</t>
   </si>
@@ -1269,6 +1269,96 @@
   </si>
   <si>
     <t>"And perhaps you will never know, child," the Scholar of Hell says, walking up to you.&lt;br /&gt; &lt;br /&gt; You look at him for a moment and explain about The River Man.&lt;br /&gt; &lt;br /&gt; "A time god, you see, one created before The Creator's arrival and failed ascension. One that unlocks time itself."&lt;br /&gt; &lt;br /&gt; A time god? Is The Poet and—&lt;br /&gt; &lt;br /&gt; "No, child. There are many gods. Many creations, creatures, and foul things. Some cosmic and beyond your own comprehension, and some that are mere mortals. The Poet and his friends are something else, puppets &lt;br /&gt; to the masters that pull the strings. You, on the other hand, are something else…"&lt;br /&gt; &lt;br /&gt; A mere mortal with a bit of fame, you jest.&lt;br /&gt; &lt;br /&gt; "A creation."&lt;br /&gt; &lt;br /&gt; A… creation?</t>
+  </si>
+  <si>
+    <t>The Brother's Keeper</t>
+  </si>
+  <si>
+    <t>Chipped Gold Coin</t>
+  </si>
+  <si>
+    <t>Master Farmer</t>
+  </si>
+  <si>
+    <t>He sat in his castle, and the council spoke to him of his cities, of his realm. The people suffer; they are hungry, they are starving. You can see this clearly, even though you sleep soundly under the stars – even if they are Hell’s own illusions.&lt;br /&gt; &lt;br /&gt; You can see him clearly: Krogs. His kingdoms slowly crumble around him, his own depression growing as his beloved brother has vanished, vanished in the hunt for the shiny objects no one truly believes exists, even if they do. Legendary as they sound, only gods could wield them, alas that is what Krogs believed in his heart.&lt;br /&gt; &lt;br /&gt; A demonic being stands before you, but your dream is interrupted by a vision of death. A keeper of gates stands in the distance, pointing.&lt;br /&gt; &lt;br /&gt; You stare in the direction he points and see the grave. Whose could it be? Would it be Pags? Is it Krogs?</t>
+  </si>
+  <si>
+    <t>You walk slowly over to the grave site. It is not theirs; it is yours. Your own grave with your own name written on it. You turn back, and the keeper of the gate is now a child, a child of pain, standing twisted and broken before you.&lt;br /&gt; &lt;br /&gt; “You keep walking, you keep running, you keep opening doors. Why?”&lt;br /&gt; &lt;br /&gt; His voice is shrill and whiny.&lt;br /&gt; &lt;br /&gt; “You keep unraveling the words, you keep hurting me! I don’t want to face it! I cannot!”&lt;br /&gt; &lt;br /&gt; With that, you awaken on the ground in Hell. You stare up at the illusion of a night sky, and a tear runs down the side of your face.</t>
+  </si>
+  <si>
+    <t>Keys and Masters</t>
+  </si>
+  <si>
+    <t>Key Chain</t>
+  </si>
+  <si>
+    <t>Master Stone Mason</t>
+  </si>
+  <si>
+    <t>You wonder more about Krogs and what became of him. You wonder if he ever managed to find out what happened to his brother.&lt;br /&gt; &lt;br /&gt; “I know all the gates to all the worlds,” a voice comes from the shadows of your mind, echoing through your bones.&lt;br /&gt; &lt;br /&gt; You look around and see him standing there, Hell’s Gatekeeper. A beast lumbering in the shadows of fear and hatred, cloaked in lies and truths.&lt;br /&gt; &lt;br /&gt; You ask him if he knows of Krogs.&lt;br /&gt; &lt;br /&gt; “I know of the children of a realm you are unfamiliar with. I know the name. His sadness turned to ice, turned to hate, turned to jealousy.”&lt;br /&gt; &lt;br /&gt; You stare at him, “What did he become?”</t>
+  </si>
+  <si>
+    <t>“I know the Key master child.”&lt;br /&gt; &lt;br /&gt; The Key Master?&lt;br /&gt; &lt;br /&gt; “There is a being of power hiding in plain sight. One The Poet knows all to well about, one he had asked for help after the incident with The Child.”&lt;br /&gt; &lt;br /&gt; Incident? The hell are you talking about you ask, realizing these beings only ever give you bits of information to cling onto. Bits of lies, mixed with bits of half truths.&lt;br /&gt; &lt;br /&gt; “I do not have time to discuss the great Shattering with you child, I have only one thing to say – search out the Key Master.”&lt;br /&gt; &lt;br /&gt; With that he vanishes into the depths of your blindness fogging your mind.&lt;br /&gt; &lt;br /&gt; You awaken in a Hellish land, was it all a dream?</t>
+  </si>
+  <si>
+    <t>The blood on the walls</t>
+  </si>
+  <si>
+    <t>Bloody White Feathered Quil</t>
+  </si>
+  <si>
+    <t>Master Wood Worker</t>
+  </si>
+  <si>
+    <t>You seek out The Soldier, after visiting the empty Poets house. One moment his house is empty, the next he is there. Where is he? Is he hiding? A memory?&lt;br /&gt; &lt;br /&gt; You enter the old Inn and see The Soldier sitting alone at a table, buried in his drink. You approach and sit and he doesn’t even look up. You ask him if everything is ok, he doesn’t respond at first, then there is a whisper, icy and cold, chilling you.&lt;br /&gt; &lt;br /&gt; “I saw …. I saw him, I watched him – an illusion of time – I could not stop him.”&lt;br /&gt; &lt;br /&gt; You ask him what he means but he drinks his drink and keeps his head buried in the cup.</t>
+  </si>
+  <si>
+    <t>Investigating The Poets house, shows blood. The walls, the floor – someone came in a ripped a man apart. Literally.&lt;br /&gt; &lt;br /&gt; The amount of blood stains, the pages of books, the candles and furniture in the main living room.&lt;br /&gt; &lt;br /&gt; You back out of the house and stand in the front yard, vomiting.&lt;br /&gt; &lt;br /&gt; “He’s dead, I buried him my self.” comes The Soldiers voice. You turn around and see him standing there. He points to the backyard, through a wooden fence gate.&lt;br /&gt; &lt;br /&gt; “I buried him behind the home he loved.”&lt;br /&gt; &lt;br /&gt; You look back at The Soldier and ask him, who killed The Poet.&lt;br /&gt; &lt;br /&gt; “I did.”</t>
+  </si>
+  <si>
+    <t>Are we even real?</t>
+  </si>
+  <si>
+    <t>Single Daisy</t>
+  </si>
+  <si>
+    <t>Master of Iron</t>
+  </si>
+  <si>
+    <t>You stare at The Soldier, your eyes wide, your mind racing. Why, is the only thing you can ask, and even that barley slips out.&lt;br /&gt; &lt;br /&gt; “He spoke of lies, he tried …. it’s not true.”&lt;br /&gt; &lt;br /&gt; The Soldier continues to stutter and try and explain something, but it doesn’t make sense.&lt;br /&gt; &lt;br /&gt; “It was rage. I could not… I will not!”&lt;br /&gt; &lt;br /&gt; He falls to his knees and starts sobbing, uncontrollably.&lt;br /&gt; &lt;br /&gt; The hell is going on?</t>
+  </si>
+  <si>
+    <t>You manage to console The Soldier and after a moment he tells you his story.&lt;br /&gt; &lt;br /&gt; “I came to ask The Poet about a dream, where my brother had come to me. Trapped in his own Icy Memory, he begged for me to let him go, to free him of his own pain.”&lt;br /&gt; &lt;br /&gt; He pauses and looks at you. He continues.&lt;br /&gt; &lt;br /&gt; “I came and spoke to The Poet and asked him how I could free him. He told me a construct of the shattered mind cannot open the gates, for it would be the end of all things. I continued to press him, he kept giving me false answers, half truths, riddles. I raged. I held the sword point to his throat, he never flinched, I demanded the truth. He told me …”&lt;br /&gt; &lt;br /&gt; His voice trails off, you sit on the edge of your seat, you await for the words to come.&lt;br /&gt; &lt;br /&gt; “He told me, I wasn’t real. None of this was real. I stabbed him.”&lt;br /&gt; &lt;br /&gt; You stabbed The Poet because he told you, you are not real? You ask with obvious confusion.&lt;br /&gt; &lt;br /&gt; “He told me, He said… The Creator made all of this. This whole world. This is all a construct of his own mind.”&lt;br /&gt; &lt;br /&gt; How, he’s The Child and he’s dead. You think to your self.&lt;br /&gt; &lt;br /&gt; You explain the blood in the house.&lt;br /&gt; &lt;br /&gt; “I …. I lost my temper.”&lt;br /&gt; &lt;br /&gt; And hacked him up it seems.</t>
+  </si>
+  <si>
+    <t>Am I Real?</t>
+  </si>
+  <si>
+    <t>The Poets Fedora</t>
+  </si>
+  <si>
+    <t>Master worked clay pottery</t>
+  </si>
+  <si>
+    <t>Master of Steel</t>
+  </si>
+  <si>
+    <t>You left The Soldier to his own devices; your own disgust at his actions still rages in you. His words outweigh your desire to slaughter him for his own deeds. The Creator – it would make sense, the name. But how could a dead man, a child who failed his own Ascension, create a world?&lt;br /&gt; &lt;br /&gt; You see an old man sitting on a rock, and you see another man – a younger man sitting beside him. As you approach, you recognize one of them, The Wandering Merchant. The other you cannot place, but he greets you, and you wave.&lt;br /&gt; &lt;br /&gt; “Child,” The Wandering Merchant begins. “How are you?”&lt;br /&gt; &lt;br /&gt; You explain everything: Krogs, Pags, The Poet's death, what The Soldier stated. You sit on the ground, flop back, and stare up at the sky.&lt;br /&gt; &lt;br /&gt; Both men look at each other before the young man bursts out laughing.&lt;br /&gt; &lt;br /&gt; You sit up, and there he is. All along. No longer young.</t>
+  </si>
+  <si>
+    <t>How? you ask.&lt;br /&gt; &lt;br /&gt; “Child, what I told The Soldier is but a piece of the truth,” the old man states.&lt;br /&gt; &lt;br /&gt; The Poet, you recognize him clearly as day, sitting beside The Wandering Merchant.&lt;br /&gt; &lt;br /&gt; You begin to ask the same question you asked The Soldier. He cuts you off.&lt;br /&gt; &lt;br /&gt; “Listen, child, the world is a construct, one of a broken mind. One of a mind that could not, cannot, will not let go. Everything is a construct, a way to hide from one's own pain, one's own mistakes, one's own demons.”&lt;br /&gt; &lt;br /&gt; Am I real? you blurt out.&lt;br /&gt; &lt;br /&gt; “As real as the flowers around you.”&lt;br /&gt; &lt;br /&gt; And the Key Master?&lt;br /&gt; &lt;br /&gt; “Hush now, child. No need to pull on threads better left as they are,” The Wandering Merchant states with an angry tone.&lt;br /&gt; &lt;br /&gt; What are they hiding?</t>
+  </si>
+  <si>
+    <t>The Witch and her clay pot</t>
+  </si>
+  <si>
+    <t>Master Potter</t>
+  </si>
+  <si>
+    <t>You try to piece it all together. A man who is dead created a world in which he failed to move on, and something happened that caused all the planes of existence to flood together.&lt;br /&gt; &lt;br /&gt; Apparently, this is all his creation, in his mind. You shake your head; that cannot be. You are your own person, you have your own memories, your own thoughts, your own direction in life. How you got sucked into all of this is something you cannot even remember.&lt;br /&gt; &lt;br /&gt; “Hello, child,” comes the familiar voice of the old hag, The Witch.&lt;br /&gt; &lt;br /&gt; “I could use that clay item you have, child,” she states after a moment.&lt;br /&gt; &lt;br /&gt; You tell her it’s hers if she answers some questions for you about the creation of this world.&lt;br /&gt; &lt;br /&gt; She agrees.</t>
+  </si>
+  <si>
+    <t>You sit in her old hut, and she places the clay item on the table and starts to put herbs and small bones in it. She speaks in a hushed tone after a moment as the smell of incense washes over you.&lt;br /&gt; &lt;br /&gt; “There is a story of the puppet masters. They pull the strings of beings that guide the souls of those who have died.” She pauses and looks at you, as if to see if you are listening. She continues.&lt;br /&gt; &lt;br /&gt; “These masters, these puppet masters, had specific rules for those who pass through and how they must Ascend. They must let go, they must heal – move on, fade from existence. Alas, in the case of a select few, they failed – they could not let go and were imprisoned in purgatory. The Child though….”&lt;br /&gt; &lt;br /&gt; Her voice trails off. After an awkward silence, she looks at you.&lt;br /&gt; &lt;br /&gt; “He failed; he caused the world to shatter. Some say this is a construct of a broken mind, this world, these people, this existence. Whether that is true or not is up for debate. Some believe in that more than others, while others believe the puppet masters are manipulating the thoughts of their toys used to help those ascend.”&lt;br /&gt; &lt;br /&gt; Who are the puppet masters, you wonder.&lt;br /&gt; &lt;br /&gt; As if she read your mind, she states, “Seek out the memories that are twisted.”</t>
   </si>
   <si>
     <t>The Creator and The Smith</t>
@@ -3099,7 +3189,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG207"/>
+  <dimension ref="A1:AG213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6619,770 +6709,737 @@
     </row>
     <row r="84" spans="1:33">
       <c r="A84">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="B84" t="s">
         <v>418</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="H84" t="s">
+        <v>419</v>
       </c>
       <c r="I84">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="J84">
-        <v>2000</v>
+        <v>10000</v>
+      </c>
+      <c r="K84">
+        <v>150000000</v>
       </c>
       <c r="N84">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="O84">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="P84">
-        <v>1000000</v>
+        <v>300000000</v>
       </c>
       <c r="Q84">
-        <v>25</v>
-      </c>
-      <c r="T84">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="U84" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>420</v>
       </c>
       <c r="AA84" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AB84" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG84">
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:33">
       <c r="A85">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C85" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="H85" t="s">
-        <v>422</v>
-      </c>
-      <c r="I85">
-        <v>500</v>
-      </c>
-      <c r="J85">
-        <v>3000</v>
+        <v>424</v>
       </c>
       <c r="N85">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="P85">
-        <v>250</v>
+        <v>100000000</v>
       </c>
       <c r="Q85">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="U85" t="s">
         <v>418</v>
       </c>
-      <c r="V85" t="s">
-        <v>423</v>
+      <c r="Z85" t="s">
+        <v>425</v>
       </c>
       <c r="AA85" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AB85" t="s">
-        <v>425</v>
+        <v>427</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG85">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:33">
       <c r="A86">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B86" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C86" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="H86" t="s">
-        <v>427</v>
-      </c>
-      <c r="M86" t="s">
-        <v>289</v>
+        <v>429</v>
+      </c>
+      <c r="N86">
+        <v>10000</v>
+      </c>
+      <c r="O86">
+        <v>10000</v>
+      </c>
+      <c r="P86">
+        <v>100000000</v>
+      </c>
+      <c r="Q86">
+        <v>300</v>
       </c>
       <c r="U86" t="s">
-        <v>421</v>
-      </c>
-      <c r="V86" t="s">
-        <v>428</v>
+        <v>423</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>430</v>
       </c>
       <c r="AA86" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AB86" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:33">
       <c r="A87">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="B87" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>432</v>
-      </c>
-      <c r="I87">
-        <v>500</v>
-      </c>
-      <c r="J87">
-        <v>5000</v>
-      </c>
-      <c r="K87">
-        <v>2500</v>
-      </c>
-      <c r="L87">
-        <v>1000</v>
-      </c>
-      <c r="M87" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N87">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="O87">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="P87">
-        <v>250</v>
+        <v>100000000</v>
       </c>
       <c r="Q87">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U87" t="s">
-        <v>426</v>
-      </c>
-      <c r="V87" t="s">
-        <v>288</v>
+        <v>428</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>435</v>
       </c>
       <c r="AA87" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AB87" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:33">
       <c r="A88">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H88" t="s">
-        <v>437</v>
-      </c>
-      <c r="I88">
-        <v>5000</v>
-      </c>
-      <c r="J88">
-        <v>5000</v>
-      </c>
-      <c r="K88">
-        <v>50000</v>
+        <v>439</v>
       </c>
       <c r="M88" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N88">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="O88">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="P88">
-        <v>5000</v>
+        <v>100000000</v>
       </c>
       <c r="Q88">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U88" t="s">
-        <v>426</v>
+        <v>433</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>441</v>
       </c>
       <c r="AA88" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AB88" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:33">
       <c r="A89">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C89" t="s">
-        <v>442</v>
+        <v>38</v>
       </c>
       <c r="H89" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N89">
-        <v>1000</v>
+        <v>250000</v>
       </c>
       <c r="O89">
-        <v>100</v>
+        <v>250000</v>
       </c>
       <c r="P89">
-        <v>10000000</v>
+        <v>500000000</v>
       </c>
       <c r="Q89">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="U89" t="s">
-        <v>426</v>
+        <v>438</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>445</v>
       </c>
       <c r="AA89" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AB89" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:33">
       <c r="A90">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C90" t="s">
-        <v>442</v>
-      </c>
-      <c r="M90" t="s">
-        <v>354</v>
+        <v>113</v>
+      </c>
+      <c r="I90">
+        <v>15000</v>
+      </c>
+      <c r="J90">
+        <v>2000</v>
       </c>
       <c r="N90">
         <v>1000</v>
       </c>
       <c r="O90">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P90">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="Q90">
-        <v>200</v>
-      </c>
-      <c r="U90" t="s">
-        <v>441</v>
-      </c>
-      <c r="W90" t="s">
-        <v>79</v>
-      </c>
-      <c r="X90">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
       </c>
       <c r="AA90" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AB90" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:33">
       <c r="A91">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
       </c>
-      <c r="E91" t="s">
-        <v>169</v>
-      </c>
-      <c r="G91">
+      <c r="H91" t="s">
+        <v>452</v>
+      </c>
+      <c r="I91">
+        <v>500</v>
+      </c>
+      <c r="J91">
+        <v>3000</v>
+      </c>
+      <c r="N91">
+        <v>150</v>
+      </c>
+      <c r="O91">
         <v>2</v>
       </c>
-      <c r="H91" t="s">
-        <v>450</v>
-      </c>
-      <c r="N91">
-        <v>10000</v>
-      </c>
-      <c r="O91">
-        <v>1000</v>
-      </c>
       <c r="P91">
-        <v>1000000</v>
+        <v>250</v>
       </c>
       <c r="Q91">
-        <v>15000</v>
+        <v>25</v>
       </c>
       <c r="U91" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="V91" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AA91" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AB91" t="s">
-        <v>453</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG91">
-        <v>5</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:33">
       <c r="A92">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="H92" t="s">
-        <v>455</v>
-      </c>
-      <c r="N92">
-        <v>20000</v>
-      </c>
-      <c r="O92">
-        <v>20000</v>
-      </c>
-      <c r="P92">
-        <v>1000000000</v>
-      </c>
-      <c r="Q92">
-        <v>30000</v>
+        <v>457</v>
+      </c>
+      <c r="M92" t="s">
+        <v>289</v>
       </c>
       <c r="U92" t="s">
-        <v>449</v>
+        <v>451</v>
+      </c>
+      <c r="V92" t="s">
+        <v>458</v>
       </c>
       <c r="AA92" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AB92" t="s">
-        <v>457</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG92">
-        <v>10</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:33">
       <c r="A93">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
+        <v>253</v>
+      </c>
+      <c r="H93" t="s">
+        <v>462</v>
+      </c>
+      <c r="I93">
+        <v>500</v>
+      </c>
+      <c r="J93">
+        <v>5000</v>
+      </c>
+      <c r="K93">
+        <v>2500</v>
+      </c>
+      <c r="L93">
+        <v>1000</v>
+      </c>
+      <c r="M93" t="s">
+        <v>463</v>
       </c>
       <c r="N93">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="O93">
-        <v>25000</v>
+        <v>2</v>
       </c>
       <c r="P93">
-        <v>1000000</v>
+        <v>250</v>
       </c>
       <c r="Q93">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="U93" t="s">
-        <v>454</v>
+        <v>456</v>
+      </c>
+      <c r="V93" t="s">
+        <v>288</v>
       </c>
       <c r="AA93" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AB93" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF93" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG93">
-        <v>20</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:33">
       <c r="A94">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C94" t="s">
-        <v>402</v>
+        <v>83</v>
+      </c>
+      <c r="H94" t="s">
+        <v>467</v>
+      </c>
+      <c r="I94">
+        <v>5000</v>
+      </c>
+      <c r="J94">
+        <v>5000</v>
+      </c>
+      <c r="K94">
+        <v>50000</v>
+      </c>
+      <c r="M94" t="s">
+        <v>468</v>
       </c>
       <c r="N94">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="O94">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="P94">
-        <v>1000000</v>
+        <v>5000</v>
       </c>
       <c r="Q94">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="U94" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AA94" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AB94" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF94" t="s">
-        <v>402</v>
-      </c>
-      <c r="AG94">
-        <v>15</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:33">
       <c r="A95">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="B95" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>472</v>
+      </c>
+      <c r="H95" t="s">
+        <v>473</v>
       </c>
       <c r="N95">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="O95">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="P95">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="Q95">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="U95" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AA95" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AB95" t="s">
-        <v>466</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG95">
-        <v>15</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:33">
       <c r="A96">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H96" t="s">
-        <v>244</v>
-      </c>
-      <c r="I96">
+        <v>472</v>
+      </c>
+      <c r="M96" t="s">
+        <v>354</v>
+      </c>
+      <c r="N96">
+        <v>1000</v>
+      </c>
+      <c r="O96">
         <v>500</v>
       </c>
-      <c r="J96">
-        <v>5</v>
-      </c>
-      <c r="M96" t="s">
-        <v>467</v>
-      </c>
-      <c r="N96">
-        <v>150</v>
-      </c>
-      <c r="O96">
-        <v>2</v>
-      </c>
       <c r="P96">
-        <v>250</v>
+        <v>10000000</v>
       </c>
       <c r="Q96">
-        <v>50</v>
-      </c>
-      <c r="T96">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="U96" t="s">
+        <v>471</v>
       </c>
       <c r="W96" t="s">
         <v>79</v>
       </c>
       <c r="X96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA96" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AB96" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:33">
       <c r="A97">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C97" t="s">
-        <v>471</v>
+        <v>68</v>
+      </c>
+      <c r="E97" t="s">
+        <v>169</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
       </c>
       <c r="H97" t="s">
-        <v>472</v>
-      </c>
-      <c r="L97">
-        <v>500</v>
-      </c>
-      <c r="M97" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="N97">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="O97">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P97">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="Q97">
-        <v>100</v>
-      </c>
-      <c r="T97">
-        <v>1</v>
+        <v>15000</v>
+      </c>
+      <c r="U97" t="s">
+        <v>456</v>
       </c>
       <c r="V97" t="s">
-        <v>474</v>
-      </c>
-      <c r="W97" t="s">
-        <v>86</v>
-      </c>
-      <c r="X97">
+        <v>481</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>483</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG97">
         <v>5</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:33">
       <c r="A98">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C98" t="s">
-        <v>471</v>
+        <v>68</v>
       </c>
       <c r="H98" t="s">
-        <v>473</v>
-      </c>
-      <c r="L98">
-        <v>1000</v>
-      </c>
-      <c r="M98" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="N98">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="O98">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="P98">
-        <v>5000</v>
+        <v>1000000000</v>
       </c>
       <c r="Q98">
-        <v>150</v>
+        <v>30000</v>
       </c>
       <c r="U98" t="s">
-        <v>470</v>
-      </c>
-      <c r="V98" t="s">
         <v>479</v>
       </c>
       <c r="AA98" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AB98" t="s">
-        <v>481</v>
+        <v>487</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG98">
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:33">
       <c r="A99">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B99" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C99" t="s">
-        <v>471</v>
-      </c>
-      <c r="H99" t="s">
-        <v>478</v>
-      </c>
-      <c r="L99">
-        <v>1500</v>
-      </c>
-      <c r="M99" t="s">
-        <v>483</v>
+        <v>68</v>
       </c>
       <c r="N99">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="O99">
-        <v>50</v>
+        <v>25000</v>
       </c>
       <c r="P99">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="Q99">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="U99" t="s">
-        <v>477</v>
-      </c>
-      <c r="V99" t="s">
         <v>484</v>
       </c>
       <c r="AA99" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AB99" t="s">
-        <v>486</v>
+        <v>490</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG99">
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:33">
       <c r="A100">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="B100" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C100" t="s">
-        <v>471</v>
-      </c>
-      <c r="H100" t="s">
-        <v>483</v>
-      </c>
-      <c r="L100">
-        <v>3000</v>
-      </c>
-      <c r="M100" t="s">
+        <v>402</v>
+      </c>
+      <c r="N100">
+        <v>25000</v>
+      </c>
+      <c r="O100">
+        <v>25000</v>
+      </c>
+      <c r="P100">
+        <v>1000000</v>
+      </c>
+      <c r="Q100">
+        <v>30000</v>
+      </c>
+      <c r="U100" t="s">
         <v>488</v>
       </c>
-      <c r="N100">
-        <v>500</v>
-      </c>
-      <c r="O100">
-        <v>50</v>
-      </c>
-      <c r="P100">
-        <v>5000</v>
-      </c>
-      <c r="Q100">
-        <v>300</v>
-      </c>
-      <c r="U100" t="s">
-        <v>482</v>
-      </c>
-      <c r="V100" t="s">
-        <v>489</v>
-      </c>
       <c r="AA100" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AB100" t="s">
-        <v>491</v>
+        <v>493</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG100">
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:33">
       <c r="A101">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C101" t="s">
-        <v>83</v>
-      </c>
-      <c r="H101" t="s">
-        <v>493</v>
-      </c>
-      <c r="I101">
-        <v>5000</v>
-      </c>
-      <c r="J101">
-        <v>5000</v>
-      </c>
-      <c r="L101">
-        <v>5000</v>
+        <v>103</v>
       </c>
       <c r="N101">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="O101">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="P101">
-        <v>5000</v>
+        <v>2000000</v>
       </c>
       <c r="Q101">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="U101" t="s">
-        <v>470</v>
-      </c>
-      <c r="V101" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AA101" t="s">
         <v>495</v>
@@ -7390,37 +7447,55 @@
       <c r="AB101" t="s">
         <v>496</v>
       </c>
+      <c r="AF101" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG101">
+        <v>15</v>
+      </c>
     </row>
     <row r="102" spans="1:33">
       <c r="A102">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s">
         <v>497</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
+        <v>38</v>
+      </c>
+      <c r="H102" t="s">
+        <v>244</v>
       </c>
       <c r="I102">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="J102">
-        <v>7000</v>
-      </c>
-      <c r="K102">
-        <v>50000</v>
-      </c>
-      <c r="L102">
-        <v>3000</v>
+        <v>5</v>
+      </c>
+      <c r="M102" t="s">
+        <v>497</v>
+      </c>
+      <c r="N102">
+        <v>150</v>
+      </c>
+      <c r="O102">
+        <v>2</v>
       </c>
       <c r="P102">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="Q102">
-        <v>250</v>
-      </c>
-      <c r="U102" t="s">
-        <v>492</v>
+        <v>50</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="W102" t="s">
+        <v>79</v>
+      </c>
+      <c r="X102">
+        <v>2</v>
       </c>
       <c r="AA102" t="s">
         <v>498</v>
@@ -7431,377 +7506,398 @@
     </row>
     <row r="103" spans="1:33">
       <c r="A103">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
         <v>500</v>
       </c>
       <c r="C103" t="s">
-        <v>83</v>
+        <v>501</v>
       </c>
       <c r="H103" t="s">
-        <v>501</v>
-      </c>
-      <c r="I103">
-        <v>5000</v>
-      </c>
-      <c r="J103">
-        <v>7500</v>
+        <v>502</v>
       </c>
       <c r="L103">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="M103" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="N103">
+        <v>500</v>
+      </c>
+      <c r="O103">
+        <v>50</v>
       </c>
       <c r="P103">
         <v>5000</v>
       </c>
       <c r="Q103">
-        <v>300</v>
-      </c>
-      <c r="U103" t="s">
-        <v>497</v>
+        <v>100</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="V103" t="s">
+        <v>504</v>
+      </c>
+      <c r="W103" t="s">
+        <v>86</v>
+      </c>
+      <c r="X103">
+        <v>5</v>
       </c>
       <c r="AA103" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AB103" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:33">
       <c r="A104">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>373</v>
+        <v>507</v>
       </c>
       <c r="C104" t="s">
-        <v>83</v>
-      </c>
-      <c r="E104" t="s">
-        <v>464</v>
-      </c>
-      <c r="F104" t="s">
-        <v>449</v>
-      </c>
-      <c r="G104">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="H104" t="s">
-        <v>505</v>
+        <v>503</v>
+      </c>
+      <c r="L104">
+        <v>1000</v>
+      </c>
+      <c r="M104" t="s">
+        <v>508</v>
       </c>
       <c r="N104">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="O104">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="P104">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q104">
-        <v>50000</v>
+        <v>150</v>
       </c>
       <c r="U104" t="s">
-        <v>470</v>
+        <v>500</v>
+      </c>
+      <c r="V104" t="s">
+        <v>509</v>
       </c>
       <c r="AA104" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="AB104" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>464</v>
-      </c>
-      <c r="AF104" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG104">
-        <v>5</v>
+        <v>511</v>
       </c>
     </row>
     <row r="105" spans="1:33">
       <c r="A105">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="B105" t="s">
+        <v>512</v>
+      </c>
+      <c r="C105" t="s">
+        <v>501</v>
+      </c>
+      <c r="H105" t="s">
         <v>508</v>
       </c>
-      <c r="C105" t="s">
-        <v>83</v>
-      </c>
-      <c r="H105" t="s">
-        <v>509</v>
+      <c r="L105">
+        <v>1500</v>
+      </c>
+      <c r="M105" t="s">
+        <v>513</v>
       </c>
       <c r="N105">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="O105">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="P105">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q105">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="U105" t="s">
-        <v>373</v>
+        <v>507</v>
+      </c>
+      <c r="V105" t="s">
+        <v>514</v>
       </c>
       <c r="AA105" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AB105" t="s">
-        <v>511</v>
-      </c>
-      <c r="AF105" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG105">
-        <v>10</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:33">
       <c r="A106">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
+        <v>501</v>
       </c>
       <c r="H106" t="s">
         <v>513</v>
       </c>
+      <c r="L106">
+        <v>3000</v>
+      </c>
+      <c r="M106" t="s">
+        <v>518</v>
+      </c>
+      <c r="N106">
+        <v>500</v>
+      </c>
+      <c r="O106">
+        <v>50</v>
+      </c>
+      <c r="P106">
+        <v>5000</v>
+      </c>
+      <c r="Q106">
+        <v>300</v>
+      </c>
       <c r="U106" t="s">
-        <v>508</v>
+        <v>512</v>
+      </c>
+      <c r="V106" t="s">
+        <v>519</v>
       </c>
       <c r="AA106" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="AB106" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF106" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG106">
-        <v>10</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="1:33">
       <c r="A107">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="B107" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="H107" t="s">
-        <v>517</v>
+        <v>523</v>
+      </c>
+      <c r="I107">
+        <v>5000</v>
+      </c>
+      <c r="J107">
+        <v>5000</v>
+      </c>
+      <c r="L107">
+        <v>5000</v>
       </c>
       <c r="N107">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="O107">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="P107">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q107">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="U107" t="s">
-        <v>512</v>
+        <v>500</v>
+      </c>
+      <c r="V107" t="s">
+        <v>524</v>
       </c>
       <c r="AA107" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AB107" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF107" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG107">
-        <v>5</v>
+        <v>526</v>
       </c>
     </row>
     <row r="108" spans="1:33">
       <c r="A108">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>372</v>
+        <v>527</v>
       </c>
       <c r="C108" t="s">
-        <v>471</v>
-      </c>
-      <c r="H108" t="s">
-        <v>520</v>
-      </c>
-      <c r="N108">
-        <v>30000</v>
-      </c>
-      <c r="O108">
-        <v>30000</v>
+        <v>83</v>
+      </c>
+      <c r="I108">
+        <v>5000</v>
+      </c>
+      <c r="J108">
+        <v>7000</v>
+      </c>
+      <c r="K108">
+        <v>50000</v>
+      </c>
+      <c r="L108">
+        <v>3000</v>
       </c>
       <c r="P108">
-        <v>1500000000</v>
+        <v>5000</v>
       </c>
       <c r="Q108">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="U108" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="AA108" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="AB108" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF108" t="s">
-        <v>471</v>
-      </c>
-      <c r="AG108">
-        <v>5</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" spans="1:33">
       <c r="A109">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C109" t="s">
-        <v>176</v>
-      </c>
-      <c r="E109" t="s">
-        <v>321</v>
-      </c>
-      <c r="F109" t="s">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="H109" t="s">
-        <v>524</v>
-      </c>
-      <c r="N109">
+        <v>531</v>
+      </c>
+      <c r="I109">
+        <v>5000</v>
+      </c>
+      <c r="J109">
+        <v>7500</v>
+      </c>
+      <c r="L109">
         <v>10000</v>
       </c>
-      <c r="O109">
-        <v>1000</v>
+      <c r="M109" t="s">
+        <v>532</v>
       </c>
       <c r="P109">
-        <v>1000000</v>
+        <v>5000</v>
       </c>
       <c r="Q109">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="U109" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="AA109" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="AB109" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF109" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG109">
-        <v>10</v>
+        <v>534</v>
       </c>
     </row>
     <row r="110" spans="1:33">
       <c r="A110">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="B110" t="s">
-        <v>527</v>
+        <v>373</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>83</v>
+      </c>
+      <c r="E110" t="s">
+        <v>494</v>
+      </c>
+      <c r="F110" t="s">
+        <v>479</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="N110">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O110">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="P110">
-        <v>1000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q110">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="U110" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="AA110" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="AB110" t="s">
-        <v>530</v>
+        <v>537</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>494</v>
       </c>
       <c r="AF110" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AG110">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:33">
       <c r="A111">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B111" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C111" t="s">
         <v>83</v>
       </c>
       <c r="H111" t="s">
-        <v>532</v>
-      </c>
-      <c r="M111" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="N111">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O111">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="P111">
-        <v>1000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q111">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="U111" t="s">
-        <v>527</v>
+        <v>373</v>
       </c>
       <c r="AA111" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AB111" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="AF111" t="s">
         <v>83</v>
@@ -7812,754 +7908,769 @@
     </row>
     <row r="112" spans="1:33">
       <c r="A112">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
-        <v>396</v>
+        <v>542</v>
       </c>
       <c r="C112" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H112" t="s">
-        <v>536</v>
-      </c>
-      <c r="N112">
-        <v>20000</v>
-      </c>
-      <c r="O112">
-        <v>2000</v>
-      </c>
-      <c r="P112">
-        <v>2000000</v>
-      </c>
-      <c r="Q112">
-        <v>300</v>
+        <v>543</v>
       </c>
       <c r="U112" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y112">
-        <v>4</v>
+        <v>538</v>
       </c>
       <c r="AA112" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="AB112" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="AF112" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="AG112">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:33">
       <c r="A113">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C113" t="s">
         <v>32</v>
       </c>
-      <c r="D113" t="s">
-        <v>540</v>
-      </c>
       <c r="H113" t="s">
-        <v>541</v>
+        <v>547</v>
+      </c>
+      <c r="N113">
+        <v>30000</v>
+      </c>
+      <c r="O113">
+        <v>30000</v>
       </c>
       <c r="P113">
-        <v>150</v>
+        <v>1500000000</v>
       </c>
       <c r="Q113">
-        <v>1000</v>
-      </c>
-      <c r="T113">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="U113" t="s">
+        <v>542</v>
       </c>
       <c r="AA113" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AB113" t="s">
-        <v>543</v>
-      </c>
-      <c r="AC113" t="s">
-        <v>540</v>
+        <v>549</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG113">
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:33">
       <c r="A114">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B114" t="s">
-        <v>544</v>
+        <v>372</v>
       </c>
       <c r="C114" t="s">
-        <v>402</v>
-      </c>
-      <c r="D114" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="H114" t="s">
-        <v>545</v>
-      </c>
-      <c r="M114" t="s">
+        <v>550</v>
+      </c>
+      <c r="N114">
+        <v>30000</v>
+      </c>
+      <c r="O114">
+        <v>30000</v>
+      </c>
+      <c r="P114">
+        <v>1500000000</v>
+      </c>
+      <c r="Q114">
+        <v>50000</v>
+      </c>
+      <c r="U114" t="s">
         <v>546</v>
       </c>
-      <c r="P114">
-        <v>150</v>
-      </c>
-      <c r="Q114">
-        <v>1000</v>
-      </c>
-      <c r="U114" t="s">
-        <v>539</v>
-      </c>
       <c r="AA114" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AB114" t="s">
-        <v>548</v>
-      </c>
-      <c r="AC114" t="s">
-        <v>540</v>
+        <v>552</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>501</v>
+      </c>
+      <c r="AG114">
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:33">
       <c r="A115">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="B115" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C115" t="s">
-        <v>550</v>
-      </c>
-      <c r="D115" t="s">
-        <v>540</v>
+        <v>176</v>
+      </c>
+      <c r="E115" t="s">
+        <v>321</v>
+      </c>
+      <c r="F115" t="s">
+        <v>309</v>
       </c>
       <c r="H115" t="s">
-        <v>546</v>
-      </c>
-      <c r="M115" t="s">
-        <v>551</v>
+        <v>554</v>
+      </c>
+      <c r="N115">
+        <v>10000</v>
+      </c>
+      <c r="O115">
+        <v>1000</v>
       </c>
       <c r="P115">
-        <v>250</v>
+        <v>1000000</v>
       </c>
       <c r="Q115">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="U115" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="AA115" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AB115" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>540</v>
+        <v>556</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG115">
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:33">
       <c r="A116">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C116" t="s">
-        <v>103</v>
-      </c>
-      <c r="D116" t="s">
-        <v>540</v>
+        <v>176</v>
       </c>
       <c r="H116" t="s">
-        <v>551</v>
-      </c>
-      <c r="I116">
-        <v>100</v>
+        <v>558</v>
+      </c>
+      <c r="N116">
+        <v>10000</v>
+      </c>
+      <c r="O116">
+        <v>1000</v>
       </c>
       <c r="P116">
+        <v>1000000</v>
+      </c>
+      <c r="Q116">
         <v>150</v>
       </c>
-      <c r="Q116">
-        <v>1500</v>
-      </c>
       <c r="U116" t="s">
-        <v>549</v>
-      </c>
-      <c r="V116" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AA116" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AB116" t="s">
-        <v>557</v>
-      </c>
-      <c r="AC116" t="s">
-        <v>540</v>
+        <v>560</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG116">
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:33">
       <c r="A117">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="B117" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C117" t="s">
-        <v>340</v>
-      </c>
-      <c r="D117" t="s">
-        <v>540</v>
+        <v>83</v>
       </c>
       <c r="H117" t="s">
-        <v>559</v>
+        <v>562</v>
+      </c>
+      <c r="M117" t="s">
+        <v>563</v>
+      </c>
+      <c r="N117">
+        <v>10000</v>
+      </c>
+      <c r="O117">
+        <v>1000</v>
       </c>
       <c r="P117">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="Q117">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="U117" t="s">
-        <v>554</v>
-      </c>
-      <c r="V117" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AA117" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AB117" t="s">
-        <v>562</v>
-      </c>
-      <c r="AC117" t="s">
-        <v>540</v>
+        <v>565</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG117">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:33">
       <c r="A118">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="B118" t="s">
-        <v>563</v>
+        <v>396</v>
       </c>
       <c r="C118" t="s">
-        <v>340</v>
-      </c>
-      <c r="D118" t="s">
-        <v>540</v>
+        <v>83</v>
       </c>
       <c r="H118" t="s">
-        <v>564</v>
-      </c>
-      <c r="I118">
-        <v>25000</v>
-      </c>
-      <c r="M118" t="s">
-        <v>565</v>
+        <v>566</v>
+      </c>
+      <c r="N118">
+        <v>20000</v>
+      </c>
+      <c r="O118">
+        <v>2000</v>
       </c>
       <c r="P118">
-        <v>10000</v>
+        <v>2000000</v>
       </c>
       <c r="Q118">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="U118" t="s">
-        <v>558</v>
+        <v>561</v>
+      </c>
+      <c r="Y118">
+        <v>4</v>
       </c>
       <c r="AA118" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AB118" t="s">
-        <v>567</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>540</v>
+        <v>568</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG118">
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:33">
       <c r="A119">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B119" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C119" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D119" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H119" t="s">
-        <v>565</v>
-      </c>
-      <c r="I119">
-        <v>100</v>
-      </c>
-      <c r="N119">
-        <v>25</v>
-      </c>
-      <c r="O119">
-        <v>2</v>
+        <v>571</v>
       </c>
       <c r="P119">
         <v>150</v>
       </c>
       <c r="Q119">
-        <v>3000</v>
-      </c>
-      <c r="U119" t="s">
-        <v>563</v>
+        <v>1000</v>
+      </c>
+      <c r="T119">
+        <v>1</v>
       </c>
       <c r="AA119" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AB119" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC119" t="s">
         <v>570</v>
-      </c>
-      <c r="AC119" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="120" spans="1:33">
       <c r="A120">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B120" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C120" t="s">
         <v>402</v>
       </c>
       <c r="D120" t="s">
-        <v>540</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="I120">
-        <v>100</v>
-      </c>
-      <c r="J120">
-        <v>20000</v>
-      </c>
-      <c r="L120">
-        <v>10000</v>
+        <v>570</v>
+      </c>
+      <c r="H120" t="s">
+        <v>575</v>
+      </c>
+      <c r="M120" t="s">
+        <v>576</v>
       </c>
       <c r="P120">
         <v>150</v>
       </c>
       <c r="Q120">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="U120" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="AA120" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="AB120" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="AC120" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:33">
       <c r="A121">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B121" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>580</v>
       </c>
       <c r="D121" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H121" t="s">
-        <v>575</v>
-      </c>
-      <c r="I121">
-        <v>500</v>
-      </c>
-      <c r="J121">
-        <v>15000</v>
-      </c>
-      <c r="L121">
-        <v>15000</v>
+        <v>576</v>
+      </c>
+      <c r="M121" t="s">
+        <v>581</v>
       </c>
       <c r="P121">
         <v>250</v>
       </c>
       <c r="Q121">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="U121" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AA121" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="AB121" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="AC121" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="122" spans="1:33">
       <c r="A122">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C122" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H122" t="s">
+        <v>581</v>
+      </c>
+      <c r="I122">
+        <v>100</v>
+      </c>
+      <c r="P122">
+        <v>150</v>
+      </c>
+      <c r="Q122">
+        <v>1500</v>
+      </c>
+      <c r="U122" t="s">
         <v>579</v>
       </c>
-      <c r="M122" t="s">
-        <v>580</v>
-      </c>
-      <c r="P122">
-        <v>250</v>
-      </c>
-      <c r="Q122">
-        <v>4000</v>
-      </c>
-      <c r="U122" t="s">
-        <v>574</v>
+      <c r="V122" t="s">
+        <v>585</v>
       </c>
       <c r="AA122" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AB122" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AC122" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123" spans="1:33">
       <c r="A123">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B123" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C123" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="D123" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H123" t="s">
-        <v>580</v>
-      </c>
-      <c r="I123">
-        <v>100</v>
-      </c>
-      <c r="J123">
-        <v>100000</v>
-      </c>
-      <c r="L123">
-        <v>75000</v>
+        <v>589</v>
+      </c>
+      <c r="P123">
+        <v>10000</v>
       </c>
       <c r="Q123">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="U123" t="s">
-        <v>578</v>
-      </c>
-      <c r="Y123">
-        <v>1</v>
+        <v>584</v>
+      </c>
+      <c r="V123" t="s">
+        <v>590</v>
       </c>
       <c r="AA123" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="AB123" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="AC123" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="124" spans="1:33">
       <c r="A124">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B124" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C124" t="s">
-        <v>587</v>
+        <v>340</v>
+      </c>
+      <c r="D124" t="s">
+        <v>570</v>
       </c>
       <c r="H124" t="s">
+        <v>594</v>
+      </c>
+      <c r="I124">
+        <v>25000</v>
+      </c>
+      <c r="M124" t="s">
+        <v>595</v>
+      </c>
+      <c r="P124">
+        <v>10000</v>
+      </c>
+      <c r="Q124">
+        <v>1600</v>
+      </c>
+      <c r="U124" t="s">
         <v>588</v>
       </c>
-      <c r="I124">
-        <v>125</v>
-      </c>
-      <c r="P124">
-        <v>200</v>
-      </c>
-      <c r="Q124">
-        <v>100</v>
-      </c>
-      <c r="T124">
-        <v>1</v>
-      </c>
       <c r="AA124" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="AB124" t="s">
-        <v>590</v>
-      </c>
-      <c r="AE124">
-        <v>4</v>
+        <v>597</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="125" spans="1:33">
       <c r="A125">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B125" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C125" t="s">
-        <v>402</v>
+        <v>103</v>
+      </c>
+      <c r="D125" t="s">
+        <v>570</v>
       </c>
       <c r="H125" t="s">
-        <v>592</v>
+        <v>595</v>
+      </c>
+      <c r="I125">
+        <v>100</v>
+      </c>
+      <c r="N125">
+        <v>25</v>
+      </c>
+      <c r="O125">
+        <v>2</v>
       </c>
       <c r="P125">
         <v>150</v>
       </c>
       <c r="Q125">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="U125" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="AA125" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="AB125" t="s">
-        <v>594</v>
-      </c>
-      <c r="AE125">
-        <v>4</v>
+        <v>600</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="126" spans="1:33">
       <c r="A126">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C126" t="s">
-        <v>587</v>
-      </c>
-      <c r="H126" t="s">
-        <v>596</v>
+        <v>402</v>
+      </c>
+      <c r="D126" t="s">
+        <v>570</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>100</v>
+      </c>
+      <c r="J126">
+        <v>20000</v>
+      </c>
+      <c r="L126">
+        <v>10000</v>
       </c>
       <c r="P126">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q126">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="U126" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="AA126" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="AB126" t="s">
-        <v>598</v>
-      </c>
-      <c r="AE126">
-        <v>4</v>
+        <v>603</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="127" spans="1:33">
       <c r="A127">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B127" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C127" t="s">
-        <v>587</v>
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>570</v>
+      </c>
+      <c r="H127" t="s">
+        <v>605</v>
       </c>
       <c r="I127">
-        <v>125</v>
+        <v>500</v>
+      </c>
+      <c r="J127">
+        <v>15000</v>
+      </c>
+      <c r="L127">
+        <v>15000</v>
       </c>
       <c r="P127">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q127">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="U127" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AA127" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AB127" t="s">
-        <v>601</v>
-      </c>
-      <c r="AE127">
-        <v>4</v>
+        <v>607</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="128" spans="1:33">
       <c r="A128">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C128" t="s">
-        <v>587</v>
-      </c>
-      <c r="E128" t="s">
-        <v>603</v>
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>570</v>
       </c>
       <c r="H128" t="s">
+        <v>609</v>
+      </c>
+      <c r="M128" t="s">
+        <v>610</v>
+      </c>
+      <c r="P128">
+        <v>250</v>
+      </c>
+      <c r="Q128">
+        <v>4000</v>
+      </c>
+      <c r="U128" t="s">
         <v>604</v>
       </c>
-      <c r="I128">
-        <v>125</v>
-      </c>
-      <c r="M128" t="s">
-        <v>605</v>
-      </c>
-      <c r="N128">
-        <v>75</v>
-      </c>
-      <c r="O128">
-        <v>10</v>
-      </c>
-      <c r="P128">
-        <v>200</v>
-      </c>
-      <c r="Q128">
-        <v>100</v>
-      </c>
-      <c r="U128" t="s">
-        <v>595</v>
-      </c>
       <c r="AA128" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AB128" t="s">
-        <v>607</v>
-      </c>
-      <c r="AD128" t="s">
-        <v>603</v>
-      </c>
-      <c r="AE128">
-        <v>4</v>
+        <v>612</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="129" spans="1:33">
       <c r="A129">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B129" t="s">
+        <v>613</v>
+      </c>
+      <c r="C129" t="s">
+        <v>402</v>
+      </c>
+      <c r="D129" t="s">
+        <v>570</v>
+      </c>
+      <c r="H129" t="s">
+        <v>610</v>
+      </c>
+      <c r="I129">
+        <v>100</v>
+      </c>
+      <c r="J129">
+        <v>100000</v>
+      </c>
+      <c r="L129">
+        <v>75000</v>
+      </c>
+      <c r="Q129">
+        <v>5000</v>
+      </c>
+      <c r="U129" t="s">
         <v>608</v>
       </c>
-      <c r="C129" t="s">
-        <v>587</v>
-      </c>
-      <c r="I129">
-        <v>125</v>
-      </c>
-      <c r="J129">
-        <v>1500</v>
-      </c>
-      <c r="N129">
-        <v>75</v>
-      </c>
-      <c r="O129">
-        <v>10</v>
-      </c>
-      <c r="P129">
-        <v>200</v>
-      </c>
-      <c r="Q129">
-        <v>100</v>
-      </c>
-      <c r="U129" t="s">
-        <v>602</v>
+      <c r="Y129">
+        <v>1</v>
       </c>
       <c r="AA129" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AB129" t="s">
-        <v>610</v>
-      </c>
-      <c r="AE129">
-        <v>4</v>
+        <v>615</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="130" spans="1:33">
       <c r="A130">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B130" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
-      </c>
-      <c r="E130" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="H130" t="s">
-        <v>612</v>
-      </c>
-      <c r="N130">
-        <v>25</v>
-      </c>
-      <c r="O130">
-        <v>2</v>
+        <v>618</v>
+      </c>
+      <c r="I130">
+        <v>125</v>
       </c>
       <c r="P130">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q130">
         <v>100</v>
       </c>
-      <c r="U130" t="s">
-        <v>586</v>
+      <c r="T130">
+        <v>1</v>
       </c>
       <c r="AA130" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="AB130" t="s">
-        <v>614</v>
-      </c>
-      <c r="AD130" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AE130">
         <v>4</v>
@@ -8567,25 +8678,16 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C131" t="s">
         <v>402</v>
       </c>
       <c r="H131" t="s">
-        <v>616</v>
-      </c>
-      <c r="I131">
-        <v>100</v>
-      </c>
-      <c r="N131">
-        <v>25</v>
-      </c>
-      <c r="O131">
-        <v>2</v>
+        <v>622</v>
       </c>
       <c r="P131">
         <v>150</v>
@@ -8594,13 +8696,13 @@
         <v>100</v>
       </c>
       <c r="U131" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AA131" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="AB131" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="AE131">
         <v>4</v>
@@ -8608,49 +8710,31 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B132" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="C132" t="s">
-        <v>402</v>
+        <v>617</v>
       </c>
       <c r="H132" t="s">
-        <v>619</v>
-      </c>
-      <c r="I132">
-        <v>100</v>
-      </c>
-      <c r="J132">
+        <v>626</v>
+      </c>
+      <c r="P132">
         <v>200</v>
-      </c>
-      <c r="K132">
-        <v>1000</v>
-      </c>
-      <c r="M132" t="s">
-        <v>620</v>
-      </c>
-      <c r="N132">
-        <v>25</v>
-      </c>
-      <c r="O132">
-        <v>2</v>
-      </c>
-      <c r="P132">
-        <v>150</v>
       </c>
       <c r="Q132">
         <v>100</v>
       </c>
       <c r="U132" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="AA132" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AB132" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="AE132">
         <v>4</v>
@@ -8658,25 +8742,16 @@
     </row>
     <row r="133" spans="1:33">
       <c r="A133">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B133" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C133" t="s">
-        <v>587</v>
-      </c>
-      <c r="E133" t="s">
-        <v>608</v>
-      </c>
-      <c r="H133" t="s">
-        <v>624</v>
-      </c>
-      <c r="N133">
-        <v>75</v>
-      </c>
-      <c r="O133">
-        <v>10</v>
+        <v>617</v>
+      </c>
+      <c r="I133">
+        <v>125</v>
       </c>
       <c r="P133">
         <v>200</v>
@@ -8685,19 +8760,13 @@
         <v>100</v>
       </c>
       <c r="U133" t="s">
-        <v>586</v>
-      </c>
-      <c r="V133" t="s">
         <v>625</v>
       </c>
       <c r="AA133" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="AB133" t="s">
-        <v>627</v>
-      </c>
-      <c r="AD133" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="AE133">
         <v>4</v>
@@ -8705,22 +8774,25 @@
     </row>
     <row r="134" spans="1:33">
       <c r="A134">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B134" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C134" t="s">
-        <v>587</v>
+        <v>617</v>
+      </c>
+      <c r="E134" t="s">
+        <v>633</v>
       </c>
       <c r="H134" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="I134">
         <v>125</v>
       </c>
-      <c r="J134">
-        <v>2000</v>
+      <c r="M134" t="s">
+        <v>635</v>
       </c>
       <c r="N134">
         <v>75</v>
@@ -8731,17 +8803,20 @@
       <c r="P134">
         <v>200</v>
       </c>
+      <c r="Q134">
+        <v>100</v>
+      </c>
       <c r="U134" t="s">
-        <v>623</v>
-      </c>
-      <c r="V134" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AA134" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AB134" t="s">
-        <v>632</v>
+        <v>637</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>633</v>
       </c>
       <c r="AE134">
         <v>4</v>
@@ -8749,25 +8824,19 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B135" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C135" t="s">
-        <v>587</v>
-      </c>
-      <c r="H135" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="I135">
         <v>125</v>
       </c>
       <c r="J135">
-        <v>25000</v>
-      </c>
-      <c r="M135" t="s">
-        <v>635</v>
+        <v>1500</v>
       </c>
       <c r="N135">
         <v>75</v>
@@ -8779,19 +8848,16 @@
         <v>200</v>
       </c>
       <c r="Q135">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U135" t="s">
-        <v>628</v>
-      </c>
-      <c r="V135" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AA135" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AB135" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AE135">
         <v>4</v>
@@ -8799,25 +8865,19 @@
     </row>
     <row r="136" spans="1:33">
       <c r="A136">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B136" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C136" t="s">
         <v>402</v>
       </c>
+      <c r="E136" t="s">
+        <v>629</v>
+      </c>
       <c r="H136" t="s">
-        <v>635</v>
-      </c>
-      <c r="I136">
-        <v>100</v>
-      </c>
-      <c r="J136">
-        <v>5000</v>
-      </c>
-      <c r="M136" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N136">
         <v>25</v>
@@ -8829,16 +8889,19 @@
         <v>150</v>
       </c>
       <c r="Q136">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="U136" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="AA136" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AB136" t="s">
-        <v>642</v>
+        <v>644</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>629</v>
       </c>
       <c r="AE136">
         <v>4</v>
@@ -8846,40 +8909,34 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B137" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C137" t="s">
-        <v>644</v>
-      </c>
-      <c r="E137" t="s">
-        <v>645</v>
+        <v>402</v>
+      </c>
+      <c r="H137" t="s">
+        <v>646</v>
       </c>
       <c r="I137">
-        <v>125</v>
-      </c>
-      <c r="J137">
-        <v>2000</v>
-      </c>
-      <c r="M137" t="s">
-        <v>646</v>
+        <v>100</v>
       </c>
       <c r="N137">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O137">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P137">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q137">
         <v>100</v>
       </c>
       <c r="U137" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AA137" t="s">
         <v>647</v>
@@ -8887,49 +8944,55 @@
       <c r="AB137" t="s">
         <v>648</v>
       </c>
-      <c r="AD137" t="s">
-        <v>645</v>
-      </c>
       <c r="AE137">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:33">
       <c r="A138">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B138" t="s">
+        <v>633</v>
+      </c>
+      <c r="C138" t="s">
+        <v>402</v>
+      </c>
+      <c r="H138" t="s">
         <v>649</v>
       </c>
-      <c r="C138" t="s">
+      <c r="I138">
+        <v>100</v>
+      </c>
+      <c r="J138">
+        <v>200</v>
+      </c>
+      <c r="K138">
+        <v>1000</v>
+      </c>
+      <c r="M138" t="s">
         <v>650</v>
       </c>
-      <c r="H138" t="s">
-        <v>651</v>
-      </c>
-      <c r="I138">
-        <v>125</v>
-      </c>
-      <c r="J138">
-        <v>1500</v>
-      </c>
       <c r="N138">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O138">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="P138">
+        <v>150</v>
       </c>
       <c r="Q138">
         <v>100</v>
       </c>
       <c r="U138" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AA138" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB138" t="s">
         <v>652</v>
-      </c>
-      <c r="AB138" t="s">
-        <v>653</v>
       </c>
       <c r="AE138">
         <v>4</v>
@@ -8937,22 +9000,19 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B139" t="s">
+        <v>653</v>
+      </c>
+      <c r="C139" t="s">
+        <v>617</v>
+      </c>
+      <c r="E139" t="s">
+        <v>638</v>
+      </c>
+      <c r="H139" t="s">
         <v>654</v>
-      </c>
-      <c r="C139" t="s">
-        <v>650</v>
-      </c>
-      <c r="H139" t="s">
-        <v>655</v>
-      </c>
-      <c r="I139">
-        <v>125</v>
-      </c>
-      <c r="J139">
-        <v>1500</v>
       </c>
       <c r="N139">
         <v>75</v>
@@ -8960,20 +9020,26 @@
       <c r="O139">
         <v>10</v>
       </c>
+      <c r="P139">
+        <v>200</v>
+      </c>
       <c r="Q139">
         <v>100</v>
       </c>
       <c r="U139" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="V139" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA139" t="s">
         <v>656</v>
       </c>
-      <c r="AA139" t="s">
+      <c r="AB139" t="s">
         <v>657</v>
       </c>
-      <c r="AB139" t="s">
-        <v>658</v>
+      <c r="AD139" t="s">
+        <v>638</v>
       </c>
       <c r="AE139">
         <v>4</v>
@@ -8981,25 +9047,22 @@
     </row>
     <row r="140" spans="1:33">
       <c r="A140">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B140" t="s">
+        <v>658</v>
+      </c>
+      <c r="C140" t="s">
+        <v>617</v>
+      </c>
+      <c r="H140" t="s">
         <v>659</v>
-      </c>
-      <c r="C140" t="s">
-        <v>650</v>
-      </c>
-      <c r="H140" t="s">
-        <v>660</v>
       </c>
       <c r="I140">
         <v>125</v>
       </c>
       <c r="J140">
-        <v>5000</v>
-      </c>
-      <c r="M140" t="s">
-        <v>661</v>
+        <v>2000</v>
       </c>
       <c r="N140">
         <v>75</v>
@@ -9007,17 +9070,20 @@
       <c r="O140">
         <v>10</v>
       </c>
-      <c r="Q140">
-        <v>100</v>
+      <c r="P140">
+        <v>200</v>
       </c>
       <c r="U140" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="V140" t="s">
+        <v>660</v>
       </c>
       <c r="AA140" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB140" t="s">
         <v>662</v>
-      </c>
-      <c r="AB140" t="s">
-        <v>663</v>
       </c>
       <c r="AE140">
         <v>4</v>
@@ -9025,22 +9091,22 @@
     </row>
     <row r="141" spans="1:33">
       <c r="A141">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B141" t="s">
+        <v>663</v>
+      </c>
+      <c r="C141" t="s">
+        <v>617</v>
+      </c>
+      <c r="H141" t="s">
         <v>664</v>
-      </c>
-      <c r="C141" t="s">
-        <v>650</v>
-      </c>
-      <c r="H141" t="s">
-        <v>661</v>
       </c>
       <c r="I141">
         <v>125</v>
       </c>
       <c r="J141">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M141" t="s">
         <v>665</v>
@@ -9051,17 +9117,23 @@
       <c r="O141">
         <v>10</v>
       </c>
+      <c r="P141">
+        <v>200</v>
+      </c>
       <c r="Q141">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U141" t="s">
-        <v>643</v>
+        <v>658</v>
+      </c>
+      <c r="V141" t="s">
+        <v>666</v>
       </c>
       <c r="AA141" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AB141" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AE141">
         <v>4</v>
@@ -9069,46 +9141,46 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B142" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C142" t="s">
-        <v>644</v>
-      </c>
-      <c r="E142" t="s">
-        <v>664</v>
+        <v>402</v>
+      </c>
+      <c r="H142" t="s">
+        <v>665</v>
+      </c>
+      <c r="I142">
+        <v>100</v>
+      </c>
+      <c r="J142">
+        <v>5000</v>
+      </c>
+      <c r="M142" t="s">
+        <v>670</v>
       </c>
       <c r="N142">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="O142">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="P142">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="Q142">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="U142" t="s">
-        <v>664</v>
-      </c>
-      <c r="W142" t="s">
-        <v>669</v>
-      </c>
-      <c r="X142">
-        <v>2</v>
+        <v>616</v>
       </c>
       <c r="AA142" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AB142" t="s">
-        <v>671</v>
-      </c>
-      <c r="AD142" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="AE142">
         <v>4</v>
@@ -9116,40 +9188,49 @@
     </row>
     <row r="143" spans="1:33">
       <c r="A143">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B143" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C143" t="s">
-        <v>587</v>
+        <v>674</v>
+      </c>
+      <c r="E143" t="s">
+        <v>675</v>
+      </c>
+      <c r="I143">
+        <v>125</v>
+      </c>
+      <c r="J143">
+        <v>2000</v>
+      </c>
+      <c r="M143" t="s">
+        <v>676</v>
       </c>
       <c r="N143">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O143">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P143">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Q143">
         <v>100</v>
       </c>
       <c r="U143" t="s">
-        <v>668</v>
-      </c>
-      <c r="W143" t="s">
         <v>669</v>
       </c>
-      <c r="X143">
-        <v>4</v>
-      </c>
       <c r="AA143" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="AB143" t="s">
-        <v>674</v>
+        <v>678</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>675</v>
       </c>
       <c r="AE143">
         <v>4</v>
@@ -9157,40 +9238,40 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B144" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C144" t="s">
-        <v>402</v>
+        <v>680</v>
+      </c>
+      <c r="H144" t="s">
+        <v>681</v>
+      </c>
+      <c r="I144">
+        <v>125</v>
+      </c>
+      <c r="J144">
+        <v>1500</v>
       </c>
       <c r="N144">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O144">
-        <v>50</v>
-      </c>
-      <c r="P144">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q144">
         <v>100</v>
       </c>
       <c r="U144" t="s">
-        <v>672</v>
-      </c>
-      <c r="W144" t="s">
-        <v>669</v>
-      </c>
-      <c r="X144">
-        <v>5</v>
+        <v>673</v>
       </c>
       <c r="AA144" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="AB144" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="AE144">
         <v>4</v>
@@ -9198,22 +9279,22 @@
     </row>
     <row r="145" spans="1:33">
       <c r="A145">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B145" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C145" t="s">
-        <v>644</v>
-      </c>
-      <c r="E145" t="s">
-        <v>639</v>
+        <v>680</v>
+      </c>
+      <c r="H145" t="s">
+        <v>685</v>
       </c>
       <c r="I145">
         <v>125</v>
       </c>
       <c r="J145">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="N145">
         <v>75</v>
@@ -9221,23 +9302,20 @@
       <c r="O145">
         <v>10</v>
       </c>
-      <c r="P145">
-        <v>200</v>
-      </c>
       <c r="Q145">
         <v>100</v>
       </c>
       <c r="U145" t="s">
-        <v>586</v>
+        <v>679</v>
+      </c>
+      <c r="V145" t="s">
+        <v>686</v>
       </c>
       <c r="AA145" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="AB145" t="s">
-        <v>680</v>
-      </c>
-      <c r="AD145" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
       <c r="AE145">
         <v>4</v>
@@ -9245,22 +9323,25 @@
     </row>
     <row r="146" spans="1:33">
       <c r="A146">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B146" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="C146" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="H146" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="I146">
         <v>125</v>
       </c>
       <c r="J146">
-        <v>500</v>
+        <v>5000</v>
+      </c>
+      <c r="M146" t="s">
+        <v>691</v>
       </c>
       <c r="N146">
         <v>75</v>
@@ -9268,20 +9349,17 @@
       <c r="O146">
         <v>10</v>
       </c>
-      <c r="P146">
-        <v>200</v>
-      </c>
       <c r="Q146">
         <v>100</v>
       </c>
       <c r="U146" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="AA146" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="AB146" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="AE146">
         <v>4</v>
@@ -9289,19 +9367,25 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B147" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="C147" t="s">
-        <v>644</v>
+        <v>680</v>
+      </c>
+      <c r="H147" t="s">
+        <v>691</v>
       </c>
       <c r="I147">
         <v>125</v>
       </c>
       <c r="J147">
-        <v>500</v>
+        <v>10000</v>
+      </c>
+      <c r="M147" t="s">
+        <v>695</v>
       </c>
       <c r="N147">
         <v>75</v>
@@ -9309,20 +9393,17 @@
       <c r="O147">
         <v>10</v>
       </c>
-      <c r="P147">
-        <v>200</v>
-      </c>
       <c r="Q147">
         <v>100</v>
       </c>
       <c r="U147" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="AA147" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="AB147" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="AE147">
         <v>4</v>
@@ -9330,280 +9411,283 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B148" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
       <c r="C148" t="s">
-        <v>644</v>
-      </c>
-      <c r="H148" t="s">
-        <v>645</v>
-      </c>
-      <c r="I148">
-        <v>125</v>
-      </c>
-      <c r="J148">
+        <v>674</v>
+      </c>
+      <c r="E148" t="s">
+        <v>694</v>
+      </c>
+      <c r="N148">
+        <v>100</v>
+      </c>
+      <c r="O148">
+        <v>25</v>
+      </c>
+      <c r="P148">
         <v>1000</v>
-      </c>
-      <c r="N148">
-        <v>75</v>
-      </c>
-      <c r="O148">
-        <v>10</v>
-      </c>
-      <c r="P148">
-        <v>200</v>
       </c>
       <c r="Q148">
         <v>100</v>
       </c>
       <c r="U148" t="s">
-        <v>685</v>
+        <v>694</v>
+      </c>
+      <c r="W148" t="s">
+        <v>699</v>
+      </c>
+      <c r="X148">
+        <v>2</v>
       </c>
       <c r="AA148" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="AB148" t="s">
-        <v>689</v>
+        <v>701</v>
+      </c>
+      <c r="AD148" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE148">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:33">
       <c r="A149">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B149" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="C149" t="s">
-        <v>587</v>
-      </c>
-      <c r="E149" t="s">
-        <v>675</v>
+        <v>617</v>
       </c>
       <c r="N149">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="O149">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="P149">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q149">
         <v>100</v>
       </c>
       <c r="U149" t="s">
-        <v>586</v>
+        <v>698</v>
+      </c>
+      <c r="W149" t="s">
+        <v>699</v>
+      </c>
+      <c r="X149">
+        <v>4</v>
       </c>
       <c r="AA149" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="AB149" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD149" t="s">
-        <v>675</v>
+        <v>704</v>
       </c>
       <c r="AE149">
         <v>4</v>
       </c>
-      <c r="AF149" t="s">
-        <v>587</v>
-      </c>
-      <c r="AG149">
-        <v>5</v>
-      </c>
     </row>
     <row r="150" spans="1:33">
       <c r="A150">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B150" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="C150" t="s">
-        <v>587</v>
+        <v>402</v>
       </c>
       <c r="N150">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="O150">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P150">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q150">
         <v>100</v>
       </c>
       <c r="U150" t="s">
-        <v>690</v>
+        <v>702</v>
+      </c>
+      <c r="W150" t="s">
+        <v>699</v>
+      </c>
+      <c r="X150">
+        <v>5</v>
       </c>
       <c r="AA150" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="AB150" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="AE150">
         <v>4</v>
       </c>
-      <c r="AF150" t="s">
-        <v>587</v>
-      </c>
-      <c r="AG150">
-        <v>10</v>
-      </c>
     </row>
     <row r="151" spans="1:33">
       <c r="A151">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B151" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="C151" t="s">
-        <v>587</v>
+        <v>674</v>
+      </c>
+      <c r="E151" t="s">
+        <v>669</v>
+      </c>
+      <c r="I151">
+        <v>125</v>
+      </c>
+      <c r="J151">
+        <v>100</v>
       </c>
       <c r="N151">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O151">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P151">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q151">
         <v>100</v>
       </c>
       <c r="U151" t="s">
-        <v>693</v>
+        <v>616</v>
       </c>
       <c r="AA151" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="AB151" t="s">
-        <v>698</v>
+        <v>710</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>669</v>
       </c>
       <c r="AE151">
         <v>4</v>
       </c>
-      <c r="AF151" t="s">
-        <v>587</v>
-      </c>
-      <c r="AG151">
-        <v>15</v>
-      </c>
     </row>
     <row r="152" spans="1:33">
       <c r="A152">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B152" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="C152" t="s">
-        <v>587</v>
+        <v>674</v>
+      </c>
+      <c r="H152" t="s">
+        <v>712</v>
+      </c>
+      <c r="I152">
+        <v>125</v>
+      </c>
+      <c r="J152">
+        <v>500</v>
       </c>
       <c r="N152">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O152">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P152">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q152">
         <v>100</v>
       </c>
       <c r="U152" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="AA152" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="AB152" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="AE152">
         <v>4</v>
       </c>
-      <c r="AF152" t="s">
-        <v>587</v>
-      </c>
-      <c r="AG152">
-        <v>20</v>
-      </c>
     </row>
     <row r="153" spans="1:33">
       <c r="A153">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B153" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="C153" t="s">
-        <v>587</v>
-      </c>
-      <c r="M153" t="s">
-        <v>703</v>
+        <v>674</v>
+      </c>
+      <c r="I153">
+        <v>125</v>
+      </c>
+      <c r="J153">
+        <v>500</v>
       </c>
       <c r="N153">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O153">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P153">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q153">
         <v>100</v>
       </c>
       <c r="U153" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="AA153" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="AB153" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="AE153">
         <v>4</v>
       </c>
-      <c r="AF153" t="s">
-        <v>587</v>
-      </c>
-      <c r="AG153">
-        <v>25</v>
-      </c>
     </row>
     <row r="154" spans="1:33">
       <c r="A154">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B154" t="s">
-        <v>706</v>
+        <v>675</v>
       </c>
       <c r="C154" t="s">
-        <v>587</v>
-      </c>
-      <c r="D154" t="s">
-        <v>707</v>
-      </c>
-      <c r="E154" t="s">
-        <v>659</v>
+        <v>674</v>
+      </c>
+      <c r="H154" t="s">
+        <v>675</v>
       </c>
       <c r="I154">
         <v>125</v>
       </c>
       <c r="J154">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="N154">
         <v>75</v>
@@ -9617,266 +9701,278 @@
       <c r="Q154">
         <v>100</v>
       </c>
-      <c r="T154">
-        <v>1</v>
+      <c r="U154" t="s">
+        <v>715</v>
       </c>
       <c r="AA154" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="AB154" t="s">
-        <v>709</v>
-      </c>
-      <c r="AC154" t="s">
-        <v>707</v>
-      </c>
-      <c r="AD154" t="s">
-        <v>659</v>
-      </c>
-      <c r="AE154">
-        <v>4</v>
+        <v>719</v>
       </c>
     </row>
     <row r="155" spans="1:33">
       <c r="A155">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B155" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C155" t="s">
-        <v>587</v>
-      </c>
-      <c r="H155" t="s">
-        <v>711</v>
-      </c>
-      <c r="I155">
-        <v>125</v>
-      </c>
-      <c r="J155">
-        <v>5000</v>
+        <v>617</v>
+      </c>
+      <c r="E155" t="s">
+        <v>705</v>
       </c>
       <c r="N155">
+        <v>175</v>
+      </c>
+      <c r="O155">
         <v>75</v>
       </c>
-      <c r="O155">
-        <v>10</v>
-      </c>
       <c r="P155">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q155">
         <v>100</v>
       </c>
       <c r="U155" t="s">
-        <v>706</v>
+        <v>616</v>
       </c>
       <c r="AA155" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="AB155" t="s">
-        <v>713</v>
+        <v>722</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>705</v>
       </c>
       <c r="AE155">
         <v>4</v>
       </c>
+      <c r="AF155" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG155">
+        <v>5</v>
+      </c>
     </row>
     <row r="156" spans="1:33">
       <c r="A156">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B156" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C156" t="s">
-        <v>587</v>
-      </c>
-      <c r="H156" t="s">
-        <v>715</v>
-      </c>
-      <c r="I156">
-        <v>125</v>
-      </c>
-      <c r="J156">
-        <v>10000</v>
+        <v>617</v>
       </c>
       <c r="N156">
+        <v>175</v>
+      </c>
+      <c r="O156">
         <v>75</v>
       </c>
-      <c r="O156">
-        <v>10</v>
+      <c r="P156">
+        <v>2000</v>
       </c>
       <c r="Q156">
         <v>100</v>
       </c>
       <c r="U156" t="s">
-        <v>710</v>
-      </c>
-      <c r="V156" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="AA156" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="AB156" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="AE156">
         <v>4</v>
       </c>
+      <c r="AF156" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG156">
+        <v>10</v>
+      </c>
     </row>
     <row r="157" spans="1:33">
       <c r="A157">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B157" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="C157" t="s">
-        <v>587</v>
-      </c>
-      <c r="H157" t="s">
-        <v>720</v>
-      </c>
-      <c r="I157">
-        <v>125</v>
-      </c>
-      <c r="J157">
+        <v>617</v>
+      </c>
+      <c r="N157">
+        <v>175</v>
+      </c>
+      <c r="O157">
+        <v>75</v>
+      </c>
+      <c r="P157">
         <v>2000</v>
-      </c>
-      <c r="P157">
-        <v>200</v>
       </c>
       <c r="Q157">
         <v>100</v>
       </c>
       <c r="U157" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="AA157" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="AB157" t="s">
-        <v>722</v>
+        <v>728</v>
+      </c>
+      <c r="AE157">
+        <v>4</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG157">
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:33">
       <c r="A158">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B158" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C158" t="s">
-        <v>587</v>
-      </c>
-      <c r="H158" t="s">
-        <v>724</v>
-      </c>
-      <c r="I158">
-        <v>125</v>
-      </c>
-      <c r="J158">
-        <v>20000</v>
+        <v>617</v>
+      </c>
+      <c r="N158">
+        <v>175</v>
+      </c>
+      <c r="O158">
+        <v>75</v>
       </c>
       <c r="P158">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q158">
         <v>100</v>
       </c>
       <c r="U158" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="AA158" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="AB158" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="AE158">
         <v>4</v>
       </c>
+      <c r="AF158" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG158">
+        <v>20</v>
+      </c>
     </row>
     <row r="159" spans="1:33">
       <c r="A159">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B159" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C159" t="s">
-        <v>402</v>
-      </c>
-      <c r="H159" t="s">
-        <v>728</v>
-      </c>
-      <c r="I159">
-        <v>100</v>
-      </c>
-      <c r="J159">
-        <v>25000</v>
+        <v>617</v>
+      </c>
+      <c r="M159" t="s">
+        <v>733</v>
       </c>
       <c r="N159">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="O159">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="P159">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="Q159">
         <v>100</v>
       </c>
       <c r="U159" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="AA159" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AB159" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="AE159">
         <v>4</v>
       </c>
+      <c r="AF159" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG159">
+        <v>25</v>
+      </c>
     </row>
     <row r="160" spans="1:33">
       <c r="A160">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B160" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="C160" t="s">
-        <v>587</v>
+        <v>617</v>
+      </c>
+      <c r="D160" t="s">
+        <v>737</v>
       </c>
       <c r="E160" t="s">
-        <v>727</v>
-      </c>
-      <c r="H160" t="s">
-        <v>732</v>
+        <v>689</v>
       </c>
       <c r="I160">
         <v>125</v>
       </c>
       <c r="J160">
-        <v>20000</v>
+        <v>25000</v>
+      </c>
+      <c r="N160">
+        <v>75</v>
+      </c>
+      <c r="O160">
+        <v>10</v>
+      </c>
+      <c r="P160">
+        <v>200</v>
       </c>
       <c r="Q160">
-        <v>200</v>
-      </c>
-      <c r="U160" t="s">
-        <v>706</v>
+        <v>100</v>
+      </c>
+      <c r="T160">
+        <v>1</v>
       </c>
       <c r="AA160" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="AB160" t="s">
-        <v>734</v>
+        <v>739</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>737</v>
       </c>
       <c r="AD160" t="s">
-        <v>727</v>
+        <v>689</v>
       </c>
       <c r="AE160">
         <v>4</v>
@@ -9884,34 +9980,43 @@
     </row>
     <row r="161" spans="1:33">
       <c r="A161">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B161" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C161" t="s">
-        <v>587</v>
+        <v>617</v>
+      </c>
+      <c r="H161" t="s">
+        <v>741</v>
       </c>
       <c r="I161">
         <v>125</v>
       </c>
       <c r="J161">
-        <v>30000</v>
+        <v>5000</v>
+      </c>
+      <c r="N161">
+        <v>75</v>
+      </c>
+      <c r="O161">
+        <v>10</v>
+      </c>
+      <c r="P161">
+        <v>200</v>
       </c>
       <c r="Q161">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U161" t="s">
-        <v>731</v>
-      </c>
-      <c r="Y161">
-        <v>2</v>
+        <v>736</v>
       </c>
       <c r="AA161" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="AB161" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="AE161">
         <v>4</v>
@@ -9919,283 +10024,262 @@
     </row>
     <row r="162" spans="1:33">
       <c r="A162">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B162" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C162" t="s">
-        <v>739</v>
-      </c>
-      <c r="E162" t="s">
-        <v>390</v>
-      </c>
-      <c r="F162" t="s">
-        <v>371</v>
-      </c>
-      <c r="G162">
+        <v>617</v>
+      </c>
+      <c r="H162" t="s">
+        <v>745</v>
+      </c>
+      <c r="I162">
+        <v>125</v>
+      </c>
+      <c r="J162">
+        <v>10000</v>
+      </c>
+      <c r="N162">
+        <v>75</v>
+      </c>
+      <c r="O162">
         <v>10</v>
       </c>
-      <c r="H162" t="s">
+      <c r="Q162">
+        <v>100</v>
+      </c>
+      <c r="U162" t="s">
         <v>740</v>
       </c>
-      <c r="N162">
-        <v>500000</v>
-      </c>
-      <c r="O162">
-        <v>500000</v>
-      </c>
-      <c r="P162">
-        <v>2000000000</v>
-      </c>
-      <c r="Q162">
-        <v>175000</v>
-      </c>
-      <c r="T162">
-        <v>1</v>
-      </c>
-      <c r="W162" t="s">
-        <v>741</v>
-      </c>
-      <c r="X162">
-        <v>5</v>
+      <c r="V162" t="s">
+        <v>746</v>
       </c>
       <c r="AA162" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="AB162" t="s">
-        <v>743</v>
-      </c>
-      <c r="AD162" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF162" t="s">
-        <v>739</v>
-      </c>
-      <c r="AG162">
-        <v>5</v>
+        <v>748</v>
+      </c>
+      <c r="AE162">
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:33">
       <c r="A163">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B163" t="s">
+        <v>749</v>
+      </c>
+      <c r="C163" t="s">
+        <v>617</v>
+      </c>
+      <c r="H163" t="s">
+        <v>750</v>
+      </c>
+      <c r="I163">
+        <v>125</v>
+      </c>
+      <c r="J163">
+        <v>2000</v>
+      </c>
+      <c r="P163">
+        <v>200</v>
+      </c>
+      <c r="Q163">
+        <v>100</v>
+      </c>
+      <c r="U163" t="s">
         <v>744</v>
       </c>
-      <c r="C163" t="s">
-        <v>739</v>
-      </c>
-      <c r="H163" t="s">
-        <v>745</v>
-      </c>
-      <c r="N163">
-        <v>500000</v>
-      </c>
-      <c r="O163">
-        <v>500000</v>
-      </c>
-      <c r="P163">
-        <v>2000000000</v>
-      </c>
-      <c r="Q163">
-        <v>175000</v>
-      </c>
-      <c r="U163" t="s">
-        <v>738</v>
-      </c>
       <c r="AA163" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="AB163" t="s">
-        <v>747</v>
-      </c>
-      <c r="AF163" t="s">
-        <v>739</v>
-      </c>
-      <c r="AG163">
-        <v>10</v>
+        <v>752</v>
       </c>
     </row>
     <row r="164" spans="1:33">
       <c r="A164">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C164" t="s">
+        <v>617</v>
+      </c>
+      <c r="H164" t="s">
+        <v>754</v>
+      </c>
+      <c r="I164">
+        <v>125</v>
+      </c>
+      <c r="J164">
+        <v>20000</v>
+      </c>
+      <c r="P164">
+        <v>200</v>
+      </c>
+      <c r="Q164">
+        <v>100</v>
+      </c>
+      <c r="U164" t="s">
         <v>749</v>
       </c>
-      <c r="H164" t="s">
-        <v>750</v>
-      </c>
-      <c r="N164">
-        <v>500000</v>
-      </c>
-      <c r="O164">
-        <v>500000</v>
-      </c>
-      <c r="P164">
-        <v>2000000000</v>
-      </c>
-      <c r="Q164">
-        <v>175000</v>
-      </c>
-      <c r="U164" t="s">
-        <v>744</v>
-      </c>
       <c r="AA164" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AB164" t="s">
-        <v>752</v>
-      </c>
-      <c r="AF164" t="s">
-        <v>749</v>
-      </c>
-      <c r="AG164">
-        <v>5</v>
+        <v>756</v>
+      </c>
+      <c r="AE164">
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:33">
       <c r="A165">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B165" t="s">
+        <v>757</v>
+      </c>
+      <c r="C165" t="s">
+        <v>402</v>
+      </c>
+      <c r="H165" t="s">
+        <v>758</v>
+      </c>
+      <c r="I165">
+        <v>100</v>
+      </c>
+      <c r="J165">
+        <v>25000</v>
+      </c>
+      <c r="N165">
+        <v>25</v>
+      </c>
+      <c r="O165">
+        <v>2</v>
+      </c>
+      <c r="P165">
+        <v>150</v>
+      </c>
+      <c r="Q165">
+        <v>100</v>
+      </c>
+      <c r="U165" t="s">
         <v>753</v>
       </c>
-      <c r="C165" t="s">
-        <v>749</v>
-      </c>
-      <c r="H165" t="s">
-        <v>754</v>
-      </c>
-      <c r="N165">
-        <v>500000</v>
-      </c>
-      <c r="O165">
-        <v>500000</v>
-      </c>
-      <c r="P165">
-        <v>2000000000</v>
-      </c>
-      <c r="Q165">
-        <v>175000</v>
-      </c>
-      <c r="U165" t="s">
-        <v>748</v>
-      </c>
       <c r="AA165" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AB165" t="s">
-        <v>756</v>
-      </c>
-      <c r="AF165" t="s">
-        <v>749</v>
-      </c>
-      <c r="AG165">
-        <v>10</v>
+        <v>760</v>
+      </c>
+      <c r="AE165">
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:33">
       <c r="A166">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B166" t="s">
+        <v>761</v>
+      </c>
+      <c r="C166" t="s">
+        <v>617</v>
+      </c>
+      <c r="E166" t="s">
         <v>757</v>
       </c>
-      <c r="C166" t="s">
-        <v>749</v>
-      </c>
       <c r="H166" t="s">
-        <v>758</v>
-      </c>
-      <c r="N166">
-        <v>500000</v>
-      </c>
-      <c r="O166">
-        <v>500000</v>
-      </c>
-      <c r="P166">
-        <v>2000000000</v>
+        <v>762</v>
+      </c>
+      <c r="I166">
+        <v>125</v>
+      </c>
+      <c r="J166">
+        <v>20000</v>
       </c>
       <c r="Q166">
-        <v>175000</v>
+        <v>200</v>
       </c>
       <c r="U166" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="AA166" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="AB166" t="s">
-        <v>760</v>
+        <v>764</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE166">
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:33">
       <c r="A167">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B167" t="s">
+        <v>765</v>
+      </c>
+      <c r="C167" t="s">
+        <v>617</v>
+      </c>
+      <c r="I167">
+        <v>125</v>
+      </c>
+      <c r="J167">
+        <v>30000</v>
+      </c>
+      <c r="Q167">
+        <v>500</v>
+      </c>
+      <c r="U167" t="s">
         <v>761</v>
       </c>
-      <c r="C167" t="s">
-        <v>762</v>
-      </c>
-      <c r="E167" t="s">
-        <v>757</v>
-      </c>
-      <c r="F167" t="s">
-        <v>744</v>
-      </c>
-      <c r="H167" t="s">
-        <v>763</v>
-      </c>
-      <c r="N167">
-        <v>500000</v>
-      </c>
-      <c r="O167">
-        <v>500000</v>
-      </c>
-      <c r="P167">
-        <v>2000000000</v>
-      </c>
-      <c r="Q167">
-        <v>175000</v>
-      </c>
-      <c r="U167" t="s">
-        <v>738</v>
+      <c r="Y167">
+        <v>2</v>
       </c>
       <c r="AA167" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AB167" t="s">
-        <v>765</v>
-      </c>
-      <c r="AD167" t="s">
-        <v>757</v>
-      </c>
-      <c r="AF167" t="s">
-        <v>762</v>
-      </c>
-      <c r="AG167">
-        <v>5</v>
+        <v>767</v>
+      </c>
+      <c r="AE167">
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:33">
       <c r="A168">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B168" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C168" t="s">
-        <v>762</v>
+        <v>769</v>
+      </c>
+      <c r="E168" t="s">
+        <v>390</v>
+      </c>
+      <c r="F168" t="s">
+        <v>371</v>
+      </c>
+      <c r="G168">
+        <v>10</v>
       </c>
       <c r="H168" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="N168">
         <v>500000</v>
@@ -10209,92 +10293,125 @@
       <c r="Q168">
         <v>175000</v>
       </c>
-      <c r="U168" t="s">
-        <v>761</v>
+      <c r="T168">
+        <v>1</v>
+      </c>
+      <c r="W168" t="s">
+        <v>771</v>
+      </c>
+      <c r="X168">
+        <v>5</v>
       </c>
       <c r="AA168" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="AB168" t="s">
+        <v>773</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF168" t="s">
         <v>769</v>
       </c>
-      <c r="AF168" t="s">
-        <v>762</v>
-      </c>
       <c r="AG168">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:33">
       <c r="A169">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B169" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C169" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="H169" t="s">
-        <v>771</v>
+        <v>775</v>
+      </c>
+      <c r="N169">
+        <v>500000</v>
+      </c>
+      <c r="O169">
+        <v>500000</v>
+      </c>
+      <c r="P169">
+        <v>2000000000</v>
+      </c>
+      <c r="Q169">
+        <v>175000</v>
       </c>
       <c r="U169" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AA169" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="AB169" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="AF169" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="AG169">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:33">
       <c r="A170">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B170" t="s">
+        <v>778</v>
+      </c>
+      <c r="C170" t="s">
+        <v>779</v>
+      </c>
+      <c r="H170" t="s">
+        <v>780</v>
+      </c>
+      <c r="N170">
+        <v>500000</v>
+      </c>
+      <c r="O170">
+        <v>500000</v>
+      </c>
+      <c r="P170">
+        <v>2000000000</v>
+      </c>
+      <c r="Q170">
+        <v>175000</v>
+      </c>
+      <c r="U170" t="s">
         <v>774</v>
       </c>
-      <c r="C170" t="s">
-        <v>739</v>
-      </c>
-      <c r="H170" t="s">
-        <v>775</v>
-      </c>
-      <c r="U170" t="s">
-        <v>770</v>
-      </c>
       <c r="AA170" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="AB170" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="AF170" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="AG170">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:33">
       <c r="A171">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B171" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C171" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="H171" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="N171">
         <v>500000</v>
@@ -10309,39 +10426,33 @@
         <v>175000</v>
       </c>
       <c r="U171" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="AA171" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="AB171" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="AF171" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="AG171">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:33">
       <c r="A172">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B172" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C172" t="s">
-        <v>749</v>
-      </c>
-      <c r="E172" t="s">
-        <v>778</v>
-      </c>
-      <c r="F172" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="H172" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="N172">
         <v>500000</v>
@@ -10356,39 +10467,33 @@
         <v>175000</v>
       </c>
       <c r="U172" t="s">
-        <v>738</v>
+        <v>783</v>
       </c>
       <c r="AA172" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="AB172" t="s">
-        <v>785</v>
-      </c>
-      <c r="AD172" t="s">
-        <v>778</v>
-      </c>
-      <c r="AF172" t="s">
-        <v>749</v>
-      </c>
-      <c r="AG172">
-        <v>25</v>
+        <v>790</v>
       </c>
     </row>
     <row r="173" spans="1:33">
       <c r="A173">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B173" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="C173" t="s">
+        <v>792</v>
+      </c>
+      <c r="E173" t="s">
         <v>787</v>
       </c>
+      <c r="F173" t="s">
+        <v>774</v>
+      </c>
       <c r="H173" t="s">
-        <v>788</v>
-      </c>
-      <c r="L173">
-        <v>150000</v>
+        <v>793</v>
       </c>
       <c r="N173">
         <v>500000</v>
@@ -10403,16 +10508,19 @@
         <v>175000</v>
       </c>
       <c r="U173" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="AA173" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="AB173" t="s">
-        <v>790</v>
+        <v>795</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>787</v>
       </c>
       <c r="AF173" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="AG173">
         <v>5</v>
@@ -10420,19 +10528,16 @@
     </row>
     <row r="174" spans="1:33">
       <c r="A174">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B174" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="C174" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="H174" t="s">
-        <v>792</v>
-      </c>
-      <c r="L174">
-        <v>300000</v>
+        <v>797</v>
       </c>
       <c r="N174">
         <v>500000</v>
@@ -10447,385 +10552,355 @@
         <v>175000</v>
       </c>
       <c r="U174" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="AA174" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="AB174" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AF174" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="AG174">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:33">
       <c r="A175">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B175" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="C175" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="H175" t="s">
+        <v>801</v>
+      </c>
+      <c r="U175" t="s">
         <v>796</v>
       </c>
-      <c r="L175">
-        <v>500000</v>
-      </c>
-      <c r="N175">
-        <v>500000</v>
-      </c>
-      <c r="O175">
-        <v>500000</v>
-      </c>
-      <c r="P175">
-        <v>2000000000</v>
-      </c>
-      <c r="Q175">
-        <v>175000</v>
-      </c>
-      <c r="U175" t="s">
-        <v>791</v>
-      </c>
       <c r="AA175" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="AB175" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="AF175" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="AG175">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:33">
       <c r="A176">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B176" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C176" t="s">
-        <v>739</v>
-      </c>
-      <c r="G176">
-        <v>15</v>
+        <v>769</v>
       </c>
       <c r="H176" t="s">
+        <v>805</v>
+      </c>
+      <c r="U176" t="s">
         <v>800</v>
       </c>
-      <c r="M176" t="s">
-        <v>801</v>
-      </c>
-      <c r="N176">
-        <v>500000</v>
-      </c>
-      <c r="O176">
-        <v>500000</v>
-      </c>
-      <c r="P176">
-        <v>2000000000</v>
-      </c>
-      <c r="Q176">
-        <v>175000</v>
-      </c>
-      <c r="U176" t="s">
-        <v>795</v>
-      </c>
       <c r="AA176" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="AB176" t="s">
-        <v>803</v>
+        <v>807</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>769</v>
+      </c>
+      <c r="AG176">
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:33">
       <c r="A177">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B177" t="s">
+        <v>808</v>
+      </c>
+      <c r="C177" t="s">
+        <v>779</v>
+      </c>
+      <c r="H177" t="s">
+        <v>809</v>
+      </c>
+      <c r="N177">
+        <v>500000</v>
+      </c>
+      <c r="O177">
+        <v>500000</v>
+      </c>
+      <c r="P177">
+        <v>2000000000</v>
+      </c>
+      <c r="Q177">
+        <v>175000</v>
+      </c>
+      <c r="U177" t="s">
         <v>804</v>
       </c>
-      <c r="C177" t="s">
-        <v>805</v>
-      </c>
-      <c r="N177">
-        <v>1000</v>
-      </c>
-      <c r="O177">
-        <v>500</v>
-      </c>
-      <c r="P177">
-        <v>10000</v>
-      </c>
-      <c r="Q177">
-        <v>250</v>
-      </c>
-      <c r="T177">
-        <v>1</v>
-      </c>
-      <c r="W177" t="s">
-        <v>806</v>
-      </c>
-      <c r="X177">
-        <v>1</v>
-      </c>
       <c r="AA177" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="AB177" t="s">
-        <v>808</v>
-      </c>
-      <c r="AE177">
-        <v>8</v>
+        <v>811</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>779</v>
+      </c>
+      <c r="AG177">
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:33">
       <c r="A178">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B178" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C178" t="s">
-        <v>402</v>
+        <v>779</v>
+      </c>
+      <c r="E178" t="s">
+        <v>808</v>
+      </c>
+      <c r="F178" t="s">
+        <v>791</v>
       </c>
       <c r="H178" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="N178">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O178">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P178">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q178">
-        <v>250</v>
+        <v>175000</v>
       </c>
       <c r="U178" t="s">
-        <v>804</v>
-      </c>
-      <c r="W178" t="s">
-        <v>806</v>
-      </c>
-      <c r="X178">
-        <v>2</v>
+        <v>768</v>
       </c>
       <c r="AA178" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AB178" t="s">
-        <v>812</v>
-      </c>
-      <c r="AE178">
-        <v>8</v>
+        <v>815</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>808</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>779</v>
+      </c>
+      <c r="AG178">
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:33">
       <c r="A179">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B179" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C179" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="H179" t="s">
-        <v>814</v>
+        <v>818</v>
+      </c>
+      <c r="L179">
+        <v>150000</v>
       </c>
       <c r="N179">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O179">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P179">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q179">
-        <v>250</v>
+        <v>175000</v>
       </c>
       <c r="U179" t="s">
-        <v>809</v>
-      </c>
-      <c r="W179" t="s">
-        <v>806</v>
-      </c>
-      <c r="X179">
-        <v>3</v>
+        <v>812</v>
       </c>
       <c r="AA179" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="AB179" t="s">
-        <v>816</v>
-      </c>
-      <c r="AE179">
-        <v>8</v>
+        <v>820</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>817</v>
+      </c>
+      <c r="AG179">
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:33">
       <c r="A180">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B180" t="s">
+        <v>821</v>
+      </c>
+      <c r="C180" t="s">
         <v>817</v>
       </c>
-      <c r="C180" t="s">
-        <v>818</v>
-      </c>
       <c r="H180" t="s">
-        <v>819</v>
+        <v>822</v>
+      </c>
+      <c r="L180">
+        <v>300000</v>
       </c>
       <c r="N180">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O180">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P180">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q180">
-        <v>250</v>
+        <v>175000</v>
       </c>
       <c r="U180" t="s">
-        <v>813</v>
-      </c>
-      <c r="W180" t="s">
-        <v>806</v>
-      </c>
-      <c r="X180">
-        <v>4</v>
+        <v>816</v>
       </c>
       <c r="AA180" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="AB180" t="s">
-        <v>821</v>
-      </c>
-      <c r="AE180">
-        <v>8</v>
+        <v>824</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>817</v>
+      </c>
+      <c r="AG180">
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:33">
       <c r="A181">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B181" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C181" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H181" t="s">
-        <v>823</v>
+        <v>826</v>
+      </c>
+      <c r="L181">
+        <v>500000</v>
       </c>
       <c r="N181">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O181">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P181">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q181">
-        <v>250</v>
+        <v>175000</v>
       </c>
       <c r="U181" t="s">
+        <v>821</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>827</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>828</v>
+      </c>
+      <c r="AF181" t="s">
         <v>817</v>
       </c>
-      <c r="V181" t="s">
-        <v>824</v>
-      </c>
-      <c r="AA181" t="s">
-        <v>825</v>
-      </c>
-      <c r="AB181" t="s">
-        <v>826</v>
+      <c r="AG181">
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:33">
       <c r="A182">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B182" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C182" t="s">
-        <v>402</v>
+        <v>769</v>
+      </c>
+      <c r="G182">
+        <v>15</v>
+      </c>
+      <c r="H182" t="s">
+        <v>830</v>
+      </c>
+      <c r="M182" t="s">
+        <v>831</v>
       </c>
       <c r="N182">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="O182">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P182">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q182">
-        <v>250</v>
+        <v>175000</v>
       </c>
       <c r="U182" t="s">
-        <v>822</v>
-      </c>
-      <c r="W182" t="s">
-        <v>806</v>
-      </c>
-      <c r="X182">
-        <v>5</v>
+        <v>825</v>
       </c>
       <c r="AA182" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="AB182" t="s">
-        <v>829</v>
-      </c>
-      <c r="AE182">
-        <v>8</v>
+        <v>833</v>
       </c>
     </row>
     <row r="183" spans="1:33">
       <c r="A183">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B183" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C183" t="s">
-        <v>831</v>
-      </c>
-      <c r="E183" t="s">
-        <v>827</v>
-      </c>
-      <c r="F183" t="s">
-        <v>804</v>
-      </c>
-      <c r="I183">
-        <v>100</v>
-      </c>
-      <c r="J183">
-        <v>100</v>
-      </c>
-      <c r="K183">
+        <v>835</v>
+      </c>
+      <c r="N183">
         <v>1000</v>
-      </c>
-      <c r="N183">
-        <v>100</v>
       </c>
       <c r="O183">
         <v>500</v>
@@ -10836,46 +10911,37 @@
       <c r="Q183">
         <v>250</v>
       </c>
-      <c r="U183" t="s">
-        <v>804</v>
+      <c r="T183">
+        <v>1</v>
+      </c>
+      <c r="W183" t="s">
+        <v>836</v>
+      </c>
+      <c r="X183">
+        <v>1</v>
       </c>
       <c r="AA183" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="AB183" t="s">
-        <v>833</v>
-      </c>
-      <c r="AD183" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="AE183">
         <v>8</v>
       </c>
-      <c r="AF183" t="s">
-        <v>831</v>
-      </c>
-      <c r="AG183">
-        <v>5</v>
-      </c>
     </row>
     <row r="184" spans="1:33">
       <c r="A184">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B184" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C184" t="s">
-        <v>831</v>
-      </c>
-      <c r="I184">
-        <v>100</v>
-      </c>
-      <c r="J184">
-        <v>100</v>
-      </c>
-      <c r="K184">
-        <v>1000</v>
+        <v>402</v>
+      </c>
+      <c r="H184" t="s">
+        <v>840</v>
       </c>
       <c r="N184">
         <v>1000</v>
@@ -10890,33 +10956,36 @@
         <v>250</v>
       </c>
       <c r="U184" t="s">
-        <v>830</v>
+        <v>834</v>
+      </c>
+      <c r="W184" t="s">
+        <v>836</v>
+      </c>
+      <c r="X184">
+        <v>2</v>
       </c>
       <c r="AA184" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AB184" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="AE184">
         <v>8</v>
       </c>
-      <c r="AF184" t="s">
-        <v>831</v>
-      </c>
-      <c r="AG184">
-        <v>10</v>
-      </c>
     </row>
     <row r="185" spans="1:33">
       <c r="A185">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B185" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C185" t="s">
-        <v>805</v>
+        <v>835</v>
+      </c>
+      <c r="H185" t="s">
+        <v>844</v>
       </c>
       <c r="N185">
         <v>1000</v>
@@ -10931,36 +11000,36 @@
         <v>250</v>
       </c>
       <c r="U185" t="s">
-        <v>834</v>
+        <v>839</v>
+      </c>
+      <c r="W185" t="s">
+        <v>836</v>
+      </c>
+      <c r="X185">
+        <v>3</v>
       </c>
       <c r="AA185" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="AB185" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="AE185">
         <v>8</v>
       </c>
-      <c r="AF185" t="s">
-        <v>805</v>
-      </c>
-      <c r="AG185">
-        <v>5</v>
-      </c>
     </row>
     <row r="186" spans="1:33">
       <c r="A186">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B186" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="C186" t="s">
-        <v>841</v>
-      </c>
-      <c r="K186">
-        <v>5000</v>
+        <v>848</v>
+      </c>
+      <c r="H186" t="s">
+        <v>849</v>
       </c>
       <c r="N186">
         <v>1000</v>
@@ -10975,71 +11044,71 @@
         <v>250</v>
       </c>
       <c r="U186" t="s">
-        <v>837</v>
+        <v>843</v>
+      </c>
+      <c r="W186" t="s">
+        <v>836</v>
+      </c>
+      <c r="X186">
+        <v>4</v>
       </c>
       <c r="AA186" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="AB186" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="AE186">
         <v>8</v>
       </c>
-      <c r="AF186" t="s">
-        <v>841</v>
-      </c>
-      <c r="AG186">
-        <v>5</v>
-      </c>
     </row>
     <row r="187" spans="1:33">
       <c r="A187">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B187" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="C187" t="s">
-        <v>841</v>
-      </c>
-      <c r="I187">
+        <v>848</v>
+      </c>
+      <c r="H187" t="s">
+        <v>853</v>
+      </c>
+      <c r="N187">
         <v>1000</v>
       </c>
-      <c r="J187">
-        <v>1000</v>
-      </c>
-      <c r="K187">
-        <v>5000</v>
+      <c r="O187">
+        <v>500</v>
+      </c>
+      <c r="P187">
+        <v>10000</v>
+      </c>
+      <c r="Q187">
+        <v>250</v>
       </c>
       <c r="U187" t="s">
-        <v>840</v>
+        <v>847</v>
+      </c>
+      <c r="V187" t="s">
+        <v>854</v>
       </c>
       <c r="AA187" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="AB187" t="s">
-        <v>846</v>
-      </c>
-      <c r="AE187">
-        <v>8</v>
-      </c>
-      <c r="AF187" t="s">
-        <v>841</v>
-      </c>
-      <c r="AG187">
-        <v>10</v>
+        <v>856</v>
       </c>
     </row>
     <row r="188" spans="1:33">
       <c r="A188">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B188" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="C188" t="s">
-        <v>805</v>
+        <v>402</v>
       </c>
       <c r="N188">
         <v>1000</v>
@@ -11054,42 +11123,51 @@
         <v>250</v>
       </c>
       <c r="U188" t="s">
-        <v>844</v>
+        <v>852</v>
+      </c>
+      <c r="W188" t="s">
+        <v>836</v>
+      </c>
+      <c r="X188">
+        <v>5</v>
       </c>
       <c r="AA188" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="AB188" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="AE188">
         <v>8</v>
       </c>
-      <c r="AF188" t="s">
-        <v>805</v>
-      </c>
-      <c r="AG188">
-        <v>10</v>
-      </c>
     </row>
     <row r="189" spans="1:33">
       <c r="A189">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B189" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="C189" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="E189" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="F189" t="s">
-        <v>830</v>
+        <v>834</v>
+      </c>
+      <c r="I189">
+        <v>100</v>
+      </c>
+      <c r="J189">
+        <v>100</v>
+      </c>
+      <c r="K189">
+        <v>1000</v>
       </c>
       <c r="N189">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O189">
         <v>500</v>
@@ -11101,22 +11179,22 @@
         <v>250</v>
       </c>
       <c r="U189" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="AA189" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="AB189" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="AD189" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="AE189">
         <v>8</v>
       </c>
       <c r="AF189" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="AG189">
         <v>5</v>
@@ -11124,13 +11202,22 @@
     </row>
     <row r="190" spans="1:33">
       <c r="A190">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B190" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="C190" t="s">
-        <v>818</v>
+        <v>861</v>
+      </c>
+      <c r="I190">
+        <v>100</v>
+      </c>
+      <c r="J190">
+        <v>100</v>
+      </c>
+      <c r="K190">
+        <v>1000</v>
       </c>
       <c r="N190">
         <v>1000</v>
@@ -11145,19 +11232,19 @@
         <v>250</v>
       </c>
       <c r="U190" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="AA190" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="AB190" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="AE190">
         <v>8</v>
       </c>
       <c r="AF190" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="AG190">
         <v>10</v>
@@ -11165,13 +11252,13 @@
     </row>
     <row r="191" spans="1:33">
       <c r="A191">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B191" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="C191" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="N191">
         <v>1000</v>
@@ -11186,33 +11273,36 @@
         <v>250</v>
       </c>
       <c r="U191" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="AA191" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="AB191" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="AE191">
         <v>8</v>
       </c>
       <c r="AF191" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="AG191">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:33">
       <c r="A192">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B192" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="C192" t="s">
-        <v>805</v>
+        <v>871</v>
+      </c>
+      <c r="K192">
+        <v>5000</v>
       </c>
       <c r="N192">
         <v>1000</v>
@@ -11227,275 +11317,230 @@
         <v>250</v>
       </c>
       <c r="U192" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="AA192" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="AB192" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="AE192">
         <v>8</v>
       </c>
       <c r="AF192" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="AG192">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:33">
       <c r="A193">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B193" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="C193" t="s">
-        <v>863</v>
-      </c>
-      <c r="E193" t="s">
-        <v>859</v>
-      </c>
-      <c r="F193" t="s">
-        <v>850</v>
-      </c>
-      <c r="G193">
-        <v>20</v>
-      </c>
-      <c r="H193" t="s">
-        <v>392</v>
+        <v>871</v>
       </c>
       <c r="I193">
-        <v>550000</v>
+        <v>1000</v>
       </c>
       <c r="J193">
-        <v>550000</v>
+        <v>1000</v>
       </c>
       <c r="K193">
-        <v>150000000000</v>
-      </c>
-      <c r="L193">
-        <v>700000</v>
-      </c>
-      <c r="N193">
-        <v>500000</v>
-      </c>
-      <c r="O193">
-        <v>500000</v>
-      </c>
-      <c r="P193">
-        <v>2000000000</v>
-      </c>
-      <c r="Q193">
-        <v>175000</v>
+        <v>5000</v>
       </c>
       <c r="U193" t="s">
-        <v>804</v>
+        <v>870</v>
       </c>
       <c r="AA193" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="AB193" t="s">
-        <v>865</v>
-      </c>
-      <c r="AD193" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="AE193">
         <v>8</v>
       </c>
       <c r="AF193" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="AG193">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:33">
       <c r="A194">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B194" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="C194" t="s">
-        <v>867</v>
-      </c>
-      <c r="L194">
-        <v>150000</v>
+        <v>835</v>
       </c>
       <c r="N194">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O194">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P194">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q194">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U194" t="s">
-        <v>862</v>
-      </c>
-      <c r="W194" t="s">
-        <v>741</v>
-      </c>
-      <c r="X194">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="AA194" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="AB194" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="AE194">
         <v>8</v>
       </c>
       <c r="AF194" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="AG194">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:33">
       <c r="A195">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B195" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="C195" t="s">
-        <v>867</v>
+        <v>861</v>
+      </c>
+      <c r="E195" t="s">
+        <v>877</v>
+      </c>
+      <c r="F195" t="s">
+        <v>860</v>
       </c>
       <c r="N195">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O195">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P195">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q195">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U195" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="AA195" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="AB195" t="s">
-        <v>872</v>
+        <v>882</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>877</v>
       </c>
       <c r="AE195">
         <v>8</v>
       </c>
       <c r="AF195" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="AG195">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:33">
       <c r="A196">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B196" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="C196" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="N196">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O196">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P196">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q196">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U196" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="AA196" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="AB196" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="AE196">
         <v>8</v>
       </c>
       <c r="AF196" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="AG196">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:33">
       <c r="A197">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B197" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="C197" t="s">
-        <v>863</v>
-      </c>
-      <c r="D197" t="s">
-        <v>877</v>
-      </c>
-      <c r="E197" t="s">
-        <v>859</v>
-      </c>
-      <c r="F197" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="N197">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="O197">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="P197">
-        <v>150000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q197">
-        <v>750</v>
-      </c>
-      <c r="T197">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="U197" t="s">
+        <v>883</v>
       </c>
       <c r="AA197" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="AB197" t="s">
-        <v>879</v>
-      </c>
-      <c r="AC197" t="s">
-        <v>877</v>
-      </c>
-      <c r="AD197" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
       <c r="AE197">
         <v>8</v>
       </c>
       <c r="AF197" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AG197">
         <v>10</v>
@@ -11503,187 +11548,199 @@
     </row>
     <row r="198" spans="1:33">
       <c r="A198">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B198" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="C198" t="s">
-        <v>867</v>
-      </c>
-      <c r="D198" t="s">
-        <v>877</v>
+        <v>835</v>
       </c>
       <c r="N198">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="O198">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="P198">
-        <v>1500000000</v>
+        <v>10000</v>
       </c>
       <c r="Q198">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="U198" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="AA198" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="AB198" t="s">
-        <v>882</v>
-      </c>
-      <c r="AC198" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="AE198">
         <v>8</v>
       </c>
       <c r="AF198" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="AG198">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" spans="1:33">
       <c r="A199">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B199" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="C199" t="s">
-        <v>863</v>
-      </c>
-      <c r="D199" t="s">
-        <v>877</v>
+        <v>893</v>
+      </c>
+      <c r="E199" t="s">
+        <v>889</v>
+      </c>
+      <c r="F199" t="s">
+        <v>880</v>
+      </c>
+      <c r="G199">
+        <v>20</v>
+      </c>
+      <c r="H199" t="s">
+        <v>392</v>
+      </c>
+      <c r="I199">
+        <v>550000</v>
+      </c>
+      <c r="J199">
+        <v>550000</v>
+      </c>
+      <c r="K199">
+        <v>150000000000</v>
+      </c>
+      <c r="L199">
+        <v>700000</v>
       </c>
       <c r="N199">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O199">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P199">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q199">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U199" t="s">
-        <v>880</v>
+        <v>834</v>
       </c>
       <c r="AA199" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="AB199" t="s">
-        <v>885</v>
-      </c>
-      <c r="AC199" t="s">
-        <v>877</v>
+        <v>895</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>889</v>
       </c>
       <c r="AE199">
         <v>8</v>
       </c>
       <c r="AF199" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="AG199">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:33">
       <c r="A200">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B200" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="C200" t="s">
-        <v>863</v>
-      </c>
-      <c r="D200" t="s">
-        <v>877</v>
+        <v>897</v>
+      </c>
+      <c r="L200">
+        <v>150000</v>
       </c>
       <c r="N200">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O200">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P200">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q200">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U200" t="s">
-        <v>883</v>
+        <v>892</v>
+      </c>
+      <c r="W200" t="s">
+        <v>771</v>
+      </c>
+      <c r="X200">
+        <v>5</v>
       </c>
       <c r="AA200" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="AB200" t="s">
-        <v>888</v>
-      </c>
-      <c r="AC200" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
       <c r="AE200">
         <v>8</v>
       </c>
       <c r="AF200" t="s">
-        <v>863</v>
+        <v>897</v>
       </c>
       <c r="AG200">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:33">
       <c r="A201">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B201" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="C201" t="s">
-        <v>818</v>
-      </c>
-      <c r="D201" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="N201">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O201">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P201">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q201">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U201" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="AA201" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="AB201" t="s">
-        <v>891</v>
-      </c>
-      <c r="AC201" t="s">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="AE201">
         <v>8</v>
       </c>
       <c r="AF201" t="s">
-        <v>818</v>
+        <v>897</v>
       </c>
       <c r="AG201">
         <v>10</v>
@@ -11691,16 +11748,13 @@
     </row>
     <row r="202" spans="1:33">
       <c r="A202">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B202" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="C202" t="s">
-        <v>818</v>
-      </c>
-      <c r="D202" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="N202">
         <v>500000</v>
@@ -11709,316 +11763,604 @@
         <v>500000</v>
       </c>
       <c r="P202">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q202">
-        <v>75000</v>
+        <v>175000</v>
       </c>
       <c r="U202" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="AA202" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="AB202" t="s">
-        <v>894</v>
-      </c>
-      <c r="AC202" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="AE202">
         <v>8</v>
       </c>
       <c r="AF202" t="s">
-        <v>818</v>
+        <v>897</v>
       </c>
       <c r="AG202">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:33">
       <c r="A203">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B203" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="C203" t="s">
-        <v>805</v>
+        <v>893</v>
       </c>
       <c r="D203" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="E203" t="s">
-        <v>799</v>
+        <v>889</v>
       </c>
       <c r="F203" t="s">
-        <v>782</v>
-      </c>
-      <c r="G203">
-        <v>25</v>
-      </c>
-      <c r="H203" t="s">
-        <v>896</v>
-      </c>
-      <c r="K203">
-        <v>2000000000</v>
+        <v>880</v>
       </c>
       <c r="N203">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O203">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P203">
-        <v>2000000000</v>
+        <v>150000000000</v>
       </c>
       <c r="Q203">
-        <v>200000</v>
-      </c>
-      <c r="U203" t="s">
-        <v>876</v>
+        <v>750</v>
+      </c>
+      <c r="T203">
+        <v>1</v>
       </c>
       <c r="AA203" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="AB203" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="AC203" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="AD203" t="s">
-        <v>799</v>
+        <v>889</v>
       </c>
       <c r="AE203">
         <v>8</v>
       </c>
       <c r="AF203" t="s">
-        <v>805</v>
+        <v>893</v>
       </c>
       <c r="AG203">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:33">
       <c r="A204">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B204" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="C204" t="s">
-        <v>805</v>
+        <v>897</v>
       </c>
       <c r="D204" t="s">
-        <v>877</v>
-      </c>
-      <c r="E204" t="s">
-        <v>892</v>
-      </c>
-      <c r="F204" t="s">
-        <v>876</v>
-      </c>
-      <c r="H204" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="N204">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O204">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P204">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q204">
-        <v>200000</v>
+        <v>750</v>
       </c>
       <c r="U204" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="AA204" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="AB204" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="AC204" t="s">
-        <v>877</v>
-      </c>
-      <c r="AD204" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="AE204">
         <v>8</v>
       </c>
       <c r="AF204" t="s">
-        <v>805</v>
+        <v>897</v>
       </c>
       <c r="AG204">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:33">
       <c r="A205">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B205" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="C205" t="s">
-        <v>818</v>
+        <v>893</v>
       </c>
       <c r="D205" t="s">
-        <v>877</v>
-      </c>
-      <c r="H205" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="N205">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O205">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P205">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q205">
-        <v>2000000</v>
+        <v>750</v>
       </c>
       <c r="U205" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="AA205" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="AB205" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="AC205" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="AE205">
         <v>8</v>
       </c>
       <c r="AF205" t="s">
-        <v>818</v>
+        <v>893</v>
       </c>
       <c r="AG205">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:33">
       <c r="A206">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B206" t="s">
+        <v>916</v>
+      </c>
+      <c r="C206" t="s">
+        <v>893</v>
+      </c>
+      <c r="D206" t="s">
         <v>907</v>
       </c>
-      <c r="C206" t="s">
-        <v>805</v>
-      </c>
-      <c r="D206" t="s">
-        <v>877</v>
-      </c>
-      <c r="H206" t="s">
-        <v>908</v>
-      </c>
-      <c r="I206">
-        <v>20000</v>
-      </c>
-      <c r="J206">
-        <v>30000</v>
-      </c>
-      <c r="K206">
-        <v>150000000000</v>
-      </c>
-      <c r="L206">
-        <v>700000</v>
-      </c>
       <c r="N206">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O206">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P206">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q206">
-        <v>200000</v>
+        <v>750</v>
       </c>
       <c r="U206" t="s">
-        <v>903</v>
-      </c>
-      <c r="Y206">
-        <v>3</v>
+        <v>913</v>
       </c>
       <c r="AA206" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="AB206" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="AC206" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="AE206">
         <v>8</v>
       </c>
       <c r="AF206" t="s">
-        <v>805</v>
+        <v>893</v>
       </c>
       <c r="AG206">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:33">
       <c r="A207">
+        <v>188</v>
+      </c>
+      <c r="B207" t="s">
+        <v>919</v>
+      </c>
+      <c r="C207" t="s">
+        <v>848</v>
+      </c>
+      <c r="D207" t="s">
+        <v>907</v>
+      </c>
+      <c r="N207">
+        <v>50000</v>
+      </c>
+      <c r="O207">
+        <v>50000</v>
+      </c>
+      <c r="P207">
+        <v>1500000000</v>
+      </c>
+      <c r="Q207">
+        <v>750</v>
+      </c>
+      <c r="U207" t="s">
+        <v>916</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>920</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>921</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE207">
+        <v>8</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>848</v>
+      </c>
+      <c r="AG207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33">
+      <c r="A208">
+        <v>189</v>
+      </c>
+      <c r="B208" t="s">
+        <v>922</v>
+      </c>
+      <c r="C208" t="s">
+        <v>848</v>
+      </c>
+      <c r="D208" t="s">
+        <v>907</v>
+      </c>
+      <c r="N208">
+        <v>500000</v>
+      </c>
+      <c r="O208">
+        <v>500000</v>
+      </c>
+      <c r="P208">
+        <v>1500000000</v>
+      </c>
+      <c r="Q208">
+        <v>75000</v>
+      </c>
+      <c r="U208" t="s">
+        <v>919</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>923</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>924</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE208">
+        <v>8</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>848</v>
+      </c>
+      <c r="AG208">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33">
+      <c r="A209">
+        <v>190</v>
+      </c>
+      <c r="B209" t="s">
+        <v>925</v>
+      </c>
+      <c r="C209" t="s">
+        <v>835</v>
+      </c>
+      <c r="D209" t="s">
+        <v>907</v>
+      </c>
+      <c r="E209" t="s">
+        <v>829</v>
+      </c>
+      <c r="F209" t="s">
+        <v>812</v>
+      </c>
+      <c r="G209">
+        <v>25</v>
+      </c>
+      <c r="H209" t="s">
+        <v>926</v>
+      </c>
+      <c r="K209">
+        <v>2000000000</v>
+      </c>
+      <c r="N209">
+        <v>1000000</v>
+      </c>
+      <c r="O209">
+        <v>1000000</v>
+      </c>
+      <c r="P209">
+        <v>2000000000</v>
+      </c>
+      <c r="Q209">
+        <v>200000</v>
+      </c>
+      <c r="U209" t="s">
+        <v>906</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>927</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>928</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>829</v>
+      </c>
+      <c r="AE209">
+        <v>8</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>835</v>
+      </c>
+      <c r="AG209">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33">
+      <c r="A210">
+        <v>191</v>
+      </c>
+      <c r="B210" t="s">
+        <v>929</v>
+      </c>
+      <c r="C210" t="s">
+        <v>835</v>
+      </c>
+      <c r="D210" t="s">
+        <v>907</v>
+      </c>
+      <c r="E210" t="s">
+        <v>922</v>
+      </c>
+      <c r="F210" t="s">
+        <v>906</v>
+      </c>
+      <c r="H210" t="s">
+        <v>930</v>
+      </c>
+      <c r="N210">
+        <v>1000000</v>
+      </c>
+      <c r="O210">
+        <v>1000000</v>
+      </c>
+      <c r="P210">
+        <v>2000000000</v>
+      </c>
+      <c r="Q210">
+        <v>200000</v>
+      </c>
+      <c r="U210" t="s">
+        <v>925</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>931</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>932</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>922</v>
+      </c>
+      <c r="AE210">
+        <v>8</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>835</v>
+      </c>
+      <c r="AG210">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33">
+      <c r="A211">
+        <v>192</v>
+      </c>
+      <c r="B211" t="s">
+        <v>933</v>
+      </c>
+      <c r="C211" t="s">
+        <v>848</v>
+      </c>
+      <c r="D211" t="s">
+        <v>907</v>
+      </c>
+      <c r="H211" t="s">
+        <v>934</v>
+      </c>
+      <c r="N211">
+        <v>1000000</v>
+      </c>
+      <c r="O211">
+        <v>1000000</v>
+      </c>
+      <c r="P211">
+        <v>2000000000</v>
+      </c>
+      <c r="Q211">
+        <v>2000000</v>
+      </c>
+      <c r="U211" t="s">
+        <v>929</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>935</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>936</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE211">
+        <v>8</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>848</v>
+      </c>
+      <c r="AG211">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33">
+      <c r="A212">
+        <v>193</v>
+      </c>
+      <c r="B212" t="s">
+        <v>937</v>
+      </c>
+      <c r="C212" t="s">
+        <v>835</v>
+      </c>
+      <c r="D212" t="s">
+        <v>907</v>
+      </c>
+      <c r="H212" t="s">
+        <v>938</v>
+      </c>
+      <c r="I212">
+        <v>20000</v>
+      </c>
+      <c r="J212">
+        <v>30000</v>
+      </c>
+      <c r="K212">
+        <v>150000000000</v>
+      </c>
+      <c r="L212">
+        <v>700000</v>
+      </c>
+      <c r="N212">
+        <v>1000000</v>
+      </c>
+      <c r="O212">
+        <v>1000000</v>
+      </c>
+      <c r="P212">
+        <v>2000000000</v>
+      </c>
+      <c r="Q212">
+        <v>200000</v>
+      </c>
+      <c r="U212" t="s">
+        <v>933</v>
+      </c>
+      <c r="Y212">
+        <v>3</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>939</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>940</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE212">
+        <v>8</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>835</v>
+      </c>
+      <c r="AG212">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:33">
+      <c r="A213">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
-        <v>911</v>
-      </c>
-      <c r="C207" t="s">
+      <c r="B213" t="s">
+        <v>941</v>
+      </c>
+      <c r="C213" t="s">
         <v>68</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E213" t="s">
         <v>396</v>
       </c>
-      <c r="F207" t="s">
-        <v>523</v>
-      </c>
-      <c r="H207" t="s">
-        <v>912</v>
-      </c>
-      <c r="P207">
+      <c r="F213" t="s">
+        <v>553</v>
+      </c>
+      <c r="H213" t="s">
+        <v>942</v>
+      </c>
+      <c r="P213">
         <v>2000000</v>
       </c>
-      <c r="Q207">
+      <c r="Q213">
         <v>250</v>
       </c>
-      <c r="T207">
+      <c r="T213">
         <v>1</v>
       </c>
-      <c r="Y207">
+      <c r="Y213">
         <v>5</v>
       </c>
-      <c r="AA207" t="s">
-        <v>913</v>
-      </c>
-      <c r="AB207" t="s">
-        <v>914</v>
-      </c>
-      <c r="AD207" t="s">
+      <c r="AA213" t="s">
+        <v>943</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>944</v>
+      </c>
+      <c r="AD213" t="s">
         <v>396</v>
       </c>
-      <c r="AF207" t="s">
+      <c r="AF213" t="s">
         <v>68</v>
       </c>
-      <c r="AG207">
+      <c r="AG213">
         <v>5</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="935">
   <si>
     <t>id</t>
   </si>
@@ -305,7 +305,7 @@
     <t>Don't burn now</t>
   </si>
   <si>
-    <t>HellsGateKeeper</t>
+    <t>Hell'sGatekeeper</t>
   </si>
   <si>
     <t>Satan's Mask</t>
@@ -992,6 +992,84 @@
     <t>You press for more information about the enigmatic man, but the Helpless Goblin's father adamantly refuses to divulge further details, even as you offer yet another shiny item.&lt;br /&gt; &lt;br /&gt; "No, child. I have no desire to assist you," he declares.&lt;br /&gt; &lt;br /&gt; His son interjects, "But I do." He gazes at his father, who shoots him an angry glare. "There comes a time when a portal opens, a portal to another world."&lt;br /&gt; &lt;br /&gt; "Shut up!" the haggard goblin barks.&lt;br /&gt; &lt;br /&gt; The Helpless Goblin looks at him with sad eyes and retreats in fear.&lt;br /&gt; &lt;br /&gt; The haggard father sighs and approaches his son, placing a comforting hand on his shoulder. "There exists a place, created by The Creator himself. I do not know why. This place is governed by two brothers. Both inherited their father's realms equally upon his passing. However, one of them, he hunts relentlessly. It is said he is cursed, cursed to covet shiny things."&lt;br /&gt; &lt;br /&gt; A solemn silence follows as the Helpless Goblin gazes at his father, who returns a reassuring smile.&lt;br /&gt; &lt;br /&gt; They begin to depart, leaving behind a trinket on the ground. You pick it up and realize its significance—a means to attain everything you've ever desired. Now, it's time to return home and commence your research!</t>
   </si>
   <si>
+    <t>Gold bars in the capital</t>
+  </si>
+  <si>
+    <t>Facing The Lords</t>
+  </si>
+  <si>
+    <t>The Curse of the Shiny</t>
+  </si>
+  <si>
+    <t>Poorly Crafted Gold Bar</t>
+  </si>
+  <si>
+    <t>You stand in the depths of the dungeons. Before you is a man in billowing cloaks with his hood raised, revealing only darkness. Occasionally, his eyes are illuminated by the puff of his pipe, giving him a dark and mysterious aura.&lt;br /&gt; &lt;br /&gt; He is known only as the Dungeon Master, the ruler of these depths—depths filled with tales, stories, and endless dungeons.&lt;br /&gt; &lt;br /&gt; "You see the knowledge of how those before you managed their vast wealth, don't you?" he asks.&lt;br /&gt; &lt;br /&gt; You nod.&lt;br /&gt; &lt;br /&gt; "Bring me the most imperfect gold bar, and I might give you the records and knowledge you seek."</t>
+  </si>
+  <si>
+    <t>You return with the imperfect gold bar. Standing before the Dungeon Master, he speaks in a hushed and wise tone.&lt;br /&gt; &lt;br /&gt; "You give me a gift for the ages. Now, I shall give you what you seek."&lt;br /&gt; &lt;br /&gt; He unfolds a scroll and begins to read:&lt;br /&gt; &lt;br /&gt; "By the laws of the planes and the judges that live, you are now permitted to manage your kingdom's gold bars through the capital city."&lt;br /&gt; &lt;br /&gt; He rolls the scroll up and looks at you.&lt;br /&gt; &lt;br /&gt; "That's that."</t>
+  </si>
+  <si>
+    <t>The blood on the walls</t>
+  </si>
+  <si>
+    <t>Bloody White Feathered Quil</t>
+  </si>
+  <si>
+    <t>Master Wood Worker</t>
+  </si>
+  <si>
+    <t>You seek out The Soldier, after visiting the empty Poets house. One moment his house is empty, the next he is there. Where is he? Is he hiding? A memory?&lt;br /&gt; &lt;br /&gt; You enter the old Inn and see The Soldier sitting alone at a table, buried in his drink. You approach and sit and he doesn’t even look up. You ask him if everything is ok, he doesn’t respond at first, then there is a whisper, icy and cold, chilling you.&lt;br /&gt; &lt;br /&gt; “I saw …. I saw him, I watched him – an illusion of time – I could not stop him.”&lt;br /&gt; &lt;br /&gt; You ask him what he means but he drinks his drink and keeps his head buried in the cup.</t>
+  </si>
+  <si>
+    <t>Investigating The Poets house, shows blood. The walls, the floor – someone came in a ripped a man apart. Literally.&lt;br /&gt; &lt;br /&gt; The amount of blood stains, the pages of books, the candles and furniture in the main living room.&lt;br /&gt; &lt;br /&gt; You back out of the house and stand in the front yard, vomiting.&lt;br /&gt; &lt;br /&gt; “He’s dead, I buried him my self.” comes The Soldiers voice. You turn around and see him standing there. He points to the backyard, through a wooden fence gate.&lt;br /&gt; &lt;br /&gt; “I buried him behind the home he loved.”&lt;br /&gt; &lt;br /&gt; You look back at The Soldier and ask him, who killed The Poet.&lt;br /&gt; &lt;br /&gt; “I did.”</t>
+  </si>
+  <si>
+    <t>Are we even real?</t>
+  </si>
+  <si>
+    <t>Single Daisy</t>
+  </si>
+  <si>
+    <t>Master of Iron</t>
+  </si>
+  <si>
+    <t>You stare at The Soldier, your eyes wide, your mind racing. Why, is the only thing you can ask, and even that barley slips out.&lt;br /&gt; &lt;br /&gt; “He spoke of lies, he tried …. it’s not true.”&lt;br /&gt; &lt;br /&gt; The Soldier continues to stutter and try and explain something, but it doesn’t make sense.&lt;br /&gt; &lt;br /&gt; “It was rage. I could not… I will not!”&lt;br /&gt; &lt;br /&gt; He falls to his knees and starts sobbing, uncontrollably.&lt;br /&gt; &lt;br /&gt; The hell is going on?</t>
+  </si>
+  <si>
+    <t>You manage to console The Soldier and after a moment he tells you his story.&lt;br /&gt; &lt;br /&gt; “I came to ask The Poet about a dream, where my brother had come to me. Trapped in his own Icy Memory, he begged for me to let him go, to free him of his own pain.”&lt;br /&gt; &lt;br /&gt; He pauses and looks at you. He continues.&lt;br /&gt; &lt;br /&gt; “I came and spoke to The Poet and asked him how I could free him. He told me a construct of the shattered mind cannot open the gates, for it would be the end of all things. I continued to press him, he kept giving me false answers, half truths, riddles. I raged. I held the sword point to his throat, he never flinched, I demanded the truth. He told me …”&lt;br /&gt; &lt;br /&gt; His voice trails off, you sit on the edge of your seat, you await for the words to come.&lt;br /&gt; &lt;br /&gt; “He told me, I wasn’t real. None of this was real. I stabbed him.”&lt;br /&gt; &lt;br /&gt; You stabbed The Poet because he told you, you are not real? You ask with obvious confusion.&lt;br /&gt; &lt;br /&gt; “He told me, He said… The Creator made all of this. This whole world. This is all a construct of his own mind.”&lt;br /&gt; &lt;br /&gt; How, he’s The Child and he’s dead. You think to your self.&lt;br /&gt; &lt;br /&gt; You explain the blood in the house.&lt;br /&gt; &lt;br /&gt; “I …. I lost my temper.”&lt;br /&gt; &lt;br /&gt; And hacked him up it seems.</t>
+  </si>
+  <si>
+    <t>Am I Real?</t>
+  </si>
+  <si>
+    <t>The Poets Fedora</t>
+  </si>
+  <si>
+    <t>Master worked clay pottery</t>
+  </si>
+  <si>
+    <t>Master of Steel</t>
+  </si>
+  <si>
+    <t>You left The Soldier to his own devices; your own disgust at his actions still rages in you. His words outweigh your desire to slaughter him for his own deeds. The Creator – it would make sense, the name. But how could a dead man, a child who failed his own Ascension, create a world?&lt;br /&gt; &lt;br /&gt; You see an old man sitting on a rock, and you see another man – a younger man sitting beside him. As you approach, you recognize one of them, The Wandering Merchant. The other you cannot place, but he greets you, and you wave.&lt;br /&gt; &lt;br /&gt; “Child,” The Wandering Merchant begins. “How are you?”&lt;br /&gt; &lt;br /&gt; You explain everything: Krogs, Pags, The Poet's death, what The Soldier stated. You sit on the ground, flop back, and stare up at the sky.&lt;br /&gt; &lt;br /&gt; Both men look at each other before the young man bursts out laughing.&lt;br /&gt; &lt;br /&gt; You sit up, and there he is. All along. No longer young.</t>
+  </si>
+  <si>
+    <t>How? you ask.&lt;br /&gt; &lt;br /&gt; “Child, what I told The Soldier is but a piece of the truth,” the old man states.&lt;br /&gt; &lt;br /&gt; The Poet, you recognize him clearly as day, sitting beside The Wandering Merchant.&lt;br /&gt; &lt;br /&gt; You begin to ask the same question you asked The Soldier. He cuts you off.&lt;br /&gt; &lt;br /&gt; “Listen, child, the world is a construct, one of a broken mind. One of a mind that could not, cannot, will not let go. Everything is a construct, a way to hide from one's own pain, one's own mistakes, one's own demons.”&lt;br /&gt; &lt;br /&gt; Am I real? you blurt out.&lt;br /&gt; &lt;br /&gt; “As real as the flowers around you.”&lt;br /&gt; &lt;br /&gt; And the Key Master?&lt;br /&gt; &lt;br /&gt; “Hush now, child. No need to pull on threads better left as they are,” The Wandering Merchant states with an angry tone.&lt;br /&gt; &lt;br /&gt; What are they hiding?</t>
+  </si>
+  <si>
+    <t>The Witch and her clay pot</t>
+  </si>
+  <si>
+    <t>Master Potter</t>
+  </si>
+  <si>
+    <t>You try to piece it all together. A man who is dead created a world in which he failed to move on, and something happened that caused all the planes of existence to flood together.&lt;br /&gt; &lt;br /&gt; Apparently, this is all his creation, in his mind. You shake your head; that cannot be. You are your own person, you have your own memories, your own thoughts, your own direction in life. How you got sucked into all of this is something you cannot even remember.&lt;br /&gt; &lt;br /&gt; “Hello, child,” comes the familiar voice of the old hag, The Witch.&lt;br /&gt; &lt;br /&gt; “I could use that clay item you have, child,” she states after a moment.&lt;br /&gt; &lt;br /&gt; You tell her it’s hers if she answers some questions for you about the creation of this world.&lt;br /&gt; &lt;br /&gt; She agrees.</t>
+  </si>
+  <si>
+    <t>You sit in her old hut, and she places the clay item on the table and starts to put herbs and small bones in it. She speaks in a hushed tone after a moment as the smell of incense washes over you.&lt;br /&gt; &lt;br /&gt; “There is a story of the puppet masters. They pull the strings of beings that guide the souls of those who have died.” She pauses and looks at you, as if to see if you are listening. She continues.&lt;br /&gt; &lt;br /&gt; “These masters, these puppet masters, had specific rules for those who pass through and how they must Ascend. They must let go, they must heal – move on, fade from existence. Alas, in the case of a select few, they failed – they could not let go and were imprisoned in purgatory. The Child though….”&lt;br /&gt; &lt;br /&gt; Her voice trails off. After an awkward silence, she looks at you.&lt;br /&gt; &lt;br /&gt; “He failed; he caused the world to shatter. Some say this is a construct of a broken mind, this world, these people, this existence. Whether that is true or not is up for debate. Some believe in that more than others, while others believe the puppet masters are manipulating the thoughts of their toys used to help those ascend.”&lt;br /&gt; &lt;br /&gt; Who are the puppet masters, you wonder.&lt;br /&gt; &lt;br /&gt; As if she read your mind, she states, “Seek out the memories that are twisted.”</t>
+  </si>
+  <si>
     <t>Tell me your story</t>
   </si>
   <si>
@@ -1205,9 +1283,6 @@
     <t>The responsible thing to do</t>
   </si>
   <si>
-    <t>Facing The Lords</t>
-  </si>
-  <si>
     <t>Krogs Letter to Pags</t>
   </si>
   <si>
@@ -1271,96 +1346,6 @@
     <t>"And perhaps you will never know, child," the Scholar of Hell says, walking up to you.&lt;br /&gt; &lt;br /&gt; You look at him for a moment and explain about The River Man.&lt;br /&gt; &lt;br /&gt; "A time god, you see, one created before The Creator's arrival and failed ascension. One that unlocks time itself."&lt;br /&gt; &lt;br /&gt; A time god? Is The Poet and—&lt;br /&gt; &lt;br /&gt; "No, child. There are many gods. Many creations, creatures, and foul things. Some cosmic and beyond your own comprehension, and some that are mere mortals. The Poet and his friends are something else, puppets &lt;br /&gt; to the masters that pull the strings. You, on the other hand, are something else…"&lt;br /&gt; &lt;br /&gt; A mere mortal with a bit of fame, you jest.&lt;br /&gt; &lt;br /&gt; "A creation."&lt;br /&gt; &lt;br /&gt; A… creation?</t>
   </si>
   <si>
-    <t>The Brother's Keeper</t>
-  </si>
-  <si>
-    <t>Chipped Gold Coin</t>
-  </si>
-  <si>
-    <t>Master Farmer</t>
-  </si>
-  <si>
-    <t>He sat in his castle, and the council spoke to him of his cities, of his realm. The people suffer; they are hungry, they are starving. You can see this clearly, even though you sleep soundly under the stars – even if they are Hell’s own illusions.&lt;br /&gt; &lt;br /&gt; You can see him clearly: Krogs. His kingdoms slowly crumble around him, his own depression growing as his beloved brother has vanished, vanished in the hunt for the shiny objects no one truly believes exists, even if they do. Legendary as they sound, only gods could wield them, alas that is what Krogs believed in his heart.&lt;br /&gt; &lt;br /&gt; A demonic being stands before you, but your dream is interrupted by a vision of death. A keeper of gates stands in the distance, pointing.&lt;br /&gt; &lt;br /&gt; You stare in the direction he points and see the grave. Whose could it be? Would it be Pags? Is it Krogs?</t>
-  </si>
-  <si>
-    <t>You walk slowly over to the grave site. It is not theirs; it is yours. Your own grave with your own name written on it. You turn back, and the keeper of the gate is now a child, a child of pain, standing twisted and broken before you.&lt;br /&gt; &lt;br /&gt; “You keep walking, you keep running, you keep opening doors. Why?”&lt;br /&gt; &lt;br /&gt; His voice is shrill and whiny.&lt;br /&gt; &lt;br /&gt; “You keep unraveling the words, you keep hurting me! I don’t want to face it! I cannot!”&lt;br /&gt; &lt;br /&gt; With that, you awaken on the ground in Hell. You stare up at the illusion of a night sky, and a tear runs down the side of your face.</t>
-  </si>
-  <si>
-    <t>Keys and Masters</t>
-  </si>
-  <si>
-    <t>Key Chain</t>
-  </si>
-  <si>
-    <t>Master Stone Mason</t>
-  </si>
-  <si>
-    <t>You wonder more about Krogs and what became of him. You wonder if he ever managed to find out what happened to his brother.&lt;br /&gt; &lt;br /&gt; “I know all the gates to all the worlds,” a voice comes from the shadows of your mind, echoing through your bones.&lt;br /&gt; &lt;br /&gt; You look around and see him standing there, Hell’s Gatekeeper. A beast lumbering in the shadows of fear and hatred, cloaked in lies and truths.&lt;br /&gt; &lt;br /&gt; You ask him if he knows of Krogs.&lt;br /&gt; &lt;br /&gt; “I know of the children of a realm you are unfamiliar with. I know the name. His sadness turned to ice, turned to hate, turned to jealousy.”&lt;br /&gt; &lt;br /&gt; You stare at him, “What did he become?”</t>
-  </si>
-  <si>
-    <t>“I know the Key master child.”&lt;br /&gt; &lt;br /&gt; The Key Master?&lt;br /&gt; &lt;br /&gt; “There is a being of power hiding in plain sight. One The Poet knows all to well about, one he had asked for help after the incident with The Child.”&lt;br /&gt; &lt;br /&gt; Incident? The hell are you talking about you ask, realizing these beings only ever give you bits of information to cling onto. Bits of lies, mixed with bits of half truths.&lt;br /&gt; &lt;br /&gt; “I do not have time to discuss the great Shattering with you child, I have only one thing to say – search out the Key Master.”&lt;br /&gt; &lt;br /&gt; With that he vanishes into the depths of your blindness fogging your mind.&lt;br /&gt; &lt;br /&gt; You awaken in a Hellish land, was it all a dream?</t>
-  </si>
-  <si>
-    <t>The blood on the walls</t>
-  </si>
-  <si>
-    <t>Bloody White Feathered Quil</t>
-  </si>
-  <si>
-    <t>Master Wood Worker</t>
-  </si>
-  <si>
-    <t>You seek out The Soldier, after visiting the empty Poets house. One moment his house is empty, the next he is there. Where is he? Is he hiding? A memory?&lt;br /&gt; &lt;br /&gt; You enter the old Inn and see The Soldier sitting alone at a table, buried in his drink. You approach and sit and he doesn’t even look up. You ask him if everything is ok, he doesn’t respond at first, then there is a whisper, icy and cold, chilling you.&lt;br /&gt; &lt;br /&gt; “I saw …. I saw him, I watched him – an illusion of time – I could not stop him.”&lt;br /&gt; &lt;br /&gt; You ask him what he means but he drinks his drink and keeps his head buried in the cup.</t>
-  </si>
-  <si>
-    <t>Investigating The Poets house, shows blood. The walls, the floor – someone came in a ripped a man apart. Literally.&lt;br /&gt; &lt;br /&gt; The amount of blood stains, the pages of books, the candles and furniture in the main living room.&lt;br /&gt; &lt;br /&gt; You back out of the house and stand in the front yard, vomiting.&lt;br /&gt; &lt;br /&gt; “He’s dead, I buried him my self.” comes The Soldiers voice. You turn around and see him standing there. He points to the backyard, through a wooden fence gate.&lt;br /&gt; &lt;br /&gt; “I buried him behind the home he loved.”&lt;br /&gt; &lt;br /&gt; You look back at The Soldier and ask him, who killed The Poet.&lt;br /&gt; &lt;br /&gt; “I did.”</t>
-  </si>
-  <si>
-    <t>Are we even real?</t>
-  </si>
-  <si>
-    <t>Single Daisy</t>
-  </si>
-  <si>
-    <t>Master of Iron</t>
-  </si>
-  <si>
-    <t>You stare at The Soldier, your eyes wide, your mind racing. Why, is the only thing you can ask, and even that barley slips out.&lt;br /&gt; &lt;br /&gt; “He spoke of lies, he tried …. it’s not true.”&lt;br /&gt; &lt;br /&gt; The Soldier continues to stutter and try and explain something, but it doesn’t make sense.&lt;br /&gt; &lt;br /&gt; “It was rage. I could not… I will not!”&lt;br /&gt; &lt;br /&gt; He falls to his knees and starts sobbing, uncontrollably.&lt;br /&gt; &lt;br /&gt; The hell is going on?</t>
-  </si>
-  <si>
-    <t>You manage to console The Soldier and after a moment he tells you his story.&lt;br /&gt; &lt;br /&gt; “I came to ask The Poet about a dream, where my brother had come to me. Trapped in his own Icy Memory, he begged for me to let him go, to free him of his own pain.”&lt;br /&gt; &lt;br /&gt; He pauses and looks at you. He continues.&lt;br /&gt; &lt;br /&gt; “I came and spoke to The Poet and asked him how I could free him. He told me a construct of the shattered mind cannot open the gates, for it would be the end of all things. I continued to press him, he kept giving me false answers, half truths, riddles. I raged. I held the sword point to his throat, he never flinched, I demanded the truth. He told me …”&lt;br /&gt; &lt;br /&gt; His voice trails off, you sit on the edge of your seat, you await for the words to come.&lt;br /&gt; &lt;br /&gt; “He told me, I wasn’t real. None of this was real. I stabbed him.”&lt;br /&gt; &lt;br /&gt; You stabbed The Poet because he told you, you are not real? You ask with obvious confusion.&lt;br /&gt; &lt;br /&gt; “He told me, He said… The Creator made all of this. This whole world. This is all a construct of his own mind.”&lt;br /&gt; &lt;br /&gt; How, he’s The Child and he’s dead. You think to your self.&lt;br /&gt; &lt;br /&gt; You explain the blood in the house.&lt;br /&gt; &lt;br /&gt; “I …. I lost my temper.”&lt;br /&gt; &lt;br /&gt; And hacked him up it seems.</t>
-  </si>
-  <si>
-    <t>Am I Real?</t>
-  </si>
-  <si>
-    <t>The Poets Fedora</t>
-  </si>
-  <si>
-    <t>Master worked clay pottery</t>
-  </si>
-  <si>
-    <t>Master of Steel</t>
-  </si>
-  <si>
-    <t>You left The Soldier to his own devices; your own disgust at his actions still rages in you. His words outweigh your desire to slaughter him for his own deeds. The Creator – it would make sense, the name. But how could a dead man, a child who failed his own Ascension, create a world?&lt;br /&gt; &lt;br /&gt; You see an old man sitting on a rock, and you see another man – a younger man sitting beside him. As you approach, you recognize one of them, The Wandering Merchant. The other you cannot place, but he greets you, and you wave.&lt;br /&gt; &lt;br /&gt; “Child,” The Wandering Merchant begins. “How are you?”&lt;br /&gt; &lt;br /&gt; You explain everything: Krogs, Pags, The Poet's death, what The Soldier stated. You sit on the ground, flop back, and stare up at the sky.&lt;br /&gt; &lt;br /&gt; Both men look at each other before the young man bursts out laughing.&lt;br /&gt; &lt;br /&gt; You sit up, and there he is. All along. No longer young.</t>
-  </si>
-  <si>
-    <t>How? you ask.&lt;br /&gt; &lt;br /&gt; “Child, what I told The Soldier is but a piece of the truth,” the old man states.&lt;br /&gt; &lt;br /&gt; The Poet, you recognize him clearly as day, sitting beside The Wandering Merchant.&lt;br /&gt; &lt;br /&gt; You begin to ask the same question you asked The Soldier. He cuts you off.&lt;br /&gt; &lt;br /&gt; “Listen, child, the world is a construct, one of a broken mind. One of a mind that could not, cannot, will not let go. Everything is a construct, a way to hide from one's own pain, one's own mistakes, one's own demons.”&lt;br /&gt; &lt;br /&gt; Am I real? you blurt out.&lt;br /&gt; &lt;br /&gt; “As real as the flowers around you.”&lt;br /&gt; &lt;br /&gt; And the Key Master?&lt;br /&gt; &lt;br /&gt; “Hush now, child. No need to pull on threads better left as they are,” The Wandering Merchant states with an angry tone.&lt;br /&gt; &lt;br /&gt; What are they hiding?</t>
-  </si>
-  <si>
-    <t>The Witch and her clay pot</t>
-  </si>
-  <si>
-    <t>Master Potter</t>
-  </si>
-  <si>
-    <t>You try to piece it all together. A man who is dead created a world in which he failed to move on, and something happened that caused all the planes of existence to flood together.&lt;br /&gt; &lt;br /&gt; Apparently, this is all his creation, in his mind. You shake your head; that cannot be. You are your own person, you have your own memories, your own thoughts, your own direction in life. How you got sucked into all of this is something you cannot even remember.&lt;br /&gt; &lt;br /&gt; “Hello, child,” comes the familiar voice of the old hag, The Witch.&lt;br /&gt; &lt;br /&gt; “I could use that clay item you have, child,” she states after a moment.&lt;br /&gt; &lt;br /&gt; You tell her it’s hers if she answers some questions for you about the creation of this world.&lt;br /&gt; &lt;br /&gt; She agrees.</t>
-  </si>
-  <si>
-    <t>You sit in her old hut, and she places the clay item on the table and starts to put herbs and small bones in it. She speaks in a hushed tone after a moment as the smell of incense washes over you.&lt;br /&gt; &lt;br /&gt; “There is a story of the puppet masters. They pull the strings of beings that guide the souls of those who have died.” She pauses and looks at you, as if to see if you are listening. She continues.&lt;br /&gt; &lt;br /&gt; “These masters, these puppet masters, had specific rules for those who pass through and how they must Ascend. They must let go, they must heal – move on, fade from existence. Alas, in the case of a select few, they failed – they could not let go and were imprisoned in purgatory. The Child though….”&lt;br /&gt; &lt;br /&gt; Her voice trails off. After an awkward silence, she looks at you.&lt;br /&gt; &lt;br /&gt; “He failed; he caused the world to shatter. Some say this is a construct of a broken mind, this world, these people, this existence. Whether that is true or not is up for debate. Some believe in that more than others, while others believe the puppet masters are manipulating the thoughts of their toys used to help those ascend.”&lt;br /&gt; &lt;br /&gt; Who are the puppet masters, you wonder.&lt;br /&gt; &lt;br /&gt; As if she read your mind, she states, “Seek out the memories that are twisted.”</t>
-  </si>
-  <si>
     <t>The Creator and The Smith</t>
   </si>
   <si>
@@ -1676,9 +1661,6 @@
     <t>You wait in anticipation for the arrival of the Child of Shade. As he materializes before you, you express your urgency in reaching Fliniguss's home.&lt;br /&gt; &lt;br /&gt; "You'll never penetrate his abode, for it lies beyond doors even The Creator tightly secures, fearful of the nightmarish delusions that lurk within—nameless horrors," the child responds ominously. "However, you may &lt;br /&gt; access a land torn by war, ruled by a bishop enforcing religious persecution upon dissenters."&lt;br /&gt; &lt;br /&gt; Puzzled, you wonder about the significance of Fliniguss in such a place.&lt;br /&gt; &lt;br /&gt; "Too many inquiries," the child remarks cryptically. "But I can disclose this much—the bishop dwells within his own distorted recollections of the war, ensnared by his convictions."&lt;br /&gt; &lt;br /&gt; In a sudden impulse, you blurt out a question: "Is there a God? A true god?"&lt;br /&gt; &lt;br /&gt; "To him, yes. To some, perhaps. The Accountant may hold the answers," the child suggests enigmatically.&lt;br /&gt; &lt;br /&gt; With a sense of foreboding, you realize the journey ahead may lead to a place akin to hell.</t>
   </si>
   <si>
-    <t>The Curse of the Shiny</t>
-  </si>
-  <si>
     <t>Glinting Gem of The Deep</t>
   </si>
   <si>
@@ -2838,18 +2820,6 @@
   </si>
   <si>
     <t>You locate the silver blade and return to find the jester in a grotesque display, dancing amidst a heap of corpses, naked and engaging in repulsive acts. He ignites the pile, cackling madly.&lt;br /&gt; &lt;br /&gt; As he notices you, he rushes over, intending to embrace you. However, his joy turns to confusion as he observes the blood staining his stomach, a silver blade protruding from the wound. In a swift motion, you thrust the &lt;br /&gt; blade into him, piercing through his body.&lt;br /&gt; &lt;br /&gt; "Why?" he chokes out, coughing up blood as he collapses to the ground. "Why, child?"&lt;br /&gt; &lt;br /&gt; You explain that it's time to end the madness, acknowledging his role in the twisted delusions while recognizing the true source of the curse.&lt;br /&gt; &lt;br /&gt; A smile flickers across his face. "Ah, child... You are wiser than I realized."&lt;br /&gt; &lt;br /&gt; With those words, he fades away, leaving you standing alone, holding the bloodied silver blade. The world falls silent as you contemplate the heavens, pondering if The Creator has observed these events. You wonder &lt;br /&gt; why he hasn't intervened, questioning whether The Poet holds the answers.&lt;br /&gt; &lt;br /&gt; You drop the blade and walk away from the jester's lifeless body, leaving behind the chaos and deception that defined his existence.</t>
-  </si>
-  <si>
-    <t>Gold bars in the capital</t>
-  </si>
-  <si>
-    <t>Poorly Crafted Gold Bar</t>
-  </si>
-  <si>
-    <t>You stand in the depths of the dungeons. Before you is a man in billowing cloaks with his hood raised, revealing only darkness. Occasionally, his eyes are illuminated by the puff of his pipe, giving him a dark and mysterious aura.&lt;br /&gt; &lt;br /&gt; He is known only as the Dungeon Master, the ruler of these depths—depths filled with tales, stories, and endless dungeons.&lt;br /&gt; &lt;br /&gt; "You see the knowledge of how those before you managed their vast wealth, don't you?" he asks.&lt;br /&gt; &lt;br /&gt; You nod.&lt;br /&gt; &lt;br /&gt; "Bring me the most imperfect gold bar, and I might give you the records and knowledge you seek."</t>
-  </si>
-  <si>
-    <t>You return with the imperfect gold bar. Standing before the Dungeon Master, he speaks in a hushed and wise tone.&lt;br /&gt; &lt;br /&gt; "You give me a gift for the ages. Now, I shall give you what you seek."&lt;br /&gt; &lt;br /&gt; He unfolds a scroll and begins to read:&lt;br /&gt; &lt;br /&gt; "By the laws of the planes and the judges that live, you are now permitted to manage your kingdom's gold bars through the capital city."&lt;br /&gt; &lt;br /&gt; He rolls the scroll up and looks at you.&lt;br /&gt; &lt;br /&gt; "That's that."</t>
   </si>
 </sst>
 </file>
@@ -3189,7 +3159,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG213"/>
+  <dimension ref="A1:AG211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5891,209 +5861,224 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="B65" t="s">
         <v>325</v>
       </c>
       <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" t="s">
         <v>326</v>
       </c>
-      <c r="I65">
-        <v>25000</v>
-      </c>
-      <c r="J65">
-        <v>5000</v>
-      </c>
-      <c r="K65">
-        <v>100000</v>
-      </c>
-      <c r="O65">
-        <v>125</v>
+      <c r="F65" t="s">
+        <v>327</v>
+      </c>
+      <c r="H65" t="s">
+        <v>328</v>
       </c>
       <c r="P65">
-        <v>10000</v>
+        <v>2000000</v>
       </c>
       <c r="Q65">
-        <v>100</v>
-      </c>
-      <c r="T65">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="U65" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y65">
+        <v>5</v>
       </c>
       <c r="AA65" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AB65" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG65">
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:33">
       <c r="A66">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C66" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>330</v>
+        <v>332</v>
+      </c>
+      <c r="N66">
+        <v>10000</v>
+      </c>
+      <c r="O66">
+        <v>10000</v>
       </c>
       <c r="P66">
-        <v>10000</v>
+        <v>100000000</v>
       </c>
       <c r="Q66">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U66" t="s">
         <v>325</v>
       </c>
-      <c r="W66" t="s">
-        <v>104</v>
-      </c>
-      <c r="X66">
-        <v>5</v>
+      <c r="Z66" t="s">
+        <v>333</v>
       </c>
       <c r="AA66" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AB66" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:33">
       <c r="A67">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>334</v>
-      </c>
-      <c r="M67" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N67">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O67">
-        <v>125</v>
+        <v>10000</v>
       </c>
       <c r="P67">
-        <v>10000</v>
+        <v>100000000</v>
       </c>
       <c r="Q67">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U67" t="s">
-        <v>329</v>
-      </c>
-      <c r="V67" t="s">
-        <v>336</v>
-      </c>
-      <c r="W67" t="s">
-        <v>86</v>
-      </c>
-      <c r="X67">
-        <v>5</v>
+        <v>331</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>338</v>
       </c>
       <c r="AA67" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AB67" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:33">
       <c r="A68">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="B68" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C68" t="s">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="H68" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="M68" t="s">
+        <v>343</v>
       </c>
       <c r="N68">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O68">
-        <v>125</v>
+        <v>10000</v>
       </c>
       <c r="P68">
-        <v>10000</v>
+        <v>100000000</v>
       </c>
       <c r="Q68">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U68" t="s">
-        <v>325</v>
+        <v>336</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>344</v>
       </c>
       <c r="AA68" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AB68" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:33">
       <c r="A69">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N69">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="O69">
-        <v>125</v>
+        <v>250000</v>
       </c>
       <c r="P69">
-        <v>10000</v>
+        <v>500000000</v>
       </c>
       <c r="Q69">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="U69" t="s">
-        <v>339</v>
+        <v>341</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>348</v>
       </c>
       <c r="AA69" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AB69" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:33">
       <c r="A70">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C70" t="s">
-        <v>340</v>
-      </c>
-      <c r="H70" t="s">
-        <v>349</v>
-      </c>
-      <c r="N70">
-        <v>2500</v>
+        <v>352</v>
+      </c>
+      <c r="I70">
+        <v>25000</v>
+      </c>
+      <c r="J70">
+        <v>5000</v>
+      </c>
+      <c r="K70">
+        <v>100000</v>
       </c>
       <c r="O70">
         <v>125</v>
@@ -6102,54 +6087,45 @@
         <v>10000</v>
       </c>
       <c r="Q70">
-        <v>200</v>
-      </c>
-      <c r="U70" t="s">
-        <v>344</v>
-      </c>
-      <c r="V70" t="s">
-        <v>350</v>
+        <v>100</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
       </c>
       <c r="AA70" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AB70" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:33">
       <c r="A71">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C71" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H71" t="s">
-        <v>354</v>
-      </c>
-      <c r="N71">
-        <v>2500</v>
-      </c>
-      <c r="O71">
-        <v>125</v>
+        <v>356</v>
       </c>
       <c r="P71">
         <v>10000</v>
       </c>
       <c r="Q71">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U71" t="s">
-        <v>348</v>
-      </c>
-      <c r="V71" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>356</v>
+        <v>351</v>
+      </c>
+      <c r="W71" t="s">
+        <v>104</v>
+      </c>
+      <c r="X71">
+        <v>5</v>
       </c>
       <c r="AA71" t="s">
         <v>357</v>
@@ -6160,25 +6136,19 @@
     </row>
     <row r="72" spans="1:33">
       <c r="A72">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
         <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H72" t="s">
         <v>360</v>
       </c>
-      <c r="I72">
-        <v>25000</v>
-      </c>
-      <c r="J72">
-        <v>200</v>
-      </c>
-      <c r="L72">
-        <v>1000</v>
+      <c r="M72" t="s">
+        <v>361</v>
       </c>
       <c r="N72">
         <v>2500</v>
@@ -6190,30 +6160,39 @@
         <v>10000</v>
       </c>
       <c r="Q72">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="U72" t="s">
-        <v>325</v>
+        <v>355</v>
+      </c>
+      <c r="V72" t="s">
+        <v>362</v>
+      </c>
+      <c r="W72" t="s">
+        <v>86</v>
+      </c>
+      <c r="X72">
+        <v>5</v>
       </c>
       <c r="AA72" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AB72" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:33">
       <c r="A73">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="H73" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N73">
         <v>2500</v>
@@ -6225,42 +6204,30 @@
         <v>10000</v>
       </c>
       <c r="Q73">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="U73" t="s">
-        <v>359</v>
-      </c>
-      <c r="V73" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="AA73" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AB73" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:33">
       <c r="A74">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C74" t="s">
-        <v>340</v>
-      </c>
-      <c r="I74">
-        <v>25000</v>
-      </c>
-      <c r="J74">
-        <v>10000</v>
-      </c>
-      <c r="K74">
-        <v>100000</v>
-      </c>
-      <c r="L74">
-        <v>50000</v>
+        <v>366</v>
+      </c>
+      <c r="H74" t="s">
+        <v>371</v>
       </c>
       <c r="N74">
         <v>2500</v>
@@ -6272,286 +6239,274 @@
         <v>10000</v>
       </c>
       <c r="Q74">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="U74" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="AA74" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AB74" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:33">
       <c r="A75">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
-        <v>326</v>
-      </c>
-      <c r="E75" t="s">
-        <v>372</v>
-      </c>
-      <c r="F75" t="s">
-        <v>373</v>
-      </c>
-      <c r="G75">
-        <v>6</v>
+        <v>366</v>
       </c>
       <c r="H75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N75">
-        <v>100000</v>
+        <v>2500</v>
       </c>
       <c r="O75">
-        <v>100000</v>
+        <v>125</v>
       </c>
       <c r="P75">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q75">
-        <v>75000</v>
+        <v>200</v>
       </c>
       <c r="U75" t="s">
-        <v>325</v>
+        <v>370</v>
+      </c>
+      <c r="V75" t="s">
+        <v>376</v>
       </c>
       <c r="AA75" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AB75" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF75" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG75">
-        <v>5</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:33">
       <c r="A76">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C76" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="H76" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N76">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="O76">
-        <v>1000000</v>
+        <v>125</v>
       </c>
       <c r="P76">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q76">
-        <v>75000</v>
+        <v>500</v>
       </c>
       <c r="U76" t="s">
-        <v>371</v>
+        <v>374</v>
+      </c>
+      <c r="V76" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>382</v>
       </c>
       <c r="AA76" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AB76" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG76">
-        <v>10</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:33">
       <c r="A77">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C77" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="H77" t="s">
-        <v>383</v>
+        <v>386</v>
+      </c>
+      <c r="I77">
+        <v>25000</v>
+      </c>
+      <c r="J77">
+        <v>200</v>
+      </c>
+      <c r="L77">
+        <v>1000</v>
       </c>
       <c r="N77">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="O77">
-        <v>1000000</v>
+        <v>125</v>
       </c>
       <c r="P77">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q77">
-        <v>75000</v>
+        <v>250</v>
       </c>
       <c r="U77" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="AA77" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AB77" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG77">
-        <v>10</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:33">
       <c r="A78">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="H78" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N78">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="O78">
-        <v>1000000</v>
+        <v>125</v>
       </c>
       <c r="P78">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q78">
-        <v>75000</v>
+        <v>250</v>
       </c>
       <c r="U78" t="s">
-        <v>381</v>
+        <v>385</v>
+      </c>
+      <c r="V78" t="s">
+        <v>391</v>
       </c>
       <c r="AA78" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AB78" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG78">
-        <v>5</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:33">
       <c r="A79">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C79" t="s">
-        <v>340</v>
-      </c>
-      <c r="H79" t="s">
-        <v>391</v>
-      </c>
-      <c r="M79" t="s">
-        <v>392</v>
+        <v>366</v>
+      </c>
+      <c r="I79">
+        <v>25000</v>
+      </c>
+      <c r="J79">
+        <v>10000</v>
+      </c>
+      <c r="K79">
+        <v>100000</v>
+      </c>
+      <c r="L79">
+        <v>50000</v>
       </c>
       <c r="N79">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="O79">
-        <v>1000000</v>
+        <v>125</v>
       </c>
       <c r="P79">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q79">
-        <v>75000</v>
+        <v>500</v>
       </c>
       <c r="U79" t="s">
-        <v>386</v>
+        <v>389</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AB79" t="s">
-        <v>394</v>
-      </c>
-      <c r="AF79" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG79">
-        <v>10</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:33">
       <c r="A80">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E80" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="F80" t="s">
+        <v>399</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="N80">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="O80">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="P80">
-        <v>1000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q80">
-        <v>100</v>
+        <v>75000</v>
       </c>
       <c r="U80" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z80" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD80" t="s">
         <v>398</v>
       </c>
-      <c r="AA80" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>396</v>
-      </c>
       <c r="AF80" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="AG80">
         <v>5</v>
@@ -6559,40 +6514,31 @@
     </row>
     <row r="81" spans="1:33">
       <c r="A81">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C81" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="H81" t="s">
-        <v>403</v>
-      </c>
-      <c r="M81" t="s">
         <v>404</v>
       </c>
       <c r="N81">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="O81">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="P81">
-        <v>1000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q81">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="U81" t="s">
-        <v>395</v>
-      </c>
-      <c r="W81" t="s">
-        <v>116</v>
-      </c>
-      <c r="X81">
-        <v>5</v>
+        <v>397</v>
       </c>
       <c r="AA81" t="s">
         <v>405</v>
@@ -6601,7 +6547,7 @@
         <v>406</v>
       </c>
       <c r="AF81" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="AG81">
         <v>10</v>
@@ -6609,266 +6555,263 @@
     </row>
     <row r="82" spans="1:33">
       <c r="A82">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
         <v>407</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="H82" t="s">
+        <v>409</v>
+      </c>
+      <c r="N82">
+        <v>1000000</v>
+      </c>
+      <c r="O82">
+        <v>1000000</v>
+      </c>
+      <c r="P82">
+        <v>2000000000</v>
+      </c>
+      <c r="Q82">
+        <v>75000</v>
+      </c>
+      <c r="U82" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF82" t="s">
         <v>408</v>
       </c>
-      <c r="M82" t="s">
-        <v>409</v>
-      </c>
-      <c r="N82">
-        <v>1000</v>
-      </c>
-      <c r="O82">
-        <v>1000</v>
-      </c>
-      <c r="P82">
-        <v>1000000</v>
-      </c>
-      <c r="Q82">
-        <v>200</v>
-      </c>
-      <c r="U82" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>410</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>412</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>401</v>
-      </c>
-      <c r="AF82" t="s">
-        <v>103</v>
-      </c>
       <c r="AG82">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:33">
       <c r="A83">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="B83" t="s">
+        <v>412</v>
+      </c>
+      <c r="C83" t="s">
+        <v>366</v>
+      </c>
+      <c r="H83" t="s">
         <v>413</v>
-      </c>
-      <c r="C83" t="s">
-        <v>340</v>
-      </c>
-      <c r="H83" t="s">
-        <v>409</v>
       </c>
       <c r="N83">
         <v>1000000</v>
       </c>
       <c r="O83">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="P83">
-        <v>10000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q83">
-        <v>500</v>
+        <v>75000</v>
       </c>
       <c r="U83" t="s">
         <v>407</v>
       </c>
-      <c r="V83" t="s">
+      <c r="AA83" t="s">
         <v>414</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AB83" t="s">
         <v>415</v>
       </c>
-      <c r="AA83" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>417</v>
-      </c>
       <c r="AF83" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="AG83">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:33">
       <c r="A84">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
+        <v>416</v>
+      </c>
+      <c r="C84" t="s">
+        <v>366</v>
+      </c>
+      <c r="H84" t="s">
+        <v>417</v>
+      </c>
+      <c r="M84" t="s">
         <v>418</v>
       </c>
-      <c r="C84" t="s">
-        <v>96</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="N84">
+        <v>1000000</v>
+      </c>
+      <c r="O84">
+        <v>1000000</v>
+      </c>
+      <c r="P84">
+        <v>2000000000</v>
+      </c>
+      <c r="Q84">
+        <v>75000</v>
+      </c>
+      <c r="U84" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA84" t="s">
         <v>419</v>
       </c>
-      <c r="I84">
-        <v>150000</v>
-      </c>
-      <c r="J84">
-        <v>10000</v>
-      </c>
-      <c r="K84">
-        <v>150000000</v>
-      </c>
-      <c r="N84">
-        <v>100000</v>
-      </c>
-      <c r="O84">
-        <v>5000</v>
-      </c>
-      <c r="P84">
-        <v>300000000</v>
-      </c>
-      <c r="Q84">
-        <v>200</v>
-      </c>
-      <c r="U84" t="s">
-        <v>395</v>
-      </c>
-      <c r="Z84" t="s">
+      <c r="AB84" t="s">
         <v>420</v>
       </c>
-      <c r="AA84" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>422</v>
-      </c>
       <c r="AF84" t="s">
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="AG84">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:33">
       <c r="A85">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
+        <v>421</v>
+      </c>
+      <c r="C85" t="s">
+        <v>366</v>
+      </c>
+      <c r="E85" t="s">
+        <v>326</v>
+      </c>
+      <c r="H85" t="s">
+        <v>422</v>
+      </c>
+      <c r="N85">
+        <v>1000</v>
+      </c>
+      <c r="O85">
+        <v>1000</v>
+      </c>
+      <c r="P85">
+        <v>1000000</v>
+      </c>
+      <c r="Q85">
+        <v>100</v>
+      </c>
+      <c r="U85" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z85" t="s">
         <v>423</v>
       </c>
-      <c r="C85" t="s">
-        <v>96</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="AA85" t="s">
         <v>424</v>
       </c>
-      <c r="N85">
-        <v>10000</v>
-      </c>
-      <c r="O85">
-        <v>10000</v>
-      </c>
-      <c r="P85">
-        <v>100000000</v>
-      </c>
-      <c r="Q85">
-        <v>300</v>
-      </c>
-      <c r="U85" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z85" t="s">
+      <c r="AB85" t="s">
         <v>425</v>
       </c>
-      <c r="AA85" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>427</v>
+      <c r="AD85" t="s">
+        <v>326</v>
       </c>
       <c r="AF85" t="s">
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="AG85">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:33">
       <c r="A86">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B86" t="s">
+        <v>426</v>
+      </c>
+      <c r="C86" t="s">
+        <v>427</v>
+      </c>
+      <c r="H86" t="s">
         <v>428</v>
       </c>
-      <c r="C86" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="M86" t="s">
         <v>429</v>
       </c>
       <c r="N86">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O86">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P86">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
       <c r="Q86">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U86" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z86" t="s">
+        <v>421</v>
+      </c>
+      <c r="W86" t="s">
+        <v>116</v>
+      </c>
+      <c r="X86">
+        <v>5</v>
+      </c>
+      <c r="AA86" t="s">
         <v>430</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="AB86" t="s">
         <v>431</v>
       </c>
-      <c r="AB86" t="s">
-        <v>432</v>
+      <c r="AF86" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG86">
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:33">
       <c r="A87">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B87" t="s">
+        <v>432</v>
+      </c>
+      <c r="C87" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" t="s">
+        <v>426</v>
+      </c>
+      <c r="H87" t="s">
         <v>433</v>
       </c>
-      <c r="C87" t="s">
-        <v>32</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="M87" t="s">
         <v>434</v>
       </c>
       <c r="N87">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O87">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P87">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
       <c r="Q87">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U87" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Z87" t="s">
         <v>435</v>
@@ -6879,116 +6822,137 @@
       <c r="AB87" t="s">
         <v>437</v>
       </c>
+      <c r="AD87" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG87">
+        <v>15</v>
+      </c>
     </row>
     <row r="88" spans="1:33">
       <c r="A88">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B88" t="s">
         <v>438</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="H88" t="s">
+        <v>434</v>
+      </c>
+      <c r="N88">
+        <v>1000000</v>
+      </c>
+      <c r="O88">
+        <v>500000</v>
+      </c>
+      <c r="P88">
+        <v>10000000</v>
+      </c>
+      <c r="Q88">
+        <v>500</v>
+      </c>
+      <c r="U88" t="s">
+        <v>432</v>
+      </c>
+      <c r="V88" t="s">
         <v>439</v>
       </c>
-      <c r="M88" t="s">
+      <c r="Z88" t="s">
         <v>440</v>
       </c>
-      <c r="N88">
-        <v>10000</v>
-      </c>
-      <c r="O88">
-        <v>10000</v>
-      </c>
-      <c r="P88">
-        <v>100000000</v>
-      </c>
-      <c r="Q88">
-        <v>300</v>
-      </c>
-      <c r="U88" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>441</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="AB88" t="s">
         <v>442</v>
       </c>
-      <c r="AB88" t="s">
-        <v>443</v>
+      <c r="AF88" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG88">
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:33">
       <c r="A89">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
+        <v>443</v>
+      </c>
+      <c r="C89" t="s">
+        <v>113</v>
+      </c>
+      <c r="I89">
+        <v>15000</v>
+      </c>
+      <c r="J89">
+        <v>2000</v>
+      </c>
+      <c r="N89">
+        <v>1000</v>
+      </c>
+      <c r="O89">
+        <v>100</v>
+      </c>
+      <c r="P89">
+        <v>1000000</v>
+      </c>
+      <c r="Q89">
+        <v>25</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="AA89" t="s">
         <v>444</v>
       </c>
-      <c r="C89" t="s">
-        <v>38</v>
-      </c>
-      <c r="H89" t="s">
-        <v>440</v>
-      </c>
-      <c r="N89">
-        <v>250000</v>
-      </c>
-      <c r="O89">
-        <v>250000</v>
-      </c>
-      <c r="P89">
-        <v>500000000</v>
-      </c>
-      <c r="Q89">
-        <v>500</v>
-      </c>
-      <c r="U89" t="s">
-        <v>438</v>
-      </c>
-      <c r="Z89" t="s">
+      <c r="AB89" t="s">
         <v>445</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:33">
       <c r="A90">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B90" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>68</v>
+      </c>
+      <c r="H90" t="s">
+        <v>447</v>
       </c>
       <c r="I90">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="J90">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N90">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="O90">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="P90">
-        <v>1000000</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>25</v>
       </c>
-      <c r="T90">
-        <v>1</v>
+      <c r="U90" t="s">
+        <v>443</v>
+      </c>
+      <c r="V90" t="s">
+        <v>448</v>
       </c>
       <c r="AA90" t="s">
         <v>449</v>
@@ -6999,37 +6963,22 @@
     </row>
     <row r="91" spans="1:33">
       <c r="A91">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B91" t="s">
         <v>451</v>
       </c>
       <c r="C91" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="H91" t="s">
         <v>452</v>
       </c>
-      <c r="I91">
-        <v>500</v>
-      </c>
-      <c r="J91">
-        <v>3000</v>
-      </c>
-      <c r="N91">
-        <v>150</v>
-      </c>
-      <c r="O91">
-        <v>2</v>
-      </c>
-      <c r="P91">
-        <v>250</v>
-      </c>
-      <c r="Q91">
-        <v>25</v>
+      <c r="M91" t="s">
+        <v>289</v>
       </c>
       <c r="U91" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V91" t="s">
         <v>453</v>
@@ -7043,7 +6992,7 @@
     </row>
     <row r="92" spans="1:33">
       <c r="A92">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B92" t="s">
         <v>456</v>
@@ -7054,14 +7003,38 @@
       <c r="H92" t="s">
         <v>457</v>
       </c>
+      <c r="I92">
+        <v>500</v>
+      </c>
+      <c r="J92">
+        <v>5000</v>
+      </c>
+      <c r="K92">
+        <v>2500</v>
+      </c>
+      <c r="L92">
+        <v>1000</v>
+      </c>
       <c r="M92" t="s">
-        <v>289</v>
+        <v>458</v>
+      </c>
+      <c r="N92">
+        <v>150</v>
+      </c>
+      <c r="O92">
+        <v>2</v>
+      </c>
+      <c r="P92">
+        <v>250</v>
+      </c>
+      <c r="Q92">
+        <v>100</v>
       </c>
       <c r="U92" t="s">
         <v>451</v>
       </c>
       <c r="V92" t="s">
-        <v>458</v>
+        <v>288</v>
       </c>
       <c r="AA92" t="s">
         <v>459</v>
@@ -7072,49 +7045,43 @@
     </row>
     <row r="93" spans="1:33">
       <c r="A93">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
         <v>461</v>
       </c>
       <c r="C93" t="s">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="H93" t="s">
         <v>462</v>
       </c>
       <c r="I93">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J93">
         <v>5000</v>
       </c>
       <c r="K93">
-        <v>2500</v>
-      </c>
-      <c r="L93">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="M93" t="s">
         <v>463</v>
       </c>
       <c r="N93">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="O93">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="P93">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="Q93">
         <v>100</v>
       </c>
       <c r="U93" t="s">
-        <v>456</v>
-      </c>
-      <c r="V93" t="s">
-        <v>288</v>
+        <v>451</v>
       </c>
       <c r="AA93" t="s">
         <v>464</v>
@@ -7125,43 +7092,31 @@
     </row>
     <row r="94" spans="1:33">
       <c r="A94">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B94" t="s">
         <v>466</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="H94" t="s">
-        <v>467</v>
-      </c>
-      <c r="I94">
-        <v>5000</v>
-      </c>
-      <c r="J94">
-        <v>5000</v>
-      </c>
-      <c r="K94">
-        <v>50000</v>
-      </c>
-      <c r="M94" t="s">
         <v>468</v>
       </c>
       <c r="N94">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="O94">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P94">
-        <v>5000</v>
+        <v>10000000</v>
       </c>
       <c r="Q94">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U94" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AA94" t="s">
         <v>469</v>
@@ -7172,22 +7127,22 @@
     </row>
     <row r="95" spans="1:33">
       <c r="A95">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
         <v>471</v>
       </c>
       <c r="C95" t="s">
-        <v>472</v>
-      </c>
-      <c r="H95" t="s">
-        <v>473</v>
+        <v>467</v>
+      </c>
+      <c r="M95" t="s">
+        <v>380</v>
       </c>
       <c r="N95">
         <v>1000</v>
       </c>
       <c r="O95">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P95">
         <v>10000000</v>
@@ -7196,48 +7151,57 @@
         <v>200</v>
       </c>
       <c r="U95" t="s">
-        <v>456</v>
+        <v>466</v>
+      </c>
+      <c r="W95" t="s">
+        <v>79</v>
+      </c>
+      <c r="X95">
+        <v>5</v>
       </c>
       <c r="AA95" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AB95" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="96" spans="1:33">
       <c r="A96">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
+        <v>474</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" t="s">
+        <v>169</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>475</v>
+      </c>
+      <c r="N96">
+        <v>10000</v>
+      </c>
+      <c r="O96">
+        <v>1000</v>
+      </c>
+      <c r="P96">
+        <v>1000000</v>
+      </c>
+      <c r="Q96">
+        <v>15000</v>
+      </c>
+      <c r="U96" t="s">
+        <v>451</v>
+      </c>
+      <c r="V96" t="s">
         <v>476</v>
-      </c>
-      <c r="C96" t="s">
-        <v>472</v>
-      </c>
-      <c r="M96" t="s">
-        <v>354</v>
-      </c>
-      <c r="N96">
-        <v>1000</v>
-      </c>
-      <c r="O96">
-        <v>500</v>
-      </c>
-      <c r="P96">
-        <v>10000000</v>
-      </c>
-      <c r="Q96">
-        <v>200</v>
-      </c>
-      <c r="U96" t="s">
-        <v>471</v>
-      </c>
-      <c r="W96" t="s">
-        <v>79</v>
-      </c>
-      <c r="X96">
-        <v>5</v>
       </c>
       <c r="AA96" t="s">
         <v>477</v>
@@ -7245,10 +7209,19 @@
       <c r="AB96" t="s">
         <v>478</v>
       </c>
+      <c r="AD96" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG96">
+        <v>5</v>
+      </c>
     </row>
     <row r="97" spans="1:33">
       <c r="A97">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
         <v>479</v>
@@ -7256,70 +7229,55 @@
       <c r="C97" t="s">
         <v>68</v>
       </c>
-      <c r="E97" t="s">
-        <v>169</v>
-      </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
       <c r="H97" t="s">
         <v>480</v>
       </c>
       <c r="N97">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O97">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="P97">
-        <v>1000000</v>
+        <v>1000000000</v>
       </c>
       <c r="Q97">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="U97" t="s">
-        <v>456</v>
-      </c>
-      <c r="V97" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA97" t="s">
         <v>481</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="AB97" t="s">
         <v>482</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>483</v>
-      </c>
-      <c r="AD97" t="s">
-        <v>169</v>
       </c>
       <c r="AF97" t="s">
         <v>68</v>
       </c>
       <c r="AG97">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:33">
       <c r="A98">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
       </c>
-      <c r="H98" t="s">
-        <v>485</v>
-      </c>
       <c r="N98">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O98">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P98">
-        <v>1000000000</v>
+        <v>1000000</v>
       </c>
       <c r="Q98">
         <v>30000</v>
@@ -7328,27 +7286,27 @@
         <v>479</v>
       </c>
       <c r="AA98" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AB98" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AF98" t="s">
         <v>68</v>
       </c>
       <c r="AG98">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:33">
       <c r="A99">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>427</v>
       </c>
       <c r="N99">
         <v>25000</v>
@@ -7363,54 +7321,54 @@
         <v>30000</v>
       </c>
       <c r="U99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA99" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AB99" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AF99" t="s">
-        <v>68</v>
+        <v>427</v>
       </c>
       <c r="AG99">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:33">
       <c r="A100">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B100" t="s">
+        <v>489</v>
+      </c>
+      <c r="C100" t="s">
+        <v>103</v>
+      </c>
+      <c r="N100">
+        <v>50000</v>
+      </c>
+      <c r="O100">
+        <v>50000</v>
+      </c>
+      <c r="P100">
+        <v>2000000</v>
+      </c>
+      <c r="Q100">
+        <v>50000</v>
+      </c>
+      <c r="U100" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB100" t="s">
         <v>491</v>
       </c>
-      <c r="C100" t="s">
-        <v>402</v>
-      </c>
-      <c r="N100">
-        <v>25000</v>
-      </c>
-      <c r="O100">
-        <v>25000</v>
-      </c>
-      <c r="P100">
-        <v>1000000</v>
-      </c>
-      <c r="Q100">
-        <v>30000</v>
-      </c>
-      <c r="U100" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>493</v>
-      </c>
       <c r="AF100" t="s">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="AG100">
         <v>15</v>
@@ -7418,107 +7376,119 @@
     </row>
     <row r="101" spans="1:33">
       <c r="A101">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="B101" t="s">
+        <v>492</v>
+      </c>
+      <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" t="s">
+        <v>244</v>
+      </c>
+      <c r="I101">
+        <v>500</v>
+      </c>
+      <c r="J101">
+        <v>5</v>
+      </c>
+      <c r="M101" t="s">
+        <v>492</v>
+      </c>
+      <c r="N101">
+        <v>150</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="P101">
+        <v>250</v>
+      </c>
+      <c r="Q101">
+        <v>50</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="W101" t="s">
+        <v>79</v>
+      </c>
+      <c r="X101">
+        <v>2</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB101" t="s">
         <v>494</v>
-      </c>
-      <c r="C101" t="s">
-        <v>103</v>
-      </c>
-      <c r="N101">
-        <v>50000</v>
-      </c>
-      <c r="O101">
-        <v>50000</v>
-      </c>
-      <c r="P101">
-        <v>2000000</v>
-      </c>
-      <c r="Q101">
-        <v>50000</v>
-      </c>
-      <c r="U101" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>495</v>
-      </c>
-      <c r="AB101" t="s">
-        <v>496</v>
-      </c>
-      <c r="AF101" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG101">
-        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:33">
       <c r="A102">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B102" t="s">
+        <v>495</v>
+      </c>
+      <c r="C102" t="s">
+        <v>496</v>
+      </c>
+      <c r="H102" t="s">
         <v>497</v>
       </c>
-      <c r="C102" t="s">
-        <v>38</v>
-      </c>
-      <c r="H102" t="s">
-        <v>244</v>
-      </c>
-      <c r="I102">
+      <c r="L102">
         <v>500</v>
       </c>
-      <c r="J102">
-        <v>5</v>
-      </c>
       <c r="M102" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N102">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="O102">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="P102">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="Q102">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T102">
         <v>1</v>
       </c>
+      <c r="V102" t="s">
+        <v>499</v>
+      </c>
       <c r="W102" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="X102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA102" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AB102" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:33">
       <c r="A103">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C103" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H103" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L103">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M103" t="s">
         <v>503</v>
@@ -7533,20 +7503,14 @@
         <v>5000</v>
       </c>
       <c r="Q103">
-        <v>100</v>
-      </c>
-      <c r="T103">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="U103" t="s">
+        <v>495</v>
       </c>
       <c r="V103" t="s">
         <v>504</v>
       </c>
-      <c r="W103" t="s">
-        <v>86</v>
-      </c>
-      <c r="X103">
-        <v>5</v>
-      </c>
       <c r="AA103" t="s">
         <v>505</v>
       </c>
@@ -7556,19 +7520,19 @@
     </row>
     <row r="104" spans="1:33">
       <c r="A104">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
         <v>507</v>
       </c>
       <c r="C104" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H104" t="s">
         <v>503</v>
       </c>
       <c r="L104">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M104" t="s">
         <v>508</v>
@@ -7583,10 +7547,10 @@
         <v>5000</v>
       </c>
       <c r="Q104">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="U104" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="V104" t="s">
         <v>509</v>
@@ -7600,19 +7564,19 @@
     </row>
     <row r="105" spans="1:33">
       <c r="A105">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
         <v>512</v>
       </c>
       <c r="C105" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H105" t="s">
         <v>508</v>
       </c>
       <c r="L105">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M105" t="s">
         <v>513</v>
@@ -7627,7 +7591,7 @@
         <v>5000</v>
       </c>
       <c r="Q105">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U105" t="s">
         <v>507</v>
@@ -7644,22 +7608,25 @@
     </row>
     <row r="106" spans="1:33">
       <c r="A106">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B106" t="s">
         <v>517</v>
       </c>
       <c r="C106" t="s">
-        <v>501</v>
+        <v>83</v>
       </c>
       <c r="H106" t="s">
-        <v>513</v>
+        <v>518</v>
+      </c>
+      <c r="I106">
+        <v>5000</v>
+      </c>
+      <c r="J106">
+        <v>5000</v>
       </c>
       <c r="L106">
-        <v>3000</v>
-      </c>
-      <c r="M106" t="s">
-        <v>518</v>
+        <v>5000</v>
       </c>
       <c r="N106">
         <v>500</v>
@@ -7671,10 +7638,10 @@
         <v>5000</v>
       </c>
       <c r="Q106">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="U106" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="V106" t="s">
         <v>519</v>
@@ -7688,7 +7655,7 @@
     </row>
     <row r="107" spans="1:33">
       <c r="A107">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
         <v>522</v>
@@ -7696,23 +7663,17 @@
       <c r="C107" t="s">
         <v>83</v>
       </c>
-      <c r="H107" t="s">
-        <v>523</v>
-      </c>
       <c r="I107">
         <v>5000</v>
       </c>
       <c r="J107">
-        <v>5000</v>
+        <v>7000</v>
+      </c>
+      <c r="K107">
+        <v>50000</v>
       </c>
       <c r="L107">
-        <v>5000</v>
-      </c>
-      <c r="N107">
-        <v>500</v>
-      </c>
-      <c r="O107">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="P107">
         <v>5000</v>
@@ -7721,45 +7682,45 @@
         <v>250</v>
       </c>
       <c r="U107" t="s">
-        <v>500</v>
-      </c>
-      <c r="V107" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB107" t="s">
         <v>524</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>525</v>
-      </c>
-      <c r="AB107" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="108" spans="1:33">
       <c r="A108">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C108" t="s">
         <v>83</v>
       </c>
+      <c r="H108" t="s">
+        <v>526</v>
+      </c>
       <c r="I108">
         <v>5000</v>
       </c>
       <c r="J108">
-        <v>7000</v>
-      </c>
-      <c r="K108">
-        <v>50000</v>
+        <v>7500</v>
       </c>
       <c r="L108">
-        <v>3000</v>
+        <v>10000</v>
+      </c>
+      <c r="M108" t="s">
+        <v>527</v>
       </c>
       <c r="P108">
         <v>5000</v>
       </c>
       <c r="Q108">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="U108" t="s">
         <v>522</v>
@@ -7773,66 +7734,69 @@
     </row>
     <row r="109" spans="1:33">
       <c r="A109">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B109" t="s">
-        <v>530</v>
+        <v>399</v>
       </c>
       <c r="C109" t="s">
         <v>83</v>
       </c>
+      <c r="E109" t="s">
+        <v>489</v>
+      </c>
+      <c r="F109" t="s">
+        <v>474</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
       <c r="H109" t="s">
+        <v>530</v>
+      </c>
+      <c r="N109">
+        <v>30000</v>
+      </c>
+      <c r="O109">
+        <v>30000</v>
+      </c>
+      <c r="P109">
+        <v>1500000000</v>
+      </c>
+      <c r="Q109">
+        <v>50000</v>
+      </c>
+      <c r="U109" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA109" t="s">
         <v>531</v>
       </c>
-      <c r="I109">
-        <v>5000</v>
-      </c>
-      <c r="J109">
-        <v>7500</v>
-      </c>
-      <c r="L109">
-        <v>10000</v>
-      </c>
-      <c r="M109" t="s">
+      <c r="AB109" t="s">
         <v>532</v>
       </c>
-      <c r="P109">
-        <v>5000</v>
-      </c>
-      <c r="Q109">
-        <v>300</v>
-      </c>
-      <c r="U109" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA109" t="s">
-        <v>533</v>
-      </c>
-      <c r="AB109" t="s">
-        <v>534</v>
+      <c r="AD109" t="s">
+        <v>489</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG109">
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:33">
       <c r="A110">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>373</v>
+        <v>533</v>
       </c>
       <c r="C110" t="s">
         <v>83</v>
       </c>
-      <c r="E110" t="s">
-        <v>494</v>
-      </c>
-      <c r="F110" t="s">
-        <v>479</v>
-      </c>
-      <c r="G110">
-        <v>4</v>
-      </c>
       <c r="H110" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N110">
         <v>30000</v>
@@ -7847,60 +7811,45 @@
         <v>50000</v>
       </c>
       <c r="U110" t="s">
-        <v>500</v>
+        <v>399</v>
       </c>
       <c r="AA110" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB110" t="s">
         <v>536</v>
-      </c>
-      <c r="AB110" t="s">
-        <v>537</v>
-      </c>
-      <c r="AD110" t="s">
-        <v>494</v>
       </c>
       <c r="AF110" t="s">
         <v>83</v>
       </c>
       <c r="AG110">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:33">
       <c r="A111">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
+        <v>537</v>
+      </c>
+      <c r="C111" t="s">
+        <v>113</v>
+      </c>
+      <c r="H111" t="s">
         <v>538</v>
       </c>
-      <c r="C111" t="s">
-        <v>83</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="U111" t="s">
+        <v>533</v>
+      </c>
+      <c r="AA111" t="s">
         <v>539</v>
       </c>
-      <c r="N111">
-        <v>30000</v>
-      </c>
-      <c r="O111">
-        <v>30000</v>
-      </c>
-      <c r="P111">
-        <v>1500000000</v>
-      </c>
-      <c r="Q111">
-        <v>50000</v>
-      </c>
-      <c r="U111" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA111" t="s">
+      <c r="AB111" t="s">
         <v>540</v>
       </c>
-      <c r="AB111" t="s">
-        <v>541</v>
-      </c>
       <c r="AF111" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="AG111">
         <v>10</v>
@@ -7908,45 +7857,57 @@
     </row>
     <row r="112" spans="1:33">
       <c r="A112">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B112" t="s">
+        <v>541</v>
+      </c>
+      <c r="C112" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" t="s">
         <v>542</v>
       </c>
-      <c r="C112" t="s">
-        <v>113</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="N112">
+        <v>30000</v>
+      </c>
+      <c r="O112">
+        <v>30000</v>
+      </c>
+      <c r="P112">
+        <v>1500000000</v>
+      </c>
+      <c r="Q112">
+        <v>50000</v>
+      </c>
+      <c r="U112" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA112" t="s">
         <v>543</v>
       </c>
-      <c r="U112" t="s">
-        <v>538</v>
-      </c>
-      <c r="AA112" t="s">
+      <c r="AB112" t="s">
         <v>544</v>
       </c>
-      <c r="AB112" t="s">
-        <v>545</v>
-      </c>
       <c r="AF112" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="AG112">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:33">
       <c r="A113">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B113" t="s">
-        <v>546</v>
+        <v>398</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>496</v>
       </c>
       <c r="H113" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N113">
         <v>30000</v>
@@ -7961,16 +7922,16 @@
         <v>50000</v>
       </c>
       <c r="U113" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AA113" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AB113" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AF113" t="s">
-        <v>32</v>
+        <v>496</v>
       </c>
       <c r="AG113">
         <v>5</v>
@@ -7978,63 +7939,66 @@
     </row>
     <row r="114" spans="1:33">
       <c r="A114">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="B114" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="C114" t="s">
-        <v>501</v>
+        <v>176</v>
+      </c>
+      <c r="E114" t="s">
+        <v>321</v>
+      </c>
+      <c r="F114" t="s">
+        <v>309</v>
       </c>
       <c r="H114" t="s">
+        <v>548</v>
+      </c>
+      <c r="N114">
+        <v>10000</v>
+      </c>
+      <c r="O114">
+        <v>1000</v>
+      </c>
+      <c r="P114">
+        <v>1000000</v>
+      </c>
+      <c r="Q114">
+        <v>75</v>
+      </c>
+      <c r="U114" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB114" t="s">
         <v>550</v>
       </c>
-      <c r="N114">
-        <v>30000</v>
-      </c>
-      <c r="O114">
-        <v>30000</v>
-      </c>
-      <c r="P114">
-        <v>1500000000</v>
-      </c>
-      <c r="Q114">
-        <v>50000</v>
-      </c>
-      <c r="U114" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>551</v>
-      </c>
-      <c r="AB114" t="s">
-        <v>552</v>
+      <c r="AD114" t="s">
+        <v>321</v>
       </c>
       <c r="AF114" t="s">
-        <v>501</v>
+        <v>176</v>
       </c>
       <c r="AG114">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:33">
       <c r="A115">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B115" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C115" t="s">
         <v>176</v>
       </c>
-      <c r="E115" t="s">
-        <v>321</v>
-      </c>
-      <c r="F115" t="s">
-        <v>309</v>
-      </c>
       <c r="H115" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N115">
         <v>10000</v>
@@ -8046,39 +8010,39 @@
         <v>1000000</v>
       </c>
       <c r="Q115">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="U115" t="s">
-        <v>500</v>
+        <v>327</v>
       </c>
       <c r="AA115" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AB115" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD115" t="s">
-        <v>321</v>
+        <v>554</v>
       </c>
       <c r="AF115" t="s">
         <v>176</v>
       </c>
       <c r="AG115">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:33">
       <c r="A116">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B116" t="s">
+        <v>555</v>
+      </c>
+      <c r="C116" t="s">
+        <v>83</v>
+      </c>
+      <c r="H116" t="s">
+        <v>556</v>
+      </c>
+      <c r="M116" t="s">
         <v>557</v>
-      </c>
-      <c r="C116" t="s">
-        <v>176</v>
-      </c>
-      <c r="H116" t="s">
-        <v>558</v>
       </c>
       <c r="N116">
         <v>10000</v>
@@ -8090,127 +8054,121 @@
         <v>1000000</v>
       </c>
       <c r="Q116">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="U116" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AA116" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB116" t="s">
         <v>559</v>
       </c>
-      <c r="AB116" t="s">
-        <v>560</v>
-      </c>
       <c r="AF116" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AG116">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:33">
       <c r="A117">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B117" t="s">
-        <v>561</v>
+        <v>326</v>
       </c>
       <c r="C117" t="s">
         <v>83</v>
       </c>
       <c r="H117" t="s">
+        <v>560</v>
+      </c>
+      <c r="N117">
+        <v>20000</v>
+      </c>
+      <c r="O117">
+        <v>2000</v>
+      </c>
+      <c r="P117">
+        <v>2000000</v>
+      </c>
+      <c r="Q117">
+        <v>300</v>
+      </c>
+      <c r="U117" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y117">
+        <v>4</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB117" t="s">
         <v>562</v>
-      </c>
-      <c r="M117" t="s">
-        <v>563</v>
-      </c>
-      <c r="N117">
-        <v>10000</v>
-      </c>
-      <c r="O117">
-        <v>1000</v>
-      </c>
-      <c r="P117">
-        <v>1000000</v>
-      </c>
-      <c r="Q117">
-        <v>200</v>
-      </c>
-      <c r="U117" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>564</v>
-      </c>
-      <c r="AB117" t="s">
-        <v>565</v>
       </c>
       <c r="AF117" t="s">
         <v>83</v>
       </c>
       <c r="AG117">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:33">
       <c r="A118">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B118" t="s">
-        <v>396</v>
+        <v>563</v>
       </c>
       <c r="C118" t="s">
-        <v>83</v>
+        <v>32</v>
+      </c>
+      <c r="D118" t="s">
+        <v>564</v>
       </c>
       <c r="H118" t="s">
+        <v>565</v>
+      </c>
+      <c r="P118">
+        <v>150</v>
+      </c>
+      <c r="Q118">
+        <v>1000</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+      <c r="AA118" t="s">
         <v>566</v>
       </c>
-      <c r="N118">
-        <v>20000</v>
-      </c>
-      <c r="O118">
-        <v>2000</v>
-      </c>
-      <c r="P118">
-        <v>2000000</v>
-      </c>
-      <c r="Q118">
-        <v>300</v>
-      </c>
-      <c r="U118" t="s">
-        <v>561</v>
-      </c>
-      <c r="Y118">
-        <v>4</v>
-      </c>
-      <c r="AA118" t="s">
+      <c r="AB118" t="s">
         <v>567</v>
       </c>
-      <c r="AB118" t="s">
-        <v>568</v>
-      </c>
-      <c r="AF118" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG118">
-        <v>15</v>
+      <c r="AC118" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:33">
       <c r="A119">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B119" t="s">
+        <v>568</v>
+      </c>
+      <c r="C119" t="s">
+        <v>427</v>
+      </c>
+      <c r="D119" t="s">
+        <v>564</v>
+      </c>
+      <c r="H119" t="s">
         <v>569</v>
       </c>
-      <c r="C119" t="s">
-        <v>32</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="M119" t="s">
         <v>570</v>
-      </c>
-      <c r="H119" t="s">
-        <v>571</v>
       </c>
       <c r="P119">
         <v>150</v>
@@ -8218,239 +8176,245 @@
       <c r="Q119">
         <v>1000</v>
       </c>
-      <c r="T119">
-        <v>1</v>
+      <c r="U119" t="s">
+        <v>563</v>
       </c>
       <c r="AA119" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB119" t="s">
         <v>572</v>
       </c>
-      <c r="AB119" t="s">
-        <v>573</v>
-      </c>
       <c r="AC119" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="120" spans="1:33">
       <c r="A120">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B120" t="s">
+        <v>573</v>
+      </c>
+      <c r="C120" t="s">
         <v>574</v>
       </c>
-      <c r="C120" t="s">
-        <v>402</v>
-      </c>
       <c r="D120" t="s">
+        <v>564</v>
+      </c>
+      <c r="H120" t="s">
         <v>570</v>
       </c>
-      <c r="H120" t="s">
+      <c r="M120" t="s">
         <v>575</v>
       </c>
-      <c r="M120" t="s">
-        <v>576</v>
-      </c>
       <c r="P120">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>1000</v>
       </c>
       <c r="U120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA120" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB120" t="s">
         <v>577</v>
       </c>
-      <c r="AB120" t="s">
-        <v>578</v>
-      </c>
       <c r="AC120" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="121" spans="1:33">
       <c r="A121">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B121" t="s">
+        <v>578</v>
+      </c>
+      <c r="C121" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" t="s">
+        <v>564</v>
+      </c>
+      <c r="H121" t="s">
+        <v>575</v>
+      </c>
+      <c r="I121">
+        <v>100</v>
+      </c>
+      <c r="P121">
+        <v>150</v>
+      </c>
+      <c r="Q121">
+        <v>1500</v>
+      </c>
+      <c r="U121" t="s">
+        <v>573</v>
+      </c>
+      <c r="V121" t="s">
         <v>579</v>
       </c>
-      <c r="C121" t="s">
+      <c r="AA121" t="s">
         <v>580</v>
       </c>
-      <c r="D121" t="s">
-        <v>570</v>
-      </c>
-      <c r="H121" t="s">
-        <v>576</v>
-      </c>
-      <c r="M121" t="s">
+      <c r="AB121" t="s">
         <v>581</v>
       </c>
-      <c r="P121">
-        <v>250</v>
-      </c>
-      <c r="Q121">
-        <v>1000</v>
-      </c>
-      <c r="U121" t="s">
-        <v>574</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>582</v>
-      </c>
-      <c r="AB121" t="s">
-        <v>583</v>
-      </c>
       <c r="AC121" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="122" spans="1:33">
       <c r="A122">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B122" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C122" t="s">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="D122" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H122" t="s">
-        <v>581</v>
-      </c>
-      <c r="I122">
-        <v>100</v>
+        <v>583</v>
       </c>
       <c r="P122">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="Q122">
         <v>1500</v>
       </c>
       <c r="U122" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="V122" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA122" t="s">
         <v>585</v>
       </c>
-      <c r="AA122" t="s">
+      <c r="AB122" t="s">
         <v>586</v>
       </c>
-      <c r="AB122" t="s">
-        <v>587</v>
-      </c>
       <c r="AC122" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:33">
       <c r="A123">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B123" t="s">
+        <v>587</v>
+      </c>
+      <c r="C123" t="s">
+        <v>366</v>
+      </c>
+      <c r="D123" t="s">
+        <v>564</v>
+      </c>
+      <c r="H123" t="s">
         <v>588</v>
       </c>
-      <c r="C123" t="s">
-        <v>340</v>
-      </c>
-      <c r="D123" t="s">
-        <v>570</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="I123">
+        <v>25000</v>
+      </c>
+      <c r="M123" t="s">
         <v>589</v>
       </c>
       <c r="P123">
         <v>10000</v>
       </c>
       <c r="Q123">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="U123" t="s">
-        <v>584</v>
-      </c>
-      <c r="V123" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA123" t="s">
         <v>590</v>
       </c>
-      <c r="AA123" t="s">
+      <c r="AB123" t="s">
         <v>591</v>
       </c>
-      <c r="AB123" t="s">
-        <v>592</v>
-      </c>
       <c r="AC123" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:33">
       <c r="A124">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B124" t="s">
+        <v>592</v>
+      </c>
+      <c r="C124" t="s">
+        <v>103</v>
+      </c>
+      <c r="D124" t="s">
+        <v>564</v>
+      </c>
+      <c r="H124" t="s">
+        <v>589</v>
+      </c>
+      <c r="I124">
+        <v>100</v>
+      </c>
+      <c r="N124">
+        <v>25</v>
+      </c>
+      <c r="O124">
+        <v>2</v>
+      </c>
+      <c r="P124">
+        <v>150</v>
+      </c>
+      <c r="Q124">
+        <v>3000</v>
+      </c>
+      <c r="U124" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA124" t="s">
         <v>593</v>
       </c>
-      <c r="C124" t="s">
-        <v>340</v>
-      </c>
-      <c r="D124" t="s">
-        <v>570</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="AB124" t="s">
         <v>594</v>
       </c>
-      <c r="I124">
-        <v>25000</v>
-      </c>
-      <c r="M124" t="s">
-        <v>595</v>
-      </c>
-      <c r="P124">
-        <v>10000</v>
-      </c>
-      <c r="Q124">
-        <v>1600</v>
-      </c>
-      <c r="U124" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>596</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>597</v>
-      </c>
       <c r="AC124" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="1:33">
       <c r="A125">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C125" t="s">
-        <v>103</v>
+        <v>427</v>
       </c>
       <c r="D125" t="s">
-        <v>570</v>
-      </c>
-      <c r="H125" t="s">
-        <v>595</v>
+        <v>564</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
       </c>
       <c r="I125">
         <v>100</v>
       </c>
-      <c r="N125">
-        <v>25</v>
-      </c>
-      <c r="O125">
-        <v>2</v>
+      <c r="J125">
+        <v>20000</v>
+      </c>
+      <c r="L125">
+        <v>10000</v>
       </c>
       <c r="P125">
         <v>150</v>
@@ -8459,86 +8423,80 @@
         <v>3000</v>
       </c>
       <c r="U125" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="AA125" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AB125" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AC125" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="1:33">
       <c r="A126">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B126" t="s">
+        <v>598</v>
+      </c>
+      <c r="C126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" t="s">
+        <v>564</v>
+      </c>
+      <c r="H126" t="s">
+        <v>599</v>
+      </c>
+      <c r="I126">
+        <v>500</v>
+      </c>
+      <c r="J126">
+        <v>15000</v>
+      </c>
+      <c r="L126">
+        <v>15000</v>
+      </c>
+      <c r="P126">
+        <v>250</v>
+      </c>
+      <c r="Q126">
+        <v>4000</v>
+      </c>
+      <c r="U126" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB126" t="s">
         <v>601</v>
       </c>
-      <c r="C126" t="s">
-        <v>402</v>
-      </c>
-      <c r="D126" t="s">
-        <v>570</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>100</v>
-      </c>
-      <c r="J126">
-        <v>20000</v>
-      </c>
-      <c r="L126">
-        <v>10000</v>
-      </c>
-      <c r="P126">
-        <v>150</v>
-      </c>
-      <c r="Q126">
-        <v>3000</v>
-      </c>
-      <c r="U126" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB126" t="s">
-        <v>603</v>
-      </c>
       <c r="AC126" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:33">
       <c r="A127">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B127" t="s">
+        <v>602</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>564</v>
+      </c>
+      <c r="H127" t="s">
+        <v>603</v>
+      </c>
+      <c r="M127" t="s">
         <v>604</v>
-      </c>
-      <c r="C127" t="s">
-        <v>38</v>
-      </c>
-      <c r="D127" t="s">
-        <v>570</v>
-      </c>
-      <c r="H127" t="s">
-        <v>605</v>
-      </c>
-      <c r="I127">
-        <v>500</v>
-      </c>
-      <c r="J127">
-        <v>15000</v>
-      </c>
-      <c r="L127">
-        <v>15000</v>
       </c>
       <c r="P127">
         <v>250</v>
@@ -8547,130 +8505,124 @@
         <v>4000</v>
       </c>
       <c r="U127" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AA127" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB127" t="s">
         <v>606</v>
       </c>
-      <c r="AB127" t="s">
-        <v>607</v>
-      </c>
       <c r="AC127" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" spans="1:33">
       <c r="A128">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B128" t="s">
+        <v>607</v>
+      </c>
+      <c r="C128" t="s">
+        <v>427</v>
+      </c>
+      <c r="D128" t="s">
+        <v>564</v>
+      </c>
+      <c r="H128" t="s">
+        <v>604</v>
+      </c>
+      <c r="I128">
+        <v>100</v>
+      </c>
+      <c r="J128">
+        <v>100000</v>
+      </c>
+      <c r="L128">
+        <v>75000</v>
+      </c>
+      <c r="Q128">
+        <v>5000</v>
+      </c>
+      <c r="U128" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y128">
+        <v>1</v>
+      </c>
+      <c r="AA128" t="s">
         <v>608</v>
       </c>
-      <c r="C128" t="s">
-        <v>68</v>
-      </c>
-      <c r="D128" t="s">
-        <v>570</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="AB128" t="s">
         <v>609</v>
       </c>
-      <c r="M128" t="s">
-        <v>610</v>
-      </c>
-      <c r="P128">
-        <v>250</v>
-      </c>
-      <c r="Q128">
-        <v>4000</v>
-      </c>
-      <c r="U128" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA128" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB128" t="s">
-        <v>612</v>
-      </c>
       <c r="AC128" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="129" spans="1:33">
       <c r="A129">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B129" t="s">
+        <v>610</v>
+      </c>
+      <c r="C129" t="s">
+        <v>611</v>
+      </c>
+      <c r="H129" t="s">
+        <v>612</v>
+      </c>
+      <c r="I129">
+        <v>125</v>
+      </c>
+      <c r="P129">
+        <v>200</v>
+      </c>
+      <c r="Q129">
+        <v>100</v>
+      </c>
+      <c r="T129">
+        <v>1</v>
+      </c>
+      <c r="AA129" t="s">
         <v>613</v>
       </c>
-      <c r="C129" t="s">
-        <v>402</v>
-      </c>
-      <c r="D129" t="s">
-        <v>570</v>
-      </c>
-      <c r="H129" t="s">
-        <v>610</v>
-      </c>
-      <c r="I129">
-        <v>100</v>
-      </c>
-      <c r="J129">
-        <v>100000</v>
-      </c>
-      <c r="L129">
-        <v>75000</v>
-      </c>
-      <c r="Q129">
-        <v>5000</v>
-      </c>
-      <c r="U129" t="s">
-        <v>608</v>
-      </c>
-      <c r="Y129">
-        <v>1</v>
-      </c>
-      <c r="AA129" t="s">
+      <c r="AB129" t="s">
         <v>614</v>
       </c>
-      <c r="AB129" t="s">
-        <v>615</v>
-      </c>
-      <c r="AC129" t="s">
-        <v>570</v>
+      <c r="AE129">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:33">
       <c r="A130">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
+        <v>615</v>
+      </c>
+      <c r="C130" t="s">
+        <v>427</v>
+      </c>
+      <c r="H130" t="s">
         <v>616</v>
       </c>
-      <c r="C130" t="s">
-        <v>617</v>
-      </c>
-      <c r="H130" t="s">
-        <v>618</v>
-      </c>
-      <c r="I130">
-        <v>125</v>
-      </c>
       <c r="P130">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q130">
         <v>100</v>
       </c>
-      <c r="T130">
-        <v>1</v>
+      <c r="U130" t="s">
+        <v>610</v>
       </c>
       <c r="AA130" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AB130" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AE130">
         <v>4</v>
@@ -8678,31 +8630,31 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B131" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C131" t="s">
-        <v>402</v>
+        <v>611</v>
       </c>
       <c r="H131" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="P131">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q131">
         <v>100</v>
       </c>
       <c r="U131" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA131" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AB131" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AE131">
         <v>4</v>
@@ -8710,16 +8662,16 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C132" t="s">
-        <v>617</v>
-      </c>
-      <c r="H132" t="s">
-        <v>626</v>
+        <v>611</v>
+      </c>
+      <c r="I132">
+        <v>125</v>
       </c>
       <c r="P132">
         <v>200</v>
@@ -8728,13 +8680,13 @@
         <v>100</v>
       </c>
       <c r="U132" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AA132" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AB132" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AE132">
         <v>4</v>
@@ -8742,17 +8694,32 @@
     </row>
     <row r="133" spans="1:33">
       <c r="A133">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B133" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C133" t="s">
-        <v>617</v>
+        <v>611</v>
+      </c>
+      <c r="E133" t="s">
+        <v>627</v>
+      </c>
+      <c r="H133" t="s">
+        <v>628</v>
       </c>
       <c r="I133">
         <v>125</v>
       </c>
+      <c r="M133" t="s">
+        <v>629</v>
+      </c>
+      <c r="N133">
+        <v>75</v>
+      </c>
+      <c r="O133">
+        <v>10</v>
+      </c>
       <c r="P133">
         <v>200</v>
       </c>
@@ -8760,7 +8727,7 @@
         <v>100</v>
       </c>
       <c r="U133" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="AA133" t="s">
         <v>630</v>
@@ -8768,31 +8735,28 @@
       <c r="AB133" t="s">
         <v>631</v>
       </c>
+      <c r="AD133" t="s">
+        <v>627</v>
+      </c>
       <c r="AE133">
         <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:33">
       <c r="A134">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B134" t="s">
         <v>632</v>
       </c>
       <c r="C134" t="s">
-        <v>617</v>
-      </c>
-      <c r="E134" t="s">
-        <v>633</v>
-      </c>
-      <c r="H134" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="I134">
         <v>125</v>
       </c>
-      <c r="M134" t="s">
-        <v>635</v>
+      <c r="J134">
+        <v>1500</v>
       </c>
       <c r="N134">
         <v>75</v>
@@ -8807,16 +8771,13 @@
         <v>100</v>
       </c>
       <c r="U134" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AA134" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AB134" t="s">
-        <v>637</v>
-      </c>
-      <c r="AD134" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AE134">
         <v>4</v>
@@ -8824,40 +8785,43 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B135" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C135" t="s">
-        <v>617</v>
-      </c>
-      <c r="I135">
-        <v>125</v>
-      </c>
-      <c r="J135">
-        <v>1500</v>
+        <v>427</v>
+      </c>
+      <c r="E135" t="s">
+        <v>623</v>
+      </c>
+      <c r="H135" t="s">
+        <v>636</v>
       </c>
       <c r="N135">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O135">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P135">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q135">
         <v>100</v>
       </c>
       <c r="U135" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="AA135" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AB135" t="s">
-        <v>640</v>
+        <v>638</v>
+      </c>
+      <c r="AD135" t="s">
+        <v>623</v>
       </c>
       <c r="AE135">
         <v>4</v>
@@ -8865,19 +8829,19 @@
     </row>
     <row r="136" spans="1:33">
       <c r="A136">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B136" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C136" t="s">
-        <v>402</v>
-      </c>
-      <c r="E136" t="s">
-        <v>629</v>
+        <v>427</v>
       </c>
       <c r="H136" t="s">
-        <v>642</v>
+        <v>640</v>
+      </c>
+      <c r="I136">
+        <v>100</v>
       </c>
       <c r="N136">
         <v>25</v>
@@ -8892,16 +8856,13 @@
         <v>100</v>
       </c>
       <c r="U136" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="AA136" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AB136" t="s">
-        <v>644</v>
-      </c>
-      <c r="AD136" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="AE136">
         <v>4</v>
@@ -8909,20 +8870,29 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B137" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="C137" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="H137" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I137">
         <v>100</v>
       </c>
+      <c r="J137">
+        <v>200</v>
+      </c>
+      <c r="K137">
+        <v>1000</v>
+      </c>
+      <c r="M137" t="s">
+        <v>644</v>
+      </c>
       <c r="N137">
         <v>25</v>
       </c>
@@ -8936,13 +8906,13 @@
         <v>100</v>
       </c>
       <c r="U137" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AA137" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AB137" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AE137">
         <v>4</v>
@@ -8950,49 +8920,46 @@
     </row>
     <row r="138" spans="1:33">
       <c r="A138">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B138" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="C138" t="s">
-        <v>402</v>
+        <v>611</v>
+      </c>
+      <c r="E138" t="s">
+        <v>632</v>
       </c>
       <c r="H138" t="s">
-        <v>649</v>
-      </c>
-      <c r="I138">
-        <v>100</v>
-      </c>
-      <c r="J138">
+        <v>648</v>
+      </c>
+      <c r="N138">
+        <v>75</v>
+      </c>
+      <c r="O138">
+        <v>10</v>
+      </c>
+      <c r="P138">
         <v>200</v>
-      </c>
-      <c r="K138">
-        <v>1000</v>
-      </c>
-      <c r="M138" t="s">
-        <v>650</v>
-      </c>
-      <c r="N138">
-        <v>25</v>
-      </c>
-      <c r="O138">
-        <v>2</v>
-      </c>
-      <c r="P138">
-        <v>150</v>
       </c>
       <c r="Q138">
         <v>100</v>
       </c>
       <c r="U138" t="s">
-        <v>645</v>
+        <v>610</v>
+      </c>
+      <c r="V138" t="s">
+        <v>649</v>
       </c>
       <c r="AA138" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB138" t="s">
         <v>651</v>
       </c>
-      <c r="AB138" t="s">
-        <v>652</v>
+      <c r="AD138" t="s">
+        <v>632</v>
       </c>
       <c r="AE138">
         <v>4</v>
@@ -9000,19 +8967,22 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B139" t="s">
+        <v>652</v>
+      </c>
+      <c r="C139" t="s">
+        <v>611</v>
+      </c>
+      <c r="H139" t="s">
         <v>653</v>
       </c>
-      <c r="C139" t="s">
-        <v>617</v>
-      </c>
-      <c r="E139" t="s">
-        <v>638</v>
-      </c>
-      <c r="H139" t="s">
-        <v>654</v>
+      <c r="I139">
+        <v>125</v>
+      </c>
+      <c r="J139">
+        <v>2000</v>
       </c>
       <c r="N139">
         <v>75</v>
@@ -9023,23 +8993,17 @@
       <c r="P139">
         <v>200</v>
       </c>
-      <c r="Q139">
-        <v>100</v>
-      </c>
       <c r="U139" t="s">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="V139" t="s">
+        <v>654</v>
+      </c>
+      <c r="AA139" t="s">
         <v>655</v>
       </c>
-      <c r="AA139" t="s">
+      <c r="AB139" t="s">
         <v>656</v>
-      </c>
-      <c r="AB139" t="s">
-        <v>657</v>
-      </c>
-      <c r="AD139" t="s">
-        <v>638</v>
       </c>
       <c r="AE139">
         <v>4</v>
@@ -9047,22 +9011,25 @@
     </row>
     <row r="140" spans="1:33">
       <c r="A140">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B140" t="s">
+        <v>657</v>
+      </c>
+      <c r="C140" t="s">
+        <v>611</v>
+      </c>
+      <c r="H140" t="s">
         <v>658</v>
-      </c>
-      <c r="C140" t="s">
-        <v>617</v>
-      </c>
-      <c r="H140" t="s">
-        <v>659</v>
       </c>
       <c r="I140">
         <v>125</v>
       </c>
       <c r="J140">
-        <v>2000</v>
+        <v>25000</v>
+      </c>
+      <c r="M140" t="s">
+        <v>659</v>
       </c>
       <c r="N140">
         <v>75</v>
@@ -9073,8 +9040,11 @@
       <c r="P140">
         <v>200</v>
       </c>
+      <c r="Q140">
+        <v>200</v>
+      </c>
       <c r="U140" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="V140" t="s">
         <v>660</v>
@@ -9091,49 +9061,46 @@
     </row>
     <row r="141" spans="1:33">
       <c r="A141">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B141" t="s">
         <v>663</v>
       </c>
       <c r="C141" t="s">
-        <v>617</v>
+        <v>427</v>
       </c>
       <c r="H141" t="s">
+        <v>659</v>
+      </c>
+      <c r="I141">
+        <v>100</v>
+      </c>
+      <c r="J141">
+        <v>5000</v>
+      </c>
+      <c r="M141" t="s">
         <v>664</v>
       </c>
-      <c r="I141">
-        <v>125</v>
-      </c>
-      <c r="J141">
-        <v>25000</v>
-      </c>
-      <c r="M141" t="s">
+      <c r="N141">
+        <v>25</v>
+      </c>
+      <c r="O141">
+        <v>2</v>
+      </c>
+      <c r="P141">
+        <v>150</v>
+      </c>
+      <c r="Q141">
+        <v>250</v>
+      </c>
+      <c r="U141" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA141" t="s">
         <v>665</v>
       </c>
-      <c r="N141">
-        <v>75</v>
-      </c>
-      <c r="O141">
-        <v>10</v>
-      </c>
-      <c r="P141">
-        <v>200</v>
-      </c>
-      <c r="Q141">
-        <v>200</v>
-      </c>
-      <c r="U141" t="s">
-        <v>658</v>
-      </c>
-      <c r="V141" t="s">
+      <c r="AB141" t="s">
         <v>666</v>
-      </c>
-      <c r="AA141" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB141" t="s">
-        <v>668</v>
       </c>
       <c r="AE141">
         <v>4</v>
@@ -9141,40 +9108,40 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B142" t="s">
+        <v>667</v>
+      </c>
+      <c r="C142" t="s">
+        <v>668</v>
+      </c>
+      <c r="E142" t="s">
         <v>669</v>
       </c>
-      <c r="C142" t="s">
-        <v>402</v>
-      </c>
-      <c r="H142" t="s">
-        <v>665</v>
-      </c>
       <c r="I142">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J142">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M142" t="s">
         <v>670</v>
       </c>
       <c r="N142">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="O142">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P142">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q142">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="U142" t="s">
-        <v>616</v>
+        <v>663</v>
       </c>
       <c r="AA142" t="s">
         <v>671</v>
@@ -9182,13 +9149,16 @@
       <c r="AB142" t="s">
         <v>672</v>
       </c>
+      <c r="AD142" t="s">
+        <v>669</v>
+      </c>
       <c r="AE142">
         <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:33">
       <c r="A143">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B143" t="s">
         <v>673</v>
@@ -9196,17 +9166,14 @@
       <c r="C143" t="s">
         <v>674</v>
       </c>
-      <c r="E143" t="s">
+      <c r="H143" t="s">
         <v>675</v>
       </c>
       <c r="I143">
         <v>125</v>
       </c>
       <c r="J143">
-        <v>2000</v>
-      </c>
-      <c r="M143" t="s">
-        <v>676</v>
+        <v>1500</v>
       </c>
       <c r="N143">
         <v>75</v>
@@ -9214,23 +9181,17 @@
       <c r="O143">
         <v>10</v>
       </c>
-      <c r="P143">
-        <v>200</v>
-      </c>
       <c r="Q143">
         <v>100</v>
       </c>
       <c r="U143" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AA143" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB143" t="s">
         <v>677</v>
-      </c>
-      <c r="AB143" t="s">
-        <v>678</v>
-      </c>
-      <c r="AD143" t="s">
-        <v>675</v>
       </c>
       <c r="AE143">
         <v>4</v>
@@ -9238,16 +9199,16 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B144" t="s">
+        <v>678</v>
+      </c>
+      <c r="C144" t="s">
+        <v>674</v>
+      </c>
+      <c r="H144" t="s">
         <v>679</v>
-      </c>
-      <c r="C144" t="s">
-        <v>680</v>
-      </c>
-      <c r="H144" t="s">
-        <v>681</v>
       </c>
       <c r="I144">
         <v>125</v>
@@ -9267,11 +9228,14 @@
       <c r="U144" t="s">
         <v>673</v>
       </c>
+      <c r="V144" t="s">
+        <v>680</v>
+      </c>
       <c r="AA144" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB144" t="s">
         <v>682</v>
-      </c>
-      <c r="AB144" t="s">
-        <v>683</v>
       </c>
       <c r="AE144">
         <v>4</v>
@@ -9279,22 +9243,25 @@
     </row>
     <row r="145" spans="1:33">
       <c r="A145">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B145" t="s">
+        <v>683</v>
+      </c>
+      <c r="C145" t="s">
+        <v>674</v>
+      </c>
+      <c r="H145" t="s">
         <v>684</v>
-      </c>
-      <c r="C145" t="s">
-        <v>680</v>
-      </c>
-      <c r="H145" t="s">
-        <v>685</v>
       </c>
       <c r="I145">
         <v>125</v>
       </c>
       <c r="J145">
-        <v>1500</v>
+        <v>5000</v>
+      </c>
+      <c r="M145" t="s">
+        <v>685</v>
       </c>
       <c r="N145">
         <v>75</v>
@@ -9306,16 +9273,13 @@
         <v>100</v>
       </c>
       <c r="U145" t="s">
-        <v>679</v>
-      </c>
-      <c r="V145" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA145" t="s">
         <v>686</v>
       </c>
-      <c r="AA145" t="s">
+      <c r="AB145" t="s">
         <v>687</v>
-      </c>
-      <c r="AB145" t="s">
-        <v>688</v>
       </c>
       <c r="AE145">
         <v>4</v>
@@ -9323,25 +9287,25 @@
     </row>
     <row r="146" spans="1:33">
       <c r="A146">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B146" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C146" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="H146" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="I146">
         <v>125</v>
       </c>
       <c r="J146">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M146" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N146">
         <v>75</v>
@@ -9353,13 +9317,13 @@
         <v>100</v>
       </c>
       <c r="U146" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="AA146" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AB146" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AE146">
         <v>4</v>
@@ -9367,43 +9331,46 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B147" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C147" t="s">
-        <v>680</v>
-      </c>
-      <c r="H147" t="s">
-        <v>691</v>
-      </c>
-      <c r="I147">
-        <v>125</v>
-      </c>
-      <c r="J147">
-        <v>10000</v>
-      </c>
-      <c r="M147" t="s">
-        <v>695</v>
+        <v>668</v>
+      </c>
+      <c r="E147" t="s">
+        <v>688</v>
       </c>
       <c r="N147">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O147">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="P147">
+        <v>1000</v>
       </c>
       <c r="Q147">
         <v>100</v>
       </c>
       <c r="U147" t="s">
-        <v>673</v>
+        <v>688</v>
+      </c>
+      <c r="W147" t="s">
+        <v>693</v>
+      </c>
+      <c r="X147">
+        <v>2</v>
       </c>
       <c r="AA147" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AB147" t="s">
-        <v>697</v>
+        <v>695</v>
+      </c>
+      <c r="AD147" t="s">
+        <v>688</v>
       </c>
       <c r="AE147">
         <v>4</v>
@@ -9411,16 +9378,13 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C148" t="s">
-        <v>674</v>
-      </c>
-      <c r="E148" t="s">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="N148">
         <v>100</v>
@@ -9435,22 +9399,19 @@
         <v>100</v>
       </c>
       <c r="U148" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="W148" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="X148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA148" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AB148" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD148" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="AE148">
         <v>4</v>
@@ -9458,19 +9419,19 @@
     </row>
     <row r="149" spans="1:33">
       <c r="A149">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B149" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C149" t="s">
-        <v>617</v>
+        <v>427</v>
       </c>
       <c r="N149">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O149">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P149">
         <v>1000</v>
@@ -9479,19 +9440,19 @@
         <v>100</v>
       </c>
       <c r="U149" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="W149" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="X149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA149" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AB149" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AE149">
         <v>4</v>
@@ -9499,40 +9460,46 @@
     </row>
     <row r="150" spans="1:33">
       <c r="A150">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B150" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C150" t="s">
-        <v>402</v>
+        <v>668</v>
+      </c>
+      <c r="E150" t="s">
+        <v>663</v>
+      </c>
+      <c r="I150">
+        <v>125</v>
+      </c>
+      <c r="J150">
+        <v>100</v>
       </c>
       <c r="N150">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O150">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P150">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Q150">
         <v>100</v>
       </c>
       <c r="U150" t="s">
-        <v>702</v>
-      </c>
-      <c r="W150" t="s">
-        <v>699</v>
-      </c>
-      <c r="X150">
-        <v>5</v>
+        <v>610</v>
       </c>
       <c r="AA150" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AB150" t="s">
-        <v>707</v>
+        <v>704</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>663</v>
       </c>
       <c r="AE150">
         <v>4</v>
@@ -9540,22 +9507,22 @@
     </row>
     <row r="151" spans="1:33">
       <c r="A151">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B151" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C151" t="s">
-        <v>674</v>
-      </c>
-      <c r="E151" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="H151" t="s">
+        <v>706</v>
       </c>
       <c r="I151">
         <v>125</v>
       </c>
       <c r="J151">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N151">
         <v>75</v>
@@ -9570,16 +9537,13 @@
         <v>100</v>
       </c>
       <c r="U151" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="AA151" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AB151" t="s">
-        <v>710</v>
-      </c>
-      <c r="AD151" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="AE151">
         <v>4</v>
@@ -9587,16 +9551,13 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B152" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C152" t="s">
-        <v>674</v>
-      </c>
-      <c r="H152" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
       <c r="I152">
         <v>125</v>
@@ -9617,13 +9578,13 @@
         <v>100</v>
       </c>
       <c r="U152" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AA152" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="AB152" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="AE152">
         <v>4</v>
@@ -9631,19 +9592,22 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B153" t="s">
-        <v>715</v>
+        <v>669</v>
       </c>
       <c r="C153" t="s">
-        <v>674</v>
+        <v>668</v>
+      </c>
+      <c r="H153" t="s">
+        <v>669</v>
       </c>
       <c r="I153">
         <v>125</v>
       </c>
       <c r="J153">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N153">
         <v>75</v>
@@ -9658,71 +9622,71 @@
         <v>100</v>
       </c>
       <c r="U153" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AA153" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="AB153" t="s">
-        <v>717</v>
-      </c>
-      <c r="AE153">
-        <v>4</v>
+        <v>713</v>
       </c>
     </row>
     <row r="154" spans="1:33">
       <c r="A154">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B154" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="C154" t="s">
-        <v>674</v>
-      </c>
-      <c r="H154" t="s">
-        <v>675</v>
-      </c>
-      <c r="I154">
-        <v>125</v>
-      </c>
-      <c r="J154">
-        <v>1000</v>
+        <v>611</v>
+      </c>
+      <c r="E154" t="s">
+        <v>699</v>
       </c>
       <c r="N154">
+        <v>175</v>
+      </c>
+      <c r="O154">
         <v>75</v>
       </c>
-      <c r="O154">
-        <v>10</v>
-      </c>
       <c r="P154">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q154">
         <v>100</v>
       </c>
       <c r="U154" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA154" t="s">
         <v>715</v>
       </c>
-      <c r="AA154" t="s">
-        <v>718</v>
-      </c>
       <c r="AB154" t="s">
-        <v>719</v>
+        <v>716</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>699</v>
+      </c>
+      <c r="AE154">
+        <v>4</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>611</v>
+      </c>
+      <c r="AG154">
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:33">
       <c r="A155">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B155" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C155" t="s">
-        <v>617</v>
-      </c>
-      <c r="E155" t="s">
-        <v>705</v>
+        <v>611</v>
       </c>
       <c r="N155">
         <v>175</v>
@@ -9737,36 +9701,33 @@
         <v>100</v>
       </c>
       <c r="U155" t="s">
-        <v>616</v>
+        <v>714</v>
       </c>
       <c r="AA155" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AB155" t="s">
-        <v>722</v>
-      </c>
-      <c r="AD155" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="AE155">
         <v>4</v>
       </c>
       <c r="AF155" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AG155">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:33">
       <c r="A156">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B156" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C156" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="N156">
         <v>175</v>
@@ -9781,33 +9742,33 @@
         <v>100</v>
       </c>
       <c r="U156" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AA156" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AB156" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AE156">
         <v>4</v>
       </c>
       <c r="AF156" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AG156">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:33">
       <c r="A157">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B157" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C157" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="N157">
         <v>175</v>
@@ -9822,33 +9783,36 @@
         <v>100</v>
       </c>
       <c r="U157" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AA157" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AB157" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AE157">
         <v>4</v>
       </c>
       <c r="AF157" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AG157">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:33">
       <c r="A158">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B158" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C158" t="s">
-        <v>617</v>
+        <v>611</v>
+      </c>
+      <c r="M158" t="s">
+        <v>727</v>
       </c>
       <c r="N158">
         <v>175</v>
@@ -9863,89 +9827,95 @@
         <v>100</v>
       </c>
       <c r="U158" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AA158" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AB158" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AE158">
         <v>4</v>
       </c>
       <c r="AF158" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AG158">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:33">
       <c r="A159">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B159" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C159" t="s">
-        <v>617</v>
-      </c>
-      <c r="M159" t="s">
-        <v>733</v>
+        <v>611</v>
+      </c>
+      <c r="D159" t="s">
+        <v>731</v>
+      </c>
+      <c r="E159" t="s">
+        <v>683</v>
+      </c>
+      <c r="I159">
+        <v>125</v>
+      </c>
+      <c r="J159">
+        <v>25000</v>
       </c>
       <c r="N159">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O159">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P159">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q159">
         <v>100</v>
       </c>
-      <c r="U159" t="s">
-        <v>729</v>
+      <c r="T159">
+        <v>1</v>
       </c>
       <c r="AA159" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AB159" t="s">
-        <v>735</v>
+        <v>733</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>731</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>683</v>
       </c>
       <c r="AE159">
         <v>4</v>
       </c>
-      <c r="AF159" t="s">
-        <v>617</v>
-      </c>
-      <c r="AG159">
-        <v>25</v>
-      </c>
     </row>
     <row r="160" spans="1:33">
       <c r="A160">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B160" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C160" t="s">
-        <v>617</v>
-      </c>
-      <c r="D160" t="s">
-        <v>737</v>
-      </c>
-      <c r="E160" t="s">
-        <v>689</v>
+        <v>611</v>
+      </c>
+      <c r="H160" t="s">
+        <v>735</v>
       </c>
       <c r="I160">
         <v>125</v>
       </c>
       <c r="J160">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="N160">
         <v>75</v>
@@ -9959,20 +9929,14 @@
       <c r="Q160">
         <v>100</v>
       </c>
-      <c r="T160">
-        <v>1</v>
+      <c r="U160" t="s">
+        <v>730</v>
       </c>
       <c r="AA160" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AB160" t="s">
-        <v>739</v>
-      </c>
-      <c r="AC160" t="s">
         <v>737</v>
-      </c>
-      <c r="AD160" t="s">
-        <v>689</v>
       </c>
       <c r="AE160">
         <v>4</v>
@@ -9980,22 +9944,22 @@
     </row>
     <row r="161" spans="1:33">
       <c r="A161">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B161" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C161" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H161" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I161">
         <v>125</v>
       </c>
       <c r="J161">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N161">
         <v>75</v>
@@ -10003,20 +9967,20 @@
       <c r="O161">
         <v>10</v>
       </c>
-      <c r="P161">
-        <v>200</v>
-      </c>
       <c r="Q161">
         <v>100</v>
       </c>
       <c r="U161" t="s">
-        <v>736</v>
+        <v>734</v>
+      </c>
+      <c r="V161" t="s">
+        <v>740</v>
       </c>
       <c r="AA161" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB161" t="s">
         <v>742</v>
-      </c>
-      <c r="AB161" t="s">
-        <v>743</v>
       </c>
       <c r="AE161">
         <v>4</v>
@@ -10024,66 +9988,57 @@
     </row>
     <row r="162" spans="1:33">
       <c r="A162">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B162" t="s">
+        <v>743</v>
+      </c>
+      <c r="C162" t="s">
+        <v>611</v>
+      </c>
+      <c r="H162" t="s">
         <v>744</v>
-      </c>
-      <c r="C162" t="s">
-        <v>617</v>
-      </c>
-      <c r="H162" t="s">
-        <v>745</v>
       </c>
       <c r="I162">
         <v>125</v>
       </c>
       <c r="J162">
-        <v>10000</v>
-      </c>
-      <c r="N162">
-        <v>75</v>
-      </c>
-      <c r="O162">
-        <v>10</v>
+        <v>2000</v>
+      </c>
+      <c r="P162">
+        <v>200</v>
       </c>
       <c r="Q162">
         <v>100</v>
       </c>
       <c r="U162" t="s">
-        <v>740</v>
-      </c>
-      <c r="V162" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB162" t="s">
         <v>746</v>
-      </c>
-      <c r="AA162" t="s">
-        <v>747</v>
-      </c>
-      <c r="AB162" t="s">
-        <v>748</v>
-      </c>
-      <c r="AE162">
-        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:33">
       <c r="A163">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B163" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C163" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H163" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I163">
         <v>125</v>
       </c>
       <c r="J163">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="P163">
         <v>200</v>
@@ -10092,48 +10047,57 @@
         <v>100</v>
       </c>
       <c r="U163" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AA163" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AB163" t="s">
-        <v>752</v>
+        <v>750</v>
+      </c>
+      <c r="AE163">
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:33">
       <c r="A164">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B164" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C164" t="s">
-        <v>617</v>
+        <v>427</v>
       </c>
       <c r="H164" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I164">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J164">
-        <v>20000</v>
+        <v>25000</v>
+      </c>
+      <c r="N164">
+        <v>25</v>
+      </c>
+      <c r="O164">
+        <v>2</v>
       </c>
       <c r="P164">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q164">
         <v>100</v>
       </c>
       <c r="U164" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AA164" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AB164" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AE164">
         <v>4</v>
@@ -10141,43 +10105,40 @@
     </row>
     <row r="165" spans="1:33">
       <c r="A165">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B165" t="s">
+        <v>755</v>
+      </c>
+      <c r="C165" t="s">
+        <v>611</v>
+      </c>
+      <c r="E165" t="s">
+        <v>751</v>
+      </c>
+      <c r="H165" t="s">
+        <v>756</v>
+      </c>
+      <c r="I165">
+        <v>125</v>
+      </c>
+      <c r="J165">
+        <v>20000</v>
+      </c>
+      <c r="Q165">
+        <v>200</v>
+      </c>
+      <c r="U165" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA165" t="s">
         <v>757</v>
       </c>
-      <c r="C165" t="s">
-        <v>402</v>
-      </c>
-      <c r="H165" t="s">
+      <c r="AB165" t="s">
         <v>758</v>
       </c>
-      <c r="I165">
-        <v>100</v>
-      </c>
-      <c r="J165">
-        <v>25000</v>
-      </c>
-      <c r="N165">
-        <v>25</v>
-      </c>
-      <c r="O165">
-        <v>2</v>
-      </c>
-      <c r="P165">
-        <v>150</v>
-      </c>
-      <c r="Q165">
-        <v>100</v>
-      </c>
-      <c r="U165" t="s">
-        <v>753</v>
-      </c>
-      <c r="AA165" t="s">
-        <v>759</v>
-      </c>
-      <c r="AB165" t="s">
-        <v>760</v>
+      <c r="AD165" t="s">
+        <v>751</v>
       </c>
       <c r="AE165">
         <v>4</v>
@@ -10185,40 +10146,34 @@
     </row>
     <row r="166" spans="1:33">
       <c r="A166">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B166" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C166" t="s">
-        <v>617</v>
-      </c>
-      <c r="E166" t="s">
-        <v>757</v>
-      </c>
-      <c r="H166" t="s">
-        <v>762</v>
+        <v>611</v>
       </c>
       <c r="I166">
         <v>125</v>
       </c>
       <c r="J166">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q166">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="U166" t="s">
-        <v>736</v>
+        <v>755</v>
+      </c>
+      <c r="Y166">
+        <v>2</v>
       </c>
       <c r="AA166" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AB166" t="s">
-        <v>764</v>
-      </c>
-      <c r="AD166" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AE166">
         <v>4</v>
@@ -10226,28 +10181,46 @@
     </row>
     <row r="167" spans="1:33">
       <c r="A167">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B167" t="s">
+        <v>762</v>
+      </c>
+      <c r="C167" t="s">
+        <v>763</v>
+      </c>
+      <c r="E167" t="s">
+        <v>416</v>
+      </c>
+      <c r="F167" t="s">
+        <v>397</v>
+      </c>
+      <c r="G167">
+        <v>10</v>
+      </c>
+      <c r="H167" t="s">
+        <v>764</v>
+      </c>
+      <c r="N167">
+        <v>500000</v>
+      </c>
+      <c r="O167">
+        <v>500000</v>
+      </c>
+      <c r="P167">
+        <v>2000000000</v>
+      </c>
+      <c r="Q167">
+        <v>175000</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="W167" t="s">
         <v>765</v>
       </c>
-      <c r="C167" t="s">
-        <v>617</v>
-      </c>
-      <c r="I167">
-        <v>125</v>
-      </c>
-      <c r="J167">
-        <v>30000</v>
-      </c>
-      <c r="Q167">
-        <v>500</v>
-      </c>
-      <c r="U167" t="s">
-        <v>761</v>
-      </c>
-      <c r="Y167">
-        <v>2</v>
+      <c r="X167">
+        <v>5</v>
       </c>
       <c r="AA167" t="s">
         <v>766</v>
@@ -10255,31 +10228,28 @@
       <c r="AB167" t="s">
         <v>767</v>
       </c>
-      <c r="AE167">
-        <v>4</v>
+      <c r="AD167" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>763</v>
+      </c>
+      <c r="AG167">
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:33">
       <c r="A168">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B168" t="s">
         <v>768</v>
       </c>
       <c r="C168" t="s">
+        <v>763</v>
+      </c>
+      <c r="H168" t="s">
         <v>769</v>
-      </c>
-      <c r="E168" t="s">
-        <v>390</v>
-      </c>
-      <c r="F168" t="s">
-        <v>371</v>
-      </c>
-      <c r="G168">
-        <v>10</v>
-      </c>
-      <c r="H168" t="s">
-        <v>770</v>
       </c>
       <c r="N168">
         <v>500000</v>
@@ -10293,43 +10263,34 @@
       <c r="Q168">
         <v>175000</v>
       </c>
-      <c r="T168">
-        <v>1</v>
-      </c>
-      <c r="W168" t="s">
+      <c r="U168" t="s">
+        <v>762</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB168" t="s">
         <v>771</v>
       </c>
-      <c r="X168">
-        <v>5</v>
-      </c>
-      <c r="AA168" t="s">
-        <v>772</v>
-      </c>
-      <c r="AB168" t="s">
-        <v>773</v>
-      </c>
-      <c r="AD168" t="s">
-        <v>390</v>
-      </c>
       <c r="AF168" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="AG168">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:33">
       <c r="A169">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B169" t="s">
+        <v>772</v>
+      </c>
+      <c r="C169" t="s">
+        <v>773</v>
+      </c>
+      <c r="H169" t="s">
         <v>774</v>
-      </c>
-      <c r="C169" t="s">
-        <v>769</v>
-      </c>
-      <c r="H169" t="s">
-        <v>775</v>
       </c>
       <c r="N169">
         <v>500000</v>
@@ -10347,30 +10308,30 @@
         <v>768</v>
       </c>
       <c r="AA169" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB169" t="s">
         <v>776</v>
       </c>
-      <c r="AB169" t="s">
-        <v>777</v>
-      </c>
       <c r="AF169" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="AG169">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:33">
       <c r="A170">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B170" t="s">
+        <v>777</v>
+      </c>
+      <c r="C170" t="s">
+        <v>773</v>
+      </c>
+      <c r="H170" t="s">
         <v>778</v>
-      </c>
-      <c r="C170" t="s">
-        <v>779</v>
-      </c>
-      <c r="H170" t="s">
-        <v>780</v>
       </c>
       <c r="N170">
         <v>500000</v>
@@ -10385,33 +10346,33 @@
         <v>175000</v>
       </c>
       <c r="U170" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AA170" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AB170" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AF170" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="AG170">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:33">
       <c r="A171">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B171" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C171" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H171" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N171">
         <v>500000</v>
@@ -10426,33 +10387,33 @@
         <v>175000</v>
       </c>
       <c r="U171" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AA171" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AB171" t="s">
-        <v>786</v>
-      </c>
-      <c r="AF171" t="s">
-        <v>779</v>
-      </c>
-      <c r="AG171">
-        <v>10</v>
+        <v>784</v>
       </c>
     </row>
     <row r="172" spans="1:33">
       <c r="A172">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B172" t="s">
+        <v>785</v>
+      </c>
+      <c r="C172" t="s">
+        <v>786</v>
+      </c>
+      <c r="E172" t="s">
+        <v>781</v>
+      </c>
+      <c r="F172" t="s">
+        <v>768</v>
+      </c>
+      <c r="H172" t="s">
         <v>787</v>
-      </c>
-      <c r="C172" t="s">
-        <v>779</v>
-      </c>
-      <c r="H172" t="s">
-        <v>788</v>
       </c>
       <c r="N172">
         <v>500000</v>
@@ -10467,33 +10428,36 @@
         <v>175000</v>
       </c>
       <c r="U172" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="AA172" t="s">
+        <v>788</v>
+      </c>
+      <c r="AB172" t="s">
         <v>789</v>
       </c>
-      <c r="AB172" t="s">
-        <v>790</v>
+      <c r="AD172" t="s">
+        <v>781</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>786</v>
+      </c>
+      <c r="AG172">
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:33">
       <c r="A173">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B173" t="s">
+        <v>790</v>
+      </c>
+      <c r="C173" t="s">
+        <v>786</v>
+      </c>
+      <c r="H173" t="s">
         <v>791</v>
-      </c>
-      <c r="C173" t="s">
-        <v>792</v>
-      </c>
-      <c r="E173" t="s">
-        <v>787</v>
-      </c>
-      <c r="F173" t="s">
-        <v>774</v>
-      </c>
-      <c r="H173" t="s">
-        <v>793</v>
       </c>
       <c r="N173">
         <v>500000</v>
@@ -10508,135 +10472,138 @@
         <v>175000</v>
       </c>
       <c r="U173" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AA173" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AB173" t="s">
-        <v>795</v>
-      </c>
-      <c r="AD173" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="AF173" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="AG173">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:33">
       <c r="A174">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B174" t="s">
+        <v>794</v>
+      </c>
+      <c r="C174" t="s">
+        <v>763</v>
+      </c>
+      <c r="H174" t="s">
+        <v>795</v>
+      </c>
+      <c r="U174" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA174" t="s">
         <v>796</v>
       </c>
-      <c r="C174" t="s">
-        <v>792</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="AB174" t="s">
         <v>797</v>
       </c>
-      <c r="N174">
-        <v>500000</v>
-      </c>
-      <c r="O174">
-        <v>500000</v>
-      </c>
-      <c r="P174">
-        <v>2000000000</v>
-      </c>
-      <c r="Q174">
-        <v>175000</v>
-      </c>
-      <c r="U174" t="s">
-        <v>791</v>
-      </c>
-      <c r="AA174" t="s">
-        <v>798</v>
-      </c>
-      <c r="AB174" t="s">
-        <v>799</v>
-      </c>
       <c r="AF174" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="AG174">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:33">
       <c r="A175">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B175" t="s">
+        <v>798</v>
+      </c>
+      <c r="C175" t="s">
+        <v>763</v>
+      </c>
+      <c r="H175" t="s">
+        <v>799</v>
+      </c>
+      <c r="U175" t="s">
+        <v>794</v>
+      </c>
+      <c r="AA175" t="s">
         <v>800</v>
       </c>
-      <c r="C175" t="s">
-        <v>769</v>
-      </c>
-      <c r="H175" t="s">
+      <c r="AB175" t="s">
         <v>801</v>
       </c>
-      <c r="U175" t="s">
-        <v>796</v>
-      </c>
-      <c r="AA175" t="s">
-        <v>802</v>
-      </c>
-      <c r="AB175" t="s">
-        <v>803</v>
-      </c>
       <c r="AF175" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="AG175">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:33">
       <c r="A176">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B176" t="s">
+        <v>802</v>
+      </c>
+      <c r="C176" t="s">
+        <v>773</v>
+      </c>
+      <c r="H176" t="s">
+        <v>803</v>
+      </c>
+      <c r="N176">
+        <v>500000</v>
+      </c>
+      <c r="O176">
+        <v>500000</v>
+      </c>
+      <c r="P176">
+        <v>2000000000</v>
+      </c>
+      <c r="Q176">
+        <v>175000</v>
+      </c>
+      <c r="U176" t="s">
+        <v>798</v>
+      </c>
+      <c r="AA176" t="s">
         <v>804</v>
       </c>
-      <c r="C176" t="s">
-        <v>769</v>
-      </c>
-      <c r="H176" t="s">
+      <c r="AB176" t="s">
         <v>805</v>
       </c>
-      <c r="U176" t="s">
-        <v>800</v>
-      </c>
-      <c r="AA176" t="s">
-        <v>806</v>
-      </c>
-      <c r="AB176" t="s">
-        <v>807</v>
-      </c>
       <c r="AF176" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="AG176">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:33">
       <c r="A177">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B177" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C177" t="s">
-        <v>779</v>
+        <v>773</v>
+      </c>
+      <c r="E177" t="s">
+        <v>802</v>
+      </c>
+      <c r="F177" t="s">
+        <v>785</v>
       </c>
       <c r="H177" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N177">
         <v>500000</v>
@@ -10651,39 +10618,39 @@
         <v>175000</v>
       </c>
       <c r="U177" t="s">
-        <v>804</v>
+        <v>762</v>
       </c>
       <c r="AA177" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB177" t="s">
-        <v>811</v>
+        <v>809</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>802</v>
       </c>
       <c r="AF177" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="AG177">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:33">
       <c r="A178">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B178" t="s">
+        <v>810</v>
+      </c>
+      <c r="C178" t="s">
+        <v>811</v>
+      </c>
+      <c r="H178" t="s">
         <v>812</v>
       </c>
-      <c r="C178" t="s">
-        <v>779</v>
-      </c>
-      <c r="E178" t="s">
-        <v>808</v>
-      </c>
-      <c r="F178" t="s">
-        <v>791</v>
-      </c>
-      <c r="H178" t="s">
-        <v>813</v>
+      <c r="L178">
+        <v>150000</v>
       </c>
       <c r="N178">
         <v>500000</v>
@@ -10698,39 +10665,36 @@
         <v>175000</v>
       </c>
       <c r="U178" t="s">
-        <v>768</v>
+        <v>806</v>
       </c>
       <c r="AA178" t="s">
+        <v>813</v>
+      </c>
+      <c r="AB178" t="s">
         <v>814</v>
       </c>
-      <c r="AB178" t="s">
-        <v>815</v>
-      </c>
-      <c r="AD178" t="s">
-        <v>808</v>
-      </c>
       <c r="AF178" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
       <c r="AG178">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:33">
       <c r="A179">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B179" t="s">
+        <v>815</v>
+      </c>
+      <c r="C179" t="s">
+        <v>811</v>
+      </c>
+      <c r="H179" t="s">
         <v>816</v>
       </c>
-      <c r="C179" t="s">
-        <v>817</v>
-      </c>
-      <c r="H179" t="s">
-        <v>818</v>
-      </c>
       <c r="L179">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="N179">
         <v>500000</v>
@@ -10745,36 +10709,36 @@
         <v>175000</v>
       </c>
       <c r="U179" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AA179" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AB179" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AF179" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="AG179">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:33">
       <c r="A180">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B180" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C180" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="H180" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="L180">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="N180">
         <v>500000</v>
@@ -10789,36 +10753,39 @@
         <v>175000</v>
       </c>
       <c r="U180" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AA180" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AB180" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AF180" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="AG180">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:33">
       <c r="A181">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B181" t="s">
+        <v>823</v>
+      </c>
+      <c r="C181" t="s">
+        <v>763</v>
+      </c>
+      <c r="G181">
+        <v>15</v>
+      </c>
+      <c r="H181" t="s">
+        <v>824</v>
+      </c>
+      <c r="M181" t="s">
         <v>825</v>
-      </c>
-      <c r="C181" t="s">
-        <v>817</v>
-      </c>
-      <c r="H181" t="s">
-        <v>826</v>
-      </c>
-      <c r="L181">
-        <v>500000</v>
       </c>
       <c r="N181">
         <v>500000</v>
@@ -10833,71 +10800,68 @@
         <v>175000</v>
       </c>
       <c r="U181" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AA181" t="s">
+        <v>826</v>
+      </c>
+      <c r="AB181" t="s">
         <v>827</v>
-      </c>
-      <c r="AB181" t="s">
-        <v>828</v>
-      </c>
-      <c r="AF181" t="s">
-        <v>817</v>
-      </c>
-      <c r="AG181">
-        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:33">
       <c r="A182">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B182" t="s">
+        <v>828</v>
+      </c>
+      <c r="C182" t="s">
         <v>829</v>
       </c>
-      <c r="C182" t="s">
-        <v>769</v>
-      </c>
-      <c r="G182">
-        <v>15</v>
-      </c>
-      <c r="H182" t="s">
+      <c r="N182">
+        <v>1000</v>
+      </c>
+      <c r="O182">
+        <v>500</v>
+      </c>
+      <c r="P182">
+        <v>10000</v>
+      </c>
+      <c r="Q182">
+        <v>250</v>
+      </c>
+      <c r="T182">
+        <v>1</v>
+      </c>
+      <c r="W182" t="s">
         <v>830</v>
       </c>
-      <c r="M182" t="s">
+      <c r="X182">
+        <v>1</v>
+      </c>
+      <c r="AA182" t="s">
         <v>831</v>
       </c>
-      <c r="N182">
-        <v>500000</v>
-      </c>
-      <c r="O182">
-        <v>500000</v>
-      </c>
-      <c r="P182">
-        <v>2000000000</v>
-      </c>
-      <c r="Q182">
-        <v>175000</v>
-      </c>
-      <c r="U182" t="s">
-        <v>825</v>
-      </c>
-      <c r="AA182" t="s">
+      <c r="AB182" t="s">
         <v>832</v>
       </c>
-      <c r="AB182" t="s">
-        <v>833</v>
+      <c r="AE182">
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:33">
       <c r="A183">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B183" t="s">
+        <v>833</v>
+      </c>
+      <c r="C183" t="s">
+        <v>427</v>
+      </c>
+      <c r="H183" t="s">
         <v>834</v>
-      </c>
-      <c r="C183" t="s">
-        <v>835</v>
       </c>
       <c r="N183">
         <v>1000</v>
@@ -10911,20 +10875,20 @@
       <c r="Q183">
         <v>250</v>
       </c>
-      <c r="T183">
-        <v>1</v>
+      <c r="U183" t="s">
+        <v>828</v>
       </c>
       <c r="W183" t="s">
+        <v>830</v>
+      </c>
+      <c r="X183">
+        <v>2</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>835</v>
+      </c>
+      <c r="AB183" t="s">
         <v>836</v>
-      </c>
-      <c r="X183">
-        <v>1</v>
-      </c>
-      <c r="AA183" t="s">
-        <v>837</v>
-      </c>
-      <c r="AB183" t="s">
-        <v>838</v>
       </c>
       <c r="AE183">
         <v>8</v>
@@ -10932,16 +10896,16 @@
     </row>
     <row r="184" spans="1:33">
       <c r="A184">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B184" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C184" t="s">
-        <v>402</v>
+        <v>829</v>
       </c>
       <c r="H184" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="N184">
         <v>1000</v>
@@ -10956,19 +10920,19 @@
         <v>250</v>
       </c>
       <c r="U184" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="W184" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="X184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA184" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AB184" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AE184">
         <v>8</v>
@@ -10976,16 +10940,16 @@
     </row>
     <row r="185" spans="1:33">
       <c r="A185">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B185" t="s">
+        <v>841</v>
+      </c>
+      <c r="C185" t="s">
+        <v>842</v>
+      </c>
+      <c r="H185" t="s">
         <v>843</v>
-      </c>
-      <c r="C185" t="s">
-        <v>835</v>
-      </c>
-      <c r="H185" t="s">
-        <v>844</v>
       </c>
       <c r="N185">
         <v>1000</v>
@@ -11000,19 +10964,19 @@
         <v>250</v>
       </c>
       <c r="U185" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="W185" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="X185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA185" t="s">
+        <v>844</v>
+      </c>
+      <c r="AB185" t="s">
         <v>845</v>
-      </c>
-      <c r="AB185" t="s">
-        <v>846</v>
       </c>
       <c r="AE185">
         <v>8</v>
@@ -11020,16 +10984,16 @@
     </row>
     <row r="186" spans="1:33">
       <c r="A186">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B186" t="s">
+        <v>846</v>
+      </c>
+      <c r="C186" t="s">
+        <v>842</v>
+      </c>
+      <c r="H186" t="s">
         <v>847</v>
-      </c>
-      <c r="C186" t="s">
-        <v>848</v>
-      </c>
-      <c r="H186" t="s">
-        <v>849</v>
       </c>
       <c r="N186">
         <v>1000</v>
@@ -11044,36 +11008,27 @@
         <v>250</v>
       </c>
       <c r="U186" t="s">
-        <v>843</v>
-      </c>
-      <c r="W186" t="s">
-        <v>836</v>
-      </c>
-      <c r="X186">
-        <v>4</v>
+        <v>841</v>
+      </c>
+      <c r="V186" t="s">
+        <v>848</v>
       </c>
       <c r="AA186" t="s">
+        <v>849</v>
+      </c>
+      <c r="AB186" t="s">
         <v>850</v>
-      </c>
-      <c r="AB186" t="s">
-        <v>851</v>
-      </c>
-      <c r="AE186">
-        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:33">
       <c r="A187">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B187" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C187" t="s">
-        <v>848</v>
-      </c>
-      <c r="H187" t="s">
-        <v>853</v>
+        <v>427</v>
       </c>
       <c r="N187">
         <v>1000</v>
@@ -11088,30 +11043,51 @@
         <v>250</v>
       </c>
       <c r="U187" t="s">
-        <v>847</v>
-      </c>
-      <c r="V187" t="s">
-        <v>854</v>
+        <v>846</v>
+      </c>
+      <c r="W187" t="s">
+        <v>830</v>
+      </c>
+      <c r="X187">
+        <v>5</v>
       </c>
       <c r="AA187" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AB187" t="s">
-        <v>856</v>
+        <v>853</v>
+      </c>
+      <c r="AE187">
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:33">
       <c r="A188">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B188" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C188" t="s">
-        <v>402</v>
+        <v>855</v>
+      </c>
+      <c r="E188" t="s">
+        <v>851</v>
+      </c>
+      <c r="F188" t="s">
+        <v>828</v>
+      </c>
+      <c r="I188">
+        <v>100</v>
+      </c>
+      <c r="J188">
+        <v>100</v>
+      </c>
+      <c r="K188">
+        <v>1000</v>
       </c>
       <c r="N188">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O188">
         <v>500</v>
@@ -11123,39 +11099,36 @@
         <v>250</v>
       </c>
       <c r="U188" t="s">
-        <v>852</v>
-      </c>
-      <c r="W188" t="s">
-        <v>836</v>
-      </c>
-      <c r="X188">
-        <v>5</v>
+        <v>828</v>
       </c>
       <c r="AA188" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AB188" t="s">
-        <v>859</v>
+        <v>857</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>851</v>
       </c>
       <c r="AE188">
         <v>8</v>
       </c>
+      <c r="AF188" t="s">
+        <v>855</v>
+      </c>
+      <c r="AG188">
+        <v>5</v>
+      </c>
     </row>
     <row r="189" spans="1:33">
       <c r="A189">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B189" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C189" t="s">
-        <v>861</v>
-      </c>
-      <c r="E189" t="s">
-        <v>857</v>
-      </c>
-      <c r="F189" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
       <c r="I189">
         <v>100</v>
@@ -11167,7 +11140,7 @@
         <v>1000</v>
       </c>
       <c r="N189">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O189">
         <v>500</v>
@@ -11179,45 +11152,33 @@
         <v>250</v>
       </c>
       <c r="U189" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="AA189" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="AB189" t="s">
-        <v>863</v>
-      </c>
-      <c r="AD189" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="AE189">
         <v>8</v>
       </c>
       <c r="AF189" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="AG189">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:33">
       <c r="A190">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B190" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C190" t="s">
-        <v>861</v>
-      </c>
-      <c r="I190">
-        <v>100</v>
-      </c>
-      <c r="J190">
-        <v>100</v>
-      </c>
-      <c r="K190">
-        <v>1000</v>
+        <v>829</v>
       </c>
       <c r="N190">
         <v>1000</v>
@@ -11232,33 +11193,36 @@
         <v>250</v>
       </c>
       <c r="U190" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AA190" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="AB190" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="AE190">
         <v>8</v>
       </c>
       <c r="AF190" t="s">
-        <v>861</v>
+        <v>829</v>
       </c>
       <c r="AG190">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:33">
       <c r="A191">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B191" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C191" t="s">
-        <v>835</v>
+        <v>865</v>
+      </c>
+      <c r="K191">
+        <v>5000</v>
       </c>
       <c r="N191">
         <v>1000</v>
@@ -11273,19 +11237,19 @@
         <v>250</v>
       </c>
       <c r="U191" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="AA191" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AB191" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AE191">
         <v>8</v>
       </c>
       <c r="AF191" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="AG191">
         <v>5</v>
@@ -11293,81 +11257,78 @@
     </row>
     <row r="192" spans="1:33">
       <c r="A192">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B192" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C192" t="s">
-        <v>871</v>
+        <v>865</v>
+      </c>
+      <c r="I192">
+        <v>1000</v>
+      </c>
+      <c r="J192">
+        <v>1000</v>
       </c>
       <c r="K192">
         <v>5000</v>
       </c>
-      <c r="N192">
-        <v>1000</v>
-      </c>
-      <c r="O192">
-        <v>500</v>
-      </c>
-      <c r="P192">
-        <v>10000</v>
-      </c>
-      <c r="Q192">
-        <v>250</v>
-      </c>
       <c r="U192" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="AA192" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AB192" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AE192">
         <v>8</v>
       </c>
       <c r="AF192" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="AG192">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:33">
       <c r="A193">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B193" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C193" t="s">
-        <v>871</v>
-      </c>
-      <c r="I193">
+        <v>829</v>
+      </c>
+      <c r="N193">
         <v>1000</v>
       </c>
-      <c r="J193">
-        <v>1000</v>
-      </c>
-      <c r="K193">
-        <v>5000</v>
+      <c r="O193">
+        <v>500</v>
+      </c>
+      <c r="P193">
+        <v>10000</v>
+      </c>
+      <c r="Q193">
+        <v>250</v>
       </c>
       <c r="U193" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AA193" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="AB193" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AE193">
         <v>8</v>
       </c>
       <c r="AF193" t="s">
-        <v>871</v>
+        <v>829</v>
       </c>
       <c r="AG193">
         <v>10</v>
@@ -11375,13 +11336,19 @@
     </row>
     <row r="194" spans="1:33">
       <c r="A194">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B194" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C194" t="s">
-        <v>835</v>
+        <v>855</v>
+      </c>
+      <c r="E194" t="s">
+        <v>871</v>
+      </c>
+      <c r="F194" t="s">
+        <v>854</v>
       </c>
       <c r="N194">
         <v>1000</v>
@@ -11396,39 +11363,36 @@
         <v>250</v>
       </c>
       <c r="U194" t="s">
-        <v>874</v>
+        <v>828</v>
       </c>
       <c r="AA194" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="AB194" t="s">
-        <v>879</v>
+        <v>876</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>871</v>
       </c>
       <c r="AE194">
         <v>8</v>
       </c>
       <c r="AF194" t="s">
-        <v>835</v>
+        <v>855</v>
       </c>
       <c r="AG194">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:33">
       <c r="A195">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B195" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C195" t="s">
-        <v>861</v>
-      </c>
-      <c r="E195" t="s">
-        <v>877</v>
-      </c>
-      <c r="F195" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="N195">
         <v>1000</v>
@@ -11443,36 +11407,33 @@
         <v>250</v>
       </c>
       <c r="U195" t="s">
-        <v>834</v>
+        <v>874</v>
       </c>
       <c r="AA195" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="AB195" t="s">
-        <v>882</v>
-      </c>
-      <c r="AD195" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AE195">
         <v>8</v>
       </c>
       <c r="AF195" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="AG195">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:33">
       <c r="A196">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B196" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C196" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="N196">
         <v>1000</v>
@@ -11487,19 +11448,19 @@
         <v>250</v>
       </c>
       <c r="U196" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="AA196" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AB196" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="AE196">
         <v>8</v>
       </c>
       <c r="AF196" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="AG196">
         <v>10</v>
@@ -11507,13 +11468,13 @@
     </row>
     <row r="197" spans="1:33">
       <c r="A197">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B197" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C197" t="s">
-        <v>861</v>
+        <v>829</v>
       </c>
       <c r="N197">
         <v>1000</v>
@@ -11528,98 +11489,104 @@
         <v>250</v>
       </c>
       <c r="U197" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="AA197" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AB197" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="AE197">
         <v>8</v>
       </c>
       <c r="AF197" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="AG197">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:33">
       <c r="A198">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B198" t="s">
+        <v>886</v>
+      </c>
+      <c r="C198" t="s">
+        <v>887</v>
+      </c>
+      <c r="E198" t="s">
+        <v>883</v>
+      </c>
+      <c r="F198" t="s">
+        <v>874</v>
+      </c>
+      <c r="G198">
+        <v>20</v>
+      </c>
+      <c r="H198" t="s">
+        <v>418</v>
+      </c>
+      <c r="I198">
+        <v>550000</v>
+      </c>
+      <c r="J198">
+        <v>550000</v>
+      </c>
+      <c r="K198">
+        <v>150000000000</v>
+      </c>
+      <c r="L198">
+        <v>700000</v>
+      </c>
+      <c r="N198">
+        <v>500000</v>
+      </c>
+      <c r="O198">
+        <v>500000</v>
+      </c>
+      <c r="P198">
+        <v>2000000000</v>
+      </c>
+      <c r="Q198">
+        <v>175000</v>
+      </c>
+      <c r="U198" t="s">
+        <v>828</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>888</v>
+      </c>
+      <c r="AB198" t="s">
         <v>889</v>
       </c>
-      <c r="C198" t="s">
-        <v>835</v>
-      </c>
-      <c r="N198">
-        <v>1000</v>
-      </c>
-      <c r="O198">
-        <v>500</v>
-      </c>
-      <c r="P198">
-        <v>10000</v>
-      </c>
-      <c r="Q198">
-        <v>250</v>
-      </c>
-      <c r="U198" t="s">
-        <v>886</v>
-      </c>
-      <c r="AA198" t="s">
-        <v>890</v>
-      </c>
-      <c r="AB198" t="s">
-        <v>891</v>
+      <c r="AD198" t="s">
+        <v>883</v>
       </c>
       <c r="AE198">
         <v>8</v>
       </c>
       <c r="AF198" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="AG198">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:33">
       <c r="A199">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B199" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C199" t="s">
-        <v>893</v>
-      </c>
-      <c r="E199" t="s">
-        <v>889</v>
-      </c>
-      <c r="F199" t="s">
-        <v>880</v>
-      </c>
-      <c r="G199">
-        <v>20</v>
-      </c>
-      <c r="H199" t="s">
-        <v>392</v>
-      </c>
-      <c r="I199">
-        <v>550000</v>
-      </c>
-      <c r="J199">
-        <v>550000</v>
-      </c>
-      <c r="K199">
-        <v>150000000000</v>
+        <v>891</v>
       </c>
       <c r="L199">
-        <v>700000</v>
+        <v>150000</v>
       </c>
       <c r="N199">
         <v>500000</v>
@@ -11634,22 +11601,25 @@
         <v>175000</v>
       </c>
       <c r="U199" t="s">
-        <v>834</v>
+        <v>886</v>
+      </c>
+      <c r="W199" t="s">
+        <v>765</v>
+      </c>
+      <c r="X199">
+        <v>5</v>
       </c>
       <c r="AA199" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AB199" t="s">
-        <v>895</v>
-      </c>
-      <c r="AD199" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="AE199">
         <v>8</v>
       </c>
       <c r="AF199" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AG199">
         <v>5</v>
@@ -11657,16 +11627,13 @@
     </row>
     <row r="200" spans="1:33">
       <c r="A200">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B200" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C200" t="s">
-        <v>897</v>
-      </c>
-      <c r="L200">
-        <v>150000</v>
+        <v>891</v>
       </c>
       <c r="N200">
         <v>500000</v>
@@ -11681,39 +11648,33 @@
         <v>175000</v>
       </c>
       <c r="U200" t="s">
-        <v>892</v>
-      </c>
-      <c r="W200" t="s">
-        <v>771</v>
-      </c>
-      <c r="X200">
-        <v>5</v>
+        <v>890</v>
       </c>
       <c r="AA200" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AB200" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AE200">
         <v>8</v>
       </c>
       <c r="AF200" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="AG200">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:33">
       <c r="A201">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B201" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C201" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="N201">
         <v>500000</v>
@@ -11728,83 +11689,92 @@
         <v>175000</v>
       </c>
       <c r="U201" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AA201" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="AB201" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AE201">
         <v>8</v>
       </c>
       <c r="AF201" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="AG201">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:33">
       <c r="A202">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B202" t="s">
+        <v>900</v>
+      </c>
+      <c r="C202" t="s">
+        <v>887</v>
+      </c>
+      <c r="D202" t="s">
+        <v>901</v>
+      </c>
+      <c r="E202" t="s">
+        <v>883</v>
+      </c>
+      <c r="F202" t="s">
+        <v>874</v>
+      </c>
+      <c r="N202">
+        <v>50000</v>
+      </c>
+      <c r="O202">
+        <v>50000</v>
+      </c>
+      <c r="P202">
+        <v>150000000000</v>
+      </c>
+      <c r="Q202">
+        <v>750</v>
+      </c>
+      <c r="T202">
+        <v>1</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB202" t="s">
         <v>903</v>
       </c>
-      <c r="C202" t="s">
-        <v>897</v>
-      </c>
-      <c r="N202">
-        <v>500000</v>
-      </c>
-      <c r="O202">
-        <v>500000</v>
-      </c>
-      <c r="P202">
-        <v>2000000000</v>
-      </c>
-      <c r="Q202">
-        <v>175000</v>
-      </c>
-      <c r="U202" t="s">
-        <v>900</v>
-      </c>
-      <c r="AA202" t="s">
-        <v>904</v>
-      </c>
-      <c r="AB202" t="s">
-        <v>905</v>
+      <c r="AC202" t="s">
+        <v>901</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>883</v>
       </c>
       <c r="AE202">
         <v>8</v>
       </c>
       <c r="AF202" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="AG202">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:33">
       <c r="A203">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B203" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C203" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D203" t="s">
-        <v>907</v>
-      </c>
-      <c r="E203" t="s">
-        <v>889</v>
-      </c>
-      <c r="F203" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="N203">
         <v>50000</v>
@@ -11813,48 +11783,45 @@
         <v>50000</v>
       </c>
       <c r="P203">
-        <v>150000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q203">
         <v>750</v>
       </c>
-      <c r="T203">
-        <v>1</v>
+      <c r="U203" t="s">
+        <v>900</v>
       </c>
       <c r="AA203" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="AB203" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="AC203" t="s">
-        <v>907</v>
-      </c>
-      <c r="AD203" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="AE203">
         <v>8</v>
       </c>
       <c r="AF203" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AG203">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:33">
       <c r="A204">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B204" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C204" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="D204" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="N204">
         <v>50000</v>
@@ -11869,39 +11836,39 @@
         <v>750</v>
       </c>
       <c r="U204" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AA204" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="AB204" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="AC204" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="AE204">
         <v>8</v>
       </c>
       <c r="AF204" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="AG204">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:33">
       <c r="A205">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B205" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C205" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="D205" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="N205">
         <v>50000</v>
@@ -11916,39 +11883,39 @@
         <v>750</v>
       </c>
       <c r="U205" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="AA205" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="AB205" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="AC205" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="AE205">
         <v>8</v>
       </c>
       <c r="AF205" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="AG205">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:33">
       <c r="A206">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B206" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C206" t="s">
-        <v>893</v>
+        <v>842</v>
       </c>
       <c r="D206" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="N206">
         <v>50000</v>
@@ -11963,116 +11930,134 @@
         <v>750</v>
       </c>
       <c r="U206" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="AA206" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="AB206" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="AC206" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="AE206">
         <v>8</v>
       </c>
       <c r="AF206" t="s">
-        <v>893</v>
+        <v>842</v>
       </c>
       <c r="AG206">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:33">
       <c r="A207">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B207" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C207" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D207" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="N207">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O207">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P207">
         <v>1500000000</v>
       </c>
       <c r="Q207">
-        <v>750</v>
+        <v>75000</v>
       </c>
       <c r="U207" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AA207" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AB207" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="AC207" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="AE207">
         <v>8</v>
       </c>
       <c r="AF207" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="AG207">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:33">
       <c r="A208">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B208" t="s">
+        <v>919</v>
+      </c>
+      <c r="C208" t="s">
+        <v>829</v>
+      </c>
+      <c r="D208" t="s">
+        <v>901</v>
+      </c>
+      <c r="E208" t="s">
+        <v>823</v>
+      </c>
+      <c r="F208" t="s">
+        <v>806</v>
+      </c>
+      <c r="G208">
+        <v>25</v>
+      </c>
+      <c r="H208" t="s">
+        <v>920</v>
+      </c>
+      <c r="K208">
+        <v>2000000000</v>
+      </c>
+      <c r="N208">
+        <v>1000000</v>
+      </c>
+      <c r="O208">
+        <v>1000000</v>
+      </c>
+      <c r="P208">
+        <v>2000000000</v>
+      </c>
+      <c r="Q208">
+        <v>200000</v>
+      </c>
+      <c r="U208" t="s">
+        <v>900</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB208" t="s">
         <v>922</v>
       </c>
-      <c r="C208" t="s">
-        <v>848</v>
-      </c>
-      <c r="D208" t="s">
-        <v>907</v>
-      </c>
-      <c r="N208">
-        <v>500000</v>
-      </c>
-      <c r="O208">
-        <v>500000</v>
-      </c>
-      <c r="P208">
-        <v>1500000000</v>
-      </c>
-      <c r="Q208">
-        <v>75000</v>
-      </c>
-      <c r="U208" t="s">
-        <v>919</v>
-      </c>
-      <c r="AA208" t="s">
-        <v>923</v>
-      </c>
-      <c r="AB208" t="s">
-        <v>924</v>
-      </c>
       <c r="AC208" t="s">
-        <v>907</v>
+        <v>901</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>823</v>
       </c>
       <c r="AE208">
         <v>8</v>
       </c>
       <c r="AF208" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="AG208">
         <v>20</v>
@@ -12080,31 +12065,25 @@
     </row>
     <row r="209" spans="1:33">
       <c r="A209">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B209" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C209" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D209" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E209" t="s">
-        <v>829</v>
+        <v>916</v>
       </c>
       <c r="F209" t="s">
-        <v>812</v>
-      </c>
-      <c r="G209">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H209" t="s">
-        <v>926</v>
-      </c>
-      <c r="K209">
-        <v>2000000000</v>
+        <v>924</v>
       </c>
       <c r="N209">
         <v>1000000</v>
@@ -12119,51 +12098,45 @@
         <v>200000</v>
       </c>
       <c r="U209" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="AA209" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AB209" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AC209" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="AD209" t="s">
-        <v>829</v>
+        <v>916</v>
       </c>
       <c r="AE209">
         <v>8</v>
       </c>
       <c r="AF209" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="AG209">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:33">
       <c r="A210">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B210" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C210" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="D210" t="s">
-        <v>907</v>
-      </c>
-      <c r="E210" t="s">
-        <v>922</v>
-      </c>
-      <c r="F210" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="H210" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="N210">
         <v>1000000</v>
@@ -12175,48 +12148,57 @@
         <v>2000000000</v>
       </c>
       <c r="Q210">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="U210" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="AA210" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AB210" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AC210" t="s">
-        <v>907</v>
-      </c>
-      <c r="AD210" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="AE210">
         <v>8</v>
       </c>
       <c r="AF210" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="AG210">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:33">
       <c r="A211">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B211" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C211" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="D211" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="H211" t="s">
-        <v>934</v>
+        <v>932</v>
+      </c>
+      <c r="I211">
+        <v>20000</v>
+      </c>
+      <c r="J211">
+        <v>30000</v>
+      </c>
+      <c r="K211">
+        <v>150000000000</v>
+      </c>
+      <c r="L211">
+        <v>700000</v>
       </c>
       <c r="N211">
         <v>1000000</v>
@@ -12228,140 +12210,31 @@
         <v>2000000000</v>
       </c>
       <c r="Q211">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="U211" t="s">
-        <v>929</v>
+        <v>927</v>
+      </c>
+      <c r="Y211">
+        <v>3</v>
       </c>
       <c r="AA211" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AB211" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AC211" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="AE211">
         <v>8</v>
       </c>
       <c r="AF211" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="AG211">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:33">
-      <c r="A212">
-        <v>193</v>
-      </c>
-      <c r="B212" t="s">
-        <v>937</v>
-      </c>
-      <c r="C212" t="s">
-        <v>835</v>
-      </c>
-      <c r="D212" t="s">
-        <v>907</v>
-      </c>
-      <c r="H212" t="s">
-        <v>938</v>
-      </c>
-      <c r="I212">
-        <v>20000</v>
-      </c>
-      <c r="J212">
-        <v>30000</v>
-      </c>
-      <c r="K212">
-        <v>150000000000</v>
-      </c>
-      <c r="L212">
-        <v>700000</v>
-      </c>
-      <c r="N212">
-        <v>1000000</v>
-      </c>
-      <c r="O212">
-        <v>1000000</v>
-      </c>
-      <c r="P212">
-        <v>2000000000</v>
-      </c>
-      <c r="Q212">
-        <v>200000</v>
-      </c>
-      <c r="U212" t="s">
-        <v>933</v>
-      </c>
-      <c r="Y212">
-        <v>3</v>
-      </c>
-      <c r="AA212" t="s">
-        <v>939</v>
-      </c>
-      <c r="AB212" t="s">
-        <v>940</v>
-      </c>
-      <c r="AC212" t="s">
-        <v>907</v>
-      </c>
-      <c r="AE212">
-        <v>8</v>
-      </c>
-      <c r="AF212" t="s">
-        <v>835</v>
-      </c>
-      <c r="AG212">
         <v>25</v>
-      </c>
-    </row>
-    <row r="213" spans="1:33">
-      <c r="A213">
-        <v>206</v>
-      </c>
-      <c r="B213" t="s">
-        <v>941</v>
-      </c>
-      <c r="C213" t="s">
-        <v>68</v>
-      </c>
-      <c r="E213" t="s">
-        <v>396</v>
-      </c>
-      <c r="F213" t="s">
-        <v>553</v>
-      </c>
-      <c r="H213" t="s">
-        <v>942</v>
-      </c>
-      <c r="P213">
-        <v>2000000</v>
-      </c>
-      <c r="Q213">
-        <v>250</v>
-      </c>
-      <c r="T213">
-        <v>1</v>
-      </c>
-      <c r="Y213">
-        <v>5</v>
-      </c>
-      <c r="AA213" t="s">
-        <v>943</v>
-      </c>
-      <c r="AB213" t="s">
-        <v>944</v>
-      </c>
-      <c r="AD213" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF213" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG213">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -2408,7 +2408,7 @@
     <t>The running theme</t>
   </si>
   <si>
-    <t>Musty Childs Teddy bare</t>
+    <t>Musty Childs Teddy Bear</t>
   </si>
   <si>
     <t>It's been several days since you parted ways with the Lonely Red Hawk Soldier, initially perceived as a mere apparition of the man interred in this very grave, only to discover that he was indeed a deceased Red Hawk &lt;br /&gt; Soldier, slain by his own desire of flesh.&lt;br /&gt; &lt;br /&gt; Death casts its long shadow over this realm, as it does across all planes of existence. Briefly, you ponder whether death serves as the central motif of this reality, as your own life seems entwined with a recurring theme &lt;br /&gt; of death. Moving through the narratives of others, seeking answers, only to find yourself inundated with information that has thus far led you down a path fraught with more death and desolation.&lt;br /&gt; &lt;br /&gt; In the past few days, you've lingered near the grave, setting up camp not far away. The man who introduced himself as the Grave Digger tends to this solitary resting place, although a grieving brother would have been a &lt;br /&gt; more fitting moniker. Yet another individual, another entity unable to release their grip on loss.&lt;br /&gt; &lt;br /&gt; It seems yet another theme has revealed itself.</t>
@@ -8450,7 +8450,7 @@
         <v>595</v>
       </c>
       <c r="AE125">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:33">
@@ -8482,7 +8482,7 @@
         <v>599</v>
       </c>
       <c r="AE126">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:33">
@@ -8514,7 +8514,7 @@
         <v>603</v>
       </c>
       <c r="AE127">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:33">
@@ -8546,7 +8546,7 @@
         <v>606</v>
       </c>
       <c r="AE128">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:33">
@@ -8596,7 +8596,7 @@
         <v>608</v>
       </c>
       <c r="AE129">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:33">
@@ -8637,7 +8637,7 @@
         <v>615</v>
       </c>
       <c r="AE130">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:33">
@@ -8681,7 +8681,7 @@
         <v>604</v>
       </c>
       <c r="AE131">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:33">
@@ -8722,7 +8722,7 @@
         <v>623</v>
       </c>
       <c r="AE132">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:33">
@@ -8772,7 +8772,7 @@
         <v>627</v>
       </c>
       <c r="AE133">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:33">
@@ -8819,7 +8819,7 @@
         <v>613</v>
       </c>
       <c r="AE134">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:33">
@@ -8863,7 +8863,7 @@
         <v>637</v>
       </c>
       <c r="AE135">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:33">
@@ -8913,7 +8913,7 @@
         <v>643</v>
       </c>
       <c r="AE136">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:33">
@@ -8960,7 +8960,7 @@
         <v>647</v>
       </c>
       <c r="AE137">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:33">
@@ -9010,7 +9010,7 @@
         <v>650</v>
       </c>
       <c r="AE138">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:33">
@@ -9051,7 +9051,7 @@
         <v>658</v>
       </c>
       <c r="AE139">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:33">
@@ -9095,7 +9095,7 @@
         <v>663</v>
       </c>
       <c r="AE140">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:33">
@@ -9139,7 +9139,7 @@
         <v>668</v>
       </c>
       <c r="AE141">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:33">
@@ -9183,7 +9183,7 @@
         <v>672</v>
       </c>
       <c r="AE142">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:33">
@@ -9230,7 +9230,7 @@
         <v>669</v>
       </c>
       <c r="AE143">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:33">
@@ -9271,7 +9271,7 @@
         <v>679</v>
       </c>
       <c r="AE144">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:33">
@@ -9312,7 +9312,7 @@
         <v>682</v>
       </c>
       <c r="AE145">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:33">
@@ -9359,7 +9359,7 @@
         <v>644</v>
       </c>
       <c r="AE146">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:33">
@@ -9403,7 +9403,7 @@
         <v>689</v>
       </c>
       <c r="AE147">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:33">
@@ -9444,7 +9444,7 @@
         <v>692</v>
       </c>
       <c r="AE148">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:33">
@@ -9526,7 +9526,7 @@
         <v>680</v>
       </c>
       <c r="AE150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF150" t="s">
         <v>592</v>
@@ -9567,7 +9567,7 @@
         <v>700</v>
       </c>
       <c r="AE151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF151" t="s">
         <v>592</v>
@@ -9608,7 +9608,7 @@
         <v>703</v>
       </c>
       <c r="AE152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF152" t="s">
         <v>592</v>
@@ -9649,7 +9649,7 @@
         <v>706</v>
       </c>
       <c r="AE153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF153" t="s">
         <v>592</v>
@@ -9693,7 +9693,7 @@
         <v>710</v>
       </c>
       <c r="AE154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF154" t="s">
         <v>592</v>
@@ -9752,7 +9752,7 @@
         <v>664</v>
       </c>
       <c r="AE155">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:33">
@@ -9796,7 +9796,7 @@
         <v>718</v>
       </c>
       <c r="AE156">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:33">
@@ -9840,7 +9840,7 @@
         <v>723</v>
       </c>
       <c r="AE157">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:33">
@@ -9913,7 +9913,7 @@
         <v>731</v>
       </c>
       <c r="AE159">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:33">
@@ -9957,7 +9957,7 @@
         <v>735</v>
       </c>
       <c r="AE160">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:33">
@@ -9998,7 +9998,7 @@
         <v>732</v>
       </c>
       <c r="AE161">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:33">
@@ -10033,7 +10033,7 @@
         <v>742</v>
       </c>
       <c r="AE162">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:33">

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="943">
   <si>
     <t>id</t>
   </si>
@@ -2718,6 +2718,9 @@
   </si>
   <si>
     <t>Celestial Hunt</t>
+  </si>
+  <si>
+    <t>Key to The Abandonded Church</t>
   </si>
   <si>
     <t>Early one morning, as you approach the ruined chapel to meet the prophet, he greets you with news delivered by carrier pigeon.&lt;br /&gt; &lt;br /&gt; "They inquired about your progress," he reveals. "Whether they should dispatch the guard. I responded by informing them that I have sent you to the Judges."&lt;br /&gt; &lt;br /&gt; You express frustration, recounting the Bishop and the clergy's dismissal of your credibility, branding you a heretic.&lt;br /&gt; &lt;br /&gt; "They hurl insults, they cast their stones. Yet God speaks to me, and the Arch Bishop, he discerns the truth. Despite murmurs of doubt, I perceive the state of his soul. It has undergone judgment," he declares, settling on &lt;br /&gt; the chapel steps.&lt;br /&gt; &lt;br /&gt; Seizing the opportunity, you inquire about the whereabouts of the judges and how to reach them, how to engage in this confrontation.&lt;br /&gt; &lt;br /&gt; "First, child, you must survive," he cryptically replies.&lt;br /&gt; &lt;br /&gt; Survive? Survive what?</t>
@@ -10909,7 +10912,7 @@
         <v>835</v>
       </c>
       <c r="AE183">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:33">
@@ -10953,7 +10956,7 @@
         <v>839</v>
       </c>
       <c r="AE184">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:33">
@@ -10997,7 +11000,7 @@
         <v>843</v>
       </c>
       <c r="AE185">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:33">
@@ -11041,7 +11044,7 @@
         <v>848</v>
       </c>
       <c r="AE186">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:33">
@@ -11120,7 +11123,7 @@
         <v>856</v>
       </c>
       <c r="AE188">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:33">
@@ -11173,7 +11176,7 @@
         <v>854</v>
       </c>
       <c r="AE189">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF189" t="s">
         <v>858</v>
@@ -11223,7 +11226,7 @@
         <v>863</v>
       </c>
       <c r="AE190">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF190" t="s">
         <v>858</v>
@@ -11264,7 +11267,7 @@
         <v>866</v>
       </c>
       <c r="AE191">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF191" t="s">
         <v>832</v>
@@ -11308,7 +11311,7 @@
         <v>870</v>
       </c>
       <c r="AE192">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF192" t="s">
         <v>868</v>
@@ -11346,7 +11349,7 @@
         <v>873</v>
       </c>
       <c r="AE193">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF193" t="s">
         <v>868</v>
@@ -11387,7 +11390,7 @@
         <v>876</v>
       </c>
       <c r="AE194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF194" t="s">
         <v>832</v>
@@ -11437,7 +11440,7 @@
         <v>874</v>
       </c>
       <c r="AE195">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF195" t="s">
         <v>858</v>
@@ -11478,7 +11481,7 @@
         <v>882</v>
       </c>
       <c r="AE196">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF196" t="s">
         <v>845</v>
@@ -11519,7 +11522,7 @@
         <v>885</v>
       </c>
       <c r="AE197">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF197" t="s">
         <v>858</v>
@@ -11560,7 +11563,7 @@
         <v>888</v>
       </c>
       <c r="AE198">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF198" t="s">
         <v>858</v>
@@ -11628,7 +11631,7 @@
         <v>886</v>
       </c>
       <c r="AE199">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF199" t="s">
         <v>890</v>
@@ -11678,7 +11681,7 @@
         <v>896</v>
       </c>
       <c r="AE200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF200" t="s">
         <v>894</v>
@@ -11719,7 +11722,7 @@
         <v>899</v>
       </c>
       <c r="AE201">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF201" t="s">
         <v>894</v>
@@ -11738,6 +11741,9 @@
       <c r="C202" t="s">
         <v>894</v>
       </c>
+      <c r="M202" t="s">
+        <v>901</v>
+      </c>
       <c r="N202">
         <v>500000</v>
       </c>
@@ -11754,13 +11760,13 @@
         <v>897</v>
       </c>
       <c r="AA202" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AB202" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AE202">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF202" t="s">
         <v>894</v>
@@ -11774,13 +11780,13 @@
         <v>184</v>
       </c>
       <c r="B203" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C203" t="s">
         <v>890</v>
       </c>
       <c r="D203" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E203" t="s">
         <v>886</v>
@@ -11804,19 +11810,19 @@
         <v>1</v>
       </c>
       <c r="AA203" t="s">
+        <v>906</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>907</v>
+      </c>
+      <c r="AC203" t="s">
         <v>905</v>
-      </c>
-      <c r="AB203" t="s">
-        <v>906</v>
-      </c>
-      <c r="AC203" t="s">
-        <v>904</v>
       </c>
       <c r="AD203" t="s">
         <v>886</v>
       </c>
       <c r="AE203">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF203" t="s">
         <v>890</v>
@@ -11830,13 +11836,13 @@
         <v>185</v>
       </c>
       <c r="B204" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C204" t="s">
         <v>894</v>
       </c>
       <c r="D204" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N204">
         <v>50000</v>
@@ -11851,19 +11857,19 @@
         <v>750</v>
       </c>
       <c r="U204" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AA204" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AB204" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AC204" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AE204">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF204" t="s">
         <v>894</v>
@@ -11877,13 +11883,13 @@
         <v>186</v>
       </c>
       <c r="B205" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C205" t="s">
         <v>890</v>
       </c>
       <c r="D205" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N205">
         <v>50000</v>
@@ -11898,19 +11904,19 @@
         <v>750</v>
       </c>
       <c r="U205" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AA205" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AB205" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AC205" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AE205">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF205" t="s">
         <v>890</v>
@@ -11924,13 +11930,13 @@
         <v>187</v>
       </c>
       <c r="B206" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C206" t="s">
         <v>890</v>
       </c>
       <c r="D206" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N206">
         <v>50000</v>
@@ -11945,19 +11951,19 @@
         <v>750</v>
       </c>
       <c r="U206" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AA206" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AB206" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AC206" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AE206">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF206" t="s">
         <v>890</v>
@@ -11971,13 +11977,13 @@
         <v>188</v>
       </c>
       <c r="B207" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C207" t="s">
         <v>845</v>
       </c>
       <c r="D207" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N207">
         <v>50000</v>
@@ -11992,19 +11998,19 @@
         <v>750</v>
       </c>
       <c r="U207" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AA207" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AB207" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AC207" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AE207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF207" t="s">
         <v>845</v>
@@ -12018,13 +12024,13 @@
         <v>189</v>
       </c>
       <c r="B208" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C208" t="s">
         <v>845</v>
       </c>
       <c r="D208" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N208">
         <v>500000</v>
@@ -12039,19 +12045,19 @@
         <v>75000</v>
       </c>
       <c r="U208" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AA208" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AB208" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AC208" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AE208">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF208" t="s">
         <v>845</v>
@@ -12065,13 +12071,13 @@
         <v>190</v>
       </c>
       <c r="B209" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C209" t="s">
         <v>832</v>
       </c>
       <c r="D209" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E209" t="s">
         <v>804</v>
@@ -12083,7 +12089,7 @@
         <v>25</v>
       </c>
       <c r="H209" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="K209">
         <v>2000000000</v>
@@ -12101,22 +12107,22 @@
         <v>200000</v>
       </c>
       <c r="U209" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AA209" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AB209" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AC209" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AD209" t="s">
         <v>804</v>
       </c>
       <c r="AE209">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF209" t="s">
         <v>832</v>
@@ -12130,22 +12136,22 @@
         <v>191</v>
       </c>
       <c r="B210" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C210" t="s">
         <v>832</v>
       </c>
       <c r="D210" t="s">
+        <v>905</v>
+      </c>
+      <c r="E210" t="s">
+        <v>920</v>
+      </c>
+      <c r="F210" t="s">
         <v>904</v>
       </c>
-      <c r="E210" t="s">
-        <v>919</v>
-      </c>
-      <c r="F210" t="s">
-        <v>903</v>
-      </c>
       <c r="H210" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="N210">
         <v>1000000</v>
@@ -12160,22 +12166,22 @@
         <v>200000</v>
       </c>
       <c r="U210" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AA210" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AB210" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AC210" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AD210" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AE210">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF210" t="s">
         <v>832</v>
@@ -12189,16 +12195,16 @@
         <v>192</v>
       </c>
       <c r="B211" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C211" t="s">
         <v>845</v>
       </c>
       <c r="D211" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H211" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N211">
         <v>1000000</v>
@@ -12213,19 +12219,19 @@
         <v>2000000</v>
       </c>
       <c r="U211" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AA211" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AB211" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="AC211" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AE211">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF211" t="s">
         <v>845</v>
@@ -12239,16 +12245,16 @@
         <v>193</v>
       </c>
       <c r="B212" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C212" t="s">
         <v>832</v>
       </c>
       <c r="D212" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H212" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I212">
         <v>20000</v>
@@ -12275,22 +12281,22 @@
         <v>200000</v>
       </c>
       <c r="U212" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="Y212">
         <v>3</v>
       </c>
       <c r="AA212" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AB212" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AC212" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AE212">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF212" t="s">
         <v>832</v>
@@ -12304,7 +12310,7 @@
         <v>206</v>
       </c>
       <c r="B213" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C213" t="s">
         <v>68</v>
@@ -12316,7 +12322,7 @@
         <v>528</v>
       </c>
       <c r="H213" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="P213">
         <v>2000000</v>
@@ -12331,10 +12337,10 @@
         <v>5</v>
       </c>
       <c r="AA213" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AB213" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AD213" t="s">
         <v>402</v>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="972">
   <si>
     <t>id</t>
   </si>
@@ -1949,6 +1949,36 @@
     <t>You gathered the last of the items that symbolise the memories of the past—more his memories than hers, it seems.&lt;br /&gt; &lt;br /&gt; “A mother always keeps the memories of her child.” Mr. Whiskers declares.&lt;br /&gt; &lt;br /&gt; You ask him what he died of.&lt;br /&gt; &lt;br /&gt; “Pancreatic cancer. I was 12, I was old, and I was in pain. He did the right thing. The sickness that ravaged the world made it hard for us to say goodbye, but one day I will find my way back to him.”&lt;br /&gt; &lt;br /&gt; Can he not see you?&lt;br /&gt; &lt;br /&gt; “No. I am only here for you. Not for him.”&lt;br /&gt; &lt;br /&gt; Mr. Whiskers walks over to a lump of snow and scratches away at it to uncover a diary.&lt;br /&gt; &lt;br /&gt; “Take this to The Poet. He will know what to do. It’s time we waged a war.”&lt;br /&gt; &lt;br /&gt; A war?</t>
   </si>
   <si>
+    <t>Squeeky Beast</t>
+  </si>
+  <si>
+    <t>Mrs.Piper</t>
+  </si>
+  <si>
+    <t>The doors to The Old Church</t>
+  </si>
+  <si>
+    <t>Wet Cat Food</t>
+  </si>
+  <si>
+    <t>You stand alone in the snow-filled night, watching as the flakes fall around you.&lt;br /&gt; &lt;br /&gt; The shadows cast by bits of moonlight dance across the land and swirl in your mind. The wind howls around you, carrying with it the echoes of wails—wails of pain, memories from another time and place.&lt;br /&gt; &lt;br /&gt; The wind quiets, and the sky begins to clear. The stars become visible, and the snow tapers off in the stillness of the night.&lt;br /&gt; &lt;br /&gt; “Hello there,” comes a small voice—a feminine, squeaky voice.&lt;br /&gt; &lt;br /&gt; You look down and see a black shape. For a moment, you think it’s Mr. Whiskers, but the shape becomes clearer in the moonlight.&lt;br /&gt; &lt;br /&gt; A slender, black form—a smaller shape. A straight, narrow tail. Everything about this figure is petite.&lt;br /&gt; &lt;br /&gt; The shape squeaks, a soft meow laced with the sound of a purr.&lt;br /&gt; &lt;br /&gt; You ask the shape who it is and what it wants.&lt;br /&gt; &lt;br /&gt; “Rude child. I am a friend—though, alas, I am becoming less of one. I am growing a disdain in my mouth, human. Sheesh. You got any wet food for me?”</t>
+  </si>
+  <si>
+    <t>You search and search for a can and manage to find one—an old, solitary can. It’s still sealed, unopened, and unaffected by the elements where you discovered it.&lt;br /&gt; &lt;br /&gt; You return to the spot where you found the slender black cat, but the cat is no longer there. However, you see tracks leading off to an unknown destination.&lt;br /&gt; &lt;br /&gt; You arrive at an old port town. The people are frozen in place, unmoving, yet their eyes follow you. You trace the tracks past the silent figures, into an old, dilapidated building where a small fire crackles in a broken fireplace.&lt;br /&gt; &lt;br /&gt; You see the black shape sitting by the fire, staring into the small flames.&lt;br /&gt; &lt;br /&gt; The shape turns toward you.&lt;br /&gt; &lt;br /&gt; “Ahh, food. I’ll take that now, please.”&lt;br /&gt; &lt;br /&gt; You open the can and place it down for her. She begins to eat. A silence falls over the two of you as the small warmth of the flames starts to seep into you.</t>
+  </si>
+  <si>
+    <t>Cats and Christmas Trees</t>
+  </si>
+  <si>
+    <t>Tree Skirt</t>
+  </si>
+  <si>
+    <t>As she finishes her food, she begins to clean her back leg, stretching it out, exposing her claws, and licking her fur. You try to ask her a question. She pauses, looks at you, meows, and then continues grooming herself. After a moment, she jumps down from the small ledge she was perched on and walks over to a dead tree. Old strings of lights hang from it, broken decorations dangle, and a star sits crookedly on top.&lt;br /&gt; &lt;br /&gt; “He liked setting up a tree every year. I liked to sleep under it. You see, most cats want to jump up into the tree, and soon it comes crashing down. People laugh, people get mad, people put up barriers. Not him. He let me sleep under it. I would watch the twinkling lights and fall asleep to the safety it provided.”&lt;br /&gt; &lt;br /&gt; You stare at the dead tree, wondering for a moment. Is she... is she like Mr. Whiskers? Dead, haunting this place, unable to let go? Maybe a guide of some sort? You ask her, and she looks back at you before walking toward you.&lt;br /&gt; &lt;br /&gt; “I am not dead, still very much alive, very old and squeaky, as he would say.” She rubs against your leg, and you reach down to stroke her back. She arches into your touch and then walks back to the tree.&lt;br /&gt; &lt;br /&gt; “I need something, a skirt. They used to put it under the tree. I don’t know why—maybe to catch the needles that would fall. Alas, this tree doesn’t have many needles left. I wonder if there is someone else who would have the skirt. Someone with a past.”&lt;br /&gt; &lt;br /&gt; She continues to stare at the tree.</t>
+  </si>
+  <si>
+    <t>With the skirt, ratty and old, you place it below the tree, she guides you by telling you have to wrap it around the tree. You do so, it smells, its old. But she doesn’t care. She curls up under the tree.&lt;br /&gt; &lt;br /&gt; After a moment she looks up at you.&lt;br /&gt; &lt;br /&gt; “You know, you remind me of him. I like that. I like to lay beside him and watch what hes doing. Every now and then I get the kisses, the pets and snuggles. I miss those days. I miss my human.”&lt;br /&gt; &lt;br /&gt; You ask her if she knows what became of him, of what Mr. Whiskers stated.&lt;br /&gt; &lt;br /&gt; “Dead, yes I know that. He left me, he left me alone. The world grew colder, lonelier and I became lost. Lost like I was when Mr. Whiskers, my best friend, my soul mate, my true companion had also died. I became abandoned in heart and in soul. I miss them both dearly.”&lt;br /&gt; &lt;br /&gt; She refuses to speak after that. You wonder if there is something else that would make her speak. Maybe you need to speak to others, but who else could you speak to?</t>
+  </si>
+  <si>
     <t>The Whisper</t>
   </si>
   <si>
@@ -2066,6 +2096,24 @@
     <t>“Child, I have been looking for you." The Poet turns and looks at you. Standing in the market at Smugglers Port, the two of you stare at each other for a moment.&lt;br /&gt; &lt;br /&gt; “I know what you are here for. That damn cat can never keep his mouth shut.”&lt;br /&gt; &lt;br /&gt; He starts to walk down the busy road, through the people. The smells of the market, the warmth of the sun. It slowly removes the chill of frozen wasteland from your bones.&lt;br /&gt; &lt;br /&gt; You walk through the people, and The Poet speaks. His words work their way through the voices of the crowd, becoming crystal clear and ever-present.&lt;br /&gt; &lt;br /&gt; “We—The Soldier, The Merchant, as well as others you have interacted with—are constructs of a magical design created by The Father and The Mother many aeons before. We walk this plane, this reality, in the form you see us in: people, gods, spirits. We are more than that. We are beyond the magic of this existence and all its realities. But we are not immune to the corruption that those who do not ascend can cause. We work powerful magics to lock it away, to bury it beneath the feet of men, women, and children. We exist among them to safeguard the keys.”&lt;br /&gt; &lt;br /&gt; He stops at a stall that sells fresh fruit and purchases some of the fruit. He asks if you want any, and you take the apple. He pays the coin, and you continue on with your apple.&lt;br /&gt; &lt;br /&gt; He steps off the beaten path to a small park where the children play and the parents sit on benches and the grass, enjoying the food of the market stalls.&lt;br /&gt; &lt;br /&gt; He sits on a bench, and you sit beside him, watching the park and its people.&lt;br /&gt; &lt;br /&gt; “The Child, The Creator—has morphed from a helpless, broken child into a corrupted cosmic entity we cannot contain. I need your help. Seek the answers in The Church. Seek the cat and his words. Seek the hope we need to end this corruption.”</t>
   </si>
   <si>
+    <t>The Poet's magic comes alive</t>
+  </si>
+  <si>
+    <t>TheEnchantedSnowman</t>
+  </si>
+  <si>
+    <t>Isabella’s earrings</t>
+  </si>
+  <si>
+    <t>Leather watch</t>
+  </si>
+  <si>
+    <t>You approach an old lot with a fence made of metal, linked like chains. You’ve never seen anything like it before. You pass through a large opening that looks like an entrance, one that could be closed.&lt;br /&gt; &lt;br /&gt; You walk down a path covered in blown snow with a hard surface beneath it. You kick some of the snow aside and see what appears to be a smooth stone covering part of the ground, eventually giving way to a broken surface riddled with holes and bits of smaller stone. It’s unfamiliar to you.&lt;br /&gt; &lt;br /&gt; Around you, you see dead trees, almost as if they were cut down and placed there, bound with some kind of thin rope. That’s when you hear a voice.&lt;br /&gt; &lt;br /&gt; “People used to buy these.” You look around and see no one. There are a few sculptures scattered about, covered in snow. They remind you of the snowman The Poet tried to create before the magic dissipated, causing it to melt away.&lt;br /&gt; &lt;br /&gt; A few of these “snowmen” stand silently as you turn your attention back to the dead trees, some of which have fallen over, while others lean against each other.&lt;br /&gt; &lt;br /&gt; “You seem lost, child,” comes the voice again. This time, as you look around, you see one of the “snowmen” lifting its top hat and bowing. You cautiously approach.&lt;br /&gt; &lt;br /&gt; Who are you, you begin to ask.&lt;br /&gt; &lt;br /&gt; “I am the Enchanted Snowman,” it speaks after a moment. It has black eyes made of some kind of rock, a tattered old top hat, and stick arms. A carrot protrudes from its face, and its smile is formed from the same black stones as its eyes. Yet, it is alive. How is it alive?&lt;br /&gt; &lt;br /&gt; “I can sense your confusion, child. Do you remember the magic The Poet conjured? The snowman that melted away? The confusion in his eyes? The key he searched for?” You nod.&lt;br /&gt; &lt;br /&gt; “He took something from me. I need it back. Alas, I am not sure where it is.”&lt;br /&gt; &lt;br /&gt; You ask what it is.&lt;br /&gt; &lt;br /&gt; “A watch. A watch that The Father once had.”&lt;br /&gt; &lt;br /&gt; What could a snowman want with a watch?</t>
+  </si>
+  <si>
+    <t>You managed to retrieve an old leather bound watch from The Poet. You brought it back to the place where you met this enchanted snow man. It’s just a lifeless snowman, it doesn’t move, it doesn’t speak, it doesn’t even look at you.&lt;br /&gt; You place the watch upon the snowman’s twig arm and all of a sudden he comes to life. A breath of air enters him and he shakes off the newly fallen snow.&lt;br /&gt; &lt;br /&gt; “Thank you child. I have been wandering where my watch went.”&lt;br /&gt; &lt;br /&gt; You step back, with a gasp on the tip of your tongue.&lt;br /&gt; &lt;br /&gt; “I was wondering if I would ever get it back, but alas The Poets excitement about some enchanted snowman and how his spell worked, was too much for me to pass up. You see child, I am stuck in this form. But the magic of this watch will free me eventually and you will have to face my true self.”&lt;br /&gt; &lt;br /&gt; You stand back, ready to whip of the magics of your own and take him down. You cast every magical spell, let your own body radiate with the magic of your gear and hurl what you have at him. There is an evil in his soul that radiates and blocks your own magic. He laughs.&lt;br /&gt; &lt;br /&gt; “Child, you are silly and will find that we need each other more then ever, especially if you are to undo The Shattering and restore this world to its former self.”&lt;br /&gt; &lt;br /&gt; You stop in your tracks. You know of The Shattering, the way The Poet, The Wandering Merchant and a mysterious prince, one of an emerald world sealed away the memories, delusional and twisted when The Child escaped his prison in Purgatory. You know the story, it fills your heart with dread and fear.&lt;br /&gt; &lt;br /&gt; You turn and run, run from this place, through the snow with the laughter of a banshee playing on the wind.</t>
+  </si>
+  <si>
     <t>Broken Road</t>
   </si>
   <si>
@@ -2138,9 +2186,6 @@
     <t>The cat looks at you.&lt;br /&gt; &lt;br /&gt; “The church holds the path to The Emerald Dream, a place where The Emerald Prince lives. He is a man who is said to be a manifestation of magic, The Creator of all magic. He is the man who holds the bounds of reality and their planes in a stable position in the fabric of time and space.”&lt;br /&gt; &lt;br /&gt; A man who is the father of magic. A man who holds the strings of realities in place, to stop them from drifting into the endless void. Trapping the residents in a desolate waste land of despair. You have heard these stories once before, long before—when you were a child. A man made of emeralds, a wizard in another dimension.&lt;br /&gt; &lt;br /&gt; You used to pretend to be him. It was a fable, a story. But what isn't these days?</t>
   </si>
   <si>
-    <t>The doors to The Old Church</t>
-  </si>
-  <si>
     <t>Christmas Tree Light Bulb</t>
   </si>
   <si>
@@ -2148,6 +2193,48 @@
   </si>
   <si>
     <t>You arrive back at the small camp, and the cat rises and stretches.&lt;br /&gt; &lt;br /&gt; “Into the church you go. The magic of the barrier has been lifted, and you might need this to enter it.”&lt;br /&gt; &lt;br /&gt; He produces a Christmas tree light bulb.&lt;br /&gt; &lt;br /&gt; “Holding this will allow you to enter the building. Without it, you would be torn apart by the shadows of the past. The ones you saw dancing earlier.”&lt;br /&gt; &lt;br /&gt; You walk through the church doors and into the main area. It is dark and silent. The stories of The Emerald Prince must be here...</t>
+  </si>
+  <si>
+    <t>Christmas Presents</t>
+  </si>
+  <si>
+    <t>Dusty old presents</t>
+  </si>
+  <si>
+    <t>You spot him immediately, standing on the port, looking out over the frozen ocean as the sun slowly rises over the horizon. The glow of the sun begins to warm the world around it, but not enough to push back the bite of the chill.&lt;br /&gt; &lt;br /&gt; His familiar fedora, his slender frame wrapped in a fur cloak, and his youthful appearance—different from the old, haggard form you are used to.&lt;br /&gt; &lt;br /&gt; “Child,” he says, without turning to face you. “I know this land is foreign and unfamiliar. The people are trapped, frozen in their own pain and suffering. It’s baffling to me how a child could create such hatred, such frozen memories of another time, and yet be so cavalier towards their pain, the pain he caused.”&lt;br /&gt; &lt;br /&gt; You both stand in silence, facing each other as the wind picks up slightly, causing his cloak to billow in the cold, icy grip of the wind.&lt;br /&gt; &lt;br /&gt; After a moment, he turns from you, staring out over the frozen ocean, and asks, “What is it you seek, child?”&lt;br /&gt; &lt;br /&gt; You tell him of the Enchanted Snowman who spoke of a watch. The Poet ponders this for a while before speaking.&lt;br /&gt; &lt;br /&gt; “I believe I have heard of a watch lost in the crash. Alas, there was something else lost in the crash, something I search for: presents. Old and dusty now, but they were the last vestiges of that night, the last things the parents bought for their child in those cold winter months.”&lt;br /&gt; &lt;br /&gt; You ask where they might be found, hoping an exchange can be made.&lt;br /&gt; &lt;br /&gt; “The wreck. Search the wreck.”</t>
+  </si>
+  <si>
+    <t>You searched the wreck and found wrapped presents—presents covered in snow and blood, with ripped wrapping paper. The paper has faded, with old designs of trees and snowmen. You wonder what’s inside them and why The Poet wants them. They are a fragment of the past, a small piece of The Child’s, now known as The Creator, past.&lt;br /&gt; &lt;br /&gt; What use could they possibly be to The Poet, you wonder, as you travel through the snow, through the cold, through the afternoon, into the night. You know The Poet has returned to his house, and so you make your journey across plane, time, and space to find him.&lt;br /&gt; &lt;br /&gt; A few days pass, and you arrive back at the house, familiar yet becoming more and more dilapidated. Inside, in the reading room, you find an old man, coughing and barely able to catch his breath. He looks older, more frail now, but still the same old Poet you’ve come to know over your many travels.&lt;br /&gt; &lt;br /&gt; You sit across from him in the old room, dust-covered and neglected.&lt;br /&gt; &lt;br /&gt; “You have them?” he asks, between coughs and wheezes.&lt;br /&gt; &lt;br /&gt; You nod and hand them over—old, forgotten gifts.&lt;br /&gt; &lt;br /&gt; “I see,” he says. “These hold the memories of another time. A time when The Child was alive and his parents bought them out of love. Christmas, you see, in his time, in his world, in his memories, was a time to be celebrated, to be with family.”&lt;br /&gt; &lt;br /&gt; He pauses and sips from a chipped teacup on a small side table beside him.&lt;br /&gt; &lt;br /&gt; “I remember Isabella, his mother, talking about the gifts she bought for her son—some kind of gadget and a necklace. She was proud of her choices, excited for him to open them on Christmas morning. Alas, he never made it that far. He never saw Christmas. He took his own life a month before. His own pain was too much to bear.”&lt;br /&gt; &lt;br /&gt; You ask him what the gifts mean to him, why he wanted them.&lt;br /&gt; &lt;br /&gt; “They are a piece of putting this shattered world back together. These are pieces of the past, pieces to the Ascension.”&lt;br /&gt; &lt;br /&gt; You remember The Ascension—how The Child never managed to complete it, how he rejected letting go and moving forward, how he was imprisoned, how he escaped and caused the world to shatter into multiple planes of existence as you know them now.&lt;br /&gt; &lt;br /&gt; You and The Poet sit in silence for a long while, each reflecting not just on your own journeys but also on the past—and what it could mean for the future: a world put back together.</t>
+  </si>
+  <si>
+    <t>My Memories</t>
+  </si>
+  <si>
+    <t>Bloody Journal</t>
+  </si>
+  <si>
+    <t>After what feels like forever, The Poet asks you, in a hushed and whispered tone: “I have found what you are searching for. The fact that my original spell worked, and there is a living, breathing snowman, delights me. I have been thinking ever since about that spell, and how it got us one thing but failed to give us another. I am elated to know that there is a being out there who the magic of my spell courses through.”&lt;br /&gt; &lt;br /&gt; He pauses to take a sip of his tea, his coughing fit returning. He puts a handkerchief to his mouth, only to pull it away, stained with blood.&lt;br /&gt; &lt;br /&gt; You ask if he is okay, but he shakes his head. “I am dying, child. Age is coming for me, and the sealing spell I did a while ago with The Wandering Merchant and The Wondering Prince—to seal away the planes of existence that have shattered due to The Child escaping purgatory—has finally caught up with me. Soon I shall be dead. Alas, there is something I want: a memento of this world, a memento of another time, when I was younger and more able to guide The Child, even though I failed. A journal of sorts.”&lt;br /&gt; &lt;br /&gt; You ask, perhaps a little selfishly, if he will give you the watch for it.&lt;br /&gt; &lt;br /&gt; He nods. “I will, child. It is of importance to you, and my excitement about the snowman, a living, breathing construct of my magic, fills me with joy. I will give you this watch for that journal. It is the last vestige of what was, what could have been.”&lt;br /&gt; &lt;br /&gt; You agree to get the journal, but he raises his hand, signaling a warning. “It lies with a man—a man who detests his brother, a man who loves his brother, a man haunted by the past. You will have to help him through his own pain before you can get the journal I seek.”&lt;br /&gt; &lt;br /&gt; You stand and leave the house, wishing The Poet well and a speedy recovery from his sickness, even though the two of you know that death is only around the corner.</t>
+  </si>
+  <si>
+    <t>You arrive back with the journal, the very one you read. You know full well what happened. The Poet found The Child—bloody and confused—and tried to guide him, but The Child would not listen. The Child went out into the world, trying to find his own way, becoming caught up in the war between The Rad Hawk Soldiers and The Federation, who was controlled by The Church, a corrupt organization with the singular purpose of spreading the word of the one true god: God.&lt;br /&gt; &lt;br /&gt; Brutality, religion, love affairs, betrayal—it’s all listed in the journal. But how The Child was locked away in Purgatory is not. Through all your travels, it’s only said that The Poet locked The Child in Purgatory after he failed to ascend.&lt;br /&gt; &lt;br /&gt; But how?&lt;br /&gt; &lt;br /&gt; As these and many other questions swirl in your mind, you enter the house—colder, darker, and more worn than before.&lt;br /&gt; &lt;br /&gt; You travel through the silent, empty, dust-covered rooms until you head up the stairs and down the long hallway to a bedroom where he lies in a large bed.&lt;br /&gt; &lt;br /&gt; “Ah, child, you have come. Do you have it? Do you have the book?”&lt;br /&gt; &lt;br /&gt; You tell him you do, as you sit on the side of the bed. You hand him the book, and he flips through the pages, holding it close. As you look around, the room is dark, musty, and the dust is thick across many surfaces. The Poet seems more fragile, more weak.&lt;br /&gt; &lt;br /&gt; “My time is coming quicker and quicker, child. Alas, your place is not here on the surface. You know what this book holds, and as promised, I have the watch for you, there on the table.” The watch sits on the nightstand close to you.&lt;br /&gt; &lt;br /&gt; You pick up the watch, feeling its weight in your hand—heavy but soft. You wonder what The Enchanted Snowman wants with this.&lt;br /&gt; &lt;br /&gt; “Go, child. My time is nearly up, and there is little left for me in this world. This book is the last of my memories, and while I know you have many questions, you won’t get them from this old mind. My memory is not what it used to be. Let me rest, child.”&lt;br /&gt; &lt;br /&gt; You stand and take the watch, knowing this will be the last time you ever see The Poet. A tear falls down your face. Alas, you know the frozen wastelands await you.</t>
+  </si>
+  <si>
+    <t>Memories of a better time</t>
+  </si>
+  <si>
+    <t>Gingerbread Cookies</t>
+  </si>
+  <si>
+    <t>You find the Soldier’s Brother standing alone in the snow. He hears your approach and walks toward you.&lt;br /&gt; &lt;br /&gt; “It’s been some time since we last spoke, child. How are you?”&lt;br /&gt; &lt;br /&gt; You tell him you are doing well. The night air grows colder, and the chill settles deep into your bones. You mention the cat you met, explaining that she is searching for something. You also ask him how he has been and what he has been up to.&lt;br /&gt; &lt;br /&gt; “I have been lonely, searching for my brother. Has he spoken of me?”&lt;br /&gt; &lt;br /&gt; You tell him that his brother refuses to reflect on those times, burdened by a guilt that seems to weigh heavily on him.&lt;br /&gt; &lt;br /&gt; “I can understand that. I miss him dearly, especially on nights like this, nights when we would spend time together. We would set up a tree and decorate it with whatever we could make or find.” A sadness fills his eyes, and his voice falters. After a moment, he asks:&lt;br /&gt; &lt;br /&gt; “Did he get my letter?”&lt;br /&gt; &lt;br /&gt; You recall that long ago you delivered a letter to his brother, who received it with anger. You tell him this.&lt;br /&gt; &lt;br /&gt; “I remember seeing him. I remember how I felt.”&lt;br /&gt; &lt;br /&gt; He pauses briefly before continuing:&lt;br /&gt; &lt;br /&gt; “There was something we used to share, something that brought us both joy. Cookies. Not just any cookies, but gingerbread cookies our father’s cook would make when we were young.”&lt;br /&gt; &lt;br /&gt; You wonder where you might find such cookies, but you promise to search for them. He smiles, though behind that smile lies a world of frozen pain.</t>
+  </si>
+  <si>
+    <t>You return to him as the morning sun begins to rise. The snow glistens white, and the chill of ice hangs in the air. You approach him and ask if there isn’t somewhere warmer to go as you hand over the package of cookies.&lt;br /&gt; &lt;br /&gt; “These, and the memories they invoke, are all the warmth I need.”&lt;br /&gt; &lt;br /&gt; He looks up at you and offers you a cookie. You take one and bite into it. A warmth and sweetness roll through you. It’s strange—these are old cookies, yet they taste as if they are fresh from the oven. Perhaps there is a magic about them, just as there is with this land.</t>
+  </si>
+  <si>
+    <t>The two of you stand in the cold air, watching the sunrise. After a moment, he looks over at you.&lt;br /&gt; &lt;br /&gt; “There is something I want—a set of earrings that she used to wear, his mother, The Creator’s Mother. Isabella’s earrings. She wore them the night of the crash. You might find them around there.”&lt;br /&gt; &lt;br /&gt; You ask him why he wants them.&lt;br /&gt; &lt;br /&gt; “There is a magic about them that reminds me of my brother, showing me a time when we were happy, when we were together, when there wasn’t a care in the world—until my father took it all away, until The Child intervened and caused a rift, until a war was fought. Those earrings will show us both another time.”&lt;br /&gt; &lt;br /&gt; You agree to find them but ask again about the skirt the cat is looking for.&lt;br /&gt; &lt;br /&gt; “Ah yes, I can get that for you, if you bring me those earrings. I promise it will be worth your while and should answer some questions about my brother and his dark ways.”&lt;br /&gt; &lt;br /&gt; His voice trails off as he starts to walk in the opposite direction. He turns back and says, “I will be at an old house in the Ice Pirates’ Hideout port.”&lt;br /&gt; &lt;br /&gt; He then turns and walks away. You watch him disappear into the morning sun before heading out yourself.</t>
+  </si>
+  <si>
+    <t>You arrive at the old port where the cat waits for her skirt. Instead of going to her, you head to the old house where the Soldier’s Brother said he would be. You enter the dilapidated house. It’s warm, with a fire burning in the old fireplace. The floors have holes, and the roof is damaged, allowing the wind to whistle through.&lt;br /&gt; &lt;br /&gt; You walk from room to room until you reach the main sitting area. Old, stained, and broken furniture clutters the space, but he stands before the light of the roaring fire. The Soldier’s Brother turns, holding the skirt.&lt;br /&gt; &lt;br /&gt; “Did you get them?” he asks, a glimmer of hope in his eyes. With the earrings in hand, you pass them to him as he hands over the skirt.&lt;br /&gt; &lt;br /&gt; “Did you feel the magic? Did it radiate?”&lt;br /&gt; &lt;br /&gt; You tell him they felt cold—ice cold. There is a sense of death about them.&lt;br /&gt; &lt;br /&gt; He holds the earrings for a moment and closes his eyes, as if willing their magic forward, trying to see or sense something. After a while, he opens his eyes and lets the earrings fall to the floor.&lt;br /&gt; &lt;br /&gt; “They are useless.” He begins to cry. All you can do is stand there as he weeps.</t>
   </si>
   <si>
     <t>Defeating The Queen</t>
@@ -3183,7 +3270,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG213"/>
+  <dimension ref="A1:AG220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -8921,84 +9008,78 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
         <v>644</v>
       </c>
       <c r="C137" t="s">
-        <v>244</v>
+        <v>645</v>
+      </c>
+      <c r="E137" t="s">
+        <v>646</v>
       </c>
       <c r="H137" t="s">
-        <v>640</v>
-      </c>
-      <c r="I137">
-        <v>100</v>
-      </c>
-      <c r="J137">
-        <v>5000</v>
-      </c>
-      <c r="M137" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N137">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="O137">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="P137">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="Q137">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="U137" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="AA137" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD137" t="s">
         <v>646</v>
-      </c>
-      <c r="AB137" t="s">
-        <v>647</v>
       </c>
       <c r="AE137">
         <v>3</v>
       </c>
+      <c r="AF137" t="s">
+        <v>645</v>
+      </c>
+      <c r="AG137">
+        <v>8</v>
+      </c>
     </row>
     <row r="138" spans="1:33">
       <c r="A138">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C138" t="s">
-        <v>649</v>
-      </c>
-      <c r="E138" t="s">
-        <v>650</v>
-      </c>
-      <c r="I138">
-        <v>125</v>
-      </c>
-      <c r="J138">
-        <v>2000</v>
-      </c>
-      <c r="M138" t="s">
+        <v>645</v>
+      </c>
+      <c r="H138" t="s">
         <v>651</v>
       </c>
       <c r="N138">
-        <v>75</v>
+        <v>800</v>
       </c>
       <c r="O138">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="P138">
+        <v>15000</v>
+      </c>
+      <c r="Q138">
         <v>200</v>
-      </c>
-      <c r="Q138">
-        <v>100</v>
       </c>
       <c r="U138" t="s">
         <v>644</v>
@@ -9009,49 +9090,58 @@
       <c r="AB138" t="s">
         <v>653</v>
       </c>
-      <c r="AD138" t="s">
-        <v>650</v>
-      </c>
       <c r="AE138">
         <v>3</v>
       </c>
+      <c r="AF138" t="s">
+        <v>645</v>
+      </c>
+      <c r="AG138">
+        <v>12</v>
+      </c>
     </row>
     <row r="139" spans="1:33">
       <c r="A139">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B139" t="s">
         <v>654</v>
       </c>
       <c r="C139" t="s">
+        <v>244</v>
+      </c>
+      <c r="H139" t="s">
+        <v>640</v>
+      </c>
+      <c r="I139">
+        <v>100</v>
+      </c>
+      <c r="J139">
+        <v>5000</v>
+      </c>
+      <c r="M139" t="s">
         <v>655</v>
       </c>
-      <c r="H139" t="s">
+      <c r="N139">
+        <v>25</v>
+      </c>
+      <c r="O139">
+        <v>2</v>
+      </c>
+      <c r="P139">
+        <v>150</v>
+      </c>
+      <c r="Q139">
+        <v>250</v>
+      </c>
+      <c r="U139" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA139" t="s">
         <v>656</v>
       </c>
-      <c r="I139">
-        <v>125</v>
-      </c>
-      <c r="J139">
-        <v>1500</v>
-      </c>
-      <c r="N139">
-        <v>75</v>
-      </c>
-      <c r="O139">
-        <v>10</v>
-      </c>
-      <c r="Q139">
-        <v>100</v>
-      </c>
-      <c r="U139" t="s">
-        <v>648</v>
-      </c>
-      <c r="AA139" t="s">
+      <c r="AB139" t="s">
         <v>657</v>
-      </c>
-      <c r="AB139" t="s">
-        <v>658</v>
       </c>
       <c r="AE139">
         <v>3</v>
@@ -9059,22 +9149,25 @@
     </row>
     <row r="140" spans="1:33">
       <c r="A140">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B140" t="s">
+        <v>658</v>
+      </c>
+      <c r="C140" t="s">
         <v>659</v>
       </c>
-      <c r="C140" t="s">
-        <v>655</v>
-      </c>
-      <c r="H140" t="s">
+      <c r="E140" t="s">
         <v>660</v>
       </c>
       <c r="I140">
         <v>125</v>
       </c>
       <c r="J140">
-        <v>1500</v>
+        <v>2000</v>
+      </c>
+      <c r="M140" t="s">
+        <v>661</v>
       </c>
       <c r="N140">
         <v>75</v>
@@ -9082,46 +9175,46 @@
       <c r="O140">
         <v>10</v>
       </c>
+      <c r="P140">
+        <v>200</v>
+      </c>
       <c r="Q140">
         <v>100</v>
       </c>
       <c r="U140" t="s">
         <v>654</v>
       </c>
-      <c r="V140" t="s">
-        <v>661</v>
-      </c>
       <c r="AA140" t="s">
         <v>662</v>
       </c>
       <c r="AB140" t="s">
         <v>663</v>
       </c>
+      <c r="AD140" t="s">
+        <v>660</v>
+      </c>
       <c r="AE140">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:33">
       <c r="A141">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B141" t="s">
         <v>664</v>
       </c>
       <c r="C141" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="H141" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I141">
         <v>125</v>
       </c>
       <c r="J141">
-        <v>5000</v>
-      </c>
-      <c r="M141" t="s">
-        <v>666</v>
+        <v>1500</v>
       </c>
       <c r="N141">
         <v>75</v>
@@ -9133,7 +9226,7 @@
         <v>100</v>
       </c>
       <c r="U141" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AA141" t="s">
         <v>667</v>
@@ -9147,25 +9240,22 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B142" t="s">
         <v>669</v>
       </c>
       <c r="C142" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="H142" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="I142">
         <v>125</v>
       </c>
       <c r="J142">
-        <v>10000</v>
-      </c>
-      <c r="M142" t="s">
-        <v>670</v>
+        <v>1500</v>
       </c>
       <c r="N142">
         <v>75</v>
@@ -9177,13 +9267,16 @@
         <v>100</v>
       </c>
       <c r="U142" t="s">
-        <v>648</v>
+        <v>664</v>
+      </c>
+      <c r="V142" t="s">
+        <v>671</v>
       </c>
       <c r="AA142" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AB142" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AE142">
         <v>3</v>
@@ -9191,25 +9284,31 @@
     </row>
     <row r="143" spans="1:33">
       <c r="A143">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C143" t="s">
-        <v>649</v>
-      </c>
-      <c r="E143" t="s">
-        <v>669</v>
+        <v>665</v>
+      </c>
+      <c r="H143" t="s">
+        <v>675</v>
+      </c>
+      <c r="I143">
+        <v>125</v>
+      </c>
+      <c r="J143">
+        <v>5000</v>
+      </c>
+      <c r="M143" t="s">
+        <v>676</v>
       </c>
       <c r="N143">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O143">
-        <v>25</v>
-      </c>
-      <c r="P143">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q143">
         <v>100</v>
@@ -9217,20 +9316,11 @@
       <c r="U143" t="s">
         <v>669</v>
       </c>
-      <c r="W143" t="s">
-        <v>674</v>
-      </c>
-      <c r="X143">
-        <v>2</v>
-      </c>
       <c r="AA143" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AB143" t="s">
-        <v>676</v>
-      </c>
-      <c r="AD143" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="AE143">
         <v>3</v>
@@ -9238,40 +9328,43 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C144" t="s">
-        <v>592</v>
+        <v>665</v>
+      </c>
+      <c r="H144" t="s">
+        <v>676</v>
+      </c>
+      <c r="I144">
+        <v>125</v>
+      </c>
+      <c r="J144">
+        <v>10000</v>
+      </c>
+      <c r="M144" t="s">
+        <v>680</v>
       </c>
       <c r="N144">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O144">
-        <v>25</v>
-      </c>
-      <c r="P144">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q144">
         <v>100</v>
       </c>
       <c r="U144" t="s">
-        <v>673</v>
-      </c>
-      <c r="W144" t="s">
-        <v>674</v>
-      </c>
-      <c r="X144">
-        <v>4</v>
+        <v>658</v>
       </c>
       <c r="AA144" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="AB144" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AE144">
         <v>3</v>
@@ -9279,19 +9372,22 @@
     </row>
     <row r="145" spans="1:33">
       <c r="A145">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B145" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C145" t="s">
-        <v>244</v>
+        <v>659</v>
+      </c>
+      <c r="E145" t="s">
+        <v>679</v>
       </c>
       <c r="N145">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O145">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P145">
         <v>1000</v>
@@ -9300,19 +9396,22 @@
         <v>100</v>
       </c>
       <c r="U145" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="W145" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="X145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA145" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="AB145" t="s">
-        <v>682</v>
+        <v>686</v>
+      </c>
+      <c r="AD145" t="s">
+        <v>679</v>
       </c>
       <c r="AE145">
         <v>3</v>
@@ -9320,46 +9419,40 @@
     </row>
     <row r="146" spans="1:33">
       <c r="A146">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B146" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C146" t="s">
-        <v>649</v>
-      </c>
-      <c r="E146" t="s">
-        <v>644</v>
-      </c>
-      <c r="I146">
-        <v>125</v>
-      </c>
-      <c r="J146">
+        <v>592</v>
+      </c>
+      <c r="N146">
         <v>100</v>
       </c>
-      <c r="N146">
-        <v>75</v>
-      </c>
       <c r="O146">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P146">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q146">
         <v>100</v>
       </c>
       <c r="U146" t="s">
-        <v>591</v>
+        <v>683</v>
+      </c>
+      <c r="W146" t="s">
+        <v>684</v>
+      </c>
+      <c r="X146">
+        <v>4</v>
       </c>
       <c r="AA146" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="AB146" t="s">
-        <v>685</v>
-      </c>
-      <c r="AD146" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="AE146">
         <v>3</v>
@@ -9367,43 +9460,40 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B147" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C147" t="s">
-        <v>649</v>
-      </c>
-      <c r="H147" t="s">
-        <v>687</v>
-      </c>
-      <c r="I147">
+        <v>244</v>
+      </c>
+      <c r="N147">
         <v>125</v>
       </c>
-      <c r="J147">
-        <v>500</v>
-      </c>
-      <c r="N147">
-        <v>75</v>
-      </c>
       <c r="O147">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P147">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q147">
         <v>100</v>
       </c>
       <c r="U147" t="s">
-        <v>683</v>
+        <v>687</v>
+      </c>
+      <c r="W147" t="s">
+        <v>684</v>
+      </c>
+      <c r="X147">
+        <v>5</v>
       </c>
       <c r="AA147" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AB147" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AE147">
         <v>3</v>
@@ -9411,63 +9501,78 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="B148" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C148" t="s">
-        <v>649</v>
+        <v>694</v>
+      </c>
+      <c r="E148" t="s">
+        <v>695</v>
+      </c>
+      <c r="H148" t="s">
+        <v>696</v>
       </c>
       <c r="I148">
-        <v>125</v>
-      </c>
-      <c r="J148">
-        <v>500</v>
+        <v>1000</v>
+      </c>
+      <c r="K148">
+        <v>10000</v>
       </c>
       <c r="N148">
-        <v>75</v>
+        <v>2000</v>
       </c>
       <c r="O148">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P148">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="Q148">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U148" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="AA148" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="AB148" t="s">
-        <v>692</v>
+        <v>698</v>
+      </c>
+      <c r="AD148" t="s">
+        <v>695</v>
       </c>
       <c r="AE148">
         <v>3</v>
       </c>
+      <c r="AF148" t="s">
+        <v>694</v>
+      </c>
+      <c r="AG148">
+        <v>5</v>
+      </c>
     </row>
     <row r="149" spans="1:33">
       <c r="A149">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B149" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
       <c r="C149" t="s">
-        <v>649</v>
-      </c>
-      <c r="H149" t="s">
-        <v>650</v>
+        <v>659</v>
+      </c>
+      <c r="E149" t="s">
+        <v>654</v>
       </c>
       <c r="I149">
         <v>125</v>
       </c>
       <c r="J149">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N149">
         <v>75</v>
@@ -9482,154 +9587,160 @@
         <v>100</v>
       </c>
       <c r="U149" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="AA149" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="AB149" t="s">
-        <v>694</v>
+        <v>701</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>654</v>
+      </c>
+      <c r="AE149">
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:33">
       <c r="A150">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B150" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C150" t="s">
-        <v>592</v>
-      </c>
-      <c r="E150" t="s">
-        <v>680</v>
+        <v>659</v>
+      </c>
+      <c r="H150" t="s">
+        <v>703</v>
+      </c>
+      <c r="I150">
+        <v>125</v>
+      </c>
+      <c r="J150">
+        <v>500</v>
       </c>
       <c r="N150">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O150">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P150">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q150">
         <v>100</v>
       </c>
       <c r="U150" t="s">
-        <v>591</v>
+        <v>699</v>
       </c>
       <c r="AA150" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="AB150" t="s">
-        <v>697</v>
-      </c>
-      <c r="AD150" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
       <c r="AE150">
         <v>3</v>
       </c>
-      <c r="AF150" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG150">
-        <v>5</v>
-      </c>
     </row>
     <row r="151" spans="1:33">
       <c r="A151">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="C151" t="s">
-        <v>592</v>
+        <v>659</v>
+      </c>
+      <c r="I151">
+        <v>125</v>
+      </c>
+      <c r="J151">
+        <v>500</v>
       </c>
       <c r="N151">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O151">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P151">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q151">
         <v>100</v>
       </c>
       <c r="U151" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="AA151" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="AB151" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="AE151">
         <v>3</v>
       </c>
-      <c r="AF151" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG151">
-        <v>10</v>
-      </c>
     </row>
     <row r="152" spans="1:33">
       <c r="A152">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B152" t="s">
-        <v>701</v>
+        <v>660</v>
       </c>
       <c r="C152" t="s">
-        <v>592</v>
+        <v>659</v>
+      </c>
+      <c r="H152" t="s">
+        <v>660</v>
+      </c>
+      <c r="I152">
+        <v>125</v>
+      </c>
+      <c r="J152">
+        <v>1000</v>
       </c>
       <c r="N152">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O152">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P152">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q152">
         <v>100</v>
       </c>
       <c r="U152" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="AA152" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="AB152" t="s">
-        <v>703</v>
-      </c>
-      <c r="AE152">
-        <v>3</v>
-      </c>
-      <c r="AF152" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG152">
-        <v>15</v>
+        <v>710</v>
       </c>
     </row>
     <row r="153" spans="1:33">
       <c r="A153">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B153" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C153" t="s">
         <v>592</v>
       </c>
+      <c r="E153" t="s">
+        <v>690</v>
+      </c>
       <c r="N153">
         <v>175</v>
       </c>
@@ -9643,13 +9754,16 @@
         <v>100</v>
       </c>
       <c r="U153" t="s">
-        <v>701</v>
+        <v>591</v>
       </c>
       <c r="AA153" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="AB153" t="s">
-        <v>706</v>
+        <v>713</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>690</v>
       </c>
       <c r="AE153">
         <v>3</v>
@@ -9658,22 +9772,19 @@
         <v>592</v>
       </c>
       <c r="AG153">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:33">
       <c r="A154">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B154" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="C154" t="s">
         <v>592</v>
       </c>
-      <c r="M154" t="s">
-        <v>708</v>
-      </c>
       <c r="N154">
         <v>175</v>
       </c>
@@ -9687,13 +9798,13 @@
         <v>100</v>
       </c>
       <c r="U154" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="AA154" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="AB154" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="AE154">
         <v>3</v>
@@ -9702,262 +9813,280 @@
         <v>592</v>
       </c>
       <c r="AG154">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:33">
       <c r="A155">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B155" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C155" t="s">
         <v>592</v>
       </c>
-      <c r="D155" t="s">
-        <v>712</v>
-      </c>
-      <c r="E155" t="s">
-        <v>664</v>
-      </c>
-      <c r="I155">
-        <v>125</v>
-      </c>
-      <c r="J155">
-        <v>25000</v>
-      </c>
       <c r="N155">
+        <v>175</v>
+      </c>
+      <c r="O155">
         <v>75</v>
       </c>
-      <c r="O155">
-        <v>10</v>
-      </c>
       <c r="P155">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q155">
         <v>100</v>
       </c>
-      <c r="T155">
-        <v>1</v>
+      <c r="U155" t="s">
+        <v>714</v>
       </c>
       <c r="AA155" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="AB155" t="s">
-        <v>714</v>
-      </c>
-      <c r="AC155" t="s">
-        <v>712</v>
-      </c>
-      <c r="AD155" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="AE155">
         <v>3</v>
       </c>
+      <c r="AF155" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG155">
+        <v>15</v>
+      </c>
     </row>
     <row r="156" spans="1:33">
       <c r="A156">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B156" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C156" t="s">
         <v>592</v>
       </c>
-      <c r="H156" t="s">
-        <v>716</v>
-      </c>
-      <c r="I156">
-        <v>125</v>
-      </c>
-      <c r="J156">
-        <v>5000</v>
-      </c>
       <c r="N156">
+        <v>175</v>
+      </c>
+      <c r="O156">
         <v>75</v>
       </c>
-      <c r="O156">
-        <v>10</v>
-      </c>
       <c r="P156">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q156">
         <v>100</v>
       </c>
       <c r="U156" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="AA156" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="AB156" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="AE156">
         <v>3</v>
       </c>
+      <c r="AF156" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG156">
+        <v>20</v>
+      </c>
     </row>
     <row r="157" spans="1:33">
       <c r="A157">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B157" t="s">
-        <v>719</v>
+        <v>646</v>
       </c>
       <c r="C157" t="s">
         <v>592</v>
       </c>
-      <c r="H157" t="s">
-        <v>720</v>
-      </c>
-      <c r="I157">
-        <v>125</v>
-      </c>
-      <c r="J157">
-        <v>10000</v>
+      <c r="M157" t="s">
+        <v>723</v>
       </c>
       <c r="N157">
+        <v>175</v>
+      </c>
+      <c r="O157">
         <v>75</v>
       </c>
-      <c r="O157">
-        <v>10</v>
+      <c r="P157">
+        <v>2000</v>
       </c>
       <c r="Q157">
         <v>100</v>
       </c>
       <c r="U157" t="s">
-        <v>715</v>
-      </c>
-      <c r="V157" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AA157" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AB157" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AE157">
         <v>3</v>
       </c>
+      <c r="AF157" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG157">
+        <v>25</v>
+      </c>
     </row>
     <row r="158" spans="1:33">
       <c r="A158">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C158" t="s">
-        <v>592</v>
+        <v>244</v>
+      </c>
+      <c r="E158" t="s">
+        <v>695</v>
       </c>
       <c r="H158" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I158">
-        <v>125</v>
-      </c>
-      <c r="J158">
-        <v>2000</v>
+        <v>10000</v>
+      </c>
+      <c r="K158">
+        <v>1000000</v>
+      </c>
+      <c r="N158">
+        <v>20000</v>
+      </c>
+      <c r="O158">
+        <v>200</v>
       </c>
       <c r="P158">
-        <v>200</v>
+        <v>2000000</v>
       </c>
       <c r="Q158">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U158" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="AA158" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AB158" t="s">
-        <v>727</v>
+        <v>729</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE158">
+        <v>3</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG158">
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:33">
       <c r="A159">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C159" t="s">
-        <v>592</v>
+        <v>244</v>
       </c>
       <c r="H159" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="I159">
-        <v>125</v>
-      </c>
-      <c r="J159">
-        <v>20000</v>
+        <v>10000</v>
+      </c>
+      <c r="M159" t="s">
+        <v>696</v>
+      </c>
+      <c r="N159">
+        <v>3000</v>
+      </c>
+      <c r="O159">
+        <v>10</v>
       </c>
       <c r="P159">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="Q159">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="U159" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AA159" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AB159" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AE159">
         <v>3</v>
       </c>
+      <c r="AF159" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG159">
+        <v>18</v>
+      </c>
     </row>
     <row r="160" spans="1:33">
       <c r="A160">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="B160" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C160" t="s">
-        <v>244</v>
+        <v>659</v>
+      </c>
+      <c r="E160" t="s">
+        <v>644</v>
       </c>
       <c r="H160" t="s">
-        <v>733</v>
-      </c>
-      <c r="I160">
-        <v>100</v>
-      </c>
-      <c r="J160">
-        <v>25000</v>
+        <v>735</v>
       </c>
       <c r="N160">
+        <v>500</v>
+      </c>
+      <c r="O160">
         <v>25</v>
       </c>
-      <c r="O160">
-        <v>2</v>
-      </c>
       <c r="P160">
+        <v>15000</v>
+      </c>
+      <c r="Q160">
         <v>150</v>
       </c>
-      <c r="Q160">
-        <v>100</v>
-      </c>
       <c r="U160" t="s">
-        <v>728</v>
+        <v>591</v>
       </c>
       <c r="AA160" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AB160" t="s">
-        <v>735</v>
+        <v>737</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>644</v>
       </c>
       <c r="AE160">
         <v>3</v>
@@ -9965,31 +10094,34 @@
     </row>
     <row r="161" spans="1:33">
       <c r="A161">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="B161" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="C161" t="s">
-        <v>592</v>
-      </c>
-      <c r="E161" t="s">
-        <v>732</v>
+        <v>659</v>
       </c>
       <c r="H161" t="s">
-        <v>737</v>
-      </c>
-      <c r="I161">
-        <v>125</v>
-      </c>
-      <c r="J161">
-        <v>20000</v>
+        <v>695</v>
+      </c>
+      <c r="M161" t="s">
+        <v>651</v>
+      </c>
+      <c r="N161">
+        <v>800</v>
+      </c>
+      <c r="O161">
+        <v>50</v>
+      </c>
+      <c r="P161">
+        <v>8000</v>
       </c>
       <c r="Q161">
         <v>200</v>
       </c>
       <c r="U161" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="AA161" t="s">
         <v>738</v>
@@ -9997,16 +10129,13 @@
       <c r="AB161" t="s">
         <v>739</v>
       </c>
-      <c r="AD161" t="s">
-        <v>732</v>
-      </c>
       <c r="AE161">
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:33">
       <c r="A162">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B162" t="s">
         <v>740</v>
@@ -10014,26 +10143,44 @@
       <c r="C162" t="s">
         <v>592</v>
       </c>
+      <c r="D162" t="s">
+        <v>741</v>
+      </c>
+      <c r="E162" t="s">
+        <v>674</v>
+      </c>
       <c r="I162">
         <v>125</v>
       </c>
       <c r="J162">
-        <v>30000</v>
+        <v>25000</v>
+      </c>
+      <c r="N162">
+        <v>75</v>
+      </c>
+      <c r="O162">
+        <v>10</v>
+      </c>
+      <c r="P162">
+        <v>200</v>
       </c>
       <c r="Q162">
-        <v>500</v>
-      </c>
-      <c r="U162" t="s">
-        <v>736</v>
-      </c>
-      <c r="Y162">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="T162">
+        <v>1</v>
       </c>
       <c r="AA162" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>743</v>
+      </c>
+      <c r="AC162" t="s">
         <v>741</v>
       </c>
-      <c r="AB162" t="s">
-        <v>742</v>
+      <c r="AD162" t="s">
+        <v>674</v>
       </c>
       <c r="AE162">
         <v>3</v>
@@ -10041,90 +10188,81 @@
     </row>
     <row r="163" spans="1:33">
       <c r="A163">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B163" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C163" t="s">
-        <v>744</v>
-      </c>
-      <c r="E163" t="s">
-        <v>396</v>
-      </c>
-      <c r="F163" t="s">
-        <v>377</v>
-      </c>
-      <c r="G163">
-        <v>10</v>
+        <v>592</v>
       </c>
       <c r="H163" t="s">
         <v>745</v>
       </c>
+      <c r="I163">
+        <v>125</v>
+      </c>
+      <c r="J163">
+        <v>5000</v>
+      </c>
       <c r="N163">
-        <v>500000</v>
+        <v>75</v>
       </c>
       <c r="O163">
-        <v>500000</v>
+        <v>10</v>
       </c>
       <c r="P163">
-        <v>2000000000</v>
+        <v>200</v>
       </c>
       <c r="Q163">
-        <v>175000</v>
-      </c>
-      <c r="T163">
-        <v>1</v>
-      </c>
-      <c r="W163" t="s">
+        <v>100</v>
+      </c>
+      <c r="U163" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA163" t="s">
         <v>746</v>
       </c>
-      <c r="X163">
-        <v>5</v>
-      </c>
-      <c r="AA163" t="s">
+      <c r="AB163" t="s">
         <v>747</v>
       </c>
-      <c r="AB163" t="s">
-        <v>748</v>
-      </c>
-      <c r="AD163" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF163" t="s">
-        <v>744</v>
-      </c>
-      <c r="AG163">
-        <v>5</v>
+      <c r="AE163">
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:33">
       <c r="A164">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B164" t="s">
+        <v>748</v>
+      </c>
+      <c r="C164" t="s">
+        <v>592</v>
+      </c>
+      <c r="H164" t="s">
         <v>749</v>
       </c>
-      <c r="C164" t="s">
+      <c r="I164">
+        <v>125</v>
+      </c>
+      <c r="J164">
+        <v>10000</v>
+      </c>
+      <c r="N164">
+        <v>75</v>
+      </c>
+      <c r="O164">
+        <v>10</v>
+      </c>
+      <c r="Q164">
+        <v>100</v>
+      </c>
+      <c r="U164" t="s">
         <v>744</v>
       </c>
-      <c r="H164" t="s">
+      <c r="V164" t="s">
         <v>750</v>
-      </c>
-      <c r="N164">
-        <v>500000</v>
-      </c>
-      <c r="O164">
-        <v>500000</v>
-      </c>
-      <c r="P164">
-        <v>2000000000</v>
-      </c>
-      <c r="Q164">
-        <v>175000</v>
-      </c>
-      <c r="U164" t="s">
-        <v>743</v>
       </c>
       <c r="AA164" t="s">
         <v>751</v>
@@ -10132,288 +10270,312 @@
       <c r="AB164" t="s">
         <v>752</v>
       </c>
-      <c r="AF164" t="s">
-        <v>744</v>
-      </c>
-      <c r="AG164">
-        <v>10</v>
+      <c r="AE164">
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:33">
       <c r="A165">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B165" t="s">
         <v>753</v>
       </c>
       <c r="C165" t="s">
+        <v>592</v>
+      </c>
+      <c r="H165" t="s">
         <v>754</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165">
+        <v>125</v>
+      </c>
+      <c r="J165">
+        <v>2000</v>
+      </c>
+      <c r="P165">
+        <v>200</v>
+      </c>
+      <c r="Q165">
+        <v>100</v>
+      </c>
+      <c r="U165" t="s">
+        <v>748</v>
+      </c>
+      <c r="AA165" t="s">
         <v>755</v>
       </c>
-      <c r="N165">
-        <v>500000</v>
-      </c>
-      <c r="O165">
-        <v>500000</v>
-      </c>
-      <c r="P165">
-        <v>2000000000</v>
-      </c>
-      <c r="Q165">
-        <v>175000</v>
-      </c>
-      <c r="U165" t="s">
-        <v>749</v>
-      </c>
-      <c r="AA165" t="s">
+      <c r="AB165" t="s">
         <v>756</v>
-      </c>
-      <c r="AB165" t="s">
-        <v>757</v>
-      </c>
-      <c r="AF165" t="s">
-        <v>754</v>
-      </c>
-      <c r="AG165">
-        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:33">
       <c r="A166">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B166" t="s">
+        <v>757</v>
+      </c>
+      <c r="C166" t="s">
+        <v>592</v>
+      </c>
+      <c r="H166" t="s">
         <v>758</v>
       </c>
-      <c r="C166" t="s">
-        <v>754</v>
-      </c>
-      <c r="H166" t="s">
-        <v>759</v>
-      </c>
-      <c r="N166">
-        <v>500000</v>
-      </c>
-      <c r="O166">
-        <v>500000</v>
+      <c r="I166">
+        <v>125</v>
+      </c>
+      <c r="J166">
+        <v>20000</v>
       </c>
       <c r="P166">
-        <v>2000000000</v>
+        <v>200</v>
       </c>
       <c r="Q166">
-        <v>175000</v>
+        <v>100</v>
       </c>
       <c r="U166" t="s">
         <v>753</v>
       </c>
       <c r="AA166" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB166" t="s">
         <v>760</v>
       </c>
-      <c r="AB166" t="s">
-        <v>761</v>
-      </c>
-      <c r="AF166" t="s">
-        <v>754</v>
-      </c>
-      <c r="AG166">
-        <v>10</v>
+      <c r="AE166">
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:33">
       <c r="A167">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B167" t="s">
+        <v>761</v>
+      </c>
+      <c r="C167" t="s">
+        <v>244</v>
+      </c>
+      <c r="H167" t="s">
         <v>762</v>
       </c>
-      <c r="C167" t="s">
-        <v>754</v>
-      </c>
-      <c r="H167" t="s">
+      <c r="I167">
+        <v>100</v>
+      </c>
+      <c r="J167">
+        <v>25000</v>
+      </c>
+      <c r="N167">
+        <v>25</v>
+      </c>
+      <c r="O167">
+        <v>2</v>
+      </c>
+      <c r="P167">
+        <v>150</v>
+      </c>
+      <c r="Q167">
+        <v>100</v>
+      </c>
+      <c r="U167" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA167" t="s">
         <v>763</v>
       </c>
-      <c r="N167">
-        <v>500000</v>
-      </c>
-      <c r="O167">
-        <v>500000</v>
-      </c>
-      <c r="P167">
-        <v>2000000000</v>
-      </c>
-      <c r="Q167">
-        <v>175000</v>
-      </c>
-      <c r="U167" t="s">
-        <v>758</v>
-      </c>
-      <c r="AA167" t="s">
+      <c r="AB167" t="s">
         <v>764</v>
       </c>
-      <c r="AB167" t="s">
-        <v>765</v>
+      <c r="AE167">
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:33">
       <c r="A168">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B168" t="s">
+        <v>765</v>
+      </c>
+      <c r="C168" t="s">
+        <v>592</v>
+      </c>
+      <c r="E168" t="s">
+        <v>761</v>
+      </c>
+      <c r="H168" t="s">
         <v>766</v>
       </c>
-      <c r="C168" t="s">
+      <c r="I168">
+        <v>125</v>
+      </c>
+      <c r="J168">
+        <v>20000</v>
+      </c>
+      <c r="Q168">
+        <v>200</v>
+      </c>
+      <c r="U168" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA168" t="s">
         <v>767</v>
       </c>
-      <c r="E168" t="s">
-        <v>762</v>
-      </c>
-      <c r="F168" t="s">
-        <v>749</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="AB168" t="s">
         <v>768</v>
       </c>
-      <c r="N168">
-        <v>500000</v>
-      </c>
-      <c r="O168">
-        <v>500000</v>
-      </c>
-      <c r="P168">
-        <v>2000000000</v>
-      </c>
-      <c r="Q168">
-        <v>175000</v>
-      </c>
-      <c r="U168" t="s">
-        <v>743</v>
-      </c>
-      <c r="AA168" t="s">
-        <v>769</v>
-      </c>
-      <c r="AB168" t="s">
-        <v>770</v>
-      </c>
       <c r="AD168" t="s">
-        <v>762</v>
-      </c>
-      <c r="AF168" t="s">
-        <v>767</v>
-      </c>
-      <c r="AG168">
-        <v>5</v>
+        <v>761</v>
+      </c>
+      <c r="AE168">
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:33">
       <c r="A169">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B169" t="s">
+        <v>769</v>
+      </c>
+      <c r="C169" t="s">
+        <v>592</v>
+      </c>
+      <c r="I169">
+        <v>125</v>
+      </c>
+      <c r="J169">
+        <v>30000</v>
+      </c>
+      <c r="Q169">
+        <v>500</v>
+      </c>
+      <c r="U169" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y169">
+        <v>2</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB169" t="s">
         <v>771</v>
       </c>
-      <c r="C169" t="s">
-        <v>767</v>
-      </c>
-      <c r="H169" t="s">
-        <v>772</v>
-      </c>
-      <c r="N169">
-        <v>500000</v>
-      </c>
-      <c r="O169">
-        <v>500000</v>
-      </c>
-      <c r="P169">
-        <v>2000000000</v>
-      </c>
-      <c r="Q169">
-        <v>175000</v>
-      </c>
-      <c r="U169" t="s">
-        <v>766</v>
-      </c>
-      <c r="AA169" t="s">
-        <v>773</v>
-      </c>
-      <c r="AB169" t="s">
-        <v>774</v>
-      </c>
-      <c r="AF169" t="s">
-        <v>767</v>
-      </c>
-      <c r="AG169">
-        <v>15</v>
+      <c r="AE169">
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:33">
       <c r="A170">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B170" t="s">
+        <v>772</v>
+      </c>
+      <c r="C170" t="s">
+        <v>773</v>
+      </c>
+      <c r="E170" t="s">
+        <v>396</v>
+      </c>
+      <c r="F170" t="s">
+        <v>377</v>
+      </c>
+      <c r="G170">
+        <v>10</v>
+      </c>
+      <c r="H170" t="s">
+        <v>774</v>
+      </c>
+      <c r="N170">
+        <v>500000</v>
+      </c>
+      <c r="O170">
+        <v>500000</v>
+      </c>
+      <c r="P170">
+        <v>2000000000</v>
+      </c>
+      <c r="Q170">
+        <v>175000</v>
+      </c>
+      <c r="T170">
+        <v>1</v>
+      </c>
+      <c r="W170" t="s">
         <v>775</v>
       </c>
-      <c r="C170" t="s">
-        <v>744</v>
-      </c>
-      <c r="H170" t="s">
+      <c r="X170">
+        <v>5</v>
+      </c>
+      <c r="AA170" t="s">
         <v>776</v>
       </c>
-      <c r="U170" t="s">
-        <v>771</v>
-      </c>
-      <c r="AA170" t="s">
+      <c r="AB170" t="s">
         <v>777</v>
       </c>
-      <c r="AB170" t="s">
-        <v>778</v>
+      <c r="AD170" t="s">
+        <v>396</v>
       </c>
       <c r="AF170" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="AG170">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:33">
       <c r="A171">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B171" t="s">
+        <v>778</v>
+      </c>
+      <c r="C171" t="s">
+        <v>773</v>
+      </c>
+      <c r="H171" t="s">
         <v>779</v>
       </c>
-      <c r="C171" t="s">
-        <v>744</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="N171">
+        <v>500000</v>
+      </c>
+      <c r="O171">
+        <v>500000</v>
+      </c>
+      <c r="P171">
+        <v>2000000000</v>
+      </c>
+      <c r="Q171">
+        <v>175000</v>
+      </c>
+      <c r="U171" t="s">
+        <v>772</v>
+      </c>
+      <c r="AA171" t="s">
         <v>780</v>
       </c>
-      <c r="U171" t="s">
-        <v>775</v>
-      </c>
-      <c r="AA171" t="s">
+      <c r="AB171" t="s">
         <v>781</v>
       </c>
-      <c r="AB171" t="s">
-        <v>782</v>
-      </c>
       <c r="AF171" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="AG171">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:33">
       <c r="A172">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B172" t="s">
+        <v>782</v>
+      </c>
+      <c r="C172" t="s">
         <v>783</v>
-      </c>
-      <c r="C172" t="s">
-        <v>754</v>
       </c>
       <c r="H172" t="s">
         <v>784</v>
@@ -10431,7 +10593,7 @@
         <v>175000</v>
       </c>
       <c r="U172" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AA172" t="s">
         <v>785</v>
@@ -10440,27 +10602,21 @@
         <v>786</v>
       </c>
       <c r="AF172" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
       <c r="AG172">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:33">
       <c r="A173">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B173" t="s">
         <v>787</v>
       </c>
       <c r="C173" t="s">
-        <v>754</v>
-      </c>
-      <c r="E173" t="s">
         <v>783</v>
-      </c>
-      <c r="F173" t="s">
-        <v>766</v>
       </c>
       <c r="H173" t="s">
         <v>788</v>
@@ -10478,7 +10634,7 @@
         <v>175000</v>
       </c>
       <c r="U173" t="s">
-        <v>743</v>
+        <v>782</v>
       </c>
       <c r="AA173" t="s">
         <v>789</v>
@@ -10486,31 +10642,25 @@
       <c r="AB173" t="s">
         <v>790</v>
       </c>
-      <c r="AD173" t="s">
+      <c r="AF173" t="s">
         <v>783</v>
       </c>
-      <c r="AF173" t="s">
-        <v>754</v>
-      </c>
       <c r="AG173">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:33">
       <c r="A174">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B174" t="s">
         <v>791</v>
       </c>
       <c r="C174" t="s">
+        <v>783</v>
+      </c>
+      <c r="H174" t="s">
         <v>792</v>
-      </c>
-      <c r="H174" t="s">
-        <v>793</v>
-      </c>
-      <c r="L174">
-        <v>150000</v>
       </c>
       <c r="N174">
         <v>500000</v>
@@ -10528,34 +10678,31 @@
         <v>787</v>
       </c>
       <c r="AA174" t="s">
+        <v>793</v>
+      </c>
+      <c r="AB174" t="s">
         <v>794</v>
-      </c>
-      <c r="AB174" t="s">
-        <v>795</v>
-      </c>
-      <c r="AF174" t="s">
-        <v>792</v>
-      </c>
-      <c r="AG174">
-        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:33">
       <c r="A175">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B175" t="s">
+        <v>795</v>
+      </c>
+      <c r="C175" t="s">
         <v>796</v>
       </c>
-      <c r="C175" t="s">
-        <v>792</v>
+      <c r="E175" t="s">
+        <v>791</v>
+      </c>
+      <c r="F175" t="s">
+        <v>778</v>
       </c>
       <c r="H175" t="s">
         <v>797</v>
       </c>
-      <c r="L175">
-        <v>300000</v>
-      </c>
       <c r="N175">
         <v>500000</v>
       </c>
@@ -10569,7 +10716,7 @@
         <v>175000</v>
       </c>
       <c r="U175" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="AA175" t="s">
         <v>798</v>
@@ -10577,29 +10724,29 @@
       <c r="AB175" t="s">
         <v>799</v>
       </c>
+      <c r="AD175" t="s">
+        <v>791</v>
+      </c>
       <c r="AF175" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="AG175">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:33">
       <c r="A176">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B176" t="s">
         <v>800</v>
       </c>
       <c r="C176" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="H176" t="s">
         <v>801</v>
       </c>
-      <c r="L176">
-        <v>500000</v>
-      </c>
       <c r="N176">
         <v>500000</v>
       </c>
@@ -10613,7 +10760,7 @@
         <v>175000</v>
       </c>
       <c r="U176" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AA176" t="s">
         <v>802</v>
@@ -10622,7 +10769,7 @@
         <v>803</v>
       </c>
       <c r="AF176" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="AG176">
         <v>15</v>
@@ -10630,224 +10777,215 @@
     </row>
     <row r="177" spans="1:33">
       <c r="A177">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B177" t="s">
         <v>804</v>
       </c>
       <c r="C177" t="s">
-        <v>744</v>
-      </c>
-      <c r="G177">
-        <v>15</v>
+        <v>773</v>
       </c>
       <c r="H177" t="s">
         <v>805</v>
       </c>
-      <c r="M177" t="s">
-        <v>806</v>
-      </c>
-      <c r="N177">
-        <v>500000</v>
-      </c>
-      <c r="O177">
-        <v>500000</v>
-      </c>
-      <c r="P177">
-        <v>2000000000</v>
-      </c>
-      <c r="Q177">
-        <v>175000</v>
-      </c>
       <c r="U177" t="s">
         <v>800</v>
       </c>
       <c r="AA177" t="s">
+        <v>806</v>
+      </c>
+      <c r="AB177" t="s">
         <v>807</v>
       </c>
-      <c r="AB177" t="s">
-        <v>808</v>
+      <c r="AF177" t="s">
+        <v>773</v>
+      </c>
+      <c r="AG177">
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:33">
       <c r="A178">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="B178" t="s">
+        <v>808</v>
+      </c>
+      <c r="C178" t="s">
+        <v>773</v>
+      </c>
+      <c r="H178" t="s">
         <v>809</v>
       </c>
-      <c r="C178" t="s">
-        <v>792</v>
-      </c>
-      <c r="E178" t="s">
-        <v>412</v>
-      </c>
-      <c r="H178" t="s">
+      <c r="U178" t="s">
+        <v>804</v>
+      </c>
+      <c r="AA178" t="s">
         <v>810</v>
       </c>
-      <c r="N178">
-        <v>10000</v>
-      </c>
-      <c r="O178">
-        <v>5000</v>
-      </c>
-      <c r="P178">
-        <v>1000000</v>
-      </c>
-      <c r="Q178">
-        <v>2000</v>
-      </c>
-      <c r="U178" t="s">
-        <v>743</v>
-      </c>
-      <c r="AA178" t="s">
+      <c r="AB178" t="s">
         <v>811</v>
       </c>
-      <c r="AB178" t="s">
-        <v>812</v>
-      </c>
-      <c r="AD178" t="s">
-        <v>412</v>
+      <c r="AF178" t="s">
+        <v>773</v>
+      </c>
+      <c r="AG178">
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:33">
       <c r="A179">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="B179" t="s">
+        <v>812</v>
+      </c>
+      <c r="C179" t="s">
+        <v>783</v>
+      </c>
+      <c r="H179" t="s">
         <v>813</v>
       </c>
-      <c r="C179" t="s">
-        <v>767</v>
-      </c>
-      <c r="H179" t="s">
+      <c r="N179">
+        <v>500000</v>
+      </c>
+      <c r="O179">
+        <v>500000</v>
+      </c>
+      <c r="P179">
+        <v>2000000000</v>
+      </c>
+      <c r="Q179">
+        <v>175000</v>
+      </c>
+      <c r="U179" t="s">
+        <v>808</v>
+      </c>
+      <c r="AA179" t="s">
         <v>814</v>
       </c>
-      <c r="N179">
-        <v>20000</v>
-      </c>
-      <c r="O179">
-        <v>10000</v>
-      </c>
-      <c r="P179">
-        <v>2000000</v>
-      </c>
-      <c r="Q179">
-        <v>2500</v>
-      </c>
-      <c r="U179" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA179" t="s">
+      <c r="AB179" t="s">
         <v>815</v>
       </c>
-      <c r="AB179" t="s">
-        <v>816</v>
+      <c r="AF179" t="s">
+        <v>783</v>
+      </c>
+      <c r="AG179">
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:33">
       <c r="A180">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="B180" t="s">
+        <v>816</v>
+      </c>
+      <c r="C180" t="s">
+        <v>783</v>
+      </c>
+      <c r="E180" t="s">
+        <v>812</v>
+      </c>
+      <c r="F180" t="s">
+        <v>795</v>
+      </c>
+      <c r="H180" t="s">
         <v>817</v>
       </c>
-      <c r="C180" t="s">
-        <v>744</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="N180">
+        <v>500000</v>
+      </c>
+      <c r="O180">
+        <v>500000</v>
+      </c>
+      <c r="P180">
+        <v>2000000000</v>
+      </c>
+      <c r="Q180">
+        <v>175000</v>
+      </c>
+      <c r="U180" t="s">
+        <v>772</v>
+      </c>
+      <c r="AA180" t="s">
         <v>818</v>
       </c>
-      <c r="N180">
-        <v>25000</v>
-      </c>
-      <c r="O180">
-        <v>15000</v>
-      </c>
-      <c r="P180">
-        <v>25000000</v>
-      </c>
-      <c r="Q180">
-        <v>3000</v>
-      </c>
-      <c r="U180" t="s">
-        <v>813</v>
-      </c>
-      <c r="AA180" t="s">
+      <c r="AB180" t="s">
         <v>819</v>
       </c>
-      <c r="AB180" t="s">
-        <v>820</v>
+      <c r="AD180" t="s">
+        <v>812</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>783</v>
+      </c>
+      <c r="AG180">
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:33">
       <c r="A181">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="B181" t="s">
+        <v>820</v>
+      </c>
+      <c r="C181" t="s">
         <v>821</v>
       </c>
-      <c r="C181" t="s">
+      <c r="H181" t="s">
         <v>822</v>
       </c>
-      <c r="E181" t="s">
-        <v>804</v>
-      </c>
-      <c r="H181" t="s">
+      <c r="L181">
+        <v>150000</v>
+      </c>
+      <c r="N181">
+        <v>500000</v>
+      </c>
+      <c r="O181">
+        <v>500000</v>
+      </c>
+      <c r="P181">
+        <v>2000000000</v>
+      </c>
+      <c r="Q181">
+        <v>175000</v>
+      </c>
+      <c r="U181" t="s">
+        <v>816</v>
+      </c>
+      <c r="AA181" t="s">
         <v>823</v>
       </c>
-      <c r="N181">
-        <v>30000</v>
-      </c>
-      <c r="O181">
-        <v>25000</v>
-      </c>
-      <c r="P181">
-        <v>30000000</v>
-      </c>
-      <c r="Q181">
-        <v>5000</v>
-      </c>
-      <c r="U181" t="s">
-        <v>817</v>
-      </c>
-      <c r="AA181" t="s">
+      <c r="AB181" t="s">
         <v>824</v>
       </c>
-      <c r="AB181" t="s">
-        <v>825</v>
-      </c>
-      <c r="AD181" t="s">
-        <v>804</v>
-      </c>
       <c r="AF181" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AG181">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:33">
       <c r="A182">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B182" t="s">
+        <v>825</v>
+      </c>
+      <c r="C182" t="s">
+        <v>821</v>
+      </c>
+      <c r="H182" t="s">
         <v>826</v>
       </c>
-      <c r="C182" t="s">
-        <v>822</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182" t="s">
-        <v>827</v>
-      </c>
-      <c r="M182" t="s">
-        <v>828</v>
+      <c r="L182">
+        <v>300000</v>
       </c>
       <c r="N182">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="O182">
         <v>500000</v>
@@ -10856,330 +10994,309 @@
         <v>2000000000</v>
       </c>
       <c r="Q182">
-        <v>10000</v>
+        <v>175000</v>
       </c>
       <c r="U182" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>827</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>828</v>
+      </c>
+      <c r="AF182" t="s">
         <v>821</v>
       </c>
-      <c r="AA182" t="s">
-        <v>829</v>
-      </c>
-      <c r="AB182" t="s">
-        <v>830</v>
-      </c>
-      <c r="AF182" t="s">
-        <v>822</v>
-      </c>
       <c r="AG182">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:33">
       <c r="A183">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B183" t="s">
+        <v>829</v>
+      </c>
+      <c r="C183" t="s">
+        <v>821</v>
+      </c>
+      <c r="H183" t="s">
+        <v>830</v>
+      </c>
+      <c r="L183">
+        <v>500000</v>
+      </c>
+      <c r="N183">
+        <v>500000</v>
+      </c>
+      <c r="O183">
+        <v>500000</v>
+      </c>
+      <c r="P183">
+        <v>2000000000</v>
+      </c>
+      <c r="Q183">
+        <v>175000</v>
+      </c>
+      <c r="U183" t="s">
+        <v>825</v>
+      </c>
+      <c r="AA183" t="s">
         <v>831</v>
       </c>
-      <c r="C183" t="s">
+      <c r="AB183" t="s">
         <v>832</v>
       </c>
-      <c r="N183">
-        <v>1000</v>
-      </c>
-      <c r="O183">
-        <v>500</v>
-      </c>
-      <c r="P183">
-        <v>10000</v>
-      </c>
-      <c r="Q183">
-        <v>250</v>
-      </c>
-      <c r="T183">
-        <v>1</v>
-      </c>
-      <c r="W183" t="s">
-        <v>833</v>
-      </c>
-      <c r="X183">
-        <v>1</v>
-      </c>
-      <c r="AA183" t="s">
-        <v>834</v>
-      </c>
-      <c r="AB183" t="s">
-        <v>835</v>
-      </c>
-      <c r="AE183">
-        <v>7</v>
+      <c r="AF183" t="s">
+        <v>821</v>
+      </c>
+      <c r="AG183">
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:33">
       <c r="A184">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B184" t="s">
+        <v>833</v>
+      </c>
+      <c r="C184" t="s">
+        <v>773</v>
+      </c>
+      <c r="G184">
+        <v>15</v>
+      </c>
+      <c r="H184" t="s">
+        <v>834</v>
+      </c>
+      <c r="M184" t="s">
+        <v>835</v>
+      </c>
+      <c r="N184">
+        <v>500000</v>
+      </c>
+      <c r="O184">
+        <v>500000</v>
+      </c>
+      <c r="P184">
+        <v>2000000000</v>
+      </c>
+      <c r="Q184">
+        <v>175000</v>
+      </c>
+      <c r="U184" t="s">
+        <v>829</v>
+      </c>
+      <c r="AA184" t="s">
         <v>836</v>
       </c>
-      <c r="C184" t="s">
-        <v>244</v>
-      </c>
-      <c r="H184" t="s">
+      <c r="AB184" t="s">
         <v>837</v>
-      </c>
-      <c r="N184">
-        <v>1000</v>
-      </c>
-      <c r="O184">
-        <v>500</v>
-      </c>
-      <c r="P184">
-        <v>10000</v>
-      </c>
-      <c r="Q184">
-        <v>250</v>
-      </c>
-      <c r="U184" t="s">
-        <v>831</v>
-      </c>
-      <c r="W184" t="s">
-        <v>833</v>
-      </c>
-      <c r="X184">
-        <v>2</v>
-      </c>
-      <c r="AA184" t="s">
-        <v>838</v>
-      </c>
-      <c r="AB184" t="s">
-        <v>839</v>
-      </c>
-      <c r="AE184">
-        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:33">
       <c r="A185">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="B185" t="s">
+        <v>838</v>
+      </c>
+      <c r="C185" t="s">
+        <v>821</v>
+      </c>
+      <c r="E185" t="s">
+        <v>412</v>
+      </c>
+      <c r="H185" t="s">
+        <v>839</v>
+      </c>
+      <c r="N185">
+        <v>10000</v>
+      </c>
+      <c r="O185">
+        <v>5000</v>
+      </c>
+      <c r="P185">
+        <v>1000000</v>
+      </c>
+      <c r="Q185">
+        <v>2000</v>
+      </c>
+      <c r="U185" t="s">
+        <v>772</v>
+      </c>
+      <c r="AA185" t="s">
         <v>840</v>
       </c>
-      <c r="C185" t="s">
-        <v>832</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="AB185" t="s">
         <v>841</v>
       </c>
-      <c r="N185">
-        <v>1000</v>
-      </c>
-      <c r="O185">
-        <v>500</v>
-      </c>
-      <c r="P185">
-        <v>10000</v>
-      </c>
-      <c r="Q185">
-        <v>250</v>
-      </c>
-      <c r="U185" t="s">
-        <v>836</v>
-      </c>
-      <c r="W185" t="s">
-        <v>833</v>
-      </c>
-      <c r="X185">
-        <v>3</v>
-      </c>
-      <c r="AA185" t="s">
-        <v>842</v>
-      </c>
-      <c r="AB185" t="s">
-        <v>843</v>
-      </c>
-      <c r="AE185">
-        <v>7</v>
+      <c r="AD185" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:33">
       <c r="A186">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B186" t="s">
+        <v>842</v>
+      </c>
+      <c r="C186" t="s">
+        <v>796</v>
+      </c>
+      <c r="H186" t="s">
+        <v>843</v>
+      </c>
+      <c r="N186">
+        <v>20000</v>
+      </c>
+      <c r="O186">
+        <v>10000</v>
+      </c>
+      <c r="P186">
+        <v>2000000</v>
+      </c>
+      <c r="Q186">
+        <v>2500</v>
+      </c>
+      <c r="U186" t="s">
+        <v>838</v>
+      </c>
+      <c r="AA186" t="s">
         <v>844</v>
       </c>
-      <c r="C186" t="s">
+      <c r="AB186" t="s">
         <v>845</v>
-      </c>
-      <c r="H186" t="s">
-        <v>846</v>
-      </c>
-      <c r="N186">
-        <v>1000</v>
-      </c>
-      <c r="O186">
-        <v>500</v>
-      </c>
-      <c r="P186">
-        <v>10000</v>
-      </c>
-      <c r="Q186">
-        <v>250</v>
-      </c>
-      <c r="U186" t="s">
-        <v>840</v>
-      </c>
-      <c r="W186" t="s">
-        <v>833</v>
-      </c>
-      <c r="X186">
-        <v>4</v>
-      </c>
-      <c r="AA186" t="s">
-        <v>847</v>
-      </c>
-      <c r="AB186" t="s">
-        <v>848</v>
-      </c>
-      <c r="AE186">
-        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:33">
       <c r="A187">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B187" t="s">
+        <v>846</v>
+      </c>
+      <c r="C187" t="s">
+        <v>773</v>
+      </c>
+      <c r="H187" t="s">
+        <v>847</v>
+      </c>
+      <c r="N187">
+        <v>25000</v>
+      </c>
+      <c r="O187">
+        <v>15000</v>
+      </c>
+      <c r="P187">
+        <v>25000000</v>
+      </c>
+      <c r="Q187">
+        <v>3000</v>
+      </c>
+      <c r="U187" t="s">
+        <v>842</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>848</v>
+      </c>
+      <c r="AB187" t="s">
         <v>849</v>
-      </c>
-      <c r="C187" t="s">
-        <v>845</v>
-      </c>
-      <c r="H187" t="s">
-        <v>850</v>
-      </c>
-      <c r="N187">
-        <v>1000</v>
-      </c>
-      <c r="O187">
-        <v>500</v>
-      </c>
-      <c r="P187">
-        <v>10000</v>
-      </c>
-      <c r="Q187">
-        <v>250</v>
-      </c>
-      <c r="U187" t="s">
-        <v>844</v>
-      </c>
-      <c r="V187" t="s">
-        <v>851</v>
-      </c>
-      <c r="AA187" t="s">
-        <v>852</v>
-      </c>
-      <c r="AB187" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="188" spans="1:33">
       <c r="A188">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B188" t="s">
+        <v>850</v>
+      </c>
+      <c r="C188" t="s">
+        <v>851</v>
+      </c>
+      <c r="E188" t="s">
+        <v>833</v>
+      </c>
+      <c r="H188" t="s">
+        <v>852</v>
+      </c>
+      <c r="N188">
+        <v>30000</v>
+      </c>
+      <c r="O188">
+        <v>25000</v>
+      </c>
+      <c r="P188">
+        <v>30000000</v>
+      </c>
+      <c r="Q188">
+        <v>5000</v>
+      </c>
+      <c r="U188" t="s">
+        <v>846</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>853</v>
+      </c>
+      <c r="AB188" t="s">
         <v>854</v>
       </c>
-      <c r="C188" t="s">
-        <v>244</v>
-      </c>
-      <c r="N188">
-        <v>1000</v>
-      </c>
-      <c r="O188">
-        <v>500</v>
-      </c>
-      <c r="P188">
-        <v>10000</v>
-      </c>
-      <c r="Q188">
-        <v>250</v>
-      </c>
-      <c r="U188" t="s">
-        <v>849</v>
-      </c>
-      <c r="W188" t="s">
+      <c r="AD188" t="s">
         <v>833</v>
       </c>
-      <c r="X188">
-        <v>5</v>
-      </c>
-      <c r="AA188" t="s">
-        <v>855</v>
-      </c>
-      <c r="AB188" t="s">
-        <v>856</v>
-      </c>
-      <c r="AE188">
-        <v>7</v>
+      <c r="AF188" t="s">
+        <v>851</v>
+      </c>
+      <c r="AG188">
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:33">
       <c r="A189">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="B189" t="s">
+        <v>855</v>
+      </c>
+      <c r="C189" t="s">
+        <v>851</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189" t="s">
+        <v>856</v>
+      </c>
+      <c r="M189" t="s">
         <v>857</v>
       </c>
-      <c r="C189" t="s">
+      <c r="N189">
+        <v>1000000</v>
+      </c>
+      <c r="O189">
+        <v>500000</v>
+      </c>
+      <c r="P189">
+        <v>2000000000</v>
+      </c>
+      <c r="Q189">
+        <v>10000</v>
+      </c>
+      <c r="U189" t="s">
+        <v>850</v>
+      </c>
+      <c r="AA189" t="s">
         <v>858</v>
       </c>
-      <c r="E189" t="s">
-        <v>854</v>
-      </c>
-      <c r="F189" t="s">
-        <v>831</v>
-      </c>
-      <c r="I189">
-        <v>100</v>
-      </c>
-      <c r="J189">
-        <v>100</v>
-      </c>
-      <c r="K189">
-        <v>1000</v>
-      </c>
-      <c r="N189">
-        <v>100</v>
-      </c>
-      <c r="O189">
-        <v>500</v>
-      </c>
-      <c r="P189">
-        <v>10000</v>
-      </c>
-      <c r="Q189">
-        <v>250</v>
-      </c>
-      <c r="U189" t="s">
-        <v>831</v>
-      </c>
-      <c r="AA189" t="s">
+      <c r="AB189" t="s">
         <v>859</v>
       </c>
-      <c r="AB189" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD189" t="s">
-        <v>854</v>
-      </c>
-      <c r="AE189">
-        <v>7</v>
-      </c>
       <c r="AF189" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="AG189">
         <v>5</v>
@@ -11187,22 +11304,13 @@
     </row>
     <row r="190" spans="1:33">
       <c r="A190">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B190" t="s">
+        <v>860</v>
+      </c>
+      <c r="C190" t="s">
         <v>861</v>
-      </c>
-      <c r="C190" t="s">
-        <v>858</v>
-      </c>
-      <c r="I190">
-        <v>100</v>
-      </c>
-      <c r="J190">
-        <v>100</v>
-      </c>
-      <c r="K190">
-        <v>1000</v>
       </c>
       <c r="N190">
         <v>1000</v>
@@ -11216,34 +11324,37 @@
       <c r="Q190">
         <v>250</v>
       </c>
-      <c r="U190" t="s">
-        <v>857</v>
+      <c r="T190">
+        <v>1</v>
+      </c>
+      <c r="W190" t="s">
+        <v>862</v>
+      </c>
+      <c r="X190">
+        <v>1</v>
       </c>
       <c r="AA190" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AB190" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AE190">
         <v>7</v>
       </c>
-      <c r="AF190" t="s">
-        <v>858</v>
-      </c>
-      <c r="AG190">
-        <v>10</v>
-      </c>
     </row>
     <row r="191" spans="1:33">
       <c r="A191">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B191" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C191" t="s">
-        <v>832</v>
+        <v>244</v>
+      </c>
+      <c r="H191" t="s">
+        <v>866</v>
       </c>
       <c r="N191">
         <v>1000</v>
@@ -11258,36 +11369,36 @@
         <v>250</v>
       </c>
       <c r="U191" t="s">
-        <v>861</v>
+        <v>860</v>
+      </c>
+      <c r="W191" t="s">
+        <v>862</v>
+      </c>
+      <c r="X191">
+        <v>2</v>
       </c>
       <c r="AA191" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AB191" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AE191">
         <v>7</v>
       </c>
-      <c r="AF191" t="s">
-        <v>832</v>
-      </c>
-      <c r="AG191">
-        <v>5</v>
-      </c>
     </row>
     <row r="192" spans="1:33">
       <c r="A192">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B192" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C192" t="s">
-        <v>868</v>
-      </c>
-      <c r="K192">
-        <v>5000</v>
+        <v>861</v>
+      </c>
+      <c r="H192" t="s">
+        <v>870</v>
       </c>
       <c r="N192">
         <v>1000</v>
@@ -11302,71 +11413,80 @@
         <v>250</v>
       </c>
       <c r="U192" t="s">
-        <v>864</v>
+        <v>865</v>
+      </c>
+      <c r="W192" t="s">
+        <v>862</v>
+      </c>
+      <c r="X192">
+        <v>3</v>
       </c>
       <c r="AA192" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AB192" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="AE192">
         <v>7</v>
       </c>
-      <c r="AF192" t="s">
-        <v>868</v>
-      </c>
-      <c r="AG192">
-        <v>5</v>
-      </c>
     </row>
     <row r="193" spans="1:33">
       <c r="A193">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B193" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C193" t="s">
-        <v>868</v>
-      </c>
-      <c r="I193">
+        <v>874</v>
+      </c>
+      <c r="H193" t="s">
+        <v>875</v>
+      </c>
+      <c r="N193">
         <v>1000</v>
       </c>
-      <c r="J193">
-        <v>1000</v>
-      </c>
-      <c r="K193">
-        <v>5000</v>
+      <c r="O193">
+        <v>500</v>
+      </c>
+      <c r="P193">
+        <v>10000</v>
+      </c>
+      <c r="Q193">
+        <v>250</v>
       </c>
       <c r="U193" t="s">
-        <v>867</v>
+        <v>869</v>
+      </c>
+      <c r="W193" t="s">
+        <v>862</v>
+      </c>
+      <c r="X193">
+        <v>4</v>
       </c>
       <c r="AA193" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="AB193" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AE193">
         <v>7</v>
       </c>
-      <c r="AF193" t="s">
-        <v>868</v>
-      </c>
-      <c r="AG193">
-        <v>10</v>
-      </c>
     </row>
     <row r="194" spans="1:33">
       <c r="A194">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B194" t="s">
+        <v>878</v>
+      </c>
+      <c r="C194" t="s">
         <v>874</v>
       </c>
-      <c r="C194" t="s">
-        <v>832</v>
+      <c r="H194" t="s">
+        <v>879</v>
       </c>
       <c r="N194">
         <v>1000</v>
@@ -11381,39 +11501,27 @@
         <v>250</v>
       </c>
       <c r="U194" t="s">
-        <v>871</v>
+        <v>873</v>
+      </c>
+      <c r="V194" t="s">
+        <v>880</v>
       </c>
       <c r="AA194" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="AB194" t="s">
-        <v>876</v>
-      </c>
-      <c r="AE194">
-        <v>7</v>
-      </c>
-      <c r="AF194" t="s">
-        <v>832</v>
-      </c>
-      <c r="AG194">
-        <v>10</v>
+        <v>882</v>
       </c>
     </row>
     <row r="195" spans="1:33">
       <c r="A195">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B195" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="C195" t="s">
-        <v>858</v>
-      </c>
-      <c r="E195" t="s">
-        <v>874</v>
-      </c>
-      <c r="F195" t="s">
-        <v>857</v>
+        <v>244</v>
       </c>
       <c r="N195">
         <v>1000</v>
@@ -11428,39 +11536,51 @@
         <v>250</v>
       </c>
       <c r="U195" t="s">
-        <v>831</v>
+        <v>878</v>
+      </c>
+      <c r="W195" t="s">
+        <v>862</v>
+      </c>
+      <c r="X195">
+        <v>5</v>
       </c>
       <c r="AA195" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="AB195" t="s">
-        <v>879</v>
-      </c>
-      <c r="AD195" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="AE195">
         <v>7</v>
       </c>
-      <c r="AF195" t="s">
-        <v>858</v>
-      </c>
-      <c r="AG195">
-        <v>5</v>
-      </c>
     </row>
     <row r="196" spans="1:33">
       <c r="A196">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B196" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="C196" t="s">
-        <v>845</v>
+        <v>887</v>
+      </c>
+      <c r="E196" t="s">
+        <v>883</v>
+      </c>
+      <c r="F196" t="s">
+        <v>860</v>
+      </c>
+      <c r="I196">
+        <v>100</v>
+      </c>
+      <c r="J196">
+        <v>100</v>
+      </c>
+      <c r="K196">
+        <v>1000</v>
       </c>
       <c r="N196">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O196">
         <v>500</v>
@@ -11472,33 +11592,45 @@
         <v>250</v>
       </c>
       <c r="U196" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="AA196" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="AB196" t="s">
-        <v>882</v>
+        <v>889</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>883</v>
       </c>
       <c r="AE196">
         <v>7</v>
       </c>
       <c r="AF196" t="s">
-        <v>845</v>
+        <v>887</v>
       </c>
       <c r="AG196">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:33">
       <c r="A197">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B197" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="C197" t="s">
-        <v>858</v>
+        <v>887</v>
+      </c>
+      <c r="I197">
+        <v>100</v>
+      </c>
+      <c r="J197">
+        <v>100</v>
+      </c>
+      <c r="K197">
+        <v>1000</v>
       </c>
       <c r="N197">
         <v>1000</v>
@@ -11513,19 +11645,19 @@
         <v>250</v>
       </c>
       <c r="U197" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="AA197" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="AB197" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="AE197">
         <v>7</v>
       </c>
       <c r="AF197" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
       <c r="AG197">
         <v>10</v>
@@ -11533,13 +11665,13 @@
     </row>
     <row r="198" spans="1:33">
       <c r="A198">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B198" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="C198" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="N198">
         <v>1000</v>
@@ -11554,87 +11686,63 @@
         <v>250</v>
       </c>
       <c r="U198" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="AA198" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="AB198" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="AE198">
         <v>7</v>
       </c>
       <c r="AF198" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="AG198">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:33">
       <c r="A199">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B199" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="C199" t="s">
-        <v>890</v>
-      </c>
-      <c r="E199" t="s">
-        <v>886</v>
-      </c>
-      <c r="F199" t="s">
-        <v>877</v>
-      </c>
-      <c r="G199">
-        <v>20</v>
-      </c>
-      <c r="H199" t="s">
-        <v>398</v>
-      </c>
-      <c r="I199">
-        <v>550000</v>
-      </c>
-      <c r="J199">
-        <v>550000</v>
+        <v>897</v>
       </c>
       <c r="K199">
-        <v>150000000000</v>
-      </c>
-      <c r="L199">
-        <v>700000</v>
+        <v>5000</v>
       </c>
       <c r="N199">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O199">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P199">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q199">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U199" t="s">
-        <v>831</v>
+        <v>893</v>
       </c>
       <c r="AA199" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="AB199" t="s">
-        <v>892</v>
-      </c>
-      <c r="AD199" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="AE199">
         <v>7</v>
       </c>
       <c r="AF199" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="AG199">
         <v>5</v>
@@ -11642,90 +11750,78 @@
     </row>
     <row r="200" spans="1:33">
       <c r="A200">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B200" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="C200" t="s">
-        <v>894</v>
-      </c>
-      <c r="L200">
-        <v>150000</v>
-      </c>
-      <c r="N200">
-        <v>500000</v>
-      </c>
-      <c r="O200">
-        <v>500000</v>
-      </c>
-      <c r="P200">
-        <v>2000000000</v>
-      </c>
-      <c r="Q200">
-        <v>175000</v>
+        <v>897</v>
+      </c>
+      <c r="I200">
+        <v>1000</v>
+      </c>
+      <c r="J200">
+        <v>1000</v>
+      </c>
+      <c r="K200">
+        <v>5000</v>
       </c>
       <c r="U200" t="s">
-        <v>889</v>
-      </c>
-      <c r="W200" t="s">
-        <v>746</v>
-      </c>
-      <c r="X200">
-        <v>5</v>
+        <v>896</v>
       </c>
       <c r="AA200" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="AB200" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="AE200">
         <v>7</v>
       </c>
       <c r="AF200" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="AG200">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:33">
       <c r="A201">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B201" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="C201" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
       <c r="N201">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O201">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P201">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q201">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U201" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="AA201" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="AB201" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="AE201">
         <v>7</v>
       </c>
       <c r="AF201" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
       <c r="AG201">
         <v>10</v>
@@ -11733,99 +11829,90 @@
     </row>
     <row r="202" spans="1:33">
       <c r="A202">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B202" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C202" t="s">
-        <v>894</v>
-      </c>
-      <c r="M202" t="s">
-        <v>901</v>
+        <v>887</v>
+      </c>
+      <c r="E202" t="s">
+        <v>903</v>
+      </c>
+      <c r="F202" t="s">
+        <v>886</v>
       </c>
       <c r="N202">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O202">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P202">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q202">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U202" t="s">
-        <v>897</v>
+        <v>860</v>
       </c>
       <c r="AA202" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="AB202" t="s">
+        <v>908</v>
+      </c>
+      <c r="AD202" t="s">
         <v>903</v>
       </c>
       <c r="AE202">
         <v>7</v>
       </c>
       <c r="AF202" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="AG202">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:33">
       <c r="A203">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B203" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="C203" t="s">
-        <v>890</v>
-      </c>
-      <c r="D203" t="s">
-        <v>905</v>
-      </c>
-      <c r="E203" t="s">
-        <v>886</v>
-      </c>
-      <c r="F203" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="N203">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="O203">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="P203">
-        <v>150000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q203">
-        <v>750</v>
-      </c>
-      <c r="T203">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="U203" t="s">
+        <v>906</v>
       </c>
       <c r="AA203" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="AB203" t="s">
-        <v>907</v>
-      </c>
-      <c r="AC203" t="s">
-        <v>905</v>
-      </c>
-      <c r="AD203" t="s">
-        <v>886</v>
+        <v>911</v>
       </c>
       <c r="AE203">
         <v>7</v>
       </c>
       <c r="AF203" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="AG203">
         <v>10</v>
@@ -11833,204 +11920,213 @@
     </row>
     <row r="204" spans="1:33">
       <c r="A204">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B204" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C204" t="s">
-        <v>894</v>
-      </c>
-      <c r="D204" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="N204">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="O204">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="P204">
-        <v>1500000000</v>
+        <v>10000</v>
       </c>
       <c r="Q204">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="U204" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="AA204" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="AB204" t="s">
-        <v>910</v>
-      </c>
-      <c r="AC204" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="AE204">
         <v>7</v>
       </c>
       <c r="AF204" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="AG204">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:33">
       <c r="A205">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B205" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C205" t="s">
-        <v>890</v>
-      </c>
-      <c r="D205" t="s">
-        <v>905</v>
+        <v>861</v>
       </c>
       <c r="N205">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="O205">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="P205">
-        <v>1500000000</v>
+        <v>10000</v>
       </c>
       <c r="Q205">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="U205" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="AA205" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="AB205" t="s">
-        <v>913</v>
-      </c>
-      <c r="AC205" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="AE205">
         <v>7</v>
       </c>
       <c r="AF205" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AG205">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:33">
       <c r="A206">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B206" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C206" t="s">
-        <v>890</v>
-      </c>
-      <c r="D206" t="s">
-        <v>905</v>
+        <v>919</v>
+      </c>
+      <c r="E206" t="s">
+        <v>915</v>
+      </c>
+      <c r="F206" t="s">
+        <v>906</v>
+      </c>
+      <c r="G206">
+        <v>20</v>
+      </c>
+      <c r="H206" t="s">
+        <v>398</v>
+      </c>
+      <c r="I206">
+        <v>550000</v>
+      </c>
+      <c r="J206">
+        <v>550000</v>
+      </c>
+      <c r="K206">
+        <v>150000000000</v>
+      </c>
+      <c r="L206">
+        <v>700000</v>
       </c>
       <c r="N206">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O206">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P206">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q206">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U206" t="s">
-        <v>911</v>
+        <v>860</v>
       </c>
       <c r="AA206" t="s">
+        <v>920</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>921</v>
+      </c>
+      <c r="AD206" t="s">
         <v>915</v>
-      </c>
-      <c r="AB206" t="s">
-        <v>916</v>
-      </c>
-      <c r="AC206" t="s">
-        <v>905</v>
       </c>
       <c r="AE206">
         <v>7</v>
       </c>
       <c r="AF206" t="s">
-        <v>890</v>
+        <v>919</v>
       </c>
       <c r="AG206">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:33">
       <c r="A207">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B207" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C207" t="s">
-        <v>845</v>
-      </c>
-      <c r="D207" t="s">
-        <v>905</v>
+        <v>923</v>
+      </c>
+      <c r="L207">
+        <v>150000</v>
       </c>
       <c r="N207">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O207">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P207">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q207">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U207" t="s">
-        <v>914</v>
+        <v>918</v>
+      </c>
+      <c r="W207" t="s">
+        <v>775</v>
+      </c>
+      <c r="X207">
+        <v>5</v>
       </c>
       <c r="AA207" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="AB207" t="s">
-        <v>919</v>
-      </c>
-      <c r="AC207" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="AE207">
         <v>7</v>
       </c>
       <c r="AF207" t="s">
-        <v>845</v>
+        <v>923</v>
       </c>
       <c r="AG207">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:33">
       <c r="A208">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B208" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="C208" t="s">
-        <v>845</v>
-      </c>
-      <c r="D208" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="N208">
         <v>500000</v>
@@ -12039,202 +12135,172 @@
         <v>500000</v>
       </c>
       <c r="P208">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q208">
-        <v>75000</v>
+        <v>175000</v>
       </c>
       <c r="U208" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="AA208" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="AB208" t="s">
-        <v>922</v>
-      </c>
-      <c r="AC208" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="AE208">
         <v>7</v>
       </c>
       <c r="AF208" t="s">
-        <v>845</v>
+        <v>923</v>
       </c>
       <c r="AG208">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:33">
       <c r="A209">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B209" t="s">
+        <v>929</v>
+      </c>
+      <c r="C209" t="s">
         <v>923</v>
       </c>
-      <c r="C209" t="s">
-        <v>832</v>
-      </c>
-      <c r="D209" t="s">
-        <v>905</v>
-      </c>
-      <c r="E209" t="s">
-        <v>804</v>
-      </c>
-      <c r="F209" t="s">
-        <v>787</v>
-      </c>
-      <c r="G209">
-        <v>25</v>
-      </c>
-      <c r="H209" t="s">
-        <v>924</v>
-      </c>
-      <c r="K209">
-        <v>2000000000</v>
+      <c r="M209" t="s">
+        <v>930</v>
       </c>
       <c r="N209">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="O209">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="P209">
         <v>2000000000</v>
       </c>
       <c r="Q209">
-        <v>200000</v>
+        <v>175000</v>
       </c>
       <c r="U209" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="AA209" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="AB209" t="s">
-        <v>926</v>
-      </c>
-      <c r="AC209" t="s">
-        <v>905</v>
-      </c>
-      <c r="AD209" t="s">
-        <v>804</v>
+        <v>932</v>
       </c>
       <c r="AE209">
         <v>7</v>
       </c>
       <c r="AF209" t="s">
-        <v>832</v>
+        <v>923</v>
       </c>
       <c r="AG209">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:33">
       <c r="A210">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B210" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="C210" t="s">
-        <v>832</v>
+        <v>919</v>
       </c>
       <c r="D210" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="E210" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="F210" t="s">
-        <v>904</v>
-      </c>
-      <c r="H210" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="N210">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O210">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P210">
-        <v>2000000000</v>
+        <v>150000000000</v>
       </c>
       <c r="Q210">
-        <v>200000</v>
-      </c>
-      <c r="U210" t="s">
-        <v>923</v>
+        <v>750</v>
+      </c>
+      <c r="T210">
+        <v>1</v>
       </c>
       <c r="AA210" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="AB210" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="AC210" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="AD210" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="AE210">
         <v>7</v>
       </c>
       <c r="AF210" t="s">
-        <v>832</v>
+        <v>919</v>
       </c>
       <c r="AG210">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:33">
       <c r="A211">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B211" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="C211" t="s">
-        <v>845</v>
+        <v>923</v>
       </c>
       <c r="D211" t="s">
-        <v>905</v>
-      </c>
-      <c r="H211" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="N211">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O211">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P211">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q211">
-        <v>2000000</v>
+        <v>750</v>
       </c>
       <c r="U211" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="AA211" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="AB211" t="s">
+        <v>939</v>
+      </c>
+      <c r="AC211" t="s">
         <v>934</v>
-      </c>
-      <c r="AC211" t="s">
-        <v>905</v>
       </c>
       <c r="AE211">
         <v>7</v>
       </c>
       <c r="AF211" t="s">
-        <v>845</v>
+        <v>923</v>
       </c>
       <c r="AG211">
         <v>20</v>
@@ -12242,113 +12308,475 @@
     </row>
     <row r="212" spans="1:33">
       <c r="A212">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B212" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="C212" t="s">
-        <v>832</v>
+        <v>919</v>
       </c>
       <c r="D212" t="s">
-        <v>905</v>
-      </c>
-      <c r="H212" t="s">
-        <v>936</v>
-      </c>
-      <c r="I212">
-        <v>20000</v>
-      </c>
-      <c r="J212">
-        <v>30000</v>
-      </c>
-      <c r="K212">
-        <v>150000000000</v>
-      </c>
-      <c r="L212">
-        <v>700000</v>
+        <v>934</v>
       </c>
       <c r="N212">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O212">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P212">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q212">
-        <v>200000</v>
+        <v>750</v>
       </c>
       <c r="U212" t="s">
-        <v>931</v>
-      </c>
-      <c r="Y212">
-        <v>3</v>
+        <v>937</v>
       </c>
       <c r="AA212" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="AB212" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="AC212" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="AE212">
         <v>7</v>
       </c>
       <c r="AF212" t="s">
-        <v>832</v>
+        <v>919</v>
       </c>
       <c r="AG212">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:33">
       <c r="A213">
+        <v>187</v>
+      </c>
+      <c r="B213" t="s">
+        <v>943</v>
+      </c>
+      <c r="C213" t="s">
+        <v>919</v>
+      </c>
+      <c r="D213" t="s">
+        <v>934</v>
+      </c>
+      <c r="N213">
+        <v>50000</v>
+      </c>
+      <c r="O213">
+        <v>50000</v>
+      </c>
+      <c r="P213">
+        <v>1500000000</v>
+      </c>
+      <c r="Q213">
+        <v>750</v>
+      </c>
+      <c r="U213" t="s">
+        <v>940</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>944</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>945</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE213">
+        <v>7</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>919</v>
+      </c>
+      <c r="AG213">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:33">
+      <c r="A214">
+        <v>188</v>
+      </c>
+      <c r="B214" t="s">
+        <v>946</v>
+      </c>
+      <c r="C214" t="s">
+        <v>874</v>
+      </c>
+      <c r="D214" t="s">
+        <v>934</v>
+      </c>
+      <c r="N214">
+        <v>50000</v>
+      </c>
+      <c r="O214">
+        <v>50000</v>
+      </c>
+      <c r="P214">
+        <v>1500000000</v>
+      </c>
+      <c r="Q214">
+        <v>750</v>
+      </c>
+      <c r="U214" t="s">
+        <v>943</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>947</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>948</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE214">
+        <v>7</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>874</v>
+      </c>
+      <c r="AG214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33">
+      <c r="A215">
+        <v>189</v>
+      </c>
+      <c r="B215" t="s">
+        <v>949</v>
+      </c>
+      <c r="C215" t="s">
+        <v>874</v>
+      </c>
+      <c r="D215" t="s">
+        <v>934</v>
+      </c>
+      <c r="N215">
+        <v>500000</v>
+      </c>
+      <c r="O215">
+        <v>500000</v>
+      </c>
+      <c r="P215">
+        <v>1500000000</v>
+      </c>
+      <c r="Q215">
+        <v>75000</v>
+      </c>
+      <c r="U215" t="s">
+        <v>946</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>950</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>951</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE215">
+        <v>7</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>874</v>
+      </c>
+      <c r="AG215">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:33">
+      <c r="A216">
+        <v>190</v>
+      </c>
+      <c r="B216" t="s">
+        <v>952</v>
+      </c>
+      <c r="C216" t="s">
+        <v>861</v>
+      </c>
+      <c r="D216" t="s">
+        <v>934</v>
+      </c>
+      <c r="E216" t="s">
+        <v>833</v>
+      </c>
+      <c r="F216" t="s">
+        <v>816</v>
+      </c>
+      <c r="G216">
+        <v>25</v>
+      </c>
+      <c r="H216" t="s">
+        <v>953</v>
+      </c>
+      <c r="K216">
+        <v>2000000000</v>
+      </c>
+      <c r="N216">
+        <v>1000000</v>
+      </c>
+      <c r="O216">
+        <v>1000000</v>
+      </c>
+      <c r="P216">
+        <v>2000000000</v>
+      </c>
+      <c r="Q216">
+        <v>200000</v>
+      </c>
+      <c r="U216" t="s">
+        <v>933</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>954</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>955</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>934</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>833</v>
+      </c>
+      <c r="AE216">
+        <v>7</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>861</v>
+      </c>
+      <c r="AG216">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:33">
+      <c r="A217">
+        <v>191</v>
+      </c>
+      <c r="B217" t="s">
+        <v>956</v>
+      </c>
+      <c r="C217" t="s">
+        <v>861</v>
+      </c>
+      <c r="D217" t="s">
+        <v>934</v>
+      </c>
+      <c r="E217" t="s">
+        <v>949</v>
+      </c>
+      <c r="F217" t="s">
+        <v>933</v>
+      </c>
+      <c r="H217" t="s">
+        <v>957</v>
+      </c>
+      <c r="N217">
+        <v>1000000</v>
+      </c>
+      <c r="O217">
+        <v>1000000</v>
+      </c>
+      <c r="P217">
+        <v>2000000000</v>
+      </c>
+      <c r="Q217">
+        <v>200000</v>
+      </c>
+      <c r="U217" t="s">
+        <v>952</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>958</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>959</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>934</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>949</v>
+      </c>
+      <c r="AE217">
+        <v>7</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>861</v>
+      </c>
+      <c r="AG217">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:33">
+      <c r="A218">
+        <v>192</v>
+      </c>
+      <c r="B218" t="s">
+        <v>960</v>
+      </c>
+      <c r="C218" t="s">
+        <v>874</v>
+      </c>
+      <c r="D218" t="s">
+        <v>934</v>
+      </c>
+      <c r="H218" t="s">
+        <v>961</v>
+      </c>
+      <c r="N218">
+        <v>1000000</v>
+      </c>
+      <c r="O218">
+        <v>1000000</v>
+      </c>
+      <c r="P218">
+        <v>2000000000</v>
+      </c>
+      <c r="Q218">
+        <v>2000000</v>
+      </c>
+      <c r="U218" t="s">
+        <v>956</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>962</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>963</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE218">
+        <v>7</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>874</v>
+      </c>
+      <c r="AG218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:33">
+      <c r="A219">
+        <v>193</v>
+      </c>
+      <c r="B219" t="s">
+        <v>964</v>
+      </c>
+      <c r="C219" t="s">
+        <v>861</v>
+      </c>
+      <c r="D219" t="s">
+        <v>934</v>
+      </c>
+      <c r="H219" t="s">
+        <v>965</v>
+      </c>
+      <c r="I219">
+        <v>20000</v>
+      </c>
+      <c r="J219">
+        <v>30000</v>
+      </c>
+      <c r="K219">
+        <v>150000000000</v>
+      </c>
+      <c r="L219">
+        <v>700000</v>
+      </c>
+      <c r="N219">
+        <v>1000000</v>
+      </c>
+      <c r="O219">
+        <v>1000000</v>
+      </c>
+      <c r="P219">
+        <v>2000000000</v>
+      </c>
+      <c r="Q219">
+        <v>200000</v>
+      </c>
+      <c r="U219" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y219">
+        <v>3</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>966</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>967</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE219">
+        <v>7</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>861</v>
+      </c>
+      <c r="AG219">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:33">
+      <c r="A220">
         <v>206</v>
       </c>
-      <c r="B213" t="s">
-        <v>939</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="B220" t="s">
+        <v>968</v>
+      </c>
+      <c r="C220" t="s">
         <v>68</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E220" t="s">
         <v>402</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F220" t="s">
         <v>528</v>
       </c>
-      <c r="H213" t="s">
-        <v>940</v>
-      </c>
-      <c r="P213">
+      <c r="H220" t="s">
+        <v>969</v>
+      </c>
+      <c r="P220">
         <v>2000000</v>
       </c>
-      <c r="Q213">
+      <c r="Q220">
         <v>250</v>
       </c>
-      <c r="T213">
+      <c r="T220">
         <v>1</v>
       </c>
-      <c r="Y213">
+      <c r="Y220">
         <v>5</v>
       </c>
-      <c r="AA213" t="s">
-        <v>941</v>
-      </c>
-      <c r="AB213" t="s">
-        <v>942</v>
-      </c>
-      <c r="AD213" t="s">
+      <c r="AA220" t="s">
+        <v>970</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>971</v>
+      </c>
+      <c r="AD220" t="s">
         <v>402</v>
       </c>
-      <c r="AF213" t="s">
+      <c r="AF220" t="s">
         <v>68</v>
       </c>
-      <c r="AG213">
+      <c r="AG220">
         <v>5</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="990">
   <si>
     <t>id</t>
   </si>
@@ -1979,6 +1979,39 @@
     <t>With the skirt, ratty and old, you place it below the tree, she guides you by telling you have to wrap it around the tree. You do so, it smells, its old. But she doesn’t care. She curls up under the tree.&lt;br /&gt; &lt;br /&gt; After a moment she looks up at you.&lt;br /&gt; &lt;br /&gt; “You know, you remind me of him. I like that. I like to lay beside him and watch what hes doing. Every now and then I get the kisses, the pets and snuggles. I miss those days. I miss my human.”&lt;br /&gt; &lt;br /&gt; You ask her if she knows what became of him, of what Mr. Whiskers stated.&lt;br /&gt; &lt;br /&gt; “Dead, yes I know that. He left me, he left me alone. The world grew colder, lonelier and I became lost. Lost like I was when Mr. Whiskers, my best friend, my soul mate, my true companion had also died. I became abandoned in heart and in soul. I miss them both dearly.”&lt;br /&gt; &lt;br /&gt; She refuses to speak after that. You wonder if there is something else that would make her speak. Maybe you need to speak to others, but who else could you speak to?</t>
   </si>
   <si>
+    <t>The Key and The Cat</t>
+  </si>
+  <si>
+    <t>A Fathers Pain</t>
+  </si>
+  <si>
+    <t>Cat Bones</t>
+  </si>
+  <si>
+    <t>The Poets Key</t>
+  </si>
+  <si>
+    <t>The key clicks in the lock, but the door remains stubbornly frozen in place, as if some unseen force holds it shut. A shiver runs down your spine, not from the cold, but from the tension that coils in the silence surrounding The Poet’s house. Ice clings to the dark wood like claws, and the brittle windows filled with frost seem to peer back at you with vacant, icy eyes.&lt;br /&gt; &lt;br /&gt; “Bones?” you echo, turning to Mr. Whiskers. The cat tilts his head, eyes wide with an amused glint.&lt;br /&gt; &lt;br /&gt; “Yes, bones,” he replies, as if it’s the most natural thing in the world. He stretches luxuriously, paws digging into the snow before him. “The house demands something old, something connected to the past. Without it, you’ll never open that door.”&lt;br /&gt; &lt;br /&gt; You pause, trying to make sense of the riddle. The memory of The Soldier’s father and his tale of blood and betrayal flickers through your mind. The weight of his story, of the lives shattered by secrets and violence, presses heavily on you. You turn back to Mr. Whiskers, who is now swiping at the drifting snowflakes as if they’re nothing more than playful motes in the wind.&lt;br /&gt; &lt;br /&gt; “Why bones?” you ask, voice low with a mix of frustration and curiosity.&lt;br /&gt; &lt;br /&gt; Mr. Whiskers stops mid-swipe and sits back on his haunches, his purr rumbling softly. “Because, child, bones hold memories. The house knows this—it craves them. If you wish to enter, you must offer a piece of the past, a piece that remembers.”&lt;br /&gt; &lt;br /&gt; A chill creeps down your spine as realization dawns. The frozen plains, the whispers of the wind, the story of love and loss—it all comes back to you. The bones of those who had once walked this land, who had fought, loved, and died here, now rest somewhere beneath the snow.&lt;br /&gt; &lt;br /&gt; You meet Mr. Whiskers’ gaze, and he tilts his head again, eyes narrowing with an enigmatic glimmer. “Find the bones, child. Only then will the house let you in.”&lt;br /&gt; &lt;br /&gt; With the key still clenched in your hand and determination coursing through your veins, you scan the snow-covered landscape. The journey is not over yet, and with every step, you can feel the weight of the past calling you to uncover its secrets.</t>
+  </si>
+  <si>
+    <t>You found the bones Mr. Whiskers was talking about. A set of bones that seem to make up a cat. You wonder if these are his bones; you know he is dead, a memory of The Creator, a beloved pet. But you wonder if these are his bones, it haunts you that you hold them so freely.&lt;br /&gt; As you approach the house, he is sitting on the steps. The wind blows lightly, and the snow falls gently. His fur becomes covered in snow, and every now and then he shakes himself off and cleans his fur.&lt;br /&gt; “Child, you are back!” He purrs and scampers over to you, rubbing himself across your legs.&lt;br /&gt; You ask him if the bones you found are his.&lt;br /&gt; “Yes, they are. They were once buried in the pet cemetery, alas, one of those nasty ghouls must have dug them up. Dug them up and picked their teeth with them. How disrespectful. I was peacefully resting. Nasty ghoul!”&lt;br /&gt; He reaches up as if to be picked up, and you reach down and pat his head. He nuzzles your hand.&lt;br /&gt; “Take the bones and drop them over the key, then try the key again in the lock.”&lt;br /&gt; You look at him, and after a moment of confusion, you do as he says. What harm could it do? Then again, everything in this world comes with some kind of price, some kind of harm.&lt;br /&gt; As you do what he asks, you notice the bones turn to dust, to ash. The ash falls over the key, coating it, dissipating into the key. Once the bones are gone and the ash has dissipated into the key, you walk over to the door, place the key in the lock, and turn it. As before, the lock clicks, and this time when you push on the door, it opens. A howling wind comes through the house, an icy wind chills you to the bone, and even Mr. Whiskers shivers.&lt;br /&gt; “Brrr,” he states. He scampers inside.&lt;br /&gt; “Journal’s this way, child!” he calls back as he leads you into the darkness.&lt;br /&gt; After a moment, you step forward, and the door slams shut behind you. There is a silence that falls in the darkness.&lt;br /&gt; “Light, child! We need light!”</t>
+  </si>
+  <si>
+    <t>Truth and Light</t>
+  </si>
+  <si>
+    <t>Everlasting Candle</t>
+  </si>
+  <si>
+    <t>Bloody Journal</t>
+  </si>
+  <si>
+    <t>You search around for some kind of light source, but there is none.&lt;br /&gt; &lt;br /&gt; “Child, I need light. Where’s the light? Where’s the warmth? I’m freezing!”&lt;br /&gt; &lt;br /&gt; You tell him to calm down, and you will find the light in a moment.&lt;br /&gt; &lt;br /&gt; After a few moments of searching for light or a heat source in the darkness, you keep bumping into old furniture, tables, and garbage that is littered around in the dark. You tell the cat you can’t find anything.&lt;br /&gt; &lt;br /&gt; There is a silence in the darkness, and then a hissing and the sounds of a cat screaming and bumping into things: “Child, something’s got my tail!” he hisses and screams. You find him in the darkness and reach down, only to find that some kind of box or something has fallen on his tail. It feels heavy, but you lift it off and hear him scamper off.&lt;br /&gt; &lt;br /&gt; “I need light! Find me light!” he screams in the darkness.&lt;br /&gt; &lt;br /&gt; You tell him you don’t know where the light is; the place is cluttered with garbage and junk, and there is nothing around.&lt;br /&gt; &lt;br /&gt; “There is a place where light might exist. An old abandoned village. You remember it, don’t you? Go there. Find light. I’ll hide in the shadows, away from the dangers.” You hear things falling over as he is scampering about, hissing and running and knocking things over. The darkness makes it all but impossible to see.&lt;br /&gt; &lt;br /&gt; You tell him to try and remain calm as you leave the house in search of light.</t>
+  </si>
+  <si>
+    <t>You found a candle in the old abandoned village where you met Mr. Whiskers long ago. You bring it back to the house, the only source of light you were able to find. You tested it out, and as the flame burned, it seemed to warm up a large area around it, melting snow and warming you from the inside out. The flame burned, but the wax never melted—some kind of strange magic that is unfamiliar to you.&lt;br /&gt; &lt;br /&gt; You tried to decipher its magic, but could not peer into it, in the way you can with other objects, with other magics that resonate with this and other planes.&lt;br /&gt; &lt;br /&gt; You arrive back at the old house and manage to light the candle. You see Mr. Whiskers, curled up and hiding, shivering and trying to keep warm. There is a sense of fear about him as his fur stands on edge, and his tail is fluffier than normal.&lt;br /&gt; &lt;br /&gt; You tell him you found light and warmth through this mysterious candle.&lt;br /&gt; &lt;br /&gt; He comes over to you as you place the candle in a candle holder on what you can now see is a table. The wax never melts, and the warmth it gives off seems to fill the whole room. You see his fur become less on edge until he has a regular fluffy tail and not one of fear.&lt;br /&gt; &lt;br /&gt; He sniffs at the candle and then walks around the table. He sits upon a book.&lt;br /&gt; &lt;br /&gt; “Is that the book?” you ask him.&lt;br /&gt; &lt;br /&gt; “Yes, it is. But you do not want to read it. Trust me, child. My eyes can somewhat see in the darkness, and even this book filled me with dread.”&lt;br /&gt; &lt;br /&gt; You pick him up and hold him in your arms; he purrs and licks your chin. You put him down, and he jumps back up on the table. He races to the book and starts to bat it with his paw. You tell him to stop, and he hisses at you.&lt;br /&gt; &lt;br /&gt; You explain this book holds something, some kind of truth. You pick it up and feel its weight: light and leather-bound, stained with blood.&lt;br /&gt; &lt;br /&gt; As you open it and flip through the pages, you can clearly make out the old words, fading as they are, on the ink-stained pages.&lt;br /&gt; &lt;br /&gt; “As The Soldier’s Brother is slain, a man lays in the snow. His eyes are carved from his skull, and the blood drips down like tears. As The Soldier is banished and falls into his own despair, I fear he might become like The Drunk, a man I failed to guide, for my own thoughts are with The Child.”&lt;br /&gt; &lt;br /&gt; The words become harder to read, but you press on with another passage.&lt;br /&gt; &lt;br /&gt; “The Child weeps over a young man’s body who lies on the ground of an abandoned tent in the middle of a federation camp. A small boy, beaten, bruised, soulless and violated by those who portray themselves as God’s children. Portray them as those who walk in the light of God. There is a pain that echoes out across the land, covering it in ice, a memory that plays out of a mother and a father. The ice begins to cover the land, and The Red Hawk soldiers, a rebellion of men and women who stand against The Federation and The Church, retreat from the banshee cries of a lonely child.”&lt;br /&gt; &lt;br /&gt; You keep reading through the journal, page after page. The Poet keeps recounting his failures, his losses, but then there is a passage, one that seems to resonate with you.&lt;br /&gt; &lt;br /&gt; “Today I watched as The Child fell from the grace of light that raised him up. He refused to let go, let go of the love he lost, let go of the reason why he is here, let go of his grief and guilt. It is like an ice that falls over his heart. An ice that won’t let go of its grip over his fragile and broken mind. He fell to the ground, a whimpering, tear-filled husk of a child that fought to save the people of The South from the encroaching men of The North, The Federation, The Church. He drove the sword in Flinigus’s heart, he slaughtered the man who controlled The Federation, he killed the bishop of the church, and watched the ties and hold it had on the land start to wither and wane. Alas, he still cannot let go.”&lt;br /&gt; &lt;br /&gt; The book continues to dive into how The Poet had to make the hard choice to put The Child into purgatory, a prison of his own making, a place where The Child would wake and face his own horrors forevermore, until the sun set in the east and rose in the west. There was nothing more The Poet could do for a child who cannot let go, who is ever so consumed in his own pain and rage.&lt;br /&gt; &lt;br /&gt; “Now you see, now you see why The Creator is so sad? Now you see why The Poet feels like a failure. Now you see how even as a hero of the land, The Child is consumed by the one thing he can’t let go of. All the things lost,” Mr. Whiskers states.&lt;br /&gt; &lt;br /&gt; You look up from the book and tell him The Poet wants it back.&lt;br /&gt; &lt;br /&gt; “Take it to him. Take the book to The Poet and let him go in peace; it’s the last thing he wants before he fades from this world.”&lt;br /&gt; &lt;br /&gt; You wonder what will happen when he does, when he is gone.</t>
+  </si>
+  <si>
     <t>The Whisper</t>
   </si>
   <si>
@@ -2150,6 +2183,33 @@
     <t>You come back to the building, and you hold in your hand another journal. This one seems to belong to The Child, The Creator’s own Journal kept by The Poet. What secrets will you find in it?&lt;br /&gt; &lt;br /&gt; The Soldier's Brother is nowhere to be seen. You sit on the counter and read the journal while waiting for him.&lt;br /&gt; &lt;br /&gt; “He couldn’t seem to handle the truth. I told him of his death today, and he couldn't handle the truth.”&lt;br /&gt; &lt;br /&gt; You begin to read the only passage that seems to make sense or isn’t scrambled by some kind of magic.&lt;br /&gt; &lt;br /&gt; “I told him he needed to ascend from this plane, but he couldn’t let go of the past—the love he lost, the mother he discovered to be among this land—the memories he creates are frozen in place, and no matter how many winter nights pass and how many years begin and end, he refuses to accept the truth."&lt;br /&gt; &lt;br /&gt; "The Child clings to the past disillusion and memories of a better time, a time he chose to end at his own hands. I have explained that his being here, his clinging to these memories, and his refusing to let go are slowly corrupting the land. He seems not to care.” How could one person do so much damage to a single world?&lt;br /&gt; &lt;br /&gt; “I see you found another book.” You are startled by a familar voice.</t>
   </si>
   <si>
+    <t>Chistmas Trees and Childrens Smiles</t>
+  </si>
+  <si>
+    <t>Christmas Presents</t>
+  </si>
+  <si>
+    <t>Christmas Tree Ordainment</t>
+  </si>
+  <si>
+    <t>Fathers Sword</t>
+  </si>
+  <si>
+    <t>You think more about The Poet's request and the watch The Enchanted Snowman desires. You ponder this land, the winter, the icy cold air, and the despair in people's voices and eyes. You recall where you last encountered The Soldier's Brother—in a house in a port town filled with zombified people, frozen souls whose eyes still move, whose minds still think as you pass by. You can't shake the feeling that there is something deeper to this world.&lt;br /&gt; &lt;br /&gt; You arrive at a road—broken, shattered, covered in snow. It leads nowhere but once led somewhere. You look around as the wind picks up in the mid-afternoon. The sky is gray, lifeless, almost dark. The sun has been hidden all day, and the chill in the air is sharp and bold against your face as you stand in the middle of this broken road.&lt;br /&gt; &lt;br /&gt; "I was wondering how long it would take you to get here."&lt;br /&gt; &lt;br /&gt; You turn and see The Soldier's Brother standing beside a familiar face: Trix.&lt;br /&gt; &lt;br /&gt; You ask how they are and if you can all get out of the cold. Trix indicates he can lead you to the abandoned gas station just down the road. The place feels familiar to you.&lt;br /&gt; &lt;br /&gt; As Trix guides you both, The Soldier's Brother asks what brings you out here in the middle of nowhere. You tell him about The Poet's request, leaving out The Enchanted Snowman and the leather watch—not because you have something to hide, but because it doesn’t seem relevant.&lt;br /&gt; &lt;br /&gt; "I know the journal you seek, but you'll need a key to get it."&lt;br /&gt; &lt;br /&gt; A key? Why do you need a key? You ask him about it, but he shakes his head.&lt;br /&gt; &lt;br /&gt; "My brother never told me about the key. He only said, when we found it, that it was for 'his' house."&lt;br /&gt; &lt;br /&gt; His house? You wonder who "he" is.&lt;br /&gt; &lt;br /&gt; As you arrive at the old, abandoned gas station further down the snow-covered road, The Soldier's Brother turns to you, as if remembering something. "I do know how you can get the key from him, though," he says, starting to smile.&lt;br /&gt; &lt;br /&gt; "If you find me a Christmas tree ornament for the little tree Trix and I are setting up inside, I can give you the one thing my brother always treasured—our father's sword."&lt;br /&gt; &lt;br /&gt; It sounds like a fair trade. You agree and tell him you’ll be back. Trix steps out of the gas station and asks where you are going. You tell him you'll return with something special for him, and he smiles.</t>
+  </si>
+  <si>
+    <t>You found an old Christmas tree ornament in a place where the winds scream like a banshee searching for its one true love, deep in the cold dead of night. The ornament was sticking out of the ground, partially covered by the blowing snow.&lt;br /&gt; &lt;br /&gt; The plains where you discovered the ornament are haunted by death and pain. The screams on the wind are shapeless, faceless, yet filled with emotion. They resonate with hate, rage, loss, and loneliness.&lt;br /&gt; &lt;br /&gt; Once you took the ornament, the wind picked up, and the screaming grew louder. Something approached, but the snow was blowing so hard that you couldn’t see; you could barely breathe. You could not summon the magic to clear the snow. Covering yourself, you began to run, not knowing if you were heading in the right direction or deeper into the storm. The blinding, deafening snow surrounded you.&lt;br /&gt; &lt;br /&gt; It felt like an eternity before you emerged from the snow, away from the screaming wind and back to the road. You have no idea how you managed to get there. Ahead, you see the gas station with a dim light shining from within. You approach and enter, finding Trix and The Soldier's Brother sitting by a fire. They welcome you, and you hand the ornament to The Soldier's Brother. He takes it, threads some string through the hook, and hangs it on the half-dead tree. It’s the only ornament on the tree, but it makes Trix smile.&lt;br /&gt; &lt;br /&gt; You recount what happened—how the winds picked up and the snow began to blow fiercely, seemingly out of nowhere. There is a moment of silence as they exchange looks before Trix says, “The king speaks.”&lt;br /&gt; &lt;br /&gt; The king?&lt;br /&gt; &lt;br /&gt; “There is a king of these lands who searches for his queen. His beloved queen. His screams can be heard all over the Banshee Plains. It’s as if he is trapped there, or at least his spirit is,” Trix explains. The Soldier's Brother nods in agreement and rises to walk over to a table.&lt;br /&gt; &lt;br /&gt; “I have the sword for you. Give this to my brother in exchange for the key. It will grant you entry to an old house covered in ice, where the journal lies.”&lt;br /&gt; &lt;br /&gt; You ask what he knows about the journal, but he shakes his head. “Nothing. I only know it was once The Poet’s house, but it has become frozen in ice.”&lt;br /&gt; &lt;br /&gt; You wonder how The Poet could have two houses in different places. Then it becomes clear: The Shattering. When the surface shattered, countless realities and planes of existence were created. Some were locked away, some faded from reality as they were forgotten, and others—like those you have already seen—are mere manifestations.&lt;br /&gt; &lt;br /&gt; You thank The Soldier and ask Trix about the king and what else he might know.&lt;br /&gt; &lt;br /&gt; “I don’t know anything more than what I told you. I don’t even know if he’s real or just a story told by the priests of The Church. They would threaten to feed me to the cold winds and the ‘Banshee King’ if I didn’t obey.”&lt;br /&gt; &lt;br /&gt; A scary story to keep children in line.&lt;br /&gt; &lt;br /&gt; Trix shakes his head. “A scary story, if I didn’t wander into the shadows of the night...” His voice trails off, and you understand the horrors he speaks of.</t>
+  </si>
+  <si>
+    <t>Bronze Armour</t>
+  </si>
+  <si>
+    <t>You arrive at Smuggler’s Port. The air is warm, and the sun soothes your bones, easing the chill from the frozen plains. You reflect on what you know of The Soldier’s Brother and The Soldier himself. You know their father banished The Soldier, a pain that haunts him still, a subject he refuses to discuss. The weight of it lingers in his heart, explaining why he drinks more than usual.&lt;br /&gt; &lt;br /&gt; These days, The Soldier is nothing more than a mercenary, with tenuous connections to The Poet. Yet even he is fading, his presence slowly vanishing from this land, with no one left to guide him. Locked away in torment, he endures the twisted, delusional pain of those unable to let go—those corrupted by their own suffering. You wonder if The Soldier will succumb to this corruption or if a glimmer of hope remains within him.&lt;br /&gt; &lt;br /&gt; You enter a bustling pub, filled with laughter, clinking glasses, and the hearty sounds of people enjoying warm meals and cold ales.&lt;br /&gt; &lt;br /&gt; You spot The Soldier sitting alone at a table, nursing an ale and picking at a piece of bread.&lt;br /&gt; &lt;br /&gt; “Hello, child. What brings you here today?”&lt;br /&gt; &lt;br /&gt; You place the sword on the table and ask if he recognizes it.&lt;br /&gt; &lt;br /&gt; “I do…” He trails off, eyes widening as they lock on the sword. He knows whose sword it is. “How did you get this?”&lt;br /&gt; &lt;br /&gt; You recount your tale of the frozen plains and the banshee's screams. You tell him about his brother, who entrusted you with the sword, knowing that The Soldier held the key you seek—a key to a frozen house where The Poet’s journal lies.&lt;br /&gt; &lt;br /&gt; The Soldier’s expression turns angry. “I do not know what you speak of, child.” He reaches for the sword, but you pull it back, out of his reach. He looks at you, and you refuse to relinquish the sword without an explanation. You mention that this is not the first time you have witnessed his anger regarding his brother.&lt;br /&gt; &lt;br /&gt; “It’s his fault! It’s all his fault. He turned me into a twisted, demonic creature, leading to my father’s banishment.”&lt;br /&gt; &lt;br /&gt; You stare at him, and he sighs.&lt;br /&gt; &lt;br /&gt; “Look, whatever you did to get this sword, whatever he promised you, it’s nothing compared to the monstrous things I’ve done. Things I won’t speak of. But there is something I want—something I can exchange for the key, along with this sword. My father’s bronze armor. But he won’t give it to me. He won’t even acknowledge me.”&lt;br /&gt; &lt;br /&gt; Your father is alive?&lt;br /&gt; &lt;br /&gt; “No, he is a corrupted spirit from another time, trapped in an icy realm of hatred for me. He craves gold and treasures of all kinds. If you can retrieve his armor, I will give you the key. But be warned: what you read in that journal, what you discover, will make you hate me as much as he does.”&lt;br /&gt; &lt;br /&gt; You wonder what secrets the journal holds but agree to speak with his father—or rather, his ghost. Where is he?&lt;br /&gt; &lt;br /&gt; “The Banshee Fields of Tomorrow.” &lt;br /&gt; &lt;br /&gt; You take the sword and rise. He scowls in anger as you leave.</t>
+  </si>
+  <si>
+    <t>You return with the armor. There is a chill in your heart that lingers, stubbornly resisting the warmth of The Surface plane. Even with the sun blazing in the hot afternoon, the chill remains, gnawing at your mind and spirit. The General’s rage, his anger, and his disdain for his children, especially for The Soldier, haunt you. It screams and echoes within your head.&lt;br /&gt; &lt;br /&gt; “Did you get it?” The Soldier asks as you meet him at the port. He is preoccupied, watching the crowds bustle past. People rush by, unloading cargo from ships, haggling over goods, and chattering in the heat of the day.&lt;br /&gt; &lt;br /&gt; You confirm that you did, handing him both items. He reaches beneath his shirt and pulls out a key on a chain around his neck. “I guarded this for The Poet. He told me to never let anyone have it, to never open the door, and to never read the journal. He said I wouldn’t be able to handle what was written inside. I kept that promise, not only because I knew he was right, but because I didn’t want to know the words.” His voice falters. “Did my father ask about me?” he asks, still avoiding your gaze.&lt;br /&gt; &lt;br /&gt; All you can do is lie. You tell him that, though his father was angry and distant at first, over the years of being trapped in his frozen torment, he grew to miss his sons. You say that even the pain of what he discovered could not completely corrupt his heart and soul, that there was still love for them both.&lt;br /&gt; &lt;br /&gt; The Soldier smiles faintly, handing you the key as he finally looks at you. “You’re a bad liar, child. A bad liar.” He takes the sword and the armor and walks away into the throng of people, leaving you with the lie. You hoped it would bring him some measure of comfort, even if only briefly. Whether it did or not, you will never know.&lt;br /&gt; &lt;br /&gt; But now, you have the key.</t>
+  </si>
+  <si>
     <t>Will it Hurt?</t>
   </si>
   <si>
@@ -2195,9 +2255,6 @@
     <t>You arrive back at the small camp, and the cat rises and stretches.&lt;br /&gt; &lt;br /&gt; “Into the church you go. The magic of the barrier has been lifted, and you might need this to enter it.”&lt;br /&gt; &lt;br /&gt; He produces a Christmas tree light bulb.&lt;br /&gt; &lt;br /&gt; “Holding this will allow you to enter the building. Without it, you would be torn apart by the shadows of the past. The ones you saw dancing earlier.”&lt;br /&gt; &lt;br /&gt; You walk through the church doors and into the main area. It is dark and silent. The stories of The Emerald Prince must be here...</t>
   </si>
   <si>
-    <t>Christmas Presents</t>
-  </si>
-  <si>
     <t>Dusty old presents</t>
   </si>
   <si>
@@ -2208,9 +2265,6 @@
   </si>
   <si>
     <t>My Memories</t>
-  </si>
-  <si>
-    <t>Bloody Journal</t>
   </si>
   <si>
     <t>After what feels like forever, The Poet asks you, in a hushed and whispered tone: “I have found what you are searching for. The fact that my original spell worked, and there is a living, breathing snowman, delights me. I have been thinking ever since about that spell, and how it got us one thing but failed to give us another. I am elated to know that there is a being out there who the magic of my spell courses through.”&lt;br /&gt; &lt;br /&gt; He pauses to take a sip of his tea, his coughing fit returning. He puts a handkerchief to his mouth, only to pull it away, stained with blood.&lt;br /&gt; &lt;br /&gt; You ask if he is okay, but he shakes his head. “I am dying, child. Age is coming for me, and the sealing spell I did a while ago with The Wandering Merchant and The Wondering Prince—to seal away the planes of existence that have shattered due to The Child escaping purgatory—has finally caught up with me. Soon I shall be dead. Alas, there is something I want: a memento of this world, a memento of another time, when I was younger and more able to guide The Child, even though I failed. A journal of sorts.”&lt;br /&gt; &lt;br /&gt; You ask, perhaps a little selfishly, if he will give you the watch for it.&lt;br /&gt; &lt;br /&gt; He nods. “I will, child. It is of importance to you, and my excitement about the snowman, a living, breathing construct of my magic, fills me with joy. I will give you this watch for that journal. It is the last vestige of what was, what could have been.”&lt;br /&gt; &lt;br /&gt; You agree to get the journal, but he raises his hand, signaling a warning. “It lies with a man—a man who detests his brother, a man who loves his brother, a man haunted by the past. You will have to help him through his own pain before you can get the journal I seek.”&lt;br /&gt; &lt;br /&gt; You stand and leave the house, wishing The Poet well and a speedy recovery from his sickness, even though the two of you know that death is only around the corner.</t>
@@ -3270,7 +3324,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG220"/>
+  <dimension ref="A1:AG224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3304,8 +3358,8 @@
     <col min="24" max="24" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="36.42" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="2556.376" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="2944.424" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="3588.552" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="5771.019" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="43.561" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -9102,131 +9156,137 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="B139" t="s">
         <v>654</v>
       </c>
       <c r="C139" t="s">
-        <v>244</v>
+        <v>592</v>
+      </c>
+      <c r="E139" t="s">
+        <v>655</v>
       </c>
       <c r="H139" t="s">
-        <v>640</v>
-      </c>
-      <c r="I139">
-        <v>100</v>
-      </c>
-      <c r="J139">
-        <v>5000</v>
-      </c>
-      <c r="M139" t="s">
+        <v>656</v>
+      </c>
+      <c r="N139">
+        <v>250</v>
+      </c>
+      <c r="O139">
+        <v>50</v>
+      </c>
+      <c r="P139">
+        <v>10000</v>
+      </c>
+      <c r="Q139">
+        <v>160</v>
+      </c>
+      <c r="U139" t="s">
+        <v>633</v>
+      </c>
+      <c r="V139" t="s">
+        <v>657</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>659</v>
+      </c>
+      <c r="AD139" t="s">
         <v>655</v>
-      </c>
-      <c r="N139">
-        <v>25</v>
-      </c>
-      <c r="O139">
-        <v>2</v>
-      </c>
-      <c r="P139">
-        <v>150</v>
-      </c>
-      <c r="Q139">
-        <v>250</v>
-      </c>
-      <c r="U139" t="s">
-        <v>591</v>
-      </c>
-      <c r="AA139" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB139" t="s">
-        <v>657</v>
       </c>
       <c r="AE139">
         <v>3</v>
       </c>
+      <c r="AF139" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG139">
+        <v>25</v>
+      </c>
     </row>
     <row r="140" spans="1:33">
       <c r="A140">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="B140" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C140" t="s">
-        <v>659</v>
-      </c>
-      <c r="E140" t="s">
-        <v>660</v>
+        <v>592</v>
+      </c>
+      <c r="H140" t="s">
+        <v>661</v>
       </c>
       <c r="I140">
-        <v>125</v>
+        <v>15000</v>
       </c>
       <c r="J140">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="M140" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N140">
-        <v>75</v>
+        <v>10000</v>
       </c>
       <c r="O140">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="P140">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="Q140">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U140" t="s">
         <v>654</v>
       </c>
       <c r="AA140" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AB140" t="s">
-        <v>663</v>
-      </c>
-      <c r="AD140" t="s">
-        <v>660</v>
-      </c>
-      <c r="AE140">
-        <v>3</v>
+        <v>664</v>
       </c>
     </row>
     <row r="141" spans="1:33">
       <c r="A141">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B141" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C141" t="s">
-        <v>665</v>
+        <v>244</v>
       </c>
       <c r="H141" t="s">
+        <v>640</v>
+      </c>
+      <c r="I141">
+        <v>100</v>
+      </c>
+      <c r="J141">
+        <v>5000</v>
+      </c>
+      <c r="M141" t="s">
         <v>666</v>
       </c>
-      <c r="I141">
-        <v>125</v>
-      </c>
-      <c r="J141">
-        <v>1500</v>
-      </c>
       <c r="N141">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O141">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="P141">
+        <v>150</v>
       </c>
       <c r="Q141">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="U141" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="AA141" t="s">
         <v>667</v>
@@ -9240,22 +9300,25 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B142" t="s">
         <v>669</v>
       </c>
       <c r="C142" t="s">
-        <v>665</v>
-      </c>
-      <c r="H142" t="s">
         <v>670</v>
+      </c>
+      <c r="E142" t="s">
+        <v>671</v>
       </c>
       <c r="I142">
         <v>125</v>
       </c>
       <c r="J142">
-        <v>1500</v>
+        <v>2000</v>
+      </c>
+      <c r="M142" t="s">
+        <v>672</v>
       </c>
       <c r="N142">
         <v>75</v>
@@ -9263,20 +9326,23 @@
       <c r="O142">
         <v>10</v>
       </c>
+      <c r="P142">
+        <v>200</v>
+      </c>
       <c r="Q142">
         <v>100</v>
       </c>
       <c r="U142" t="s">
-        <v>664</v>
-      </c>
-      <c r="V142" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>674</v>
+      </c>
+      <c r="AD142" t="s">
         <v>671</v>
-      </c>
-      <c r="AA142" t="s">
-        <v>672</v>
-      </c>
-      <c r="AB142" t="s">
-        <v>673</v>
       </c>
       <c r="AE142">
         <v>3</v>
@@ -9284,25 +9350,22 @@
     </row>
     <row r="143" spans="1:33">
       <c r="A143">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B143" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C143" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="H143" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I143">
         <v>125</v>
       </c>
       <c r="J143">
-        <v>5000</v>
-      </c>
-      <c r="M143" t="s">
-        <v>676</v>
+        <v>1500</v>
       </c>
       <c r="N143">
         <v>75</v>
@@ -9317,10 +9380,10 @@
         <v>669</v>
       </c>
       <c r="AA143" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AB143" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AE143">
         <v>3</v>
@@ -9328,25 +9391,22 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B144" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C144" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="H144" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="I144">
         <v>125</v>
       </c>
       <c r="J144">
-        <v>10000</v>
-      </c>
-      <c r="M144" t="s">
-        <v>680</v>
+        <v>1500</v>
       </c>
       <c r="N144">
         <v>75</v>
@@ -9358,13 +9418,16 @@
         <v>100</v>
       </c>
       <c r="U144" t="s">
-        <v>658</v>
+        <v>675</v>
+      </c>
+      <c r="V144" t="s">
+        <v>682</v>
       </c>
       <c r="AA144" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AB144" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AE144">
         <v>3</v>
@@ -9372,46 +9435,43 @@
     </row>
     <row r="145" spans="1:33">
       <c r="A145">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C145" t="s">
-        <v>659</v>
-      </c>
-      <c r="E145" t="s">
-        <v>679</v>
+        <v>676</v>
+      </c>
+      <c r="H145" t="s">
+        <v>686</v>
+      </c>
+      <c r="I145">
+        <v>125</v>
+      </c>
+      <c r="J145">
+        <v>5000</v>
+      </c>
+      <c r="M145" t="s">
+        <v>687</v>
       </c>
       <c r="N145">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O145">
-        <v>25</v>
-      </c>
-      <c r="P145">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q145">
         <v>100</v>
       </c>
       <c r="U145" t="s">
-        <v>679</v>
-      </c>
-      <c r="W145" t="s">
-        <v>684</v>
-      </c>
-      <c r="X145">
-        <v>2</v>
+        <v>680</v>
       </c>
       <c r="AA145" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AB145" t="s">
-        <v>686</v>
-      </c>
-      <c r="AD145" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="AE145">
         <v>3</v>
@@ -9419,40 +9479,43 @@
     </row>
     <row r="146" spans="1:33">
       <c r="A146">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B146" t="s">
+        <v>690</v>
+      </c>
+      <c r="C146" t="s">
+        <v>676</v>
+      </c>
+      <c r="H146" t="s">
         <v>687</v>
       </c>
-      <c r="C146" t="s">
-        <v>592</v>
+      <c r="I146">
+        <v>125</v>
+      </c>
+      <c r="J146">
+        <v>10000</v>
+      </c>
+      <c r="M146" t="s">
+        <v>691</v>
       </c>
       <c r="N146">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O146">
-        <v>25</v>
-      </c>
-      <c r="P146">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q146">
         <v>100</v>
       </c>
       <c r="U146" t="s">
-        <v>683</v>
-      </c>
-      <c r="W146" t="s">
-        <v>684</v>
-      </c>
-      <c r="X146">
-        <v>4</v>
+        <v>669</v>
       </c>
       <c r="AA146" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="AB146" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="AE146">
         <v>3</v>
@@ -9460,19 +9523,22 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B147" t="s">
+        <v>694</v>
+      </c>
+      <c r="C147" t="s">
+        <v>670</v>
+      </c>
+      <c r="E147" t="s">
         <v>690</v>
       </c>
-      <c r="C147" t="s">
-        <v>244</v>
-      </c>
       <c r="N147">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O147">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P147">
         <v>1000</v>
@@ -9481,19 +9547,22 @@
         <v>100</v>
       </c>
       <c r="U147" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="W147" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="X147">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA147" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AB147" t="s">
-        <v>692</v>
+        <v>697</v>
+      </c>
+      <c r="AD147" t="s">
+        <v>690</v>
       </c>
       <c r="AE147">
         <v>3</v>
@@ -9501,102 +9570,81 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="C148" t="s">
+        <v>592</v>
+      </c>
+      <c r="N148">
+        <v>100</v>
+      </c>
+      <c r="O148">
+        <v>25</v>
+      </c>
+      <c r="P148">
+        <v>1000</v>
+      </c>
+      <c r="Q148">
+        <v>100</v>
+      </c>
+      <c r="U148" t="s">
         <v>694</v>
       </c>
-      <c r="E148" t="s">
+      <c r="W148" t="s">
         <v>695</v>
       </c>
-      <c r="H148" t="s">
-        <v>696</v>
-      </c>
-      <c r="I148">
-        <v>1000</v>
-      </c>
-      <c r="K148">
-        <v>10000</v>
-      </c>
-      <c r="N148">
-        <v>2000</v>
-      </c>
-      <c r="O148">
-        <v>100</v>
-      </c>
-      <c r="P148">
-        <v>100000</v>
-      </c>
-      <c r="Q148">
-        <v>300</v>
-      </c>
-      <c r="U148" t="s">
-        <v>658</v>
+      <c r="X148">
+        <v>4</v>
       </c>
       <c r="AA148" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AB148" t="s">
-        <v>698</v>
-      </c>
-      <c r="AD148" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AE148">
         <v>3</v>
       </c>
-      <c r="AF148" t="s">
-        <v>694</v>
-      </c>
-      <c r="AG148">
-        <v>5</v>
-      </c>
     </row>
     <row r="149" spans="1:33">
       <c r="A149">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B149" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C149" t="s">
-        <v>659</v>
-      </c>
-      <c r="E149" t="s">
-        <v>654</v>
-      </c>
-      <c r="I149">
+        <v>244</v>
+      </c>
+      <c r="N149">
         <v>125</v>
       </c>
-      <c r="J149">
-        <v>100</v>
-      </c>
-      <c r="N149">
-        <v>75</v>
-      </c>
       <c r="O149">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P149">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q149">
         <v>100</v>
       </c>
       <c r="U149" t="s">
-        <v>591</v>
+        <v>698</v>
+      </c>
+      <c r="W149" t="s">
+        <v>695</v>
+      </c>
+      <c r="X149">
+        <v>5</v>
       </c>
       <c r="AA149" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AB149" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD149" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="AE149">
         <v>3</v>
@@ -9604,63 +9652,78 @@
     </row>
     <row r="150" spans="1:33">
       <c r="A150">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="B150" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C150" t="s">
-        <v>659</v>
+        <v>705</v>
+      </c>
+      <c r="E150" t="s">
+        <v>706</v>
       </c>
       <c r="H150" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="I150">
-        <v>125</v>
-      </c>
-      <c r="J150">
-        <v>500</v>
+        <v>1000</v>
+      </c>
+      <c r="K150">
+        <v>10000</v>
       </c>
       <c r="N150">
-        <v>75</v>
+        <v>2000</v>
       </c>
       <c r="O150">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P150">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="Q150">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U150" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="AA150" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="AB150" t="s">
-        <v>705</v>
+        <v>709</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>706</v>
       </c>
       <c r="AE150">
         <v>3</v>
       </c>
+      <c r="AF150" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG150">
+        <v>5</v>
+      </c>
     </row>
     <row r="151" spans="1:33">
       <c r="A151">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B151" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C151" t="s">
-        <v>659</v>
+        <v>670</v>
+      </c>
+      <c r="E151" t="s">
+        <v>665</v>
       </c>
       <c r="I151">
         <v>125</v>
       </c>
       <c r="J151">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N151">
         <v>75</v>
@@ -9675,13 +9738,16 @@
         <v>100</v>
       </c>
       <c r="U151" t="s">
-        <v>702</v>
+        <v>591</v>
       </c>
       <c r="AA151" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="AB151" t="s">
-        <v>708</v>
+        <v>712</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>665</v>
       </c>
       <c r="AE151">
         <v>3</v>
@@ -9689,22 +9755,22 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B152" t="s">
-        <v>660</v>
+        <v>713</v>
       </c>
       <c r="C152" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="H152" t="s">
-        <v>660</v>
+        <v>714</v>
       </c>
       <c r="I152">
         <v>125</v>
       </c>
       <c r="J152">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N152">
         <v>75</v>
@@ -9719,197 +9785,197 @@
         <v>100</v>
       </c>
       <c r="U152" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="AA152" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="AB152" t="s">
-        <v>710</v>
+        <v>716</v>
+      </c>
+      <c r="AE152">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:33">
       <c r="A153">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B153" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C153" t="s">
-        <v>592</v>
-      </c>
-      <c r="E153" t="s">
-        <v>690</v>
+        <v>670</v>
+      </c>
+      <c r="I153">
+        <v>125</v>
+      </c>
+      <c r="J153">
+        <v>500</v>
       </c>
       <c r="N153">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O153">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P153">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q153">
         <v>100</v>
       </c>
       <c r="U153" t="s">
-        <v>591</v>
+        <v>713</v>
       </c>
       <c r="AA153" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="AB153" t="s">
-        <v>713</v>
-      </c>
-      <c r="AD153" t="s">
-        <v>690</v>
+        <v>719</v>
       </c>
       <c r="AE153">
         <v>3</v>
       </c>
-      <c r="AF153" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG153">
-        <v>5</v>
-      </c>
     </row>
     <row r="154" spans="1:33">
       <c r="A154">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B154" t="s">
-        <v>714</v>
+        <v>671</v>
       </c>
       <c r="C154" t="s">
-        <v>592</v>
+        <v>670</v>
+      </c>
+      <c r="H154" t="s">
+        <v>671</v>
+      </c>
+      <c r="I154">
+        <v>125</v>
+      </c>
+      <c r="J154">
+        <v>1000</v>
       </c>
       <c r="N154">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O154">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P154">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q154">
         <v>100</v>
       </c>
       <c r="U154" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="AA154" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AB154" t="s">
-        <v>716</v>
-      </c>
-      <c r="AE154">
-        <v>3</v>
-      </c>
-      <c r="AF154" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG154">
-        <v>10</v>
+        <v>721</v>
       </c>
     </row>
     <row r="155" spans="1:33">
       <c r="A155">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="B155" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C155" t="s">
-        <v>592</v>
+        <v>670</v>
+      </c>
+      <c r="E155" t="s">
+        <v>723</v>
+      </c>
+      <c r="H155" t="s">
+        <v>724</v>
+      </c>
+      <c r="M155" t="s">
+        <v>725</v>
       </c>
       <c r="N155">
-        <v>175</v>
+        <v>1000</v>
       </c>
       <c r="O155">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="P155">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="Q155">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="U155" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AA155" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="AB155" t="s">
-        <v>719</v>
+        <v>727</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>723</v>
       </c>
       <c r="AE155">
         <v>3</v>
       </c>
-      <c r="AF155" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG155">
-        <v>15</v>
-      </c>
     </row>
     <row r="156" spans="1:33">
       <c r="A156">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="B156" t="s">
-        <v>720</v>
+        <v>655</v>
       </c>
       <c r="C156" t="s">
-        <v>592</v>
-      </c>
-      <c r="N156">
-        <v>175</v>
-      </c>
-      <c r="O156">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="H156" t="s">
+        <v>725</v>
+      </c>
+      <c r="M156" t="s">
+        <v>657</v>
       </c>
       <c r="P156">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q156">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="U156" t="s">
-        <v>717</v>
+        <v>722</v>
+      </c>
+      <c r="V156" t="s">
+        <v>728</v>
       </c>
       <c r="AA156" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="AB156" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="AE156">
         <v>3</v>
       </c>
-      <c r="AF156" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG156">
-        <v>20</v>
-      </c>
     </row>
     <row r="157" spans="1:33">
       <c r="A157">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B157" t="s">
-        <v>646</v>
+        <v>731</v>
       </c>
       <c r="C157" t="s">
         <v>592</v>
       </c>
-      <c r="M157" t="s">
-        <v>723</v>
+      <c r="E157" t="s">
+        <v>701</v>
       </c>
       <c r="N157">
         <v>175</v>
@@ -9924,13 +9990,16 @@
         <v>100</v>
       </c>
       <c r="U157" t="s">
-        <v>720</v>
+        <v>591</v>
       </c>
       <c r="AA157" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="AB157" t="s">
-        <v>725</v>
+        <v>733</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>701</v>
       </c>
       <c r="AE157">
         <v>3</v>
@@ -9939,60 +10008,45 @@
         <v>592</v>
       </c>
       <c r="AG157">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:33">
       <c r="A158">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="B158" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="C158" t="s">
-        <v>244</v>
-      </c>
-      <c r="E158" t="s">
-        <v>695</v>
-      </c>
-      <c r="H158" t="s">
-        <v>727</v>
-      </c>
-      <c r="I158">
-        <v>10000</v>
-      </c>
-      <c r="K158">
-        <v>1000000</v>
+        <v>592</v>
       </c>
       <c r="N158">
-        <v>20000</v>
+        <v>175</v>
       </c>
       <c r="O158">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="P158">
-        <v>2000000</v>
+        <v>2000</v>
       </c>
       <c r="Q158">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U158" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="AA158" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="AB158" t="s">
-        <v>729</v>
-      </c>
-      <c r="AD158" t="s">
-        <v>695</v>
+        <v>736</v>
       </c>
       <c r="AE158">
         <v>3</v>
       </c>
       <c r="AF158" t="s">
-        <v>244</v>
+        <v>592</v>
       </c>
       <c r="AG158">
         <v>10</v>
@@ -10000,275 +10054,275 @@
     </row>
     <row r="159" spans="1:33">
       <c r="A159">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="B159" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="C159" t="s">
-        <v>244</v>
-      </c>
-      <c r="H159" t="s">
-        <v>731</v>
-      </c>
-      <c r="I159">
-        <v>10000</v>
-      </c>
-      <c r="M159" t="s">
-        <v>696</v>
+        <v>592</v>
       </c>
       <c r="N159">
-        <v>3000</v>
+        <v>175</v>
       </c>
       <c r="O159">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="P159">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="Q159">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="U159" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="AA159" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="AB159" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="AE159">
         <v>3</v>
       </c>
       <c r="AF159" t="s">
-        <v>244</v>
+        <v>592</v>
       </c>
       <c r="AG159">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:33">
       <c r="A160">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="B160" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="C160" t="s">
-        <v>659</v>
-      </c>
-      <c r="E160" t="s">
-        <v>644</v>
-      </c>
-      <c r="H160" t="s">
-        <v>735</v>
+        <v>592</v>
       </c>
       <c r="N160">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="O160">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="P160">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="Q160">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="U160" t="s">
-        <v>591</v>
+        <v>737</v>
       </c>
       <c r="AA160" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="AB160" t="s">
-        <v>737</v>
-      </c>
-      <c r="AD160" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="AE160">
         <v>3</v>
       </c>
+      <c r="AF160" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG160">
+        <v>20</v>
+      </c>
     </row>
     <row r="161" spans="1:33">
       <c r="A161">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="B161" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="C161" t="s">
-        <v>659</v>
-      </c>
-      <c r="H161" t="s">
-        <v>695</v>
+        <v>592</v>
       </c>
       <c r="M161" t="s">
-        <v>651</v>
+        <v>743</v>
       </c>
       <c r="N161">
-        <v>800</v>
+        <v>175</v>
       </c>
       <c r="O161">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P161">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="Q161">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U161" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="AA161" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="AB161" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="AE161">
         <v>3</v>
       </c>
+      <c r="AF161" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG161">
+        <v>25</v>
+      </c>
     </row>
     <row r="162" spans="1:33">
       <c r="A162">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B162" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="C162" t="s">
-        <v>592</v>
-      </c>
-      <c r="D162" t="s">
-        <v>741</v>
+        <v>244</v>
       </c>
       <c r="E162" t="s">
-        <v>674</v>
+        <v>706</v>
+      </c>
+      <c r="H162" t="s">
+        <v>746</v>
       </c>
       <c r="I162">
-        <v>125</v>
-      </c>
-      <c r="J162">
-        <v>25000</v>
+        <v>10000</v>
+      </c>
+      <c r="K162">
+        <v>1000000</v>
       </c>
       <c r="N162">
-        <v>75</v>
+        <v>20000</v>
       </c>
       <c r="O162">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="P162">
-        <v>200</v>
+        <v>2000000</v>
       </c>
       <c r="Q162">
-        <v>100</v>
-      </c>
-      <c r="T162">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="U162" t="s">
+        <v>734</v>
       </c>
       <c r="AA162" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="AB162" t="s">
-        <v>743</v>
-      </c>
-      <c r="AC162" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="AD162" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="AE162">
         <v>3</v>
       </c>
+      <c r="AF162" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG162">
+        <v>10</v>
+      </c>
     </row>
     <row r="163" spans="1:33">
       <c r="A163">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="B163" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="C163" t="s">
-        <v>592</v>
+        <v>244</v>
       </c>
       <c r="H163" t="s">
-        <v>745</v>
+        <v>662</v>
       </c>
       <c r="I163">
-        <v>125</v>
-      </c>
-      <c r="J163">
-        <v>5000</v>
+        <v>10000</v>
+      </c>
+      <c r="M163" t="s">
+        <v>707</v>
       </c>
       <c r="N163">
-        <v>75</v>
+        <v>3000</v>
       </c>
       <c r="O163">
         <v>10</v>
       </c>
       <c r="P163">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="Q163">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="U163" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="AA163" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="AB163" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="AE163">
         <v>3</v>
       </c>
+      <c r="AF163" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG163">
+        <v>18</v>
+      </c>
     </row>
     <row r="164" spans="1:33">
       <c r="A164">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="B164" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C164" t="s">
-        <v>592</v>
+        <v>670</v>
+      </c>
+      <c r="E164" t="s">
+        <v>644</v>
       </c>
       <c r="H164" t="s">
-        <v>749</v>
-      </c>
-      <c r="I164">
-        <v>125</v>
-      </c>
-      <c r="J164">
-        <v>10000</v>
+        <v>753</v>
       </c>
       <c r="N164">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="O164">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="P164">
+        <v>15000</v>
       </c>
       <c r="Q164">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="U164" t="s">
-        <v>744</v>
-      </c>
-      <c r="V164" t="s">
-        <v>750</v>
+        <v>591</v>
       </c>
       <c r="AA164" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="AB164" t="s">
-        <v>752</v>
+        <v>755</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>644</v>
       </c>
       <c r="AE164">
         <v>3</v>
@@ -10276,57 +10330,72 @@
     </row>
     <row r="165" spans="1:33">
       <c r="A165">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="B165" t="s">
-        <v>753</v>
+        <v>706</v>
       </c>
       <c r="C165" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="H165" t="s">
-        <v>754</v>
-      </c>
-      <c r="I165">
-        <v>125</v>
-      </c>
-      <c r="J165">
-        <v>2000</v>
+        <v>706</v>
+      </c>
+      <c r="M165" t="s">
+        <v>651</v>
+      </c>
+      <c r="N165">
+        <v>800</v>
+      </c>
+      <c r="O165">
+        <v>50</v>
       </c>
       <c r="P165">
+        <v>8000</v>
+      </c>
+      <c r="Q165">
         <v>200</v>
       </c>
-      <c r="Q165">
-        <v>100</v>
-      </c>
       <c r="U165" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="AA165" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AB165" t="s">
-        <v>756</v>
+        <v>757</v>
+      </c>
+      <c r="AE165">
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:33">
       <c r="A166">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B166" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C166" t="s">
         <v>592</v>
       </c>
-      <c r="H166" t="s">
-        <v>758</v>
+      <c r="D166" t="s">
+        <v>759</v>
+      </c>
+      <c r="E166" t="s">
+        <v>685</v>
       </c>
       <c r="I166">
         <v>125</v>
       </c>
       <c r="J166">
-        <v>20000</v>
+        <v>25000</v>
+      </c>
+      <c r="N166">
+        <v>75</v>
+      </c>
+      <c r="O166">
+        <v>10</v>
       </c>
       <c r="P166">
         <v>200</v>
@@ -10334,14 +10403,20 @@
       <c r="Q166">
         <v>100</v>
       </c>
-      <c r="U166" t="s">
-        <v>753</v>
+      <c r="T166">
+        <v>1</v>
       </c>
       <c r="AA166" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>761</v>
+      </c>
+      <c r="AC166" t="s">
         <v>759</v>
       </c>
-      <c r="AB166" t="s">
-        <v>760</v>
+      <c r="AD166" t="s">
+        <v>685</v>
       </c>
       <c r="AE166">
         <v>3</v>
@@ -10349,43 +10424,43 @@
     </row>
     <row r="167" spans="1:33">
       <c r="A167">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B167" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C167" t="s">
-        <v>244</v>
+        <v>592</v>
       </c>
       <c r="H167" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I167">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J167">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="N167">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="O167">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P167">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q167">
         <v>100</v>
       </c>
       <c r="U167" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AA167" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AB167" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AE167">
         <v>3</v>
@@ -10393,40 +10468,43 @@
     </row>
     <row r="168" spans="1:33">
       <c r="A168">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B168" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C168" t="s">
         <v>592</v>
       </c>
-      <c r="E168" t="s">
-        <v>761</v>
-      </c>
       <c r="H168" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="I168">
         <v>125</v>
       </c>
       <c r="J168">
-        <v>20000</v>
+        <v>10000</v>
+      </c>
+      <c r="N168">
+        <v>75</v>
+      </c>
+      <c r="O168">
+        <v>10</v>
       </c>
       <c r="Q168">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U168" t="s">
-        <v>740</v>
+        <v>762</v>
+      </c>
+      <c r="V168" t="s">
+        <v>768</v>
       </c>
       <c r="AA168" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AB168" t="s">
-        <v>768</v>
-      </c>
-      <c r="AD168" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="AE168">
         <v>3</v>
@@ -10434,166 +10512,148 @@
     </row>
     <row r="169" spans="1:33">
       <c r="A169">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B169" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C169" t="s">
         <v>592</v>
       </c>
+      <c r="H169" t="s">
+        <v>772</v>
+      </c>
       <c r="I169">
         <v>125</v>
       </c>
       <c r="J169">
-        <v>30000</v>
+        <v>2000</v>
+      </c>
+      <c r="P169">
+        <v>200</v>
       </c>
       <c r="Q169">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U169" t="s">
-        <v>765</v>
-      </c>
-      <c r="Y169">
-        <v>2</v>
+        <v>766</v>
       </c>
       <c r="AA169" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="AB169" t="s">
-        <v>771</v>
-      </c>
-      <c r="AE169">
-        <v>3</v>
+        <v>774</v>
       </c>
     </row>
     <row r="170" spans="1:33">
       <c r="A170">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B170" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C170" t="s">
-        <v>773</v>
-      </c>
-      <c r="E170" t="s">
-        <v>396</v>
-      </c>
-      <c r="F170" t="s">
-        <v>377</v>
-      </c>
-      <c r="G170">
-        <v>10</v>
+        <v>592</v>
       </c>
       <c r="H170" t="s">
-        <v>774</v>
-      </c>
-      <c r="N170">
-        <v>500000</v>
-      </c>
-      <c r="O170">
-        <v>500000</v>
+        <v>776</v>
+      </c>
+      <c r="I170">
+        <v>125</v>
+      </c>
+      <c r="J170">
+        <v>20000</v>
       </c>
       <c r="P170">
-        <v>2000000000</v>
+        <v>200</v>
       </c>
       <c r="Q170">
-        <v>175000</v>
-      </c>
-      <c r="T170">
-        <v>1</v>
-      </c>
-      <c r="W170" t="s">
-        <v>775</v>
-      </c>
-      <c r="X170">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="U170" t="s">
+        <v>771</v>
       </c>
       <c r="AA170" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AB170" t="s">
-        <v>777</v>
-      </c>
-      <c r="AD170" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF170" t="s">
-        <v>773</v>
-      </c>
-      <c r="AG170">
-        <v>5</v>
+        <v>778</v>
+      </c>
+      <c r="AE170">
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:33">
       <c r="A171">
+        <v>123</v>
+      </c>
+      <c r="B171" t="s">
+        <v>779</v>
+      </c>
+      <c r="C171" t="s">
+        <v>244</v>
+      </c>
+      <c r="H171" t="s">
+        <v>780</v>
+      </c>
+      <c r="I171">
+        <v>100</v>
+      </c>
+      <c r="J171">
+        <v>25000</v>
+      </c>
+      <c r="N171">
+        <v>25</v>
+      </c>
+      <c r="O171">
+        <v>2</v>
+      </c>
+      <c r="P171">
         <v>150</v>
       </c>
-      <c r="B171" t="s">
-        <v>778</v>
-      </c>
-      <c r="C171" t="s">
-        <v>773</v>
-      </c>
-      <c r="H171" t="s">
-        <v>779</v>
-      </c>
-      <c r="N171">
-        <v>500000</v>
-      </c>
-      <c r="O171">
-        <v>500000</v>
-      </c>
-      <c r="P171">
-        <v>2000000000</v>
-      </c>
       <c r="Q171">
-        <v>175000</v>
+        <v>100</v>
       </c>
       <c r="U171" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="AA171" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AB171" t="s">
-        <v>781</v>
-      </c>
-      <c r="AF171" t="s">
-        <v>773</v>
-      </c>
-      <c r="AG171">
-        <v>10</v>
+        <v>782</v>
+      </c>
+      <c r="AE171">
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:33">
       <c r="A172">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B172" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C172" t="s">
-        <v>783</v>
+        <v>592</v>
+      </c>
+      <c r="E172" t="s">
+        <v>779</v>
       </c>
       <c r="H172" t="s">
         <v>784</v>
       </c>
-      <c r="N172">
-        <v>500000</v>
-      </c>
-      <c r="O172">
-        <v>500000</v>
-      </c>
-      <c r="P172">
-        <v>2000000000</v>
+      <c r="I172">
+        <v>125</v>
+      </c>
+      <c r="J172">
+        <v>20000</v>
       </c>
       <c r="Q172">
-        <v>175000</v>
+        <v>200</v>
       </c>
       <c r="U172" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="AA172" t="s">
         <v>785</v>
@@ -10601,63 +10661,66 @@
       <c r="AB172" t="s">
         <v>786</v>
       </c>
-      <c r="AF172" t="s">
-        <v>783</v>
-      </c>
-      <c r="AG172">
-        <v>5</v>
+      <c r="AD172" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE172">
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:33">
       <c r="A173">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B173" t="s">
         <v>787</v>
       </c>
       <c r="C173" t="s">
+        <v>592</v>
+      </c>
+      <c r="I173">
+        <v>125</v>
+      </c>
+      <c r="J173">
+        <v>30000</v>
+      </c>
+      <c r="Q173">
+        <v>500</v>
+      </c>
+      <c r="U173" t="s">
         <v>783</v>
       </c>
-      <c r="H173" t="s">
+      <c r="Y173">
+        <v>2</v>
+      </c>
+      <c r="AA173" t="s">
         <v>788</v>
       </c>
-      <c r="N173">
-        <v>500000</v>
-      </c>
-      <c r="O173">
-        <v>500000</v>
-      </c>
-      <c r="P173">
-        <v>2000000000</v>
-      </c>
-      <c r="Q173">
-        <v>175000</v>
-      </c>
-      <c r="U173" t="s">
-        <v>782</v>
-      </c>
-      <c r="AA173" t="s">
+      <c r="AB173" t="s">
         <v>789</v>
       </c>
-      <c r="AB173" t="s">
-        <v>790</v>
-      </c>
-      <c r="AF173" t="s">
-        <v>783</v>
-      </c>
-      <c r="AG173">
-        <v>10</v>
+      <c r="AE173">
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:33">
       <c r="A174">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B174" t="s">
+        <v>790</v>
+      </c>
+      <c r="C174" t="s">
         <v>791</v>
       </c>
-      <c r="C174" t="s">
-        <v>783</v>
+      <c r="E174" t="s">
+        <v>396</v>
+      </c>
+      <c r="F174" t="s">
+        <v>377</v>
+      </c>
+      <c r="G174">
+        <v>10</v>
       </c>
       <c r="H174" t="s">
         <v>792</v>
@@ -10674,31 +10737,40 @@
       <c r="Q174">
         <v>175000</v>
       </c>
-      <c r="U174" t="s">
-        <v>787</v>
+      <c r="T174">
+        <v>1</v>
+      </c>
+      <c r="W174" t="s">
+        <v>793</v>
+      </c>
+      <c r="X174">
+        <v>5</v>
       </c>
       <c r="AA174" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AB174" t="s">
-        <v>794</v>
+        <v>795</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>791</v>
+      </c>
+      <c r="AG174">
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:33">
       <c r="A175">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B175" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C175" t="s">
-        <v>796</v>
-      </c>
-      <c r="E175" t="s">
         <v>791</v>
-      </c>
-      <c r="F175" t="s">
-        <v>778</v>
       </c>
       <c r="H175" t="s">
         <v>797</v>
@@ -10716,7 +10788,7 @@
         <v>175000</v>
       </c>
       <c r="U175" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="AA175" t="s">
         <v>798</v>
@@ -10724,28 +10796,25 @@
       <c r="AB175" t="s">
         <v>799</v>
       </c>
-      <c r="AD175" t="s">
+      <c r="AF175" t="s">
         <v>791</v>
       </c>
-      <c r="AF175" t="s">
-        <v>796</v>
-      </c>
       <c r="AG175">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:33">
       <c r="A176">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B176" t="s">
         <v>800</v>
       </c>
       <c r="C176" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="H176" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="N176">
         <v>500000</v>
@@ -10760,91 +10829,115 @@
         <v>175000</v>
       </c>
       <c r="U176" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AA176" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AB176" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AF176" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="AG176">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:33">
       <c r="A177">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B177" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C177" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="H177" t="s">
-        <v>805</v>
+        <v>806</v>
+      </c>
+      <c r="N177">
+        <v>500000</v>
+      </c>
+      <c r="O177">
+        <v>500000</v>
+      </c>
+      <c r="P177">
+        <v>2000000000</v>
+      </c>
+      <c r="Q177">
+        <v>175000</v>
       </c>
       <c r="U177" t="s">
         <v>800</v>
       </c>
       <c r="AA177" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AB177" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AF177" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="AG177">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:33">
       <c r="A178">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B178" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C178" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="H178" t="s">
-        <v>809</v>
+        <v>810</v>
+      </c>
+      <c r="N178">
+        <v>500000</v>
+      </c>
+      <c r="O178">
+        <v>500000</v>
+      </c>
+      <c r="P178">
+        <v>2000000000</v>
+      </c>
+      <c r="Q178">
+        <v>175000</v>
       </c>
       <c r="U178" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AA178" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AB178" t="s">
-        <v>811</v>
-      </c>
-      <c r="AF178" t="s">
-        <v>773</v>
-      </c>
-      <c r="AG178">
-        <v>25</v>
+        <v>812</v>
       </c>
     </row>
     <row r="179" spans="1:33">
       <c r="A179">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B179" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C179" t="s">
-        <v>783</v>
+        <v>814</v>
+      </c>
+      <c r="E179" t="s">
+        <v>809</v>
+      </c>
+      <c r="F179" t="s">
+        <v>796</v>
       </c>
       <c r="H179" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="N179">
         <v>500000</v>
@@ -10859,39 +10952,36 @@
         <v>175000</v>
       </c>
       <c r="U179" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="AA179" t="s">
+        <v>816</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>817</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>809</v>
+      </c>
+      <c r="AF179" t="s">
         <v>814</v>
       </c>
-      <c r="AB179" t="s">
-        <v>815</v>
-      </c>
-      <c r="AF179" t="s">
-        <v>783</v>
-      </c>
       <c r="AG179">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:33">
       <c r="A180">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B180" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C180" t="s">
-        <v>783</v>
-      </c>
-      <c r="E180" t="s">
-        <v>812</v>
-      </c>
-      <c r="F180" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="H180" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="N180">
         <v>500000</v>
@@ -10906,127 +10996,91 @@
         <v>175000</v>
       </c>
       <c r="U180" t="s">
-        <v>772</v>
+        <v>813</v>
       </c>
       <c r="AA180" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AB180" t="s">
-        <v>819</v>
-      </c>
-      <c r="AD180" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="AF180" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="AG180">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:33">
       <c r="A181">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B181" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C181" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="H181" t="s">
-        <v>822</v>
-      </c>
-      <c r="L181">
-        <v>150000</v>
-      </c>
-      <c r="N181">
-        <v>500000</v>
-      </c>
-      <c r="O181">
-        <v>500000</v>
-      </c>
-      <c r="P181">
-        <v>2000000000</v>
-      </c>
-      <c r="Q181">
-        <v>175000</v>
+        <v>823</v>
       </c>
       <c r="U181" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AA181" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AB181" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF181" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="AG181">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:33">
       <c r="A182">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B182" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C182" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="H182" t="s">
-        <v>826</v>
-      </c>
-      <c r="L182">
-        <v>300000</v>
-      </c>
-      <c r="N182">
-        <v>500000</v>
-      </c>
-      <c r="O182">
-        <v>500000</v>
-      </c>
-      <c r="P182">
-        <v>2000000000</v>
-      </c>
-      <c r="Q182">
-        <v>175000</v>
+        <v>827</v>
       </c>
       <c r="U182" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AA182" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AB182" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AF182" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="AG182">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:33">
       <c r="A183">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B183" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C183" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="H183" t="s">
-        <v>830</v>
-      </c>
-      <c r="L183">
-        <v>500000</v>
+        <v>831</v>
       </c>
       <c r="N183">
         <v>500000</v>
@@ -11041,38 +11095,38 @@
         <v>175000</v>
       </c>
       <c r="U183" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AA183" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AB183" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF183" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="AG183">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:33">
       <c r="A184">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B184" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C184" t="s">
-        <v>773</v>
-      </c>
-      <c r="G184">
-        <v>15</v>
+        <v>801</v>
+      </c>
+      <c r="E184" t="s">
+        <v>830</v>
+      </c>
+      <c r="F184" t="s">
+        <v>813</v>
       </c>
       <c r="H184" t="s">
-        <v>834</v>
-      </c>
-      <c r="M184" t="s">
         <v>835</v>
       </c>
       <c r="N184">
@@ -11088,7 +11142,7 @@
         <v>175000</v>
       </c>
       <c r="U184" t="s">
-        <v>829</v>
+        <v>790</v>
       </c>
       <c r="AA184" t="s">
         <v>836</v>
@@ -11096,198 +11150,219 @@
       <c r="AB184" t="s">
         <v>837</v>
       </c>
+      <c r="AD184" t="s">
+        <v>830</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>801</v>
+      </c>
+      <c r="AG184">
+        <v>25</v>
+      </c>
     </row>
     <row r="185" spans="1:33">
       <c r="A185">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="B185" t="s">
         <v>838</v>
       </c>
       <c r="C185" t="s">
-        <v>821</v>
-      </c>
-      <c r="E185" t="s">
-        <v>412</v>
+        <v>839</v>
       </c>
       <c r="H185" t="s">
+        <v>840</v>
+      </c>
+      <c r="L185">
+        <v>150000</v>
+      </c>
+      <c r="N185">
+        <v>500000</v>
+      </c>
+      <c r="O185">
+        <v>500000</v>
+      </c>
+      <c r="P185">
+        <v>2000000000</v>
+      </c>
+      <c r="Q185">
+        <v>175000</v>
+      </c>
+      <c r="U185" t="s">
+        <v>834</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>841</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>842</v>
+      </c>
+      <c r="AF185" t="s">
         <v>839</v>
       </c>
-      <c r="N185">
-        <v>10000</v>
-      </c>
-      <c r="O185">
-        <v>5000</v>
-      </c>
-      <c r="P185">
-        <v>1000000</v>
-      </c>
-      <c r="Q185">
-        <v>2000</v>
-      </c>
-      <c r="U185" t="s">
-        <v>772</v>
-      </c>
-      <c r="AA185" t="s">
-        <v>840</v>
-      </c>
-      <c r="AB185" t="s">
-        <v>841</v>
-      </c>
-      <c r="AD185" t="s">
-        <v>412</v>
+      <c r="AG185">
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:33">
       <c r="A186">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="B186" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C186" t="s">
-        <v>796</v>
+        <v>839</v>
       </c>
       <c r="H186" t="s">
-        <v>843</v>
+        <v>844</v>
+      </c>
+      <c r="L186">
+        <v>300000</v>
       </c>
       <c r="N186">
-        <v>20000</v>
+        <v>500000</v>
       </c>
       <c r="O186">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="P186">
-        <v>2000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q186">
-        <v>2500</v>
+        <v>175000</v>
       </c>
       <c r="U186" t="s">
         <v>838</v>
       </c>
       <c r="AA186" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AB186" t="s">
-        <v>845</v>
+        <v>846</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>839</v>
+      </c>
+      <c r="AG186">
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:33">
       <c r="A187">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="B187" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C187" t="s">
-        <v>773</v>
+        <v>839</v>
       </c>
       <c r="H187" t="s">
-        <v>847</v>
+        <v>848</v>
+      </c>
+      <c r="L187">
+        <v>500000</v>
       </c>
       <c r="N187">
-        <v>25000</v>
+        <v>500000</v>
       </c>
       <c r="O187">
-        <v>15000</v>
+        <v>500000</v>
       </c>
       <c r="P187">
-        <v>25000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q187">
-        <v>3000</v>
+        <v>175000</v>
       </c>
       <c r="U187" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AA187" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AB187" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>839</v>
+      </c>
+      <c r="AG187">
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:33">
       <c r="A188">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="B188" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C188" t="s">
-        <v>851</v>
-      </c>
-      <c r="E188" t="s">
-        <v>833</v>
+        <v>791</v>
+      </c>
+      <c r="G188">
+        <v>15</v>
       </c>
       <c r="H188" t="s">
         <v>852</v>
       </c>
+      <c r="M188" t="s">
+        <v>853</v>
+      </c>
       <c r="N188">
-        <v>30000</v>
+        <v>500000</v>
       </c>
       <c r="O188">
-        <v>25000</v>
+        <v>500000</v>
       </c>
       <c r="P188">
-        <v>30000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q188">
-        <v>5000</v>
+        <v>175000</v>
       </c>
       <c r="U188" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AA188" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AB188" t="s">
-        <v>854</v>
-      </c>
-      <c r="AD188" t="s">
-        <v>833</v>
-      </c>
-      <c r="AF188" t="s">
-        <v>851</v>
-      </c>
-      <c r="AG188">
-        <v>3</v>
+        <v>855</v>
       </c>
     </row>
     <row r="189" spans="1:33">
       <c r="A189">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B189" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C189" t="s">
-        <v>851</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
+        <v>839</v>
+      </c>
+      <c r="E189" t="s">
+        <v>412</v>
       </c>
       <c r="H189" t="s">
-        <v>856</v>
-      </c>
-      <c r="M189" t="s">
         <v>857</v>
       </c>
       <c r="N189">
+        <v>10000</v>
+      </c>
+      <c r="O189">
+        <v>5000</v>
+      </c>
+      <c r="P189">
         <v>1000000</v>
       </c>
-      <c r="O189">
-        <v>500000</v>
-      </c>
-      <c r="P189">
-        <v>2000000000</v>
-      </c>
       <c r="Q189">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="U189" t="s">
-        <v>850</v>
+        <v>790</v>
       </c>
       <c r="AA189" t="s">
         <v>858</v>
@@ -11295,131 +11370,110 @@
       <c r="AB189" t="s">
         <v>859</v>
       </c>
-      <c r="AF189" t="s">
-        <v>851</v>
-      </c>
-      <c r="AG189">
-        <v>5</v>
+      <c r="AD189" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="190" spans="1:33">
       <c r="A190">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="B190" t="s">
         <v>860</v>
       </c>
       <c r="C190" t="s">
+        <v>814</v>
+      </c>
+      <c r="H190" t="s">
         <v>861</v>
       </c>
       <c r="N190">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="O190">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="P190">
-        <v>10000</v>
+        <v>2000000</v>
       </c>
       <c r="Q190">
-        <v>250</v>
-      </c>
-      <c r="T190">
-        <v>1</v>
-      </c>
-      <c r="W190" t="s">
+        <v>2500</v>
+      </c>
+      <c r="U190" t="s">
+        <v>856</v>
+      </c>
+      <c r="AA190" t="s">
         <v>862</v>
       </c>
-      <c r="X190">
-        <v>1</v>
-      </c>
-      <c r="AA190" t="s">
+      <c r="AB190" t="s">
         <v>863</v>
-      </c>
-      <c r="AB190" t="s">
-        <v>864</v>
-      </c>
-      <c r="AE190">
-        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:33">
       <c r="A191">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="B191" t="s">
+        <v>864</v>
+      </c>
+      <c r="C191" t="s">
+        <v>791</v>
+      </c>
+      <c r="H191" t="s">
         <v>865</v>
       </c>
-      <c r="C191" t="s">
-        <v>244</v>
-      </c>
-      <c r="H191" t="s">
-        <v>866</v>
-      </c>
       <c r="N191">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="O191">
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="P191">
-        <v>10000</v>
+        <v>25000000</v>
       </c>
       <c r="Q191">
-        <v>250</v>
+        <v>3000</v>
       </c>
       <c r="U191" t="s">
         <v>860</v>
       </c>
-      <c r="W191" t="s">
-        <v>862</v>
-      </c>
-      <c r="X191">
-        <v>2</v>
-      </c>
       <c r="AA191" t="s">
+        <v>866</v>
+      </c>
+      <c r="AB191" t="s">
         <v>867</v>
-      </c>
-      <c r="AB191" t="s">
-        <v>868</v>
-      </c>
-      <c r="AE191">
-        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:33">
       <c r="A192">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="B192" t="s">
+        <v>868</v>
+      </c>
+      <c r="C192" t="s">
         <v>869</v>
       </c>
-      <c r="C192" t="s">
-        <v>861</v>
+      <c r="E192" t="s">
+        <v>851</v>
       </c>
       <c r="H192" t="s">
         <v>870</v>
       </c>
       <c r="N192">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="O192">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="P192">
-        <v>10000</v>
+        <v>30000000</v>
       </c>
       <c r="Q192">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="U192" t="s">
-        <v>865</v>
-      </c>
-      <c r="W192" t="s">
-        <v>862</v>
-      </c>
-      <c r="X192">
-        <v>3</v>
+        <v>864</v>
       </c>
       <c r="AA192" t="s">
         <v>871</v>
@@ -11427,43 +11481,49 @@
       <c r="AB192" t="s">
         <v>872</v>
       </c>
-      <c r="AE192">
-        <v>7</v>
+      <c r="AD192" t="s">
+        <v>851</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>869</v>
+      </c>
+      <c r="AG192">
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:33">
       <c r="A193">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="B193" t="s">
         <v>873</v>
       </c>
       <c r="C193" t="s">
+        <v>869</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193" t="s">
         <v>874</v>
       </c>
-      <c r="H193" t="s">
+      <c r="M193" t="s">
         <v>875</v>
       </c>
       <c r="N193">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="O193">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="P193">
+        <v>2000000000</v>
+      </c>
+      <c r="Q193">
         <v>10000</v>
       </c>
-      <c r="Q193">
-        <v>250</v>
-      </c>
       <c r="U193" t="s">
-        <v>869</v>
-      </c>
-      <c r="W193" t="s">
-        <v>862</v>
-      </c>
-      <c r="X193">
-        <v>4</v>
+        <v>868</v>
       </c>
       <c r="AA193" t="s">
         <v>876</v>
@@ -11471,21 +11531,21 @@
       <c r="AB193" t="s">
         <v>877</v>
       </c>
-      <c r="AE193">
-        <v>7</v>
+      <c r="AF193" t="s">
+        <v>869</v>
+      </c>
+      <c r="AG193">
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:33">
       <c r="A194">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B194" t="s">
         <v>878</v>
       </c>
       <c r="C194" t="s">
-        <v>874</v>
-      </c>
-      <c r="H194" t="s">
         <v>879</v>
       </c>
       <c r="N194">
@@ -11500,11 +11560,14 @@
       <c r="Q194">
         <v>250</v>
       </c>
-      <c r="U194" t="s">
-        <v>873</v>
-      </c>
-      <c r="V194" t="s">
+      <c r="T194">
+        <v>1</v>
+      </c>
+      <c r="W194" t="s">
         <v>880</v>
+      </c>
+      <c r="X194">
+        <v>1</v>
       </c>
       <c r="AA194" t="s">
         <v>881</v>
@@ -11512,10 +11575,13 @@
       <c r="AB194" t="s">
         <v>882</v>
       </c>
+      <c r="AE194">
+        <v>7</v>
+      </c>
     </row>
     <row r="195" spans="1:33">
       <c r="A195">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B195" t="s">
         <v>883</v>
@@ -11523,6 +11589,9 @@
       <c r="C195" t="s">
         <v>244</v>
       </c>
+      <c r="H195" t="s">
+        <v>884</v>
+      </c>
       <c r="N195">
         <v>1000</v>
       </c>
@@ -11539,16 +11608,16 @@
         <v>878</v>
       </c>
       <c r="W195" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="X195">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA195" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AB195" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AE195">
         <v>7</v>
@@ -11556,31 +11625,19 @@
     </row>
     <row r="196" spans="1:33">
       <c r="A196">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B196" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C196" t="s">
-        <v>887</v>
-      </c>
-      <c r="E196" t="s">
-        <v>883</v>
-      </c>
-      <c r="F196" t="s">
-        <v>860</v>
-      </c>
-      <c r="I196">
-        <v>100</v>
-      </c>
-      <c r="J196">
-        <v>100</v>
-      </c>
-      <c r="K196">
+        <v>879</v>
+      </c>
+      <c r="H196" t="s">
+        <v>888</v>
+      </c>
+      <c r="N196">
         <v>1000</v>
-      </c>
-      <c r="N196">
-        <v>100</v>
       </c>
       <c r="O196">
         <v>500</v>
@@ -11592,45 +11649,36 @@
         <v>250</v>
       </c>
       <c r="U196" t="s">
-        <v>860</v>
+        <v>883</v>
+      </c>
+      <c r="W196" t="s">
+        <v>880</v>
+      </c>
+      <c r="X196">
+        <v>3</v>
       </c>
       <c r="AA196" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AB196" t="s">
-        <v>889</v>
-      </c>
-      <c r="AD196" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="AE196">
         <v>7</v>
       </c>
-      <c r="AF196" t="s">
-        <v>887</v>
-      </c>
-      <c r="AG196">
-        <v>5</v>
-      </c>
     </row>
     <row r="197" spans="1:33">
       <c r="A197">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B197" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C197" t="s">
-        <v>887</v>
-      </c>
-      <c r="I197">
-        <v>100</v>
-      </c>
-      <c r="J197">
-        <v>100</v>
-      </c>
-      <c r="K197">
-        <v>1000</v>
+        <v>892</v>
+      </c>
+      <c r="H197" t="s">
+        <v>893</v>
       </c>
       <c r="N197">
         <v>1000</v>
@@ -11645,33 +11693,36 @@
         <v>250</v>
       </c>
       <c r="U197" t="s">
-        <v>886</v>
+        <v>887</v>
+      </c>
+      <c r="W197" t="s">
+        <v>880</v>
+      </c>
+      <c r="X197">
+        <v>4</v>
       </c>
       <c r="AA197" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="AB197" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="AE197">
         <v>7</v>
       </c>
-      <c r="AF197" t="s">
-        <v>887</v>
-      </c>
-      <c r="AG197">
-        <v>10</v>
-      </c>
     </row>
     <row r="198" spans="1:33">
       <c r="A198">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B198" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C198" t="s">
-        <v>861</v>
+        <v>892</v>
+      </c>
+      <c r="H198" t="s">
+        <v>897</v>
       </c>
       <c r="N198">
         <v>1000</v>
@@ -11686,36 +11737,27 @@
         <v>250</v>
       </c>
       <c r="U198" t="s">
-        <v>890</v>
+        <v>891</v>
+      </c>
+      <c r="V198" t="s">
+        <v>898</v>
       </c>
       <c r="AA198" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="AB198" t="s">
-        <v>895</v>
-      </c>
-      <c r="AE198">
-        <v>7</v>
-      </c>
-      <c r="AF198" t="s">
-        <v>861</v>
-      </c>
-      <c r="AG198">
-        <v>5</v>
+        <v>900</v>
       </c>
     </row>
     <row r="199" spans="1:33">
       <c r="A199">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B199" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="C199" t="s">
-        <v>897</v>
-      </c>
-      <c r="K199">
-        <v>5000</v>
+        <v>244</v>
       </c>
       <c r="N199">
         <v>1000</v>
@@ -11730,71 +11772,101 @@
         <v>250</v>
       </c>
       <c r="U199" t="s">
-        <v>893</v>
+        <v>896</v>
+      </c>
+      <c r="W199" t="s">
+        <v>880</v>
+      </c>
+      <c r="X199">
+        <v>5</v>
       </c>
       <c r="AA199" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="AB199" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="AE199">
         <v>7</v>
       </c>
-      <c r="AF199" t="s">
-        <v>897</v>
-      </c>
-      <c r="AG199">
-        <v>5</v>
-      </c>
     </row>
     <row r="200" spans="1:33">
       <c r="A200">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B200" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C200" t="s">
-        <v>897</v>
+        <v>905</v>
+      </c>
+      <c r="E200" t="s">
+        <v>901</v>
+      </c>
+      <c r="F200" t="s">
+        <v>878</v>
       </c>
       <c r="I200">
+        <v>100</v>
+      </c>
+      <c r="J200">
+        <v>100</v>
+      </c>
+      <c r="K200">
         <v>1000</v>
       </c>
-      <c r="J200">
-        <v>1000</v>
-      </c>
-      <c r="K200">
-        <v>5000</v>
+      <c r="N200">
+        <v>100</v>
+      </c>
+      <c r="O200">
+        <v>500</v>
+      </c>
+      <c r="P200">
+        <v>10000</v>
+      </c>
+      <c r="Q200">
+        <v>250</v>
       </c>
       <c r="U200" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="AA200" t="s">
+        <v>906</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD200" t="s">
         <v>901</v>
-      </c>
-      <c r="AB200" t="s">
-        <v>902</v>
       </c>
       <c r="AE200">
         <v>7</v>
       </c>
       <c r="AF200" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="AG200">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:33">
       <c r="A201">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B201" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="C201" t="s">
-        <v>861</v>
+        <v>905</v>
+      </c>
+      <c r="I201">
+        <v>100</v>
+      </c>
+      <c r="J201">
+        <v>100</v>
+      </c>
+      <c r="K201">
+        <v>1000</v>
       </c>
       <c r="N201">
         <v>1000</v>
@@ -11809,19 +11881,19 @@
         <v>250</v>
       </c>
       <c r="U201" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="AA201" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="AB201" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="AE201">
         <v>7</v>
       </c>
       <c r="AF201" t="s">
-        <v>861</v>
+        <v>905</v>
       </c>
       <c r="AG201">
         <v>10</v>
@@ -11829,19 +11901,13 @@
     </row>
     <row r="202" spans="1:33">
       <c r="A202">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B202" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C202" t="s">
-        <v>887</v>
-      </c>
-      <c r="E202" t="s">
-        <v>903</v>
-      </c>
-      <c r="F202" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="N202">
         <v>1000</v>
@@ -11856,22 +11922,19 @@
         <v>250</v>
       </c>
       <c r="U202" t="s">
-        <v>860</v>
+        <v>908</v>
       </c>
       <c r="AA202" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="AB202" t="s">
-        <v>908</v>
-      </c>
-      <c r="AD202" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="AE202">
         <v>7</v>
       </c>
       <c r="AF202" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="AG202">
         <v>5</v>
@@ -11879,13 +11942,16 @@
     </row>
     <row r="203" spans="1:33">
       <c r="A203">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B203" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="C203" t="s">
-        <v>874</v>
+        <v>915</v>
+      </c>
+      <c r="K203">
+        <v>5000</v>
       </c>
       <c r="N203">
         <v>1000</v>
@@ -11900,60 +11966,57 @@
         <v>250</v>
       </c>
       <c r="U203" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="AA203" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="AB203" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="AE203">
         <v>7</v>
       </c>
       <c r="AF203" t="s">
-        <v>874</v>
+        <v>915</v>
       </c>
       <c r="AG203">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:33">
       <c r="A204">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B204" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="C204" t="s">
-        <v>887</v>
-      </c>
-      <c r="N204">
+        <v>915</v>
+      </c>
+      <c r="I204">
         <v>1000</v>
       </c>
-      <c r="O204">
-        <v>500</v>
-      </c>
-      <c r="P204">
-        <v>10000</v>
-      </c>
-      <c r="Q204">
-        <v>250</v>
+      <c r="J204">
+        <v>1000</v>
+      </c>
+      <c r="K204">
+        <v>5000</v>
       </c>
       <c r="U204" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="AA204" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="AB204" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="AE204">
         <v>7</v>
       </c>
       <c r="AF204" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="AG204">
         <v>10</v>
@@ -11961,13 +12024,13 @@
     </row>
     <row r="205" spans="1:33">
       <c r="A205">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B205" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C205" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="N205">
         <v>1000</v>
@@ -11982,87 +12045,69 @@
         <v>250</v>
       </c>
       <c r="U205" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="AA205" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="AB205" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="AE205">
         <v>7</v>
       </c>
       <c r="AF205" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="AG205">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:33">
       <c r="A206">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B206" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="C206" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="E206" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="F206" t="s">
-        <v>906</v>
-      </c>
-      <c r="G206">
-        <v>20</v>
-      </c>
-      <c r="H206" t="s">
-        <v>398</v>
-      </c>
-      <c r="I206">
-        <v>550000</v>
-      </c>
-      <c r="J206">
-        <v>550000</v>
-      </c>
-      <c r="K206">
-        <v>150000000000</v>
-      </c>
-      <c r="L206">
-        <v>700000</v>
+        <v>904</v>
       </c>
       <c r="N206">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O206">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P206">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q206">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U206" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="AA206" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="AB206" t="s">
+        <v>926</v>
+      </c>
+      <c r="AD206" t="s">
         <v>921</v>
-      </c>
-      <c r="AD206" t="s">
-        <v>915</v>
       </c>
       <c r="AE206">
         <v>7</v>
       </c>
       <c r="AF206" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="AG206">
         <v>5</v>
@@ -12070,90 +12115,81 @@
     </row>
     <row r="207" spans="1:33">
       <c r="A207">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B207" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="C207" t="s">
-        <v>923</v>
-      </c>
-      <c r="L207">
-        <v>150000</v>
+        <v>892</v>
       </c>
       <c r="N207">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O207">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P207">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q207">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U207" t="s">
-        <v>918</v>
-      </c>
-      <c r="W207" t="s">
-        <v>775</v>
-      </c>
-      <c r="X207">
-        <v>5</v>
+        <v>924</v>
       </c>
       <c r="AA207" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="AB207" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="AE207">
         <v>7</v>
       </c>
       <c r="AF207" t="s">
-        <v>923</v>
+        <v>892</v>
       </c>
       <c r="AG207">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:33">
       <c r="A208">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B208" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C208" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="N208">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="O208">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="P208">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="Q208">
-        <v>175000</v>
+        <v>250</v>
       </c>
       <c r="U208" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="AA208" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="AB208" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="AE208">
         <v>7</v>
       </c>
       <c r="AF208" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="AG208">
         <v>10</v>
@@ -12161,257 +12197,266 @@
     </row>
     <row r="209" spans="1:33">
       <c r="A209">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B209" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C209" t="s">
-        <v>923</v>
-      </c>
-      <c r="M209" t="s">
+        <v>879</v>
+      </c>
+      <c r="N209">
+        <v>1000</v>
+      </c>
+      <c r="O209">
+        <v>500</v>
+      </c>
+      <c r="P209">
+        <v>10000</v>
+      </c>
+      <c r="Q209">
+        <v>250</v>
+      </c>
+      <c r="U209" t="s">
         <v>930</v>
       </c>
-      <c r="N209">
-        <v>500000</v>
-      </c>
-      <c r="O209">
-        <v>500000</v>
-      </c>
-      <c r="P209">
-        <v>2000000000</v>
-      </c>
-      <c r="Q209">
-        <v>175000</v>
-      </c>
-      <c r="U209" t="s">
-        <v>926</v>
-      </c>
       <c r="AA209" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="AB209" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="AE209">
         <v>7</v>
       </c>
       <c r="AF209" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="AG209">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:33">
       <c r="A210">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B210" t="s">
+        <v>936</v>
+      </c>
+      <c r="C210" t="s">
+        <v>937</v>
+      </c>
+      <c r="E210" t="s">
         <v>933</v>
       </c>
-      <c r="C210" t="s">
-        <v>919</v>
-      </c>
-      <c r="D210" t="s">
-        <v>934</v>
-      </c>
-      <c r="E210" t="s">
-        <v>915</v>
-      </c>
       <c r="F210" t="s">
-        <v>906</v>
+        <v>924</v>
+      </c>
+      <c r="G210">
+        <v>20</v>
+      </c>
+      <c r="H210" t="s">
+        <v>398</v>
+      </c>
+      <c r="I210">
+        <v>550000</v>
+      </c>
+      <c r="J210">
+        <v>550000</v>
+      </c>
+      <c r="K210">
+        <v>150000000000</v>
+      </c>
+      <c r="L210">
+        <v>700000</v>
       </c>
       <c r="N210">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O210">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P210">
-        <v>150000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q210">
-        <v>750</v>
-      </c>
-      <c r="T210">
-        <v>1</v>
+        <v>175000</v>
+      </c>
+      <c r="U210" t="s">
+        <v>878</v>
       </c>
       <c r="AA210" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="AB210" t="s">
-        <v>936</v>
-      </c>
-      <c r="AC210" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="AD210" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="AE210">
         <v>7</v>
       </c>
       <c r="AF210" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="AG210">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:33">
       <c r="A211">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B211" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C211" t="s">
-        <v>923</v>
-      </c>
-      <c r="D211" t="s">
-        <v>934</v>
+        <v>941</v>
+      </c>
+      <c r="L211">
+        <v>150000</v>
       </c>
       <c r="N211">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O211">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P211">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q211">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U211" t="s">
-        <v>933</v>
+        <v>936</v>
+      </c>
+      <c r="W211" t="s">
+        <v>793</v>
+      </c>
+      <c r="X211">
+        <v>5</v>
       </c>
       <c r="AA211" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="AB211" t="s">
-        <v>939</v>
-      </c>
-      <c r="AC211" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="AE211">
         <v>7</v>
       </c>
       <c r="AF211" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="AG211">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:33">
       <c r="A212">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B212" t="s">
+        <v>944</v>
+      </c>
+      <c r="C212" t="s">
+        <v>941</v>
+      </c>
+      <c r="N212">
+        <v>500000</v>
+      </c>
+      <c r="O212">
+        <v>500000</v>
+      </c>
+      <c r="P212">
+        <v>2000000000</v>
+      </c>
+      <c r="Q212">
+        <v>175000</v>
+      </c>
+      <c r="U212" t="s">
         <v>940</v>
       </c>
-      <c r="C212" t="s">
-        <v>919</v>
-      </c>
-      <c r="D212" t="s">
-        <v>934</v>
-      </c>
-      <c r="N212">
-        <v>50000</v>
-      </c>
-      <c r="O212">
-        <v>50000</v>
-      </c>
-      <c r="P212">
-        <v>1500000000</v>
-      </c>
-      <c r="Q212">
-        <v>750</v>
-      </c>
-      <c r="U212" t="s">
-        <v>937</v>
-      </c>
       <c r="AA212" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="AB212" t="s">
-        <v>942</v>
-      </c>
-      <c r="AC212" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="AE212">
         <v>7</v>
       </c>
       <c r="AF212" t="s">
-        <v>919</v>
+        <v>941</v>
       </c>
       <c r="AG212">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:33">
       <c r="A213">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B213" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C213" t="s">
-        <v>919</v>
-      </c>
-      <c r="D213" t="s">
-        <v>934</v>
+        <v>941</v>
+      </c>
+      <c r="M213" t="s">
+        <v>948</v>
       </c>
       <c r="N213">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="O213">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="P213">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q213">
-        <v>750</v>
+        <v>175000</v>
       </c>
       <c r="U213" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="AA213" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="AB213" t="s">
-        <v>945</v>
-      </c>
-      <c r="AC213" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="AE213">
         <v>7</v>
       </c>
       <c r="AF213" t="s">
-        <v>919</v>
+        <v>941</v>
       </c>
       <c r="AG213">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:33">
       <c r="A214">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B214" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="C214" t="s">
-        <v>874</v>
+        <v>937</v>
       </c>
       <c r="D214" t="s">
-        <v>934</v>
+        <v>952</v>
+      </c>
+      <c r="E214" t="s">
+        <v>933</v>
+      </c>
+      <c r="F214" t="s">
+        <v>924</v>
       </c>
       <c r="N214">
         <v>50000</v>
@@ -12420,28 +12465,31 @@
         <v>50000</v>
       </c>
       <c r="P214">
-        <v>1500000000</v>
+        <v>150000000000</v>
       </c>
       <c r="Q214">
         <v>750</v>
       </c>
-      <c r="U214" t="s">
-        <v>943</v>
+      <c r="T214">
+        <v>1</v>
       </c>
       <c r="AA214" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="AB214" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="AC214" t="s">
-        <v>934</v>
+        <v>952</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>933</v>
       </c>
       <c r="AE214">
         <v>7</v>
       </c>
       <c r="AF214" t="s">
-        <v>874</v>
+        <v>937</v>
       </c>
       <c r="AG214">
         <v>10</v>
@@ -12449,46 +12497,46 @@
     </row>
     <row r="215" spans="1:33">
       <c r="A215">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B215" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C215" t="s">
-        <v>874</v>
+        <v>941</v>
       </c>
       <c r="D215" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="N215">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="O215">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="P215">
         <v>1500000000</v>
       </c>
       <c r="Q215">
-        <v>75000</v>
+        <v>750</v>
       </c>
       <c r="U215" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="AA215" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="AB215" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="AC215" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="AE215">
         <v>7</v>
       </c>
       <c r="AF215" t="s">
-        <v>874</v>
+        <v>941</v>
       </c>
       <c r="AG215">
         <v>20</v>
@@ -12496,287 +12544,475 @@
     </row>
     <row r="216" spans="1:33">
       <c r="A216">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B216" t="s">
+        <v>958</v>
+      </c>
+      <c r="C216" t="s">
+        <v>937</v>
+      </c>
+      <c r="D216" t="s">
         <v>952</v>
       </c>
-      <c r="C216" t="s">
-        <v>861</v>
-      </c>
-      <c r="D216" t="s">
-        <v>934</v>
-      </c>
-      <c r="E216" t="s">
-        <v>833</v>
-      </c>
-      <c r="F216" t="s">
-        <v>816</v>
-      </c>
-      <c r="G216">
-        <v>25</v>
-      </c>
-      <c r="H216" t="s">
-        <v>953</v>
-      </c>
-      <c r="K216">
-        <v>2000000000</v>
-      </c>
       <c r="N216">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O216">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P216">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q216">
-        <v>200000</v>
+        <v>750</v>
       </c>
       <c r="U216" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
       <c r="AA216" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="AB216" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="AC216" t="s">
-        <v>934</v>
-      </c>
-      <c r="AD216" t="s">
-        <v>833</v>
+        <v>952</v>
       </c>
       <c r="AE216">
         <v>7</v>
       </c>
       <c r="AF216" t="s">
-        <v>861</v>
+        <v>937</v>
       </c>
       <c r="AG216">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:33">
       <c r="A217">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B217" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="C217" t="s">
-        <v>861</v>
+        <v>937</v>
       </c>
       <c r="D217" t="s">
-        <v>934</v>
-      </c>
-      <c r="E217" t="s">
-        <v>949</v>
-      </c>
-      <c r="F217" t="s">
-        <v>933</v>
-      </c>
-      <c r="H217" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="N217">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O217">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="P217">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="Q217">
-        <v>200000</v>
+        <v>750</v>
       </c>
       <c r="U217" t="s">
+        <v>958</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>962</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>963</v>
+      </c>
+      <c r="AC217" t="s">
         <v>952</v>
-      </c>
-      <c r="AA217" t="s">
-        <v>958</v>
-      </c>
-      <c r="AB217" t="s">
-        <v>959</v>
-      </c>
-      <c r="AC217" t="s">
-        <v>934</v>
-      </c>
-      <c r="AD217" t="s">
-        <v>949</v>
       </c>
       <c r="AE217">
         <v>7</v>
       </c>
       <c r="AF217" t="s">
-        <v>861</v>
+        <v>937</v>
       </c>
       <c r="AG217">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:33">
       <c r="A218">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B218" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C218" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="D218" t="s">
-        <v>934</v>
-      </c>
-      <c r="H218" t="s">
+        <v>952</v>
+      </c>
+      <c r="N218">
+        <v>50000</v>
+      </c>
+      <c r="O218">
+        <v>50000</v>
+      </c>
+      <c r="P218">
+        <v>1500000000</v>
+      </c>
+      <c r="Q218">
+        <v>750</v>
+      </c>
+      <c r="U218" t="s">
         <v>961</v>
       </c>
-      <c r="N218">
-        <v>1000000</v>
-      </c>
-      <c r="O218">
-        <v>1000000</v>
-      </c>
-      <c r="P218">
-        <v>2000000000</v>
-      </c>
-      <c r="Q218">
-        <v>2000000</v>
-      </c>
-      <c r="U218" t="s">
-        <v>956</v>
-      </c>
       <c r="AA218" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="AB218" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="AC218" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="AE218">
         <v>7</v>
       </c>
       <c r="AF218" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="AG218">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:33">
       <c r="A219">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B219" t="s">
+        <v>967</v>
+      </c>
+      <c r="C219" t="s">
+        <v>892</v>
+      </c>
+      <c r="D219" t="s">
+        <v>952</v>
+      </c>
+      <c r="N219">
+        <v>500000</v>
+      </c>
+      <c r="O219">
+        <v>500000</v>
+      </c>
+      <c r="P219">
+        <v>1500000000</v>
+      </c>
+      <c r="Q219">
+        <v>75000</v>
+      </c>
+      <c r="U219" t="s">
         <v>964</v>
       </c>
-      <c r="C219" t="s">
-        <v>861</v>
-      </c>
-      <c r="D219" t="s">
-        <v>934</v>
-      </c>
-      <c r="H219" t="s">
-        <v>965</v>
-      </c>
-      <c r="I219">
-        <v>20000</v>
-      </c>
-      <c r="J219">
-        <v>30000</v>
-      </c>
-      <c r="K219">
-        <v>150000000000</v>
-      </c>
-      <c r="L219">
-        <v>700000</v>
-      </c>
-      <c r="N219">
-        <v>1000000</v>
-      </c>
-      <c r="O219">
-        <v>1000000</v>
-      </c>
-      <c r="P219">
-        <v>2000000000</v>
-      </c>
-      <c r="Q219">
-        <v>200000</v>
-      </c>
-      <c r="U219" t="s">
-        <v>960</v>
-      </c>
-      <c r="Y219">
-        <v>3</v>
-      </c>
       <c r="AA219" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="AB219" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="AC219" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="AE219">
         <v>7</v>
       </c>
       <c r="AF219" t="s">
-        <v>861</v>
+        <v>892</v>
       </c>
       <c r="AG219">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:33">
       <c r="A220">
+        <v>190</v>
+      </c>
+      <c r="B220" t="s">
+        <v>970</v>
+      </c>
+      <c r="C220" t="s">
+        <v>879</v>
+      </c>
+      <c r="D220" t="s">
+        <v>952</v>
+      </c>
+      <c r="E220" t="s">
+        <v>851</v>
+      </c>
+      <c r="F220" t="s">
+        <v>834</v>
+      </c>
+      <c r="G220">
+        <v>25</v>
+      </c>
+      <c r="H220" t="s">
+        <v>971</v>
+      </c>
+      <c r="K220">
+        <v>2000000000</v>
+      </c>
+      <c r="N220">
+        <v>1000000</v>
+      </c>
+      <c r="O220">
+        <v>1000000</v>
+      </c>
+      <c r="P220">
+        <v>2000000000</v>
+      </c>
+      <c r="Q220">
+        <v>200000</v>
+      </c>
+      <c r="U220" t="s">
+        <v>951</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>973</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>952</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>851</v>
+      </c>
+      <c r="AE220">
+        <v>7</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>879</v>
+      </c>
+      <c r="AG220">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:33">
+      <c r="A221">
+        <v>191</v>
+      </c>
+      <c r="B221" t="s">
+        <v>974</v>
+      </c>
+      <c r="C221" t="s">
+        <v>879</v>
+      </c>
+      <c r="D221" t="s">
+        <v>952</v>
+      </c>
+      <c r="E221" t="s">
+        <v>967</v>
+      </c>
+      <c r="F221" t="s">
+        <v>951</v>
+      </c>
+      <c r="H221" t="s">
+        <v>975</v>
+      </c>
+      <c r="N221">
+        <v>1000000</v>
+      </c>
+      <c r="O221">
+        <v>1000000</v>
+      </c>
+      <c r="P221">
+        <v>2000000000</v>
+      </c>
+      <c r="Q221">
+        <v>200000</v>
+      </c>
+      <c r="U221" t="s">
+        <v>970</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>976</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>977</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>952</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>967</v>
+      </c>
+      <c r="AE221">
+        <v>7</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>879</v>
+      </c>
+      <c r="AG221">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:33">
+      <c r="A222">
+        <v>192</v>
+      </c>
+      <c r="B222" t="s">
+        <v>978</v>
+      </c>
+      <c r="C222" t="s">
+        <v>892</v>
+      </c>
+      <c r="D222" t="s">
+        <v>952</v>
+      </c>
+      <c r="H222" t="s">
+        <v>979</v>
+      </c>
+      <c r="N222">
+        <v>1000000</v>
+      </c>
+      <c r="O222">
+        <v>1000000</v>
+      </c>
+      <c r="P222">
+        <v>2000000000</v>
+      </c>
+      <c r="Q222">
+        <v>2000000</v>
+      </c>
+      <c r="U222" t="s">
+        <v>974</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>980</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>981</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>952</v>
+      </c>
+      <c r="AE222">
+        <v>7</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>892</v>
+      </c>
+      <c r="AG222">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:33">
+      <c r="A223">
+        <v>193</v>
+      </c>
+      <c r="B223" t="s">
+        <v>982</v>
+      </c>
+      <c r="C223" t="s">
+        <v>879</v>
+      </c>
+      <c r="D223" t="s">
+        <v>952</v>
+      </c>
+      <c r="H223" t="s">
+        <v>983</v>
+      </c>
+      <c r="I223">
+        <v>20000</v>
+      </c>
+      <c r="J223">
+        <v>30000</v>
+      </c>
+      <c r="K223">
+        <v>150000000000</v>
+      </c>
+      <c r="L223">
+        <v>700000</v>
+      </c>
+      <c r="N223">
+        <v>1000000</v>
+      </c>
+      <c r="O223">
+        <v>1000000</v>
+      </c>
+      <c r="P223">
+        <v>2000000000</v>
+      </c>
+      <c r="Q223">
+        <v>200000</v>
+      </c>
+      <c r="U223" t="s">
+        <v>978</v>
+      </c>
+      <c r="Y223">
+        <v>3</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>984</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>985</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>952</v>
+      </c>
+      <c r="AE223">
+        <v>7</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>879</v>
+      </c>
+      <c r="AG223">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:33">
+      <c r="A224">
         <v>206</v>
       </c>
-      <c r="B220" t="s">
-        <v>968</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="B224" t="s">
+        <v>986</v>
+      </c>
+      <c r="C224" t="s">
         <v>68</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E224" t="s">
         <v>402</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F224" t="s">
         <v>528</v>
       </c>
-      <c r="H220" t="s">
-        <v>969</v>
-      </c>
-      <c r="P220">
+      <c r="H224" t="s">
+        <v>987</v>
+      </c>
+      <c r="P224">
         <v>2000000</v>
       </c>
-      <c r="Q220">
+      <c r="Q224">
         <v>250</v>
       </c>
-      <c r="T220">
+      <c r="T224">
         <v>1</v>
       </c>
-      <c r="Y220">
+      <c r="Y224">
         <v>5</v>
       </c>
-      <c r="AA220" t="s">
-        <v>970</v>
-      </c>
-      <c r="AB220" t="s">
-        <v>971</v>
-      </c>
-      <c r="AD220" t="s">
+      <c r="AA224" t="s">
+        <v>988</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD224" t="s">
         <v>402</v>
       </c>
-      <c r="AF220" t="s">
+      <c r="AF224" t="s">
         <v>68</v>
       </c>
-      <c r="AG220">
+      <c r="AG224">
         <v>5</v>
       </c>
     </row>

--- a/resources/data-imports/Quests/quests.xlsx
+++ b/resources/data-imports/Quests/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1039">
   <si>
     <t>id</t>
   </si>
@@ -1979,6 +1979,63 @@
     <t>With the skirt, ratty and old, you place it below the tree, she guides you by telling you have to wrap it around the tree. You do so, it smells, its old. But she doesn’t care. She curls up under the tree.&lt;br /&gt; &lt;br /&gt; After a moment she looks up at you.&lt;br /&gt; &lt;br /&gt; “You know, you remind me of him. I like that. I like to lay beside him and watch what hes doing. Every now and then I get the kisses, the pets and snuggles. I miss those days. I miss my human.”&lt;br /&gt; &lt;br /&gt; You ask her if she knows what became of him, of what Mr. Whiskers stated.&lt;br /&gt; &lt;br /&gt; “Dead, yes I know that. He left me, he left me alone. The world grew colder, lonelier and I became lost. Lost like I was when Mr. Whiskers, my best friend, my soul mate, my true companion had also died. I became abandoned in heart and in soul. I miss them both dearly.”&lt;br /&gt; &lt;br /&gt; She refuses to speak after that. You wonder if there is something else that would make her speak. Maybe you need to speak to others, but who else could you speak to?</t>
   </si>
   <si>
+    <t>Cat toys and questions</t>
+  </si>
+  <si>
+    <t>The Poet's magic comes alive</t>
+  </si>
+  <si>
+    <t>Rusty Laser Pointer</t>
+  </si>
+  <si>
+    <t>Spinner Ball Toy</t>
+  </si>
+  <si>
+    <t>You have been running through the snow, trying to get away from the snowman. The snow whips at your face, blinding you. The howling wind has gradually faded, but it feels as if you have been running for days. You can barely see in front of you, and the wind cuts sharply at your skin. &lt;br /&gt; &lt;br /&gt; After some time, you manage to emerge from the blizzard into the clear, dark night. The cold is bitter and biting, but less intense than when you first started fleeing the snowman. You glance back and see nothing but miles of snow stretching across the plains, illuminated by the clear night sky. The moon is bright and full, and the stars twinkle against the darkness.&lt;br /&gt; &lt;br /&gt; You catch your breath, though the frigid air stings your lungs.&lt;br /&gt; &lt;br /&gt; After a moment, you wrap yourself in your fur cloak and continue walking through the snow toward the Ice Pirates' Hideout, a small port filled with frozen, lifeless figures whose eyes seem to follow you as you pass. Perhaps Mrs. Piper knows more about the magic that brought this creature to life. You ponder how you need The Enchanted Snowman to fix The Shattering.&lt;br /&gt; &lt;br /&gt; As you approach the town, you pass by the Old Abandoned Village and decide to turn back to rest there.&lt;br /&gt; &lt;br /&gt; Arriving at the village, you find an old house and start a small fire in the dilapidated fireplace. You spend a moment reflecting on your journey so far.&lt;br /&gt; &lt;br /&gt; The Soldier and his brother’s father is nothing more than a ghost; then again, so is The Soldier’s Brother. So is Trix. So is Mr. Whiskers. Everyone on this plane, with the exception of Mrs. Piper, is dead. Everyone has suffered some kind of horrific fate—from crashes to torture, mutilation, pain, and suffering. All are frozen in their anguish.&lt;br /&gt; &lt;br /&gt; You recall the journal you read: even The Poet is trapped in his guilt and failure to help The Child ascend. To you, it seems that although The Child failed to ascend, The Poet imprisoned him, locking him in Purgatory until he eventually escaped. That escape led to what is now known as The Shattering, which splintered the Surface into multiple planes. This fracture prompted The Poet, The Wandering Merchant, and a mysterious figure known as The Wandering Prince to seal some of the planes in an attempt to contain the corruption. But why not others? Why are others left for people to freely travel to if they know how?&lt;br /&gt; &lt;br /&gt; Your head spins with questions.</t>
+  </si>
+  <si>
+    <t>After you awaken in the morning, you explore the town—the dilapidated buildings, the ruined gardens, and the snow-covered paths and roads. An eerie silence hangs over this place. You spot a few critters here and there, and, driven by anger and confusion, you conjure your magic and tear them apart, managing to find a rusty device. You push a button on it, and a red beam of light shoots out, creating a small red dot on the ground. Unsure of what it is or what use it has, you remember that you were going to seek out Mrs. Piper. She might know more.&lt;br /&gt; &lt;br /&gt; You also come across a small ball with a bell inside. What could this be? Who would use it, and for what purpose? These trinkets baffle you.&lt;br /&gt; &lt;br /&gt; Eventually, you leave the town and head toward the port. You manage to find Mrs. Piper in the house where you left her. The fire is still burning, and the place feels warm—warmer than where you spent the night.&lt;br /&gt; &lt;br /&gt; Outside, the sky is grey and overcast, and the snow begins to fall again.&lt;br /&gt; &lt;br /&gt; “Human!” comes a squeaky voice as a small, slender black shape emerges from the shadows and moves toward you. She arches her back, rubs against you, and starts to purr as she passes by.&lt;br /&gt; &lt;br /&gt; You drop down and pet her, recounting your journey so far. You also show her the ball, and you see her eyes light up with excitement. “Oooo, a toy!” she exclaims, batting it around and chasing it. The bell rings inside the ball as she flops onto her side and continues to play with it. You also tell her about the strange contraption that emits a red light.&lt;br /&gt; &lt;br /&gt; “Oh? Show me this contraption,” she says, standing up before sitting down, her tail swishing back and forth on the floor.&lt;br /&gt; &lt;br /&gt; You take out the contraption, point it at the ground, and press the button. Her excitement is immediate as she chases the red light. You move it side to side, and she cannot catch it. She darts around the room, and in her excitement, she exclaims, “Laser pointer!” You have no idea what that means, but you can see how happy this device makes her.&lt;br /&gt; &lt;br /&gt; The two of you spend the morning playing with these items. You pet her, and for a moment, you forget the horrors and drama of the past month. You forget how cold it is outside as the snow continues to fall softly.</t>
+  </si>
+  <si>
+    <t>Who is the snowman?</t>
+  </si>
+  <si>
+    <t>Leather Wallet</t>
+  </si>
+  <si>
+    <t>Red and Green Ribbon</t>
+  </si>
+  <si>
+    <t>“You told me about The Enchanted Snowman,” Mrs. Piper says as she lies in your lap, purring while you pet her. Her small voice is squeaky, yet soothing.&lt;br /&gt; &lt;br /&gt; You look down at her, and she looks up at you, nudging her head into your hand.&lt;br /&gt; &lt;br /&gt; “I don’t think it was just The Poet’s magic that brought him to life. I think it was something more. I remember you telling me how The Poet created a snowman while searching for a key and how it eventually melted away. I believe the magic from that spell, combined with a child’s corruption and fear, brought this other snowman to life.”&lt;br /&gt; &lt;br /&gt; You ask if she knows anything about this child, the corruption, or whether it’s connected to The Creator, also known as The Child.&lt;br /&gt; &lt;br /&gt; “I don’t know for sure, but maybe—just maybe—the only other child I know of is Trix. He might know something about the fear and corruption of children. As you told me, he died a horrific death. He might have some insight, possibly. This snowman sounds peculiar. 'You will face my true self.' What could that mean?”&lt;br /&gt; &lt;br /&gt; Neither of you has an answer, but you gently set her down and tell her you need to find Trix, as he might have information about the snowman.&lt;br /&gt; &lt;br /&gt; She walks over to the fire, curls up, and, with a yawn, says, “I’ll be here, child. If you find any more toys, let me know. I do love toys. These old bones still find joy in them.” With that, she falls fast asleep, likely dreaming of chasing mice.&lt;br /&gt; &lt;br /&gt; You briefly wonder if she ever met Mr. Whiskers.</t>
+  </si>
+  <si>
+    <t>You arrive back at the house and see her staring out the window. You greet her, and she asks, “Have you seen the people of this town?” You nod, but then recall your entrance into the town after your recent journeys. The people are gone. You tell her as much.&lt;br /&gt; &lt;br /&gt; “They are missing. It is said they move around in the dead of night, like ghosts. They drift slowly from one place to another, as if they’re living their lives. But come daylight, they freeze once more.”&lt;br /&gt; &lt;br /&gt; You look at her as she jumps down. “Nevertheless, did you bring me any new toys?” You present a red and green ribbon, which she eagerly begins to chase as you move it around. You also mention a wallet you found, empty and worn. She meows in her familiar squeaky voice. “I know another cat who might recognize that wallet. He used to push things off counters when he was alive. Maybe you know my friend, Mr. Whiskers. He was everything to me. We’d snuggle, groom each other—he was especially good at cleaning ears. I was so sad when he died.”&lt;br /&gt; &lt;br /&gt; So she did know Mr. Whiskers. You wonder just how old she is, but let the thought slip away for now. Turning your focus back to the wallet and what you learned from Trix, you tell her about his inability to accept his death and how The Soldier’s Brother also refused to believe it until you showed him the bloody tunic he wore when he died. You recount how they both eventually came to understand they were dead, haunting this frozen land, unable to move on.&lt;br /&gt; &lt;br /&gt; Trix retreated into himself, lost in thought and despair, muttering about the snowman he built and his longing for a friend. He cried beside that snowman until The Soldier’s Brother found him and took him under his wing, protecting him as if he were his own.&lt;br /&gt; &lt;br /&gt; The Soldier’s Brother had been angry, trying to shield Trix from your revelations and even banishing you from the old gas station on the broken road. You tell her how you felt like you had done more harm than good.&lt;br /&gt; &lt;br /&gt; “It’s him. It’s Trix,” she says. “He created the snowman, and The Poet’s magic brought it to life. Trix’s pain corrupted that magic, and now we have this enchanted snowman, wailing and crying in the night. But for what? You must return to him and uncover his story. It’s the only way.”&lt;br /&gt; &lt;br /&gt; You recall your flight from the snowman and how placing the leather watch on him prompted him to say that you would have to face his true form. What is his true form?</t>
+  </si>
+  <si>
+    <t>Winter memories with a cat</t>
+  </si>
+  <si>
+    <t>Tuna Fish Wet Food</t>
+  </si>
+  <si>
+    <t>After your journeys, you return to the house where Mrs. Piper waits. She mentions that she’s hungry, so you set out again in search of food, hoping to find something to sustain her. You’ve grown to care for this little creature, this small, resilient being. You recall the story she told you about her and Mr. Whiskers—they were friends who shared a bond, caring for one another. His death left her lonely, longing for her lost companion.&lt;br /&gt; &lt;br /&gt; You know The Creator loved them both deeply. So why did he abandon them, especially her? Was his pain greater than hers, or was he selfishly seeking to escape his own torment?&lt;br /&gt; &lt;br /&gt; Your thoughts drift back to Trix and The Soldier’s Brother. The story you’ve uncovered is that, despite being related, The Soldier’s Brother and The Soldier shared a love that ran deeper than brotherhood—a forbidden love that enraged their father. In his fury, the father lashed out, killing one son and banishing the other. This same father was eventually arrested, tortured, and left to die, but not before he inflicted his wrath on a child—a child who wanted nothing more than to be rescued from the Priests, who committed unspeakable acts.&lt;br /&gt; &lt;br /&gt; The Soldier’s Brother had spoken of finding Trix later, in the snow beside a snowman. He admitted he never told Trix the truth about his death, choosing to lie instead. But he also mentioned that he and The Soldier had saved Trix before. What confuses you is why The Soldier’s Brother doesn’t remember it or why you didn’t say anything at the time. Perhaps his own death was too overwhelming for him to recall those details, or perhaps you should have spoken up.&lt;br /&gt; &lt;br /&gt; Your mind wanders further, pondering the snowman. What role does he play in all of this? Trix may have created him, but it was The Poet’s magic that brought him to life. Yet, Trix’s pain seemed to have corrupted that magic. Who is the snowman, really? How does he tie into the Shattering and the escape of The Child from purgatory? Is there a connection between it all?&lt;br /&gt; &lt;br /&gt; Too many questions, and not nearly enough answers…</t>
+  </si>
+  <si>
+    <t>You return with the food and find Mrs. Piper by the fire. She pads over as you open the can and place it down, eagerly starting to eat.&lt;br /&gt; &lt;br /&gt; The unanswered questions still weigh heavily on your mind. You stare out the window in the main room, watching the snow drift down, feeling the chill that seems to seep through the walls. Mrs. Piper moves between your legs and leaps onto the windowsill. You reach out and stroke her from head to tail, and she purrs softly in response.&lt;br /&gt; &lt;br /&gt; After a moment, you voice your concerns. You tell her how little sense everything makes, how you fear that your actions may be causing more harm than good.&lt;br /&gt; &lt;br /&gt; “You are obsessed with The Child, with his journey rather than your own,” she says after a pause, her squeaky voice resonating in your thoughts.&lt;br /&gt; &lt;br /&gt; The realization stirs within you. Perhaps she’s right—you have been consumed by his story. You ask her why The Poet locked The Child away after his failed ascension. She meets your gaze with her wide eyes. “I don’t know for sure. Maybe Whiskers knows. What I do know is this land and these people, frozen in their own pasts and pain, like the rest of the town. You would have to ask him.”&lt;br /&gt; &lt;br /&gt; You weigh whether you should seek him out.&lt;br /&gt; &lt;br /&gt; “Did you find out more about the snowman, beyond the little I told you?” she asks. You tell her that you believe Trix, in his loneliness, created the snowman and that his pain corrupted The Poet’s magic, but you still don’t know the snowman’s true identity or why you’re destined to face him.&lt;br /&gt; &lt;br /&gt; “Whiskers would know,” she says again. She stares out the window, and your eyes follow. It seems Whiskers holds more answers than you realized. You contemplate whether to seek him out, hoping to untangle the mysteries binding you to this frozen world.</t>
+  </si>
+  <si>
+    <t>Playing with Mr. Whiskers</t>
+  </si>
+  <si>
+    <t>Feathered Wand</t>
+  </si>
+  <si>
+    <t>You find Mr. Whiskers in an abandoned house in the village, perched on a table, batting at the snow that’s sifted through the broken roof. Each time his paws touch the cold, he pauses to clean them meticulously. When he spots you, his eyes brighten, and he leaps down, trotting over with an eager purr. You scoop him up, his warm fur vibrating with contentment as you pet him.&lt;br /&gt; &lt;br /&gt; “I’m glad you’re back, human. I missed you.” He nuzzles into your neck, even reaching up to give your nose a playful lick. “Come in and warm yourself.” You move deeper into the house and are surprised to see a small fire crackling in the hearth. You briefly wonder how a cat could manage such a feat, but this world’s peculiar magic makes anything possible.&lt;br /&gt; &lt;br /&gt; “What brings you back to me?” His tone is curious, but before you can answer, he adds with a hint of mischief, “Oh, before we start, I need a toy. I’m tired of playing with the snow that sneaks in here. Can you find one for me?”&lt;br /&gt; &lt;br /&gt; The urge to tell him everything wells up inside you: the questions gnawing at your mind, the cryptic warnings from Mrs. Piper. Yet, you nod, deciding to fulfill his request first. “I do have many questions to ask you, but I’ll find you a toy first,” you say, sensing that earning his favor will be worth the small delay.</t>
+  </si>
+  <si>
+    <t>As you play with Mr. Whiskers, you recount your journey and the questions that weigh on your mind. He rolls onto his back, paws batting at the feathered wand toy you brought him. “Sounds like a pickle,” he says nonchalantly, his eyes glinting with amusement.&lt;br /&gt; &lt;br /&gt; You pause for a moment, watching the cat play. “What should I do? Where do I go with all this information?” you ask, sharing what Mrs. Piper told you—that he might hold the answers you seek.&lt;br /&gt; &lt;br /&gt; “Me? I only know what I know about this place,” Mr. Whiskers replies, batting at the toy with renewed vigor. “But one thing I do know: the snowman is not what he seems. He is The Father. The Creator’s Father, just like The Ice Queen is The Mother.”&lt;br /&gt; &lt;br /&gt; The toy slips from your hand as you process his words, and Mr. Whiskers shoots you an annoyed glare, tail flicking impatiently. “The Enchanted Snowman is The Father?” you mutter, realization dawning. The Creator’s father. The Child’s father. The man who died on the night of the crash. But if The Poet found The Mother, shouldn’t he have known about The Father? You turn to the cat for more clarity.&lt;br /&gt; &lt;br /&gt; Mr. Whiskers stretches lazily. “I don’t know why The Poet didn’t sense The Father. Maybe his spirit had already begun to move on but was trapped by The Poet’s magic when creating the snowman. Then, when Trix, lonely and heartbroken, made a friend and cried over him, his pain corrupted that magic.”&lt;br /&gt; &lt;br /&gt; Pieces begin to fall into place: a soul trying to move on, snared by magic, and imbued with a child’s grief. It fits, but it leaves another question. “Why must I face him? How does he connect to The Shattering?” you wonder aloud.&lt;br /&gt; &lt;br /&gt; “You’d have to ask him yourself, child. Now, can we please get back to playing? I like this new toy,” Mr. Whiskers says, his eyes fixed on you, full of feline impatience.&lt;br /&gt; &lt;br /&gt; You resume the game, mind racing with questions. Facing the snowman again is not what you want, but it may be the only way forward.</t>
+  </si>
+  <si>
     <t>The Key and The Cat</t>
   </si>
   <si>
@@ -2129,9 +2186,6 @@
     <t>“Child, I have been looking for you." The Poet turns and looks at you. Standing in the market at Smugglers Port, the two of you stare at each other for a moment.&lt;br /&gt; &lt;br /&gt; “I know what you are here for. That damn cat can never keep his mouth shut.”&lt;br /&gt; &lt;br /&gt; He starts to walk down the busy road, through the people. The smells of the market, the warmth of the sun. It slowly removes the chill of frozen wasteland from your bones.&lt;br /&gt; &lt;br /&gt; You walk through the people, and The Poet speaks. His words work their way through the voices of the crowd, becoming crystal clear and ever-present.&lt;br /&gt; &lt;br /&gt; “We—The Soldier, The Merchant, as well as others you have interacted with—are constructs of a magical design created by The Father and The Mother many aeons before. We walk this plane, this reality, in the form you see us in: people, gods, spirits. We are more than that. We are beyond the magic of this existence and all its realities. But we are not immune to the corruption that those who do not ascend can cause. We work powerful magics to lock it away, to bury it beneath the feet of men, women, and children. We exist among them to safeguard the keys.”&lt;br /&gt; &lt;br /&gt; He stops at a stall that sells fresh fruit and purchases some of the fruit. He asks if you want any, and you take the apple. He pays the coin, and you continue on with your apple.&lt;br /&gt; &lt;br /&gt; He steps off the beaten path to a small park where the children play and the parents sit on benches and the grass, enjoying the food of the market stalls.&lt;br /&gt; &lt;br /&gt; He sits on a bench, and you sit beside him, watching the park and its people.&lt;br /&gt; &lt;br /&gt; “The Child, The Creator—has morphed from a helpless, broken child into a corrupted cosmic entity we cannot contain. I need your help. Seek the answers in The Church. Seek the cat and his words. Seek the hope we need to end this corruption.”</t>
   </si>
   <si>
-    <t>The Poet's magic comes alive</t>
-  </si>
-  <si>
     <t>TheEnchantedSnowman</t>
   </si>
   <si>
@@ -2147,6 +2201,24 @@
     <t>You managed to retrieve an old leather bound watch from The Poet. You brought it back to the place where you met this enchanted snow man. It’s just a lifeless snowman, it doesn’t move, it doesn’t speak, it doesn’t even look at you.&lt;br /&gt; You place the watch upon the snowman’s twig arm and all of a sudden he comes to life. A breath of air enters him and he shakes off the newly fallen snow.&lt;br /&gt; &lt;br /&gt; “Thank you child. I have been wandering where my watch went.”&lt;br /&gt; &lt;br /&gt; You step back, with a gasp on the tip of your tongue.&lt;br /&gt; &lt;br /&gt; “I was wondering if I would ever get it back, but alas The Poets excitement about some enchanted snowman and how his spell worked, was too much for me to pass up. You see child, I am stuck in this form. But the magic of this watch will free me eventually and you will have to face my true self.”&lt;br /&gt; &lt;br /&gt; You stand back, ready to whip of the magics of your own and take him down. You cast every magical spell, let your own body radiate with the magic of your gear and hurl what you have at him. There is an evil in his soul that radiates and blocks your own magic. He laughs.&lt;br /&gt; &lt;br /&gt; “Child, you are silly and will find that we need each other more then ever, especially if you are to undo The Shattering and restore this world to its former self.”&lt;br /&gt; &lt;br /&gt; You stop in your tracks. You know of The Shattering, the way The Poet, The Wandering Merchant and a mysterious prince, one of an emerald world sealed away the memories, delusional and twisted when The Child escaped his prison in Purgatory. You know the story, it fills your heart with dread and fear.&lt;br /&gt; &lt;br /&gt; You turn and run, run from this place, through the snow with the laughter of a banshee playing on the wind.</t>
   </si>
   <si>
+    <t>The truth of The Enchanted Snowman</t>
+  </si>
+  <si>
+    <t>You approach the lot where dead trees are stacked haphazardly, remnants of another time. The chain-link fence surrounding it is coated in frost, brittle and cold, while the road leading in is cracked and buried under layers of snow. In the center of the path stands the snowman—motionless, formidable. Trix's creation, brought to life by corrupted magic.&lt;br /&gt; &lt;br /&gt; This snowman, Mr. Whiskers revealed, is The Father—the Child’s father, the man who perished on the night of the crash.&lt;br /&gt; &lt;br /&gt; You tread forward, each step careful, thoughtful. The wind stirs, growing into a piercing howl filled with sorrow and despair. The air around you thickens with an icy grip, cutting to the bone.&lt;br /&gt; &lt;br /&gt; “I can see you, child,” comes a voice, one you've heard before. It echoes from within the snowman, resonant and haunting.&lt;br /&gt; &lt;br /&gt; You stop and study him, lifeless at first, but then he shifts, ever so slightly. The wind strengthens, and the chill bites deeper. A shiver runs down your spine.&lt;br /&gt; &lt;br /&gt; “I know why you are here. I know your questions. I know what you seek. You want to know how I can help with The Shattering. But to gain that answer, you must face me.”&lt;br /&gt; &lt;br /&gt; You steady yourself, telling him you know who he is, how he became trapped in this form—how Trix’s lonely creation merged with The Poet’s magic, twisted by pain.&lt;br /&gt; &lt;br /&gt; “Ah, child, you are both right and wrong,” he replies, his voice cracking with a bitter edge. “I can escape; I can assume the form I choose. She is my queen, and I am her king. This is our realm, our dominion!”&lt;br /&gt; &lt;br /&gt; You glance around, noting the stillness. The Queen has not come. “She doesn’t know you’re here,” you say, pity welling up in your voice. “You’re alone. Now tell me about The Shattering.”&lt;br /&gt; &lt;br /&gt; A sharp, humorless laugh bursts from him. “Can you not hear it, child? Her voice rides the wind—a wind steeped in pain and memories.”&lt;br /&gt; &lt;br /&gt; You push your question again, firm, unyielding.&lt;br /&gt; &lt;br /&gt; “All in due time, child,” he says, his gaze hollow yet burning. “But first, you must face me.”&lt;br /&gt; &lt;br /&gt; The meaning of his words eludes you, but instinct stirs within. You feel the thrum of magic deep inside, gathering and pulsing as you prepare for what comes next.</t>
+  </si>
+  <si>
+    <t>Your magic strikes the snowman, but it glances off harmlessly, scattering like droplets against stone. His laughter fills the air, cold and sharp as the wind.&lt;br /&gt; &lt;br /&gt; “Your magic is useless here, child,” he mocks, eyes hollow and dark. “You cannot harm me. I am protected by his love, by his search for me. He leaves his prison to find me, to find his mother. But The Poet and his twisted magic keep us apart. We will freeze these lands, shatter this cage, and save our son!”&lt;br /&gt; &lt;br /&gt; The wind swells, turning ferocious. The howl becomes deafening, stealing the breath from your lungs. Sharp ice shards whip through the air, starting as pinpricks but growing, slicing at your skin. You pull your cloak tight, channeling your magic to shield yourself. Still, his laughter echoes around you, triumphant and unyielding.&lt;br /&gt; &lt;br /&gt; “You seek answers, but all you bring is pain and suffering in your search!” he roars. “You think you’ll find the truth? He shattered his own mind, his own world. His rage and pain summoned us here, bound us to this forsaken land.”&lt;br /&gt; &lt;br /&gt; With determination, you push forward through the cutting wind, trying enchantments and wielding weapons. Nothing pierces his form; he remains impervious, unyielding. Desperation seizes you, and you scream over the gale, demanding to know how he can help with The Shattering.&lt;br /&gt; &lt;br /&gt; The snowman’s eyes glint with a cruel light. “By killing the one who can put this world back together!” he shouts.&lt;br /&gt; &lt;br /&gt; Before you can react, an unseen force surges through the air. His magic slams into you, sending you hurtling backward. Your body collides with a jagged rock, and the impact blurs your vision. Pain flares briefly before everything fades, and darkness claims you.</t>
+  </si>
+  <si>
+    <t>Face Me</t>
+  </si>
+  <si>
+    <t>You awaken some time later beneath a sky blanketed with stars, their cold light piercing the moonless night. You push yourself up, gingerly touching the back of your head. There's no blood, no wound. The pain has subsided to a dull throb. Your gaze shifts to the snowman, now motionless and inert, its lifeless form standing like a silent sentinel. You call out, but the only answer is silence.&lt;br /&gt; &lt;br /&gt; Fragments of what he said echo in your mind. His wife—the queen—is bound to the wind, her voice howling in agony. He called himself the king of this frozen realm, and The Child, the one who escaped purgatory to find them, never succeeded. The escape itself, more than just a flight from imprisonment, was what triggered The Shattering.&lt;br /&gt; &lt;br /&gt; But how could the snowman help mend what had been broken? By killing the one who can put it back together. The question looms over you: who holds the power to repair The Child's fractured mind, to restore the shattered world and bridge the realms?&lt;br /&gt; &lt;br /&gt; A fleeting thought crosses your mind—could it be you? You chuckle, the sound small and hollow against the stillness. It feels absurd, impossible. Yet, as the idea takes root, a strange sense of realization follows. You are the one searching for The Creator’s truths, seeking answers to why the world fractured, why pain saturates the lives of those around you, why the past clings so fiercely. The laughter dies on your lips, replaced by a weighty silence.&lt;br /&gt; &lt;br /&gt; You rise, eyes narrowed as you survey your surroundings. Tentatively, you approach the snowman, weaving protective magic around yourself. But it remains lifeless, just an ordinary figure of snow. The wind has stilled, the air empty of movement or sound. No snow falls; there is only silence.&lt;br /&gt; &lt;br /&gt; Where did he go?</t>
+  </si>
+  <si>
+    <t>After scouring the empty lot and searching the shadows cast by the gnarled, skeletal trees, the sound of heavy footsteps interrupts your restless pacing. You whirl around and see him—a man draped in cold, gleaming armor, a sword gripped tightly in his gauntleted hand. For a heartbeat, you wonder if it could be The Soldier’s father, but the figure’s icy, spectral presence dispels that thought. This man is different; he radiates an unnatural chill that prickles your skin and steals your breath.&lt;br /&gt; &lt;br /&gt; “Child,” he intones, his voice as sharp and cold as winter’s edge. “You must face me, face me in this land.”&lt;br /&gt; &lt;br /&gt; The demand pierces the air, heavy with menace. You meet his gaze and defy him, words tumbling from your lips as you declare he will never escape this realm. His search is futile, his son is gone, his queen's voice lost to the wind. They are nothing but echoes, corrupted memories of a world that no longer exists.&lt;br /&gt; &lt;br /&gt; He does not respond. His silence is deeper than the void, more haunting than any scream. Without a word, he raises his sword, the polished steel catching the starlight and glinting cruelly. A chill seeps from its blade, creeping through the air and winding around you, its touch both searing and icy. The pain is excruciating, penetrating your flesh and clawing at your bones. You cry out, your breath fogging in the freezing night.&lt;br /&gt; &lt;br /&gt; “Child. You must face me,” he repeats, the command layered with an urgency you do not understand.&lt;br /&gt; &lt;br /&gt; Why? The question echoes in your mind as you brace yourself, magic pulsing at your fingertips and resolve hardening in your chest. This battle is one you’re not certain you can win, but the moment stretches before you like a frozen abyss. Steeling yourself, you prepare for the fight, uncertain if you will survive but determined to face whatever truth awaits.</t>
+  </si>
+  <si>
     <t>Broken Road</t>
   </si>
   <si>
@@ -2183,6 +2255,45 @@
     <t>You come back to the building, and you hold in your hand another journal. This one seems to belong to The Child, The Creator’s own Journal kept by The Poet. What secrets will you find in it?&lt;br /&gt; &lt;br /&gt; The Soldier's Brother is nowhere to be seen. You sit on the counter and read the journal while waiting for him.&lt;br /&gt; &lt;br /&gt; “He couldn’t seem to handle the truth. I told him of his death today, and he couldn't handle the truth.”&lt;br /&gt; &lt;br /&gt; You begin to read the only passage that seems to make sense or isn’t scrambled by some kind of magic.&lt;br /&gt; &lt;br /&gt; “I told him he needed to ascend from this plane, but he couldn’t let go of the past—the love he lost, the mother he discovered to be among this land—the memories he creates are frozen in place, and no matter how many winter nights pass and how many years begin and end, he refuses to accept the truth."&lt;br /&gt; &lt;br /&gt; "The Child clings to the past disillusion and memories of a better time, a time he chose to end at his own hands. I have explained that his being here, his clinging to these memories, and his refusing to let go are slowly corrupting the land. He seems not to care.” How could one person do so much damage to a single world?&lt;br /&gt; &lt;br /&gt; “I see you found another book.” You are startled by a familar voice.</t>
   </si>
   <si>
+    <t>A childs warmth</t>
+  </si>
+  <si>
+    <t>Wool Scarf</t>
+  </si>
+  <si>
+    <t>Warm Winter Boots</t>
+  </si>
+  <si>
+    <t>You left Mrs. Piper a few days ago and have been traveling toward the broken road where the gas station is located—the place where The Soldier’s Brother and Trix were staying.&lt;br /&gt; &lt;br /&gt; You recall how you last left them by an old, dead tree adorned with a single decoration: a sword you had taken to The Soldier to learn more about their father. You remember that both of them are dead, trapped in this frozen world and bound to the past.&lt;br /&gt; &lt;br /&gt; As you approach the gas station, it appears deserted. A small figure stands outside the station's door, and as you draw nearer, you recognize Trix.&lt;br /&gt; &lt;br /&gt; “Hello!” he calls, coming over to you. He doesn’t look like a ghost; he seems very much alive. You decide to hold back on revealing what you’ve learned about him, cautious of the potential impact. Perhaps he already knows the truth.&lt;br /&gt; &lt;br /&gt; “How have you been? Have you seen The Soldier’s Brother during your travels?” he asks, a hint of worry in his voice. You shake your head and inquire when he last saw him. “I don’t know,” Trix admits, shivering slightly. “But I’m getting colder out here. I wish I had a scarf.”&lt;br /&gt; &lt;br /&gt; Trix is wearing a long winter coat lined with fur, gloves that seem newer than his worn-out, ragged shoes. You tell him you’ll search for something warmer, and his face lights up with excitement. “I would appreciate that very much, child! The Soldier’s Brother mentioned that there might be some new shoes near The Wreck.”&lt;br /&gt; &lt;br /&gt; You suggest that Trix head back inside to stay warm by the fire or start one if it’s not already burning. With that, you set off toward The Wreck to search for shoes, thinking to yourself that you might also find a scarf in the old village where you discovered Mrs. Piper’s toys.</t>
+  </si>
+  <si>
+    <t>You arrive back at the gas station, expecting to see both The Soldier’s Brother and Trix, but only Trix is there. As you step inside, he greets you eagerly. “Did you find anything? Did you find The Soldier’s Brother?”&lt;br /&gt; &lt;br /&gt; You explain that you found him at The Wreck and share what transpired between you, taking care to tread lightly around what you know about Trix and his death. You tell Trix that the conversation about their father and what you learned had angered The Soldier’s Brother.&lt;br /&gt; &lt;br /&gt; Trix’s expression falls as he slowly takes the scarf and wraps it around his neck. He pulls on the new boots, which are a bit big but still bring him some comfort. &lt;br /&gt; &lt;br /&gt; “So he’s dead…,” Trix whispers. “How did he die?”&lt;br /&gt; &lt;br /&gt; You pause, the weight of the truth pressing down on you. Eventually, you tell him that their father killed The Soldier’s Brother in a fit of rage, driven by something he discovered—something you can't fully share, for it’s not your story to tell. But you do reveal that it was a story rooted in love, a forbidden love.&lt;br /&gt; &lt;br /&gt; “A forbidden love…,” Trix repeats, eyes widening as he stares into the fire burning in a barrel at the center of the room. The warmth fills the space, but silence settles between you, heavy and reflective.</t>
+  </si>
+  <si>
+    <t>Childrens toys and silent memories</t>
+  </si>
+  <si>
+    <t>Teddy Bear</t>
+  </si>
+  <si>
+    <t>Wooden Toy Train</t>
+  </si>
+  <si>
+    <t>You and Trix sit quietly in the gas station, watching the fire crackle and burn. Every so often, you add wood to the flames, keeping it alive and warm. After thinking about how to bring up the subject of the snowman—the real reason you came to him—you ask softly, "How did The Soldier's Brother find you?"&lt;br /&gt; &lt;br /&gt; "He found me in an abandoned lot," Trix answers, his voice distant. "A Christmas tree lot. That’s what the snowman called it."&lt;br /&gt; &lt;br /&gt; "Snowman?" you ask, puzzled.&lt;br /&gt; &lt;br /&gt; "Yeah, I built a snowman, and he spoke to me," Trix says with a spark of excitement in his eyes. "It was really cool. I used to make snowmen whenever it would snow. My mommy and daddy would help me..." His voice trails off, and there’s a sadness that creeps in. &lt;br /&gt; &lt;br /&gt; You gently press him for more, sensing he’s holding something back. He looks away, his gaze fixed on the fire. Finally, he says quietly, “It was before the bad men came, before the priests took me away, telling me my parents were bad people. They weren’t!” His voice rises with emotion. “They were nice people. They’d give me toys every year—a teddy bear and a train. I loved playing with those toys. We’d play in the snow, make snowmen, and drink hot apple cider by the fire while I played with my toys.” His voice breaks, and tears begin to spill from his eyes. You wrap an arm around him, pulling him close as he buries his head in your chest and cries.&lt;br /&gt; &lt;br /&gt; You hold him, offering comfort, and let him weep for as long as he needs. After some time, he finally falls asleep, his breathing slow and steady. You let him rest, careful not to disturb him, and step outside for a moment to clear your mind.&lt;br /&gt; &lt;br /&gt; As you stand in the cold air, your thoughts drift to the stories you’ve heard about The Federation—the Holy Knights and priests who would invade towns, slaughter the godless, and take the children. They would drag them to Federation-controlled churches where the children were “converted” to the one true god, raised under the supposed light of God’s love. But you know the truth: the priests’ intentions were far more sinister than the stories ever let on.&lt;br /&gt; &lt;br /&gt; Looking back through the window of the gas station, you wonder if Trix’s toys—his beloved teddy bear and train—might still be out there, buried in the lot or perhaps in the abandoned village. You wonder if finding them might bring him even a small piece of joy in this frozen, desolate world.</t>
+  </si>
+  <si>
+    <t>You return to the gas station after finding the toys in both places you searched. Trix is up and tending to the fire, his face lighting up when he sees you. "Where did you go?!" he asks, his voice tinged with worry. "I was scared. I thought you left me."&lt;br /&gt; &lt;br /&gt; You explain that you went to find something—something that would bring him comfort. You carefully present the toys to him, and his eyes immediately brighten.&lt;br /&gt; &lt;br /&gt; "You found them!" he exclaims, his voice filled with pure joy. "I love this teddy bear, and the train! Mommy said it makes the choo-choo sound and that in a faraway city, they run on steam, carrying people all over the place." The concept sounds unfamiliar to you, but you realize that maybe his mother was from a land far away, a place where such things existed. &lt;br /&gt; &lt;br /&gt; You gently ask, "What do you remember about your parents? Where was your mom from?"&lt;br /&gt; &lt;br /&gt; Trix pauses for a moment, his face lighting up as he recalls the memory. "I don’t know. My mom said she grew up in a magical city, one where contraptions made of metal and steam. I remember steam and flying machines," he says, excitement filling his voice. &lt;br /&gt; &lt;br /&gt; You sit with him as he plays with his toys, the soft sound of the train’s wheels clicking against the floor. Trix couldn’t be any older than eight, maybe ten. Despite everything he’s lived through, there’s still a childlike wonder in him. For a child who has endured unimaginable pain and suffering, you can’t help but wonder how he has managed to hold on to that innocence, that spark of joy.</t>
+  </si>
+  <si>
+    <t>Death is a lie</t>
+  </si>
+  <si>
+    <t>The night fades into day, and you awaken to the sound of Trix adding more wood to the fire. "We are running out of wood," he says as you rise to greet him. You tell him you can go out and find more, but he shakes his head. "The Soldier's Brother should be back soon. He wouldn’t leave me for so long."&lt;br /&gt; &lt;br /&gt; The two of you begin preparing breakfast from the scraps of food you have left—dried bread, cheeses, and some soft fruits that are beginning to go bad. You sit together, warming yourself by the fire.&lt;br /&gt; &lt;br /&gt; You decide to ask him more about the snowman. "I met the snowman," you say. "He calls himself The Enchanted Snowman."&lt;br /&gt; &lt;br /&gt; Trix’s face lights up as he responds, "I know him. I made him. But something else brought him to life. I was so lonely. I woke up from a bad dream in an old lot where there were lots of dead trees. I don’t know why there were so many trees. I remember the snow was sticky. My dad taught me how to make snowmen, so I made him. He was my friend. But..." He trails off, his eyes lowering to his teddy bear. He hugs it tightly, holding it close to his chest as he continues.&lt;br /&gt; &lt;br /&gt; "The snowman said mean things to me. He said... he said I was dead." His voice falters, and his eyes well up with tears. You put a hand on his shoulder, remembering what The Soldier’s Brother said—not to tell him the truth, but wondering if it would hurt if he discovered it on his own.&lt;br /&gt; &lt;br /&gt; Trix suddenly looks up at you, his face streaked with tears. "He’s wrong, right? I can’t be dead. I’m alive, like The Soldier's Brother. I’m alive. My mommy and daddy... I know they’re dead. The bad men killed them. I cried and cried..." His words break as he begins to sob, burying his face in your shoulder.&lt;br /&gt; &lt;br /&gt; You don’t know what to say.</t>
+  </si>
+  <si>
+    <t>The morning stretches into the afternoon, and Trix awakens from the sleep he fell into after crying. The Soldiers Brother steps through the door of the gas station, and Trix’s face lights up with joy at the sight of him.&lt;br /&gt; &lt;br /&gt; The Soldier’s Brother asks how both of you have been, and Trix eagerly shows him the boots, the scarf, the teddy bear, and the train. After a moment, Trix goes back to the fire, sitting down to play with his toys, while you and The Soldier’s Brother step outside into the cool afternoon sun. The sun feels warm, but the land is still covered in ice and snow—nothing ever seems to melt, and more snow always seems to fall.&lt;br /&gt; &lt;br /&gt; You tell The Soldier’s Brother about what Trix told you. He quickly turns to you, his face tight with anger, and hisses, “You didn’t tell him, did you?” You quickly assure him you did not, but you can't help wondering how long the lie can hold. Trix knows his parents are dead. He knows the snowman he created, who came to life, told him he was dead. How much longer can this go on?&lt;br /&gt; &lt;br /&gt; “What is your endgame here, child?” The Soldier’s Brother asks sharply.&lt;br /&gt; &lt;br /&gt; You explain that the snowman Trix made is tied to The Poet's magic, and you believe a "corrupted" child corrupted that magic, creating this being. The Enchanted Snowman told you that you would have to face something important, something that belonged to The Child’s Father. You’re hoping it will provide answers to your many questions.&lt;br /&gt; &lt;br /&gt; Just then, Trix steps outside, his face filled with worry. He looks at both of you and starts to cry. “I could hear you…” he says, his sobbing growing louder. The Soldier’s Brother rushes to him, pulling him close and looking back at you with a scowl.&lt;br /&gt; &lt;br /&gt; “You did this. You’re pushing him too hard.”&lt;br /&gt; &lt;br /&gt; You try to explain that you didn’t do anything, but Trix cuts in. “It’s true, isn’t it?” His voice cracks as he rushes back inside. The Soldier’s Brother follows him, but you move to follow too. The Soldier’s Brother stops you, throwing something at your feet.&lt;br /&gt; &lt;br /&gt; “This is what you wanted, wasn’t it? This old leather thing. Take it. Take it away from here and leave us. You’ve caused enough damage with your ‘search.’ I asked you to do one thing.”&lt;br /&gt; &lt;br /&gt; He goes back inside, and you watch him from the doorway. You pick up the item he threw at you—a worn, old leather wallet-like object. Maybe Mrs. Piper will have more information or know what to do next. You feel a pang of guilt for Trix. He had to learn the truth eventually, but The Soldier’s Brother’s decision to keep it from him only caused more damage. Still, you wonder if part of the blame lies with you. Your probing, your searching—has it done more harm than good?</t>
+  </si>
+  <si>
     <t>Chistmas Trees and Childrens Smiles</t>
   </si>
   <si>
@@ -2208,6 +2319,42 @@
   </si>
   <si>
     <t>You return with the armor. There is a chill in your heart that lingers, stubbornly resisting the warmth of The Surface plane. Even with the sun blazing in the hot afternoon, the chill remains, gnawing at your mind and spirit. The General’s rage, his anger, and his disdain for his children, especially for The Soldier, haunt you. It screams and echoes within your head.&lt;br /&gt; &lt;br /&gt; “Did you get it?” The Soldier asks as you meet him at the port. He is preoccupied, watching the crowds bustle past. People rush by, unloading cargo from ships, haggling over goods, and chattering in the heat of the day.&lt;br /&gt; &lt;br /&gt; You confirm that you did, handing him both items. He reaches beneath his shirt and pulls out a key on a chain around his neck. “I guarded this for The Poet. He told me to never let anyone have it, to never open the door, and to never read the journal. He said I wouldn’t be able to handle what was written inside. I kept that promise, not only because I knew he was right, but because I didn’t want to know the words.” His voice falters. “Did my father ask about me?” he asks, still avoiding your gaze.&lt;br /&gt; &lt;br /&gt; All you can do is lie. You tell him that, though his father was angry and distant at first, over the years of being trapped in his frozen torment, he grew to miss his sons. You say that even the pain of what he discovered could not completely corrupt his heart and soul, that there was still love for them both.&lt;br /&gt; &lt;br /&gt; The Soldier smiles faintly, handing you the key as he finally looks at you. “You’re a bad liar, child. A bad liar.” He takes the sword and the armor and walks away into the throng of people, leaving you with the lie. You hoped it would bring him some measure of comfort, even if only briefly. Whether it did or not, you will never know.&lt;br /&gt; &lt;br /&gt; But now, you have the key.</t>
+  </si>
+  <si>
+    <t>The Father and The Ice</t>
+  </si>
+  <si>
+    <t>TheFrozenGeneral</t>
+  </si>
+  <si>
+    <t>You return to the frozen world, apprehensive about venturing back into the cold, desolate plains where the wind screams. Memories of your last visit, when you retrieved the ornament and faced the howling winds and haunting cries, linger in your mind.&lt;br /&gt; &lt;br /&gt; As you step into the plains, an eerie silence blankets the land. The wind is still, no snow falls, and the evening air is chilly but not unbearably so.&lt;br /&gt; &lt;br /&gt; In the distance, a man stands cloaked, shrouded in mystery. You wonder if this is the father The Soldier spoke of. Cautiously, you approach him, only to hear his voice echo in the stillness as the wind stirs briefly before settling once more.&lt;br /&gt; &lt;br /&gt; “What brings you here, child? Why do you seek me out?”&lt;br /&gt; &lt;br /&gt; You start to tell him that his son sent you, but he interrupts sharply.&lt;br /&gt; &lt;br /&gt; “DO NOT SAY HIS NAME. HE IS NO SON OF MINE.” His rage reverberates through your bones, and an icy chill creeps into your heart. You instinctively step back as he turns toward you, eyes hollow, face contorted with fury.&lt;br /&gt; &lt;br /&gt; “Do you know what they did to me, the priests, when they discovered the truth?” he hisses.&lt;br /&gt; &lt;br /&gt; “They cut out my eyes and left me to bleed out, abandoned me in this frozen land to die. I am but an apparition, a specter of the torment my own twisted children inflicted upon me. Condemned to wander this frozen realm, bound by my rage!” He steps closer, and the wind begins to howl around you.&lt;br /&gt; &lt;br /&gt; You wonder if this is the monster Trix spoke of. Before you can finish the thought, his hand clamps onto your shoulder, and you feel the bitter cold sear through your flesh, piercing your armor, your magic, and all defenses. The pain forces a grimace, and you struggle to pull away, but his grip is unyielding.&lt;br /&gt; &lt;br /&gt; “They are not my children. They are monsters, twisted little monsters. Sinning in the night.”&lt;br /&gt; &lt;br /&gt; His hold tightens, and disjointed, chaotic images flood your mind. The weight of it overwhelms you, and you collapse under the strain. He looks down at your seemingly lifeless body, surrounded by the fierce, swirling snow and wind.&lt;br /&gt; &lt;br /&gt; “They are not my children. They are monsters…” The phrase echoes in your subconscious as darkness closes in around you.</t>
+  </si>
+  <si>
+    <t>You awaken in the field, alone and surrounded by an oppressive silence as the first light of dawn spills across the frozen plains. The biting cold clings to you, but there is no sign of The Soldier's father. You call out into the stillness, but your voice falls flat, swallowed by the quiet.&lt;br /&gt; &lt;br /&gt; Slowly, you rise, feeling the ache in your shoulder where he had gripped you. Examining the spot, you find only a bruise, deep and shaped like the mark of his hand, a chilling reminder of his strength. You pull your cloak tighter, determined to press on, refusing to let the pain or fear deter you.&lt;br /&gt; &lt;br /&gt; The fragments of the truth begin to piece together in your mind. Images flit past like whispers—a pair of young men, no older than twenty-five, bound by a forbidden love. You see them together in a dimly lit tent, hidden away from prying eyes, their connection a mix of desperation and tenderness. The reality of who they are strikes you deeply; brothers, entwined by both blood and passion, acutely aware of the consequences they would face if discovered.&lt;br /&gt; &lt;br /&gt; The wind picks up as you move deeper into the plains, the sharp sting of frost lacing the air. In the distance, a figure emerges—the father. You shout his name, but the sound is lost in the howling gusts. Trix's words echo in your mind, warning you of the monster in the stories. But fear will not make you turn back; you are resolved to face him, to seek what you came for despite the risks.&lt;br /&gt; &lt;br /&gt; Each step sends pain lancing through your shoulder, a fresh reminder of the encounter, but you push forward. The fragmented memories become more vivid, scenes of the two men and their forbidden union unfurl in your thoughts. You see the heat in their eyes, the soft touches, their hearts thundering in unison as they sought solace in one another. Hands intertwining, lips meeting in passionate defiance of the world that would condemn them.&lt;br /&gt; &lt;br /&gt; The wind tears at your resolve, but you steel yourself against it, determined to find answers, no matter the cost.</t>
+  </si>
+  <si>
+    <t>Bloody Tears</t>
+  </si>
+  <si>
+    <t>Two Lumps of Coal</t>
+  </si>
+  <si>
+    <t>You press onward through the howling storm, the snow lashing your face and stinging your skin. The shadowy form of The Soldier’s father wavers on the horizon, shrouded by the swirling blizzard. Each step feels as though it saps your strength, but you refuse to turn back, driven by the weight of your mission and the determination to confront the source of this haunting legacy.&lt;br /&gt; &lt;br /&gt; Amid the roar of the wind, his voice speaks clearly within your mind, carried not by sound but by memory and emotion. &lt;br /&gt; &lt;br /&gt; “When The Federation found out about my children, what they were doing, how they tried to hide it, they shunned me,” he says. His tone is surprisingly devoid of rage, heavy instead with profound grief.&lt;br /&gt; &lt;br /&gt; “My children’s actions brought shame upon me. The leaders of The Federation alerted The Church, who came for me. They bound me and gouged out my eyes, pushing lumps of coal into the hollow sockets as I screamed. They declared that if I could not see the wickedness in my own blood, then I deserved only darkness. They told me God would forsake my children, that they would be hunted and slain for their sins.”&lt;br /&gt; &lt;br /&gt; His voice fades as you push forward, battling the biting wind and the snow that clings to your limbs. You scream his name into the storm, your voice swallowed by the wind. Magic crackles at your fingertips, but even your spells seem powerless here, dissipated by the unnatural forces binding the blizzard. You know it is his doing, his desperate attempt to keep you at bay. His voice returns, trembling with the echoes of pain.&lt;br /&gt; &lt;br /&gt; “They left me to freeze on the night of the winter celebrations, as families exchanged gifts and joy filled the air. I lay in the darkness, blood seeping from my eyes like tears, feeling nothing but the frost overtaking me, the loneliness gnawing at my soul. My life ebbed away as they reveled in warmth and cheer.”&lt;br /&gt; &lt;br /&gt; The storm begins to relent, the shriek of the wind fading into an eerie, deep silence. Your limbs are numb, your breaths ragged from the struggle, but you press on, undeterred. The snow no longer blinds you; it lies deep underfoot, slowing your steps but no longer holding you back.&lt;br /&gt; &lt;br /&gt; In an instant, the storm ceases, and he stands before you, clear and stark against the white expanse. His face is gaunt, desperation etched into his hollow features. Blood trickles anew from his eyeless sockets, warm and crimson, falling unheeded to the snow below.&lt;br /&gt; &lt;br /&gt; “I need the coal,” he says, voice tight with desperation. “It’s the only way I can see again. They told me as much.”&lt;br /&gt; &lt;br /&gt; You meet his gaze—empty though it is—and tell him what you seek: the Bronze Armour, an artifact his son mentioned.&lt;br /&gt; &lt;br /&gt; He pauses, a shadow of recognition crossing his expression. “Will it grant you the answers you seek?” he asks, his voice strained. You nod solemnly, and he raises a hand to point into the expanse of the plains. &lt;br /&gt; &lt;br /&gt; The direction is clear, but the path ahead is uncertain. The answers you need lie somewhere out there, waiting to be uncovered.</t>
+  </si>
+  <si>
+    <t>You hold the coal in your trembling hands, its dark, jagged surface glistening with a mysterious sheen. You remember the battle, the fearsome beast that clutched them as prized possessions, its growl echoing in your ears as you fought for these strange relics. Now, standing before the father in the icy wasteland, you extend your hand, offering him the coal.&lt;br /&gt; &lt;br /&gt; His gaunt, blood-streaked face twists in a semblance of gratitude. Without a word, he accepts the coal and pushes it deep into his empty eye sockets. A shudder runs through his body, and fresh blood seeps out, trickling down his cheeks like crimson tears. He raises his face to the sky, eyes wide as if seeing it for the first time.&lt;br /&gt; &lt;br /&gt; “I can see, child,” he breathes, awe in his voice. His gaze sweeps over you, the expanse of the snow-covered plains, and the cold, star-pricked night. “I can see you. I can see the past. I can see the world around me.”&lt;br /&gt; &lt;br /&gt; For the briefest moment, a glimmer of joy flickers within you, a fragile ember in the cold.&lt;br /&gt; &lt;br /&gt; But then his expression hardens, and the chill in the air feels sharper. “I can never forgive my sons for what they did to me. Their own desires, their treacherous behavior, and their devotion to the goddess led to this pain, to these cursed eyes.” He pauses, his voice dipping lower, heavy with bitterness. “I banished The Soldier, sent him away to suffer on his own path. But his brother…” His voice quivers with the memory. “His brother I cut down with my own sword. There was a boy that night, a small child, clinging to The Soldier’s brother. He looked up at me, eyes wide with terror, begging not to be sent back to the priests. I knew what fate awaited him there, the beatings, the defilement, the breaking of his spirit.”&lt;br /&gt; &lt;br /&gt; His jaw clenches, and he shakes his head as if to dispel the image. “But rage won out. I shoved my sword through his skull, watched the life drain from his eyes.” He closes his own eyes, now coal-filled and seeping blood. “They arrested me the next night. That was the beginning of my end.”&lt;br /&gt; &lt;br /&gt; He turns his back to you, his figure shrouded by the swirling snow and dark sky. “You have what you came for, child. Leave me now. Let me see the world in this frozen darkness, a penance for what I have done.”&lt;br /&gt; &lt;br /&gt; He walks away, a shadow among the shifting snowdrifts, leaving you clutching the cold, weighty Bronze Armour. The father’s words carve deep into your heart, the tale of betrayal, love, rage, and cruelty echoing in your mind. &lt;br /&gt; &lt;br /&gt; Trix’s stories of a monster suddenly make more sense. It was not some creature of legend; it was a man broken by grief, consumed by regret. The revelation hits you with a brutal clarity, and a tear slips down your cheek, warm against the icy wind. In this world, love, no matter how forbidden or pure, comes at a price.</t>
+  </si>
+  <si>
+    <t>Bloody memories</t>
+  </si>
+  <si>
+    <t>Bloody Tunic</t>
+  </si>
+  <si>
+    <t>You found a scarf for Trix in the old, abandoned village where you discovered Mrs. Piper’s toys. With the scarf in hand, you make your way to The Wreck, where you spot The Soldier’s Brother searching the area. He notices you and approaches.&lt;br /&gt; &lt;br /&gt; “Did the sword help?” he asks, his tone cautious. You nod and begin to tell him about meeting their father.&lt;br /&gt; &lt;br /&gt; “My father?” he repeats, a note of disbelief in his voice.&lt;br /&gt; &lt;br /&gt; You recount how you spoke to his brother and were eventually led to their father, describing the grim encounter—his father with coal for eyes, consumed by hatred. You carefully mention that you know about him and his brother, how their father discovered it, but stop short of revealing that it led to both his and Trix’s deaths.&lt;br /&gt; &lt;br /&gt; The Soldier’s Brother’s expression shifts from surprise to horror as he steps back.&lt;br /&gt; &lt;br /&gt; “I don’t know what apparition you spoke to, but none of that is true, child!” he exclaims. You ask him why, then, was his brother banished, and why their father is dead.&lt;br /&gt; &lt;br /&gt; “THAT’S NOT MY FATHER!” he shouts, turning sharply away and storming back to The Wreck, resuming his search.&lt;br /&gt; &lt;br /&gt; You try to reach out to him, but he waves you off, refusing to engage. “Leave me alone while I search for something for Trix,” he mutters.&lt;br /&gt; &lt;br /&gt; Clutching the scarf, you stand there, uncertain of what to do next.</t>
+  </si>
+  <si>
+    <t>You return to The Wreck holding a blood-soaked tunic, a hole through the stomach, stained and soiled. The Soldiers Brother is still searching, but after a moment, he slumps down by the heap of metal. You sit beside him, and neither of you speaks. The silence of the afternoon deepens, the chill settling around you both.&lt;br /&gt; &lt;br /&gt; After a while, you ask him if he had any luck finding what he was looking for. He shows you a pair of boots, clearly intended for Trix. "They’re for Trix," he explains. "He needs new shoes to keep warm."&lt;br /&gt; &lt;br /&gt; Then, after a long pause, he looks at you. "What did you find?"&lt;br /&gt; &lt;br /&gt; You hand him the tunic. He takes it and holds it, his expression darkening as he recognizes it.&lt;br /&gt; &lt;br /&gt; "This... this is from that night," he says, his voice thick with fear and frustration. "You can't tell Trix!" he pleads. "It would break him."&lt;br /&gt; &lt;br /&gt; You promise you won’t. "What do you remember of that night?" you ask quietly, your voice trailing off as you can't bring yourself to say it—*the night he died.*&lt;br /&gt; &lt;br /&gt; “My father was angry. Very angry. Yelling, screaming," he begins, his voice distant, as if he's reliving the moment. "He had just told my brother to head to another Federation camp. I never saw him after that because of what happened. I tried to explain to my father, but he refused to listen. He called me sick, perverted, disgusting—*godless*—and said I was no son of his. That’s when I felt it—the sharp pain, the warm blood. I looked down, and I knew what had happened. I knew the end was near. Darkness came soon after that as I lay on the floor. My father was breathing heavily with rage, looking down at me with hatred in his eyes. That’s the last thing I remember. Then I woke up on the broken road, not far from the gas station."&lt;br /&gt; &lt;br /&gt; You ask him how he found Trix, if he was by a snowman.&lt;br /&gt; &lt;br /&gt; He looks at you, surprised. "How did you know?" he asks. You shrug, telling him it doesn't matter, but his answer would help put the pieces together.&lt;br /&gt; &lt;br /&gt; After a moment of silence, he asks, "What brings you to this land, child?"&lt;br /&gt; &lt;br /&gt; You think for a moment before answering. "The Child," you say. "I want to know more about The Child, now known as The Creator. Why is he The Creator? What did he create? Why did he escape Purgatory? Why did The Poet lock him away? And most importantly, how did The Shattering happen? How did one being escaping Purgatory shatter an entire world? I have so many questions, but I never seem to get any answers."&lt;br /&gt; &lt;br /&gt; He looks at you, his gaze softening. He places his hand gently on your lap. "I am here because I miss my brother," he says quietly. "I miss his touch, I miss his warmth."&lt;br /&gt; &lt;br /&gt; You both lock eyes for a moment, and then, before you can fully process, he leans in and softly kisses you on the lips. "I miss his smile."&lt;br /&gt; &lt;br /&gt; The two of you sit in silence, the moment hanging between you like a question neither of you knows how to answer. Maybe he’s just lonely, you think. Of course, he's lonely—he just told you as much.&lt;br /&gt; &lt;br /&gt; After a long time, he pulls back, apologizing. You tell him he has nothing to apologize for. More time passes, the cold winter air settling in, and finally, you both stand. You tell him you need to head back to Trix, that he’s looking for the scarf and boots, and ask if he wants to come with you, since Trix is looking for him.&lt;br /&gt; &lt;br /&gt; "You go," he says quietly. "Maybe he has answers to what you seek, maybe he doesn’t. But he needs company. Before I met him, he was alone for a long time—alone, afraid, scarred, and crying. I don’t want him to be alone. He’s like family to me. I need you to protect him, to care for him. I have something I have to do, somewhere I have to be."&lt;br /&gt; &lt;br /&gt; He turns and begins walking away. Then, he stops and turns back to you.&lt;br /&gt; &lt;br /&gt; "Remember, you can’t tell him he’s dead. He doesn’t know. I didn’t want to believe it, but... the truth hurts more when you stare it in the face. A lie is a mask, one he has to wear for now." He continues walking, leaving you standing there, caught in a difficult predicament.</t>
   </si>
   <si>
     <t>Will it Hurt?</t>
@@ -3324,7 +3471,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG224"/>
+  <dimension ref="A1:AG236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3358,7 +3505,7 @@
     <col min="24" max="24" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="36.42" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="3588.552" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="3678.245" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="5771.019" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="43.561" bestFit="true" customWidth="true" style="0"/>
@@ -9156,13 +9303,13 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B139" t="s">
         <v>654</v>
       </c>
       <c r="C139" t="s">
-        <v>592</v>
+        <v>645</v>
       </c>
       <c r="E139" t="s">
         <v>655</v>
@@ -9171,19 +9318,19 @@
         <v>656</v>
       </c>
       <c r="N139">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="O139">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P139">
         <v>10000</v>
       </c>
       <c r="Q139">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="U139" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="V139" t="s">
         <v>657</v>
@@ -9200,93 +9347,78 @@
       <c r="AE139">
         <v>3</v>
       </c>
-      <c r="AF139" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG139">
-        <v>25</v>
-      </c>
     </row>
     <row r="140" spans="1:33">
       <c r="A140">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B140" t="s">
         <v>660</v>
       </c>
       <c r="C140" t="s">
-        <v>592</v>
+        <v>645</v>
       </c>
       <c r="H140" t="s">
         <v>661</v>
       </c>
-      <c r="I140">
-        <v>15000</v>
-      </c>
-      <c r="J140">
+      <c r="N140">
         <v>100</v>
       </c>
-      <c r="M140" t="s">
-        <v>662</v>
-      </c>
-      <c r="N140">
+      <c r="O140">
+        <v>20</v>
+      </c>
+      <c r="P140">
         <v>10000</v>
       </c>
-      <c r="O140">
-        <v>500</v>
-      </c>
-      <c r="P140">
-        <v>100000</v>
-      </c>
       <c r="Q140">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U140" t="s">
         <v>654</v>
       </c>
+      <c r="V140" t="s">
+        <v>662</v>
+      </c>
       <c r="AA140" t="s">
         <v>663</v>
       </c>
       <c r="AB140" t="s">
         <v>664</v>
       </c>
+      <c r="AE140">
+        <v>3</v>
+      </c>
     </row>
     <row r="141" spans="1:33">
       <c r="A141">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="B141" t="s">
         <v>665</v>
       </c>
       <c r="C141" t="s">
-        <v>244</v>
+        <v>645</v>
+      </c>
+      <c r="E141" t="s">
+        <v>660</v>
       </c>
       <c r="H141" t="s">
-        <v>640</v>
-      </c>
-      <c r="I141">
-        <v>100</v>
-      </c>
-      <c r="J141">
+        <v>666</v>
+      </c>
+      <c r="N141">
         <v>5000</v>
       </c>
-      <c r="M141" t="s">
-        <v>666</v>
-      </c>
-      <c r="N141">
-        <v>25</v>
-      </c>
       <c r="O141">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="P141">
-        <v>150</v>
+        <v>15000</v>
       </c>
       <c r="Q141">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="U141" t="s">
-        <v>591</v>
+        <v>644</v>
       </c>
       <c r="AA141" t="s">
         <v>667</v>
@@ -9294,184 +9426,187 @@
       <c r="AB141" t="s">
         <v>668</v>
       </c>
+      <c r="AD141" t="s">
+        <v>660</v>
+      </c>
       <c r="AE141">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:33">
       <c r="A142">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="B142" t="s">
         <v>669</v>
       </c>
       <c r="C142" t="s">
+        <v>592</v>
+      </c>
+      <c r="H142" t="s">
         <v>670</v>
       </c>
-      <c r="E142" t="s">
-        <v>671</v>
-      </c>
-      <c r="I142">
-        <v>125</v>
-      </c>
-      <c r="J142">
+      <c r="N142">
         <v>2000</v>
       </c>
-      <c r="M142" t="s">
-        <v>672</v>
-      </c>
-      <c r="N142">
-        <v>75</v>
-      </c>
       <c r="O142">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="P142">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="Q142">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U142" t="s">
         <v>665</v>
       </c>
       <c r="AA142" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AB142" t="s">
-        <v>674</v>
-      </c>
-      <c r="AD142" t="s">
-        <v>671</v>
-      </c>
-      <c r="AE142">
-        <v>3</v>
+        <v>672</v>
       </c>
     </row>
     <row r="143" spans="1:33">
       <c r="A143">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="B143" t="s">
+        <v>673</v>
+      </c>
+      <c r="C143" t="s">
+        <v>592</v>
+      </c>
+      <c r="E143" t="s">
+        <v>674</v>
+      </c>
+      <c r="H143" t="s">
         <v>675</v>
       </c>
-      <c r="C143" t="s">
+      <c r="N143">
+        <v>250</v>
+      </c>
+      <c r="O143">
+        <v>50</v>
+      </c>
+      <c r="P143">
+        <v>10000</v>
+      </c>
+      <c r="Q143">
+        <v>160</v>
+      </c>
+      <c r="U143" t="s">
+        <v>633</v>
+      </c>
+      <c r="V143" t="s">
         <v>676</v>
       </c>
-      <c r="H143" t="s">
+      <c r="AA143" t="s">
         <v>677</v>
       </c>
-      <c r="I143">
-        <v>125</v>
-      </c>
-      <c r="J143">
-        <v>1500</v>
-      </c>
-      <c r="N143">
-        <v>75</v>
-      </c>
-      <c r="O143">
-        <v>10</v>
-      </c>
-      <c r="Q143">
-        <v>100</v>
-      </c>
-      <c r="U143" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA143" t="s">
+      <c r="AB143" t="s">
         <v>678</v>
       </c>
-      <c r="AB143" t="s">
-        <v>679</v>
+      <c r="AD143" t="s">
+        <v>674</v>
       </c>
       <c r="AE143">
         <v>3</v>
       </c>
+      <c r="AF143" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG143">
+        <v>25</v>
+      </c>
     </row>
     <row r="144" spans="1:33">
       <c r="A144">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="B144" t="s">
+        <v>679</v>
+      </c>
+      <c r="C144" t="s">
+        <v>592</v>
+      </c>
+      <c r="H144" t="s">
         <v>680</v>
       </c>
-      <c r="C144" t="s">
-        <v>676</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="I144">
+        <v>15000</v>
+      </c>
+      <c r="J144">
+        <v>100</v>
+      </c>
+      <c r="M144" t="s">
         <v>681</v>
       </c>
-      <c r="I144">
-        <v>125</v>
-      </c>
-      <c r="J144">
-        <v>1500</v>
-      </c>
       <c r="N144">
-        <v>75</v>
+        <v>10000</v>
       </c>
       <c r="O144">
-        <v>10</v>
+        <v>500</v>
+      </c>
+      <c r="P144">
+        <v>100000</v>
       </c>
       <c r="Q144">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U144" t="s">
-        <v>675</v>
-      </c>
-      <c r="V144" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA144" t="s">
         <v>682</v>
       </c>
-      <c r="AA144" t="s">
+      <c r="AB144" t="s">
         <v>683</v>
-      </c>
-      <c r="AB144" t="s">
-        <v>684</v>
-      </c>
-      <c r="AE144">
-        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:33">
       <c r="A145">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B145" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C145" t="s">
-        <v>676</v>
+        <v>244</v>
       </c>
       <c r="H145" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="I145">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J145">
         <v>5000</v>
       </c>
       <c r="M145" t="s">
+        <v>685</v>
+      </c>
+      <c r="N145">
+        <v>25</v>
+      </c>
+      <c r="O145">
+        <v>2</v>
+      </c>
+      <c r="P145">
+        <v>150</v>
+      </c>
+      <c r="Q145">
+        <v>250</v>
+      </c>
+      <c r="U145" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB145" t="s">
         <v>687</v>
-      </c>
-      <c r="N145">
-        <v>75</v>
-      </c>
-      <c r="O145">
-        <v>10</v>
-      </c>
-      <c r="Q145">
-        <v>100</v>
-      </c>
-      <c r="U145" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA145" t="s">
-        <v>688</v>
-      </c>
-      <c r="AB145" t="s">
-        <v>689</v>
       </c>
       <c r="AE145">
         <v>3</v>
@@ -9479,22 +9614,22 @@
     </row>
     <row r="146" spans="1:33">
       <c r="A146">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B146" t="s">
+        <v>688</v>
+      </c>
+      <c r="C146" t="s">
+        <v>689</v>
+      </c>
+      <c r="E146" t="s">
         <v>690</v>
-      </c>
-      <c r="C146" t="s">
-        <v>676</v>
-      </c>
-      <c r="H146" t="s">
-        <v>687</v>
       </c>
       <c r="I146">
         <v>125</v>
       </c>
       <c r="J146">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M146" t="s">
         <v>691</v>
@@ -9505,11 +9640,14 @@
       <c r="O146">
         <v>10</v>
       </c>
+      <c r="P146">
+        <v>200</v>
+      </c>
       <c r="Q146">
         <v>100</v>
       </c>
       <c r="U146" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="AA146" t="s">
         <v>692</v>
@@ -9517,52 +9655,49 @@
       <c r="AB146" t="s">
         <v>693</v>
       </c>
+      <c r="AD146" t="s">
+        <v>690</v>
+      </c>
       <c r="AE146">
         <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:33">
       <c r="A147">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B147" t="s">
         <v>694</v>
       </c>
       <c r="C147" t="s">
-        <v>670</v>
-      </c>
-      <c r="E147" t="s">
-        <v>690</v>
+        <v>695</v>
+      </c>
+      <c r="H147" t="s">
+        <v>696</v>
+      </c>
+      <c r="I147">
+        <v>125</v>
+      </c>
+      <c r="J147">
+        <v>1500</v>
       </c>
       <c r="N147">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O147">
-        <v>25</v>
-      </c>
-      <c r="P147">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q147">
         <v>100</v>
       </c>
       <c r="U147" t="s">
-        <v>690</v>
-      </c>
-      <c r="W147" t="s">
-        <v>695</v>
-      </c>
-      <c r="X147">
-        <v>2</v>
+        <v>688</v>
       </c>
       <c r="AA147" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AB147" t="s">
-        <v>697</v>
-      </c>
-      <c r="AD147" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="AE147">
         <v>3</v>
@@ -9570,22 +9705,28 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B148" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C148" t="s">
-        <v>592</v>
+        <v>695</v>
+      </c>
+      <c r="H148" t="s">
+        <v>700</v>
+      </c>
+      <c r="I148">
+        <v>125</v>
+      </c>
+      <c r="J148">
+        <v>1500</v>
       </c>
       <c r="N148">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O148">
-        <v>25</v>
-      </c>
-      <c r="P148">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q148">
         <v>100</v>
@@ -9593,17 +9734,14 @@
       <c r="U148" t="s">
         <v>694</v>
       </c>
-      <c r="W148" t="s">
-        <v>695</v>
-      </c>
-      <c r="X148">
-        <v>4</v>
+      <c r="V148" t="s">
+        <v>701</v>
       </c>
       <c r="AA148" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="AB148" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="AE148">
         <v>3</v>
@@ -9611,40 +9749,43 @@
     </row>
     <row r="149" spans="1:33">
       <c r="A149">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B149" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C149" t="s">
-        <v>244</v>
+        <v>695</v>
+      </c>
+      <c r="H149" t="s">
+        <v>705</v>
+      </c>
+      <c r="I149">
+        <v>125</v>
+      </c>
+      <c r="J149">
+        <v>5000</v>
+      </c>
+      <c r="M149" t="s">
+        <v>706</v>
       </c>
       <c r="N149">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O149">
-        <v>50</v>
-      </c>
-      <c r="P149">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Q149">
         <v>100</v>
       </c>
       <c r="U149" t="s">
-        <v>698</v>
-      </c>
-      <c r="W149" t="s">
-        <v>695</v>
-      </c>
-      <c r="X149">
-        <v>5</v>
+        <v>699</v>
       </c>
       <c r="AA149" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AB149" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AE149">
         <v>3</v>
@@ -9652,102 +9793,90 @@
     </row>
     <row r="150" spans="1:33">
       <c r="A150">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="B150" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C150" t="s">
-        <v>705</v>
-      </c>
-      <c r="E150" t="s">
+        <v>695</v>
+      </c>
+      <c r="H150" t="s">
         <v>706</v>
       </c>
-      <c r="H150" t="s">
-        <v>707</v>
-      </c>
       <c r="I150">
-        <v>1000</v>
-      </c>
-      <c r="K150">
+        <v>125</v>
+      </c>
+      <c r="J150">
         <v>10000</v>
       </c>
+      <c r="M150" t="s">
+        <v>710</v>
+      </c>
       <c r="N150">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="O150">
+        <v>10</v>
+      </c>
+      <c r="Q150">
         <v>100</v>
       </c>
-      <c r="P150">
-        <v>100000</v>
-      </c>
-      <c r="Q150">
-        <v>300</v>
-      </c>
       <c r="U150" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="AA150" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="AB150" t="s">
-        <v>709</v>
-      </c>
-      <c r="AD150" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="AE150">
         <v>3</v>
       </c>
-      <c r="AF150" t="s">
-        <v>705</v>
-      </c>
-      <c r="AG150">
-        <v>5</v>
-      </c>
     </row>
     <row r="151" spans="1:33">
       <c r="A151">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B151" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C151" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="E151" t="s">
-        <v>665</v>
-      </c>
-      <c r="I151">
-        <v>125</v>
-      </c>
-      <c r="J151">
+        <v>709</v>
+      </c>
+      <c r="N151">
         <v>100</v>
       </c>
-      <c r="N151">
-        <v>75</v>
-      </c>
       <c r="O151">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P151">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q151">
         <v>100</v>
       </c>
       <c r="U151" t="s">
-        <v>591</v>
+        <v>709</v>
+      </c>
+      <c r="W151" t="s">
+        <v>714</v>
+      </c>
+      <c r="X151">
+        <v>2</v>
       </c>
       <c r="AA151" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="AB151" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="AD151" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="AE151">
         <v>3</v>
@@ -9755,43 +9884,40 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B152" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C152" t="s">
-        <v>670</v>
-      </c>
-      <c r="H152" t="s">
-        <v>714</v>
-      </c>
-      <c r="I152">
-        <v>125</v>
-      </c>
-      <c r="J152">
-        <v>500</v>
+        <v>592</v>
       </c>
       <c r="N152">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O152">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P152">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q152">
         <v>100</v>
       </c>
       <c r="U152" t="s">
-        <v>710</v>
+        <v>713</v>
+      </c>
+      <c r="W152" t="s">
+        <v>714</v>
+      </c>
+      <c r="X152">
+        <v>4</v>
       </c>
       <c r="AA152" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="AB152" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="AE152">
         <v>3</v>
@@ -9799,40 +9925,40 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B153" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C153" t="s">
-        <v>670</v>
-      </c>
-      <c r="I153">
+        <v>244</v>
+      </c>
+      <c r="N153">
         <v>125</v>
       </c>
-      <c r="J153">
-        <v>500</v>
-      </c>
-      <c r="N153">
-        <v>75</v>
-      </c>
       <c r="O153">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P153">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Q153">
         <v>100</v>
       </c>
       <c r="U153" t="s">
-        <v>713</v>
+        <v>717</v>
+      </c>
+      <c r="W153" t="s">
+        <v>714</v>
+      </c>
+      <c r="X153">
+        <v>5</v>
       </c>
       <c r="AA153" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="AB153" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="AE153">
         <v>3</v>
@@ -9840,151 +9966,172 @@
     </row>
     <row r="154" spans="1:33">
       <c r="A154">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="B154" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="C154" t="s">
-        <v>670</v>
+        <v>723</v>
+      </c>
+      <c r="E154" t="s">
+        <v>724</v>
       </c>
       <c r="H154" t="s">
-        <v>671</v>
+        <v>725</v>
       </c>
       <c r="I154">
-        <v>125</v>
-      </c>
-      <c r="J154">
         <v>1000</v>
       </c>
+      <c r="K154">
+        <v>10000</v>
+      </c>
       <c r="N154">
-        <v>75</v>
+        <v>2000</v>
       </c>
       <c r="O154">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P154">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="Q154">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U154" t="s">
-        <v>717</v>
+        <v>688</v>
       </c>
       <c r="AA154" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="AB154" t="s">
-        <v>721</v>
+        <v>727</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE154">
+        <v>3</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>723</v>
+      </c>
+      <c r="AG154">
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:33">
       <c r="A155">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B155" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C155" t="s">
-        <v>670</v>
+        <v>723</v>
       </c>
       <c r="E155" t="s">
-        <v>723</v>
-      </c>
-      <c r="H155" t="s">
-        <v>724</v>
-      </c>
-      <c r="M155" t="s">
-        <v>725</v>
+        <v>669</v>
       </c>
       <c r="N155">
+        <v>10000</v>
+      </c>
+      <c r="O155">
         <v>1000</v>
       </c>
-      <c r="O155">
+      <c r="P155">
+        <v>100000</v>
+      </c>
+      <c r="Q155">
         <v>500</v>
       </c>
-      <c r="P155">
-        <v>10000</v>
-      </c>
-      <c r="Q155">
-        <v>250</v>
-      </c>
       <c r="U155" t="s">
-        <v>713</v>
+        <v>655</v>
       </c>
       <c r="AA155" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="AB155" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="AD155" t="s">
-        <v>723</v>
+        <v>669</v>
       </c>
       <c r="AE155">
         <v>3</v>
       </c>
+      <c r="AF155" t="s">
+        <v>723</v>
+      </c>
+      <c r="AG155">
+        <v>15</v>
+      </c>
     </row>
     <row r="156" spans="1:33">
       <c r="A156">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B156" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
-      </c>
-      <c r="H156" t="s">
-        <v>725</v>
-      </c>
-      <c r="M156" t="s">
-        <v>657</v>
+        <v>723</v>
+      </c>
+      <c r="N156">
+        <v>50000</v>
+      </c>
+      <c r="O156">
+        <v>25000</v>
       </c>
       <c r="P156">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="Q156">
         <v>500</v>
       </c>
       <c r="U156" t="s">
-        <v>722</v>
-      </c>
-      <c r="V156" t="s">
         <v>728</v>
       </c>
       <c r="AA156" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="AB156" t="s">
-        <v>730</v>
-      </c>
-      <c r="AE156">
-        <v>3</v>
+        <v>733</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>723</v>
+      </c>
+      <c r="AG156">
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:33">
       <c r="A157">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B157" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C157" t="s">
-        <v>592</v>
+        <v>689</v>
       </c>
       <c r="E157" t="s">
-        <v>701</v>
+        <v>684</v>
+      </c>
+      <c r="I157">
+        <v>125</v>
+      </c>
+      <c r="J157">
+        <v>100</v>
       </c>
       <c r="N157">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O157">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P157">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q157">
         <v>100</v>
@@ -9993,336 +10140,318 @@
         <v>591</v>
       </c>
       <c r="AA157" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="AB157" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AD157" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="AE157">
         <v>3</v>
       </c>
-      <c r="AF157" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG157">
-        <v>5</v>
-      </c>
     </row>
     <row r="158" spans="1:33">
       <c r="A158">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B158" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C158" t="s">
-        <v>592</v>
+        <v>689</v>
+      </c>
+      <c r="H158" t="s">
+        <v>738</v>
+      </c>
+      <c r="I158">
+        <v>125</v>
+      </c>
+      <c r="J158">
+        <v>500</v>
       </c>
       <c r="N158">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O158">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P158">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q158">
         <v>100</v>
       </c>
       <c r="U158" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AA158" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="AB158" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="AE158">
         <v>3</v>
       </c>
-      <c r="AF158" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG158">
-        <v>10</v>
-      </c>
     </row>
     <row r="159" spans="1:33">
       <c r="A159">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B159" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C159" t="s">
-        <v>592</v>
+        <v>689</v>
+      </c>
+      <c r="I159">
+        <v>125</v>
+      </c>
+      <c r="J159">
+        <v>500</v>
       </c>
       <c r="N159">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O159">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P159">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q159">
         <v>100</v>
       </c>
       <c r="U159" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AA159" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="AB159" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="AE159">
         <v>3</v>
       </c>
-      <c r="AF159" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG159">
-        <v>15</v>
-      </c>
     </row>
     <row r="160" spans="1:33">
       <c r="A160">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B160" t="s">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="C160" t="s">
-        <v>592</v>
+        <v>689</v>
+      </c>
+      <c r="H160" t="s">
+        <v>690</v>
+      </c>
+      <c r="I160">
+        <v>125</v>
+      </c>
+      <c r="J160">
+        <v>1000</v>
       </c>
       <c r="N160">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="O160">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P160">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q160">
         <v>100</v>
       </c>
       <c r="U160" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AA160" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="AB160" t="s">
-        <v>742</v>
-      </c>
-      <c r="AE160">
-        <v>3</v>
-      </c>
-      <c r="AF160" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG160">
-        <v>20</v>
+        <v>745</v>
       </c>
     </row>
     <row r="161" spans="1:33">
       <c r="A161">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="B161" t="s">
-        <v>646</v>
+        <v>746</v>
       </c>
       <c r="C161" t="s">
-        <v>592</v>
-      </c>
-      <c r="M161" t="s">
-        <v>743</v>
+        <v>695</v>
+      </c>
+      <c r="E161" t="s">
+        <v>654</v>
+      </c>
+      <c r="H161" t="s">
+        <v>747</v>
       </c>
       <c r="N161">
-        <v>175</v>
+        <v>5000</v>
       </c>
       <c r="O161">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="P161">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="Q161">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U161" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="V161" t="s">
+        <v>748</v>
       </c>
       <c r="AA161" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="AB161" t="s">
-        <v>745</v>
+        <v>750</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>654</v>
       </c>
       <c r="AE161">
         <v>3</v>
       </c>
-      <c r="AF161" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG161">
-        <v>25</v>
-      </c>
     </row>
     <row r="162" spans="1:33">
       <c r="A162">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B162" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="C162" t="s">
-        <v>244</v>
-      </c>
-      <c r="E162" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="H162" t="s">
+        <v>752</v>
+      </c>
+      <c r="N162">
+        <v>700</v>
+      </c>
+      <c r="O162">
+        <v>10</v>
+      </c>
+      <c r="P162">
+        <v>150000</v>
+      </c>
+      <c r="Q162">
+        <v>150</v>
+      </c>
+      <c r="U162" t="s">
         <v>746</v>
       </c>
-      <c r="I162">
-        <v>10000</v>
-      </c>
-      <c r="K162">
-        <v>1000000</v>
-      </c>
-      <c r="N162">
-        <v>20000</v>
-      </c>
-      <c r="O162">
-        <v>200</v>
-      </c>
-      <c r="P162">
-        <v>2000000</v>
-      </c>
-      <c r="Q162">
-        <v>300</v>
-      </c>
-      <c r="U162" t="s">
-        <v>734</v>
+      <c r="V162" t="s">
+        <v>753</v>
       </c>
       <c r="AA162" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="AB162" t="s">
-        <v>748</v>
-      </c>
-      <c r="AD162" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
       <c r="AE162">
         <v>3</v>
       </c>
-      <c r="AF162" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG162">
-        <v>10</v>
-      </c>
     </row>
     <row r="163" spans="1:33">
       <c r="A163">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B163" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C163" t="s">
-        <v>244</v>
-      </c>
-      <c r="H163" t="s">
-        <v>662</v>
-      </c>
-      <c r="I163">
+        <v>695</v>
+      </c>
+      <c r="M163" t="s">
+        <v>661</v>
+      </c>
+      <c r="N163">
         <v>10000</v>
       </c>
-      <c r="M163" t="s">
-        <v>707</v>
-      </c>
-      <c r="N163">
-        <v>3000</v>
-      </c>
       <c r="O163">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="P163">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="Q163">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U163" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="AA163" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="AB163" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="AE163">
         <v>3</v>
       </c>
       <c r="AF163" t="s">
-        <v>244</v>
+        <v>695</v>
       </c>
       <c r="AG163">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:33">
       <c r="A164">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B164" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C164" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="E164" t="s">
-        <v>644</v>
+        <v>760</v>
       </c>
       <c r="H164" t="s">
-        <v>753</v>
+        <v>761</v>
+      </c>
+      <c r="M164" t="s">
+        <v>762</v>
       </c>
       <c r="N164">
+        <v>1000</v>
+      </c>
+      <c r="O164">
         <v>500</v>
       </c>
-      <c r="O164">
-        <v>25</v>
-      </c>
       <c r="P164">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q164">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="U164" t="s">
-        <v>591</v>
+        <v>737</v>
       </c>
       <c r="AA164" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="AB164" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AD164" t="s">
-        <v>644</v>
+        <v>760</v>
       </c>
       <c r="AE164">
         <v>3</v>
@@ -10330,40 +10459,37 @@
     </row>
     <row r="165" spans="1:33">
       <c r="A165">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B165" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="C165" t="s">
-        <v>670</v>
+        <v>32</v>
       </c>
       <c r="H165" t="s">
-        <v>706</v>
+        <v>762</v>
       </c>
       <c r="M165" t="s">
-        <v>651</v>
-      </c>
-      <c r="N165">
-        <v>800</v>
-      </c>
-      <c r="O165">
-        <v>50</v>
+        <v>676</v>
       </c>
       <c r="P165">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q165">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="U165" t="s">
-        <v>752</v>
+        <v>759</v>
+      </c>
+      <c r="V165" t="s">
+        <v>765</v>
       </c>
       <c r="AA165" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="AB165" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="AE165">
         <v>3</v>
@@ -10371,140 +10497,131 @@
     </row>
     <row r="166" spans="1:33">
       <c r="A166">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="B166" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="C166" t="s">
-        <v>592</v>
-      </c>
-      <c r="D166" t="s">
+        <v>769</v>
+      </c>
+      <c r="K166">
+        <v>1000000</v>
+      </c>
+      <c r="N166">
+        <v>2500</v>
+      </c>
+      <c r="O166">
+        <v>100</v>
+      </c>
+      <c r="P166">
+        <v>500000</v>
+      </c>
+      <c r="Q166">
+        <v>200</v>
+      </c>
+      <c r="U166" t="s">
         <v>759</v>
       </c>
-      <c r="E166" t="s">
-        <v>685</v>
-      </c>
-      <c r="I166">
-        <v>125</v>
-      </c>
-      <c r="J166">
-        <v>25000</v>
-      </c>
-      <c r="N166">
-        <v>75</v>
-      </c>
-      <c r="O166">
-        <v>10</v>
-      </c>
-      <c r="P166">
-        <v>200</v>
-      </c>
-      <c r="Q166">
-        <v>100</v>
-      </c>
-      <c r="T166">
-        <v>1</v>
-      </c>
       <c r="AA166" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="AB166" t="s">
-        <v>761</v>
-      </c>
-      <c r="AC166" t="s">
-        <v>759</v>
-      </c>
-      <c r="AD166" t="s">
-        <v>685</v>
-      </c>
-      <c r="AE166">
-        <v>3</v>
+        <v>771</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>769</v>
+      </c>
+      <c r="AG166">
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:33">
       <c r="A167">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="B167" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="C167" t="s">
-        <v>592</v>
+        <v>769</v>
       </c>
       <c r="H167" t="s">
-        <v>763</v>
-      </c>
-      <c r="I167">
-        <v>125</v>
-      </c>
-      <c r="J167">
-        <v>5000</v>
+        <v>773</v>
+      </c>
+      <c r="M167" t="s">
+        <v>765</v>
       </c>
       <c r="N167">
-        <v>75</v>
+        <v>10000</v>
       </c>
       <c r="O167">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="P167">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="Q167">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="U167" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="AA167" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="AB167" t="s">
-        <v>765</v>
-      </c>
-      <c r="AE167">
-        <v>3</v>
+        <v>775</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>769</v>
+      </c>
+      <c r="AG167">
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:33">
       <c r="A168">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="B168" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="C168" t="s">
-        <v>592</v>
+        <v>689</v>
+      </c>
+      <c r="E168" t="s">
+        <v>654</v>
       </c>
       <c r="H168" t="s">
-        <v>767</v>
-      </c>
-      <c r="I168">
-        <v>125</v>
-      </c>
-      <c r="J168">
-        <v>10000</v>
+        <v>777</v>
+      </c>
+      <c r="M168" t="s">
+        <v>748</v>
       </c>
       <c r="N168">
-        <v>75</v>
+        <v>2000</v>
       </c>
       <c r="O168">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="P168">
+        <v>25000</v>
       </c>
       <c r="Q168">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U168" t="s">
-        <v>762</v>
-      </c>
-      <c r="V168" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="AA168" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="AB168" t="s">
-        <v>770</v>
+        <v>779</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>654</v>
       </c>
       <c r="AE168">
         <v>3</v>
@@ -10512,324 +10629,354 @@
     </row>
     <row r="169" spans="1:33">
       <c r="A169">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B169" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="C169" t="s">
         <v>592</v>
       </c>
-      <c r="H169" t="s">
-        <v>772</v>
-      </c>
-      <c r="I169">
-        <v>125</v>
-      </c>
-      <c r="J169">
+      <c r="E169" t="s">
+        <v>720</v>
+      </c>
+      <c r="N169">
+        <v>175</v>
+      </c>
+      <c r="O169">
+        <v>75</v>
+      </c>
+      <c r="P169">
         <v>2000</v>
-      </c>
-      <c r="P169">
-        <v>200</v>
       </c>
       <c r="Q169">
         <v>100</v>
       </c>
       <c r="U169" t="s">
-        <v>766</v>
+        <v>591</v>
       </c>
       <c r="AA169" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="AB169" t="s">
-        <v>774</v>
+        <v>782</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>720</v>
+      </c>
+      <c r="AE169">
+        <v>3</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG169">
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:33">
       <c r="A170">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B170" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="C170" t="s">
         <v>592</v>
       </c>
-      <c r="H170" t="s">
-        <v>776</v>
-      </c>
-      <c r="I170">
-        <v>125</v>
-      </c>
-      <c r="J170">
-        <v>20000</v>
+      <c r="N170">
+        <v>175</v>
+      </c>
+      <c r="O170">
+        <v>75</v>
       </c>
       <c r="P170">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="Q170">
         <v>100</v>
       </c>
       <c r="U170" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="AA170" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="AB170" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="AE170">
         <v>3</v>
       </c>
+      <c r="AF170" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG170">
+        <v>10</v>
+      </c>
     </row>
     <row r="171" spans="1:33">
       <c r="A171">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B171" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="C171" t="s">
-        <v>244</v>
-      </c>
-      <c r="H171" t="s">
-        <v>780</v>
-      </c>
-      <c r="I171">
-        <v>100</v>
-      </c>
-      <c r="J171">
-        <v>25000</v>
+        <v>592</v>
       </c>
       <c r="N171">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="O171">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="P171">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="Q171">
         <v>100</v>
       </c>
       <c r="U171" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="AA171" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="AB171" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="AE171">
         <v>3</v>
       </c>
+      <c r="AF171" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG171">
+        <v>15</v>
+      </c>
     </row>
     <row r="172" spans="1:33">
       <c r="A172">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C172" t="s">
         <v>592</v>
       </c>
-      <c r="E172" t="s">
-        <v>779</v>
-      </c>
-      <c r="H172" t="s">
-        <v>784</v>
-      </c>
-      <c r="I172">
-        <v>125</v>
-      </c>
-      <c r="J172">
-        <v>20000</v>
+      <c r="N172">
+        <v>175</v>
+      </c>
+      <c r="O172">
+        <v>75</v>
+      </c>
+      <c r="P172">
+        <v>2000</v>
       </c>
       <c r="Q172">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U172" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="AA172" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="AB172" t="s">
-        <v>786</v>
-      </c>
-      <c r="AD172" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="AE172">
         <v>3</v>
       </c>
+      <c r="AF172" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG172">
+        <v>20</v>
+      </c>
     </row>
     <row r="173" spans="1:33">
       <c r="A173">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B173" t="s">
-        <v>787</v>
+        <v>646</v>
       </c>
       <c r="C173" t="s">
         <v>592</v>
       </c>
-      <c r="I173">
-        <v>125</v>
-      </c>
-      <c r="J173">
-        <v>30000</v>
+      <c r="M173" t="s">
+        <v>792</v>
+      </c>
+      <c r="N173">
+        <v>175</v>
+      </c>
+      <c r="O173">
+        <v>75</v>
+      </c>
+      <c r="P173">
+        <v>2000</v>
       </c>
       <c r="Q173">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U173" t="s">
-        <v>783</v>
-      </c>
-      <c r="Y173">
-        <v>2</v>
+        <v>789</v>
       </c>
       <c r="AA173" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="AB173" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="AE173">
         <v>3</v>
       </c>
+      <c r="AF173" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG173">
+        <v>25</v>
+      </c>
     </row>
     <row r="174" spans="1:33">
       <c r="A174">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="B174" t="s">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="C174" t="s">
-        <v>791</v>
+        <v>244</v>
       </c>
       <c r="E174" t="s">
-        <v>396</v>
-      </c>
-      <c r="F174" t="s">
-        <v>377</v>
-      </c>
-      <c r="G174">
+        <v>724</v>
+      </c>
+      <c r="H174" t="s">
+        <v>795</v>
+      </c>
+      <c r="I174">
+        <v>10000</v>
+      </c>
+      <c r="K174">
+        <v>1000000</v>
+      </c>
+      <c r="N174">
+        <v>20000</v>
+      </c>
+      <c r="O174">
+        <v>200</v>
+      </c>
+      <c r="P174">
+        <v>2000000</v>
+      </c>
+      <c r="Q174">
+        <v>300</v>
+      </c>
+      <c r="U174" t="s">
+        <v>783</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>796</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>797</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE174">
+        <v>3</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG174">
         <v>10</v>
-      </c>
-      <c r="H174" t="s">
-        <v>792</v>
-      </c>
-      <c r="N174">
-        <v>500000</v>
-      </c>
-      <c r="O174">
-        <v>500000</v>
-      </c>
-      <c r="P174">
-        <v>2000000000</v>
-      </c>
-      <c r="Q174">
-        <v>175000</v>
-      </c>
-      <c r="T174">
-        <v>1</v>
-      </c>
-      <c r="W174" t="s">
-        <v>793</v>
-      </c>
-      <c r="X174">
-        <v>5</v>
-      </c>
-      <c r="AA174" t="s">
-        <v>794</v>
-      </c>
-      <c r="AB174" t="s">
-        <v>795</v>
-      </c>
-      <c r="AD174" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF174" t="s">
-        <v>791</v>
-      </c>
-      <c r="AG174">
-        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:33">
       <c r="A175">
+        <v>219</v>
+      </c>
+      <c r="B175" t="s">
+        <v>798</v>
+      </c>
+      <c r="C175" t="s">
+        <v>244</v>
+      </c>
+      <c r="H175" t="s">
+        <v>681</v>
+      </c>
+      <c r="I175">
+        <v>10000</v>
+      </c>
+      <c r="M175" t="s">
+        <v>725</v>
+      </c>
+      <c r="N175">
+        <v>3000</v>
+      </c>
+      <c r="O175">
+        <v>10</v>
+      </c>
+      <c r="P175">
+        <v>10000</v>
+      </c>
+      <c r="Q175">
         <v>150</v>
       </c>
-      <c r="B175" t="s">
-        <v>796</v>
-      </c>
-      <c r="C175" t="s">
-        <v>791</v>
-      </c>
-      <c r="H175" t="s">
-        <v>797</v>
-      </c>
-      <c r="N175">
-        <v>500000</v>
-      </c>
-      <c r="O175">
-        <v>500000</v>
-      </c>
-      <c r="P175">
-        <v>2000000000</v>
-      </c>
-      <c r="Q175">
-        <v>175000</v>
-      </c>
       <c r="U175" t="s">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="AA175" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AB175" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="AE175">
+        <v>3</v>
       </c>
       <c r="AF175" t="s">
-        <v>791</v>
+        <v>244</v>
       </c>
       <c r="AG175">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:33">
       <c r="A176">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="B176" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C176" t="s">
-        <v>801</v>
+        <v>689</v>
+      </c>
+      <c r="E176" t="s">
+        <v>644</v>
       </c>
       <c r="H176" t="s">
         <v>802</v>
       </c>
       <c r="N176">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="O176">
-        <v>500000</v>
+        <v>25</v>
       </c>
       <c r="P176">
-        <v>2000000000</v>
+        <v>15000</v>
       </c>
       <c r="Q176">
-        <v>175000</v>
+        <v>150</v>
       </c>
       <c r="U176" t="s">
-        <v>796</v>
+        <v>591</v>
       </c>
       <c r="AA176" t="s">
         <v>803</v>
@@ -10837,388 +10984,409 @@
       <c r="AB176" t="s">
         <v>804</v>
       </c>
-      <c r="AF176" t="s">
-        <v>801</v>
-      </c>
-      <c r="AG176">
-        <v>5</v>
+      <c r="AD176" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE176">
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:33">
       <c r="A177">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="B177" t="s">
+        <v>724</v>
+      </c>
+      <c r="C177" t="s">
+        <v>689</v>
+      </c>
+      <c r="H177" t="s">
+        <v>724</v>
+      </c>
+      <c r="M177" t="s">
+        <v>651</v>
+      </c>
+      <c r="N177">
+        <v>800</v>
+      </c>
+      <c r="O177">
+        <v>50</v>
+      </c>
+      <c r="P177">
+        <v>8000</v>
+      </c>
+      <c r="Q177">
+        <v>200</v>
+      </c>
+      <c r="U177" t="s">
+        <v>801</v>
+      </c>
+      <c r="AA177" t="s">
         <v>805</v>
       </c>
-      <c r="C177" t="s">
-        <v>801</v>
-      </c>
-      <c r="H177" t="s">
+      <c r="AB177" t="s">
         <v>806</v>
       </c>
-      <c r="N177">
-        <v>500000</v>
-      </c>
-      <c r="O177">
-        <v>500000</v>
-      </c>
-      <c r="P177">
-        <v>2000000000</v>
-      </c>
-      <c r="Q177">
-        <v>175000</v>
-      </c>
-      <c r="U177" t="s">
-        <v>800</v>
-      </c>
-      <c r="AA177" t="s">
-        <v>807</v>
-      </c>
-      <c r="AB177" t="s">
-        <v>808</v>
-      </c>
-      <c r="AF177" t="s">
-        <v>801</v>
-      </c>
-      <c r="AG177">
-        <v>10</v>
+      <c r="AE177">
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:33">
       <c r="A178">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B178" t="s">
+        <v>807</v>
+      </c>
+      <c r="C178" t="s">
+        <v>592</v>
+      </c>
+      <c r="D178" t="s">
+        <v>808</v>
+      </c>
+      <c r="E178" t="s">
+        <v>704</v>
+      </c>
+      <c r="I178">
+        <v>125</v>
+      </c>
+      <c r="J178">
+        <v>25000</v>
+      </c>
+      <c r="N178">
+        <v>75</v>
+      </c>
+      <c r="O178">
+        <v>10</v>
+      </c>
+      <c r="P178">
+        <v>200</v>
+      </c>
+      <c r="Q178">
+        <v>100</v>
+      </c>
+      <c r="T178">
+        <v>1</v>
+      </c>
+      <c r="AA178" t="s">
         <v>809</v>
       </c>
-      <c r="C178" t="s">
-        <v>801</v>
-      </c>
-      <c r="H178" t="s">
+      <c r="AB178" t="s">
         <v>810</v>
       </c>
-      <c r="N178">
-        <v>500000</v>
-      </c>
-      <c r="O178">
-        <v>500000</v>
-      </c>
-      <c r="P178">
-        <v>2000000000</v>
-      </c>
-      <c r="Q178">
-        <v>175000</v>
-      </c>
-      <c r="U178" t="s">
-        <v>805</v>
-      </c>
-      <c r="AA178" t="s">
-        <v>811</v>
-      </c>
-      <c r="AB178" t="s">
-        <v>812</v>
+      <c r="AC178" t="s">
+        <v>808</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>704</v>
+      </c>
+      <c r="AE178">
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:33">
       <c r="A179">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B179" t="s">
+        <v>811</v>
+      </c>
+      <c r="C179" t="s">
+        <v>592</v>
+      </c>
+      <c r="H179" t="s">
+        <v>812</v>
+      </c>
+      <c r="I179">
+        <v>125</v>
+      </c>
+      <c r="J179">
+        <v>5000</v>
+      </c>
+      <c r="N179">
+        <v>75</v>
+      </c>
+      <c r="O179">
+        <v>10</v>
+      </c>
+      <c r="P179">
+        <v>200</v>
+      </c>
+      <c r="Q179">
+        <v>100</v>
+      </c>
+      <c r="U179" t="s">
+        <v>807</v>
+      </c>
+      <c r="AA179" t="s">
         <v>813</v>
       </c>
-      <c r="C179" t="s">
+      <c r="AB179" t="s">
         <v>814</v>
       </c>
-      <c r="E179" t="s">
-        <v>809</v>
-      </c>
-      <c r="F179" t="s">
-        <v>796</v>
-      </c>
-      <c r="H179" t="s">
-        <v>815</v>
-      </c>
-      <c r="N179">
-        <v>500000</v>
-      </c>
-      <c r="O179">
-        <v>500000</v>
-      </c>
-      <c r="P179">
-        <v>2000000000</v>
-      </c>
-      <c r="Q179">
-        <v>175000</v>
-      </c>
-      <c r="U179" t="s">
-        <v>790</v>
-      </c>
-      <c r="AA179" t="s">
-        <v>816</v>
-      </c>
-      <c r="AB179" t="s">
-        <v>817</v>
-      </c>
-      <c r="AD179" t="s">
-        <v>809</v>
-      </c>
-      <c r="AF179" t="s">
-        <v>814</v>
-      </c>
-      <c r="AG179">
-        <v>5</v>
+      <c r="AE179">
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:33">
       <c r="A180">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B180" t="s">
+        <v>815</v>
+      </c>
+      <c r="C180" t="s">
+        <v>592</v>
+      </c>
+      <c r="H180" t="s">
+        <v>816</v>
+      </c>
+      <c r="I180">
+        <v>125</v>
+      </c>
+      <c r="J180">
+        <v>10000</v>
+      </c>
+      <c r="N180">
+        <v>75</v>
+      </c>
+      <c r="O180">
+        <v>10</v>
+      </c>
+      <c r="Q180">
+        <v>100</v>
+      </c>
+      <c r="U180" t="s">
+        <v>811</v>
+      </c>
+      <c r="V180" t="s">
+        <v>817</v>
+      </c>
+      <c r="AA180" t="s">
         <v>818</v>
       </c>
-      <c r="C180" t="s">
-        <v>814</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="AB180" t="s">
         <v>819</v>
       </c>
-      <c r="N180">
-        <v>500000</v>
-      </c>
-      <c r="O180">
-        <v>500000</v>
-      </c>
-      <c r="P180">
-        <v>2000000000</v>
-      </c>
-      <c r="Q180">
-        <v>175000</v>
-      </c>
-      <c r="U180" t="s">
-        <v>813</v>
-      </c>
-      <c r="AA180" t="s">
-        <v>820</v>
-      </c>
-      <c r="AB180" t="s">
-        <v>821</v>
-      </c>
-      <c r="AF180" t="s">
-        <v>814</v>
-      </c>
-      <c r="AG180">
-        <v>15</v>
+      <c r="AE180">
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:33">
       <c r="A181">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B181" t="s">
+        <v>820</v>
+      </c>
+      <c r="C181" t="s">
+        <v>592</v>
+      </c>
+      <c r="H181" t="s">
+        <v>821</v>
+      </c>
+      <c r="I181">
+        <v>125</v>
+      </c>
+      <c r="J181">
+        <v>2000</v>
+      </c>
+      <c r="P181">
+        <v>200</v>
+      </c>
+      <c r="Q181">
+        <v>100</v>
+      </c>
+      <c r="U181" t="s">
+        <v>815</v>
+      </c>
+      <c r="AA181" t="s">
         <v>822</v>
       </c>
-      <c r="C181" t="s">
-        <v>791</v>
-      </c>
-      <c r="H181" t="s">
+      <c r="AB181" t="s">
         <v>823</v>
-      </c>
-      <c r="U181" t="s">
-        <v>818</v>
-      </c>
-      <c r="AA181" t="s">
-        <v>824</v>
-      </c>
-      <c r="AB181" t="s">
-        <v>825</v>
-      </c>
-      <c r="AF181" t="s">
-        <v>791</v>
-      </c>
-      <c r="AG181">
-        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:33">
       <c r="A182">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B182" t="s">
+        <v>824</v>
+      </c>
+      <c r="C182" t="s">
+        <v>592</v>
+      </c>
+      <c r="H182" t="s">
+        <v>825</v>
+      </c>
+      <c r="I182">
+        <v>125</v>
+      </c>
+      <c r="J182">
+        <v>20000</v>
+      </c>
+      <c r="P182">
+        <v>200</v>
+      </c>
+      <c r="Q182">
+        <v>100</v>
+      </c>
+      <c r="U182" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA182" t="s">
         <v>826</v>
       </c>
-      <c r="C182" t="s">
-        <v>791</v>
-      </c>
-      <c r="H182" t="s">
+      <c r="AB182" t="s">
         <v>827</v>
       </c>
-      <c r="U182" t="s">
-        <v>822</v>
-      </c>
-      <c r="AA182" t="s">
-        <v>828</v>
-      </c>
-      <c r="AB182" t="s">
-        <v>829</v>
-      </c>
-      <c r="AF182" t="s">
-        <v>791</v>
-      </c>
-      <c r="AG182">
-        <v>25</v>
+      <c r="AE182">
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:33">
       <c r="A183">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B183" t="s">
+        <v>828</v>
+      </c>
+      <c r="C183" t="s">
+        <v>244</v>
+      </c>
+      <c r="H183" t="s">
+        <v>829</v>
+      </c>
+      <c r="I183">
+        <v>100</v>
+      </c>
+      <c r="J183">
+        <v>25000</v>
+      </c>
+      <c r="N183">
+        <v>25</v>
+      </c>
+      <c r="O183">
+        <v>2</v>
+      </c>
+      <c r="P183">
+        <v>150</v>
+      </c>
+      <c r="Q183">
+        <v>100</v>
+      </c>
+      <c r="U183" t="s">
+        <v>824</v>
+      </c>
+      <c r="AA183" t="s">
         <v>830</v>
       </c>
-      <c r="C183" t="s">
-        <v>801</v>
-      </c>
-      <c r="H183" t="s">
+      <c r="AB183" t="s">
         <v>831</v>
       </c>
-      <c r="N183">
-        <v>500000</v>
-      </c>
-      <c r="O183">
-        <v>500000</v>
-      </c>
-      <c r="P183">
-        <v>2000000000</v>
-      </c>
-      <c r="Q183">
-        <v>175000</v>
-      </c>
-      <c r="U183" t="s">
-        <v>826</v>
-      </c>
-      <c r="AA183" t="s">
-        <v>832</v>
-      </c>
-      <c r="AB183" t="s">
-        <v>833</v>
-      </c>
-      <c r="AF183" t="s">
-        <v>801</v>
-      </c>
-      <c r="AG183">
-        <v>20</v>
+      <c r="AE183">
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:33">
       <c r="A184">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B184" t="s">
+        <v>832</v>
+      </c>
+      <c r="C184" t="s">
+        <v>592</v>
+      </c>
+      <c r="E184" t="s">
+        <v>828</v>
+      </c>
+      <c r="H184" t="s">
+        <v>833</v>
+      </c>
+      <c r="I184">
+        <v>125</v>
+      </c>
+      <c r="J184">
+        <v>20000</v>
+      </c>
+      <c r="Q184">
+        <v>200</v>
+      </c>
+      <c r="U184" t="s">
+        <v>807</v>
+      </c>
+      <c r="AA184" t="s">
         <v>834</v>
       </c>
-      <c r="C184" t="s">
-        <v>801</v>
-      </c>
-      <c r="E184" t="s">
-        <v>830</v>
-      </c>
-      <c r="F184" t="s">
-        <v>813</v>
-      </c>
-      <c r="H184" t="s">
+      <c r="AB184" t="s">
         <v>835</v>
       </c>
-      <c r="N184">
-        <v>500000</v>
-      </c>
-      <c r="O184">
-        <v>500000</v>
-      </c>
-      <c r="P184">
-        <v>2000000000</v>
-      </c>
-      <c r="Q184">
-        <v>175000</v>
-      </c>
-      <c r="U184" t="s">
-        <v>790</v>
-      </c>
-      <c r="AA184" t="s">
-        <v>836</v>
-      </c>
-      <c r="AB184" t="s">
-        <v>837</v>
-      </c>
       <c r="AD184" t="s">
-        <v>830</v>
-      </c>
-      <c r="AF184" t="s">
-        <v>801</v>
-      </c>
-      <c r="AG184">
-        <v>25</v>
+        <v>828</v>
+      </c>
+      <c r="AE184">
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:33">
       <c r="A185">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B185" t="s">
+        <v>836</v>
+      </c>
+      <c r="C185" t="s">
+        <v>592</v>
+      </c>
+      <c r="I185">
+        <v>125</v>
+      </c>
+      <c r="J185">
+        <v>30000</v>
+      </c>
+      <c r="Q185">
+        <v>500</v>
+      </c>
+      <c r="U185" t="s">
+        <v>832</v>
+      </c>
+      <c r="Y185">
+        <v>2</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>837</v>
+      </c>
+      <c r="AB185" t="s">
         <v>838</v>
       </c>
-      <c r="C185" t="s">
-        <v>839</v>
-      </c>
-      <c r="H185" t="s">
-        <v>840</v>
-      </c>
-      <c r="L185">
-        <v>150000</v>
-      </c>
-      <c r="N185">
-        <v>500000</v>
-      </c>
-      <c r="O185">
-        <v>500000</v>
-      </c>
-      <c r="P185">
-        <v>2000000000</v>
-      </c>
-      <c r="Q185">
-        <v>175000</v>
-      </c>
-      <c r="U185" t="s">
-        <v>834</v>
-      </c>
-      <c r="AA185" t="s">
-        <v>841</v>
-      </c>
-      <c r="AB185" t="s">
-        <v>842</v>
-      </c>
-      <c r="AF185" t="s">
-        <v>839</v>
-      </c>
-      <c r="AG185">
-        <v>5</v>
+      <c r="AE185">
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:33">
       <c r="A186">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B186" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C186" t="s">
-        <v>839</v>
+        <v>840</v>
+      </c>
+      <c r="E186" t="s">
+        <v>396</v>
+      </c>
+      <c r="F186" t="s">
+        <v>377</v>
+      </c>
+      <c r="G186">
+        <v>10</v>
       </c>
       <c r="H186" t="s">
-        <v>844</v>
-      </c>
-      <c r="L186">
-        <v>300000</v>
+        <v>841</v>
       </c>
       <c r="N186">
         <v>500000</v>
@@ -11232,37 +11400,43 @@
       <c r="Q186">
         <v>175000</v>
       </c>
-      <c r="U186" t="s">
-        <v>838</v>
+      <c r="T186">
+        <v>1</v>
+      </c>
+      <c r="W186" t="s">
+        <v>842</v>
+      </c>
+      <c r="X186">
+        <v>5</v>
       </c>
       <c r="AA186" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AB186" t="s">
-        <v>846</v>
+        <v>844</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>396</v>
       </c>
       <c r="AF186" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AG186">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:33">
       <c r="A187">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B187" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C187" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H187" t="s">
-        <v>848</v>
-      </c>
-      <c r="L187">
-        <v>500000</v>
+        <v>846</v>
       </c>
       <c r="N187">
         <v>500000</v>
@@ -11277,39 +11451,33 @@
         <v>175000</v>
       </c>
       <c r="U187" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="AA187" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AB187" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AF187" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AG187">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:33">
       <c r="A188">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B188" t="s">
+        <v>849</v>
+      </c>
+      <c r="C188" t="s">
+        <v>850</v>
+      </c>
+      <c r="H188" t="s">
         <v>851</v>
-      </c>
-      <c r="C188" t="s">
-        <v>791</v>
-      </c>
-      <c r="G188">
-        <v>15</v>
-      </c>
-      <c r="H188" t="s">
-        <v>852</v>
-      </c>
-      <c r="M188" t="s">
-        <v>853</v>
       </c>
       <c r="N188">
         <v>500000</v>
@@ -11324,760 +11492,724 @@
         <v>175000</v>
       </c>
       <c r="U188" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AA188" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AB188" t="s">
-        <v>855</v>
+        <v>853</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>850</v>
+      </c>
+      <c r="AG188">
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:33">
       <c r="A189">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="B189" t="s">
+        <v>854</v>
+      </c>
+      <c r="C189" t="s">
+        <v>850</v>
+      </c>
+      <c r="H189" t="s">
+        <v>855</v>
+      </c>
+      <c r="N189">
+        <v>500000</v>
+      </c>
+      <c r="O189">
+        <v>500000</v>
+      </c>
+      <c r="P189">
+        <v>2000000000</v>
+      </c>
+      <c r="Q189">
+        <v>175000</v>
+      </c>
+      <c r="U189" t="s">
+        <v>849</v>
+      </c>
+      <c r="AA189" t="s">
         <v>856</v>
       </c>
-      <c r="C189" t="s">
-        <v>839</v>
-      </c>
-      <c r="E189" t="s">
-        <v>412</v>
-      </c>
-      <c r="H189" t="s">
+      <c r="AB189" t="s">
         <v>857</v>
       </c>
-      <c r="N189">
-        <v>10000</v>
-      </c>
-      <c r="O189">
-        <v>5000</v>
-      </c>
-      <c r="P189">
-        <v>1000000</v>
-      </c>
-      <c r="Q189">
-        <v>2000</v>
-      </c>
-      <c r="U189" t="s">
-        <v>790</v>
-      </c>
-      <c r="AA189" t="s">
-        <v>858</v>
-      </c>
-      <c r="AB189" t="s">
-        <v>859</v>
-      </c>
-      <c r="AD189" t="s">
-        <v>412</v>
+      <c r="AF189" t="s">
+        <v>850</v>
+      </c>
+      <c r="AG189">
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:33">
       <c r="A190">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="B190" t="s">
+        <v>858</v>
+      </c>
+      <c r="C190" t="s">
+        <v>850</v>
+      </c>
+      <c r="H190" t="s">
+        <v>859</v>
+      </c>
+      <c r="N190">
+        <v>500000</v>
+      </c>
+      <c r="O190">
+        <v>500000</v>
+      </c>
+      <c r="P190">
+        <v>2000000000</v>
+      </c>
+      <c r="Q190">
+        <v>175000</v>
+      </c>
+      <c r="U190" t="s">
+        <v>854</v>
+      </c>
+      <c r="AA190" t="s">
         <v>860</v>
       </c>
-      <c r="C190" t="s">
-        <v>814</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="AB190" t="s">
         <v>861</v>
-      </c>
-      <c r="N190">
-        <v>20000</v>
-      </c>
-      <c r="O190">
-        <v>10000</v>
-      </c>
-      <c r="P190">
-        <v>2000000</v>
-      </c>
-      <c r="Q190">
-        <v>2500</v>
-      </c>
-      <c r="U190" t="s">
-        <v>856</v>
-      </c>
-      <c r="AA190" t="s">
-        <v>862</v>
-      </c>
-      <c r="AB190" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="191" spans="1:33">
       <c r="A191">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B191" t="s">
+        <v>862</v>
+      </c>
+      <c r="C191" t="s">
+        <v>863</v>
+      </c>
+      <c r="E191" t="s">
+        <v>858</v>
+      </c>
+      <c r="F191" t="s">
+        <v>845</v>
+      </c>
+      <c r="H191" t="s">
         <v>864</v>
       </c>
-      <c r="C191" t="s">
-        <v>791</v>
-      </c>
-      <c r="H191" t="s">
+      <c r="N191">
+        <v>500000</v>
+      </c>
+      <c r="O191">
+        <v>500000</v>
+      </c>
+      <c r="P191">
+        <v>2000000000</v>
+      </c>
+      <c r="Q191">
+        <v>175000</v>
+      </c>
+      <c r="U191" t="s">
+        <v>839</v>
+      </c>
+      <c r="AA191" t="s">
         <v>865</v>
       </c>
-      <c r="N191">
-        <v>25000</v>
-      </c>
-      <c r="O191">
-        <v>15000</v>
-      </c>
-      <c r="P191">
-        <v>25000000</v>
-      </c>
-      <c r="Q191">
-        <v>3000</v>
-      </c>
-      <c r="U191" t="s">
-        <v>860</v>
-      </c>
-      <c r="AA191" t="s">
+      <c r="AB191" t="s">
         <v>866</v>
       </c>
-      <c r="AB191" t="s">
-        <v>867</v>
+      <c r="AD191" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>863</v>
+      </c>
+      <c r="AG191">
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:33">
       <c r="A192">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="B192" t="s">
+        <v>867</v>
+      </c>
+      <c r="C192" t="s">
+        <v>863</v>
+      </c>
+      <c r="H192" t="s">
         <v>868</v>
       </c>
-      <c r="C192" t="s">
+      <c r="N192">
+        <v>500000</v>
+      </c>
+      <c r="O192">
+        <v>500000</v>
+      </c>
+      <c r="P192">
+        <v>2000000000</v>
+      </c>
+      <c r="Q192">
+        <v>175000</v>
+      </c>
+      <c r="U192" t="s">
+        <v>862</v>
+      </c>
+      <c r="AA192" t="s">
         <v>869</v>
       </c>
-      <c r="E192" t="s">
-        <v>851</v>
-      </c>
-      <c r="H192" t="s">
+      <c r="AB192" t="s">
         <v>870</v>
       </c>
-      <c r="N192">
-        <v>30000</v>
-      </c>
-      <c r="O192">
-        <v>25000</v>
-      </c>
-      <c r="P192">
-        <v>30000000</v>
-      </c>
-      <c r="Q192">
-        <v>5000</v>
-      </c>
-      <c r="U192" t="s">
-        <v>864</v>
-      </c>
-      <c r="AA192" t="s">
-        <v>871</v>
-      </c>
-      <c r="AB192" t="s">
-        <v>872</v>
-      </c>
-      <c r="AD192" t="s">
-        <v>851</v>
-      </c>
       <c r="AF192" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="AG192">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:33">
       <c r="A193">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="B193" t="s">
+        <v>871</v>
+      </c>
+      <c r="C193" t="s">
+        <v>840</v>
+      </c>
+      <c r="H193" t="s">
+        <v>872</v>
+      </c>
+      <c r="U193" t="s">
+        <v>867</v>
+      </c>
+      <c r="AA193" t="s">
         <v>873</v>
       </c>
-      <c r="C193" t="s">
-        <v>869</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
